--- a/ha-asset/01_design/01_dashboard/設計書_1.0.ログイン機能.xlsx
+++ b/ha-asset/01_design/01_dashboard/設計書_1.0.ログイン機能.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\01_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774B85A9-5E31-4182-9B57-1DCC63DA2C34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCFB47E-A926-401B-A21D-4646541D58B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8160" yWindow="645" windowWidth="20130" windowHeight="16080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="255" yWindow="945" windowWidth="20130" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -147,13 +147,6 @@
     <t>型チェック</t>
   </si>
   <si>
-    <t>ユーザIDの型が半角英数でない場合、"ユーザIDが半角英数でありません"を表示
-パスワードの型が半角英数でない場合、"パスワードが半角英数でありません"を表示</t>
-  </si>
-  <si>
-    <t>アカウント情報を検索</t>
-  </si>
-  <si>
     <t>アカウント情報チェック</t>
   </si>
   <si>
@@ -167,9 +160,6 @@
   </si>
   <si>
     <t>2.1.3.DB処理</t>
-  </si>
-  <si>
-    <t>2.1.3.1. アカウント情報検索</t>
   </si>
   <si>
     <t>SELECT</t>
@@ -425,14 +415,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>メールアドレスの入力桁数が64桁以下でない場合、"メールアドレスのが範囲外の値です"を表示
-パスワードの入力桁数が2~16桁でない場合、"パスワードのが範囲外の値です"を表示</t>
-    <rPh sb="16" eb="18">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>MAIL_ADDRESS = 入力したメールアドレス</t>
     <rPh sb="15" eb="17">
       <t>ニュウリョク</t>
@@ -491,16 +473,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>2.1.3.２. 健康情報検索</t>
-    <rPh sb="9" eb="13">
-      <t>ケンコウジョウホウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>最新健康情報検索</t>
     <rPh sb="0" eb="2">
       <t>サイシン</t>
@@ -511,34 +483,6 @@
     <rPh sb="6" eb="8">
       <t>ケンサク</t>
     </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>ログインユーザの健康情報を10件まで検索する
-2.1.3.2. 健康情報検索 参照</t>
-    <rPh sb="8" eb="12">
-      <t>ケンコウジョウホウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="32" eb="36">
-      <t>ケンコウジョウホウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>入力されたユーザIDを検索
-2.1.3.1. アカウント情報検索 参照</t>
     <phoneticPr fontId="7"/>
   </si>
   <si>
@@ -753,6 +697,64 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>メールアドレスの入力桁数が64桁以下でない場合、"メールアドレス形式ではありません"を表示
+パスワードの入力桁数が2~16桁でない場合、"パスワードのが範囲外の値です"を表示</t>
+    <rPh sb="16" eb="18">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ユーザIDの型が半角英数でない場合、"ユーザIDが半角英数でありません"を表示
+パスワードの型が半角英数でない場合、"パスワードが半角英数でありません"を表示</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>アカウント情報を検索</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2.1.3.1.アカウント情報検索 参照</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ログインユーザの健康情報を10件まで検索する
+2.1.3.2.健康情報検索 参照</t>
+    <rPh sb="8" eb="12">
+      <t>ケンコウジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="31" eb="35">
+      <t>ケンコウジョウホウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2.1.3.1.アカウント情報検索</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2.1.3.２.健康情報検索</t>
+    <rPh sb="8" eb="12">
+      <t>ケンコウジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケンサク</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -1346,58 +1348,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1419,26 +1369,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1461,16 +1393,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1482,31 +1446,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1527,6 +1482,92 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1539,50 +1580,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1896,7 +1898,9 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AC4" sqref="AC4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1965,702 +1969,702 @@
     </row>
     <row r="3" spans="1:27" ht="16.5">
       <c r="A3" s="3"/>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="55" t="s">
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="54"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="78"/>
       <c r="AA3" s="3"/>
     </row>
     <row r="4" spans="1:27" ht="16.5">
       <c r="A4" s="3"/>
-      <c r="B4" s="70">
+      <c r="B4" s="79">
         <v>43770</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="73" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="74" t="s">
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="73"/>
       <c r="AA4" s="3"/>
     </row>
     <row r="5" spans="1:27" ht="47.25" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="70">
+      <c r="B5" s="79">
         <v>43867</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="74">
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="71">
         <f>F4+0.01</f>
         <v>1.01</v>
       </c>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="73"/>
       <c r="J5" s="75" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
-      <c r="W5" s="71"/>
-      <c r="X5" s="71"/>
-      <c r="Y5" s="71"/>
-      <c r="Z5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="72"/>
+      <c r="Y5" s="72"/>
+      <c r="Z5" s="73"/>
       <c r="AA5" s="3"/>
     </row>
     <row r="6" spans="1:27" ht="48.75" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="76">
+      <c r="B6" s="74">
         <v>44087</v>
       </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="74">
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="71">
         <f>F5+0.01</f>
         <v>1.02</v>
       </c>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="73"/>
       <c r="J6" s="75" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
-      <c r="Y6" s="71"/>
-      <c r="Z6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="72"/>
+      <c r="Z6" s="73"/>
       <c r="AA6" s="3"/>
     </row>
     <row r="7" spans="1:27" ht="33" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="76">
+      <c r="B7" s="74">
         <v>44157</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="74">
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="71">
         <f>F6+0.01</f>
         <v>1.03</v>
       </c>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="73"/>
       <c r="J7" s="75" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="71"/>
-      <c r="W7" s="71"/>
-      <c r="X7" s="71"/>
-      <c r="Y7" s="71"/>
-      <c r="Z7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="73"/>
       <c r="AA7" s="3"/>
     </row>
     <row r="8" spans="1:27" ht="16.5">
       <c r="A8" s="3"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="71"/>
-      <c r="Y8" s="71"/>
-      <c r="Z8" s="72"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="73"/>
       <c r="AA8" s="3"/>
     </row>
     <row r="9" spans="1:27" ht="16.5">
       <c r="A9" s="3"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="71"/>
-      <c r="V9" s="71"/>
-      <c r="W9" s="71"/>
-      <c r="X9" s="71"/>
-      <c r="Y9" s="71"/>
-      <c r="Z9" s="72"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="73"/>
       <c r="AA9" s="3"/>
     </row>
     <row r="10" spans="1:27" ht="16.5">
       <c r="A10" s="3"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="71"/>
-      <c r="V10" s="71"/>
-      <c r="W10" s="71"/>
-      <c r="X10" s="71"/>
-      <c r="Y10" s="71"/>
-      <c r="Z10" s="72"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="73"/>
       <c r="AA10" s="3"/>
     </row>
     <row r="11" spans="1:27" ht="16.5">
       <c r="A11" s="3"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="71"/>
-      <c r="S11" s="71"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="71"/>
-      <c r="V11" s="71"/>
-      <c r="W11" s="71"/>
-      <c r="X11" s="71"/>
-      <c r="Y11" s="71"/>
-      <c r="Z11" s="72"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="72"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="72"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="73"/>
       <c r="AA11" s="3"/>
     </row>
     <row r="12" spans="1:27" ht="16.5">
       <c r="A12" s="3"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="71"/>
-      <c r="R12" s="71"/>
-      <c r="S12" s="71"/>
-      <c r="T12" s="71"/>
-      <c r="U12" s="71"/>
-      <c r="V12" s="71"/>
-      <c r="W12" s="71"/>
-      <c r="X12" s="71"/>
-      <c r="Y12" s="71"/>
-      <c r="Z12" s="72"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="72"/>
+      <c r="W12" s="72"/>
+      <c r="X12" s="72"/>
+      <c r="Y12" s="72"/>
+      <c r="Z12" s="73"/>
       <c r="AA12" s="3"/>
     </row>
     <row r="13" spans="1:27" ht="16.5">
       <c r="A13" s="3"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="71"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="71"/>
-      <c r="Y13" s="71"/>
-      <c r="Z13" s="72"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="72"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="72"/>
+      <c r="W13" s="72"/>
+      <c r="X13" s="72"/>
+      <c r="Y13" s="72"/>
+      <c r="Z13" s="73"/>
       <c r="AA13" s="3"/>
     </row>
     <row r="14" spans="1:27" ht="16.5">
       <c r="A14" s="3"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="71"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="71"/>
-      <c r="V14" s="71"/>
-      <c r="W14" s="71"/>
-      <c r="X14" s="71"/>
-      <c r="Y14" s="71"/>
-      <c r="Z14" s="72"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="72"/>
+      <c r="W14" s="72"/>
+      <c r="X14" s="72"/>
+      <c r="Y14" s="72"/>
+      <c r="Z14" s="73"/>
       <c r="AA14" s="3"/>
     </row>
     <row r="15" spans="1:27" ht="16.5">
       <c r="A15" s="3"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="71"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="71"/>
-      <c r="W15" s="71"/>
-      <c r="X15" s="71"/>
-      <c r="Y15" s="71"/>
-      <c r="Z15" s="72"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="72"/>
+      <c r="Y15" s="72"/>
+      <c r="Z15" s="73"/>
       <c r="AA15" s="3"/>
     </row>
     <row r="16" spans="1:27" ht="16.5">
       <c r="A16" s="3"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="71"/>
-      <c r="T16" s="71"/>
-      <c r="U16" s="71"/>
-      <c r="V16" s="71"/>
-      <c r="W16" s="71"/>
-      <c r="X16" s="71"/>
-      <c r="Y16" s="71"/>
-      <c r="Z16" s="72"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="73"/>
       <c r="AA16" s="3"/>
     </row>
     <row r="17" spans="1:27" ht="16.5">
       <c r="A17" s="3"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="71"/>
-      <c r="V17" s="71"/>
-      <c r="W17" s="71"/>
-      <c r="X17" s="71"/>
-      <c r="Y17" s="71"/>
-      <c r="Z17" s="72"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="72"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="72"/>
+      <c r="V17" s="72"/>
+      <c r="W17" s="72"/>
+      <c r="X17" s="72"/>
+      <c r="Y17" s="72"/>
+      <c r="Z17" s="73"/>
       <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="1:27" ht="16.5">
       <c r="A18" s="3"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71"/>
-      <c r="U18" s="71"/>
-      <c r="V18" s="71"/>
-      <c r="W18" s="71"/>
-      <c r="X18" s="71"/>
-      <c r="Y18" s="71"/>
-      <c r="Z18" s="72"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="72"/>
+      <c r="U18" s="72"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="72"/>
+      <c r="X18" s="72"/>
+      <c r="Y18" s="72"/>
+      <c r="Z18" s="73"/>
       <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="1:27" ht="16.5">
       <c r="A19" s="3"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="71"/>
-      <c r="Q19" s="71"/>
-      <c r="R19" s="71"/>
-      <c r="S19" s="71"/>
-      <c r="T19" s="71"/>
-      <c r="U19" s="71"/>
-      <c r="V19" s="71"/>
-      <c r="W19" s="71"/>
-      <c r="X19" s="71"/>
-      <c r="Y19" s="71"/>
-      <c r="Z19" s="72"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="72"/>
+      <c r="R19" s="72"/>
+      <c r="S19" s="72"/>
+      <c r="T19" s="72"/>
+      <c r="U19" s="72"/>
+      <c r="V19" s="72"/>
+      <c r="W19" s="72"/>
+      <c r="X19" s="72"/>
+      <c r="Y19" s="72"/>
+      <c r="Z19" s="73"/>
       <c r="AA19" s="3"/>
     </row>
     <row r="20" spans="1:27" ht="16.5">
       <c r="A20" s="3"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="71"/>
-      <c r="T20" s="71"/>
-      <c r="U20" s="71"/>
-      <c r="V20" s="71"/>
-      <c r="W20" s="71"/>
-      <c r="X20" s="71"/>
-      <c r="Y20" s="71"/>
-      <c r="Z20" s="72"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="72"/>
+      <c r="S20" s="72"/>
+      <c r="T20" s="72"/>
+      <c r="U20" s="72"/>
+      <c r="V20" s="72"/>
+      <c r="W20" s="72"/>
+      <c r="X20" s="72"/>
+      <c r="Y20" s="72"/>
+      <c r="Z20" s="73"/>
       <c r="AA20" s="3"/>
     </row>
     <row r="21" spans="1:27" ht="16.5">
       <c r="A21" s="3"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="71"/>
-      <c r="T21" s="71"/>
-      <c r="U21" s="71"/>
-      <c r="V21" s="71"/>
-      <c r="W21" s="71"/>
-      <c r="X21" s="71"/>
-      <c r="Y21" s="71"/>
-      <c r="Z21" s="72"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="72"/>
+      <c r="S21" s="72"/>
+      <c r="T21" s="72"/>
+      <c r="U21" s="72"/>
+      <c r="V21" s="72"/>
+      <c r="W21" s="72"/>
+      <c r="X21" s="72"/>
+      <c r="Y21" s="72"/>
+      <c r="Z21" s="73"/>
       <c r="AA21" s="3"/>
     </row>
     <row r="22" spans="1:27" ht="16.5">
       <c r="A22" s="3"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="71"/>
-      <c r="U22" s="71"/>
-      <c r="V22" s="71"/>
-      <c r="W22" s="71"/>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="71"/>
-      <c r="Z22" s="72"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="72"/>
+      <c r="Q22" s="72"/>
+      <c r="R22" s="72"/>
+      <c r="S22" s="72"/>
+      <c r="T22" s="72"/>
+      <c r="U22" s="72"/>
+      <c r="V22" s="72"/>
+      <c r="W22" s="72"/>
+      <c r="X22" s="72"/>
+      <c r="Y22" s="72"/>
+      <c r="Z22" s="73"/>
       <c r="AA22" s="3"/>
     </row>
     <row r="23" spans="1:27" ht="16.5">
       <c r="A23" s="3"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
-      <c r="T23" s="71"/>
-      <c r="U23" s="71"/>
-      <c r="V23" s="71"/>
-      <c r="W23" s="71"/>
-      <c r="X23" s="71"/>
-      <c r="Y23" s="71"/>
-      <c r="Z23" s="72"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="72"/>
+      <c r="S23" s="72"/>
+      <c r="T23" s="72"/>
+      <c r="U23" s="72"/>
+      <c r="V23" s="72"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="72"/>
+      <c r="Y23" s="72"/>
+      <c r="Z23" s="73"/>
       <c r="AA23" s="3"/>
     </row>
     <row r="24" spans="1:27" ht="16.5">
       <c r="A24" s="3"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="71"/>
-      <c r="U24" s="71"/>
-      <c r="V24" s="71"/>
-      <c r="W24" s="71"/>
-      <c r="X24" s="71"/>
-      <c r="Y24" s="71"/>
-      <c r="Z24" s="72"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="72"/>
+      <c r="T24" s="72"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="72"/>
+      <c r="X24" s="72"/>
+      <c r="Y24" s="72"/>
+      <c r="Z24" s="73"/>
       <c r="AA24" s="3"/>
     </row>
     <row r="25" spans="1:27" ht="16.5">
       <c r="A25" s="3"/>
-      <c r="B25" s="74"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="71"/>
-      <c r="T25" s="71"/>
-      <c r="U25" s="71"/>
-      <c r="V25" s="71"/>
-      <c r="W25" s="71"/>
-      <c r="X25" s="71"/>
-      <c r="Y25" s="71"/>
-      <c r="Z25" s="72"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="72"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="72"/>
+      <c r="U25" s="72"/>
+      <c r="V25" s="72"/>
+      <c r="W25" s="72"/>
+      <c r="X25" s="72"/>
+      <c r="Y25" s="72"/>
+      <c r="Z25" s="73"/>
       <c r="AA25" s="3"/>
     </row>
     <row r="26" spans="1:27" ht="16.5">
@@ -2723,12 +2727,60 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:Z14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:Z12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:Z13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J11:Z11"/>
     <mergeCell ref="B9:E9"/>
@@ -2738,60 +2790,12 @@
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J10:Z10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:Z14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:Z12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:Z13"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4414,12 +4418,12 @@
   </sheetPr>
   <dimension ref="A1:BN73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="66" width="3.7109375" style="105" customWidth="1"/>
-    <col min="67" max="16384" width="14.42578125" style="105"/>
+    <col min="1" max="66" width="3.7109375" style="68" customWidth="1"/>
+    <col min="67" max="16384" width="14.42578125" style="68"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="16.5">
@@ -4562,35 +4566,35 @@
     </row>
     <row r="3" spans="1:66" ht="16.5">
       <c r="A3" s="4"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="106"/>
-      <c r="S3" s="106"/>
-      <c r="T3" s="106"/>
-      <c r="U3" s="106"/>
-      <c r="V3" s="106"/>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106"/>
-      <c r="Y3" s="106"/>
-      <c r="Z3" s="106"/>
-      <c r="AA3" s="106"/>
-      <c r="AB3" s="106"/>
-      <c r="AC3" s="106"/>
-      <c r="AD3" s="106"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
       <c r="AG3" s="4"/>
@@ -4630,35 +4634,35 @@
     </row>
     <row r="4" spans="1:66" ht="16.5">
       <c r="A4" s="4"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="107"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="107"/>
-      <c r="Y4" s="107"/>
-      <c r="Z4" s="107"/>
-      <c r="AA4" s="107"/>
-      <c r="AB4" s="107"/>
-      <c r="AC4" s="107"/>
-      <c r="AD4" s="106"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="70"/>
+      <c r="Z4" s="70"/>
+      <c r="AA4" s="70"/>
+      <c r="AB4" s="70"/>
+      <c r="AC4" s="70"/>
+      <c r="AD4" s="69"/>
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
       <c r="AG4" s="4"/>
@@ -4698,35 +4702,35 @@
     </row>
     <row r="5" spans="1:66" ht="16.5">
       <c r="A5" s="4"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="107"/>
-      <c r="Z5" s="107"/>
-      <c r="AA5" s="107"/>
-      <c r="AB5" s="107"/>
-      <c r="AC5" s="107"/>
-      <c r="AD5" s="106"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="70"/>
+      <c r="X5" s="70"/>
+      <c r="Y5" s="70"/>
+      <c r="Z5" s="70"/>
+      <c r="AA5" s="70"/>
+      <c r="AB5" s="70"/>
+      <c r="AC5" s="70"/>
+      <c r="AD5" s="69"/>
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
@@ -4766,35 +4770,35 @@
     </row>
     <row r="6" spans="1:66" ht="16.5">
       <c r="A6" s="4"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="107"/>
-      <c r="R6" s="107"/>
-      <c r="S6" s="107"/>
-      <c r="T6" s="107"/>
-      <c r="U6" s="107"/>
-      <c r="V6" s="107"/>
-      <c r="W6" s="107"/>
-      <c r="X6" s="107"/>
-      <c r="Y6" s="107"/>
-      <c r="Z6" s="107"/>
-      <c r="AA6" s="107"/>
-      <c r="AB6" s="107"/>
-      <c r="AC6" s="107"/>
-      <c r="AD6" s="106"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="70"/>
+      <c r="AA6" s="70"/>
+      <c r="AB6" s="70"/>
+      <c r="AC6" s="70"/>
+      <c r="AD6" s="69"/>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
@@ -4834,35 +4838,35 @@
     </row>
     <row r="7" spans="1:66" ht="16.5">
       <c r="A7" s="4"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
-      <c r="X7" s="107"/>
-      <c r="Y7" s="107"/>
-      <c r="Z7" s="107"/>
-      <c r="AA7" s="107"/>
-      <c r="AB7" s="107"/>
-      <c r="AC7" s="107"/>
-      <c r="AD7" s="106"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="70"/>
+      <c r="AC7" s="70"/>
+      <c r="AD7" s="69"/>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
@@ -4902,35 +4906,35 @@
     </row>
     <row r="8" spans="1:66" ht="16.5">
       <c r="A8" s="4"/>
-      <c r="B8" s="106"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="107"/>
-      <c r="R8" s="107"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="107"/>
-      <c r="U8" s="107"/>
-      <c r="V8" s="107"/>
-      <c r="W8" s="107"/>
-      <c r="X8" s="107"/>
-      <c r="Y8" s="107"/>
-      <c r="Z8" s="107"/>
-      <c r="AA8" s="107"/>
-      <c r="AB8" s="107"/>
-      <c r="AC8" s="107"/>
-      <c r="AD8" s="106"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="70"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="70"/>
+      <c r="AA8" s="70"/>
+      <c r="AB8" s="70"/>
+      <c r="AC8" s="70"/>
+      <c r="AD8" s="69"/>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
@@ -4970,35 +4974,35 @@
     </row>
     <row r="9" spans="1:66" ht="16.5">
       <c r="A9" s="4"/>
-      <c r="B9" s="106"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
-      <c r="O9" s="107"/>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="107"/>
-      <c r="R9" s="107"/>
-      <c r="S9" s="107"/>
-      <c r="T9" s="107"/>
-      <c r="U9" s="107"/>
-      <c r="V9" s="107"/>
-      <c r="W9" s="107"/>
-      <c r="X9" s="107"/>
-      <c r="Y9" s="107"/>
-      <c r="Z9" s="107"/>
-      <c r="AA9" s="107"/>
-      <c r="AB9" s="107"/>
-      <c r="AC9" s="107"/>
-      <c r="AD9" s="106"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="70"/>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="70"/>
+      <c r="AD9" s="69"/>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
@@ -5038,35 +5042,35 @@
     </row>
     <row r="10" spans="1:66" ht="16.5">
       <c r="A10" s="4"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="107"/>
-      <c r="M10" s="107"/>
-      <c r="N10" s="107"/>
-      <c r="O10" s="107"/>
-      <c r="P10" s="107"/>
-      <c r="Q10" s="107"/>
-      <c r="R10" s="107"/>
-      <c r="S10" s="107"/>
-      <c r="T10" s="107"/>
-      <c r="U10" s="107"/>
-      <c r="V10" s="107"/>
-      <c r="W10" s="107"/>
-      <c r="X10" s="107"/>
-      <c r="Y10" s="107"/>
-      <c r="Z10" s="107"/>
-      <c r="AA10" s="107"/>
-      <c r="AB10" s="107"/>
-      <c r="AC10" s="107"/>
-      <c r="AD10" s="106"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="70"/>
+      <c r="W10" s="70"/>
+      <c r="X10" s="70"/>
+      <c r="Y10" s="70"/>
+      <c r="Z10" s="70"/>
+      <c r="AA10" s="70"/>
+      <c r="AB10" s="70"/>
+      <c r="AC10" s="70"/>
+      <c r="AD10" s="69"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
@@ -5106,35 +5110,35 @@
     </row>
     <row r="11" spans="1:66" ht="16.5">
       <c r="A11" s="4"/>
-      <c r="B11" s="106"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="107"/>
-      <c r="M11" s="107"/>
-      <c r="N11" s="107"/>
-      <c r="O11" s="107"/>
-      <c r="P11" s="107"/>
-      <c r="Q11" s="107"/>
-      <c r="R11" s="107"/>
-      <c r="S11" s="107"/>
-      <c r="T11" s="107"/>
-      <c r="U11" s="107"/>
-      <c r="V11" s="107"/>
-      <c r="W11" s="107"/>
-      <c r="X11" s="107"/>
-      <c r="Y11" s="107"/>
-      <c r="Z11" s="107"/>
-      <c r="AA11" s="107"/>
-      <c r="AB11" s="107"/>
-      <c r="AC11" s="107"/>
-      <c r="AD11" s="106"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="70"/>
+      <c r="X11" s="70"/>
+      <c r="Y11" s="70"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="70"/>
+      <c r="AD11" s="69"/>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
@@ -5174,35 +5178,35 @@
     </row>
     <row r="12" spans="1:66" ht="16.5">
       <c r="A12" s="4"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="107"/>
-      <c r="M12" s="107"/>
-      <c r="N12" s="107"/>
-      <c r="O12" s="107"/>
-      <c r="P12" s="107"/>
-      <c r="Q12" s="107"/>
-      <c r="R12" s="107"/>
-      <c r="S12" s="107"/>
-      <c r="T12" s="107"/>
-      <c r="U12" s="107"/>
-      <c r="V12" s="107"/>
-      <c r="W12" s="107"/>
-      <c r="X12" s="107"/>
-      <c r="Y12" s="107"/>
-      <c r="Z12" s="107"/>
-      <c r="AA12" s="107"/>
-      <c r="AB12" s="107"/>
-      <c r="AC12" s="107"/>
-      <c r="AD12" s="106"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="70"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="70"/>
+      <c r="AB12" s="70"/>
+      <c r="AC12" s="70"/>
+      <c r="AD12" s="69"/>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
@@ -5242,35 +5246,35 @@
     </row>
     <row r="13" spans="1:66" ht="16.5">
       <c r="A13" s="4"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
-      <c r="L13" s="107"/>
-      <c r="M13" s="107"/>
-      <c r="N13" s="107"/>
-      <c r="O13" s="107"/>
-      <c r="P13" s="107"/>
-      <c r="Q13" s="107"/>
-      <c r="R13" s="107"/>
-      <c r="S13" s="107"/>
-      <c r="T13" s="107"/>
-      <c r="U13" s="107"/>
-      <c r="V13" s="107"/>
-      <c r="W13" s="107"/>
-      <c r="X13" s="107"/>
-      <c r="Y13" s="107"/>
-      <c r="Z13" s="107"/>
-      <c r="AA13" s="107"/>
-      <c r="AB13" s="107"/>
-      <c r="AC13" s="107"/>
-      <c r="AD13" s="106"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="70"/>
+      <c r="AD13" s="69"/>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
@@ -5310,35 +5314,35 @@
     </row>
     <row r="14" spans="1:66" ht="16.5">
       <c r="A14" s="4"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="107"/>
-      <c r="N14" s="107"/>
-      <c r="O14" s="107"/>
-      <c r="P14" s="107"/>
-      <c r="Q14" s="107"/>
-      <c r="R14" s="107"/>
-      <c r="S14" s="107"/>
-      <c r="T14" s="107"/>
-      <c r="U14" s="107"/>
-      <c r="V14" s="107"/>
-      <c r="W14" s="107"/>
-      <c r="X14" s="107"/>
-      <c r="Y14" s="107"/>
-      <c r="Z14" s="107"/>
-      <c r="AA14" s="107"/>
-      <c r="AB14" s="107"/>
-      <c r="AC14" s="107"/>
-      <c r="AD14" s="106"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="70"/>
+      <c r="X14" s="70"/>
+      <c r="Y14" s="70"/>
+      <c r="Z14" s="70"/>
+      <c r="AA14" s="70"/>
+      <c r="AB14" s="70"/>
+      <c r="AC14" s="70"/>
+      <c r="AD14" s="69"/>
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
@@ -5378,35 +5382,35 @@
     </row>
     <row r="15" spans="1:66" ht="16.5">
       <c r="A15" s="4"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="107"/>
-      <c r="O15" s="107"/>
-      <c r="P15" s="107"/>
-      <c r="Q15" s="107"/>
-      <c r="R15" s="107"/>
-      <c r="S15" s="107"/>
-      <c r="T15" s="107"/>
-      <c r="U15" s="107"/>
-      <c r="V15" s="107"/>
-      <c r="W15" s="107"/>
-      <c r="X15" s="107"/>
-      <c r="Y15" s="107"/>
-      <c r="Z15" s="107"/>
-      <c r="AA15" s="107"/>
-      <c r="AB15" s="107"/>
-      <c r="AC15" s="107"/>
-      <c r="AD15" s="106"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="70"/>
+      <c r="X15" s="70"/>
+      <c r="Y15" s="70"/>
+      <c r="Z15" s="70"/>
+      <c r="AA15" s="70"/>
+      <c r="AB15" s="70"/>
+      <c r="AC15" s="70"/>
+      <c r="AD15" s="69"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
@@ -5446,35 +5450,35 @@
     </row>
     <row r="16" spans="1:66" ht="16.5">
       <c r="A16" s="4"/>
-      <c r="B16" s="106"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="107"/>
-      <c r="O16" s="107"/>
-      <c r="P16" s="107"/>
-      <c r="Q16" s="107"/>
-      <c r="R16" s="107"/>
-      <c r="S16" s="107"/>
-      <c r="T16" s="107"/>
-      <c r="U16" s="107"/>
-      <c r="V16" s="107"/>
-      <c r="W16" s="107"/>
-      <c r="X16" s="107"/>
-      <c r="Y16" s="107"/>
-      <c r="Z16" s="107"/>
-      <c r="AA16" s="107"/>
-      <c r="AB16" s="107"/>
-      <c r="AC16" s="107"/>
-      <c r="AD16" s="106"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="70"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="70"/>
+      <c r="W16" s="70"/>
+      <c r="X16" s="70"/>
+      <c r="Y16" s="70"/>
+      <c r="Z16" s="70"/>
+      <c r="AA16" s="70"/>
+      <c r="AB16" s="70"/>
+      <c r="AC16" s="70"/>
+      <c r="AD16" s="69"/>
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
       <c r="AG16" s="4"/>
@@ -5514,35 +5518,35 @@
     </row>
     <row r="17" spans="1:66" ht="16.5">
       <c r="A17" s="4"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="107"/>
-      <c r="N17" s="107"/>
-      <c r="O17" s="107"/>
-      <c r="P17" s="107"/>
-      <c r="Q17" s="107"/>
-      <c r="R17" s="107"/>
-      <c r="S17" s="107"/>
-      <c r="T17" s="107"/>
-      <c r="U17" s="107"/>
-      <c r="V17" s="107"/>
-      <c r="W17" s="107"/>
-      <c r="X17" s="107"/>
-      <c r="Y17" s="107"/>
-      <c r="Z17" s="107"/>
-      <c r="AA17" s="107"/>
-      <c r="AB17" s="107"/>
-      <c r="AC17" s="107"/>
-      <c r="AD17" s="106"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="70"/>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="70"/>
+      <c r="AA17" s="70"/>
+      <c r="AB17" s="70"/>
+      <c r="AC17" s="70"/>
+      <c r="AD17" s="69"/>
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
       <c r="AG17" s="4"/>
@@ -5582,35 +5586,35 @@
     </row>
     <row r="18" spans="1:66" ht="16.5">
       <c r="A18" s="4"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="107"/>
-      <c r="O18" s="107"/>
-      <c r="P18" s="107"/>
-      <c r="Q18" s="107"/>
-      <c r="R18" s="107"/>
-      <c r="S18" s="107"/>
-      <c r="T18" s="107"/>
-      <c r="U18" s="107"/>
-      <c r="V18" s="107"/>
-      <c r="W18" s="107"/>
-      <c r="X18" s="107"/>
-      <c r="Y18" s="107"/>
-      <c r="Z18" s="107"/>
-      <c r="AA18" s="107"/>
-      <c r="AB18" s="107"/>
-      <c r="AC18" s="107"/>
-      <c r="AD18" s="106"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="70"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="70"/>
+      <c r="W18" s="70"/>
+      <c r="X18" s="70"/>
+      <c r="Y18" s="70"/>
+      <c r="Z18" s="70"/>
+      <c r="AA18" s="70"/>
+      <c r="AB18" s="70"/>
+      <c r="AC18" s="70"/>
+      <c r="AD18" s="69"/>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
       <c r="AG18" s="4"/>
@@ -5650,35 +5654,35 @@
     </row>
     <row r="19" spans="1:66" ht="16.5">
       <c r="A19" s="4"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="107"/>
-      <c r="O19" s="107"/>
-      <c r="P19" s="107"/>
-      <c r="Q19" s="107"/>
-      <c r="R19" s="107"/>
-      <c r="S19" s="107"/>
-      <c r="T19" s="107"/>
-      <c r="U19" s="107"/>
-      <c r="V19" s="107"/>
-      <c r="W19" s="107"/>
-      <c r="X19" s="107"/>
-      <c r="Y19" s="107"/>
-      <c r="Z19" s="107"/>
-      <c r="AA19" s="107"/>
-      <c r="AB19" s="107"/>
-      <c r="AC19" s="107"/>
-      <c r="AD19" s="106"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="70"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="70"/>
+      <c r="W19" s="70"/>
+      <c r="X19" s="70"/>
+      <c r="Y19" s="70"/>
+      <c r="Z19" s="70"/>
+      <c r="AA19" s="70"/>
+      <c r="AB19" s="70"/>
+      <c r="AC19" s="70"/>
+      <c r="AD19" s="69"/>
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
       <c r="AG19" s="4"/>
@@ -5718,35 +5722,35 @@
     </row>
     <row r="20" spans="1:66" ht="16.5">
       <c r="A20" s="4"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="107"/>
-      <c r="N20" s="107"/>
-      <c r="O20" s="107"/>
-      <c r="P20" s="107"/>
-      <c r="Q20" s="107"/>
-      <c r="R20" s="107"/>
-      <c r="S20" s="107"/>
-      <c r="T20" s="107"/>
-      <c r="U20" s="107"/>
-      <c r="V20" s="107"/>
-      <c r="W20" s="107"/>
-      <c r="X20" s="107"/>
-      <c r="Y20" s="107"/>
-      <c r="Z20" s="107"/>
-      <c r="AA20" s="107"/>
-      <c r="AB20" s="107"/>
-      <c r="AC20" s="107"/>
-      <c r="AD20" s="106"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="70"/>
+      <c r="X20" s="70"/>
+      <c r="Y20" s="70"/>
+      <c r="Z20" s="70"/>
+      <c r="AA20" s="70"/>
+      <c r="AB20" s="70"/>
+      <c r="AC20" s="70"/>
+      <c r="AD20" s="69"/>
       <c r="AE20" s="4"/>
       <c r="AF20" s="4"/>
       <c r="AG20" s="4"/>
@@ -5786,35 +5790,35 @@
     </row>
     <row r="21" spans="1:66" ht="16.5">
       <c r="A21" s="4"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="106"/>
-      <c r="M21" s="106"/>
-      <c r="N21" s="106"/>
-      <c r="O21" s="106"/>
-      <c r="P21" s="106"/>
-      <c r="Q21" s="106"/>
-      <c r="R21" s="106"/>
-      <c r="S21" s="106"/>
-      <c r="T21" s="106"/>
-      <c r="U21" s="106"/>
-      <c r="V21" s="106"/>
-      <c r="W21" s="106"/>
-      <c r="X21" s="106"/>
-      <c r="Y21" s="106"/>
-      <c r="Z21" s="106"/>
-      <c r="AA21" s="106"/>
-      <c r="AB21" s="106"/>
-      <c r="AC21" s="106"/>
-      <c r="AD21" s="106"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="69"/>
+      <c r="T21" s="69"/>
+      <c r="U21" s="69"/>
+      <c r="V21" s="69"/>
+      <c r="W21" s="69"/>
+      <c r="X21" s="69"/>
+      <c r="Y21" s="69"/>
+      <c r="Z21" s="69"/>
+      <c r="AA21" s="69"/>
+      <c r="AB21" s="69"/>
+      <c r="AC21" s="69"/>
+      <c r="AD21" s="69"/>
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
@@ -6146,46 +6150,46 @@
         <f ca="1">MAX(B$25:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C26" s="102" t="s">
-        <v>124</v>
+      <c r="C26" s="84" t="s">
+        <v>121</v>
       </c>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="104"/>
-      <c r="L26" s="64" t="s">
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="M26" s="108"/>
-      <c r="N26" s="108"/>
-      <c r="O26" s="108"/>
-      <c r="P26" s="108"/>
-      <c r="Q26" s="109"/>
-      <c r="R26" s="64" t="s">
-        <v>113</v>
+      <c r="M26" s="110"/>
+      <c r="N26" s="110"/>
+      <c r="O26" s="110"/>
+      <c r="P26" s="110"/>
+      <c r="Q26" s="111"/>
+      <c r="R26" s="109" t="s">
+        <v>110</v>
       </c>
-      <c r="S26" s="108"/>
-      <c r="T26" s="108"/>
-      <c r="U26" s="108"/>
-      <c r="V26" s="108"/>
-      <c r="W26" s="109"/>
-      <c r="X26" s="79">
+      <c r="S26" s="110"/>
+      <c r="T26" s="110"/>
+      <c r="U26" s="110"/>
+      <c r="V26" s="110"/>
+      <c r="W26" s="111"/>
+      <c r="X26" s="55">
         <v>64</v>
       </c>
-      <c r="Y26" s="79"/>
-      <c r="Z26" s="79"/>
-      <c r="AA26" s="79"/>
-      <c r="AB26" s="79"/>
-      <c r="AC26" s="80"/>
-      <c r="AD26" s="66" t="s">
+      <c r="Y26" s="55"/>
+      <c r="Z26" s="55"/>
+      <c r="AA26" s="55"/>
+      <c r="AB26" s="55"/>
+      <c r="AC26" s="56"/>
+      <c r="AD26" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="AE26" s="110"/>
-      <c r="AF26" s="111"/>
+      <c r="AE26" s="107"/>
+      <c r="AF26" s="108"/>
       <c r="AG26" s="52"/>
       <c r="AH26" s="52"/>
       <c r="AI26" s="52"/>
@@ -6195,7 +6199,7 @@
       <c r="AM26" s="52"/>
       <c r="AN26" s="52"/>
       <c r="AO26" s="52"/>
-      <c r="AP26" s="78"/>
+      <c r="AP26" s="54"/>
       <c r="AQ26" s="4"/>
       <c r="AR26" s="4"/>
       <c r="AS26" s="4"/>
@@ -6227,46 +6231,46 @@
         <f ca="1">MAX(B$25:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C27" s="102" t="s">
+      <c r="C27" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="104"/>
-      <c r="L27" s="64" t="s">
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="M27" s="108"/>
-      <c r="N27" s="108"/>
-      <c r="O27" s="108"/>
-      <c r="P27" s="108"/>
-      <c r="Q27" s="109"/>
-      <c r="R27" s="64" t="s">
+      <c r="M27" s="110"/>
+      <c r="N27" s="110"/>
+      <c r="O27" s="110"/>
+      <c r="P27" s="110"/>
+      <c r="Q27" s="111"/>
+      <c r="R27" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="S27" s="108"/>
-      <c r="T27" s="108"/>
-      <c r="U27" s="108"/>
-      <c r="V27" s="108"/>
-      <c r="W27" s="109"/>
-      <c r="X27" s="79">
+      <c r="S27" s="110"/>
+      <c r="T27" s="110"/>
+      <c r="U27" s="110"/>
+      <c r="V27" s="110"/>
+      <c r="W27" s="111"/>
+      <c r="X27" s="55">
         <v>16</v>
       </c>
-      <c r="Y27" s="79"/>
-      <c r="Z27" s="79"/>
-      <c r="AA27" s="79"/>
-      <c r="AB27" s="79"/>
-      <c r="AC27" s="80"/>
-      <c r="AD27" s="66" t="s">
+      <c r="Y27" s="55"/>
+      <c r="Z27" s="55"/>
+      <c r="AA27" s="55"/>
+      <c r="AB27" s="55"/>
+      <c r="AC27" s="56"/>
+      <c r="AD27" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="AE27" s="110"/>
-      <c r="AF27" s="111"/>
+      <c r="AE27" s="107"/>
+      <c r="AF27" s="108"/>
       <c r="AG27" s="52"/>
       <c r="AH27" s="52"/>
       <c r="AI27" s="52"/>
@@ -6276,7 +6280,7 @@
       <c r="AM27" s="52"/>
       <c r="AN27" s="52"/>
       <c r="AO27" s="52"/>
-      <c r="AP27" s="78"/>
+      <c r="AP27" s="54"/>
       <c r="AQ27" s="4"/>
       <c r="AR27" s="4"/>
       <c r="AS27" s="4"/>
@@ -6308,40 +6312,40 @@
         <f ca="1">MAX(B$25:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
-      <c r="C28" s="102" t="s">
+      <c r="C28" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="103"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="104"/>
-      <c r="L28" s="64" t="s">
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="M28" s="108"/>
-      <c r="N28" s="108"/>
-      <c r="O28" s="108"/>
-      <c r="P28" s="108"/>
-      <c r="Q28" s="109"/>
-      <c r="R28" s="64"/>
-      <c r="S28" s="108"/>
-      <c r="T28" s="108"/>
-      <c r="U28" s="108"/>
-      <c r="V28" s="108"/>
-      <c r="W28" s="109"/>
-      <c r="X28" s="79"/>
-      <c r="Y28" s="79"/>
-      <c r="Z28" s="79"/>
-      <c r="AA28" s="79"/>
-      <c r="AB28" s="79"/>
-      <c r="AC28" s="80"/>
-      <c r="AD28" s="66"/>
-      <c r="AE28" s="110"/>
-      <c r="AF28" s="111"/>
+      <c r="M28" s="110"/>
+      <c r="N28" s="110"/>
+      <c r="O28" s="110"/>
+      <c r="P28" s="110"/>
+      <c r="Q28" s="111"/>
+      <c r="R28" s="109"/>
+      <c r="S28" s="110"/>
+      <c r="T28" s="110"/>
+      <c r="U28" s="110"/>
+      <c r="V28" s="110"/>
+      <c r="W28" s="111"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="55"/>
+      <c r="AA28" s="55"/>
+      <c r="AB28" s="55"/>
+      <c r="AC28" s="56"/>
+      <c r="AD28" s="106"/>
+      <c r="AE28" s="107"/>
+      <c r="AF28" s="108"/>
       <c r="AG28" s="52"/>
       <c r="AH28" s="52"/>
       <c r="AI28" s="52"/>
@@ -6351,7 +6355,7 @@
       <c r="AM28" s="52"/>
       <c r="AN28" s="52"/>
       <c r="AO28" s="52"/>
-      <c r="AP28" s="78"/>
+      <c r="AP28" s="54"/>
       <c r="AQ28" s="4"/>
       <c r="AR28" s="4"/>
       <c r="AS28" s="4"/>
@@ -6383,40 +6387,40 @@
         <f ca="1">MAX(B$25:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
-      <c r="C29" s="102" t="s">
+      <c r="C29" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="103"/>
-      <c r="K29" s="104"/>
-      <c r="L29" s="64" t="s">
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="M29" s="108"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="108"/>
-      <c r="Q29" s="109"/>
-      <c r="R29" s="64"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="108"/>
-      <c r="U29" s="108"/>
-      <c r="V29" s="108"/>
-      <c r="W29" s="109"/>
-      <c r="X29" s="79"/>
-      <c r="Y29" s="79"/>
-      <c r="Z29" s="79"/>
-      <c r="AA29" s="79"/>
-      <c r="AB29" s="79"/>
-      <c r="AC29" s="80"/>
-      <c r="AD29" s="66"/>
-      <c r="AE29" s="110"/>
-      <c r="AF29" s="111"/>
+      <c r="M29" s="110"/>
+      <c r="N29" s="110"/>
+      <c r="O29" s="110"/>
+      <c r="P29" s="110"/>
+      <c r="Q29" s="111"/>
+      <c r="R29" s="109"/>
+      <c r="S29" s="110"/>
+      <c r="T29" s="110"/>
+      <c r="U29" s="110"/>
+      <c r="V29" s="110"/>
+      <c r="W29" s="111"/>
+      <c r="X29" s="55"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="55"/>
+      <c r="AA29" s="55"/>
+      <c r="AB29" s="55"/>
+      <c r="AC29" s="56"/>
+      <c r="AD29" s="106"/>
+      <c r="AE29" s="107"/>
+      <c r="AF29" s="108"/>
       <c r="AG29" s="52"/>
       <c r="AH29" s="52"/>
       <c r="AI29" s="52"/>
@@ -6426,7 +6430,7 @@
       <c r="AM29" s="52"/>
       <c r="AN29" s="52"/>
       <c r="AO29" s="52"/>
-      <c r="AP29" s="78"/>
+      <c r="AP29" s="54"/>
       <c r="AQ29" s="4"/>
       <c r="AR29" s="4"/>
       <c r="AS29" s="4"/>
@@ -6458,40 +6462,40 @@
         <f ca="1">MAX(B$25:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>5</v>
       </c>
-      <c r="C30" s="102" t="s">
-        <v>123</v>
+      <c r="C30" s="84" t="s">
+        <v>120</v>
       </c>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="103"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="104"/>
-      <c r="L30" s="64" t="s">
-        <v>55</v>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="109" t="s">
+        <v>52</v>
       </c>
-      <c r="M30" s="108"/>
-      <c r="N30" s="108"/>
-      <c r="O30" s="108"/>
-      <c r="P30" s="108"/>
-      <c r="Q30" s="109"/>
-      <c r="R30" s="64"/>
-      <c r="S30" s="108"/>
-      <c r="T30" s="108"/>
-      <c r="U30" s="108"/>
-      <c r="V30" s="108"/>
-      <c r="W30" s="109"/>
-      <c r="X30" s="79"/>
-      <c r="Y30" s="79"/>
-      <c r="Z30" s="79"/>
-      <c r="AA30" s="79"/>
-      <c r="AB30" s="79"/>
-      <c r="AC30" s="80"/>
-      <c r="AD30" s="66"/>
-      <c r="AE30" s="110"/>
-      <c r="AF30" s="111"/>
+      <c r="M30" s="110"/>
+      <c r="N30" s="110"/>
+      <c r="O30" s="110"/>
+      <c r="P30" s="110"/>
+      <c r="Q30" s="111"/>
+      <c r="R30" s="109"/>
+      <c r="S30" s="110"/>
+      <c r="T30" s="110"/>
+      <c r="U30" s="110"/>
+      <c r="V30" s="110"/>
+      <c r="W30" s="111"/>
+      <c r="X30" s="55"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="55"/>
+      <c r="AA30" s="55"/>
+      <c r="AB30" s="55"/>
+      <c r="AC30" s="56"/>
+      <c r="AD30" s="106"/>
+      <c r="AE30" s="107"/>
+      <c r="AF30" s="108"/>
       <c r="AG30" s="52"/>
       <c r="AH30" s="52"/>
       <c r="AI30" s="52"/>
@@ -6501,7 +6505,7 @@
       <c r="AM30" s="52"/>
       <c r="AN30" s="52"/>
       <c r="AO30" s="52"/>
-      <c r="AP30" s="78"/>
+      <c r="AP30" s="54"/>
       <c r="AQ30" s="4"/>
       <c r="AR30" s="4"/>
       <c r="AS30" s="4"/>
@@ -6819,15 +6823,15 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C35" s="86" t="s">
+      <c r="C35" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="88"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="83"/>
       <c r="J35" s="15" t="s">
         <v>32</v>
       </c>
@@ -6867,25 +6871,25 @@
       <c r="AN35" s="51"/>
       <c r="AO35" s="51"/>
       <c r="AP35" s="16"/>
-      <c r="AQ35" s="81" t="s">
+      <c r="AQ35" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="AR35" s="82"/>
-      <c r="AS35" s="82"/>
-      <c r="AT35" s="82"/>
-      <c r="AU35" s="82"/>
-      <c r="AV35" s="82"/>
-      <c r="AW35" s="82"/>
-      <c r="AX35" s="82"/>
-      <c r="AY35" s="82"/>
-      <c r="AZ35" s="82"/>
-      <c r="BA35" s="82"/>
-      <c r="BB35" s="82"/>
-      <c r="BC35" s="82"/>
-      <c r="BD35" s="82"/>
-      <c r="BE35" s="82"/>
-      <c r="BF35" s="82"/>
-      <c r="BG35" s="83"/>
+      <c r="AR35" s="58"/>
+      <c r="AS35" s="58"/>
+      <c r="AT35" s="58"/>
+      <c r="AU35" s="58"/>
+      <c r="AV35" s="58"/>
+      <c r="AW35" s="58"/>
+      <c r="AX35" s="58"/>
+      <c r="AY35" s="58"/>
+      <c r="AZ35" s="58"/>
+      <c r="BA35" s="58"/>
+      <c r="BB35" s="58"/>
+      <c r="BC35" s="58"/>
+      <c r="BD35" s="58"/>
+      <c r="BE35" s="58"/>
+      <c r="BF35" s="58"/>
+      <c r="BG35" s="59"/>
       <c r="BH35" s="4"/>
       <c r="BI35" s="4"/>
       <c r="BJ35" s="4"/>
@@ -6900,15 +6904,15 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C36" s="99" t="s">
+      <c r="C36" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="100"/>
-      <c r="H36" s="100"/>
-      <c r="I36" s="101"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="92"/>
       <c r="J36" s="19" t="s">
         <v>34</v>
       </c>
@@ -6948,25 +6952,25 @@
       <c r="AN36" s="51"/>
       <c r="AO36" s="51"/>
       <c r="AP36" s="16"/>
-      <c r="AQ36" s="84" t="s">
-        <v>125</v>
+      <c r="AQ36" s="103" t="s">
+        <v>122</v>
       </c>
-      <c r="AR36" s="112"/>
-      <c r="AS36" s="112"/>
-      <c r="AT36" s="112"/>
-      <c r="AU36" s="112"/>
-      <c r="AV36" s="112"/>
-      <c r="AW36" s="112"/>
-      <c r="AX36" s="112"/>
-      <c r="AY36" s="112"/>
-      <c r="AZ36" s="112"/>
-      <c r="BA36" s="112"/>
-      <c r="BB36" s="112"/>
-      <c r="BC36" s="112"/>
-      <c r="BD36" s="112"/>
-      <c r="BE36" s="112"/>
-      <c r="BF36" s="112"/>
-      <c r="BG36" s="113"/>
+      <c r="AR36" s="104"/>
+      <c r="AS36" s="104"/>
+      <c r="AT36" s="104"/>
+      <c r="AU36" s="104"/>
+      <c r="AV36" s="104"/>
+      <c r="AW36" s="104"/>
+      <c r="AX36" s="104"/>
+      <c r="AY36" s="104"/>
+      <c r="AZ36" s="104"/>
+      <c r="BA36" s="104"/>
+      <c r="BB36" s="104"/>
+      <c r="BC36" s="104"/>
+      <c r="BD36" s="104"/>
+      <c r="BE36" s="104"/>
+      <c r="BF36" s="104"/>
+      <c r="BG36" s="105"/>
       <c r="BH36" s="4"/>
       <c r="BI36" s="4"/>
       <c r="BJ36" s="4"/>
@@ -7023,25 +7027,25 @@
       <c r="AN37" s="51"/>
       <c r="AO37" s="51"/>
       <c r="AP37" s="16"/>
-      <c r="AQ37" s="84" t="s">
-        <v>126</v>
+      <c r="AQ37" s="103" t="s">
+        <v>159</v>
       </c>
-      <c r="AR37" s="112"/>
-      <c r="AS37" s="112"/>
-      <c r="AT37" s="112"/>
-      <c r="AU37" s="112"/>
-      <c r="AV37" s="112"/>
-      <c r="AW37" s="112"/>
-      <c r="AX37" s="112"/>
-      <c r="AY37" s="112"/>
-      <c r="AZ37" s="112"/>
-      <c r="BA37" s="112"/>
-      <c r="BB37" s="112"/>
-      <c r="BC37" s="112"/>
-      <c r="BD37" s="112"/>
-      <c r="BE37" s="112"/>
-      <c r="BF37" s="112"/>
-      <c r="BG37" s="113"/>
+      <c r="AR37" s="104"/>
+      <c r="AS37" s="104"/>
+      <c r="AT37" s="104"/>
+      <c r="AU37" s="104"/>
+      <c r="AV37" s="104"/>
+      <c r="AW37" s="104"/>
+      <c r="AX37" s="104"/>
+      <c r="AY37" s="104"/>
+      <c r="AZ37" s="104"/>
+      <c r="BA37" s="104"/>
+      <c r="BB37" s="104"/>
+      <c r="BC37" s="104"/>
+      <c r="BD37" s="104"/>
+      <c r="BE37" s="104"/>
+      <c r="BF37" s="104"/>
+      <c r="BG37" s="105"/>
       <c r="BH37" s="4"/>
       <c r="BI37" s="4"/>
       <c r="BJ37" s="4"/>
@@ -7098,25 +7102,25 @@
       <c r="AN38" s="51"/>
       <c r="AO38" s="51"/>
       <c r="AP38" s="16"/>
-      <c r="AQ38" s="84" t="s">
-        <v>38</v>
+      <c r="AQ38" s="103" t="s">
+        <v>160</v>
       </c>
-      <c r="AR38" s="112"/>
-      <c r="AS38" s="112"/>
-      <c r="AT38" s="112"/>
-      <c r="AU38" s="112"/>
-      <c r="AV38" s="112"/>
-      <c r="AW38" s="112"/>
-      <c r="AX38" s="112"/>
-      <c r="AY38" s="112"/>
-      <c r="AZ38" s="112"/>
-      <c r="BA38" s="112"/>
-      <c r="BB38" s="112"/>
-      <c r="BC38" s="112"/>
-      <c r="BD38" s="112"/>
-      <c r="BE38" s="112"/>
-      <c r="BF38" s="112"/>
-      <c r="BG38" s="113"/>
+      <c r="AR38" s="104"/>
+      <c r="AS38" s="104"/>
+      <c r="AT38" s="104"/>
+      <c r="AU38" s="104"/>
+      <c r="AV38" s="104"/>
+      <c r="AW38" s="104"/>
+      <c r="AX38" s="104"/>
+      <c r="AY38" s="104"/>
+      <c r="AZ38" s="104"/>
+      <c r="BA38" s="104"/>
+      <c r="BB38" s="104"/>
+      <c r="BC38" s="104"/>
+      <c r="BD38" s="104"/>
+      <c r="BE38" s="104"/>
+      <c r="BF38" s="104"/>
+      <c r="BG38" s="105"/>
       <c r="BH38" s="4"/>
       <c r="BI38" s="4"/>
       <c r="BJ38" s="4"/>
@@ -7125,7 +7129,7 @@
       <c r="BM38" s="4"/>
       <c r="BN38" s="4"/>
     </row>
-    <row r="39" spans="1:66" ht="33.75" customHeight="1" outlineLevel="1">
+    <row r="39" spans="1:66" ht="16.5" outlineLevel="1">
       <c r="A39" s="9"/>
       <c r="B39" s="37">
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
@@ -7139,7 +7143,7 @@
       <c r="H39" s="19"/>
       <c r="I39" s="18"/>
       <c r="J39" s="51" t="s">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="K39" s="51"/>
       <c r="L39" s="51"/>
@@ -7148,25 +7152,25 @@
       <c r="O39" s="51"/>
       <c r="P39" s="51"/>
       <c r="Q39" s="16"/>
-      <c r="R39" s="89" t="s">
-        <v>137</v>
+      <c r="R39" s="88" t="s">
+        <v>162</v>
       </c>
-      <c r="S39" s="87"/>
-      <c r="T39" s="87"/>
-      <c r="U39" s="87"/>
-      <c r="V39" s="87"/>
-      <c r="W39" s="87"/>
-      <c r="X39" s="87"/>
-      <c r="Y39" s="87"/>
-      <c r="Z39" s="87"/>
-      <c r="AA39" s="87"/>
-      <c r="AB39" s="87"/>
-      <c r="AC39" s="87"/>
-      <c r="AD39" s="87"/>
-      <c r="AE39" s="87"/>
-      <c r="AF39" s="87"/>
-      <c r="AG39" s="87"/>
-      <c r="AH39" s="88"/>
+      <c r="S39" s="82"/>
+      <c r="T39" s="82"/>
+      <c r="U39" s="82"/>
+      <c r="V39" s="82"/>
+      <c r="W39" s="82"/>
+      <c r="X39" s="82"/>
+      <c r="Y39" s="82"/>
+      <c r="Z39" s="82"/>
+      <c r="AA39" s="82"/>
+      <c r="AB39" s="82"/>
+      <c r="AC39" s="82"/>
+      <c r="AD39" s="82"/>
+      <c r="AE39" s="82"/>
+      <c r="AF39" s="82"/>
+      <c r="AG39" s="82"/>
+      <c r="AH39" s="83"/>
       <c r="AI39" s="20" t="s">
         <v>32</v>
       </c>
@@ -7177,25 +7181,25 @@
       <c r="AN39" s="51"/>
       <c r="AO39" s="51"/>
       <c r="AP39" s="16"/>
-      <c r="AQ39" s="81" t="s">
+      <c r="AQ39" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="AR39" s="82"/>
-      <c r="AS39" s="82"/>
-      <c r="AT39" s="82"/>
-      <c r="AU39" s="82"/>
-      <c r="AV39" s="82"/>
-      <c r="AW39" s="82"/>
-      <c r="AX39" s="82"/>
-      <c r="AY39" s="82"/>
-      <c r="AZ39" s="82"/>
-      <c r="BA39" s="82"/>
-      <c r="BB39" s="82"/>
-      <c r="BC39" s="82"/>
-      <c r="BD39" s="82"/>
-      <c r="BE39" s="82"/>
-      <c r="BF39" s="82"/>
-      <c r="BG39" s="83"/>
+      <c r="AR39" s="58"/>
+      <c r="AS39" s="58"/>
+      <c r="AT39" s="58"/>
+      <c r="AU39" s="58"/>
+      <c r="AV39" s="58"/>
+      <c r="AW39" s="58"/>
+      <c r="AX39" s="58"/>
+      <c r="AY39" s="58"/>
+      <c r="AZ39" s="58"/>
+      <c r="BA39" s="58"/>
+      <c r="BB39" s="58"/>
+      <c r="BC39" s="58"/>
+      <c r="BD39" s="58"/>
+      <c r="BE39" s="58"/>
+      <c r="BF39" s="58"/>
+      <c r="BG39" s="59"/>
       <c r="BH39" s="4"/>
       <c r="BI39" s="4"/>
       <c r="BJ39" s="4"/>
@@ -7218,7 +7222,7 @@
       <c r="H40" s="19"/>
       <c r="I40" s="18"/>
       <c r="J40" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K40" s="19"/>
       <c r="L40" s="19"/>
@@ -7227,27 +7231,27 @@
       <c r="O40" s="19"/>
       <c r="P40" s="19"/>
       <c r="Q40" s="18"/>
-      <c r="R40" s="99" t="s">
-        <v>41</v>
+      <c r="R40" s="90" t="s">
+        <v>39</v>
       </c>
-      <c r="S40" s="100"/>
-      <c r="T40" s="100"/>
-      <c r="U40" s="100"/>
-      <c r="V40" s="100"/>
-      <c r="W40" s="100"/>
-      <c r="X40" s="100"/>
-      <c r="Y40" s="100"/>
-      <c r="Z40" s="100"/>
-      <c r="AA40" s="100"/>
-      <c r="AB40" s="100"/>
-      <c r="AC40" s="100"/>
-      <c r="AD40" s="100"/>
-      <c r="AE40" s="100"/>
-      <c r="AF40" s="100"/>
-      <c r="AG40" s="100"/>
-      <c r="AH40" s="101"/>
+      <c r="S40" s="91"/>
+      <c r="T40" s="91"/>
+      <c r="U40" s="91"/>
+      <c r="V40" s="91"/>
+      <c r="W40" s="91"/>
+      <c r="X40" s="91"/>
+      <c r="Y40" s="91"/>
+      <c r="Z40" s="91"/>
+      <c r="AA40" s="91"/>
+      <c r="AB40" s="91"/>
+      <c r="AC40" s="91"/>
+      <c r="AD40" s="91"/>
+      <c r="AE40" s="91"/>
+      <c r="AF40" s="91"/>
+      <c r="AG40" s="91"/>
+      <c r="AH40" s="92"/>
       <c r="AI40" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ40" s="19"/>
       <c r="AK40" s="19"/>
@@ -7256,25 +7260,25 @@
       <c r="AN40" s="19"/>
       <c r="AO40" s="19"/>
       <c r="AP40" s="18"/>
-      <c r="AQ40" s="84" t="s">
-        <v>128</v>
+      <c r="AQ40" s="103" t="s">
+        <v>124</v>
       </c>
-      <c r="AR40" s="112"/>
-      <c r="AS40" s="112"/>
-      <c r="AT40" s="112"/>
-      <c r="AU40" s="112"/>
-      <c r="AV40" s="112"/>
-      <c r="AW40" s="112"/>
-      <c r="AX40" s="112"/>
-      <c r="AY40" s="112"/>
-      <c r="AZ40" s="112"/>
-      <c r="BA40" s="112"/>
-      <c r="BB40" s="112"/>
-      <c r="BC40" s="112"/>
-      <c r="BD40" s="112"/>
-      <c r="BE40" s="112"/>
-      <c r="BF40" s="112"/>
-      <c r="BG40" s="113"/>
+      <c r="AR40" s="104"/>
+      <c r="AS40" s="104"/>
+      <c r="AT40" s="104"/>
+      <c r="AU40" s="104"/>
+      <c r="AV40" s="104"/>
+      <c r="AW40" s="104"/>
+      <c r="AX40" s="104"/>
+      <c r="AY40" s="104"/>
+      <c r="AZ40" s="104"/>
+      <c r="BA40" s="104"/>
+      <c r="BB40" s="104"/>
+      <c r="BC40" s="104"/>
+      <c r="BD40" s="104"/>
+      <c r="BE40" s="104"/>
+      <c r="BF40" s="104"/>
+      <c r="BG40" s="105"/>
       <c r="BH40" s="4"/>
       <c r="BI40" s="4"/>
       <c r="BJ40" s="4"/>
@@ -7329,25 +7333,25 @@
       <c r="AN41" s="19"/>
       <c r="AO41" s="19"/>
       <c r="AP41" s="18"/>
-      <c r="AQ41" s="84" t="s">
-        <v>131</v>
+      <c r="AQ41" s="103" t="s">
+        <v>127</v>
       </c>
-      <c r="AR41" s="112"/>
-      <c r="AS41" s="112"/>
-      <c r="AT41" s="112"/>
-      <c r="AU41" s="112"/>
-      <c r="AV41" s="112"/>
-      <c r="AW41" s="112"/>
-      <c r="AX41" s="112"/>
-      <c r="AY41" s="112"/>
-      <c r="AZ41" s="112"/>
-      <c r="BA41" s="112"/>
-      <c r="BB41" s="112"/>
-      <c r="BC41" s="112"/>
-      <c r="BD41" s="112"/>
-      <c r="BE41" s="112"/>
-      <c r="BF41" s="112"/>
-      <c r="BG41" s="113"/>
+      <c r="AR41" s="104"/>
+      <c r="AS41" s="104"/>
+      <c r="AT41" s="104"/>
+      <c r="AU41" s="104"/>
+      <c r="AV41" s="104"/>
+      <c r="AW41" s="104"/>
+      <c r="AX41" s="104"/>
+      <c r="AY41" s="104"/>
+      <c r="AZ41" s="104"/>
+      <c r="BA41" s="104"/>
+      <c r="BB41" s="104"/>
+      <c r="BC41" s="104"/>
+      <c r="BD41" s="104"/>
+      <c r="BE41" s="104"/>
+      <c r="BF41" s="104"/>
+      <c r="BG41" s="105"/>
       <c r="BH41" s="4"/>
       <c r="BI41" s="4"/>
       <c r="BJ41" s="4"/>
@@ -7402,25 +7406,25 @@
       <c r="AN42" s="19"/>
       <c r="AO42" s="19"/>
       <c r="AP42" s="18"/>
-      <c r="AQ42" s="84" t="s">
-        <v>129</v>
+      <c r="AQ42" s="103" t="s">
+        <v>125</v>
       </c>
-      <c r="AR42" s="112"/>
-      <c r="AS42" s="112"/>
-      <c r="AT42" s="112"/>
-      <c r="AU42" s="112"/>
-      <c r="AV42" s="112"/>
-      <c r="AW42" s="112"/>
-      <c r="AX42" s="112"/>
-      <c r="AY42" s="112"/>
-      <c r="AZ42" s="112"/>
-      <c r="BA42" s="112"/>
-      <c r="BB42" s="112"/>
-      <c r="BC42" s="112"/>
-      <c r="BD42" s="112"/>
-      <c r="BE42" s="112"/>
-      <c r="BF42" s="112"/>
-      <c r="BG42" s="113"/>
+      <c r="AR42" s="104"/>
+      <c r="AS42" s="104"/>
+      <c r="AT42" s="104"/>
+      <c r="AU42" s="104"/>
+      <c r="AV42" s="104"/>
+      <c r="AW42" s="104"/>
+      <c r="AX42" s="104"/>
+      <c r="AY42" s="104"/>
+      <c r="AZ42" s="104"/>
+      <c r="BA42" s="104"/>
+      <c r="BB42" s="104"/>
+      <c r="BC42" s="104"/>
+      <c r="BD42" s="104"/>
+      <c r="BE42" s="104"/>
+      <c r="BF42" s="104"/>
+      <c r="BG42" s="105"/>
       <c r="BH42" s="4"/>
       <c r="BI42" s="4"/>
       <c r="BJ42" s="4"/>
@@ -7475,25 +7479,25 @@
       <c r="AN43" s="51"/>
       <c r="AO43" s="51"/>
       <c r="AP43" s="16"/>
-      <c r="AQ43" s="84" t="s">
-        <v>130</v>
+      <c r="AQ43" s="103" t="s">
+        <v>126</v>
       </c>
-      <c r="AR43" s="112"/>
-      <c r="AS43" s="112"/>
-      <c r="AT43" s="112"/>
-      <c r="AU43" s="112"/>
-      <c r="AV43" s="112"/>
-      <c r="AW43" s="112"/>
-      <c r="AX43" s="112"/>
-      <c r="AY43" s="112"/>
-      <c r="AZ43" s="112"/>
-      <c r="BA43" s="112"/>
-      <c r="BB43" s="112"/>
-      <c r="BC43" s="112"/>
-      <c r="BD43" s="112"/>
-      <c r="BE43" s="112"/>
-      <c r="BF43" s="112"/>
-      <c r="BG43" s="113"/>
+      <c r="AR43" s="104"/>
+      <c r="AS43" s="104"/>
+      <c r="AT43" s="104"/>
+      <c r="AU43" s="104"/>
+      <c r="AV43" s="104"/>
+      <c r="AW43" s="104"/>
+      <c r="AX43" s="104"/>
+      <c r="AY43" s="104"/>
+      <c r="AZ43" s="104"/>
+      <c r="BA43" s="104"/>
+      <c r="BB43" s="104"/>
+      <c r="BC43" s="104"/>
+      <c r="BD43" s="104"/>
+      <c r="BE43" s="104"/>
+      <c r="BF43" s="104"/>
+      <c r="BG43" s="105"/>
       <c r="BH43" s="4"/>
       <c r="BI43" s="4"/>
       <c r="BJ43" s="4"/>
@@ -7515,8 +7519,8 @@
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
       <c r="I44" s="18"/>
-      <c r="J44" s="91" t="s">
-        <v>42</v>
+      <c r="J44" s="61" t="s">
+        <v>40</v>
       </c>
       <c r="K44" s="17"/>
       <c r="L44" s="17"/>
@@ -7552,25 +7556,25 @@
       <c r="AN44" s="51"/>
       <c r="AO44" s="51"/>
       <c r="AP44" s="16"/>
-      <c r="AQ44" s="81" t="s">
+      <c r="AQ44" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="AR44" s="82"/>
-      <c r="AS44" s="82"/>
-      <c r="AT44" s="82"/>
-      <c r="AU44" s="82"/>
-      <c r="AV44" s="82"/>
-      <c r="AW44" s="82"/>
-      <c r="AX44" s="82"/>
-      <c r="AY44" s="82"/>
-      <c r="AZ44" s="82"/>
-      <c r="BA44" s="82"/>
-      <c r="BB44" s="82"/>
-      <c r="BC44" s="82"/>
-      <c r="BD44" s="82"/>
-      <c r="BE44" s="82"/>
-      <c r="BF44" s="82"/>
-      <c r="BG44" s="83"/>
+      <c r="AR44" s="58"/>
+      <c r="AS44" s="58"/>
+      <c r="AT44" s="58"/>
+      <c r="AU44" s="58"/>
+      <c r="AV44" s="58"/>
+      <c r="AW44" s="58"/>
+      <c r="AX44" s="58"/>
+      <c r="AY44" s="58"/>
+      <c r="AZ44" s="58"/>
+      <c r="BA44" s="58"/>
+      <c r="BB44" s="58"/>
+      <c r="BC44" s="58"/>
+      <c r="BD44" s="58"/>
+      <c r="BE44" s="58"/>
+      <c r="BF44" s="58"/>
+      <c r="BG44" s="59"/>
       <c r="BH44" s="4"/>
       <c r="BI44" s="4"/>
       <c r="BJ44" s="4"/>
@@ -7592,35 +7596,35 @@
       <c r="G45" s="19"/>
       <c r="H45" s="19"/>
       <c r="I45" s="17"/>
-      <c r="J45" s="92" t="s">
-        <v>135</v>
+      <c r="J45" s="62" t="s">
+        <v>130</v>
       </c>
-      <c r="K45" s="93"/>
-      <c r="L45" s="93"/>
-      <c r="M45" s="93"/>
-      <c r="N45" s="93"/>
-      <c r="O45" s="93"/>
-      <c r="P45" s="93"/>
-      <c r="Q45" s="94"/>
-      <c r="R45" s="90" t="s">
-        <v>136</v>
+      <c r="K45" s="63"/>
+      <c r="L45" s="63"/>
+      <c r="M45" s="63"/>
+      <c r="N45" s="63"/>
+      <c r="O45" s="63"/>
+      <c r="P45" s="63"/>
+      <c r="Q45" s="64"/>
+      <c r="R45" s="87" t="s">
+        <v>163</v>
       </c>
-      <c r="S45" s="87"/>
-      <c r="T45" s="87"/>
-      <c r="U45" s="87"/>
-      <c r="V45" s="87"/>
-      <c r="W45" s="87"/>
-      <c r="X45" s="87"/>
-      <c r="Y45" s="87"/>
-      <c r="Z45" s="87"/>
-      <c r="AA45" s="87"/>
-      <c r="AB45" s="87"/>
-      <c r="AC45" s="87"/>
-      <c r="AD45" s="87"/>
-      <c r="AE45" s="87"/>
-      <c r="AF45" s="87"/>
-      <c r="AG45" s="87"/>
-      <c r="AH45" s="88"/>
+      <c r="S45" s="82"/>
+      <c r="T45" s="82"/>
+      <c r="U45" s="82"/>
+      <c r="V45" s="82"/>
+      <c r="W45" s="82"/>
+      <c r="X45" s="82"/>
+      <c r="Y45" s="82"/>
+      <c r="Z45" s="82"/>
+      <c r="AA45" s="82"/>
+      <c r="AB45" s="82"/>
+      <c r="AC45" s="82"/>
+      <c r="AD45" s="82"/>
+      <c r="AE45" s="82"/>
+      <c r="AF45" s="82"/>
+      <c r="AG45" s="82"/>
+      <c r="AH45" s="83"/>
       <c r="AI45" s="20" t="s">
         <v>32</v>
       </c>
@@ -7631,25 +7635,25 @@
       <c r="AN45" s="51"/>
       <c r="AO45" s="51"/>
       <c r="AP45" s="16"/>
-      <c r="AQ45" s="81" t="s">
+      <c r="AQ45" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="AR45" s="85"/>
-      <c r="AS45" s="85"/>
-      <c r="AT45" s="85"/>
-      <c r="AU45" s="85"/>
-      <c r="AV45" s="85"/>
-      <c r="AW45" s="85"/>
-      <c r="AX45" s="85"/>
-      <c r="AY45" s="85"/>
-      <c r="AZ45" s="85"/>
-      <c r="BA45" s="85"/>
-      <c r="BB45" s="85"/>
-      <c r="BC45" s="85"/>
-      <c r="BD45" s="85"/>
-      <c r="BE45" s="85"/>
-      <c r="BF45" s="85"/>
-      <c r="BG45" s="83"/>
+      <c r="AR45" s="60"/>
+      <c r="AS45" s="60"/>
+      <c r="AT45" s="60"/>
+      <c r="AU45" s="60"/>
+      <c r="AV45" s="60"/>
+      <c r="AW45" s="60"/>
+      <c r="AX45" s="60"/>
+      <c r="AY45" s="60"/>
+      <c r="AZ45" s="60"/>
+      <c r="BA45" s="60"/>
+      <c r="BB45" s="60"/>
+      <c r="BC45" s="60"/>
+      <c r="BD45" s="60"/>
+      <c r="BE45" s="60"/>
+      <c r="BF45" s="60"/>
+      <c r="BG45" s="59"/>
       <c r="BH45" s="4"/>
       <c r="BI45" s="4"/>
       <c r="BJ45" s="4"/>
@@ -7671,33 +7675,33 @@
       <c r="G46" s="51"/>
       <c r="H46" s="51"/>
       <c r="I46" s="15"/>
-      <c r="J46" s="95"/>
-      <c r="K46" s="96"/>
-      <c r="L46" s="96"/>
-      <c r="M46" s="96"/>
-      <c r="N46" s="96"/>
-      <c r="O46" s="96"/>
-      <c r="P46" s="96"/>
-      <c r="Q46" s="97"/>
-      <c r="R46" s="133" t="s">
-        <v>143</v>
+      <c r="J46" s="65"/>
+      <c r="K46" s="66"/>
+      <c r="L46" s="66"/>
+      <c r="M46" s="66"/>
+      <c r="N46" s="66"/>
+      <c r="O46" s="66"/>
+      <c r="P46" s="66"/>
+      <c r="Q46" s="67"/>
+      <c r="R46" s="102" t="s">
+        <v>136</v>
       </c>
-      <c r="S46" s="87"/>
-      <c r="T46" s="87"/>
-      <c r="U46" s="87"/>
-      <c r="V46" s="87"/>
-      <c r="W46" s="87"/>
-      <c r="X46" s="87"/>
-      <c r="Y46" s="87"/>
-      <c r="Z46" s="87"/>
-      <c r="AA46" s="87"/>
-      <c r="AB46" s="87"/>
-      <c r="AC46" s="87"/>
-      <c r="AD46" s="87"/>
-      <c r="AE46" s="87"/>
-      <c r="AF46" s="87"/>
-      <c r="AG46" s="87"/>
-      <c r="AH46" s="88"/>
+      <c r="S46" s="82"/>
+      <c r="T46" s="82"/>
+      <c r="U46" s="82"/>
+      <c r="V46" s="82"/>
+      <c r="W46" s="82"/>
+      <c r="X46" s="82"/>
+      <c r="Y46" s="82"/>
+      <c r="Z46" s="82"/>
+      <c r="AA46" s="82"/>
+      <c r="AB46" s="82"/>
+      <c r="AC46" s="82"/>
+      <c r="AD46" s="82"/>
+      <c r="AE46" s="82"/>
+      <c r="AF46" s="82"/>
+      <c r="AG46" s="82"/>
+      <c r="AH46" s="83"/>
       <c r="AI46" s="20" t="s">
         <v>32</v>
       </c>
@@ -7708,25 +7712,25 @@
       <c r="AN46" s="51"/>
       <c r="AO46" s="51"/>
       <c r="AP46" s="16"/>
-      <c r="AQ46" s="81" t="s">
+      <c r="AQ46" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="AR46" s="85"/>
-      <c r="AS46" s="85"/>
-      <c r="AT46" s="85"/>
-      <c r="AU46" s="85"/>
-      <c r="AV46" s="85"/>
-      <c r="AW46" s="85"/>
-      <c r="AX46" s="85"/>
-      <c r="AY46" s="85"/>
-      <c r="AZ46" s="85"/>
-      <c r="BA46" s="85"/>
-      <c r="BB46" s="85"/>
-      <c r="BC46" s="85"/>
-      <c r="BD46" s="85"/>
-      <c r="BE46" s="85"/>
-      <c r="BF46" s="85"/>
-      <c r="BG46" s="83"/>
+      <c r="AR46" s="60"/>
+      <c r="AS46" s="60"/>
+      <c r="AT46" s="60"/>
+      <c r="AU46" s="60"/>
+      <c r="AV46" s="60"/>
+      <c r="AW46" s="60"/>
+      <c r="AX46" s="60"/>
+      <c r="AY46" s="60"/>
+      <c r="AZ46" s="60"/>
+      <c r="BA46" s="60"/>
+      <c r="BB46" s="60"/>
+      <c r="BC46" s="60"/>
+      <c r="BD46" s="60"/>
+      <c r="BE46" s="60"/>
+      <c r="BF46" s="60"/>
+      <c r="BG46" s="59"/>
       <c r="BH46" s="4"/>
       <c r="BI46" s="4"/>
       <c r="BJ46" s="4"/>
@@ -7741,44 +7745,44 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>13</v>
       </c>
-      <c r="C47" s="86" t="s">
-        <v>43</v>
+      <c r="C47" s="81" t="s">
+        <v>41</v>
       </c>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="87"/>
-      <c r="I47" s="88"/>
-      <c r="J47" s="114" t="s">
-        <v>146</v>
+      <c r="D47" s="82"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="82"/>
+      <c r="I47" s="83"/>
+      <c r="J47" s="93" t="s">
+        <v>139</v>
       </c>
-      <c r="K47" s="115"/>
-      <c r="L47" s="115"/>
-      <c r="M47" s="115"/>
-      <c r="N47" s="115"/>
-      <c r="O47" s="115"/>
-      <c r="P47" s="115"/>
-      <c r="Q47" s="116"/>
-      <c r="R47" s="86" t="s">
-        <v>164</v>
+      <c r="K47" s="94"/>
+      <c r="L47" s="94"/>
+      <c r="M47" s="94"/>
+      <c r="N47" s="94"/>
+      <c r="O47" s="94"/>
+      <c r="P47" s="94"/>
+      <c r="Q47" s="95"/>
+      <c r="R47" s="81" t="s">
+        <v>157</v>
       </c>
-      <c r="S47" s="87"/>
-      <c r="T47" s="87"/>
-      <c r="U47" s="87"/>
-      <c r="V47" s="87"/>
-      <c r="W47" s="87"/>
-      <c r="X47" s="87"/>
-      <c r="Y47" s="87"/>
-      <c r="Z47" s="87"/>
-      <c r="AA47" s="87"/>
-      <c r="AB47" s="87"/>
-      <c r="AC47" s="87"/>
-      <c r="AD47" s="87"/>
-      <c r="AE47" s="87"/>
-      <c r="AF47" s="87"/>
-      <c r="AG47" s="87"/>
-      <c r="AH47" s="88"/>
+      <c r="S47" s="82"/>
+      <c r="T47" s="82"/>
+      <c r="U47" s="82"/>
+      <c r="V47" s="82"/>
+      <c r="W47" s="82"/>
+      <c r="X47" s="82"/>
+      <c r="Y47" s="82"/>
+      <c r="Z47" s="82"/>
+      <c r="AA47" s="82"/>
+      <c r="AB47" s="82"/>
+      <c r="AC47" s="82"/>
+      <c r="AD47" s="82"/>
+      <c r="AE47" s="82"/>
+      <c r="AF47" s="82"/>
+      <c r="AG47" s="82"/>
+      <c r="AH47" s="83"/>
       <c r="AI47" s="20" t="s">
         <v>32</v>
       </c>
@@ -7789,25 +7793,25 @@
       <c r="AN47" s="51"/>
       <c r="AO47" s="51"/>
       <c r="AP47" s="16"/>
-      <c r="AQ47" s="81" t="s">
+      <c r="AQ47" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="AR47" s="82"/>
-      <c r="AS47" s="82"/>
-      <c r="AT47" s="82"/>
-      <c r="AU47" s="82"/>
-      <c r="AV47" s="82"/>
-      <c r="AW47" s="82"/>
-      <c r="AX47" s="82"/>
-      <c r="AY47" s="82"/>
-      <c r="AZ47" s="82"/>
-      <c r="BA47" s="82"/>
-      <c r="BB47" s="82"/>
-      <c r="BC47" s="82"/>
-      <c r="BD47" s="82"/>
-      <c r="BE47" s="82"/>
-      <c r="BF47" s="82"/>
-      <c r="BG47" s="83"/>
+      <c r="AR47" s="58"/>
+      <c r="AS47" s="58"/>
+      <c r="AT47" s="58"/>
+      <c r="AU47" s="58"/>
+      <c r="AV47" s="58"/>
+      <c r="AW47" s="58"/>
+      <c r="AX47" s="58"/>
+      <c r="AY47" s="58"/>
+      <c r="AZ47" s="58"/>
+      <c r="BA47" s="58"/>
+      <c r="BB47" s="58"/>
+      <c r="BC47" s="58"/>
+      <c r="BD47" s="58"/>
+      <c r="BE47" s="58"/>
+      <c r="BF47" s="58"/>
+      <c r="BG47" s="59"/>
       <c r="BH47" s="4"/>
       <c r="BI47" s="4"/>
       <c r="BJ47" s="4"/>
@@ -7822,44 +7826,44 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>14</v>
       </c>
-      <c r="C48" s="89" t="s">
-        <v>144</v>
+      <c r="C48" s="88" t="s">
+        <v>137</v>
       </c>
-      <c r="D48" s="90"/>
-      <c r="E48" s="90"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="90"/>
-      <c r="H48" s="90"/>
-      <c r="I48" s="98"/>
-      <c r="J48" s="117" t="s">
-        <v>145</v>
+      <c r="D48" s="87"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="87"/>
+      <c r="G48" s="87"/>
+      <c r="H48" s="87"/>
+      <c r="I48" s="89"/>
+      <c r="J48" s="96" t="s">
+        <v>138</v>
       </c>
-      <c r="K48" s="118"/>
-      <c r="L48" s="118"/>
-      <c r="M48" s="118"/>
-      <c r="N48" s="118"/>
-      <c r="O48" s="118"/>
-      <c r="P48" s="118"/>
-      <c r="Q48" s="119"/>
-      <c r="R48" s="136" t="s">
-        <v>156</v>
+      <c r="K48" s="97"/>
+      <c r="L48" s="97"/>
+      <c r="M48" s="97"/>
+      <c r="N48" s="97"/>
+      <c r="O48" s="97"/>
+      <c r="P48" s="97"/>
+      <c r="Q48" s="98"/>
+      <c r="R48" s="99" t="s">
+        <v>149</v>
       </c>
-      <c r="S48" s="137"/>
-      <c r="T48" s="137"/>
-      <c r="U48" s="137"/>
-      <c r="V48" s="137"/>
-      <c r="W48" s="137"/>
-      <c r="X48" s="137"/>
-      <c r="Y48" s="137"/>
-      <c r="Z48" s="137"/>
-      <c r="AA48" s="137"/>
-      <c r="AB48" s="137"/>
-      <c r="AC48" s="137"/>
-      <c r="AD48" s="137"/>
-      <c r="AE48" s="137"/>
-      <c r="AF48" s="137"/>
-      <c r="AG48" s="137"/>
-      <c r="AH48" s="138"/>
+      <c r="S48" s="100"/>
+      <c r="T48" s="100"/>
+      <c r="U48" s="100"/>
+      <c r="V48" s="100"/>
+      <c r="W48" s="100"/>
+      <c r="X48" s="100"/>
+      <c r="Y48" s="100"/>
+      <c r="Z48" s="100"/>
+      <c r="AA48" s="100"/>
+      <c r="AB48" s="100"/>
+      <c r="AC48" s="100"/>
+      <c r="AD48" s="100"/>
+      <c r="AE48" s="100"/>
+      <c r="AF48" s="100"/>
+      <c r="AG48" s="100"/>
+      <c r="AH48" s="101"/>
       <c r="AI48" s="20" t="s">
         <v>32</v>
       </c>
@@ -7870,25 +7874,25 @@
       <c r="AN48" s="51"/>
       <c r="AO48" s="51"/>
       <c r="AP48" s="16"/>
-      <c r="AQ48" s="81" t="s">
+      <c r="AQ48" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="AR48" s="85"/>
-      <c r="AS48" s="85"/>
-      <c r="AT48" s="85"/>
-      <c r="AU48" s="85"/>
-      <c r="AV48" s="85"/>
-      <c r="AW48" s="85"/>
-      <c r="AX48" s="85"/>
-      <c r="AY48" s="85"/>
-      <c r="AZ48" s="85"/>
-      <c r="BA48" s="85"/>
-      <c r="BB48" s="85"/>
-      <c r="BC48" s="85"/>
-      <c r="BD48" s="85"/>
-      <c r="BE48" s="85"/>
-      <c r="BF48" s="85"/>
-      <c r="BG48" s="83"/>
+      <c r="AR48" s="60"/>
+      <c r="AS48" s="60"/>
+      <c r="AT48" s="60"/>
+      <c r="AU48" s="60"/>
+      <c r="AV48" s="60"/>
+      <c r="AW48" s="60"/>
+      <c r="AX48" s="60"/>
+      <c r="AY48" s="60"/>
+      <c r="AZ48" s="60"/>
+      <c r="BA48" s="60"/>
+      <c r="BB48" s="60"/>
+      <c r="BC48" s="60"/>
+      <c r="BD48" s="60"/>
+      <c r="BE48" s="60"/>
+      <c r="BF48" s="60"/>
+      <c r="BG48" s="59"/>
       <c r="BH48" s="4"/>
       <c r="BI48" s="4"/>
       <c r="BJ48" s="4"/>
@@ -7967,7 +7971,7 @@
     </row>
     <row r="50" spans="1:66" ht="16.5">
       <c r="A50" s="24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -8106,7 +8110,7 @@
     <row r="52" spans="1:66" ht="16.5" outlineLevel="1">
       <c r="A52" s="4"/>
       <c r="B52" s="22" t="s">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -8177,7 +8181,7 @@
       <c r="A53" s="4"/>
       <c r="B53" s="22"/>
       <c r="C53" s="23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D53" s="23"/>
       <c r="E53" s="23"/>
@@ -8248,7 +8252,7 @@
       <c r="B54" s="22"/>
       <c r="C54" s="23"/>
       <c r="D54" s="23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E54" s="23"/>
       <c r="F54" s="23"/>
@@ -8317,7 +8321,7 @@
       <c r="A55" s="4"/>
       <c r="B55" s="22"/>
       <c r="C55" s="23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D55" s="23"/>
       <c r="E55" s="23"/>
@@ -8388,7 +8392,7 @@
       <c r="B56" s="22"/>
       <c r="C56" s="23"/>
       <c r="D56" s="23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E56" s="23"/>
       <c r="F56" s="23"/>
@@ -8457,7 +8461,7 @@
       <c r="A57" s="4"/>
       <c r="B57" s="22"/>
       <c r="C57" s="23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D57" s="23"/>
       <c r="E57" s="23"/>
@@ -8528,7 +8532,7 @@
       <c r="B58" s="22"/>
       <c r="C58" s="23"/>
       <c r="D58" s="23" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E58" s="23"/>
       <c r="F58" s="23"/>
@@ -8664,7 +8668,7 @@
     <row r="60" spans="1:66" ht="16.5" outlineLevel="1">
       <c r="A60" s="4"/>
       <c r="B60" s="22" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -8735,7 +8739,7 @@
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D61" s="23"/>
       <c r="E61" s="23"/>
@@ -8806,7 +8810,7 @@
       <c r="B62" s="4"/>
       <c r="C62" s="23"/>
       <c r="D62" s="23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E62" s="23"/>
       <c r="F62" s="23"/>
@@ -8875,7 +8879,7 @@
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D63" s="23"/>
       <c r="E63" s="23"/>
@@ -8946,7 +8950,7 @@
       <c r="B64" s="4"/>
       <c r="C64" s="23"/>
       <c r="D64" s="23" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E64" s="23"/>
       <c r="F64" s="23"/>
@@ -9015,7 +9019,7 @@
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D65" s="23"/>
       <c r="E65" s="23"/>
@@ -9086,7 +9090,7 @@
       <c r="B66" s="4"/>
       <c r="C66" s="23"/>
       <c r="D66" s="23" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E66" s="23"/>
       <c r="F66" s="23"/>
@@ -9155,7 +9159,7 @@
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="23" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D67" s="23"/>
       <c r="E67" s="23"/>
@@ -9226,7 +9230,7 @@
       <c r="B68" s="4"/>
       <c r="C68" s="23"/>
       <c r="D68" s="23" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E68" s="23"/>
       <c r="F68" s="23"/>
@@ -9295,7 +9299,7 @@
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="23" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D69" s="23"/>
       <c r="E69" s="23"/>
@@ -9431,7 +9435,7 @@
     </row>
     <row r="71" spans="1:66" ht="16.5">
       <c r="A71" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -9637,12 +9641,28 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="C35:I35"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="C28:K28"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="L30:Q30"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="R26:W26"/>
+    <mergeCell ref="AD26:AF26"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="R27:W27"/>
+    <mergeCell ref="AD27:AF27"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="R28:W28"/>
+    <mergeCell ref="AD28:AF28"/>
+    <mergeCell ref="L29:Q29"/>
+    <mergeCell ref="R29:W29"/>
+    <mergeCell ref="AQ41:BG41"/>
+    <mergeCell ref="AQ42:BG42"/>
+    <mergeCell ref="AQ43:BG43"/>
+    <mergeCell ref="AD29:AF29"/>
+    <mergeCell ref="AD30:AF30"/>
+    <mergeCell ref="AQ36:BG36"/>
+    <mergeCell ref="AQ37:BG37"/>
+    <mergeCell ref="AQ38:BG38"/>
+    <mergeCell ref="AQ40:BG40"/>
     <mergeCell ref="R45:AH45"/>
     <mergeCell ref="R39:AH39"/>
     <mergeCell ref="C48:I48"/>
@@ -9654,28 +9674,12 @@
     <mergeCell ref="R48:AH48"/>
     <mergeCell ref="R40:AH40"/>
     <mergeCell ref="R46:AH46"/>
-    <mergeCell ref="AQ41:BG41"/>
-    <mergeCell ref="AQ42:BG42"/>
-    <mergeCell ref="AQ43:BG43"/>
-    <mergeCell ref="AD29:AF29"/>
-    <mergeCell ref="AD30:AF30"/>
-    <mergeCell ref="AQ36:BG36"/>
-    <mergeCell ref="AQ37:BG37"/>
-    <mergeCell ref="AQ38:BG38"/>
-    <mergeCell ref="AQ40:BG40"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="R28:W28"/>
-    <mergeCell ref="AD28:AF28"/>
-    <mergeCell ref="L29:Q29"/>
-    <mergeCell ref="R29:W29"/>
-    <mergeCell ref="L30:Q30"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="L26:Q26"/>
-    <mergeCell ref="R26:W26"/>
-    <mergeCell ref="AD26:AF26"/>
-    <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="R27:W27"/>
-    <mergeCell ref="AD27:AF27"/>
+    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="C30:K30"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9730,7 +9734,7 @@
   <sheetData>
     <row r="1" spans="1:66" ht="16.5">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -9868,35 +9872,35 @@
     </row>
     <row r="3" spans="1:66" ht="16.5">
       <c r="A3" s="5"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="57"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="122"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="122"/>
+      <c r="Z3" s="122"/>
+      <c r="AA3" s="122"/>
+      <c r="AB3" s="122"/>
+      <c r="AC3" s="122"/>
+      <c r="AD3" s="123"/>
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
       <c r="AG3" s="5"/>
@@ -9936,35 +9940,35 @@
     </row>
     <row r="4" spans="1:66" ht="16.5">
       <c r="A4" s="5"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="59"/>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="60"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="125"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="125"/>
+      <c r="Q4" s="125"/>
+      <c r="R4" s="125"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="125"/>
+      <c r="V4" s="125"/>
+      <c r="W4" s="125"/>
+      <c r="X4" s="125"/>
+      <c r="Y4" s="125"/>
+      <c r="Z4" s="125"/>
+      <c r="AA4" s="125"/>
+      <c r="AB4" s="125"/>
+      <c r="AC4" s="125"/>
+      <c r="AD4" s="126"/>
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
@@ -10004,35 +10008,35 @@
     </row>
     <row r="5" spans="1:66" ht="16.5">
       <c r="A5" s="5"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="59"/>
-      <c r="Y5" s="59"/>
-      <c r="Z5" s="59"/>
-      <c r="AA5" s="59"/>
-      <c r="AB5" s="59"/>
-      <c r="AC5" s="59"/>
-      <c r="AD5" s="60"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
+      <c r="O5" s="125"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="125"/>
+      <c r="R5" s="125"/>
+      <c r="S5" s="125"/>
+      <c r="T5" s="125"/>
+      <c r="U5" s="125"/>
+      <c r="V5" s="125"/>
+      <c r="W5" s="125"/>
+      <c r="X5" s="125"/>
+      <c r="Y5" s="125"/>
+      <c r="Z5" s="125"/>
+      <c r="AA5" s="125"/>
+      <c r="AB5" s="125"/>
+      <c r="AC5" s="125"/>
+      <c r="AD5" s="126"/>
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
@@ -10072,35 +10076,35 @@
     </row>
     <row r="6" spans="1:66" ht="16.5">
       <c r="A6" s="5"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="59"/>
-      <c r="AB6" s="59"/>
-      <c r="AC6" s="59"/>
-      <c r="AD6" s="60"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="125"/>
+      <c r="P6" s="125"/>
+      <c r="Q6" s="125"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="125"/>
+      <c r="T6" s="125"/>
+      <c r="U6" s="125"/>
+      <c r="V6" s="125"/>
+      <c r="W6" s="125"/>
+      <c r="X6" s="125"/>
+      <c r="Y6" s="125"/>
+      <c r="Z6" s="125"/>
+      <c r="AA6" s="125"/>
+      <c r="AB6" s="125"/>
+      <c r="AC6" s="125"/>
+      <c r="AD6" s="126"/>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
@@ -10140,35 +10144,35 @@
     </row>
     <row r="7" spans="1:66" ht="16.5">
       <c r="A7" s="5"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="59"/>
-      <c r="AB7" s="59"/>
-      <c r="AC7" s="59"/>
-      <c r="AD7" s="60"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="125"/>
+      <c r="M7" s="125"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="125"/>
+      <c r="R7" s="125"/>
+      <c r="S7" s="125"/>
+      <c r="T7" s="125"/>
+      <c r="U7" s="125"/>
+      <c r="V7" s="125"/>
+      <c r="W7" s="125"/>
+      <c r="X7" s="125"/>
+      <c r="Y7" s="125"/>
+      <c r="Z7" s="125"/>
+      <c r="AA7" s="125"/>
+      <c r="AB7" s="125"/>
+      <c r="AC7" s="125"/>
+      <c r="AD7" s="126"/>
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
@@ -10208,35 +10212,35 @@
     </row>
     <row r="8" spans="1:66" ht="16.5">
       <c r="A8" s="5"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="59"/>
-      <c r="AD8" s="60"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="125"/>
+      <c r="N8" s="125"/>
+      <c r="O8" s="125"/>
+      <c r="P8" s="125"/>
+      <c r="Q8" s="125"/>
+      <c r="R8" s="125"/>
+      <c r="S8" s="125"/>
+      <c r="T8" s="125"/>
+      <c r="U8" s="125"/>
+      <c r="V8" s="125"/>
+      <c r="W8" s="125"/>
+      <c r="X8" s="125"/>
+      <c r="Y8" s="125"/>
+      <c r="Z8" s="125"/>
+      <c r="AA8" s="125"/>
+      <c r="AB8" s="125"/>
+      <c r="AC8" s="125"/>
+      <c r="AD8" s="126"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
@@ -10276,35 +10280,35 @@
     </row>
     <row r="9" spans="1:66" ht="16.5">
       <c r="A9" s="5"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="59"/>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="59"/>
-      <c r="AD9" s="60"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="125"/>
+      <c r="K9" s="125"/>
+      <c r="L9" s="125"/>
+      <c r="M9" s="125"/>
+      <c r="N9" s="125"/>
+      <c r="O9" s="125"/>
+      <c r="P9" s="125"/>
+      <c r="Q9" s="125"/>
+      <c r="R9" s="125"/>
+      <c r="S9" s="125"/>
+      <c r="T9" s="125"/>
+      <c r="U9" s="125"/>
+      <c r="V9" s="125"/>
+      <c r="W9" s="125"/>
+      <c r="X9" s="125"/>
+      <c r="Y9" s="125"/>
+      <c r="Z9" s="125"/>
+      <c r="AA9" s="125"/>
+      <c r="AB9" s="125"/>
+      <c r="AC9" s="125"/>
+      <c r="AD9" s="126"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
       <c r="AG9" s="5"/>
@@ -10344,35 +10348,35 @@
     </row>
     <row r="10" spans="1:66" ht="16.5">
       <c r="A10" s="5"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="59"/>
-      <c r="AD10" s="60"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
+      <c r="O10" s="125"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="125"/>
+      <c r="R10" s="125"/>
+      <c r="S10" s="125"/>
+      <c r="T10" s="125"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="125"/>
+      <c r="Y10" s="125"/>
+      <c r="Z10" s="125"/>
+      <c r="AA10" s="125"/>
+      <c r="AB10" s="125"/>
+      <c r="AC10" s="125"/>
+      <c r="AD10" s="126"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
@@ -10412,35 +10416,35 @@
     </row>
     <row r="11" spans="1:66" ht="16.5">
       <c r="A11" s="5"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="59"/>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="59"/>
-      <c r="AD11" s="60"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="125"/>
+      <c r="K11" s="125"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="125"/>
+      <c r="N11" s="125"/>
+      <c r="O11" s="125"/>
+      <c r="P11" s="125"/>
+      <c r="Q11" s="125"/>
+      <c r="R11" s="125"/>
+      <c r="S11" s="125"/>
+      <c r="T11" s="125"/>
+      <c r="U11" s="125"/>
+      <c r="V11" s="125"/>
+      <c r="W11" s="125"/>
+      <c r="X11" s="125"/>
+      <c r="Y11" s="125"/>
+      <c r="Z11" s="125"/>
+      <c r="AA11" s="125"/>
+      <c r="AB11" s="125"/>
+      <c r="AC11" s="125"/>
+      <c r="AD11" s="126"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
       <c r="AG11" s="5"/>
@@ -10480,35 +10484,35 @@
     </row>
     <row r="12" spans="1:66" ht="16.5">
       <c r="A12" s="5"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="59"/>
-      <c r="AD12" s="60"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="125"/>
+      <c r="K12" s="125"/>
+      <c r="L12" s="125"/>
+      <c r="M12" s="125"/>
+      <c r="N12" s="125"/>
+      <c r="O12" s="125"/>
+      <c r="P12" s="125"/>
+      <c r="Q12" s="125"/>
+      <c r="R12" s="125"/>
+      <c r="S12" s="125"/>
+      <c r="T12" s="125"/>
+      <c r="U12" s="125"/>
+      <c r="V12" s="125"/>
+      <c r="W12" s="125"/>
+      <c r="X12" s="125"/>
+      <c r="Y12" s="125"/>
+      <c r="Z12" s="125"/>
+      <c r="AA12" s="125"/>
+      <c r="AB12" s="125"/>
+      <c r="AC12" s="125"/>
+      <c r="AD12" s="126"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
       <c r="AG12" s="5"/>
@@ -10548,35 +10552,35 @@
     </row>
     <row r="13" spans="1:66" ht="16.5">
       <c r="A13" s="5"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="59"/>
-      <c r="AD13" s="60"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="125"/>
+      <c r="K13" s="125"/>
+      <c r="L13" s="125"/>
+      <c r="M13" s="125"/>
+      <c r="N13" s="125"/>
+      <c r="O13" s="125"/>
+      <c r="P13" s="125"/>
+      <c r="Q13" s="125"/>
+      <c r="R13" s="125"/>
+      <c r="S13" s="125"/>
+      <c r="T13" s="125"/>
+      <c r="U13" s="125"/>
+      <c r="V13" s="125"/>
+      <c r="W13" s="125"/>
+      <c r="X13" s="125"/>
+      <c r="Y13" s="125"/>
+      <c r="Z13" s="125"/>
+      <c r="AA13" s="125"/>
+      <c r="AB13" s="125"/>
+      <c r="AC13" s="125"/>
+      <c r="AD13" s="126"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
       <c r="AG13" s="5"/>
@@ -10616,35 +10620,35 @@
     </row>
     <row r="14" spans="1:66" ht="16.5">
       <c r="A14" s="5"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="59"/>
-      <c r="AD14" s="60"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="125"/>
+      <c r="N14" s="125"/>
+      <c r="O14" s="125"/>
+      <c r="P14" s="125"/>
+      <c r="Q14" s="125"/>
+      <c r="R14" s="125"/>
+      <c r="S14" s="125"/>
+      <c r="T14" s="125"/>
+      <c r="U14" s="125"/>
+      <c r="V14" s="125"/>
+      <c r="W14" s="125"/>
+      <c r="X14" s="125"/>
+      <c r="Y14" s="125"/>
+      <c r="Z14" s="125"/>
+      <c r="AA14" s="125"/>
+      <c r="AB14" s="125"/>
+      <c r="AC14" s="125"/>
+      <c r="AD14" s="126"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
@@ -10684,35 +10688,35 @@
     </row>
     <row r="15" spans="1:66" ht="16.5">
       <c r="A15" s="5"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="59"/>
-      <c r="AA15" s="59"/>
-      <c r="AB15" s="59"/>
-      <c r="AC15" s="59"/>
-      <c r="AD15" s="60"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="125"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="125"/>
+      <c r="N15" s="125"/>
+      <c r="O15" s="125"/>
+      <c r="P15" s="125"/>
+      <c r="Q15" s="125"/>
+      <c r="R15" s="125"/>
+      <c r="S15" s="125"/>
+      <c r="T15" s="125"/>
+      <c r="U15" s="125"/>
+      <c r="V15" s="125"/>
+      <c r="W15" s="125"/>
+      <c r="X15" s="125"/>
+      <c r="Y15" s="125"/>
+      <c r="Z15" s="125"/>
+      <c r="AA15" s="125"/>
+      <c r="AB15" s="125"/>
+      <c r="AC15" s="125"/>
+      <c r="AD15" s="126"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
@@ -10752,35 +10756,35 @@
     </row>
     <row r="16" spans="1:66" ht="16.5">
       <c r="A16" s="5"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="59"/>
-      <c r="Z16" s="59"/>
-      <c r="AA16" s="59"/>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="60"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="125"/>
+      <c r="K16" s="125"/>
+      <c r="L16" s="125"/>
+      <c r="M16" s="125"/>
+      <c r="N16" s="125"/>
+      <c r="O16" s="125"/>
+      <c r="P16" s="125"/>
+      <c r="Q16" s="125"/>
+      <c r="R16" s="125"/>
+      <c r="S16" s="125"/>
+      <c r="T16" s="125"/>
+      <c r="U16" s="125"/>
+      <c r="V16" s="125"/>
+      <c r="W16" s="125"/>
+      <c r="X16" s="125"/>
+      <c r="Y16" s="125"/>
+      <c r="Z16" s="125"/>
+      <c r="AA16" s="125"/>
+      <c r="AB16" s="125"/>
+      <c r="AC16" s="125"/>
+      <c r="AD16" s="126"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
       <c r="AG16" s="5"/>
@@ -10820,35 +10824,35 @@
     </row>
     <row r="17" spans="1:66" ht="16.5">
       <c r="A17" s="5"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="59"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="59"/>
-      <c r="Z17" s="59"/>
-      <c r="AA17" s="59"/>
-      <c r="AB17" s="59"/>
-      <c r="AC17" s="59"/>
-      <c r="AD17" s="60"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="125"/>
+      <c r="N17" s="125"/>
+      <c r="O17" s="125"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="125"/>
+      <c r="R17" s="125"/>
+      <c r="S17" s="125"/>
+      <c r="T17" s="125"/>
+      <c r="U17" s="125"/>
+      <c r="V17" s="125"/>
+      <c r="W17" s="125"/>
+      <c r="X17" s="125"/>
+      <c r="Y17" s="125"/>
+      <c r="Z17" s="125"/>
+      <c r="AA17" s="125"/>
+      <c r="AB17" s="125"/>
+      <c r="AC17" s="125"/>
+      <c r="AD17" s="126"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
       <c r="AG17" s="5"/>
@@ -10888,35 +10892,35 @@
     </row>
     <row r="18" spans="1:66" ht="16.5">
       <c r="A18" s="5"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="59"/>
-      <c r="AA18" s="59"/>
-      <c r="AB18" s="59"/>
-      <c r="AC18" s="59"/>
-      <c r="AD18" s="60"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="125"/>
+      <c r="O18" s="125"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="125"/>
+      <c r="R18" s="125"/>
+      <c r="S18" s="125"/>
+      <c r="T18" s="125"/>
+      <c r="U18" s="125"/>
+      <c r="V18" s="125"/>
+      <c r="W18" s="125"/>
+      <c r="X18" s="125"/>
+      <c r="Y18" s="125"/>
+      <c r="Z18" s="125"/>
+      <c r="AA18" s="125"/>
+      <c r="AB18" s="125"/>
+      <c r="AC18" s="125"/>
+      <c r="AD18" s="126"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
       <c r="AG18" s="5"/>
@@ -10956,35 +10960,35 @@
     </row>
     <row r="19" spans="1:66" ht="16.5">
       <c r="A19" s="5"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="59"/>
-      <c r="AA19" s="59"/>
-      <c r="AB19" s="59"/>
-      <c r="AC19" s="59"/>
-      <c r="AD19" s="60"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="125"/>
+      <c r="K19" s="125"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="125"/>
+      <c r="N19" s="125"/>
+      <c r="O19" s="125"/>
+      <c r="P19" s="125"/>
+      <c r="Q19" s="125"/>
+      <c r="R19" s="125"/>
+      <c r="S19" s="125"/>
+      <c r="T19" s="125"/>
+      <c r="U19" s="125"/>
+      <c r="V19" s="125"/>
+      <c r="W19" s="125"/>
+      <c r="X19" s="125"/>
+      <c r="Y19" s="125"/>
+      <c r="Z19" s="125"/>
+      <c r="AA19" s="125"/>
+      <c r="AB19" s="125"/>
+      <c r="AC19" s="125"/>
+      <c r="AD19" s="126"/>
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
       <c r="AG19" s="5"/>
@@ -11024,35 +11028,35 @@
     </row>
     <row r="20" spans="1:66" ht="16.5">
       <c r="A20" s="5"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="59"/>
-      <c r="Z20" s="59"/>
-      <c r="AA20" s="59"/>
-      <c r="AB20" s="59"/>
-      <c r="AC20" s="59"/>
-      <c r="AD20" s="60"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="125"/>
+      <c r="K20" s="125"/>
+      <c r="L20" s="125"/>
+      <c r="M20" s="125"/>
+      <c r="N20" s="125"/>
+      <c r="O20" s="125"/>
+      <c r="P20" s="125"/>
+      <c r="Q20" s="125"/>
+      <c r="R20" s="125"/>
+      <c r="S20" s="125"/>
+      <c r="T20" s="125"/>
+      <c r="U20" s="125"/>
+      <c r="V20" s="125"/>
+      <c r="W20" s="125"/>
+      <c r="X20" s="125"/>
+      <c r="Y20" s="125"/>
+      <c r="Z20" s="125"/>
+      <c r="AA20" s="125"/>
+      <c r="AB20" s="125"/>
+      <c r="AC20" s="125"/>
+      <c r="AD20" s="126"/>
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
       <c r="AG20" s="5"/>
@@ -11092,35 +11096,35 @@
     </row>
     <row r="21" spans="1:66" ht="16.5">
       <c r="A21" s="5"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="59"/>
-      <c r="Z21" s="59"/>
-      <c r="AA21" s="59"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="59"/>
-      <c r="AD21" s="60"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="125"/>
+      <c r="J21" s="125"/>
+      <c r="K21" s="125"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="125"/>
+      <c r="N21" s="125"/>
+      <c r="O21" s="125"/>
+      <c r="P21" s="125"/>
+      <c r="Q21" s="125"/>
+      <c r="R21" s="125"/>
+      <c r="S21" s="125"/>
+      <c r="T21" s="125"/>
+      <c r="U21" s="125"/>
+      <c r="V21" s="125"/>
+      <c r="W21" s="125"/>
+      <c r="X21" s="125"/>
+      <c r="Y21" s="125"/>
+      <c r="Z21" s="125"/>
+      <c r="AA21" s="125"/>
+      <c r="AB21" s="125"/>
+      <c r="AC21" s="125"/>
+      <c r="AD21" s="126"/>
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
       <c r="AG21" s="5"/>
@@ -11160,35 +11164,35 @@
     </row>
     <row r="22" spans="1:66" ht="16.5">
       <c r="A22" s="5"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62"/>
-      <c r="U22" s="62"/>
-      <c r="V22" s="62"/>
-      <c r="W22" s="62"/>
-      <c r="X22" s="62"/>
-      <c r="Y22" s="62"/>
-      <c r="Z22" s="62"/>
-      <c r="AA22" s="62"/>
-      <c r="AB22" s="62"/>
-      <c r="AC22" s="62"/>
-      <c r="AD22" s="63"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="128"/>
+      <c r="K22" s="128"/>
+      <c r="L22" s="128"/>
+      <c r="M22" s="128"/>
+      <c r="N22" s="128"/>
+      <c r="O22" s="128"/>
+      <c r="P22" s="128"/>
+      <c r="Q22" s="128"/>
+      <c r="R22" s="128"/>
+      <c r="S22" s="128"/>
+      <c r="T22" s="128"/>
+      <c r="U22" s="128"/>
+      <c r="V22" s="128"/>
+      <c r="W22" s="128"/>
+      <c r="X22" s="128"/>
+      <c r="Y22" s="128"/>
+      <c r="Z22" s="128"/>
+      <c r="AA22" s="128"/>
+      <c r="AB22" s="128"/>
+      <c r="AC22" s="128"/>
+      <c r="AD22" s="129"/>
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
       <c r="AG22" s="5"/>
@@ -11296,7 +11300,7 @@
     </row>
     <row r="24" spans="1:66" ht="16.5">
       <c r="A24" s="24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="26"/>
@@ -11516,49 +11520,49 @@
     </row>
     <row r="27" spans="1:66" s="50" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A27" s="42"/>
-      <c r="B27" s="120" t="s">
-        <v>154</v>
+      <c r="B27" s="133" t="s">
+        <v>147</v>
       </c>
-      <c r="C27" s="121"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="121"/>
-      <c r="I27" s="121"/>
-      <c r="J27" s="121"/>
-      <c r="K27" s="121"/>
-      <c r="L27" s="121"/>
-      <c r="M27" s="121"/>
-      <c r="N27" s="121"/>
-      <c r="O27" s="121"/>
-      <c r="P27" s="121"/>
-      <c r="Q27" s="121"/>
-      <c r="R27" s="121"/>
-      <c r="S27" s="121"/>
-      <c r="T27" s="121"/>
-      <c r="U27" s="121"/>
-      <c r="V27" s="121"/>
-      <c r="W27" s="121"/>
-      <c r="X27" s="121"/>
-      <c r="Y27" s="121"/>
-      <c r="Z27" s="121"/>
-      <c r="AA27" s="121"/>
-      <c r="AB27" s="121"/>
-      <c r="AC27" s="121"/>
-      <c r="AD27" s="121"/>
-      <c r="AE27" s="121"/>
-      <c r="AF27" s="121"/>
-      <c r="AG27" s="121"/>
-      <c r="AH27" s="121"/>
-      <c r="AI27" s="121"/>
-      <c r="AJ27" s="121"/>
-      <c r="AK27" s="121"/>
-      <c r="AL27" s="121"/>
-      <c r="AM27" s="121"/>
-      <c r="AN27" s="121"/>
-      <c r="AO27" s="121"/>
-      <c r="AP27" s="122"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="134"/>
+      <c r="H27" s="134"/>
+      <c r="I27" s="134"/>
+      <c r="J27" s="134"/>
+      <c r="K27" s="134"/>
+      <c r="L27" s="134"/>
+      <c r="M27" s="134"/>
+      <c r="N27" s="134"/>
+      <c r="O27" s="134"/>
+      <c r="P27" s="134"/>
+      <c r="Q27" s="134"/>
+      <c r="R27" s="134"/>
+      <c r="S27" s="134"/>
+      <c r="T27" s="134"/>
+      <c r="U27" s="134"/>
+      <c r="V27" s="134"/>
+      <c r="W27" s="134"/>
+      <c r="X27" s="134"/>
+      <c r="Y27" s="134"/>
+      <c r="Z27" s="134"/>
+      <c r="AA27" s="134"/>
+      <c r="AB27" s="134"/>
+      <c r="AC27" s="134"/>
+      <c r="AD27" s="134"/>
+      <c r="AE27" s="134"/>
+      <c r="AF27" s="134"/>
+      <c r="AG27" s="134"/>
+      <c r="AH27" s="134"/>
+      <c r="AI27" s="134"/>
+      <c r="AJ27" s="134"/>
+      <c r="AK27" s="134"/>
+      <c r="AL27" s="134"/>
+      <c r="AM27" s="134"/>
+      <c r="AN27" s="134"/>
+      <c r="AO27" s="134"/>
+      <c r="AP27" s="135"/>
       <c r="AQ27" s="45"/>
       <c r="AR27" s="45"/>
       <c r="AS27" s="45"/>
@@ -11590,52 +11594,52 @@
         <f ca="1">MAX(B$26:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C28" s="68" t="s">
-        <v>54</v>
+      <c r="C28" s="131" t="s">
+        <v>51</v>
       </c>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="65" t="s">
-        <v>55</v>
+      <c r="D28" s="128"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="128"/>
+      <c r="I28" s="128"/>
+      <c r="J28" s="128"/>
+      <c r="K28" s="129"/>
+      <c r="L28" s="130" t="s">
+        <v>52</v>
       </c>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="65"/>
-      <c r="S28" s="53"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="53"/>
-      <c r="V28" s="53"/>
-      <c r="W28" s="54"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="130"/>
+      <c r="S28" s="77"/>
+      <c r="T28" s="77"/>
+      <c r="U28" s="77"/>
+      <c r="V28" s="77"/>
+      <c r="W28" s="78"/>
       <c r="X28" s="38"/>
       <c r="Y28" s="39"/>
       <c r="Z28" s="39"/>
       <c r="AA28" s="40"/>
       <c r="AB28" s="40"/>
       <c r="AC28" s="41"/>
-      <c r="AD28" s="68"/>
-      <c r="AE28" s="62"/>
-      <c r="AF28" s="63"/>
-      <c r="AG28" s="67" t="s">
-        <v>148</v>
+      <c r="AD28" s="131"/>
+      <c r="AE28" s="128"/>
+      <c r="AF28" s="129"/>
+      <c r="AG28" s="132" t="s">
+        <v>141</v>
       </c>
-      <c r="AH28" s="62"/>
-      <c r="AI28" s="62"/>
-      <c r="AJ28" s="62"/>
-      <c r="AK28" s="62"/>
-      <c r="AL28" s="62"/>
-      <c r="AM28" s="62"/>
-      <c r="AN28" s="62"/>
-      <c r="AO28" s="62"/>
-      <c r="AP28" s="63"/>
+      <c r="AH28" s="128"/>
+      <c r="AI28" s="128"/>
+      <c r="AJ28" s="128"/>
+      <c r="AK28" s="128"/>
+      <c r="AL28" s="128"/>
+      <c r="AM28" s="128"/>
+      <c r="AN28" s="128"/>
+      <c r="AO28" s="128"/>
+      <c r="AP28" s="129"/>
       <c r="AQ28" s="5"/>
       <c r="AR28" s="5"/>
       <c r="AS28" s="5"/>
@@ -11667,50 +11671,50 @@
         <f ca="1">MAX(B$26:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C29" s="68" t="s">
-        <v>56</v>
+      <c r="C29" s="131" t="s">
+        <v>53</v>
       </c>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="65" t="s">
-        <v>57</v>
+      <c r="D29" s="128"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="128"/>
+      <c r="G29" s="128"/>
+      <c r="H29" s="128"/>
+      <c r="I29" s="128"/>
+      <c r="J29" s="128"/>
+      <c r="K29" s="129"/>
+      <c r="L29" s="130" t="s">
+        <v>54</v>
       </c>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="65"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="53"/>
-      <c r="V29" s="53"/>
-      <c r="W29" s="54"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="77"/>
+      <c r="O29" s="77"/>
+      <c r="P29" s="77"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="130"/>
+      <c r="S29" s="77"/>
+      <c r="T29" s="77"/>
+      <c r="U29" s="77"/>
+      <c r="V29" s="77"/>
+      <c r="W29" s="78"/>
       <c r="X29" s="38"/>
       <c r="Y29" s="39"/>
       <c r="Z29" s="39"/>
       <c r="AA29" s="40"/>
       <c r="AB29" s="40"/>
       <c r="AC29" s="41"/>
-      <c r="AD29" s="68"/>
-      <c r="AE29" s="62"/>
-      <c r="AF29" s="63"/>
-      <c r="AG29" s="67"/>
-      <c r="AH29" s="62"/>
-      <c r="AI29" s="62"/>
-      <c r="AJ29" s="62"/>
-      <c r="AK29" s="62"/>
-      <c r="AL29" s="62"/>
-      <c r="AM29" s="62"/>
-      <c r="AN29" s="62"/>
-      <c r="AO29" s="62"/>
-      <c r="AP29" s="63"/>
+      <c r="AD29" s="131"/>
+      <c r="AE29" s="128"/>
+      <c r="AF29" s="129"/>
+      <c r="AG29" s="132"/>
+      <c r="AH29" s="128"/>
+      <c r="AI29" s="128"/>
+      <c r="AJ29" s="128"/>
+      <c r="AK29" s="128"/>
+      <c r="AL29" s="128"/>
+      <c r="AM29" s="128"/>
+      <c r="AN29" s="128"/>
+      <c r="AO29" s="128"/>
+      <c r="AP29" s="129"/>
       <c r="AQ29" s="5"/>
       <c r="AR29" s="5"/>
       <c r="AS29" s="5"/>
@@ -11738,49 +11742,49 @@
     </row>
     <row r="30" spans="1:66" s="50" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A30" s="42"/>
-      <c r="B30" s="120" t="s">
-        <v>153</v>
+      <c r="B30" s="133" t="s">
+        <v>146</v>
       </c>
-      <c r="C30" s="121"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="121"/>
-      <c r="H30" s="121"/>
-      <c r="I30" s="121"/>
-      <c r="J30" s="121"/>
-      <c r="K30" s="121"/>
-      <c r="L30" s="121"/>
-      <c r="M30" s="121"/>
-      <c r="N30" s="121"/>
-      <c r="O30" s="121"/>
-      <c r="P30" s="121"/>
-      <c r="Q30" s="121"/>
-      <c r="R30" s="121"/>
-      <c r="S30" s="121"/>
-      <c r="T30" s="121"/>
-      <c r="U30" s="121"/>
-      <c r="V30" s="121"/>
-      <c r="W30" s="121"/>
-      <c r="X30" s="121"/>
-      <c r="Y30" s="121"/>
-      <c r="Z30" s="121"/>
-      <c r="AA30" s="121"/>
-      <c r="AB30" s="121"/>
-      <c r="AC30" s="121"/>
-      <c r="AD30" s="121"/>
-      <c r="AE30" s="121"/>
-      <c r="AF30" s="121"/>
-      <c r="AG30" s="121"/>
-      <c r="AH30" s="121"/>
-      <c r="AI30" s="121"/>
-      <c r="AJ30" s="121"/>
-      <c r="AK30" s="121"/>
-      <c r="AL30" s="121"/>
-      <c r="AM30" s="121"/>
-      <c r="AN30" s="121"/>
-      <c r="AO30" s="121"/>
-      <c r="AP30" s="122"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="134"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="134"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="134"/>
+      <c r="J30" s="134"/>
+      <c r="K30" s="134"/>
+      <c r="L30" s="134"/>
+      <c r="M30" s="134"/>
+      <c r="N30" s="134"/>
+      <c r="O30" s="134"/>
+      <c r="P30" s="134"/>
+      <c r="Q30" s="134"/>
+      <c r="R30" s="134"/>
+      <c r="S30" s="134"/>
+      <c r="T30" s="134"/>
+      <c r="U30" s="134"/>
+      <c r="V30" s="134"/>
+      <c r="W30" s="134"/>
+      <c r="X30" s="134"/>
+      <c r="Y30" s="134"/>
+      <c r="Z30" s="134"/>
+      <c r="AA30" s="134"/>
+      <c r="AB30" s="134"/>
+      <c r="AC30" s="134"/>
+      <c r="AD30" s="134"/>
+      <c r="AE30" s="134"/>
+      <c r="AF30" s="134"/>
+      <c r="AG30" s="134"/>
+      <c r="AH30" s="134"/>
+      <c r="AI30" s="134"/>
+      <c r="AJ30" s="134"/>
+      <c r="AK30" s="134"/>
+      <c r="AL30" s="134"/>
+      <c r="AM30" s="134"/>
+      <c r="AN30" s="134"/>
+      <c r="AO30" s="134"/>
+      <c r="AP30" s="135"/>
       <c r="AQ30" s="45"/>
       <c r="AR30" s="45"/>
       <c r="AS30" s="45"/>
@@ -11812,52 +11816,52 @@
         <f ca="1">MAX(B$26:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
-      <c r="C31" s="68" t="s">
-        <v>149</v>
+      <c r="C31" s="131" t="s">
+        <v>142</v>
       </c>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="65" t="s">
-        <v>55</v>
+      <c r="D31" s="128"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="128"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="128"/>
+      <c r="J31" s="128"/>
+      <c r="K31" s="129"/>
+      <c r="L31" s="130" t="s">
+        <v>52</v>
       </c>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="54"/>
-      <c r="R31" s="65"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="53"/>
-      <c r="V31" s="53"/>
-      <c r="W31" s="54"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="77"/>
+      <c r="P31" s="77"/>
+      <c r="Q31" s="78"/>
+      <c r="R31" s="130"/>
+      <c r="S31" s="77"/>
+      <c r="T31" s="77"/>
+      <c r="U31" s="77"/>
+      <c r="V31" s="77"/>
+      <c r="W31" s="78"/>
       <c r="X31" s="38"/>
       <c r="Y31" s="39"/>
       <c r="Z31" s="39"/>
       <c r="AA31" s="40"/>
       <c r="AB31" s="40"/>
       <c r="AC31" s="41"/>
-      <c r="AD31" s="68"/>
-      <c r="AE31" s="62"/>
-      <c r="AF31" s="63"/>
-      <c r="AG31" s="67" t="s">
-        <v>58</v>
+      <c r="AD31" s="131"/>
+      <c r="AE31" s="128"/>
+      <c r="AF31" s="129"/>
+      <c r="AG31" s="132" t="s">
+        <v>55</v>
       </c>
-      <c r="AH31" s="62"/>
-      <c r="AI31" s="62"/>
-      <c r="AJ31" s="62"/>
-      <c r="AK31" s="62"/>
-      <c r="AL31" s="62"/>
-      <c r="AM31" s="62"/>
-      <c r="AN31" s="62"/>
-      <c r="AO31" s="62"/>
-      <c r="AP31" s="63"/>
+      <c r="AH31" s="128"/>
+      <c r="AI31" s="128"/>
+      <c r="AJ31" s="128"/>
+      <c r="AK31" s="128"/>
+      <c r="AL31" s="128"/>
+      <c r="AM31" s="128"/>
+      <c r="AN31" s="128"/>
+      <c r="AO31" s="128"/>
+      <c r="AP31" s="129"/>
       <c r="AQ31" s="5"/>
       <c r="AR31" s="5"/>
       <c r="AS31" s="5"/>
@@ -11889,52 +11893,52 @@
         <f ca="1">MAX(B$26:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
-      <c r="C32" s="68" t="s">
-        <v>59</v>
+      <c r="C32" s="131" t="s">
+        <v>56</v>
       </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="65" t="s">
-        <v>55</v>
+      <c r="D32" s="128"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="128"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="128"/>
+      <c r="J32" s="128"/>
+      <c r="K32" s="129"/>
+      <c r="L32" s="130" t="s">
+        <v>52</v>
       </c>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="65"/>
-      <c r="S32" s="53"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="53"/>
-      <c r="V32" s="53"/>
-      <c r="W32" s="54"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="78"/>
+      <c r="R32" s="130"/>
+      <c r="S32" s="77"/>
+      <c r="T32" s="77"/>
+      <c r="U32" s="77"/>
+      <c r="V32" s="77"/>
+      <c r="W32" s="78"/>
       <c r="X32" s="38"/>
       <c r="Y32" s="39"/>
       <c r="Z32" s="39"/>
       <c r="AA32" s="40"/>
       <c r="AB32" s="40"/>
       <c r="AC32" s="41"/>
-      <c r="AD32" s="68"/>
-      <c r="AE32" s="62"/>
-      <c r="AF32" s="63"/>
-      <c r="AG32" s="67" t="s">
-        <v>60</v>
+      <c r="AD32" s="131"/>
+      <c r="AE32" s="128"/>
+      <c r="AF32" s="129"/>
+      <c r="AG32" s="132" t="s">
+        <v>57</v>
       </c>
-      <c r="AH32" s="62"/>
-      <c r="AI32" s="62"/>
-      <c r="AJ32" s="62"/>
-      <c r="AK32" s="62"/>
-      <c r="AL32" s="62"/>
-      <c r="AM32" s="62"/>
-      <c r="AN32" s="62"/>
-      <c r="AO32" s="62"/>
-      <c r="AP32" s="63"/>
+      <c r="AH32" s="128"/>
+      <c r="AI32" s="128"/>
+      <c r="AJ32" s="128"/>
+      <c r="AK32" s="128"/>
+      <c r="AL32" s="128"/>
+      <c r="AM32" s="128"/>
+      <c r="AN32" s="128"/>
+      <c r="AO32" s="128"/>
+      <c r="AP32" s="129"/>
       <c r="AQ32" s="5"/>
       <c r="AR32" s="5"/>
       <c r="AS32" s="5"/>
@@ -12030,7 +12034,7 @@
     </row>
     <row r="34" spans="1:66" ht="16.5">
       <c r="A34" s="24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B34" s="25"/>
       <c r="C34" s="26"/>
@@ -12252,71 +12256,71 @@
         <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C37" s="123" t="s">
+      <c r="C37" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="124"/>
-      <c r="E37" s="124"/>
-      <c r="F37" s="124"/>
-      <c r="G37" s="124"/>
-      <c r="H37" s="124"/>
-      <c r="I37" s="125"/>
-      <c r="J37" s="126" t="s">
+      <c r="D37" s="116"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="116"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="K37" s="124"/>
-      <c r="L37" s="124"/>
-      <c r="M37" s="124"/>
-      <c r="N37" s="124"/>
-      <c r="O37" s="124"/>
-      <c r="P37" s="124"/>
-      <c r="Q37" s="125"/>
-      <c r="R37" s="126" t="s">
+      <c r="K37" s="116"/>
+      <c r="L37" s="116"/>
+      <c r="M37" s="116"/>
+      <c r="N37" s="116"/>
+      <c r="O37" s="116"/>
+      <c r="P37" s="116"/>
+      <c r="Q37" s="117"/>
+      <c r="R37" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="S37" s="124"/>
-      <c r="T37" s="124"/>
-      <c r="U37" s="124"/>
-      <c r="V37" s="124"/>
-      <c r="W37" s="124"/>
-      <c r="X37" s="124"/>
-      <c r="Y37" s="124"/>
-      <c r="Z37" s="124"/>
-      <c r="AA37" s="124"/>
-      <c r="AB37" s="124"/>
-      <c r="AC37" s="124"/>
-      <c r="AD37" s="124"/>
-      <c r="AE37" s="124"/>
-      <c r="AF37" s="124"/>
-      <c r="AG37" s="124"/>
-      <c r="AH37" s="127" t="s">
+      <c r="S37" s="116"/>
+      <c r="T37" s="116"/>
+      <c r="U37" s="116"/>
+      <c r="V37" s="116"/>
+      <c r="W37" s="116"/>
+      <c r="X37" s="116"/>
+      <c r="Y37" s="116"/>
+      <c r="Z37" s="116"/>
+      <c r="AA37" s="116"/>
+      <c r="AB37" s="116"/>
+      <c r="AC37" s="116"/>
+      <c r="AD37" s="116"/>
+      <c r="AE37" s="116"/>
+      <c r="AF37" s="116"/>
+      <c r="AG37" s="116"/>
+      <c r="AH37" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AI37" s="128"/>
-      <c r="AJ37" s="128"/>
-      <c r="AK37" s="128"/>
-      <c r="AL37" s="128"/>
-      <c r="AM37" s="128"/>
-      <c r="AN37" s="128"/>
-      <c r="AO37" s="129"/>
-      <c r="AP37" s="127" t="s">
+      <c r="AI37" s="113"/>
+      <c r="AJ37" s="113"/>
+      <c r="AK37" s="113"/>
+      <c r="AL37" s="113"/>
+      <c r="AM37" s="113"/>
+      <c r="AN37" s="113"/>
+      <c r="AO37" s="114"/>
+      <c r="AP37" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AQ37" s="128"/>
-      <c r="AR37" s="128"/>
-      <c r="AS37" s="128"/>
-      <c r="AT37" s="128"/>
-      <c r="AU37" s="128"/>
-      <c r="AV37" s="128"/>
-      <c r="AW37" s="128"/>
-      <c r="AX37" s="128"/>
-      <c r="AY37" s="128"/>
-      <c r="AZ37" s="128"/>
-      <c r="BA37" s="128"/>
-      <c r="BB37" s="128"/>
-      <c r="BC37" s="128"/>
-      <c r="BD37" s="128"/>
-      <c r="BE37" s="129"/>
+      <c r="AQ37" s="113"/>
+      <c r="AR37" s="113"/>
+      <c r="AS37" s="113"/>
+      <c r="AT37" s="113"/>
+      <c r="AU37" s="113"/>
+      <c r="AV37" s="113"/>
+      <c r="AW37" s="113"/>
+      <c r="AX37" s="113"/>
+      <c r="AY37" s="113"/>
+      <c r="AZ37" s="113"/>
+      <c r="BA37" s="113"/>
+      <c r="BB37" s="113"/>
+      <c r="BC37" s="113"/>
+      <c r="BD37" s="113"/>
+      <c r="BE37" s="114"/>
       <c r="BF37" s="5"/>
       <c r="BG37" s="5"/>
       <c r="BH37" s="5"/>
@@ -12333,71 +12337,71 @@
         <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C38" s="123" t="s">
-        <v>62</v>
+      <c r="C38" s="136" t="s">
+        <v>59</v>
       </c>
-      <c r="D38" s="124"/>
-      <c r="E38" s="124"/>
-      <c r="F38" s="124"/>
-      <c r="G38" s="124"/>
-      <c r="H38" s="124"/>
-      <c r="I38" s="125"/>
-      <c r="J38" s="126" t="s">
-        <v>63</v>
+      <c r="D38" s="116"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="116"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="115" t="s">
+        <v>60</v>
       </c>
-      <c r="K38" s="124"/>
-      <c r="L38" s="124"/>
-      <c r="M38" s="124"/>
-      <c r="N38" s="124"/>
-      <c r="O38" s="124"/>
-      <c r="P38" s="124"/>
-      <c r="Q38" s="125"/>
-      <c r="R38" s="126" t="s">
-        <v>158</v>
+      <c r="K38" s="116"/>
+      <c r="L38" s="116"/>
+      <c r="M38" s="116"/>
+      <c r="N38" s="116"/>
+      <c r="O38" s="116"/>
+      <c r="P38" s="116"/>
+      <c r="Q38" s="117"/>
+      <c r="R38" s="115" t="s">
+        <v>151</v>
       </c>
-      <c r="S38" s="124"/>
-      <c r="T38" s="124"/>
-      <c r="U38" s="124"/>
-      <c r="V38" s="124"/>
-      <c r="W38" s="124"/>
-      <c r="X38" s="124"/>
-      <c r="Y38" s="124"/>
-      <c r="Z38" s="124"/>
-      <c r="AA38" s="124"/>
-      <c r="AB38" s="124"/>
-      <c r="AC38" s="124"/>
-      <c r="AD38" s="124"/>
-      <c r="AE38" s="124"/>
-      <c r="AF38" s="124"/>
-      <c r="AG38" s="124"/>
-      <c r="AH38" s="127" t="s">
+      <c r="S38" s="116"/>
+      <c r="T38" s="116"/>
+      <c r="U38" s="116"/>
+      <c r="V38" s="116"/>
+      <c r="W38" s="116"/>
+      <c r="X38" s="116"/>
+      <c r="Y38" s="116"/>
+      <c r="Z38" s="116"/>
+      <c r="AA38" s="116"/>
+      <c r="AB38" s="116"/>
+      <c r="AC38" s="116"/>
+      <c r="AD38" s="116"/>
+      <c r="AE38" s="116"/>
+      <c r="AF38" s="116"/>
+      <c r="AG38" s="116"/>
+      <c r="AH38" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AI38" s="128"/>
-      <c r="AJ38" s="128"/>
-      <c r="AK38" s="128"/>
-      <c r="AL38" s="128"/>
-      <c r="AM38" s="128"/>
-      <c r="AN38" s="128"/>
-      <c r="AO38" s="129"/>
-      <c r="AP38" s="127" t="s">
+      <c r="AI38" s="113"/>
+      <c r="AJ38" s="113"/>
+      <c r="AK38" s="113"/>
+      <c r="AL38" s="113"/>
+      <c r="AM38" s="113"/>
+      <c r="AN38" s="113"/>
+      <c r="AO38" s="114"/>
+      <c r="AP38" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AQ38" s="128"/>
-      <c r="AR38" s="128"/>
-      <c r="AS38" s="128"/>
-      <c r="AT38" s="128"/>
-      <c r="AU38" s="128"/>
-      <c r="AV38" s="128"/>
-      <c r="AW38" s="128"/>
-      <c r="AX38" s="128"/>
-      <c r="AY38" s="128"/>
-      <c r="AZ38" s="128"/>
-      <c r="BA38" s="128"/>
-      <c r="BB38" s="128"/>
-      <c r="BC38" s="128"/>
-      <c r="BD38" s="128"/>
-      <c r="BE38" s="129"/>
+      <c r="AQ38" s="113"/>
+      <c r="AR38" s="113"/>
+      <c r="AS38" s="113"/>
+      <c r="AT38" s="113"/>
+      <c r="AU38" s="113"/>
+      <c r="AV38" s="113"/>
+      <c r="AW38" s="113"/>
+      <c r="AX38" s="113"/>
+      <c r="AY38" s="113"/>
+      <c r="AZ38" s="113"/>
+      <c r="BA38" s="113"/>
+      <c r="BB38" s="113"/>
+      <c r="BC38" s="113"/>
+      <c r="BD38" s="113"/>
+      <c r="BE38" s="114"/>
       <c r="BF38" s="5"/>
       <c r="BG38" s="5"/>
       <c r="BH38" s="5"/>
@@ -12414,71 +12418,71 @@
         <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
-      <c r="C39" s="123" t="s">
-        <v>64</v>
+      <c r="C39" s="136" t="s">
+        <v>61</v>
       </c>
-      <c r="D39" s="124"/>
-      <c r="E39" s="124"/>
-      <c r="F39" s="124"/>
-      <c r="G39" s="124"/>
-      <c r="H39" s="124"/>
-      <c r="I39" s="125"/>
-      <c r="J39" s="126" t="s">
-        <v>65</v>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="116"/>
+      <c r="G39" s="116"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="117"/>
+      <c r="J39" s="115" t="s">
+        <v>62</v>
       </c>
-      <c r="K39" s="124"/>
-      <c r="L39" s="124"/>
-      <c r="M39" s="124"/>
-      <c r="N39" s="124"/>
-      <c r="O39" s="124"/>
-      <c r="P39" s="124"/>
-      <c r="Q39" s="125"/>
-      <c r="R39" s="126" t="s">
-        <v>160</v>
+      <c r="K39" s="116"/>
+      <c r="L39" s="116"/>
+      <c r="M39" s="116"/>
+      <c r="N39" s="116"/>
+      <c r="O39" s="116"/>
+      <c r="P39" s="116"/>
+      <c r="Q39" s="117"/>
+      <c r="R39" s="115" t="s">
+        <v>153</v>
       </c>
-      <c r="S39" s="124"/>
-      <c r="T39" s="124"/>
-      <c r="U39" s="124"/>
-      <c r="V39" s="124"/>
-      <c r="W39" s="124"/>
-      <c r="X39" s="124"/>
-      <c r="Y39" s="124"/>
-      <c r="Z39" s="124"/>
-      <c r="AA39" s="124"/>
-      <c r="AB39" s="124"/>
-      <c r="AC39" s="124"/>
-      <c r="AD39" s="124"/>
-      <c r="AE39" s="124"/>
-      <c r="AF39" s="124"/>
-      <c r="AG39" s="124"/>
-      <c r="AH39" s="127" t="s">
+      <c r="S39" s="116"/>
+      <c r="T39" s="116"/>
+      <c r="U39" s="116"/>
+      <c r="V39" s="116"/>
+      <c r="W39" s="116"/>
+      <c r="X39" s="116"/>
+      <c r="Y39" s="116"/>
+      <c r="Z39" s="116"/>
+      <c r="AA39" s="116"/>
+      <c r="AB39" s="116"/>
+      <c r="AC39" s="116"/>
+      <c r="AD39" s="116"/>
+      <c r="AE39" s="116"/>
+      <c r="AF39" s="116"/>
+      <c r="AG39" s="116"/>
+      <c r="AH39" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AI39" s="128"/>
-      <c r="AJ39" s="128"/>
-      <c r="AK39" s="128"/>
-      <c r="AL39" s="128"/>
-      <c r="AM39" s="128"/>
-      <c r="AN39" s="128"/>
-      <c r="AO39" s="129"/>
-      <c r="AP39" s="127" t="s">
+      <c r="AI39" s="113"/>
+      <c r="AJ39" s="113"/>
+      <c r="AK39" s="113"/>
+      <c r="AL39" s="113"/>
+      <c r="AM39" s="113"/>
+      <c r="AN39" s="113"/>
+      <c r="AO39" s="114"/>
+      <c r="AP39" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AQ39" s="128"/>
-      <c r="AR39" s="128"/>
-      <c r="AS39" s="128"/>
-      <c r="AT39" s="128"/>
-      <c r="AU39" s="128"/>
-      <c r="AV39" s="128"/>
-      <c r="AW39" s="128"/>
-      <c r="AX39" s="128"/>
-      <c r="AY39" s="128"/>
-      <c r="AZ39" s="128"/>
-      <c r="BA39" s="128"/>
-      <c r="BB39" s="128"/>
-      <c r="BC39" s="128"/>
-      <c r="BD39" s="128"/>
-      <c r="BE39" s="129"/>
+      <c r="AQ39" s="113"/>
+      <c r="AR39" s="113"/>
+      <c r="AS39" s="113"/>
+      <c r="AT39" s="113"/>
+      <c r="AU39" s="113"/>
+      <c r="AV39" s="113"/>
+      <c r="AW39" s="113"/>
+      <c r="AX39" s="113"/>
+      <c r="AY39" s="113"/>
+      <c r="AZ39" s="113"/>
+      <c r="BA39" s="113"/>
+      <c r="BB39" s="113"/>
+      <c r="BC39" s="113"/>
+      <c r="BD39" s="113"/>
+      <c r="BE39" s="114"/>
       <c r="BF39" s="5"/>
       <c r="BG39" s="5"/>
       <c r="BH39" s="5"/>
@@ -12495,71 +12499,71 @@
         <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
-      <c r="C40" s="123" t="s">
-        <v>66</v>
+      <c r="C40" s="136" t="s">
+        <v>63</v>
       </c>
-      <c r="D40" s="124"/>
-      <c r="E40" s="124"/>
-      <c r="F40" s="124"/>
-      <c r="G40" s="124"/>
-      <c r="H40" s="124"/>
-      <c r="I40" s="125"/>
-      <c r="J40" s="126" t="s">
-        <v>67</v>
+      <c r="D40" s="116"/>
+      <c r="E40" s="116"/>
+      <c r="F40" s="116"/>
+      <c r="G40" s="116"/>
+      <c r="H40" s="116"/>
+      <c r="I40" s="117"/>
+      <c r="J40" s="115" t="s">
+        <v>64</v>
       </c>
-      <c r="K40" s="124"/>
-      <c r="L40" s="124"/>
-      <c r="M40" s="124"/>
-      <c r="N40" s="124"/>
-      <c r="O40" s="124"/>
-      <c r="P40" s="124"/>
-      <c r="Q40" s="125"/>
-      <c r="R40" s="126" t="s">
-        <v>159</v>
+      <c r="K40" s="116"/>
+      <c r="L40" s="116"/>
+      <c r="M40" s="116"/>
+      <c r="N40" s="116"/>
+      <c r="O40" s="116"/>
+      <c r="P40" s="116"/>
+      <c r="Q40" s="117"/>
+      <c r="R40" s="115" t="s">
+        <v>152</v>
       </c>
-      <c r="S40" s="124"/>
-      <c r="T40" s="124"/>
-      <c r="U40" s="124"/>
-      <c r="V40" s="124"/>
-      <c r="W40" s="124"/>
-      <c r="X40" s="124"/>
-      <c r="Y40" s="124"/>
-      <c r="Z40" s="124"/>
-      <c r="AA40" s="124"/>
-      <c r="AB40" s="124"/>
-      <c r="AC40" s="124"/>
-      <c r="AD40" s="124"/>
-      <c r="AE40" s="124"/>
-      <c r="AF40" s="124"/>
-      <c r="AG40" s="124"/>
-      <c r="AH40" s="127" t="s">
+      <c r="S40" s="116"/>
+      <c r="T40" s="116"/>
+      <c r="U40" s="116"/>
+      <c r="V40" s="116"/>
+      <c r="W40" s="116"/>
+      <c r="X40" s="116"/>
+      <c r="Y40" s="116"/>
+      <c r="Z40" s="116"/>
+      <c r="AA40" s="116"/>
+      <c r="AB40" s="116"/>
+      <c r="AC40" s="116"/>
+      <c r="AD40" s="116"/>
+      <c r="AE40" s="116"/>
+      <c r="AF40" s="116"/>
+      <c r="AG40" s="116"/>
+      <c r="AH40" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AI40" s="128"/>
-      <c r="AJ40" s="128"/>
-      <c r="AK40" s="128"/>
-      <c r="AL40" s="128"/>
-      <c r="AM40" s="128"/>
-      <c r="AN40" s="128"/>
-      <c r="AO40" s="129"/>
-      <c r="AP40" s="127" t="s">
+      <c r="AI40" s="113"/>
+      <c r="AJ40" s="113"/>
+      <c r="AK40" s="113"/>
+      <c r="AL40" s="113"/>
+      <c r="AM40" s="113"/>
+      <c r="AN40" s="113"/>
+      <c r="AO40" s="114"/>
+      <c r="AP40" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AQ40" s="128"/>
-      <c r="AR40" s="128"/>
-      <c r="AS40" s="128"/>
-      <c r="AT40" s="128"/>
-      <c r="AU40" s="128"/>
-      <c r="AV40" s="128"/>
-      <c r="AW40" s="128"/>
-      <c r="AX40" s="128"/>
-      <c r="AY40" s="128"/>
-      <c r="AZ40" s="128"/>
-      <c r="BA40" s="128"/>
-      <c r="BB40" s="128"/>
-      <c r="BC40" s="128"/>
-      <c r="BD40" s="128"/>
-      <c r="BE40" s="129"/>
+      <c r="AQ40" s="113"/>
+      <c r="AR40" s="113"/>
+      <c r="AS40" s="113"/>
+      <c r="AT40" s="113"/>
+      <c r="AU40" s="113"/>
+      <c r="AV40" s="113"/>
+      <c r="AW40" s="113"/>
+      <c r="AX40" s="113"/>
+      <c r="AY40" s="113"/>
+      <c r="AZ40" s="113"/>
+      <c r="BA40" s="113"/>
+      <c r="BB40" s="113"/>
+      <c r="BC40" s="113"/>
+      <c r="BD40" s="113"/>
+      <c r="BE40" s="114"/>
       <c r="BF40" s="5"/>
       <c r="BG40" s="5"/>
       <c r="BH40" s="5"/>
@@ -12576,71 +12580,71 @@
         <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>5</v>
       </c>
-      <c r="C41" s="123" t="s">
-        <v>68</v>
+      <c r="C41" s="136" t="s">
+        <v>65</v>
       </c>
-      <c r="D41" s="124"/>
-      <c r="E41" s="124"/>
-      <c r="F41" s="124"/>
-      <c r="G41" s="124"/>
-      <c r="H41" s="124"/>
-      <c r="I41" s="125"/>
-      <c r="J41" s="126" t="s">
-        <v>69</v>
+      <c r="D41" s="116"/>
+      <c r="E41" s="116"/>
+      <c r="F41" s="116"/>
+      <c r="G41" s="116"/>
+      <c r="H41" s="116"/>
+      <c r="I41" s="117"/>
+      <c r="J41" s="115" t="s">
+        <v>66</v>
       </c>
-      <c r="K41" s="124"/>
-      <c r="L41" s="124"/>
-      <c r="M41" s="124"/>
-      <c r="N41" s="124"/>
-      <c r="O41" s="124"/>
-      <c r="P41" s="124"/>
-      <c r="Q41" s="125"/>
-      <c r="R41" s="126" t="s">
-        <v>161</v>
+      <c r="K41" s="116"/>
+      <c r="L41" s="116"/>
+      <c r="M41" s="116"/>
+      <c r="N41" s="116"/>
+      <c r="O41" s="116"/>
+      <c r="P41" s="116"/>
+      <c r="Q41" s="117"/>
+      <c r="R41" s="115" t="s">
+        <v>154</v>
       </c>
-      <c r="S41" s="124"/>
-      <c r="T41" s="124"/>
-      <c r="U41" s="124"/>
-      <c r="V41" s="124"/>
-      <c r="W41" s="124"/>
-      <c r="X41" s="124"/>
-      <c r="Y41" s="124"/>
-      <c r="Z41" s="124"/>
-      <c r="AA41" s="124"/>
-      <c r="AB41" s="124"/>
-      <c r="AC41" s="124"/>
-      <c r="AD41" s="124"/>
-      <c r="AE41" s="124"/>
-      <c r="AF41" s="124"/>
-      <c r="AG41" s="124"/>
-      <c r="AH41" s="127" t="s">
+      <c r="S41" s="116"/>
+      <c r="T41" s="116"/>
+      <c r="U41" s="116"/>
+      <c r="V41" s="116"/>
+      <c r="W41" s="116"/>
+      <c r="X41" s="116"/>
+      <c r="Y41" s="116"/>
+      <c r="Z41" s="116"/>
+      <c r="AA41" s="116"/>
+      <c r="AB41" s="116"/>
+      <c r="AC41" s="116"/>
+      <c r="AD41" s="116"/>
+      <c r="AE41" s="116"/>
+      <c r="AF41" s="116"/>
+      <c r="AG41" s="116"/>
+      <c r="AH41" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AI41" s="128"/>
-      <c r="AJ41" s="128"/>
-      <c r="AK41" s="128"/>
-      <c r="AL41" s="128"/>
-      <c r="AM41" s="128"/>
-      <c r="AN41" s="128"/>
-      <c r="AO41" s="129"/>
-      <c r="AP41" s="127" t="s">
+      <c r="AI41" s="113"/>
+      <c r="AJ41" s="113"/>
+      <c r="AK41" s="113"/>
+      <c r="AL41" s="113"/>
+      <c r="AM41" s="113"/>
+      <c r="AN41" s="113"/>
+      <c r="AO41" s="114"/>
+      <c r="AP41" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AQ41" s="128"/>
-      <c r="AR41" s="128"/>
-      <c r="AS41" s="128"/>
-      <c r="AT41" s="128"/>
-      <c r="AU41" s="128"/>
-      <c r="AV41" s="128"/>
-      <c r="AW41" s="128"/>
-      <c r="AX41" s="128"/>
-      <c r="AY41" s="128"/>
-      <c r="AZ41" s="128"/>
-      <c r="BA41" s="128"/>
-      <c r="BB41" s="128"/>
-      <c r="BC41" s="128"/>
-      <c r="BD41" s="128"/>
-      <c r="BE41" s="129"/>
+      <c r="AQ41" s="113"/>
+      <c r="AR41" s="113"/>
+      <c r="AS41" s="113"/>
+      <c r="AT41" s="113"/>
+      <c r="AU41" s="113"/>
+      <c r="AV41" s="113"/>
+      <c r="AW41" s="113"/>
+      <c r="AX41" s="113"/>
+      <c r="AY41" s="113"/>
+      <c r="AZ41" s="113"/>
+      <c r="BA41" s="113"/>
+      <c r="BB41" s="113"/>
+      <c r="BC41" s="113"/>
+      <c r="BD41" s="113"/>
+      <c r="BE41" s="114"/>
       <c r="BF41" s="5"/>
       <c r="BG41" s="5"/>
       <c r="BH41" s="5"/>
@@ -12657,71 +12661,71 @@
         <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>6</v>
       </c>
-      <c r="C42" s="123" t="s">
-        <v>70</v>
+      <c r="C42" s="136" t="s">
+        <v>67</v>
       </c>
-      <c r="D42" s="124"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="124"/>
-      <c r="G42" s="124"/>
-      <c r="H42" s="124"/>
-      <c r="I42" s="125"/>
-      <c r="J42" s="126" t="s">
-        <v>71</v>
+      <c r="D42" s="116"/>
+      <c r="E42" s="116"/>
+      <c r="F42" s="116"/>
+      <c r="G42" s="116"/>
+      <c r="H42" s="116"/>
+      <c r="I42" s="117"/>
+      <c r="J42" s="115" t="s">
+        <v>68</v>
       </c>
-      <c r="K42" s="124"/>
-      <c r="L42" s="124"/>
-      <c r="M42" s="124"/>
-      <c r="N42" s="124"/>
-      <c r="O42" s="124"/>
-      <c r="P42" s="124"/>
-      <c r="Q42" s="125"/>
-      <c r="R42" s="126" t="s">
-        <v>162</v>
+      <c r="K42" s="116"/>
+      <c r="L42" s="116"/>
+      <c r="M42" s="116"/>
+      <c r="N42" s="116"/>
+      <c r="O42" s="116"/>
+      <c r="P42" s="116"/>
+      <c r="Q42" s="117"/>
+      <c r="R42" s="115" t="s">
+        <v>155</v>
       </c>
-      <c r="S42" s="124"/>
-      <c r="T42" s="124"/>
-      <c r="U42" s="124"/>
-      <c r="V42" s="124"/>
-      <c r="W42" s="124"/>
-      <c r="X42" s="124"/>
-      <c r="Y42" s="124"/>
-      <c r="Z42" s="124"/>
-      <c r="AA42" s="124"/>
-      <c r="AB42" s="124"/>
-      <c r="AC42" s="124"/>
-      <c r="AD42" s="124"/>
-      <c r="AE42" s="124"/>
-      <c r="AF42" s="124"/>
-      <c r="AG42" s="124"/>
-      <c r="AH42" s="127" t="s">
+      <c r="S42" s="116"/>
+      <c r="T42" s="116"/>
+      <c r="U42" s="116"/>
+      <c r="V42" s="116"/>
+      <c r="W42" s="116"/>
+      <c r="X42" s="116"/>
+      <c r="Y42" s="116"/>
+      <c r="Z42" s="116"/>
+      <c r="AA42" s="116"/>
+      <c r="AB42" s="116"/>
+      <c r="AC42" s="116"/>
+      <c r="AD42" s="116"/>
+      <c r="AE42" s="116"/>
+      <c r="AF42" s="116"/>
+      <c r="AG42" s="116"/>
+      <c r="AH42" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AI42" s="128"/>
-      <c r="AJ42" s="128"/>
-      <c r="AK42" s="128"/>
-      <c r="AL42" s="128"/>
-      <c r="AM42" s="128"/>
-      <c r="AN42" s="128"/>
-      <c r="AO42" s="129"/>
-      <c r="AP42" s="127" t="s">
+      <c r="AI42" s="113"/>
+      <c r="AJ42" s="113"/>
+      <c r="AK42" s="113"/>
+      <c r="AL42" s="113"/>
+      <c r="AM42" s="113"/>
+      <c r="AN42" s="113"/>
+      <c r="AO42" s="114"/>
+      <c r="AP42" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AQ42" s="128"/>
-      <c r="AR42" s="128"/>
-      <c r="AS42" s="128"/>
-      <c r="AT42" s="128"/>
-      <c r="AU42" s="128"/>
-      <c r="AV42" s="128"/>
-      <c r="AW42" s="128"/>
-      <c r="AX42" s="128"/>
-      <c r="AY42" s="128"/>
-      <c r="AZ42" s="128"/>
-      <c r="BA42" s="128"/>
-      <c r="BB42" s="128"/>
-      <c r="BC42" s="128"/>
-      <c r="BD42" s="128"/>
-      <c r="BE42" s="129"/>
+      <c r="AQ42" s="113"/>
+      <c r="AR42" s="113"/>
+      <c r="AS42" s="113"/>
+      <c r="AT42" s="113"/>
+      <c r="AU42" s="113"/>
+      <c r="AV42" s="113"/>
+      <c r="AW42" s="113"/>
+      <c r="AX42" s="113"/>
+      <c r="AY42" s="113"/>
+      <c r="AZ42" s="113"/>
+      <c r="BA42" s="113"/>
+      <c r="BB42" s="113"/>
+      <c r="BC42" s="113"/>
+      <c r="BD42" s="113"/>
+      <c r="BE42" s="114"/>
       <c r="BF42" s="5"/>
       <c r="BG42" s="5"/>
       <c r="BH42" s="5"/>
@@ -12738,71 +12742,71 @@
         <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>7</v>
       </c>
-      <c r="C43" s="123" t="s">
-        <v>72</v>
+      <c r="C43" s="136" t="s">
+        <v>69</v>
       </c>
-      <c r="D43" s="124"/>
-      <c r="E43" s="124"/>
-      <c r="F43" s="124"/>
-      <c r="G43" s="124"/>
-      <c r="H43" s="124"/>
-      <c r="I43" s="125"/>
-      <c r="J43" s="126" t="s">
-        <v>73</v>
+      <c r="D43" s="116"/>
+      <c r="E43" s="116"/>
+      <c r="F43" s="116"/>
+      <c r="G43" s="116"/>
+      <c r="H43" s="116"/>
+      <c r="I43" s="117"/>
+      <c r="J43" s="115" t="s">
+        <v>70</v>
       </c>
-      <c r="K43" s="124"/>
-      <c r="L43" s="124"/>
-      <c r="M43" s="124"/>
-      <c r="N43" s="124"/>
-      <c r="O43" s="124"/>
-      <c r="P43" s="124"/>
-      <c r="Q43" s="125"/>
-      <c r="R43" s="134" t="s">
-        <v>163</v>
+      <c r="K43" s="116"/>
+      <c r="L43" s="116"/>
+      <c r="M43" s="116"/>
+      <c r="N43" s="116"/>
+      <c r="O43" s="116"/>
+      <c r="P43" s="116"/>
+      <c r="Q43" s="117"/>
+      <c r="R43" s="137" t="s">
+        <v>156</v>
       </c>
-      <c r="S43" s="135"/>
-      <c r="T43" s="135"/>
-      <c r="U43" s="135"/>
-      <c r="V43" s="135"/>
-      <c r="W43" s="135"/>
-      <c r="X43" s="135"/>
-      <c r="Y43" s="135"/>
-      <c r="Z43" s="135"/>
-      <c r="AA43" s="135"/>
-      <c r="AB43" s="135"/>
-      <c r="AC43" s="135"/>
-      <c r="AD43" s="135"/>
-      <c r="AE43" s="135"/>
-      <c r="AF43" s="135"/>
-      <c r="AG43" s="135"/>
-      <c r="AH43" s="127" t="s">
+      <c r="S43" s="138"/>
+      <c r="T43" s="138"/>
+      <c r="U43" s="138"/>
+      <c r="V43" s="138"/>
+      <c r="W43" s="138"/>
+      <c r="X43" s="138"/>
+      <c r="Y43" s="138"/>
+      <c r="Z43" s="138"/>
+      <c r="AA43" s="138"/>
+      <c r="AB43" s="138"/>
+      <c r="AC43" s="138"/>
+      <c r="AD43" s="138"/>
+      <c r="AE43" s="138"/>
+      <c r="AF43" s="138"/>
+      <c r="AG43" s="138"/>
+      <c r="AH43" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AI43" s="128"/>
-      <c r="AJ43" s="128"/>
-      <c r="AK43" s="128"/>
-      <c r="AL43" s="128"/>
-      <c r="AM43" s="128"/>
-      <c r="AN43" s="128"/>
-      <c r="AO43" s="129"/>
-      <c r="AP43" s="127" t="s">
+      <c r="AI43" s="113"/>
+      <c r="AJ43" s="113"/>
+      <c r="AK43" s="113"/>
+      <c r="AL43" s="113"/>
+      <c r="AM43" s="113"/>
+      <c r="AN43" s="113"/>
+      <c r="AO43" s="114"/>
+      <c r="AP43" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AQ43" s="128"/>
-      <c r="AR43" s="128"/>
-      <c r="AS43" s="128"/>
-      <c r="AT43" s="128"/>
-      <c r="AU43" s="128"/>
-      <c r="AV43" s="128"/>
-      <c r="AW43" s="128"/>
-      <c r="AX43" s="128"/>
-      <c r="AY43" s="128"/>
-      <c r="AZ43" s="128"/>
-      <c r="BA43" s="128"/>
-      <c r="BB43" s="128"/>
-      <c r="BC43" s="128"/>
-      <c r="BD43" s="128"/>
-      <c r="BE43" s="129"/>
+      <c r="AQ43" s="113"/>
+      <c r="AR43" s="113"/>
+      <c r="AS43" s="113"/>
+      <c r="AT43" s="113"/>
+      <c r="AU43" s="113"/>
+      <c r="AV43" s="113"/>
+      <c r="AW43" s="113"/>
+      <c r="AX43" s="113"/>
+      <c r="AY43" s="113"/>
+      <c r="AZ43" s="113"/>
+      <c r="BA43" s="113"/>
+      <c r="BB43" s="113"/>
+      <c r="BC43" s="113"/>
+      <c r="BD43" s="113"/>
+      <c r="BE43" s="114"/>
       <c r="BF43" s="5"/>
       <c r="BG43" s="5"/>
       <c r="BH43" s="5"/>
@@ -12819,71 +12823,71 @@
         <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>8</v>
       </c>
-      <c r="C44" s="123" t="s">
-        <v>74</v>
+      <c r="C44" s="136" t="s">
+        <v>71</v>
       </c>
-      <c r="D44" s="124"/>
-      <c r="E44" s="124"/>
-      <c r="F44" s="124"/>
-      <c r="G44" s="124"/>
-      <c r="H44" s="124"/>
-      <c r="I44" s="125"/>
-      <c r="J44" s="126" t="s">
-        <v>75</v>
+      <c r="D44" s="116"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="116"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="116"/>
+      <c r="I44" s="117"/>
+      <c r="J44" s="115" t="s">
+        <v>72</v>
       </c>
-      <c r="K44" s="124"/>
-      <c r="L44" s="124"/>
-      <c r="M44" s="124"/>
-      <c r="N44" s="124"/>
-      <c r="O44" s="124"/>
-      <c r="P44" s="124"/>
-      <c r="Q44" s="125"/>
-      <c r="R44" s="126" t="s">
+      <c r="K44" s="116"/>
+      <c r="L44" s="116"/>
+      <c r="M44" s="116"/>
+      <c r="N44" s="116"/>
+      <c r="O44" s="116"/>
+      <c r="P44" s="116"/>
+      <c r="Q44" s="117"/>
+      <c r="R44" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="S44" s="124"/>
-      <c r="T44" s="124"/>
-      <c r="U44" s="124"/>
-      <c r="V44" s="124"/>
-      <c r="W44" s="124"/>
-      <c r="X44" s="124"/>
-      <c r="Y44" s="124"/>
-      <c r="Z44" s="124"/>
-      <c r="AA44" s="124"/>
-      <c r="AB44" s="124"/>
-      <c r="AC44" s="124"/>
-      <c r="AD44" s="124"/>
-      <c r="AE44" s="124"/>
-      <c r="AF44" s="124"/>
-      <c r="AG44" s="124"/>
-      <c r="AH44" s="127" t="s">
+      <c r="S44" s="116"/>
+      <c r="T44" s="116"/>
+      <c r="U44" s="116"/>
+      <c r="V44" s="116"/>
+      <c r="W44" s="116"/>
+      <c r="X44" s="116"/>
+      <c r="Y44" s="116"/>
+      <c r="Z44" s="116"/>
+      <c r="AA44" s="116"/>
+      <c r="AB44" s="116"/>
+      <c r="AC44" s="116"/>
+      <c r="AD44" s="116"/>
+      <c r="AE44" s="116"/>
+      <c r="AF44" s="116"/>
+      <c r="AG44" s="116"/>
+      <c r="AH44" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AI44" s="128"/>
-      <c r="AJ44" s="128"/>
-      <c r="AK44" s="128"/>
-      <c r="AL44" s="128"/>
-      <c r="AM44" s="128"/>
-      <c r="AN44" s="128"/>
-      <c r="AO44" s="129"/>
-      <c r="AP44" s="127" t="s">
+      <c r="AI44" s="113"/>
+      <c r="AJ44" s="113"/>
+      <c r="AK44" s="113"/>
+      <c r="AL44" s="113"/>
+      <c r="AM44" s="113"/>
+      <c r="AN44" s="113"/>
+      <c r="AO44" s="114"/>
+      <c r="AP44" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AQ44" s="128"/>
-      <c r="AR44" s="128"/>
-      <c r="AS44" s="128"/>
-      <c r="AT44" s="128"/>
-      <c r="AU44" s="128"/>
-      <c r="AV44" s="128"/>
-      <c r="AW44" s="128"/>
-      <c r="AX44" s="128"/>
-      <c r="AY44" s="128"/>
-      <c r="AZ44" s="128"/>
-      <c r="BA44" s="128"/>
-      <c r="BB44" s="128"/>
-      <c r="BC44" s="128"/>
-      <c r="BD44" s="128"/>
-      <c r="BE44" s="129"/>
+      <c r="AQ44" s="113"/>
+      <c r="AR44" s="113"/>
+      <c r="AS44" s="113"/>
+      <c r="AT44" s="113"/>
+      <c r="AU44" s="113"/>
+      <c r="AV44" s="113"/>
+      <c r="AW44" s="113"/>
+      <c r="AX44" s="113"/>
+      <c r="AY44" s="113"/>
+      <c r="AZ44" s="113"/>
+      <c r="BA44" s="113"/>
+      <c r="BB44" s="113"/>
+      <c r="BC44" s="113"/>
+      <c r="BD44" s="113"/>
+      <c r="BE44" s="114"/>
       <c r="BF44" s="5"/>
       <c r="BG44" s="5"/>
       <c r="BH44" s="5"/>
@@ -12900,71 +12904,71 @@
         <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>9</v>
       </c>
-      <c r="C45" s="123" t="s">
-        <v>76</v>
+      <c r="C45" s="136" t="s">
+        <v>73</v>
       </c>
-      <c r="D45" s="124"/>
-      <c r="E45" s="124"/>
-      <c r="F45" s="124"/>
-      <c r="G45" s="124"/>
-      <c r="H45" s="124"/>
-      <c r="I45" s="125"/>
-      <c r="J45" s="126" t="s">
-        <v>75</v>
+      <c r="D45" s="116"/>
+      <c r="E45" s="116"/>
+      <c r="F45" s="116"/>
+      <c r="G45" s="116"/>
+      <c r="H45" s="116"/>
+      <c r="I45" s="117"/>
+      <c r="J45" s="115" t="s">
+        <v>72</v>
       </c>
-      <c r="K45" s="124"/>
-      <c r="L45" s="124"/>
-      <c r="M45" s="124"/>
-      <c r="N45" s="124"/>
-      <c r="O45" s="124"/>
-      <c r="P45" s="124"/>
-      <c r="Q45" s="125"/>
-      <c r="R45" s="126" t="s">
+      <c r="K45" s="116"/>
+      <c r="L45" s="116"/>
+      <c r="M45" s="116"/>
+      <c r="N45" s="116"/>
+      <c r="O45" s="116"/>
+      <c r="P45" s="116"/>
+      <c r="Q45" s="117"/>
+      <c r="R45" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="S45" s="124"/>
-      <c r="T45" s="124"/>
-      <c r="U45" s="124"/>
-      <c r="V45" s="124"/>
-      <c r="W45" s="124"/>
-      <c r="X45" s="124"/>
-      <c r="Y45" s="124"/>
-      <c r="Z45" s="124"/>
-      <c r="AA45" s="124"/>
-      <c r="AB45" s="124"/>
-      <c r="AC45" s="124"/>
-      <c r="AD45" s="124"/>
-      <c r="AE45" s="124"/>
-      <c r="AF45" s="124"/>
-      <c r="AG45" s="124"/>
-      <c r="AH45" s="127" t="s">
+      <c r="S45" s="116"/>
+      <c r="T45" s="116"/>
+      <c r="U45" s="116"/>
+      <c r="V45" s="116"/>
+      <c r="W45" s="116"/>
+      <c r="X45" s="116"/>
+      <c r="Y45" s="116"/>
+      <c r="Z45" s="116"/>
+      <c r="AA45" s="116"/>
+      <c r="AB45" s="116"/>
+      <c r="AC45" s="116"/>
+      <c r="AD45" s="116"/>
+      <c r="AE45" s="116"/>
+      <c r="AF45" s="116"/>
+      <c r="AG45" s="116"/>
+      <c r="AH45" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AI45" s="128"/>
-      <c r="AJ45" s="128"/>
-      <c r="AK45" s="128"/>
-      <c r="AL45" s="128"/>
-      <c r="AM45" s="128"/>
-      <c r="AN45" s="128"/>
-      <c r="AO45" s="129"/>
-      <c r="AP45" s="127" t="s">
+      <c r="AI45" s="113"/>
+      <c r="AJ45" s="113"/>
+      <c r="AK45" s="113"/>
+      <c r="AL45" s="113"/>
+      <c r="AM45" s="113"/>
+      <c r="AN45" s="113"/>
+      <c r="AO45" s="114"/>
+      <c r="AP45" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AQ45" s="128"/>
-      <c r="AR45" s="128"/>
-      <c r="AS45" s="128"/>
-      <c r="AT45" s="128"/>
-      <c r="AU45" s="128"/>
-      <c r="AV45" s="128"/>
-      <c r="AW45" s="128"/>
-      <c r="AX45" s="128"/>
-      <c r="AY45" s="128"/>
-      <c r="AZ45" s="128"/>
-      <c r="BA45" s="128"/>
-      <c r="BB45" s="128"/>
-      <c r="BC45" s="128"/>
-      <c r="BD45" s="128"/>
-      <c r="BE45" s="129"/>
+      <c r="AQ45" s="113"/>
+      <c r="AR45" s="113"/>
+      <c r="AS45" s="113"/>
+      <c r="AT45" s="113"/>
+      <c r="AU45" s="113"/>
+      <c r="AV45" s="113"/>
+      <c r="AW45" s="113"/>
+      <c r="AX45" s="113"/>
+      <c r="AY45" s="113"/>
+      <c r="AZ45" s="113"/>
+      <c r="BA45" s="113"/>
+      <c r="BB45" s="113"/>
+      <c r="BC45" s="113"/>
+      <c r="BD45" s="113"/>
+      <c r="BE45" s="114"/>
       <c r="BF45" s="5"/>
       <c r="BG45" s="5"/>
       <c r="BH45" s="5"/>
@@ -12981,71 +12985,71 @@
         <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>10</v>
       </c>
-      <c r="C46" s="123" t="s">
-        <v>77</v>
+      <c r="C46" s="136" t="s">
+        <v>74</v>
       </c>
-      <c r="D46" s="124"/>
-      <c r="E46" s="124"/>
-      <c r="F46" s="124"/>
-      <c r="G46" s="124"/>
-      <c r="H46" s="124"/>
-      <c r="I46" s="125"/>
-      <c r="J46" s="126" t="s">
-        <v>75</v>
+      <c r="D46" s="116"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="116"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="116"/>
+      <c r="I46" s="117"/>
+      <c r="J46" s="115" t="s">
+        <v>72</v>
       </c>
-      <c r="K46" s="124"/>
-      <c r="L46" s="124"/>
-      <c r="M46" s="124"/>
-      <c r="N46" s="124"/>
-      <c r="O46" s="124"/>
-      <c r="P46" s="124"/>
-      <c r="Q46" s="125"/>
-      <c r="R46" s="126" t="s">
+      <c r="K46" s="116"/>
+      <c r="L46" s="116"/>
+      <c r="M46" s="116"/>
+      <c r="N46" s="116"/>
+      <c r="O46" s="116"/>
+      <c r="P46" s="116"/>
+      <c r="Q46" s="117"/>
+      <c r="R46" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="S46" s="124"/>
-      <c r="T46" s="124"/>
-      <c r="U46" s="124"/>
-      <c r="V46" s="124"/>
-      <c r="W46" s="124"/>
-      <c r="X46" s="124"/>
-      <c r="Y46" s="124"/>
-      <c r="Z46" s="124"/>
-      <c r="AA46" s="124"/>
-      <c r="AB46" s="124"/>
-      <c r="AC46" s="124"/>
-      <c r="AD46" s="124"/>
-      <c r="AE46" s="124"/>
-      <c r="AF46" s="124"/>
-      <c r="AG46" s="124"/>
-      <c r="AH46" s="127" t="s">
+      <c r="S46" s="116"/>
+      <c r="T46" s="116"/>
+      <c r="U46" s="116"/>
+      <c r="V46" s="116"/>
+      <c r="W46" s="116"/>
+      <c r="X46" s="116"/>
+      <c r="Y46" s="116"/>
+      <c r="Z46" s="116"/>
+      <c r="AA46" s="116"/>
+      <c r="AB46" s="116"/>
+      <c r="AC46" s="116"/>
+      <c r="AD46" s="116"/>
+      <c r="AE46" s="116"/>
+      <c r="AF46" s="116"/>
+      <c r="AG46" s="116"/>
+      <c r="AH46" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AI46" s="128"/>
-      <c r="AJ46" s="128"/>
-      <c r="AK46" s="128"/>
-      <c r="AL46" s="128"/>
-      <c r="AM46" s="128"/>
-      <c r="AN46" s="128"/>
-      <c r="AO46" s="129"/>
-      <c r="AP46" s="127" t="s">
+      <c r="AI46" s="113"/>
+      <c r="AJ46" s="113"/>
+      <c r="AK46" s="113"/>
+      <c r="AL46" s="113"/>
+      <c r="AM46" s="113"/>
+      <c r="AN46" s="113"/>
+      <c r="AO46" s="114"/>
+      <c r="AP46" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AQ46" s="128"/>
-      <c r="AR46" s="128"/>
-      <c r="AS46" s="128"/>
-      <c r="AT46" s="128"/>
-      <c r="AU46" s="128"/>
-      <c r="AV46" s="128"/>
-      <c r="AW46" s="128"/>
-      <c r="AX46" s="128"/>
-      <c r="AY46" s="128"/>
-      <c r="AZ46" s="128"/>
-      <c r="BA46" s="128"/>
-      <c r="BB46" s="128"/>
-      <c r="BC46" s="128"/>
-      <c r="BD46" s="128"/>
-      <c r="BE46" s="129"/>
+      <c r="AQ46" s="113"/>
+      <c r="AR46" s="113"/>
+      <c r="AS46" s="113"/>
+      <c r="AT46" s="113"/>
+      <c r="AU46" s="113"/>
+      <c r="AV46" s="113"/>
+      <c r="AW46" s="113"/>
+      <c r="AX46" s="113"/>
+      <c r="AY46" s="113"/>
+      <c r="AZ46" s="113"/>
+      <c r="BA46" s="113"/>
+      <c r="BB46" s="113"/>
+      <c r="BC46" s="113"/>
+      <c r="BD46" s="113"/>
+      <c r="BE46" s="114"/>
       <c r="BF46" s="5"/>
       <c r="BG46" s="5"/>
       <c r="BH46" s="5"/>
@@ -13062,71 +13066,71 @@
         <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>11</v>
       </c>
-      <c r="C47" s="123" t="s">
-        <v>78</v>
-      </c>
-      <c r="D47" s="124"/>
-      <c r="E47" s="124"/>
-      <c r="F47" s="124"/>
-      <c r="G47" s="124"/>
-      <c r="H47" s="124"/>
-      <c r="I47" s="125"/>
-      <c r="J47" s="126" t="s">
+      <c r="C47" s="136" t="s">
         <v>75</v>
       </c>
-      <c r="K47" s="124"/>
-      <c r="L47" s="124"/>
-      <c r="M47" s="124"/>
-      <c r="N47" s="124"/>
-      <c r="O47" s="124"/>
-      <c r="P47" s="124"/>
-      <c r="Q47" s="125"/>
-      <c r="R47" s="126" t="s">
+      <c r="D47" s="116"/>
+      <c r="E47" s="116"/>
+      <c r="F47" s="116"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="116"/>
+      <c r="I47" s="117"/>
+      <c r="J47" s="115" t="s">
+        <v>72</v>
+      </c>
+      <c r="K47" s="116"/>
+      <c r="L47" s="116"/>
+      <c r="M47" s="116"/>
+      <c r="N47" s="116"/>
+      <c r="O47" s="116"/>
+      <c r="P47" s="116"/>
+      <c r="Q47" s="117"/>
+      <c r="R47" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="S47" s="124"/>
-      <c r="T47" s="124"/>
-      <c r="U47" s="124"/>
-      <c r="V47" s="124"/>
-      <c r="W47" s="124"/>
-      <c r="X47" s="124"/>
-      <c r="Y47" s="124"/>
-      <c r="Z47" s="124"/>
-      <c r="AA47" s="124"/>
-      <c r="AB47" s="124"/>
-      <c r="AC47" s="124"/>
-      <c r="AD47" s="124"/>
-      <c r="AE47" s="124"/>
-      <c r="AF47" s="124"/>
-      <c r="AG47" s="124"/>
-      <c r="AH47" s="127" t="s">
+      <c r="S47" s="116"/>
+      <c r="T47" s="116"/>
+      <c r="U47" s="116"/>
+      <c r="V47" s="116"/>
+      <c r="W47" s="116"/>
+      <c r="X47" s="116"/>
+      <c r="Y47" s="116"/>
+      <c r="Z47" s="116"/>
+      <c r="AA47" s="116"/>
+      <c r="AB47" s="116"/>
+      <c r="AC47" s="116"/>
+      <c r="AD47" s="116"/>
+      <c r="AE47" s="116"/>
+      <c r="AF47" s="116"/>
+      <c r="AG47" s="116"/>
+      <c r="AH47" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AI47" s="128"/>
-      <c r="AJ47" s="128"/>
-      <c r="AK47" s="128"/>
-      <c r="AL47" s="128"/>
-      <c r="AM47" s="128"/>
-      <c r="AN47" s="128"/>
-      <c r="AO47" s="129"/>
-      <c r="AP47" s="127" t="s">
+      <c r="AI47" s="113"/>
+      <c r="AJ47" s="113"/>
+      <c r="AK47" s="113"/>
+      <c r="AL47" s="113"/>
+      <c r="AM47" s="113"/>
+      <c r="AN47" s="113"/>
+      <c r="AO47" s="114"/>
+      <c r="AP47" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AQ47" s="128"/>
-      <c r="AR47" s="128"/>
-      <c r="AS47" s="128"/>
-      <c r="AT47" s="128"/>
-      <c r="AU47" s="128"/>
-      <c r="AV47" s="128"/>
-      <c r="AW47" s="128"/>
-      <c r="AX47" s="128"/>
-      <c r="AY47" s="128"/>
-      <c r="AZ47" s="128"/>
-      <c r="BA47" s="128"/>
-      <c r="BB47" s="128"/>
-      <c r="BC47" s="128"/>
-      <c r="BD47" s="128"/>
-      <c r="BE47" s="129"/>
+      <c r="AQ47" s="113"/>
+      <c r="AR47" s="113"/>
+      <c r="AS47" s="113"/>
+      <c r="AT47" s="113"/>
+      <c r="AU47" s="113"/>
+      <c r="AV47" s="113"/>
+      <c r="AW47" s="113"/>
+      <c r="AX47" s="113"/>
+      <c r="AY47" s="113"/>
+      <c r="AZ47" s="113"/>
+      <c r="BA47" s="113"/>
+      <c r="BB47" s="113"/>
+      <c r="BC47" s="113"/>
+      <c r="BD47" s="113"/>
+      <c r="BE47" s="114"/>
       <c r="BF47" s="5"/>
       <c r="BG47" s="5"/>
       <c r="BH47" s="5"/>
@@ -13143,71 +13147,71 @@
         <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>12</v>
       </c>
-      <c r="C48" s="123" t="s">
-        <v>79</v>
+      <c r="C48" s="136" t="s">
+        <v>76</v>
       </c>
-      <c r="D48" s="124"/>
-      <c r="E48" s="124"/>
-      <c r="F48" s="124"/>
-      <c r="G48" s="124"/>
-      <c r="H48" s="124"/>
-      <c r="I48" s="125"/>
-      <c r="J48" s="126" t="s">
-        <v>75</v>
+      <c r="D48" s="116"/>
+      <c r="E48" s="116"/>
+      <c r="F48" s="116"/>
+      <c r="G48" s="116"/>
+      <c r="H48" s="116"/>
+      <c r="I48" s="117"/>
+      <c r="J48" s="115" t="s">
+        <v>72</v>
       </c>
-      <c r="K48" s="124"/>
-      <c r="L48" s="124"/>
-      <c r="M48" s="124"/>
-      <c r="N48" s="124"/>
-      <c r="O48" s="124"/>
-      <c r="P48" s="124"/>
-      <c r="Q48" s="125"/>
-      <c r="R48" s="126" t="s">
+      <c r="K48" s="116"/>
+      <c r="L48" s="116"/>
+      <c r="M48" s="116"/>
+      <c r="N48" s="116"/>
+      <c r="O48" s="116"/>
+      <c r="P48" s="116"/>
+      <c r="Q48" s="117"/>
+      <c r="R48" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="S48" s="124"/>
-      <c r="T48" s="124"/>
-      <c r="U48" s="124"/>
-      <c r="V48" s="124"/>
-      <c r="W48" s="124"/>
-      <c r="X48" s="124"/>
-      <c r="Y48" s="124"/>
-      <c r="Z48" s="124"/>
-      <c r="AA48" s="124"/>
-      <c r="AB48" s="124"/>
-      <c r="AC48" s="124"/>
-      <c r="AD48" s="124"/>
-      <c r="AE48" s="124"/>
-      <c r="AF48" s="124"/>
-      <c r="AG48" s="124"/>
-      <c r="AH48" s="127" t="s">
+      <c r="S48" s="116"/>
+      <c r="T48" s="116"/>
+      <c r="U48" s="116"/>
+      <c r="V48" s="116"/>
+      <c r="W48" s="116"/>
+      <c r="X48" s="116"/>
+      <c r="Y48" s="116"/>
+      <c r="Z48" s="116"/>
+      <c r="AA48" s="116"/>
+      <c r="AB48" s="116"/>
+      <c r="AC48" s="116"/>
+      <c r="AD48" s="116"/>
+      <c r="AE48" s="116"/>
+      <c r="AF48" s="116"/>
+      <c r="AG48" s="116"/>
+      <c r="AH48" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AI48" s="128"/>
-      <c r="AJ48" s="128"/>
-      <c r="AK48" s="128"/>
-      <c r="AL48" s="128"/>
-      <c r="AM48" s="128"/>
-      <c r="AN48" s="128"/>
-      <c r="AO48" s="129"/>
-      <c r="AP48" s="127" t="s">
+      <c r="AI48" s="113"/>
+      <c r="AJ48" s="113"/>
+      <c r="AK48" s="113"/>
+      <c r="AL48" s="113"/>
+      <c r="AM48" s="113"/>
+      <c r="AN48" s="113"/>
+      <c r="AO48" s="114"/>
+      <c r="AP48" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AQ48" s="128"/>
-      <c r="AR48" s="128"/>
-      <c r="AS48" s="128"/>
-      <c r="AT48" s="128"/>
-      <c r="AU48" s="128"/>
-      <c r="AV48" s="128"/>
-      <c r="AW48" s="128"/>
-      <c r="AX48" s="128"/>
-      <c r="AY48" s="128"/>
-      <c r="AZ48" s="128"/>
-      <c r="BA48" s="128"/>
-      <c r="BB48" s="128"/>
-      <c r="BC48" s="128"/>
-      <c r="BD48" s="128"/>
-      <c r="BE48" s="129"/>
+      <c r="AQ48" s="113"/>
+      <c r="AR48" s="113"/>
+      <c r="AS48" s="113"/>
+      <c r="AT48" s="113"/>
+      <c r="AU48" s="113"/>
+      <c r="AV48" s="113"/>
+      <c r="AW48" s="113"/>
+      <c r="AX48" s="113"/>
+      <c r="AY48" s="113"/>
+      <c r="AZ48" s="113"/>
+      <c r="BA48" s="113"/>
+      <c r="BB48" s="113"/>
+      <c r="BC48" s="113"/>
+      <c r="BD48" s="113"/>
+      <c r="BE48" s="114"/>
       <c r="BF48" s="5"/>
       <c r="BG48" s="5"/>
       <c r="BH48" s="5"/>
@@ -13224,71 +13228,71 @@
         <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>13</v>
       </c>
-      <c r="C49" s="123" t="s">
-        <v>80</v>
+      <c r="C49" s="136" t="s">
+        <v>77</v>
       </c>
-      <c r="D49" s="124"/>
-      <c r="E49" s="124"/>
-      <c r="F49" s="124"/>
-      <c r="G49" s="124"/>
-      <c r="H49" s="124"/>
-      <c r="I49" s="125"/>
-      <c r="J49" s="126" t="s">
-        <v>75</v>
+      <c r="D49" s="116"/>
+      <c r="E49" s="116"/>
+      <c r="F49" s="116"/>
+      <c r="G49" s="116"/>
+      <c r="H49" s="116"/>
+      <c r="I49" s="117"/>
+      <c r="J49" s="115" t="s">
+        <v>72</v>
       </c>
-      <c r="K49" s="124"/>
-      <c r="L49" s="124"/>
-      <c r="M49" s="124"/>
-      <c r="N49" s="124"/>
-      <c r="O49" s="124"/>
-      <c r="P49" s="124"/>
-      <c r="Q49" s="125"/>
-      <c r="R49" s="126" t="s">
+      <c r="K49" s="116"/>
+      <c r="L49" s="116"/>
+      <c r="M49" s="116"/>
+      <c r="N49" s="116"/>
+      <c r="O49" s="116"/>
+      <c r="P49" s="116"/>
+      <c r="Q49" s="117"/>
+      <c r="R49" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="S49" s="124"/>
-      <c r="T49" s="124"/>
-      <c r="U49" s="124"/>
-      <c r="V49" s="124"/>
-      <c r="W49" s="124"/>
-      <c r="X49" s="124"/>
-      <c r="Y49" s="124"/>
-      <c r="Z49" s="124"/>
-      <c r="AA49" s="124"/>
-      <c r="AB49" s="124"/>
-      <c r="AC49" s="124"/>
-      <c r="AD49" s="124"/>
-      <c r="AE49" s="124"/>
-      <c r="AF49" s="124"/>
-      <c r="AG49" s="124"/>
-      <c r="AH49" s="127" t="s">
+      <c r="S49" s="116"/>
+      <c r="T49" s="116"/>
+      <c r="U49" s="116"/>
+      <c r="V49" s="116"/>
+      <c r="W49" s="116"/>
+      <c r="X49" s="116"/>
+      <c r="Y49" s="116"/>
+      <c r="Z49" s="116"/>
+      <c r="AA49" s="116"/>
+      <c r="AB49" s="116"/>
+      <c r="AC49" s="116"/>
+      <c r="AD49" s="116"/>
+      <c r="AE49" s="116"/>
+      <c r="AF49" s="116"/>
+      <c r="AG49" s="116"/>
+      <c r="AH49" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AI49" s="128"/>
-      <c r="AJ49" s="128"/>
-      <c r="AK49" s="128"/>
-      <c r="AL49" s="128"/>
-      <c r="AM49" s="128"/>
-      <c r="AN49" s="128"/>
-      <c r="AO49" s="129"/>
-      <c r="AP49" s="127" t="s">
+      <c r="AI49" s="113"/>
+      <c r="AJ49" s="113"/>
+      <c r="AK49" s="113"/>
+      <c r="AL49" s="113"/>
+      <c r="AM49" s="113"/>
+      <c r="AN49" s="113"/>
+      <c r="AO49" s="114"/>
+      <c r="AP49" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AQ49" s="128"/>
-      <c r="AR49" s="128"/>
-      <c r="AS49" s="128"/>
-      <c r="AT49" s="128"/>
-      <c r="AU49" s="128"/>
-      <c r="AV49" s="128"/>
-      <c r="AW49" s="128"/>
-      <c r="AX49" s="128"/>
-      <c r="AY49" s="128"/>
-      <c r="AZ49" s="128"/>
-      <c r="BA49" s="128"/>
-      <c r="BB49" s="128"/>
-      <c r="BC49" s="128"/>
-      <c r="BD49" s="128"/>
-      <c r="BE49" s="129"/>
+      <c r="AQ49" s="113"/>
+      <c r="AR49" s="113"/>
+      <c r="AS49" s="113"/>
+      <c r="AT49" s="113"/>
+      <c r="AU49" s="113"/>
+      <c r="AV49" s="113"/>
+      <c r="AW49" s="113"/>
+      <c r="AX49" s="113"/>
+      <c r="AY49" s="113"/>
+      <c r="AZ49" s="113"/>
+      <c r="BA49" s="113"/>
+      <c r="BB49" s="113"/>
+      <c r="BC49" s="113"/>
+      <c r="BD49" s="113"/>
+      <c r="BE49" s="114"/>
       <c r="BF49" s="5"/>
       <c r="BG49" s="5"/>
       <c r="BH49" s="5"/>
@@ -13305,71 +13309,71 @@
         <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>14</v>
       </c>
-      <c r="C50" s="126" t="s">
-        <v>81</v>
+      <c r="C50" s="115" t="s">
+        <v>78</v>
       </c>
-      <c r="D50" s="124"/>
-      <c r="E50" s="124"/>
-      <c r="F50" s="124"/>
-      <c r="G50" s="124"/>
-      <c r="H50" s="124"/>
-      <c r="I50" s="125"/>
-      <c r="J50" s="126" t="s">
-        <v>75</v>
+      <c r="D50" s="116"/>
+      <c r="E50" s="116"/>
+      <c r="F50" s="116"/>
+      <c r="G50" s="116"/>
+      <c r="H50" s="116"/>
+      <c r="I50" s="117"/>
+      <c r="J50" s="115" t="s">
+        <v>72</v>
       </c>
-      <c r="K50" s="124"/>
-      <c r="L50" s="124"/>
-      <c r="M50" s="124"/>
-      <c r="N50" s="124"/>
-      <c r="O50" s="124"/>
-      <c r="P50" s="124"/>
-      <c r="Q50" s="125"/>
-      <c r="R50" s="126" t="s">
+      <c r="K50" s="116"/>
+      <c r="L50" s="116"/>
+      <c r="M50" s="116"/>
+      <c r="N50" s="116"/>
+      <c r="O50" s="116"/>
+      <c r="P50" s="116"/>
+      <c r="Q50" s="117"/>
+      <c r="R50" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="S50" s="124"/>
-      <c r="T50" s="124"/>
-      <c r="U50" s="124"/>
-      <c r="V50" s="124"/>
-      <c r="W50" s="124"/>
-      <c r="X50" s="124"/>
-      <c r="Y50" s="124"/>
-      <c r="Z50" s="124"/>
-      <c r="AA50" s="124"/>
-      <c r="AB50" s="124"/>
-      <c r="AC50" s="124"/>
-      <c r="AD50" s="124"/>
-      <c r="AE50" s="124"/>
-      <c r="AF50" s="124"/>
-      <c r="AG50" s="124"/>
-      <c r="AH50" s="127" t="s">
+      <c r="S50" s="116"/>
+      <c r="T50" s="116"/>
+      <c r="U50" s="116"/>
+      <c r="V50" s="116"/>
+      <c r="W50" s="116"/>
+      <c r="X50" s="116"/>
+      <c r="Y50" s="116"/>
+      <c r="Z50" s="116"/>
+      <c r="AA50" s="116"/>
+      <c r="AB50" s="116"/>
+      <c r="AC50" s="116"/>
+      <c r="AD50" s="116"/>
+      <c r="AE50" s="116"/>
+      <c r="AF50" s="116"/>
+      <c r="AG50" s="116"/>
+      <c r="AH50" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AI50" s="128"/>
-      <c r="AJ50" s="128"/>
-      <c r="AK50" s="128"/>
-      <c r="AL50" s="128"/>
-      <c r="AM50" s="128"/>
-      <c r="AN50" s="128"/>
-      <c r="AO50" s="129"/>
-      <c r="AP50" s="127" t="s">
+      <c r="AI50" s="113"/>
+      <c r="AJ50" s="113"/>
+      <c r="AK50" s="113"/>
+      <c r="AL50" s="113"/>
+      <c r="AM50" s="113"/>
+      <c r="AN50" s="113"/>
+      <c r="AO50" s="114"/>
+      <c r="AP50" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AQ50" s="128"/>
-      <c r="AR50" s="128"/>
-      <c r="AS50" s="128"/>
-      <c r="AT50" s="128"/>
-      <c r="AU50" s="128"/>
-      <c r="AV50" s="128"/>
-      <c r="AW50" s="128"/>
-      <c r="AX50" s="128"/>
-      <c r="AY50" s="128"/>
-      <c r="AZ50" s="128"/>
-      <c r="BA50" s="128"/>
-      <c r="BB50" s="128"/>
-      <c r="BC50" s="128"/>
-      <c r="BD50" s="128"/>
-      <c r="BE50" s="129"/>
+      <c r="AQ50" s="113"/>
+      <c r="AR50" s="113"/>
+      <c r="AS50" s="113"/>
+      <c r="AT50" s="113"/>
+      <c r="AU50" s="113"/>
+      <c r="AV50" s="113"/>
+      <c r="AW50" s="113"/>
+      <c r="AX50" s="113"/>
+      <c r="AY50" s="113"/>
+      <c r="AZ50" s="113"/>
+      <c r="BA50" s="113"/>
+      <c r="BB50" s="113"/>
+      <c r="BC50" s="113"/>
+      <c r="BD50" s="113"/>
+      <c r="BE50" s="114"/>
       <c r="BF50" s="5"/>
       <c r="BG50" s="5"/>
       <c r="BH50" s="5"/>
@@ -13386,71 +13390,71 @@
         <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>15</v>
       </c>
-      <c r="C51" s="126" t="s">
-        <v>82</v>
+      <c r="C51" s="115" t="s">
+        <v>79</v>
       </c>
-      <c r="D51" s="124"/>
-      <c r="E51" s="124"/>
-      <c r="F51" s="124"/>
-      <c r="G51" s="124"/>
-      <c r="H51" s="124"/>
-      <c r="I51" s="125"/>
-      <c r="J51" s="126" t="s">
-        <v>75</v>
+      <c r="D51" s="116"/>
+      <c r="E51" s="116"/>
+      <c r="F51" s="116"/>
+      <c r="G51" s="116"/>
+      <c r="H51" s="116"/>
+      <c r="I51" s="117"/>
+      <c r="J51" s="115" t="s">
+        <v>72</v>
       </c>
-      <c r="K51" s="124"/>
-      <c r="L51" s="124"/>
-      <c r="M51" s="124"/>
-      <c r="N51" s="124"/>
-      <c r="O51" s="124"/>
-      <c r="P51" s="124"/>
-      <c r="Q51" s="125"/>
-      <c r="R51" s="126" t="s">
+      <c r="K51" s="116"/>
+      <c r="L51" s="116"/>
+      <c r="M51" s="116"/>
+      <c r="N51" s="116"/>
+      <c r="O51" s="116"/>
+      <c r="P51" s="116"/>
+      <c r="Q51" s="117"/>
+      <c r="R51" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="S51" s="124"/>
-      <c r="T51" s="124"/>
-      <c r="U51" s="124"/>
-      <c r="V51" s="124"/>
-      <c r="W51" s="124"/>
-      <c r="X51" s="124"/>
-      <c r="Y51" s="124"/>
-      <c r="Z51" s="124"/>
-      <c r="AA51" s="124"/>
-      <c r="AB51" s="124"/>
-      <c r="AC51" s="124"/>
-      <c r="AD51" s="124"/>
-      <c r="AE51" s="124"/>
-      <c r="AF51" s="124"/>
-      <c r="AG51" s="124"/>
-      <c r="AH51" s="127" t="s">
+      <c r="S51" s="116"/>
+      <c r="T51" s="116"/>
+      <c r="U51" s="116"/>
+      <c r="V51" s="116"/>
+      <c r="W51" s="116"/>
+      <c r="X51" s="116"/>
+      <c r="Y51" s="116"/>
+      <c r="Z51" s="116"/>
+      <c r="AA51" s="116"/>
+      <c r="AB51" s="116"/>
+      <c r="AC51" s="116"/>
+      <c r="AD51" s="116"/>
+      <c r="AE51" s="116"/>
+      <c r="AF51" s="116"/>
+      <c r="AG51" s="116"/>
+      <c r="AH51" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AI51" s="128"/>
-      <c r="AJ51" s="128"/>
-      <c r="AK51" s="128"/>
-      <c r="AL51" s="128"/>
-      <c r="AM51" s="128"/>
-      <c r="AN51" s="128"/>
-      <c r="AO51" s="129"/>
-      <c r="AP51" s="127" t="s">
+      <c r="AI51" s="113"/>
+      <c r="AJ51" s="113"/>
+      <c r="AK51" s="113"/>
+      <c r="AL51" s="113"/>
+      <c r="AM51" s="113"/>
+      <c r="AN51" s="113"/>
+      <c r="AO51" s="114"/>
+      <c r="AP51" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AQ51" s="128"/>
-      <c r="AR51" s="128"/>
-      <c r="AS51" s="128"/>
-      <c r="AT51" s="128"/>
-      <c r="AU51" s="128"/>
-      <c r="AV51" s="128"/>
-      <c r="AW51" s="128"/>
-      <c r="AX51" s="128"/>
-      <c r="AY51" s="128"/>
-      <c r="AZ51" s="128"/>
-      <c r="BA51" s="128"/>
-      <c r="BB51" s="128"/>
-      <c r="BC51" s="128"/>
-      <c r="BD51" s="128"/>
-      <c r="BE51" s="129"/>
+      <c r="AQ51" s="113"/>
+      <c r="AR51" s="113"/>
+      <c r="AS51" s="113"/>
+      <c r="AT51" s="113"/>
+      <c r="AU51" s="113"/>
+      <c r="AV51" s="113"/>
+      <c r="AW51" s="113"/>
+      <c r="AX51" s="113"/>
+      <c r="AY51" s="113"/>
+      <c r="AZ51" s="113"/>
+      <c r="BA51" s="113"/>
+      <c r="BB51" s="113"/>
+      <c r="BC51" s="113"/>
+      <c r="BD51" s="113"/>
+      <c r="BE51" s="114"/>
       <c r="BF51" s="5"/>
       <c r="BG51" s="5"/>
       <c r="BH51" s="5"/>
@@ -13467,71 +13471,71 @@
         <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>16</v>
       </c>
-      <c r="C52" s="126" t="s">
-        <v>147</v>
+      <c r="C52" s="115" t="s">
+        <v>140</v>
       </c>
-      <c r="D52" s="124"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="124"/>
-      <c r="G52" s="124"/>
-      <c r="H52" s="124"/>
-      <c r="I52" s="125"/>
-      <c r="J52" s="126" t="s">
-        <v>75</v>
+      <c r="D52" s="116"/>
+      <c r="E52" s="116"/>
+      <c r="F52" s="116"/>
+      <c r="G52" s="116"/>
+      <c r="H52" s="116"/>
+      <c r="I52" s="117"/>
+      <c r="J52" s="115" t="s">
+        <v>72</v>
       </c>
-      <c r="K52" s="124"/>
-      <c r="L52" s="124"/>
-      <c r="M52" s="124"/>
-      <c r="N52" s="124"/>
-      <c r="O52" s="124"/>
-      <c r="P52" s="124"/>
-      <c r="Q52" s="125"/>
-      <c r="R52" s="126" t="s">
+      <c r="K52" s="116"/>
+      <c r="L52" s="116"/>
+      <c r="M52" s="116"/>
+      <c r="N52" s="116"/>
+      <c r="O52" s="116"/>
+      <c r="P52" s="116"/>
+      <c r="Q52" s="117"/>
+      <c r="R52" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="S52" s="124"/>
-      <c r="T52" s="124"/>
-      <c r="U52" s="124"/>
-      <c r="V52" s="124"/>
-      <c r="W52" s="124"/>
-      <c r="X52" s="124"/>
-      <c r="Y52" s="124"/>
-      <c r="Z52" s="124"/>
-      <c r="AA52" s="124"/>
-      <c r="AB52" s="124"/>
-      <c r="AC52" s="124"/>
-      <c r="AD52" s="124"/>
-      <c r="AE52" s="124"/>
-      <c r="AF52" s="124"/>
-      <c r="AG52" s="124"/>
-      <c r="AH52" s="127" t="s">
+      <c r="S52" s="116"/>
+      <c r="T52" s="116"/>
+      <c r="U52" s="116"/>
+      <c r="V52" s="116"/>
+      <c r="W52" s="116"/>
+      <c r="X52" s="116"/>
+      <c r="Y52" s="116"/>
+      <c r="Z52" s="116"/>
+      <c r="AA52" s="116"/>
+      <c r="AB52" s="116"/>
+      <c r="AC52" s="116"/>
+      <c r="AD52" s="116"/>
+      <c r="AE52" s="116"/>
+      <c r="AF52" s="116"/>
+      <c r="AG52" s="116"/>
+      <c r="AH52" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AI52" s="128"/>
-      <c r="AJ52" s="128"/>
-      <c r="AK52" s="128"/>
-      <c r="AL52" s="128"/>
-      <c r="AM52" s="128"/>
-      <c r="AN52" s="128"/>
-      <c r="AO52" s="129"/>
-      <c r="AP52" s="127" t="s">
+      <c r="AI52" s="113"/>
+      <c r="AJ52" s="113"/>
+      <c r="AK52" s="113"/>
+      <c r="AL52" s="113"/>
+      <c r="AM52" s="113"/>
+      <c r="AN52" s="113"/>
+      <c r="AO52" s="114"/>
+      <c r="AP52" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AQ52" s="128"/>
-      <c r="AR52" s="128"/>
-      <c r="AS52" s="128"/>
-      <c r="AT52" s="128"/>
-      <c r="AU52" s="128"/>
-      <c r="AV52" s="128"/>
-      <c r="AW52" s="128"/>
-      <c r="AX52" s="128"/>
-      <c r="AY52" s="128"/>
-      <c r="AZ52" s="128"/>
-      <c r="BA52" s="128"/>
-      <c r="BB52" s="128"/>
-      <c r="BC52" s="128"/>
-      <c r="BD52" s="128"/>
-      <c r="BE52" s="129"/>
+      <c r="AQ52" s="113"/>
+      <c r="AR52" s="113"/>
+      <c r="AS52" s="113"/>
+      <c r="AT52" s="113"/>
+      <c r="AU52" s="113"/>
+      <c r="AV52" s="113"/>
+      <c r="AW52" s="113"/>
+      <c r="AX52" s="113"/>
+      <c r="AY52" s="113"/>
+      <c r="AZ52" s="113"/>
+      <c r="BA52" s="113"/>
+      <c r="BB52" s="113"/>
+      <c r="BC52" s="113"/>
+      <c r="BD52" s="113"/>
+      <c r="BE52" s="114"/>
       <c r="BF52" s="45"/>
       <c r="BG52" s="45"/>
       <c r="BH52" s="45"/>
@@ -13548,71 +13552,71 @@
         <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>17</v>
       </c>
-      <c r="C53" s="126" t="s">
-        <v>83</v>
+      <c r="C53" s="115" t="s">
+        <v>80</v>
       </c>
-      <c r="D53" s="124"/>
-      <c r="E53" s="124"/>
-      <c r="F53" s="124"/>
-      <c r="G53" s="124"/>
-      <c r="H53" s="124"/>
-      <c r="I53" s="125"/>
-      <c r="J53" s="126" t="s">
-        <v>84</v>
+      <c r="D53" s="116"/>
+      <c r="E53" s="116"/>
+      <c r="F53" s="116"/>
+      <c r="G53" s="116"/>
+      <c r="H53" s="116"/>
+      <c r="I53" s="117"/>
+      <c r="J53" s="115" t="s">
+        <v>81</v>
       </c>
-      <c r="K53" s="124"/>
-      <c r="L53" s="124"/>
-      <c r="M53" s="124"/>
-      <c r="N53" s="124"/>
-      <c r="O53" s="124"/>
-      <c r="P53" s="124"/>
-      <c r="Q53" s="125"/>
-      <c r="R53" s="126" t="s">
-        <v>85</v>
+      <c r="K53" s="116"/>
+      <c r="L53" s="116"/>
+      <c r="M53" s="116"/>
+      <c r="N53" s="116"/>
+      <c r="O53" s="116"/>
+      <c r="P53" s="116"/>
+      <c r="Q53" s="117"/>
+      <c r="R53" s="115" t="s">
+        <v>82</v>
       </c>
-      <c r="S53" s="124"/>
-      <c r="T53" s="124"/>
-      <c r="U53" s="124"/>
-      <c r="V53" s="124"/>
-      <c r="W53" s="124"/>
-      <c r="X53" s="124"/>
-      <c r="Y53" s="124"/>
-      <c r="Z53" s="124"/>
-      <c r="AA53" s="124"/>
-      <c r="AB53" s="124"/>
-      <c r="AC53" s="124"/>
-      <c r="AD53" s="124"/>
-      <c r="AE53" s="124"/>
-      <c r="AF53" s="124"/>
-      <c r="AG53" s="124"/>
-      <c r="AH53" s="127" t="s">
+      <c r="S53" s="116"/>
+      <c r="T53" s="116"/>
+      <c r="U53" s="116"/>
+      <c r="V53" s="116"/>
+      <c r="W53" s="116"/>
+      <c r="X53" s="116"/>
+      <c r="Y53" s="116"/>
+      <c r="Z53" s="116"/>
+      <c r="AA53" s="116"/>
+      <c r="AB53" s="116"/>
+      <c r="AC53" s="116"/>
+      <c r="AD53" s="116"/>
+      <c r="AE53" s="116"/>
+      <c r="AF53" s="116"/>
+      <c r="AG53" s="116"/>
+      <c r="AH53" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AI53" s="128"/>
-      <c r="AJ53" s="128"/>
-      <c r="AK53" s="128"/>
-      <c r="AL53" s="128"/>
-      <c r="AM53" s="128"/>
-      <c r="AN53" s="128"/>
-      <c r="AO53" s="129"/>
-      <c r="AP53" s="127" t="s">
+      <c r="AI53" s="113"/>
+      <c r="AJ53" s="113"/>
+      <c r="AK53" s="113"/>
+      <c r="AL53" s="113"/>
+      <c r="AM53" s="113"/>
+      <c r="AN53" s="113"/>
+      <c r="AO53" s="114"/>
+      <c r="AP53" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AQ53" s="128"/>
-      <c r="AR53" s="128"/>
-      <c r="AS53" s="128"/>
-      <c r="AT53" s="128"/>
-      <c r="AU53" s="128"/>
-      <c r="AV53" s="128"/>
-      <c r="AW53" s="128"/>
-      <c r="AX53" s="128"/>
-      <c r="AY53" s="128"/>
-      <c r="AZ53" s="128"/>
-      <c r="BA53" s="128"/>
-      <c r="BB53" s="128"/>
-      <c r="BC53" s="128"/>
-      <c r="BD53" s="128"/>
-      <c r="BE53" s="129"/>
+      <c r="AQ53" s="113"/>
+      <c r="AR53" s="113"/>
+      <c r="AS53" s="113"/>
+      <c r="AT53" s="113"/>
+      <c r="AU53" s="113"/>
+      <c r="AV53" s="113"/>
+      <c r="AW53" s="113"/>
+      <c r="AX53" s="113"/>
+      <c r="AY53" s="113"/>
+      <c r="AZ53" s="113"/>
+      <c r="BA53" s="113"/>
+      <c r="BB53" s="113"/>
+      <c r="BC53" s="113"/>
+      <c r="BD53" s="113"/>
+      <c r="BE53" s="114"/>
       <c r="BF53" s="45"/>
       <c r="BG53" s="45"/>
       <c r="BH53" s="45"/>
@@ -13629,71 +13633,71 @@
         <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>18</v>
       </c>
-      <c r="C54" s="130" t="s">
-        <v>150</v>
+      <c r="C54" s="118" t="s">
+        <v>143</v>
       </c>
-      <c r="D54" s="131"/>
-      <c r="E54" s="131"/>
-      <c r="F54" s="131"/>
-      <c r="G54" s="131"/>
-      <c r="H54" s="131"/>
-      <c r="I54" s="132"/>
-      <c r="J54" s="126" t="s">
-        <v>152</v>
+      <c r="D54" s="119"/>
+      <c r="E54" s="119"/>
+      <c r="F54" s="119"/>
+      <c r="G54" s="119"/>
+      <c r="H54" s="119"/>
+      <c r="I54" s="120"/>
+      <c r="J54" s="115" t="s">
+        <v>145</v>
       </c>
-      <c r="K54" s="124"/>
-      <c r="L54" s="124"/>
-      <c r="M54" s="124"/>
-      <c r="N54" s="124"/>
-      <c r="O54" s="124"/>
-      <c r="P54" s="124"/>
-      <c r="Q54" s="125"/>
-      <c r="R54" s="126" t="s">
+      <c r="K54" s="116"/>
+      <c r="L54" s="116"/>
+      <c r="M54" s="116"/>
+      <c r="N54" s="116"/>
+      <c r="O54" s="116"/>
+      <c r="P54" s="116"/>
+      <c r="Q54" s="117"/>
+      <c r="R54" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="S54" s="124"/>
-      <c r="T54" s="124"/>
-      <c r="U54" s="124"/>
-      <c r="V54" s="124"/>
-      <c r="W54" s="124"/>
-      <c r="X54" s="124"/>
-      <c r="Y54" s="124"/>
-      <c r="Z54" s="124"/>
-      <c r="AA54" s="124"/>
-      <c r="AB54" s="124"/>
-      <c r="AC54" s="124"/>
-      <c r="AD54" s="124"/>
-      <c r="AE54" s="124"/>
-      <c r="AF54" s="124"/>
-      <c r="AG54" s="124"/>
-      <c r="AH54" s="127" t="s">
+      <c r="S54" s="116"/>
+      <c r="T54" s="116"/>
+      <c r="U54" s="116"/>
+      <c r="V54" s="116"/>
+      <c r="W54" s="116"/>
+      <c r="X54" s="116"/>
+      <c r="Y54" s="116"/>
+      <c r="Z54" s="116"/>
+      <c r="AA54" s="116"/>
+      <c r="AB54" s="116"/>
+      <c r="AC54" s="116"/>
+      <c r="AD54" s="116"/>
+      <c r="AE54" s="116"/>
+      <c r="AF54" s="116"/>
+      <c r="AG54" s="116"/>
+      <c r="AH54" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AI54" s="128"/>
-      <c r="AJ54" s="128"/>
-      <c r="AK54" s="128"/>
-      <c r="AL54" s="128"/>
-      <c r="AM54" s="128"/>
-      <c r="AN54" s="128"/>
-      <c r="AO54" s="129"/>
-      <c r="AP54" s="127" t="s">
+      <c r="AI54" s="113"/>
+      <c r="AJ54" s="113"/>
+      <c r="AK54" s="113"/>
+      <c r="AL54" s="113"/>
+      <c r="AM54" s="113"/>
+      <c r="AN54" s="113"/>
+      <c r="AO54" s="114"/>
+      <c r="AP54" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AQ54" s="128"/>
-      <c r="AR54" s="128"/>
-      <c r="AS54" s="128"/>
-      <c r="AT54" s="128"/>
-      <c r="AU54" s="128"/>
-      <c r="AV54" s="128"/>
-      <c r="AW54" s="128"/>
-      <c r="AX54" s="128"/>
-      <c r="AY54" s="128"/>
-      <c r="AZ54" s="128"/>
-      <c r="BA54" s="128"/>
-      <c r="BB54" s="128"/>
-      <c r="BC54" s="128"/>
-      <c r="BD54" s="128"/>
-      <c r="BE54" s="129"/>
+      <c r="AQ54" s="113"/>
+      <c r="AR54" s="113"/>
+      <c r="AS54" s="113"/>
+      <c r="AT54" s="113"/>
+      <c r="AU54" s="113"/>
+      <c r="AV54" s="113"/>
+      <c r="AW54" s="113"/>
+      <c r="AX54" s="113"/>
+      <c r="AY54" s="113"/>
+      <c r="AZ54" s="113"/>
+      <c r="BA54" s="113"/>
+      <c r="BB54" s="113"/>
+      <c r="BC54" s="113"/>
+      <c r="BD54" s="113"/>
+      <c r="BE54" s="114"/>
       <c r="BF54" s="45"/>
       <c r="BG54" s="45"/>
       <c r="BH54" s="45"/>
@@ -13710,71 +13714,71 @@
         <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>19</v>
       </c>
-      <c r="C55" s="130" t="s">
-        <v>151</v>
+      <c r="C55" s="118" t="s">
+        <v>144</v>
       </c>
-      <c r="D55" s="131"/>
-      <c r="E55" s="131"/>
-      <c r="F55" s="131"/>
-      <c r="G55" s="131"/>
-      <c r="H55" s="131"/>
-      <c r="I55" s="132"/>
-      <c r="J55" s="126" t="s">
-        <v>157</v>
+      <c r="D55" s="119"/>
+      <c r="E55" s="119"/>
+      <c r="F55" s="119"/>
+      <c r="G55" s="119"/>
+      <c r="H55" s="119"/>
+      <c r="I55" s="120"/>
+      <c r="J55" s="115" t="s">
+        <v>150</v>
       </c>
-      <c r="K55" s="124"/>
-      <c r="L55" s="124"/>
-      <c r="M55" s="124"/>
-      <c r="N55" s="124"/>
-      <c r="O55" s="124"/>
-      <c r="P55" s="124"/>
-      <c r="Q55" s="125"/>
-      <c r="R55" s="126" t="s">
-        <v>155</v>
+      <c r="K55" s="116"/>
+      <c r="L55" s="116"/>
+      <c r="M55" s="116"/>
+      <c r="N55" s="116"/>
+      <c r="O55" s="116"/>
+      <c r="P55" s="116"/>
+      <c r="Q55" s="117"/>
+      <c r="R55" s="115" t="s">
+        <v>148</v>
       </c>
-      <c r="S55" s="124"/>
-      <c r="T55" s="124"/>
-      <c r="U55" s="124"/>
-      <c r="V55" s="124"/>
-      <c r="W55" s="124"/>
-      <c r="X55" s="124"/>
-      <c r="Y55" s="124"/>
-      <c r="Z55" s="124"/>
-      <c r="AA55" s="124"/>
-      <c r="AB55" s="124"/>
-      <c r="AC55" s="124"/>
-      <c r="AD55" s="124"/>
-      <c r="AE55" s="124"/>
-      <c r="AF55" s="124"/>
-      <c r="AG55" s="124"/>
-      <c r="AH55" s="127" t="s">
+      <c r="S55" s="116"/>
+      <c r="T55" s="116"/>
+      <c r="U55" s="116"/>
+      <c r="V55" s="116"/>
+      <c r="W55" s="116"/>
+      <c r="X55" s="116"/>
+      <c r="Y55" s="116"/>
+      <c r="Z55" s="116"/>
+      <c r="AA55" s="116"/>
+      <c r="AB55" s="116"/>
+      <c r="AC55" s="116"/>
+      <c r="AD55" s="116"/>
+      <c r="AE55" s="116"/>
+      <c r="AF55" s="116"/>
+      <c r="AG55" s="116"/>
+      <c r="AH55" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AI55" s="128"/>
-      <c r="AJ55" s="128"/>
-      <c r="AK55" s="128"/>
-      <c r="AL55" s="128"/>
-      <c r="AM55" s="128"/>
-      <c r="AN55" s="128"/>
-      <c r="AO55" s="129"/>
-      <c r="AP55" s="127" t="s">
+      <c r="AI55" s="113"/>
+      <c r="AJ55" s="113"/>
+      <c r="AK55" s="113"/>
+      <c r="AL55" s="113"/>
+      <c r="AM55" s="113"/>
+      <c r="AN55" s="113"/>
+      <c r="AO55" s="114"/>
+      <c r="AP55" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="AQ55" s="128"/>
-      <c r="AR55" s="128"/>
-      <c r="AS55" s="128"/>
-      <c r="AT55" s="128"/>
-      <c r="AU55" s="128"/>
-      <c r="AV55" s="128"/>
-      <c r="AW55" s="128"/>
-      <c r="AX55" s="128"/>
-      <c r="AY55" s="128"/>
-      <c r="AZ55" s="128"/>
-      <c r="BA55" s="128"/>
-      <c r="BB55" s="128"/>
-      <c r="BC55" s="128"/>
-      <c r="BD55" s="128"/>
-      <c r="BE55" s="129"/>
+      <c r="AQ55" s="113"/>
+      <c r="AR55" s="113"/>
+      <c r="AS55" s="113"/>
+      <c r="AT55" s="113"/>
+      <c r="AU55" s="113"/>
+      <c r="AV55" s="113"/>
+      <c r="AW55" s="113"/>
+      <c r="AX55" s="113"/>
+      <c r="AY55" s="113"/>
+      <c r="AZ55" s="113"/>
+      <c r="BA55" s="113"/>
+      <c r="BB55" s="113"/>
+      <c r="BC55" s="113"/>
+      <c r="BD55" s="113"/>
+      <c r="BE55" s="114"/>
       <c r="BF55" s="45"/>
       <c r="BG55" s="45"/>
       <c r="BH55" s="45"/>
@@ -13855,7 +13859,7 @@
     </row>
     <row r="57" spans="1:66" ht="16.5">
       <c r="A57" s="24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B57" s="26"/>
       <c r="C57" s="26"/>
@@ -14061,7 +14065,7 @@
     </row>
     <row r="60" spans="1:66" ht="16.5">
       <c r="A60" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -14200,7 +14204,7 @@
     <row r="62" spans="1:66" ht="16.5" outlineLevel="1">
       <c r="A62" s="5"/>
       <c r="B62" s="44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -14271,7 +14275,7 @@
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -14342,7 +14346,7 @@
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="45" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
@@ -14413,7 +14417,7 @@
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="45" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
@@ -14483,7 +14487,7 @@
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="45" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
@@ -14553,7 +14557,7 @@
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="45" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
@@ -14622,7 +14626,7 @@
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="45" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
@@ -14693,7 +14697,7 @@
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="45" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
@@ -14762,7 +14766,7 @@
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="45" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -14833,7 +14837,7 @@
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="45" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
@@ -14902,7 +14906,7 @@
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="45" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
@@ -14973,7 +14977,7 @@
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="45" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
@@ -15041,7 +15045,7 @@
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="45" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -15112,7 +15116,7 @@
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="45" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -15183,7 +15187,7 @@
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="45" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
@@ -15253,7 +15257,7 @@
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="45" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
@@ -15323,7 +15327,7 @@
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="45" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
@@ -15392,7 +15396,7 @@
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="45" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
@@ -15463,7 +15467,7 @@
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="45" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
@@ -15533,7 +15537,7 @@
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="45" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
@@ -15603,7 +15607,7 @@
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="45" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
@@ -15672,7 +15676,7 @@
       <c r="B83" s="45"/>
       <c r="C83" s="45"/>
       <c r="D83" s="45" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E83" s="45"/>
       <c r="F83" s="45"/>
@@ -15743,7 +15747,7 @@
       <c r="C84" s="45"/>
       <c r="D84" s="45"/>
       <c r="E84" s="45" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F84" s="45"/>
       <c r="G84" s="45"/>
@@ -15813,7 +15817,7 @@
       <c r="C85" s="45"/>
       <c r="D85" s="45"/>
       <c r="E85" s="45" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F85" s="45"/>
       <c r="G85" s="45"/>
@@ -15883,7 +15887,7 @@
       <c r="C86" s="45"/>
       <c r="D86" s="45"/>
       <c r="E86" s="45" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F86" s="45"/>
       <c r="G86" s="45"/>
@@ -16022,7 +16026,7 @@
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="45" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
@@ -16093,7 +16097,7 @@
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="45" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
@@ -16163,7 +16167,7 @@
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="45" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
@@ -16233,7 +16237,7 @@
       <c r="C91" s="45"/>
       <c r="D91" s="45"/>
       <c r="E91" s="45" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F91" s="45"/>
       <c r="G91" s="45"/>
@@ -16301,7 +16305,7 @@
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="45" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -16437,100 +16441,6 @@
     </row>
   </sheetData>
   <mergeCells count="118">
-    <mergeCell ref="AH53:AO53"/>
-    <mergeCell ref="AP53:BE53"/>
-    <mergeCell ref="AH54:AO54"/>
-    <mergeCell ref="AP54:BE54"/>
-    <mergeCell ref="AH55:AO55"/>
-    <mergeCell ref="AP55:BE55"/>
-    <mergeCell ref="AH50:AO50"/>
-    <mergeCell ref="AP50:BE50"/>
-    <mergeCell ref="AH51:AO51"/>
-    <mergeCell ref="AP51:BE51"/>
-    <mergeCell ref="AH52:AO52"/>
-    <mergeCell ref="AP52:BE52"/>
-    <mergeCell ref="AH47:AO47"/>
-    <mergeCell ref="AP47:BE47"/>
-    <mergeCell ref="AH48:AO48"/>
-    <mergeCell ref="AP48:BE48"/>
-    <mergeCell ref="AH49:AO49"/>
-    <mergeCell ref="AP49:BE49"/>
-    <mergeCell ref="AH44:AO44"/>
-    <mergeCell ref="AP44:BE44"/>
-    <mergeCell ref="AH45:AO45"/>
-    <mergeCell ref="AP45:BE45"/>
-    <mergeCell ref="AH46:AO46"/>
-    <mergeCell ref="AP46:BE46"/>
-    <mergeCell ref="AH41:AO41"/>
-    <mergeCell ref="AP41:BE41"/>
-    <mergeCell ref="AH42:AO42"/>
-    <mergeCell ref="AP42:BE42"/>
-    <mergeCell ref="AH43:AO43"/>
-    <mergeCell ref="AP43:BE43"/>
-    <mergeCell ref="AH38:AO38"/>
-    <mergeCell ref="AP38:BE38"/>
-    <mergeCell ref="AH39:AO39"/>
-    <mergeCell ref="AP39:BE39"/>
-    <mergeCell ref="AH40:AO40"/>
-    <mergeCell ref="AP40:BE40"/>
-    <mergeCell ref="C53:I53"/>
-    <mergeCell ref="J53:Q53"/>
-    <mergeCell ref="R53:AG53"/>
-    <mergeCell ref="R54:AG54"/>
-    <mergeCell ref="R55:AG55"/>
-    <mergeCell ref="J54:Q54"/>
-    <mergeCell ref="J55:Q55"/>
-    <mergeCell ref="C54:I54"/>
-    <mergeCell ref="C55:I55"/>
-    <mergeCell ref="B3:AD22"/>
-    <mergeCell ref="R28:W28"/>
-    <mergeCell ref="AD28:AF28"/>
-    <mergeCell ref="AG28:AP28"/>
-    <mergeCell ref="L29:Q29"/>
-    <mergeCell ref="R29:W29"/>
-    <mergeCell ref="AG29:AP29"/>
-    <mergeCell ref="AD29:AF29"/>
-    <mergeCell ref="B27:AP27"/>
-    <mergeCell ref="C28:K28"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="C31:K31"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="C43:I43"/>
-    <mergeCell ref="L31:Q31"/>
-    <mergeCell ref="C40:I40"/>
-    <mergeCell ref="C41:I41"/>
-    <mergeCell ref="C42:I42"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="J37:Q37"/>
-    <mergeCell ref="L32:Q32"/>
-    <mergeCell ref="B30:AP30"/>
-    <mergeCell ref="R43:AG43"/>
-    <mergeCell ref="J44:Q44"/>
-    <mergeCell ref="J45:Q45"/>
-    <mergeCell ref="J46:Q46"/>
-    <mergeCell ref="J47:Q47"/>
-    <mergeCell ref="J43:Q43"/>
-    <mergeCell ref="AG31:AP31"/>
-    <mergeCell ref="R32:W32"/>
-    <mergeCell ref="AD32:AF32"/>
-    <mergeCell ref="AG32:AP32"/>
-    <mergeCell ref="R37:AG37"/>
-    <mergeCell ref="R31:W31"/>
-    <mergeCell ref="AD31:AF31"/>
-    <mergeCell ref="AP37:BE37"/>
-    <mergeCell ref="AH37:AO37"/>
-    <mergeCell ref="C51:I51"/>
-    <mergeCell ref="J51:Q51"/>
-    <mergeCell ref="C44:I44"/>
-    <mergeCell ref="C45:I45"/>
-    <mergeCell ref="C46:I46"/>
-    <mergeCell ref="C47:I47"/>
-    <mergeCell ref="C48:I48"/>
-    <mergeCell ref="C49:I49"/>
-    <mergeCell ref="C50:I50"/>
-    <mergeCell ref="J48:Q48"/>
-    <mergeCell ref="J49:Q49"/>
-    <mergeCell ref="J50:Q50"/>
     <mergeCell ref="C52:I52"/>
     <mergeCell ref="J52:Q52"/>
     <mergeCell ref="R38:AG38"/>
@@ -16555,6 +16465,100 @@
     <mergeCell ref="R49:AG49"/>
     <mergeCell ref="R50:AG50"/>
     <mergeCell ref="R52:AG52"/>
+    <mergeCell ref="C51:I51"/>
+    <mergeCell ref="J51:Q51"/>
+    <mergeCell ref="C44:I44"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="C46:I46"/>
+    <mergeCell ref="C47:I47"/>
+    <mergeCell ref="C48:I48"/>
+    <mergeCell ref="C49:I49"/>
+    <mergeCell ref="C50:I50"/>
+    <mergeCell ref="J48:Q48"/>
+    <mergeCell ref="J49:Q49"/>
+    <mergeCell ref="J50:Q50"/>
+    <mergeCell ref="J44:Q44"/>
+    <mergeCell ref="J45:Q45"/>
+    <mergeCell ref="J46:Q46"/>
+    <mergeCell ref="J47:Q47"/>
+    <mergeCell ref="J43:Q43"/>
+    <mergeCell ref="AG31:AP31"/>
+    <mergeCell ref="R32:W32"/>
+    <mergeCell ref="AD32:AF32"/>
+    <mergeCell ref="AG32:AP32"/>
+    <mergeCell ref="R37:AG37"/>
+    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="AD31:AF31"/>
+    <mergeCell ref="AP37:BE37"/>
+    <mergeCell ref="AH37:AO37"/>
+    <mergeCell ref="C31:K31"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="C43:I43"/>
+    <mergeCell ref="L31:Q31"/>
+    <mergeCell ref="C40:I40"/>
+    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="J37:Q37"/>
+    <mergeCell ref="L32:Q32"/>
+    <mergeCell ref="B30:AP30"/>
+    <mergeCell ref="R43:AG43"/>
+    <mergeCell ref="B3:AD22"/>
+    <mergeCell ref="R28:W28"/>
+    <mergeCell ref="AD28:AF28"/>
+    <mergeCell ref="AG28:AP28"/>
+    <mergeCell ref="L29:Q29"/>
+    <mergeCell ref="R29:W29"/>
+    <mergeCell ref="AG29:AP29"/>
+    <mergeCell ref="AD29:AF29"/>
+    <mergeCell ref="B27:AP27"/>
+    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="C53:I53"/>
+    <mergeCell ref="J53:Q53"/>
+    <mergeCell ref="R53:AG53"/>
+    <mergeCell ref="R54:AG54"/>
+    <mergeCell ref="R55:AG55"/>
+    <mergeCell ref="J54:Q54"/>
+    <mergeCell ref="J55:Q55"/>
+    <mergeCell ref="C54:I54"/>
+    <mergeCell ref="C55:I55"/>
+    <mergeCell ref="AH41:AO41"/>
+    <mergeCell ref="AP41:BE41"/>
+    <mergeCell ref="AH42:AO42"/>
+    <mergeCell ref="AP42:BE42"/>
+    <mergeCell ref="AH43:AO43"/>
+    <mergeCell ref="AP43:BE43"/>
+    <mergeCell ref="AH38:AO38"/>
+    <mergeCell ref="AP38:BE38"/>
+    <mergeCell ref="AH39:AO39"/>
+    <mergeCell ref="AP39:BE39"/>
+    <mergeCell ref="AH40:AO40"/>
+    <mergeCell ref="AP40:BE40"/>
+    <mergeCell ref="AH47:AO47"/>
+    <mergeCell ref="AP47:BE47"/>
+    <mergeCell ref="AH48:AO48"/>
+    <mergeCell ref="AP48:BE48"/>
+    <mergeCell ref="AH49:AO49"/>
+    <mergeCell ref="AP49:BE49"/>
+    <mergeCell ref="AH44:AO44"/>
+    <mergeCell ref="AP44:BE44"/>
+    <mergeCell ref="AH45:AO45"/>
+    <mergeCell ref="AP45:BE45"/>
+    <mergeCell ref="AH46:AO46"/>
+    <mergeCell ref="AP46:BE46"/>
+    <mergeCell ref="AH53:AO53"/>
+    <mergeCell ref="AP53:BE53"/>
+    <mergeCell ref="AH54:AO54"/>
+    <mergeCell ref="AP54:BE54"/>
+    <mergeCell ref="AH55:AO55"/>
+    <mergeCell ref="AP55:BE55"/>
+    <mergeCell ref="AH50:AO50"/>
+    <mergeCell ref="AP50:BE50"/>
+    <mergeCell ref="AH51:AO51"/>
+    <mergeCell ref="AP51:BE51"/>
+    <mergeCell ref="AH52:AO52"/>
+    <mergeCell ref="AP52:BE52"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16615,7 +16619,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C1" s="46" t="s">
         <v>20</v>
@@ -16628,13 +16632,13 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="47" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -16647,10 +16651,10 @@
         <v>23</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -16660,7 +16664,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="47" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4" s="47" t="s">
         <v>19</v>
@@ -16675,7 +16679,7 @@
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="48"/>
       <c r="B5" s="47" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C5" s="47"/>
       <c r="D5" s="6"/>
@@ -16687,7 +16691,7 @@
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="A6" s="48"/>
       <c r="B6" s="47" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C6" s="47"/>
       <c r="D6" s="6"/>
@@ -16699,7 +16703,7 @@
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="48"/>
       <c r="B7" s="47" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C7" s="47"/>
       <c r="D7" s="6"/>
@@ -16711,7 +16715,7 @@
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="A8" s="48"/>
       <c r="B8" s="47" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C8" s="47"/>
       <c r="D8" s="6"/>
@@ -16723,7 +16727,7 @@
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="48"/>
       <c r="B9" s="47" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C9" s="47"/>
       <c r="D9" s="6"/>
@@ -16735,7 +16739,7 @@
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="48"/>
       <c r="B10" s="47" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C10" s="47"/>
       <c r="D10" s="6"/>
@@ -16747,7 +16751,7 @@
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="48"/>
       <c r="B11" s="47" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C11" s="47"/>
       <c r="D11" s="6"/>
@@ -16759,7 +16763,7 @@
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="A12" s="48"/>
       <c r="B12" s="47" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C12" s="47"/>
       <c r="D12" s="6"/>
@@ -16771,7 +16775,7 @@
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="48"/>
       <c r="B13" s="47" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C13" s="47"/>
       <c r="D13" s="6"/>

--- a/ha-asset/01_design/01_dashboard/設計書_1.0.ログイン機能.xlsx
+++ b/ha-asset/01_design/01_dashboard/設計書_1.0.ログイン機能.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\01_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136ADCF3-18BE-4655-8643-6A269E9CF889}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C925C1EB-95E1-452D-81D5-1B7F30E2B466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="855" windowWidth="20490" windowHeight="14535" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="205">
-  <si>
-    <t>0.更新履歴</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="201">
   <si>
     <t>更新日時</t>
   </si>
@@ -51,16 +48,10 @@
     <t>新規作成</t>
   </si>
   <si>
-    <t>1.機能一覧</t>
-  </si>
-  <si>
     <t>1.1.ログイン画面</t>
   </si>
   <si>
     <t>健康管理アプリのログイン機能</t>
-  </si>
-  <si>
-    <t>2.1.ログイン画面</t>
   </si>
   <si>
     <t>2.1.1.画面レイアウト</t>
@@ -160,9 +151,6 @@
   </si>
   <si>
     <t>2.1.4.備考</t>
-  </si>
-  <si>
-    <t>2.2.Top画面</t>
   </si>
   <si>
     <t>2.2.1.画面レイアウト</t>
@@ -1419,7 +1407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1601,13 +1589,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1631,17 +1619,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1694,28 +1691,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1726,11 +1715,17 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1765,6 +1760,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1774,6 +1778,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1788,33 +1794,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1838,15 +1817,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>171494</xdr:rowOff>
+      <xdr:rowOff>133394</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1869,7 +1848,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="266700" y="409575"/>
+          <a:off x="247650" y="371475"/>
           <a:ext cx="7200900" cy="3952919"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1889,9 +1868,9 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
+      <xdr:rowOff>209549</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7200900" cy="4029075"/>
+    <xdr:ext cx="7200900" cy="4210051"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="image2.png" title="画像">
@@ -1911,8 +1890,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="247650" y="409574"/>
-          <a:ext cx="7200900" cy="4029075"/>
+          <a:off x="247650" y="419099"/>
+          <a:ext cx="7200900" cy="4210051"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2128,9 +2107,7 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AB4" sqref="AB4"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -2138,8 +2115,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="2" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>0.更新履歴</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2200,19 +2178,19 @@
     <row r="3" spans="1:27" ht="16.5">
       <c r="A3" s="3"/>
       <c r="B3" s="45" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
       <c r="E3" s="47"/>
       <c r="F3" s="45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="46"/>
       <c r="H3" s="46"/>
       <c r="I3" s="47"/>
       <c r="J3" s="45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K3" s="46"/>
       <c r="L3" s="46"/>
@@ -2241,13 +2219,13 @@
       <c r="D4" s="41"/>
       <c r="E4" s="42"/>
       <c r="F4" s="49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
       <c r="I4" s="42"/>
       <c r="J4" s="40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K4" s="41"/>
       <c r="L4" s="41"/>
@@ -2283,7 +2261,7 @@
       <c r="H5" s="41"/>
       <c r="I5" s="42"/>
       <c r="J5" s="44" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K5" s="41"/>
       <c r="L5" s="41"/>
@@ -2319,7 +2297,7 @@
       <c r="H6" s="41"/>
       <c r="I6" s="42"/>
       <c r="J6" s="44" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K6" s="41"/>
       <c r="L6" s="41"/>
@@ -2355,7 +2333,7 @@
       <c r="H7" s="41"/>
       <c r="I7" s="42"/>
       <c r="J7" s="44" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K7" s="41"/>
       <c r="L7" s="41"/>
@@ -3048,8 +3026,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
+      <c r="A1" s="2" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>1.機能一覧</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3154,7 +3133,7 @@
     <row r="3" spans="1:49">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -3208,7 +3187,7 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -4657,8 +4636,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:68" ht="16.5">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
+      <c r="A1" s="2" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>2.1.ログイン画面</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -6200,7 +6180,7 @@
     </row>
     <row r="23" spans="1:68" ht="15.75" customHeight="1">
       <c r="A23" s="12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -6343,62 +6323,62 @@
     <row r="25" spans="1:68" s="27" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A25" s="4"/>
       <c r="B25" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="100" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" s="101"/>
+      <c r="N25" s="101"/>
+      <c r="O25" s="101"/>
+      <c r="P25" s="101"/>
+      <c r="Q25" s="102"/>
+      <c r="R25" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="97" t="s">
+      <c r="S25" s="101"/>
+      <c r="T25" s="101"/>
+      <c r="U25" s="101"/>
+      <c r="V25" s="101"/>
+      <c r="W25" s="102"/>
+      <c r="X25" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="97" t="s">
+      <c r="Y25" s="104"/>
+      <c r="Z25" s="104"/>
+      <c r="AA25" s="104"/>
+      <c r="AB25" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="M25" s="98"/>
-      <c r="N25" s="98"/>
-      <c r="O25" s="98"/>
-      <c r="P25" s="98"/>
-      <c r="Q25" s="99"/>
-      <c r="R25" s="97" t="s">
+      <c r="AC25" s="104"/>
+      <c r="AD25" s="104"/>
+      <c r="AE25" s="104"/>
+      <c r="AF25" s="104"/>
+      <c r="AG25" s="104"/>
+      <c r="AH25" s="104"/>
+      <c r="AI25" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="S25" s="98"/>
-      <c r="T25" s="98"/>
-      <c r="U25" s="98"/>
-      <c r="V25" s="98"/>
-      <c r="W25" s="99"/>
-      <c r="X25" s="100" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y25" s="101"/>
-      <c r="Z25" s="101"/>
-      <c r="AA25" s="101"/>
-      <c r="AB25" s="100" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC25" s="101"/>
-      <c r="AD25" s="101"/>
-      <c r="AE25" s="101"/>
-      <c r="AF25" s="101"/>
-      <c r="AG25" s="101"/>
-      <c r="AH25" s="101"/>
-      <c r="AI25" s="97" t="s">
-        <v>17</v>
-      </c>
-      <c r="AJ25" s="98"/>
-      <c r="AK25" s="98"/>
-      <c r="AL25" s="98"/>
-      <c r="AM25" s="98"/>
-      <c r="AN25" s="98"/>
-      <c r="AO25" s="98"/>
-      <c r="AP25" s="98"/>
-      <c r="AQ25" s="98"/>
-      <c r="AR25" s="99"/>
+      <c r="AJ25" s="101"/>
+      <c r="AK25" s="101"/>
+      <c r="AL25" s="101"/>
+      <c r="AM25" s="101"/>
+      <c r="AN25" s="101"/>
+      <c r="AO25" s="101"/>
+      <c r="AP25" s="101"/>
+      <c r="AQ25" s="101"/>
+      <c r="AR25" s="102"/>
       <c r="AS25" s="4"/>
       <c r="AT25" s="4"/>
       <c r="AU25" s="4"/>
@@ -6430,58 +6410,58 @@
         <f ca="1">MAX(B$23:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C26" s="92" t="s">
-        <v>110</v>
+      <c r="C26" s="95" t="s">
+        <v>106</v>
       </c>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="95" t="s">
-        <v>18</v>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="98" t="s">
+        <v>15</v>
       </c>
-      <c r="M26" s="96"/>
-      <c r="N26" s="96"/>
-      <c r="O26" s="96"/>
-      <c r="P26" s="96"/>
-      <c r="Q26" s="96"/>
-      <c r="R26" s="95" t="s">
-        <v>147</v>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="98" t="s">
+        <v>143</v>
       </c>
-      <c r="S26" s="96"/>
-      <c r="T26" s="96"/>
-      <c r="U26" s="96"/>
-      <c r="V26" s="96"/>
-      <c r="W26" s="96"/>
-      <c r="X26" s="95">
+      <c r="S26" s="99"/>
+      <c r="T26" s="99"/>
+      <c r="U26" s="99"/>
+      <c r="V26" s="99"/>
+      <c r="W26" s="99"/>
+      <c r="X26" s="98">
         <v>64</v>
       </c>
-      <c r="Y26" s="95"/>
-      <c r="Z26" s="95"/>
-      <c r="AA26" s="95"/>
-      <c r="AB26" s="95" t="s">
-        <v>20</v>
+      <c r="Y26" s="98"/>
+      <c r="Z26" s="98"/>
+      <c r="AA26" s="98"/>
+      <c r="AB26" s="98" t="s">
+        <v>17</v>
       </c>
-      <c r="AC26" s="95"/>
-      <c r="AD26" s="95"/>
-      <c r="AE26" s="95"/>
-      <c r="AF26" s="95"/>
-      <c r="AG26" s="95"/>
-      <c r="AH26" s="95"/>
-      <c r="AI26" s="95"/>
-      <c r="AJ26" s="95"/>
-      <c r="AK26" s="95"/>
-      <c r="AL26" s="95"/>
-      <c r="AM26" s="95"/>
-      <c r="AN26" s="95"/>
-      <c r="AO26" s="95"/>
-      <c r="AP26" s="95"/>
-      <c r="AQ26" s="95"/>
-      <c r="AR26" s="95"/>
+      <c r="AC26" s="98"/>
+      <c r="AD26" s="98"/>
+      <c r="AE26" s="98"/>
+      <c r="AF26" s="98"/>
+      <c r="AG26" s="98"/>
+      <c r="AH26" s="98"/>
+      <c r="AI26" s="98"/>
+      <c r="AJ26" s="98"/>
+      <c r="AK26" s="98"/>
+      <c r="AL26" s="98"/>
+      <c r="AM26" s="98"/>
+      <c r="AN26" s="98"/>
+      <c r="AO26" s="98"/>
+      <c r="AP26" s="98"/>
+      <c r="AQ26" s="98"/>
+      <c r="AR26" s="98"/>
       <c r="AS26" s="4"/>
       <c r="AT26" s="4"/>
       <c r="AU26" s="4"/>
@@ -6513,58 +6493,58 @@
         <f ca="1">MAX(B$23:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C27" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="95" t="s">
+      <c r="C27" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="M27" s="96"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="96"/>
-      <c r="R27" s="95" t="s">
-        <v>19</v>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="96"/>
+      <c r="K27" s="97"/>
+      <c r="L27" s="98" t="s">
+        <v>15</v>
       </c>
-      <c r="S27" s="96"/>
-      <c r="T27" s="96"/>
-      <c r="U27" s="96"/>
-      <c r="V27" s="96"/>
-      <c r="W27" s="96"/>
-      <c r="X27" s="95">
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="99"/>
+      <c r="Q27" s="99"/>
+      <c r="R27" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="Y27" s="95"/>
-      <c r="Z27" s="95"/>
-      <c r="AA27" s="95"/>
-      <c r="AB27" s="95" t="s">
-        <v>20</v>
+      <c r="S27" s="99"/>
+      <c r="T27" s="99"/>
+      <c r="U27" s="99"/>
+      <c r="V27" s="99"/>
+      <c r="W27" s="99"/>
+      <c r="X27" s="98">
+        <v>16</v>
       </c>
-      <c r="AC27" s="95"/>
-      <c r="AD27" s="95"/>
-      <c r="AE27" s="95"/>
-      <c r="AF27" s="95"/>
-      <c r="AG27" s="95"/>
-      <c r="AH27" s="95"/>
-      <c r="AI27" s="95"/>
-      <c r="AJ27" s="95"/>
-      <c r="AK27" s="95"/>
-      <c r="AL27" s="95"/>
-      <c r="AM27" s="95"/>
-      <c r="AN27" s="95"/>
-      <c r="AO27" s="95"/>
-      <c r="AP27" s="95"/>
-      <c r="AQ27" s="95"/>
-      <c r="AR27" s="95"/>
+      <c r="Y27" s="98"/>
+      <c r="Z27" s="98"/>
+      <c r="AA27" s="98"/>
+      <c r="AB27" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC27" s="98"/>
+      <c r="AD27" s="98"/>
+      <c r="AE27" s="98"/>
+      <c r="AF27" s="98"/>
+      <c r="AG27" s="98"/>
+      <c r="AH27" s="98"/>
+      <c r="AI27" s="98"/>
+      <c r="AJ27" s="98"/>
+      <c r="AK27" s="98"/>
+      <c r="AL27" s="98"/>
+      <c r="AM27" s="98"/>
+      <c r="AN27" s="98"/>
+      <c r="AO27" s="98"/>
+      <c r="AP27" s="98"/>
+      <c r="AQ27" s="98"/>
+      <c r="AR27" s="98"/>
       <c r="AS27" s="4"/>
       <c r="AT27" s="4"/>
       <c r="AU27" s="4"/>
@@ -6596,52 +6576,52 @@
         <f ca="1">MAX(B$23:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
-      <c r="C28" s="92" t="s">
-        <v>22</v>
+      <c r="C28" s="95" t="s">
+        <v>19</v>
       </c>
-      <c r="D28" s="93"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="93"/>
-      <c r="K28" s="94"/>
-      <c r="L28" s="95" t="s">
-        <v>23</v>
+      <c r="D28" s="96"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="97"/>
+      <c r="L28" s="98" t="s">
+        <v>20</v>
       </c>
-      <c r="M28" s="96"/>
-      <c r="N28" s="96"/>
-      <c r="O28" s="96"/>
-      <c r="P28" s="96"/>
-      <c r="Q28" s="96"/>
-      <c r="R28" s="95"/>
-      <c r="S28" s="96"/>
-      <c r="T28" s="96"/>
-      <c r="U28" s="96"/>
-      <c r="V28" s="96"/>
-      <c r="W28" s="96"/>
-      <c r="X28" s="95"/>
-      <c r="Y28" s="95"/>
-      <c r="Z28" s="95"/>
-      <c r="AA28" s="95"/>
-      <c r="AB28" s="95"/>
-      <c r="AC28" s="95"/>
-      <c r="AD28" s="95"/>
-      <c r="AE28" s="95"/>
-      <c r="AF28" s="95"/>
-      <c r="AG28" s="95"/>
-      <c r="AH28" s="95"/>
-      <c r="AI28" s="95"/>
-      <c r="AJ28" s="95"/>
-      <c r="AK28" s="95"/>
-      <c r="AL28" s="95"/>
-      <c r="AM28" s="95"/>
-      <c r="AN28" s="95"/>
-      <c r="AO28" s="95"/>
-      <c r="AP28" s="95"/>
-      <c r="AQ28" s="95"/>
-      <c r="AR28" s="95"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="99"/>
+      <c r="Q28" s="99"/>
+      <c r="R28" s="98"/>
+      <c r="S28" s="99"/>
+      <c r="T28" s="99"/>
+      <c r="U28" s="99"/>
+      <c r="V28" s="99"/>
+      <c r="W28" s="99"/>
+      <c r="X28" s="98"/>
+      <c r="Y28" s="98"/>
+      <c r="Z28" s="98"/>
+      <c r="AA28" s="98"/>
+      <c r="AB28" s="98"/>
+      <c r="AC28" s="98"/>
+      <c r="AD28" s="98"/>
+      <c r="AE28" s="98"/>
+      <c r="AF28" s="98"/>
+      <c r="AG28" s="98"/>
+      <c r="AH28" s="98"/>
+      <c r="AI28" s="98"/>
+      <c r="AJ28" s="98"/>
+      <c r="AK28" s="98"/>
+      <c r="AL28" s="98"/>
+      <c r="AM28" s="98"/>
+      <c r="AN28" s="98"/>
+      <c r="AO28" s="98"/>
+      <c r="AP28" s="98"/>
+      <c r="AQ28" s="98"/>
+      <c r="AR28" s="98"/>
       <c r="AS28" s="4"/>
       <c r="AT28" s="4"/>
       <c r="AU28" s="4"/>
@@ -6673,52 +6653,52 @@
         <f ca="1">MAX(B$23:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
-      <c r="C29" s="92" t="s">
-        <v>24</v>
+      <c r="C29" s="95" t="s">
+        <v>21</v>
       </c>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="93"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="95" t="s">
-        <v>23</v>
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="96"/>
+      <c r="J29" s="96"/>
+      <c r="K29" s="97"/>
+      <c r="L29" s="98" t="s">
+        <v>20</v>
       </c>
-      <c r="M29" s="96"/>
-      <c r="N29" s="96"/>
-      <c r="O29" s="96"/>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="96"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="96"/>
-      <c r="T29" s="96"/>
-      <c r="U29" s="96"/>
-      <c r="V29" s="96"/>
-      <c r="W29" s="96"/>
-      <c r="X29" s="95"/>
-      <c r="Y29" s="95"/>
-      <c r="Z29" s="95"/>
-      <c r="AA29" s="95"/>
-      <c r="AB29" s="95"/>
-      <c r="AC29" s="95"/>
-      <c r="AD29" s="95"/>
-      <c r="AE29" s="95"/>
-      <c r="AF29" s="95"/>
-      <c r="AG29" s="95"/>
-      <c r="AH29" s="95"/>
-      <c r="AI29" s="95"/>
-      <c r="AJ29" s="95"/>
-      <c r="AK29" s="95"/>
-      <c r="AL29" s="95"/>
-      <c r="AM29" s="95"/>
-      <c r="AN29" s="95"/>
-      <c r="AO29" s="95"/>
-      <c r="AP29" s="95"/>
-      <c r="AQ29" s="95"/>
-      <c r="AR29" s="95"/>
+      <c r="M29" s="99"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="99"/>
+      <c r="P29" s="99"/>
+      <c r="Q29" s="99"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="99"/>
+      <c r="T29" s="99"/>
+      <c r="U29" s="99"/>
+      <c r="V29" s="99"/>
+      <c r="W29" s="99"/>
+      <c r="X29" s="98"/>
+      <c r="Y29" s="98"/>
+      <c r="Z29" s="98"/>
+      <c r="AA29" s="98"/>
+      <c r="AB29" s="98"/>
+      <c r="AC29" s="98"/>
+      <c r="AD29" s="98"/>
+      <c r="AE29" s="98"/>
+      <c r="AF29" s="98"/>
+      <c r="AG29" s="98"/>
+      <c r="AH29" s="98"/>
+      <c r="AI29" s="98"/>
+      <c r="AJ29" s="98"/>
+      <c r="AK29" s="98"/>
+      <c r="AL29" s="98"/>
+      <c r="AM29" s="98"/>
+      <c r="AN29" s="98"/>
+      <c r="AO29" s="98"/>
+      <c r="AP29" s="98"/>
+      <c r="AQ29" s="98"/>
+      <c r="AR29" s="98"/>
       <c r="AS29" s="4"/>
       <c r="AT29" s="4"/>
       <c r="AU29" s="4"/>
@@ -6750,52 +6730,52 @@
         <f ca="1">MAX(B$23:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>5</v>
       </c>
-      <c r="C30" s="92" t="s">
-        <v>109</v>
+      <c r="C30" s="95" t="s">
+        <v>105</v>
       </c>
-      <c r="D30" s="93"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="94"/>
-      <c r="L30" s="95" t="s">
-        <v>45</v>
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="97"/>
+      <c r="L30" s="98" t="s">
+        <v>41</v>
       </c>
-      <c r="M30" s="96"/>
-      <c r="N30" s="96"/>
-      <c r="O30" s="96"/>
-      <c r="P30" s="96"/>
-      <c r="Q30" s="96"/>
-      <c r="R30" s="95"/>
-      <c r="S30" s="96"/>
-      <c r="T30" s="96"/>
-      <c r="U30" s="96"/>
-      <c r="V30" s="96"/>
-      <c r="W30" s="96"/>
-      <c r="X30" s="95"/>
-      <c r="Y30" s="95"/>
-      <c r="Z30" s="95"/>
-      <c r="AA30" s="95"/>
-      <c r="AB30" s="95"/>
-      <c r="AC30" s="95"/>
-      <c r="AD30" s="95"/>
-      <c r="AE30" s="95"/>
-      <c r="AF30" s="95"/>
-      <c r="AG30" s="95"/>
-      <c r="AH30" s="95"/>
-      <c r="AI30" s="95"/>
-      <c r="AJ30" s="95"/>
-      <c r="AK30" s="95"/>
-      <c r="AL30" s="95"/>
-      <c r="AM30" s="95"/>
-      <c r="AN30" s="95"/>
-      <c r="AO30" s="95"/>
-      <c r="AP30" s="95"/>
-      <c r="AQ30" s="95"/>
-      <c r="AR30" s="95"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="99"/>
+      <c r="R30" s="98"/>
+      <c r="S30" s="99"/>
+      <c r="T30" s="99"/>
+      <c r="U30" s="99"/>
+      <c r="V30" s="99"/>
+      <c r="W30" s="99"/>
+      <c r="X30" s="98"/>
+      <c r="Y30" s="98"/>
+      <c r="Z30" s="98"/>
+      <c r="AA30" s="98"/>
+      <c r="AB30" s="98"/>
+      <c r="AC30" s="98"/>
+      <c r="AD30" s="98"/>
+      <c r="AE30" s="98"/>
+      <c r="AF30" s="98"/>
+      <c r="AG30" s="98"/>
+      <c r="AH30" s="98"/>
+      <c r="AI30" s="98"/>
+      <c r="AJ30" s="98"/>
+      <c r="AK30" s="98"/>
+      <c r="AL30" s="98"/>
+      <c r="AM30" s="98"/>
+      <c r="AN30" s="98"/>
+      <c r="AO30" s="98"/>
+      <c r="AP30" s="98"/>
+      <c r="AQ30" s="98"/>
+      <c r="AR30" s="98"/>
       <c r="AS30" s="4"/>
       <c r="AT30" s="4"/>
       <c r="AU30" s="4"/>
@@ -6893,7 +6873,7 @@
     </row>
     <row r="32" spans="1:68" ht="16.5">
       <c r="A32" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -7035,160 +7015,160 @@
     </row>
     <row r="34" spans="1:68" s="27" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A34" s="9"/>
-      <c r="B34" s="89" t="s">
-        <v>11</v>
+      <c r="B34" s="92" t="s">
+        <v>8</v>
       </c>
-      <c r="C34" s="90" t="s">
+      <c r="C34" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="K34" s="93"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="93"/>
+      <c r="N34" s="93"/>
+      <c r="O34" s="93"/>
+      <c r="P34" s="93"/>
+      <c r="Q34" s="93"/>
+      <c r="R34" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="S34" s="93"/>
+      <c r="T34" s="93"/>
+      <c r="U34" s="93"/>
+      <c r="V34" s="93"/>
+      <c r="W34" s="93"/>
+      <c r="X34" s="93"/>
+      <c r="Y34" s="93"/>
+      <c r="Z34" s="93"/>
+      <c r="AA34" s="93"/>
+      <c r="AB34" s="93"/>
+      <c r="AC34" s="93"/>
+      <c r="AD34" s="93"/>
+      <c r="AE34" s="93"/>
+      <c r="AF34" s="93"/>
+      <c r="AG34" s="93"/>
+      <c r="AH34" s="93"/>
+      <c r="AI34" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90" t="s">
+      <c r="AJ34" s="93"/>
+      <c r="AK34" s="93"/>
+      <c r="AL34" s="93"/>
+      <c r="AM34" s="93"/>
+      <c r="AN34" s="93"/>
+      <c r="AO34" s="93"/>
+      <c r="AP34" s="93"/>
+      <c r="AQ34" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="K34" s="90"/>
-      <c r="L34" s="90"/>
-      <c r="M34" s="90"/>
-      <c r="N34" s="90"/>
-      <c r="O34" s="90"/>
-      <c r="P34" s="90"/>
-      <c r="Q34" s="90"/>
-      <c r="R34" s="90" t="s">
-        <v>28</v>
-      </c>
-      <c r="S34" s="90"/>
-      <c r="T34" s="90"/>
-      <c r="U34" s="90"/>
-      <c r="V34" s="90"/>
-      <c r="W34" s="90"/>
-      <c r="X34" s="90"/>
-      <c r="Y34" s="90"/>
-      <c r="Z34" s="90"/>
-      <c r="AA34" s="90"/>
-      <c r="AB34" s="90"/>
-      <c r="AC34" s="90"/>
-      <c r="AD34" s="90"/>
-      <c r="AE34" s="90"/>
-      <c r="AF34" s="90"/>
-      <c r="AG34" s="90"/>
-      <c r="AH34" s="90"/>
-      <c r="AI34" s="90" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ34" s="90"/>
-      <c r="AK34" s="90"/>
-      <c r="AL34" s="90"/>
-      <c r="AM34" s="90"/>
-      <c r="AN34" s="90"/>
-      <c r="AO34" s="90"/>
-      <c r="AP34" s="90"/>
-      <c r="AQ34" s="90" t="s">
-        <v>30</v>
-      </c>
-      <c r="AR34" s="90"/>
-      <c r="AS34" s="90"/>
-      <c r="AT34" s="90"/>
-      <c r="AU34" s="90"/>
-      <c r="AV34" s="90"/>
-      <c r="AW34" s="90"/>
-      <c r="AX34" s="90"/>
-      <c r="AY34" s="90"/>
-      <c r="AZ34" s="90"/>
-      <c r="BA34" s="90"/>
-      <c r="BB34" s="90"/>
-      <c r="BC34" s="90"/>
-      <c r="BD34" s="90"/>
-      <c r="BE34" s="90"/>
-      <c r="BF34" s="90"/>
-      <c r="BG34" s="90"/>
-      <c r="BH34" s="90"/>
-      <c r="BI34" s="90"/>
-      <c r="BJ34" s="90"/>
-      <c r="BK34" s="90"/>
-      <c r="BL34" s="90"/>
-      <c r="BM34" s="90"/>
-      <c r="BN34" s="90"/>
-      <c r="BO34" s="90"/>
+      <c r="AR34" s="93"/>
+      <c r="AS34" s="93"/>
+      <c r="AT34" s="93"/>
+      <c r="AU34" s="93"/>
+      <c r="AV34" s="93"/>
+      <c r="AW34" s="93"/>
+      <c r="AX34" s="93"/>
+      <c r="AY34" s="93"/>
+      <c r="AZ34" s="93"/>
+      <c r="BA34" s="93"/>
+      <c r="BB34" s="93"/>
+      <c r="BC34" s="93"/>
+      <c r="BD34" s="93"/>
+      <c r="BE34" s="93"/>
+      <c r="BF34" s="93"/>
+      <c r="BG34" s="93"/>
+      <c r="BH34" s="93"/>
+      <c r="BI34" s="93"/>
+      <c r="BJ34" s="93"/>
+      <c r="BK34" s="93"/>
+      <c r="BL34" s="93"/>
+      <c r="BM34" s="93"/>
+      <c r="BN34" s="93"/>
+      <c r="BO34" s="93"/>
       <c r="BP34" s="4"/>
     </row>
     <row r="35" spans="1:68" s="27" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A35" s="9"/>
-      <c r="B35" s="89"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="91"/>
-      <c r="I35" s="91"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="90"/>
-      <c r="M35" s="90"/>
-      <c r="N35" s="90"/>
-      <c r="O35" s="90"/>
-      <c r="P35" s="90"/>
-      <c r="Q35" s="90"/>
-      <c r="R35" s="90"/>
-      <c r="S35" s="90"/>
-      <c r="T35" s="90"/>
-      <c r="U35" s="90"/>
-      <c r="V35" s="90"/>
-      <c r="W35" s="90"/>
-      <c r="X35" s="90"/>
-      <c r="Y35" s="90"/>
-      <c r="Z35" s="90"/>
-      <c r="AA35" s="90"/>
-      <c r="AB35" s="90"/>
-      <c r="AC35" s="90"/>
-      <c r="AD35" s="90"/>
-      <c r="AE35" s="90"/>
-      <c r="AF35" s="90"/>
-      <c r="AG35" s="90"/>
-      <c r="AH35" s="90"/>
-      <c r="AI35" s="90"/>
-      <c r="AJ35" s="90"/>
-      <c r="AK35" s="90"/>
-      <c r="AL35" s="90"/>
-      <c r="AM35" s="90"/>
-      <c r="AN35" s="90"/>
-      <c r="AO35" s="90"/>
-      <c r="AP35" s="90"/>
-      <c r="AQ35" s="90" t="s">
-        <v>149</v>
+      <c r="B35" s="92"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="93"/>
+      <c r="L35" s="93"/>
+      <c r="M35" s="93"/>
+      <c r="N35" s="93"/>
+      <c r="O35" s="93"/>
+      <c r="P35" s="93"/>
+      <c r="Q35" s="93"/>
+      <c r="R35" s="93"/>
+      <c r="S35" s="93"/>
+      <c r="T35" s="93"/>
+      <c r="U35" s="93"/>
+      <c r="V35" s="93"/>
+      <c r="W35" s="93"/>
+      <c r="X35" s="93"/>
+      <c r="Y35" s="93"/>
+      <c r="Z35" s="93"/>
+      <c r="AA35" s="93"/>
+      <c r="AB35" s="93"/>
+      <c r="AC35" s="93"/>
+      <c r="AD35" s="93"/>
+      <c r="AE35" s="93"/>
+      <c r="AF35" s="93"/>
+      <c r="AG35" s="93"/>
+      <c r="AH35" s="93"/>
+      <c r="AI35" s="93"/>
+      <c r="AJ35" s="93"/>
+      <c r="AK35" s="93"/>
+      <c r="AL35" s="93"/>
+      <c r="AM35" s="93"/>
+      <c r="AN35" s="93"/>
+      <c r="AO35" s="93"/>
+      <c r="AP35" s="93"/>
+      <c r="AQ35" s="93" t="s">
+        <v>145</v>
       </c>
-      <c r="AR35" s="90"/>
-      <c r="AS35" s="90"/>
-      <c r="AT35" s="90"/>
-      <c r="AU35" s="90"/>
-      <c r="AV35" s="90"/>
-      <c r="AW35" s="90"/>
-      <c r="AX35" s="90" t="s">
-        <v>150</v>
+      <c r="AR35" s="93"/>
+      <c r="AS35" s="93"/>
+      <c r="AT35" s="93"/>
+      <c r="AU35" s="93"/>
+      <c r="AV35" s="93"/>
+      <c r="AW35" s="93"/>
+      <c r="AX35" s="93" t="s">
+        <v>146</v>
       </c>
-      <c r="AY35" s="90"/>
-      <c r="AZ35" s="90"/>
-      <c r="BA35" s="90"/>
-      <c r="BB35" s="90"/>
-      <c r="BC35" s="90" t="s">
-        <v>151</v>
+      <c r="AY35" s="93"/>
+      <c r="AZ35" s="93"/>
+      <c r="BA35" s="93"/>
+      <c r="BB35" s="93"/>
+      <c r="BC35" s="93" t="s">
+        <v>147</v>
       </c>
-      <c r="BD35" s="90"/>
-      <c r="BE35" s="90"/>
-      <c r="BF35" s="90"/>
-      <c r="BG35" s="90"/>
-      <c r="BH35" s="90"/>
-      <c r="BI35" s="90"/>
-      <c r="BJ35" s="90"/>
-      <c r="BK35" s="90"/>
-      <c r="BL35" s="90"/>
-      <c r="BM35" s="90"/>
-      <c r="BN35" s="90"/>
-      <c r="BO35" s="90"/>
+      <c r="BD35" s="93"/>
+      <c r="BE35" s="93"/>
+      <c r="BF35" s="93"/>
+      <c r="BG35" s="93"/>
+      <c r="BH35" s="93"/>
+      <c r="BI35" s="93"/>
+      <c r="BJ35" s="93"/>
+      <c r="BK35" s="93"/>
+      <c r="BL35" s="93"/>
+      <c r="BM35" s="93"/>
+      <c r="BN35" s="93"/>
+      <c r="BO35" s="93"/>
       <c r="BP35" s="4"/>
     </row>
     <row r="36" spans="1:68" s="27" customFormat="1" ht="16.5" outlineLevel="1">
@@ -7197,8 +7177,8 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C36" s="83" t="s">
-        <v>152</v>
+      <c r="C36" s="81" t="s">
+        <v>148</v>
       </c>
       <c r="D36" s="79"/>
       <c r="E36" s="79"/>
@@ -7207,75 +7187,75 @@
       <c r="H36" s="79"/>
       <c r="I36" s="80"/>
       <c r="J36" s="80" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="71"/>
-      <c r="P36" s="71"/>
-      <c r="Q36" s="71"/>
-      <c r="R36" s="71" t="s">
-        <v>153</v>
+      <c r="K36" s="85"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="85"/>
+      <c r="O36" s="85"/>
+      <c r="P36" s="85"/>
+      <c r="Q36" s="85"/>
+      <c r="R36" s="85" t="s">
+        <v>149</v>
       </c>
-      <c r="S36" s="71"/>
-      <c r="T36" s="71"/>
-      <c r="U36" s="71"/>
-      <c r="V36" s="71"/>
-      <c r="W36" s="71"/>
-      <c r="X36" s="71"/>
-      <c r="Y36" s="71"/>
-      <c r="Z36" s="71"/>
-      <c r="AA36" s="71"/>
-      <c r="AB36" s="71"/>
-      <c r="AC36" s="71"/>
-      <c r="AD36" s="71"/>
-      <c r="AE36" s="71"/>
-      <c r="AF36" s="71"/>
-      <c r="AG36" s="71"/>
-      <c r="AH36" s="71"/>
-      <c r="AI36" s="71" t="s">
-        <v>153</v>
+      <c r="S36" s="85"/>
+      <c r="T36" s="85"/>
+      <c r="U36" s="85"/>
+      <c r="V36" s="85"/>
+      <c r="W36" s="85"/>
+      <c r="X36" s="85"/>
+      <c r="Y36" s="85"/>
+      <c r="Z36" s="85"/>
+      <c r="AA36" s="85"/>
+      <c r="AB36" s="85"/>
+      <c r="AC36" s="85"/>
+      <c r="AD36" s="85"/>
+      <c r="AE36" s="85"/>
+      <c r="AF36" s="85"/>
+      <c r="AG36" s="85"/>
+      <c r="AH36" s="85"/>
+      <c r="AI36" s="85" t="s">
+        <v>149</v>
       </c>
-      <c r="AJ36" s="71"/>
-      <c r="AK36" s="71"/>
-      <c r="AL36" s="71"/>
-      <c r="AM36" s="71"/>
-      <c r="AN36" s="71"/>
-      <c r="AO36" s="71"/>
-      <c r="AP36" s="71"/>
-      <c r="AQ36" s="72" t="s">
-        <v>153</v>
+      <c r="AJ36" s="85"/>
+      <c r="AK36" s="85"/>
+      <c r="AL36" s="85"/>
+      <c r="AM36" s="85"/>
+      <c r="AN36" s="85"/>
+      <c r="AO36" s="85"/>
+      <c r="AP36" s="85"/>
+      <c r="AQ36" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AR36" s="72"/>
-      <c r="AS36" s="72"/>
-      <c r="AT36" s="72"/>
-      <c r="AU36" s="72"/>
-      <c r="AV36" s="72"/>
-      <c r="AW36" s="72"/>
-      <c r="AX36" s="72" t="s">
-        <v>153</v>
+      <c r="AR36" s="86"/>
+      <c r="AS36" s="86"/>
+      <c r="AT36" s="86"/>
+      <c r="AU36" s="86"/>
+      <c r="AV36" s="86"/>
+      <c r="AW36" s="86"/>
+      <c r="AX36" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AY36" s="72"/>
-      <c r="AZ36" s="72"/>
-      <c r="BA36" s="72"/>
-      <c r="BB36" s="72"/>
-      <c r="BC36" s="73" t="s">
-        <v>153</v>
+      <c r="AY36" s="86"/>
+      <c r="AZ36" s="86"/>
+      <c r="BA36" s="86"/>
+      <c r="BB36" s="86"/>
+      <c r="BC36" s="87" t="s">
+        <v>149</v>
       </c>
-      <c r="BD36" s="73"/>
-      <c r="BE36" s="73"/>
-      <c r="BF36" s="73"/>
-      <c r="BG36" s="73"/>
-      <c r="BH36" s="73"/>
-      <c r="BI36" s="73"/>
-      <c r="BJ36" s="73"/>
-      <c r="BK36" s="73"/>
-      <c r="BL36" s="73"/>
-      <c r="BM36" s="73"/>
-      <c r="BN36" s="73"/>
-      <c r="BO36" s="73"/>
+      <c r="BD36" s="87"/>
+      <c r="BE36" s="87"/>
+      <c r="BF36" s="87"/>
+      <c r="BG36" s="87"/>
+      <c r="BH36" s="87"/>
+      <c r="BI36" s="87"/>
+      <c r="BJ36" s="87"/>
+      <c r="BK36" s="87"/>
+      <c r="BL36" s="87"/>
+      <c r="BM36" s="87"/>
+      <c r="BN36" s="87"/>
+      <c r="BO36" s="87"/>
       <c r="BP36" s="4"/>
     </row>
     <row r="37" spans="1:68" s="27" customFormat="1" ht="32.25" customHeight="1" outlineLevel="1">
@@ -7284,17 +7264,17 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C37" s="86" t="s">
-        <v>33</v>
+      <c r="C37" s="89" t="s">
+        <v>30</v>
       </c>
-      <c r="D37" s="87"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="83" t="s">
-        <v>34</v>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="90"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="91"/>
+      <c r="J37" s="81" t="s">
+        <v>31</v>
       </c>
       <c r="K37" s="79"/>
       <c r="L37" s="79"/>
@@ -7303,8 +7283,8 @@
       <c r="O37" s="79"/>
       <c r="P37" s="79"/>
       <c r="Q37" s="80"/>
-      <c r="R37" s="83" t="s">
-        <v>153</v>
+      <c r="R37" s="81" t="s">
+        <v>149</v>
       </c>
       <c r="S37" s="79"/>
       <c r="T37" s="79"/>
@@ -7323,7 +7303,7 @@
       <c r="AG37" s="79"/>
       <c r="AH37" s="80"/>
       <c r="AI37" s="79" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ37" s="79"/>
       <c r="AK37" s="79"/>
@@ -7333,36 +7313,36 @@
       <c r="AO37" s="79"/>
       <c r="AP37" s="80"/>
       <c r="AQ37" s="52" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
-      <c r="AR37" s="72"/>
-      <c r="AS37" s="72"/>
-      <c r="AT37" s="72"/>
-      <c r="AU37" s="72"/>
-      <c r="AV37" s="72"/>
-      <c r="AW37" s="72"/>
-      <c r="AX37" s="72" t="s">
-        <v>153</v>
+      <c r="AR37" s="86"/>
+      <c r="AS37" s="86"/>
+      <c r="AT37" s="86"/>
+      <c r="AU37" s="86"/>
+      <c r="AV37" s="86"/>
+      <c r="AW37" s="86"/>
+      <c r="AX37" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AY37" s="72"/>
-      <c r="AZ37" s="72"/>
-      <c r="BA37" s="72"/>
-      <c r="BB37" s="72"/>
-      <c r="BC37" s="73" t="s">
-        <v>158</v>
+      <c r="AY37" s="86"/>
+      <c r="AZ37" s="86"/>
+      <c r="BA37" s="86"/>
+      <c r="BB37" s="86"/>
+      <c r="BC37" s="87" t="s">
+        <v>154</v>
       </c>
-      <c r="BD37" s="73"/>
-      <c r="BE37" s="73"/>
-      <c r="BF37" s="73"/>
-      <c r="BG37" s="73"/>
-      <c r="BH37" s="73"/>
-      <c r="BI37" s="73"/>
-      <c r="BJ37" s="73"/>
-      <c r="BK37" s="73"/>
-      <c r="BL37" s="73"/>
-      <c r="BM37" s="73"/>
-      <c r="BN37" s="73"/>
-      <c r="BO37" s="73"/>
+      <c r="BD37" s="87"/>
+      <c r="BE37" s="87"/>
+      <c r="BF37" s="87"/>
+      <c r="BG37" s="87"/>
+      <c r="BH37" s="87"/>
+      <c r="BI37" s="87"/>
+      <c r="BJ37" s="87"/>
+      <c r="BK37" s="87"/>
+      <c r="BL37" s="87"/>
+      <c r="BM37" s="87"/>
+      <c r="BN37" s="87"/>
+      <c r="BO37" s="87"/>
       <c r="BP37" s="4"/>
     </row>
     <row r="38" spans="1:68" s="27" customFormat="1" ht="16.5" outlineLevel="1">
@@ -7377,7 +7357,7 @@
       <c r="F38" s="75"/>
       <c r="G38" s="75"/>
       <c r="H38" s="75"/>
-      <c r="I38" s="81"/>
+      <c r="I38" s="83"/>
       <c r="J38" s="74"/>
       <c r="K38" s="75"/>
       <c r="L38" s="75"/>
@@ -7385,7 +7365,7 @@
       <c r="N38" s="75"/>
       <c r="O38" s="75"/>
       <c r="P38" s="75"/>
-      <c r="Q38" s="81"/>
+      <c r="Q38" s="83"/>
       <c r="R38" s="74"/>
       <c r="S38" s="75"/>
       <c r="T38" s="75"/>
@@ -7402,7 +7382,7 @@
       <c r="AE38" s="75"/>
       <c r="AF38" s="75"/>
       <c r="AG38" s="75"/>
-      <c r="AH38" s="81"/>
+      <c r="AH38" s="83"/>
       <c r="AI38" s="77"/>
       <c r="AJ38" s="77"/>
       <c r="AK38" s="77"/>
@@ -7412,36 +7392,36 @@
       <c r="AO38" s="77"/>
       <c r="AP38" s="78"/>
       <c r="AQ38" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR38" s="72"/>
-      <c r="AS38" s="72"/>
-      <c r="AT38" s="72"/>
-      <c r="AU38" s="72"/>
-      <c r="AV38" s="72"/>
-      <c r="AW38" s="72"/>
-      <c r="AX38" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="AY38" s="72"/>
-      <c r="AZ38" s="72"/>
-      <c r="BA38" s="72"/>
-      <c r="BB38" s="72"/>
-      <c r="BC38" s="73" t="s">
-        <v>159</v>
+      <c r="AR38" s="86"/>
+      <c r="AS38" s="86"/>
+      <c r="AT38" s="86"/>
+      <c r="AU38" s="86"/>
+      <c r="AV38" s="86"/>
+      <c r="AW38" s="86"/>
+      <c r="AX38" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="BD38" s="73"/>
-      <c r="BE38" s="73"/>
-      <c r="BF38" s="73"/>
-      <c r="BG38" s="73"/>
-      <c r="BH38" s="73"/>
-      <c r="BI38" s="73"/>
-      <c r="BJ38" s="73"/>
-      <c r="BK38" s="73"/>
-      <c r="BL38" s="73"/>
-      <c r="BM38" s="73"/>
-      <c r="BN38" s="73"/>
-      <c r="BO38" s="73"/>
+      <c r="AY38" s="86"/>
+      <c r="AZ38" s="86"/>
+      <c r="BA38" s="86"/>
+      <c r="BB38" s="86"/>
+      <c r="BC38" s="87" t="s">
+        <v>155</v>
+      </c>
+      <c r="BD38" s="87"/>
+      <c r="BE38" s="87"/>
+      <c r="BF38" s="87"/>
+      <c r="BG38" s="87"/>
+      <c r="BH38" s="87"/>
+      <c r="BI38" s="87"/>
+      <c r="BJ38" s="87"/>
+      <c r="BK38" s="87"/>
+      <c r="BL38" s="87"/>
+      <c r="BM38" s="87"/>
+      <c r="BN38" s="87"/>
+      <c r="BO38" s="87"/>
       <c r="BP38" s="4"/>
     </row>
     <row r="39" spans="1:68" s="27" customFormat="1" ht="32.25" customHeight="1" outlineLevel="1">
@@ -7456,7 +7436,7 @@
       <c r="F39" s="75"/>
       <c r="G39" s="75"/>
       <c r="H39" s="75"/>
-      <c r="I39" s="81"/>
+      <c r="I39" s="83"/>
       <c r="J39" s="74"/>
       <c r="K39" s="75"/>
       <c r="L39" s="75"/>
@@ -7464,7 +7444,7 @@
       <c r="N39" s="75"/>
       <c r="O39" s="75"/>
       <c r="P39" s="75"/>
-      <c r="Q39" s="81"/>
+      <c r="Q39" s="83"/>
       <c r="R39" s="74"/>
       <c r="S39" s="75"/>
       <c r="T39" s="75"/>
@@ -7481,9 +7461,9 @@
       <c r="AE39" s="75"/>
       <c r="AF39" s="75"/>
       <c r="AG39" s="75"/>
-      <c r="AH39" s="81"/>
+      <c r="AH39" s="83"/>
       <c r="AI39" s="79" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AJ39" s="79"/>
       <c r="AK39" s="79"/>
@@ -7493,36 +7473,36 @@
       <c r="AO39" s="79"/>
       <c r="AP39" s="80"/>
       <c r="AQ39" s="52" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
-      <c r="AR39" s="72"/>
-      <c r="AS39" s="72"/>
-      <c r="AT39" s="72"/>
-      <c r="AU39" s="72"/>
-      <c r="AV39" s="72"/>
-      <c r="AW39" s="72"/>
-      <c r="AX39" s="72" t="s">
-        <v>153</v>
+      <c r="AR39" s="86"/>
+      <c r="AS39" s="86"/>
+      <c r="AT39" s="86"/>
+      <c r="AU39" s="86"/>
+      <c r="AV39" s="86"/>
+      <c r="AW39" s="86"/>
+      <c r="AX39" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AY39" s="72"/>
-      <c r="AZ39" s="72"/>
-      <c r="BA39" s="72"/>
-      <c r="BB39" s="72"/>
-      <c r="BC39" s="73" t="s">
-        <v>162</v>
+      <c r="AY39" s="86"/>
+      <c r="AZ39" s="86"/>
+      <c r="BA39" s="86"/>
+      <c r="BB39" s="86"/>
+      <c r="BC39" s="87" t="s">
+        <v>158</v>
       </c>
-      <c r="BD39" s="73"/>
-      <c r="BE39" s="73"/>
-      <c r="BF39" s="73"/>
-      <c r="BG39" s="73"/>
-      <c r="BH39" s="73"/>
-      <c r="BI39" s="73"/>
-      <c r="BJ39" s="73"/>
-      <c r="BK39" s="73"/>
-      <c r="BL39" s="73"/>
-      <c r="BM39" s="73"/>
-      <c r="BN39" s="73"/>
-      <c r="BO39" s="73"/>
+      <c r="BD39" s="87"/>
+      <c r="BE39" s="87"/>
+      <c r="BF39" s="87"/>
+      <c r="BG39" s="87"/>
+      <c r="BH39" s="87"/>
+      <c r="BI39" s="87"/>
+      <c r="BJ39" s="87"/>
+      <c r="BK39" s="87"/>
+      <c r="BL39" s="87"/>
+      <c r="BM39" s="87"/>
+      <c r="BN39" s="87"/>
+      <c r="BO39" s="87"/>
       <c r="BP39" s="4"/>
     </row>
     <row r="40" spans="1:68" s="27" customFormat="1" ht="32.25" customHeight="1" outlineLevel="1">
@@ -7537,7 +7517,7 @@
       <c r="F40" s="75"/>
       <c r="G40" s="75"/>
       <c r="H40" s="75"/>
-      <c r="I40" s="81"/>
+      <c r="I40" s="83"/>
       <c r="J40" s="74"/>
       <c r="K40" s="75"/>
       <c r="L40" s="75"/>
@@ -7545,7 +7525,7 @@
       <c r="N40" s="75"/>
       <c r="O40" s="75"/>
       <c r="P40" s="75"/>
-      <c r="Q40" s="81"/>
+      <c r="Q40" s="83"/>
       <c r="R40" s="74"/>
       <c r="S40" s="75"/>
       <c r="T40" s="75"/>
@@ -7562,7 +7542,7 @@
       <c r="AE40" s="75"/>
       <c r="AF40" s="75"/>
       <c r="AG40" s="75"/>
-      <c r="AH40" s="81"/>
+      <c r="AH40" s="83"/>
       <c r="AI40" s="77"/>
       <c r="AJ40" s="77"/>
       <c r="AK40" s="77"/>
@@ -7572,36 +7552,36 @@
       <c r="AO40" s="77"/>
       <c r="AP40" s="78"/>
       <c r="AQ40" s="52" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
-      <c r="AR40" s="72"/>
-      <c r="AS40" s="72"/>
-      <c r="AT40" s="72"/>
-      <c r="AU40" s="72"/>
-      <c r="AV40" s="72"/>
-      <c r="AW40" s="72"/>
-      <c r="AX40" s="72" t="s">
-        <v>153</v>
+      <c r="AR40" s="86"/>
+      <c r="AS40" s="86"/>
+      <c r="AT40" s="86"/>
+      <c r="AU40" s="86"/>
+      <c r="AV40" s="86"/>
+      <c r="AW40" s="86"/>
+      <c r="AX40" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AY40" s="72"/>
-      <c r="AZ40" s="72"/>
-      <c r="BA40" s="72"/>
-      <c r="BB40" s="72"/>
-      <c r="BC40" s="73" t="s">
-        <v>163</v>
+      <c r="AY40" s="86"/>
+      <c r="AZ40" s="86"/>
+      <c r="BA40" s="86"/>
+      <c r="BB40" s="86"/>
+      <c r="BC40" s="87" t="s">
+        <v>159</v>
       </c>
-      <c r="BD40" s="73"/>
-      <c r="BE40" s="73"/>
-      <c r="BF40" s="73"/>
-      <c r="BG40" s="73"/>
-      <c r="BH40" s="73"/>
-      <c r="BI40" s="73"/>
-      <c r="BJ40" s="73"/>
-      <c r="BK40" s="73"/>
-      <c r="BL40" s="73"/>
-      <c r="BM40" s="73"/>
-      <c r="BN40" s="73"/>
-      <c r="BO40" s="73"/>
+      <c r="BD40" s="87"/>
+      <c r="BE40" s="87"/>
+      <c r="BF40" s="87"/>
+      <c r="BG40" s="87"/>
+      <c r="BH40" s="87"/>
+      <c r="BI40" s="87"/>
+      <c r="BJ40" s="87"/>
+      <c r="BK40" s="87"/>
+      <c r="BL40" s="87"/>
+      <c r="BM40" s="87"/>
+      <c r="BN40" s="87"/>
+      <c r="BO40" s="87"/>
       <c r="BP40" s="4"/>
     </row>
     <row r="41" spans="1:68" s="27" customFormat="1" ht="33" customHeight="1" outlineLevel="1">
@@ -7616,7 +7596,7 @@
       <c r="F41" s="75"/>
       <c r="G41" s="75"/>
       <c r="H41" s="75"/>
-      <c r="I41" s="81"/>
+      <c r="I41" s="83"/>
       <c r="J41" s="74"/>
       <c r="K41" s="75"/>
       <c r="L41" s="75"/>
@@ -7624,7 +7604,7 @@
       <c r="N41" s="75"/>
       <c r="O41" s="75"/>
       <c r="P41" s="75"/>
-      <c r="Q41" s="81"/>
+      <c r="Q41" s="83"/>
       <c r="R41" s="74"/>
       <c r="S41" s="75"/>
       <c r="T41" s="75"/>
@@ -7641,9 +7621,9 @@
       <c r="AE41" s="75"/>
       <c r="AF41" s="75"/>
       <c r="AG41" s="75"/>
-      <c r="AH41" s="81"/>
+      <c r="AH41" s="83"/>
       <c r="AI41" s="79" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AJ41" s="79"/>
       <c r="AK41" s="79"/>
@@ -7653,36 +7633,36 @@
       <c r="AO41" s="79"/>
       <c r="AP41" s="80"/>
       <c r="AQ41" s="52" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
-      <c r="AR41" s="72"/>
-      <c r="AS41" s="72"/>
-      <c r="AT41" s="72"/>
-      <c r="AU41" s="72"/>
-      <c r="AV41" s="72"/>
-      <c r="AW41" s="72"/>
-      <c r="AX41" s="72" t="s">
-        <v>153</v>
+      <c r="AR41" s="86"/>
+      <c r="AS41" s="86"/>
+      <c r="AT41" s="86"/>
+      <c r="AU41" s="86"/>
+      <c r="AV41" s="86"/>
+      <c r="AW41" s="86"/>
+      <c r="AX41" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AY41" s="72"/>
-      <c r="AZ41" s="72"/>
-      <c r="BA41" s="72"/>
-      <c r="BB41" s="72"/>
-      <c r="BC41" s="73" t="s">
-        <v>162</v>
+      <c r="AY41" s="86"/>
+      <c r="AZ41" s="86"/>
+      <c r="BA41" s="86"/>
+      <c r="BB41" s="86"/>
+      <c r="BC41" s="87" t="s">
+        <v>158</v>
       </c>
-      <c r="BD41" s="73"/>
-      <c r="BE41" s="73"/>
-      <c r="BF41" s="73"/>
-      <c r="BG41" s="73"/>
-      <c r="BH41" s="73"/>
-      <c r="BI41" s="73"/>
-      <c r="BJ41" s="73"/>
-      <c r="BK41" s="73"/>
-      <c r="BL41" s="73"/>
-      <c r="BM41" s="73"/>
-      <c r="BN41" s="73"/>
-      <c r="BO41" s="73"/>
+      <c r="BD41" s="87"/>
+      <c r="BE41" s="87"/>
+      <c r="BF41" s="87"/>
+      <c r="BG41" s="87"/>
+      <c r="BH41" s="87"/>
+      <c r="BI41" s="87"/>
+      <c r="BJ41" s="87"/>
+      <c r="BK41" s="87"/>
+      <c r="BL41" s="87"/>
+      <c r="BM41" s="87"/>
+      <c r="BN41" s="87"/>
+      <c r="BO41" s="87"/>
       <c r="BP41" s="4"/>
     </row>
     <row r="42" spans="1:68" s="27" customFormat="1" ht="33" customHeight="1" outlineLevel="1">
@@ -7697,7 +7677,7 @@
       <c r="F42" s="75"/>
       <c r="G42" s="75"/>
       <c r="H42" s="75"/>
-      <c r="I42" s="81"/>
+      <c r="I42" s="83"/>
       <c r="J42" s="76"/>
       <c r="K42" s="77"/>
       <c r="L42" s="77"/>
@@ -7732,36 +7712,36 @@
       <c r="AO42" s="77"/>
       <c r="AP42" s="78"/>
       <c r="AQ42" s="52" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
-      <c r="AR42" s="72"/>
-      <c r="AS42" s="72"/>
-      <c r="AT42" s="72"/>
-      <c r="AU42" s="72"/>
-      <c r="AV42" s="72"/>
-      <c r="AW42" s="72"/>
-      <c r="AX42" s="72" t="s">
-        <v>153</v>
+      <c r="AR42" s="86"/>
+      <c r="AS42" s="86"/>
+      <c r="AT42" s="86"/>
+      <c r="AU42" s="86"/>
+      <c r="AV42" s="86"/>
+      <c r="AW42" s="86"/>
+      <c r="AX42" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AY42" s="72"/>
-      <c r="AZ42" s="72"/>
-      <c r="BA42" s="72"/>
-      <c r="BB42" s="72"/>
-      <c r="BC42" s="73" t="s">
-        <v>166</v>
+      <c r="AY42" s="86"/>
+      <c r="AZ42" s="86"/>
+      <c r="BA42" s="86"/>
+      <c r="BB42" s="86"/>
+      <c r="BC42" s="87" t="s">
+        <v>162</v>
       </c>
-      <c r="BD42" s="73"/>
-      <c r="BE42" s="73"/>
-      <c r="BF42" s="73"/>
-      <c r="BG42" s="73"/>
-      <c r="BH42" s="73"/>
-      <c r="BI42" s="73"/>
-      <c r="BJ42" s="73"/>
-      <c r="BK42" s="73"/>
-      <c r="BL42" s="73"/>
-      <c r="BM42" s="73"/>
-      <c r="BN42" s="73"/>
-      <c r="BO42" s="73"/>
+      <c r="BD42" s="87"/>
+      <c r="BE42" s="87"/>
+      <c r="BF42" s="87"/>
+      <c r="BG42" s="87"/>
+      <c r="BH42" s="87"/>
+      <c r="BI42" s="87"/>
+      <c r="BJ42" s="87"/>
+      <c r="BK42" s="87"/>
+      <c r="BL42" s="87"/>
+      <c r="BM42" s="87"/>
+      <c r="BN42" s="87"/>
+      <c r="BO42" s="87"/>
       <c r="BP42" s="4"/>
     </row>
     <row r="43" spans="1:68" s="27" customFormat="1" ht="16.5" outlineLevel="1">
@@ -7776,77 +7756,77 @@
       <c r="F43" s="75"/>
       <c r="G43" s="75"/>
       <c r="H43" s="75"/>
-      <c r="I43" s="81"/>
+      <c r="I43" s="83"/>
       <c r="J43" s="78" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
-      <c r="K43" s="85"/>
-      <c r="L43" s="85"/>
-      <c r="M43" s="85"/>
-      <c r="N43" s="85"/>
-      <c r="O43" s="85"/>
-      <c r="P43" s="85"/>
-      <c r="Q43" s="85"/>
-      <c r="R43" s="82" t="s">
-        <v>169</v>
+      <c r="K43" s="88"/>
+      <c r="L43" s="88"/>
+      <c r="M43" s="88"/>
+      <c r="N43" s="88"/>
+      <c r="O43" s="88"/>
+      <c r="P43" s="88"/>
+      <c r="Q43" s="88"/>
+      <c r="R43" s="84" t="s">
+        <v>165</v>
       </c>
-      <c r="S43" s="82"/>
-      <c r="T43" s="82"/>
-      <c r="U43" s="82"/>
-      <c r="V43" s="82"/>
-      <c r="W43" s="82"/>
-      <c r="X43" s="82"/>
-      <c r="Y43" s="82"/>
-      <c r="Z43" s="82"/>
-      <c r="AA43" s="82"/>
-      <c r="AB43" s="82"/>
-      <c r="AC43" s="82"/>
-      <c r="AD43" s="82"/>
-      <c r="AE43" s="82"/>
-      <c r="AF43" s="82"/>
-      <c r="AG43" s="82"/>
-      <c r="AH43" s="82"/>
-      <c r="AI43" s="82" t="s">
-        <v>153</v>
+      <c r="S43" s="84"/>
+      <c r="T43" s="84"/>
+      <c r="U43" s="84"/>
+      <c r="V43" s="84"/>
+      <c r="W43" s="84"/>
+      <c r="X43" s="84"/>
+      <c r="Y43" s="84"/>
+      <c r="Z43" s="84"/>
+      <c r="AA43" s="84"/>
+      <c r="AB43" s="84"/>
+      <c r="AC43" s="84"/>
+      <c r="AD43" s="84"/>
+      <c r="AE43" s="84"/>
+      <c r="AF43" s="84"/>
+      <c r="AG43" s="84"/>
+      <c r="AH43" s="84"/>
+      <c r="AI43" s="84" t="s">
+        <v>149</v>
       </c>
-      <c r="AJ43" s="82"/>
-      <c r="AK43" s="82"/>
-      <c r="AL43" s="82"/>
-      <c r="AM43" s="82"/>
-      <c r="AN43" s="82"/>
-      <c r="AO43" s="82"/>
-      <c r="AP43" s="82"/>
-      <c r="AQ43" s="72" t="s">
-        <v>153</v>
+      <c r="AJ43" s="84"/>
+      <c r="AK43" s="84"/>
+      <c r="AL43" s="84"/>
+      <c r="AM43" s="84"/>
+      <c r="AN43" s="84"/>
+      <c r="AO43" s="84"/>
+      <c r="AP43" s="84"/>
+      <c r="AQ43" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AR43" s="72"/>
-      <c r="AS43" s="72"/>
-      <c r="AT43" s="72"/>
-      <c r="AU43" s="72"/>
-      <c r="AV43" s="72"/>
-      <c r="AW43" s="72"/>
-      <c r="AX43" s="72" t="s">
-        <v>153</v>
+      <c r="AR43" s="86"/>
+      <c r="AS43" s="86"/>
+      <c r="AT43" s="86"/>
+      <c r="AU43" s="86"/>
+      <c r="AV43" s="86"/>
+      <c r="AW43" s="86"/>
+      <c r="AX43" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AY43" s="72"/>
-      <c r="AZ43" s="72"/>
-      <c r="BA43" s="72"/>
-      <c r="BB43" s="72"/>
-      <c r="BC43" s="73" t="s">
-        <v>153</v>
+      <c r="AY43" s="86"/>
+      <c r="AZ43" s="86"/>
+      <c r="BA43" s="86"/>
+      <c r="BB43" s="86"/>
+      <c r="BC43" s="87" t="s">
+        <v>149</v>
       </c>
-      <c r="BD43" s="73"/>
-      <c r="BE43" s="73"/>
-      <c r="BF43" s="73"/>
-      <c r="BG43" s="73"/>
-      <c r="BH43" s="73"/>
-      <c r="BI43" s="73"/>
-      <c r="BJ43" s="73"/>
-      <c r="BK43" s="73"/>
-      <c r="BL43" s="73"/>
-      <c r="BM43" s="73"/>
-      <c r="BN43" s="73"/>
-      <c r="BO43" s="73"/>
+      <c r="BD43" s="87"/>
+      <c r="BE43" s="87"/>
+      <c r="BF43" s="87"/>
+      <c r="BG43" s="87"/>
+      <c r="BH43" s="87"/>
+      <c r="BI43" s="87"/>
+      <c r="BJ43" s="87"/>
+      <c r="BK43" s="87"/>
+      <c r="BL43" s="87"/>
+      <c r="BM43" s="87"/>
+      <c r="BN43" s="87"/>
+      <c r="BO43" s="87"/>
       <c r="BP43" s="4"/>
     </row>
     <row r="44" spans="1:68" s="27" customFormat="1" ht="32.25" customHeight="1" outlineLevel="1">
@@ -7862,18 +7842,18 @@
       <c r="G44" s="75"/>
       <c r="H44" s="75"/>
       <c r="I44" s="75"/>
-      <c r="J44" s="71" t="s">
-        <v>168</v>
+      <c r="J44" s="85" t="s">
+        <v>164</v>
       </c>
-      <c r="K44" s="71"/>
-      <c r="L44" s="71"/>
-      <c r="M44" s="71"/>
-      <c r="N44" s="71"/>
-      <c r="O44" s="71"/>
-      <c r="P44" s="71"/>
-      <c r="Q44" s="71"/>
-      <c r="R44" s="83" t="s">
-        <v>153</v>
+      <c r="K44" s="85"/>
+      <c r="L44" s="85"/>
+      <c r="M44" s="85"/>
+      <c r="N44" s="85"/>
+      <c r="O44" s="85"/>
+      <c r="P44" s="85"/>
+      <c r="Q44" s="85"/>
+      <c r="R44" s="81" t="s">
+        <v>149</v>
       </c>
       <c r="S44" s="79"/>
       <c r="T44" s="79"/>
@@ -7891,8 +7871,8 @@
       <c r="AF44" s="79"/>
       <c r="AG44" s="79"/>
       <c r="AH44" s="79"/>
-      <c r="AI44" s="83" t="s">
-        <v>170</v>
+      <c r="AI44" s="81" t="s">
+        <v>166</v>
       </c>
       <c r="AJ44" s="79"/>
       <c r="AK44" s="79"/>
@@ -7902,36 +7882,36 @@
       <c r="AO44" s="79"/>
       <c r="AP44" s="80"/>
       <c r="AQ44" s="52" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
-      <c r="AR44" s="72"/>
-      <c r="AS44" s="72"/>
-      <c r="AT44" s="72"/>
-      <c r="AU44" s="72"/>
-      <c r="AV44" s="72"/>
-      <c r="AW44" s="72"/>
-      <c r="AX44" s="72" t="s">
-        <v>172</v>
+      <c r="AR44" s="86"/>
+      <c r="AS44" s="86"/>
+      <c r="AT44" s="86"/>
+      <c r="AU44" s="86"/>
+      <c r="AV44" s="86"/>
+      <c r="AW44" s="86"/>
+      <c r="AX44" s="86" t="s">
+        <v>168</v>
       </c>
-      <c r="AY44" s="72"/>
-      <c r="AZ44" s="72"/>
-      <c r="BA44" s="72"/>
-      <c r="BB44" s="72"/>
-      <c r="BC44" s="73" t="s">
-        <v>173</v>
+      <c r="AY44" s="86"/>
+      <c r="AZ44" s="86"/>
+      <c r="BA44" s="86"/>
+      <c r="BB44" s="86"/>
+      <c r="BC44" s="87" t="s">
+        <v>169</v>
       </c>
-      <c r="BD44" s="73"/>
-      <c r="BE44" s="73"/>
-      <c r="BF44" s="73"/>
-      <c r="BG44" s="73"/>
-      <c r="BH44" s="73"/>
-      <c r="BI44" s="73"/>
-      <c r="BJ44" s="73"/>
-      <c r="BK44" s="73"/>
-      <c r="BL44" s="73"/>
-      <c r="BM44" s="73"/>
-      <c r="BN44" s="73"/>
-      <c r="BO44" s="73"/>
+      <c r="BD44" s="87"/>
+      <c r="BE44" s="87"/>
+      <c r="BF44" s="87"/>
+      <c r="BG44" s="87"/>
+      <c r="BH44" s="87"/>
+      <c r="BI44" s="87"/>
+      <c r="BJ44" s="87"/>
+      <c r="BK44" s="87"/>
+      <c r="BL44" s="87"/>
+      <c r="BM44" s="87"/>
+      <c r="BN44" s="87"/>
+      <c r="BO44" s="87"/>
       <c r="BP44" s="4"/>
     </row>
     <row r="45" spans="1:68" s="27" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
@@ -7954,7 +7934,7 @@
       <c r="N45" s="75"/>
       <c r="O45" s="75"/>
       <c r="P45" s="75"/>
-      <c r="Q45" s="81"/>
+      <c r="Q45" s="83"/>
       <c r="R45" s="74"/>
       <c r="S45" s="75"/>
       <c r="T45" s="75"/>
@@ -7979,38 +7959,38 @@
       <c r="AM45" s="75"/>
       <c r="AN45" s="75"/>
       <c r="AO45" s="75"/>
-      <c r="AP45" s="81"/>
+      <c r="AP45" s="83"/>
       <c r="AQ45" s="52" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
-      <c r="AR45" s="72"/>
-      <c r="AS45" s="72"/>
-      <c r="AT45" s="72"/>
-      <c r="AU45" s="72"/>
-      <c r="AV45" s="72"/>
-      <c r="AW45" s="72"/>
-      <c r="AX45" s="72" t="s">
-        <v>174</v>
+      <c r="AR45" s="86"/>
+      <c r="AS45" s="86"/>
+      <c r="AT45" s="86"/>
+      <c r="AU45" s="86"/>
+      <c r="AV45" s="86"/>
+      <c r="AW45" s="86"/>
+      <c r="AX45" s="86" t="s">
+        <v>170</v>
       </c>
-      <c r="AY45" s="72"/>
-      <c r="AZ45" s="72"/>
-      <c r="BA45" s="72"/>
-      <c r="BB45" s="72"/>
-      <c r="BC45" s="73" t="s">
-        <v>175</v>
+      <c r="AY45" s="86"/>
+      <c r="AZ45" s="86"/>
+      <c r="BA45" s="86"/>
+      <c r="BB45" s="86"/>
+      <c r="BC45" s="87" t="s">
+        <v>171</v>
       </c>
-      <c r="BD45" s="73"/>
-      <c r="BE45" s="73"/>
-      <c r="BF45" s="73"/>
-      <c r="BG45" s="73"/>
-      <c r="BH45" s="73"/>
-      <c r="BI45" s="73"/>
-      <c r="BJ45" s="73"/>
-      <c r="BK45" s="73"/>
-      <c r="BL45" s="73"/>
-      <c r="BM45" s="73"/>
-      <c r="BN45" s="73"/>
-      <c r="BO45" s="73"/>
+      <c r="BD45" s="87"/>
+      <c r="BE45" s="87"/>
+      <c r="BF45" s="87"/>
+      <c r="BG45" s="87"/>
+      <c r="BH45" s="87"/>
+      <c r="BI45" s="87"/>
+      <c r="BJ45" s="87"/>
+      <c r="BK45" s="87"/>
+      <c r="BL45" s="87"/>
+      <c r="BM45" s="87"/>
+      <c r="BN45" s="87"/>
+      <c r="BO45" s="87"/>
       <c r="BP45" s="4"/>
     </row>
     <row r="46" spans="1:68" s="27" customFormat="1" ht="32.25" customHeight="1" outlineLevel="1">
@@ -8033,7 +8013,7 @@
       <c r="N46" s="75"/>
       <c r="O46" s="75"/>
       <c r="P46" s="75"/>
-      <c r="Q46" s="81"/>
+      <c r="Q46" s="83"/>
       <c r="R46" s="74"/>
       <c r="S46" s="75"/>
       <c r="T46" s="75"/>
@@ -8058,38 +8038,38 @@
       <c r="AM46" s="75"/>
       <c r="AN46" s="75"/>
       <c r="AO46" s="75"/>
-      <c r="AP46" s="81"/>
+      <c r="AP46" s="83"/>
       <c r="AQ46" s="52" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
-      <c r="AR46" s="72"/>
-      <c r="AS46" s="72"/>
-      <c r="AT46" s="72"/>
-      <c r="AU46" s="72"/>
-      <c r="AV46" s="72"/>
-      <c r="AW46" s="72"/>
-      <c r="AX46" s="72" t="s">
-        <v>178</v>
+      <c r="AR46" s="86"/>
+      <c r="AS46" s="86"/>
+      <c r="AT46" s="86"/>
+      <c r="AU46" s="86"/>
+      <c r="AV46" s="86"/>
+      <c r="AW46" s="86"/>
+      <c r="AX46" s="86" t="s">
+        <v>174</v>
       </c>
-      <c r="AY46" s="72"/>
-      <c r="AZ46" s="72"/>
-      <c r="BA46" s="72"/>
-      <c r="BB46" s="72"/>
-      <c r="BC46" s="73" t="s">
-        <v>179</v>
+      <c r="AY46" s="86"/>
+      <c r="AZ46" s="86"/>
+      <c r="BA46" s="86"/>
+      <c r="BB46" s="86"/>
+      <c r="BC46" s="87" t="s">
+        <v>175</v>
       </c>
-      <c r="BD46" s="73"/>
-      <c r="BE46" s="73"/>
-      <c r="BF46" s="73"/>
-      <c r="BG46" s="73"/>
-      <c r="BH46" s="73"/>
-      <c r="BI46" s="73"/>
-      <c r="BJ46" s="73"/>
-      <c r="BK46" s="73"/>
-      <c r="BL46" s="73"/>
-      <c r="BM46" s="73"/>
-      <c r="BN46" s="73"/>
-      <c r="BO46" s="73"/>
+      <c r="BD46" s="87"/>
+      <c r="BE46" s="87"/>
+      <c r="BF46" s="87"/>
+      <c r="BG46" s="87"/>
+      <c r="BH46" s="87"/>
+      <c r="BI46" s="87"/>
+      <c r="BJ46" s="87"/>
+      <c r="BK46" s="87"/>
+      <c r="BL46" s="87"/>
+      <c r="BM46" s="87"/>
+      <c r="BN46" s="87"/>
+      <c r="BO46" s="87"/>
       <c r="BP46" s="4"/>
     </row>
     <row r="47" spans="1:68" s="27" customFormat="1" ht="51.75" customHeight="1" outlineLevel="1">
@@ -8139,36 +8119,36 @@
       <c r="AO47" s="77"/>
       <c r="AP47" s="78"/>
       <c r="AQ47" s="52" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
-      <c r="AR47" s="72"/>
-      <c r="AS47" s="72"/>
-      <c r="AT47" s="72"/>
-      <c r="AU47" s="72"/>
-      <c r="AV47" s="72"/>
-      <c r="AW47" s="72"/>
-      <c r="AX47" s="72" t="s">
-        <v>181</v>
+      <c r="AR47" s="86"/>
+      <c r="AS47" s="86"/>
+      <c r="AT47" s="86"/>
+      <c r="AU47" s="86"/>
+      <c r="AV47" s="86"/>
+      <c r="AW47" s="86"/>
+      <c r="AX47" s="86" t="s">
+        <v>177</v>
       </c>
-      <c r="AY47" s="72"/>
-      <c r="AZ47" s="72"/>
-      <c r="BA47" s="72"/>
-      <c r="BB47" s="72"/>
-      <c r="BC47" s="73" t="s">
-        <v>182</v>
+      <c r="AY47" s="86"/>
+      <c r="AZ47" s="86"/>
+      <c r="BA47" s="86"/>
+      <c r="BB47" s="86"/>
+      <c r="BC47" s="87" t="s">
+        <v>178</v>
       </c>
-      <c r="BD47" s="73"/>
-      <c r="BE47" s="73"/>
-      <c r="BF47" s="73"/>
-      <c r="BG47" s="73"/>
-      <c r="BH47" s="73"/>
-      <c r="BI47" s="73"/>
-      <c r="BJ47" s="73"/>
-      <c r="BK47" s="73"/>
-      <c r="BL47" s="73"/>
-      <c r="BM47" s="73"/>
-      <c r="BN47" s="73"/>
-      <c r="BO47" s="73"/>
+      <c r="BD47" s="87"/>
+      <c r="BE47" s="87"/>
+      <c r="BF47" s="87"/>
+      <c r="BG47" s="87"/>
+      <c r="BH47" s="87"/>
+      <c r="BI47" s="87"/>
+      <c r="BJ47" s="87"/>
+      <c r="BK47" s="87"/>
+      <c r="BL47" s="87"/>
+      <c r="BM47" s="87"/>
+      <c r="BN47" s="87"/>
+      <c r="BO47" s="87"/>
       <c r="BP47" s="4"/>
     </row>
     <row r="48" spans="1:68" s="27" customFormat="1" ht="16.5" outlineLevel="1">
@@ -8183,77 +8163,77 @@
       <c r="F48" s="75"/>
       <c r="G48" s="75"/>
       <c r="H48" s="75"/>
-      <c r="I48" s="81"/>
-      <c r="J48" s="81" t="s">
-        <v>183</v>
+      <c r="I48" s="83"/>
+      <c r="J48" s="83" t="s">
+        <v>179</v>
       </c>
-      <c r="K48" s="82"/>
-      <c r="L48" s="82"/>
-      <c r="M48" s="82"/>
-      <c r="N48" s="82"/>
-      <c r="O48" s="82"/>
-      <c r="P48" s="82"/>
-      <c r="Q48" s="82"/>
-      <c r="R48" s="71" t="s">
-        <v>153</v>
+      <c r="K48" s="84"/>
+      <c r="L48" s="84"/>
+      <c r="M48" s="84"/>
+      <c r="N48" s="84"/>
+      <c r="O48" s="84"/>
+      <c r="P48" s="84"/>
+      <c r="Q48" s="84"/>
+      <c r="R48" s="85" t="s">
+        <v>149</v>
       </c>
-      <c r="S48" s="71"/>
-      <c r="T48" s="71"/>
-      <c r="U48" s="71"/>
-      <c r="V48" s="71"/>
-      <c r="W48" s="71"/>
-      <c r="X48" s="71"/>
-      <c r="Y48" s="71"/>
-      <c r="Z48" s="71"/>
-      <c r="AA48" s="71"/>
-      <c r="AB48" s="71"/>
-      <c r="AC48" s="71"/>
-      <c r="AD48" s="71"/>
-      <c r="AE48" s="71"/>
-      <c r="AF48" s="71"/>
-      <c r="AG48" s="71"/>
-      <c r="AH48" s="71"/>
-      <c r="AI48" s="82" t="s">
-        <v>153</v>
+      <c r="S48" s="85"/>
+      <c r="T48" s="85"/>
+      <c r="U48" s="85"/>
+      <c r="V48" s="85"/>
+      <c r="W48" s="85"/>
+      <c r="X48" s="85"/>
+      <c r="Y48" s="85"/>
+      <c r="Z48" s="85"/>
+      <c r="AA48" s="85"/>
+      <c r="AB48" s="85"/>
+      <c r="AC48" s="85"/>
+      <c r="AD48" s="85"/>
+      <c r="AE48" s="85"/>
+      <c r="AF48" s="85"/>
+      <c r="AG48" s="85"/>
+      <c r="AH48" s="85"/>
+      <c r="AI48" s="84" t="s">
+        <v>149</v>
       </c>
-      <c r="AJ48" s="82"/>
-      <c r="AK48" s="82"/>
-      <c r="AL48" s="82"/>
-      <c r="AM48" s="82"/>
-      <c r="AN48" s="82"/>
-      <c r="AO48" s="82"/>
-      <c r="AP48" s="82"/>
-      <c r="AQ48" s="72" t="s">
-        <v>153</v>
+      <c r="AJ48" s="84"/>
+      <c r="AK48" s="84"/>
+      <c r="AL48" s="84"/>
+      <c r="AM48" s="84"/>
+      <c r="AN48" s="84"/>
+      <c r="AO48" s="84"/>
+      <c r="AP48" s="84"/>
+      <c r="AQ48" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AR48" s="72"/>
-      <c r="AS48" s="72"/>
-      <c r="AT48" s="72"/>
-      <c r="AU48" s="72"/>
-      <c r="AV48" s="72"/>
-      <c r="AW48" s="72"/>
-      <c r="AX48" s="72" t="s">
-        <v>153</v>
+      <c r="AR48" s="86"/>
+      <c r="AS48" s="86"/>
+      <c r="AT48" s="86"/>
+      <c r="AU48" s="86"/>
+      <c r="AV48" s="86"/>
+      <c r="AW48" s="86"/>
+      <c r="AX48" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AY48" s="72"/>
-      <c r="AZ48" s="72"/>
-      <c r="BA48" s="72"/>
-      <c r="BB48" s="72"/>
-      <c r="BC48" s="73" t="s">
-        <v>153</v>
+      <c r="AY48" s="86"/>
+      <c r="AZ48" s="86"/>
+      <c r="BA48" s="86"/>
+      <c r="BB48" s="86"/>
+      <c r="BC48" s="87" t="s">
+        <v>149</v>
       </c>
-      <c r="BD48" s="73"/>
-      <c r="BE48" s="73"/>
-      <c r="BF48" s="73"/>
-      <c r="BG48" s="73"/>
-      <c r="BH48" s="73"/>
-      <c r="BI48" s="73"/>
-      <c r="BJ48" s="73"/>
-      <c r="BK48" s="73"/>
-      <c r="BL48" s="73"/>
-      <c r="BM48" s="73"/>
-      <c r="BN48" s="73"/>
-      <c r="BO48" s="73"/>
+      <c r="BD48" s="87"/>
+      <c r="BE48" s="87"/>
+      <c r="BF48" s="87"/>
+      <c r="BG48" s="87"/>
+      <c r="BH48" s="87"/>
+      <c r="BI48" s="87"/>
+      <c r="BJ48" s="87"/>
+      <c r="BK48" s="87"/>
+      <c r="BL48" s="87"/>
+      <c r="BM48" s="87"/>
+      <c r="BN48" s="87"/>
+      <c r="BO48" s="87"/>
       <c r="BP48" s="4"/>
     </row>
     <row r="49" spans="1:68" s="27" customFormat="1" ht="32.25" customHeight="1" outlineLevel="1">
@@ -8269,8 +8249,8 @@
       <c r="G49" s="75"/>
       <c r="H49" s="75"/>
       <c r="I49" s="75"/>
-      <c r="J49" s="83" t="s">
-        <v>184</v>
+      <c r="J49" s="81" t="s">
+        <v>180</v>
       </c>
       <c r="K49" s="79"/>
       <c r="L49" s="79"/>
@@ -8279,8 +8259,8 @@
       <c r="O49" s="79"/>
       <c r="P49" s="79"/>
       <c r="Q49" s="80"/>
-      <c r="R49" s="84" t="s">
-        <v>185</v>
+      <c r="R49" s="82" t="s">
+        <v>181</v>
       </c>
       <c r="S49" s="79"/>
       <c r="T49" s="79"/>
@@ -8298,47 +8278,47 @@
       <c r="AF49" s="79"/>
       <c r="AG49" s="79"/>
       <c r="AH49" s="80"/>
-      <c r="AI49" s="71" t="s">
-        <v>153</v>
+      <c r="AI49" s="85" t="s">
+        <v>149</v>
       </c>
-      <c r="AJ49" s="71"/>
-      <c r="AK49" s="71"/>
-      <c r="AL49" s="71"/>
-      <c r="AM49" s="71"/>
-      <c r="AN49" s="71"/>
-      <c r="AO49" s="71"/>
-      <c r="AP49" s="71"/>
-      <c r="AQ49" s="72" t="s">
-        <v>153</v>
+      <c r="AJ49" s="85"/>
+      <c r="AK49" s="85"/>
+      <c r="AL49" s="85"/>
+      <c r="AM49" s="85"/>
+      <c r="AN49" s="85"/>
+      <c r="AO49" s="85"/>
+      <c r="AP49" s="85"/>
+      <c r="AQ49" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AR49" s="72"/>
-      <c r="AS49" s="72"/>
-      <c r="AT49" s="72"/>
-      <c r="AU49" s="72"/>
-      <c r="AV49" s="72"/>
-      <c r="AW49" s="72"/>
-      <c r="AX49" s="72" t="s">
-        <v>153</v>
+      <c r="AR49" s="86"/>
+      <c r="AS49" s="86"/>
+      <c r="AT49" s="86"/>
+      <c r="AU49" s="86"/>
+      <c r="AV49" s="86"/>
+      <c r="AW49" s="86"/>
+      <c r="AX49" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AY49" s="72"/>
-      <c r="AZ49" s="72"/>
-      <c r="BA49" s="72"/>
-      <c r="BB49" s="72"/>
-      <c r="BC49" s="73" t="s">
-        <v>153</v>
+      <c r="AY49" s="86"/>
+      <c r="AZ49" s="86"/>
+      <c r="BA49" s="86"/>
+      <c r="BB49" s="86"/>
+      <c r="BC49" s="87" t="s">
+        <v>149</v>
       </c>
-      <c r="BD49" s="73"/>
-      <c r="BE49" s="73"/>
-      <c r="BF49" s="73"/>
-      <c r="BG49" s="73"/>
-      <c r="BH49" s="73"/>
-      <c r="BI49" s="73"/>
-      <c r="BJ49" s="73"/>
-      <c r="BK49" s="73"/>
-      <c r="BL49" s="73"/>
-      <c r="BM49" s="73"/>
-      <c r="BN49" s="73"/>
-      <c r="BO49" s="73"/>
+      <c r="BD49" s="87"/>
+      <c r="BE49" s="87"/>
+      <c r="BF49" s="87"/>
+      <c r="BG49" s="87"/>
+      <c r="BH49" s="87"/>
+      <c r="BI49" s="87"/>
+      <c r="BJ49" s="87"/>
+      <c r="BK49" s="87"/>
+      <c r="BL49" s="87"/>
+      <c r="BM49" s="87"/>
+      <c r="BN49" s="87"/>
+      <c r="BO49" s="87"/>
       <c r="BP49" s="4"/>
     </row>
     <row r="50" spans="1:68" s="27" customFormat="1" ht="16.5" outlineLevel="1">
@@ -8363,7 +8343,7 @@
       <c r="P50" s="77"/>
       <c r="Q50" s="78"/>
       <c r="R50" s="79" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="S50" s="79"/>
       <c r="T50" s="79"/>
@@ -8382,7 +8362,7 @@
       <c r="AG50" s="79"/>
       <c r="AH50" s="80"/>
       <c r="AI50" s="62" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AJ50" s="63"/>
       <c r="AK50" s="63"/>
@@ -8392,7 +8372,7 @@
       <c r="AO50" s="63"/>
       <c r="AP50" s="64"/>
       <c r="AQ50" s="50" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AR50" s="51"/>
       <c r="AS50" s="51"/>
@@ -8401,14 +8381,14 @@
       <c r="AV50" s="51"/>
       <c r="AW50" s="52"/>
       <c r="AX50" s="50" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AY50" s="51"/>
       <c r="AZ50" s="51"/>
       <c r="BA50" s="51"/>
       <c r="BB50" s="52"/>
       <c r="BC50" s="53" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="BD50" s="54"/>
       <c r="BE50" s="54"/>
@@ -8431,7 +8411,7 @@
         <v>16</v>
       </c>
       <c r="C51" s="62" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D51" s="63"/>
       <c r="E51" s="63"/>
@@ -8440,7 +8420,7 @@
       <c r="H51" s="63"/>
       <c r="I51" s="64"/>
       <c r="J51" s="65" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K51" s="66"/>
       <c r="L51" s="66"/>
@@ -8450,7 +8430,7 @@
       <c r="P51" s="66"/>
       <c r="Q51" s="67"/>
       <c r="R51" s="68" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="S51" s="69"/>
       <c r="T51" s="69"/>
@@ -8469,7 +8449,7 @@
       <c r="AG51" s="69"/>
       <c r="AH51" s="70"/>
       <c r="AI51" s="62" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AJ51" s="63"/>
       <c r="AK51" s="63"/>
@@ -8479,7 +8459,7 @@
       <c r="AO51" s="63"/>
       <c r="AP51" s="64"/>
       <c r="AQ51" s="50" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AR51" s="51"/>
       <c r="AS51" s="51"/>
@@ -8488,14 +8468,14 @@
       <c r="AV51" s="51"/>
       <c r="AW51" s="52"/>
       <c r="AX51" s="50" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AY51" s="51"/>
       <c r="AZ51" s="51"/>
       <c r="BA51" s="51"/>
       <c r="BB51" s="52"/>
       <c r="BC51" s="53" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="BD51" s="54"/>
       <c r="BE51" s="54"/>
@@ -8517,17 +8497,17 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>17</v>
       </c>
-      <c r="C52" s="102" t="s">
-        <v>118</v>
+      <c r="C52" s="71" t="s">
+        <v>114</v>
       </c>
-      <c r="D52" s="103"/>
-      <c r="E52" s="103"/>
-      <c r="F52" s="103"/>
-      <c r="G52" s="103"/>
-      <c r="H52" s="103"/>
-      <c r="I52" s="104"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="73"/>
       <c r="J52" s="56" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K52" s="57"/>
       <c r="L52" s="57"/>
@@ -8537,7 +8517,7 @@
       <c r="P52" s="57"/>
       <c r="Q52" s="58"/>
       <c r="R52" s="59" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="S52" s="60"/>
       <c r="T52" s="60"/>
@@ -8556,7 +8536,7 @@
       <c r="AG52" s="60"/>
       <c r="AH52" s="61"/>
       <c r="AI52" s="62" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AJ52" s="63"/>
       <c r="AK52" s="63"/>
@@ -8566,7 +8546,7 @@
       <c r="AO52" s="63"/>
       <c r="AP52" s="64"/>
       <c r="AQ52" s="50" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AR52" s="51"/>
       <c r="AS52" s="51"/>
@@ -8575,14 +8555,14 @@
       <c r="AV52" s="51"/>
       <c r="AW52" s="52"/>
       <c r="AX52" s="50" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AY52" s="51"/>
       <c r="AZ52" s="51"/>
       <c r="BA52" s="51"/>
       <c r="BB52" s="52"/>
       <c r="BC52" s="53" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="BD52" s="54"/>
       <c r="BE52" s="54"/>
@@ -8670,7 +8650,7 @@
     </row>
     <row r="54" spans="1:68" ht="16.5">
       <c r="A54" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -8813,7 +8793,7 @@
     <row r="56" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A56" s="4"/>
       <c r="B56" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -8886,7 +8866,7 @@
       <c r="A57" s="4"/>
       <c r="B57" s="10"/>
       <c r="C57" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
@@ -8959,7 +8939,7 @@
       <c r="B58" s="10"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
@@ -9030,7 +9010,7 @@
       <c r="A59" s="4"/>
       <c r="B59" s="10"/>
       <c r="C59" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
@@ -9103,7 +9083,7 @@
       <c r="B60" s="10"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
@@ -9174,7 +9154,7 @@
       <c r="A61" s="4"/>
       <c r="B61" s="10"/>
       <c r="C61" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
@@ -9247,7 +9227,7 @@
       <c r="B62" s="10"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
@@ -9387,7 +9367,7 @@
     <row r="64" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A64" s="4"/>
       <c r="B64" s="10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -9460,7 +9440,7 @@
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
@@ -9533,7 +9513,7 @@
       <c r="B66" s="4"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
@@ -9604,7 +9584,7 @@
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
@@ -9677,7 +9657,7 @@
       <c r="B68" s="4"/>
       <c r="C68" s="11"/>
       <c r="D68" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
@@ -9748,7 +9728,7 @@
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11"/>
@@ -9821,7 +9801,7 @@
       <c r="B70" s="4"/>
       <c r="C70" s="11"/>
       <c r="D70" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
@@ -9892,7 +9872,7 @@
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
@@ -9965,7 +9945,7 @@
       <c r="B72" s="4"/>
       <c r="C72" s="11"/>
       <c r="D72" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
@@ -10036,7 +10016,7 @@
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11"/>
@@ -10176,7 +10156,7 @@
     </row>
     <row r="75" spans="1:68" ht="16.5">
       <c r="A75" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -10597,8 +10577,8 @@
   </sheetPr>
   <dimension ref="A1:BP94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BA32" sqref="BA32"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AK7" sqref="AK7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" outlineLevelRow="1"/>
@@ -10608,8 +10588,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:68" ht="16.5">
-      <c r="A1" s="1" t="s">
-        <v>43</v>
+      <c r="A1" s="2" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>2.2.Top画面</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -10751,35 +10732,35 @@
     </row>
     <row r="3" spans="1:68" ht="16.5">
       <c r="A3" s="5"/>
-      <c r="B3" s="127"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="128"/>
-      <c r="S3" s="128"/>
-      <c r="T3" s="128"/>
-      <c r="U3" s="128"/>
-      <c r="V3" s="128"/>
-      <c r="W3" s="128"/>
-      <c r="X3" s="128"/>
-      <c r="Y3" s="128"/>
-      <c r="Z3" s="128"/>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="128"/>
-      <c r="AD3" s="129"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="132"/>
+      <c r="P3" s="132"/>
+      <c r="Q3" s="132"/>
+      <c r="R3" s="132"/>
+      <c r="S3" s="132"/>
+      <c r="T3" s="132"/>
+      <c r="U3" s="132"/>
+      <c r="V3" s="132"/>
+      <c r="W3" s="132"/>
+      <c r="X3" s="132"/>
+      <c r="Y3" s="132"/>
+      <c r="Z3" s="132"/>
+      <c r="AA3" s="132"/>
+      <c r="AB3" s="132"/>
+      <c r="AC3" s="132"/>
+      <c r="AD3" s="133"/>
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
       <c r="AG3" s="5"/>
@@ -10821,35 +10802,35 @@
     </row>
     <row r="4" spans="1:68" ht="16.5">
       <c r="A4" s="5"/>
-      <c r="B4" s="130"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
-      <c r="M4" s="131"/>
-      <c r="N4" s="131"/>
-      <c r="O4" s="131"/>
-      <c r="P4" s="131"/>
-      <c r="Q4" s="131"/>
-      <c r="R4" s="131"/>
-      <c r="S4" s="131"/>
-      <c r="T4" s="131"/>
-      <c r="U4" s="131"/>
-      <c r="V4" s="131"/>
-      <c r="W4" s="131"/>
-      <c r="X4" s="131"/>
-      <c r="Y4" s="131"/>
-      <c r="Z4" s="131"/>
-      <c r="AA4" s="131"/>
-      <c r="AB4" s="131"/>
-      <c r="AC4" s="131"/>
-      <c r="AD4" s="132"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="135"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="135"/>
+      <c r="P4" s="135"/>
+      <c r="Q4" s="135"/>
+      <c r="R4" s="135"/>
+      <c r="S4" s="135"/>
+      <c r="T4" s="135"/>
+      <c r="U4" s="135"/>
+      <c r="V4" s="135"/>
+      <c r="W4" s="135"/>
+      <c r="X4" s="135"/>
+      <c r="Y4" s="135"/>
+      <c r="Z4" s="135"/>
+      <c r="AA4" s="135"/>
+      <c r="AB4" s="135"/>
+      <c r="AC4" s="135"/>
+      <c r="AD4" s="136"/>
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
@@ -10891,35 +10872,35 @@
     </row>
     <row r="5" spans="1:68" ht="16.5">
       <c r="A5" s="5"/>
-      <c r="B5" s="130"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="131"/>
-      <c r="M5" s="131"/>
-      <c r="N5" s="131"/>
-      <c r="O5" s="131"/>
-      <c r="P5" s="131"/>
-      <c r="Q5" s="131"/>
-      <c r="R5" s="131"/>
-      <c r="S5" s="131"/>
-      <c r="T5" s="131"/>
-      <c r="U5" s="131"/>
-      <c r="V5" s="131"/>
-      <c r="W5" s="131"/>
-      <c r="X5" s="131"/>
-      <c r="Y5" s="131"/>
-      <c r="Z5" s="131"/>
-      <c r="AA5" s="131"/>
-      <c r="AB5" s="131"/>
-      <c r="AC5" s="131"/>
-      <c r="AD5" s="132"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="135"/>
+      <c r="L5" s="135"/>
+      <c r="M5" s="135"/>
+      <c r="N5" s="135"/>
+      <c r="O5" s="135"/>
+      <c r="P5" s="135"/>
+      <c r="Q5" s="135"/>
+      <c r="R5" s="135"/>
+      <c r="S5" s="135"/>
+      <c r="T5" s="135"/>
+      <c r="U5" s="135"/>
+      <c r="V5" s="135"/>
+      <c r="W5" s="135"/>
+      <c r="X5" s="135"/>
+      <c r="Y5" s="135"/>
+      <c r="Z5" s="135"/>
+      <c r="AA5" s="135"/>
+      <c r="AB5" s="135"/>
+      <c r="AC5" s="135"/>
+      <c r="AD5" s="136"/>
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
@@ -10961,35 +10942,35 @@
     </row>
     <row r="6" spans="1:68" ht="16.5">
       <c r="A6" s="5"/>
-      <c r="B6" s="130"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="131"/>
-      <c r="M6" s="131"/>
-      <c r="N6" s="131"/>
-      <c r="O6" s="131"/>
-      <c r="P6" s="131"/>
-      <c r="Q6" s="131"/>
-      <c r="R6" s="131"/>
-      <c r="S6" s="131"/>
-      <c r="T6" s="131"/>
-      <c r="U6" s="131"/>
-      <c r="V6" s="131"/>
-      <c r="W6" s="131"/>
-      <c r="X6" s="131"/>
-      <c r="Y6" s="131"/>
-      <c r="Z6" s="131"/>
-      <c r="AA6" s="131"/>
-      <c r="AB6" s="131"/>
-      <c r="AC6" s="131"/>
-      <c r="AD6" s="132"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="135"/>
+      <c r="L6" s="135"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="135"/>
+      <c r="O6" s="135"/>
+      <c r="P6" s="135"/>
+      <c r="Q6" s="135"/>
+      <c r="R6" s="135"/>
+      <c r="S6" s="135"/>
+      <c r="T6" s="135"/>
+      <c r="U6" s="135"/>
+      <c r="V6" s="135"/>
+      <c r="W6" s="135"/>
+      <c r="X6" s="135"/>
+      <c r="Y6" s="135"/>
+      <c r="Z6" s="135"/>
+      <c r="AA6" s="135"/>
+      <c r="AB6" s="135"/>
+      <c r="AC6" s="135"/>
+      <c r="AD6" s="136"/>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
@@ -11031,35 +11012,35 @@
     </row>
     <row r="7" spans="1:68" ht="16.5">
       <c r="A7" s="5"/>
-      <c r="B7" s="130"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="131"/>
-      <c r="K7" s="131"/>
-      <c r="L7" s="131"/>
-      <c r="M7" s="131"/>
-      <c r="N7" s="131"/>
-      <c r="O7" s="131"/>
-      <c r="P7" s="131"/>
-      <c r="Q7" s="131"/>
-      <c r="R7" s="131"/>
-      <c r="S7" s="131"/>
-      <c r="T7" s="131"/>
-      <c r="U7" s="131"/>
-      <c r="V7" s="131"/>
-      <c r="W7" s="131"/>
-      <c r="X7" s="131"/>
-      <c r="Y7" s="131"/>
-      <c r="Z7" s="131"/>
-      <c r="AA7" s="131"/>
-      <c r="AB7" s="131"/>
-      <c r="AC7" s="131"/>
-      <c r="AD7" s="132"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="135"/>
+      <c r="N7" s="135"/>
+      <c r="O7" s="135"/>
+      <c r="P7" s="135"/>
+      <c r="Q7" s="135"/>
+      <c r="R7" s="135"/>
+      <c r="S7" s="135"/>
+      <c r="T7" s="135"/>
+      <c r="U7" s="135"/>
+      <c r="V7" s="135"/>
+      <c r="W7" s="135"/>
+      <c r="X7" s="135"/>
+      <c r="Y7" s="135"/>
+      <c r="Z7" s="135"/>
+      <c r="AA7" s="135"/>
+      <c r="AB7" s="135"/>
+      <c r="AC7" s="135"/>
+      <c r="AD7" s="136"/>
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
@@ -11101,35 +11082,35 @@
     </row>
     <row r="8" spans="1:68" ht="16.5">
       <c r="A8" s="5"/>
-      <c r="B8" s="130"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="131"/>
-      <c r="J8" s="131"/>
-      <c r="K8" s="131"/>
-      <c r="L8" s="131"/>
-      <c r="M8" s="131"/>
-      <c r="N8" s="131"/>
-      <c r="O8" s="131"/>
-      <c r="P8" s="131"/>
-      <c r="Q8" s="131"/>
-      <c r="R8" s="131"/>
-      <c r="S8" s="131"/>
-      <c r="T8" s="131"/>
-      <c r="U8" s="131"/>
-      <c r="V8" s="131"/>
-      <c r="W8" s="131"/>
-      <c r="X8" s="131"/>
-      <c r="Y8" s="131"/>
-      <c r="Z8" s="131"/>
-      <c r="AA8" s="131"/>
-      <c r="AB8" s="131"/>
-      <c r="AC8" s="131"/>
-      <c r="AD8" s="132"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="135"/>
+      <c r="J8" s="135"/>
+      <c r="K8" s="135"/>
+      <c r="L8" s="135"/>
+      <c r="M8" s="135"/>
+      <c r="N8" s="135"/>
+      <c r="O8" s="135"/>
+      <c r="P8" s="135"/>
+      <c r="Q8" s="135"/>
+      <c r="R8" s="135"/>
+      <c r="S8" s="135"/>
+      <c r="T8" s="135"/>
+      <c r="U8" s="135"/>
+      <c r="V8" s="135"/>
+      <c r="W8" s="135"/>
+      <c r="X8" s="135"/>
+      <c r="Y8" s="135"/>
+      <c r="Z8" s="135"/>
+      <c r="AA8" s="135"/>
+      <c r="AB8" s="135"/>
+      <c r="AC8" s="135"/>
+      <c r="AD8" s="136"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
@@ -11171,35 +11152,35 @@
     </row>
     <row r="9" spans="1:68" ht="16.5">
       <c r="A9" s="5"/>
-      <c r="B9" s="130"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="131"/>
-      <c r="K9" s="131"/>
-      <c r="L9" s="131"/>
-      <c r="M9" s="131"/>
-      <c r="N9" s="131"/>
-      <c r="O9" s="131"/>
-      <c r="P9" s="131"/>
-      <c r="Q9" s="131"/>
-      <c r="R9" s="131"/>
-      <c r="S9" s="131"/>
-      <c r="T9" s="131"/>
-      <c r="U9" s="131"/>
-      <c r="V9" s="131"/>
-      <c r="W9" s="131"/>
-      <c r="X9" s="131"/>
-      <c r="Y9" s="131"/>
-      <c r="Z9" s="131"/>
-      <c r="AA9" s="131"/>
-      <c r="AB9" s="131"/>
-      <c r="AC9" s="131"/>
-      <c r="AD9" s="132"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="135"/>
+      <c r="L9" s="135"/>
+      <c r="M9" s="135"/>
+      <c r="N9" s="135"/>
+      <c r="O9" s="135"/>
+      <c r="P9" s="135"/>
+      <c r="Q9" s="135"/>
+      <c r="R9" s="135"/>
+      <c r="S9" s="135"/>
+      <c r="T9" s="135"/>
+      <c r="U9" s="135"/>
+      <c r="V9" s="135"/>
+      <c r="W9" s="135"/>
+      <c r="X9" s="135"/>
+      <c r="Y9" s="135"/>
+      <c r="Z9" s="135"/>
+      <c r="AA9" s="135"/>
+      <c r="AB9" s="135"/>
+      <c r="AC9" s="135"/>
+      <c r="AD9" s="136"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
       <c r="AG9" s="5"/>
@@ -11241,35 +11222,35 @@
     </row>
     <row r="10" spans="1:68" ht="16.5">
       <c r="A10" s="5"/>
-      <c r="B10" s="130"/>
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="131"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="131"/>
-      <c r="M10" s="131"/>
-      <c r="N10" s="131"/>
-      <c r="O10" s="131"/>
-      <c r="P10" s="131"/>
-      <c r="Q10" s="131"/>
-      <c r="R10" s="131"/>
-      <c r="S10" s="131"/>
-      <c r="T10" s="131"/>
-      <c r="U10" s="131"/>
-      <c r="V10" s="131"/>
-      <c r="W10" s="131"/>
-      <c r="X10" s="131"/>
-      <c r="Y10" s="131"/>
-      <c r="Z10" s="131"/>
-      <c r="AA10" s="131"/>
-      <c r="AB10" s="131"/>
-      <c r="AC10" s="131"/>
-      <c r="AD10" s="132"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="135"/>
+      <c r="L10" s="135"/>
+      <c r="M10" s="135"/>
+      <c r="N10" s="135"/>
+      <c r="O10" s="135"/>
+      <c r="P10" s="135"/>
+      <c r="Q10" s="135"/>
+      <c r="R10" s="135"/>
+      <c r="S10" s="135"/>
+      <c r="T10" s="135"/>
+      <c r="U10" s="135"/>
+      <c r="V10" s="135"/>
+      <c r="W10" s="135"/>
+      <c r="X10" s="135"/>
+      <c r="Y10" s="135"/>
+      <c r="Z10" s="135"/>
+      <c r="AA10" s="135"/>
+      <c r="AB10" s="135"/>
+      <c r="AC10" s="135"/>
+      <c r="AD10" s="136"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
@@ -11311,35 +11292,35 @@
     </row>
     <row r="11" spans="1:68" ht="16.5">
       <c r="A11" s="5"/>
-      <c r="B11" s="130"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="131"/>
-      <c r="K11" s="131"/>
-      <c r="L11" s="131"/>
-      <c r="M11" s="131"/>
-      <c r="N11" s="131"/>
-      <c r="O11" s="131"/>
-      <c r="P11" s="131"/>
-      <c r="Q11" s="131"/>
-      <c r="R11" s="131"/>
-      <c r="S11" s="131"/>
-      <c r="T11" s="131"/>
-      <c r="U11" s="131"/>
-      <c r="V11" s="131"/>
-      <c r="W11" s="131"/>
-      <c r="X11" s="131"/>
-      <c r="Y11" s="131"/>
-      <c r="Z11" s="131"/>
-      <c r="AA11" s="131"/>
-      <c r="AB11" s="131"/>
-      <c r="AC11" s="131"/>
-      <c r="AD11" s="132"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="135"/>
+      <c r="L11" s="135"/>
+      <c r="M11" s="135"/>
+      <c r="N11" s="135"/>
+      <c r="O11" s="135"/>
+      <c r="P11" s="135"/>
+      <c r="Q11" s="135"/>
+      <c r="R11" s="135"/>
+      <c r="S11" s="135"/>
+      <c r="T11" s="135"/>
+      <c r="U11" s="135"/>
+      <c r="V11" s="135"/>
+      <c r="W11" s="135"/>
+      <c r="X11" s="135"/>
+      <c r="Y11" s="135"/>
+      <c r="Z11" s="135"/>
+      <c r="AA11" s="135"/>
+      <c r="AB11" s="135"/>
+      <c r="AC11" s="135"/>
+      <c r="AD11" s="136"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
       <c r="AG11" s="5"/>
@@ -11381,35 +11362,35 @@
     </row>
     <row r="12" spans="1:68" ht="16.5">
       <c r="A12" s="5"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="131"/>
-      <c r="K12" s="131"/>
-      <c r="L12" s="131"/>
-      <c r="M12" s="131"/>
-      <c r="N12" s="131"/>
-      <c r="O12" s="131"/>
-      <c r="P12" s="131"/>
-      <c r="Q12" s="131"/>
-      <c r="R12" s="131"/>
-      <c r="S12" s="131"/>
-      <c r="T12" s="131"/>
-      <c r="U12" s="131"/>
-      <c r="V12" s="131"/>
-      <c r="W12" s="131"/>
-      <c r="X12" s="131"/>
-      <c r="Y12" s="131"/>
-      <c r="Z12" s="131"/>
-      <c r="AA12" s="131"/>
-      <c r="AB12" s="131"/>
-      <c r="AC12" s="131"/>
-      <c r="AD12" s="132"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="135"/>
+      <c r="M12" s="135"/>
+      <c r="N12" s="135"/>
+      <c r="O12" s="135"/>
+      <c r="P12" s="135"/>
+      <c r="Q12" s="135"/>
+      <c r="R12" s="135"/>
+      <c r="S12" s="135"/>
+      <c r="T12" s="135"/>
+      <c r="U12" s="135"/>
+      <c r="V12" s="135"/>
+      <c r="W12" s="135"/>
+      <c r="X12" s="135"/>
+      <c r="Y12" s="135"/>
+      <c r="Z12" s="135"/>
+      <c r="AA12" s="135"/>
+      <c r="AB12" s="135"/>
+      <c r="AC12" s="135"/>
+      <c r="AD12" s="136"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
       <c r="AG12" s="5"/>
@@ -11451,35 +11432,35 @@
     </row>
     <row r="13" spans="1:68" ht="16.5">
       <c r="A13" s="5"/>
-      <c r="B13" s="130"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="131"/>
-      <c r="K13" s="131"/>
-      <c r="L13" s="131"/>
-      <c r="M13" s="131"/>
-      <c r="N13" s="131"/>
-      <c r="O13" s="131"/>
-      <c r="P13" s="131"/>
-      <c r="Q13" s="131"/>
-      <c r="R13" s="131"/>
-      <c r="S13" s="131"/>
-      <c r="T13" s="131"/>
-      <c r="U13" s="131"/>
-      <c r="V13" s="131"/>
-      <c r="W13" s="131"/>
-      <c r="X13" s="131"/>
-      <c r="Y13" s="131"/>
-      <c r="Z13" s="131"/>
-      <c r="AA13" s="131"/>
-      <c r="AB13" s="131"/>
-      <c r="AC13" s="131"/>
-      <c r="AD13" s="132"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="135"/>
+      <c r="L13" s="135"/>
+      <c r="M13" s="135"/>
+      <c r="N13" s="135"/>
+      <c r="O13" s="135"/>
+      <c r="P13" s="135"/>
+      <c r="Q13" s="135"/>
+      <c r="R13" s="135"/>
+      <c r="S13" s="135"/>
+      <c r="T13" s="135"/>
+      <c r="U13" s="135"/>
+      <c r="V13" s="135"/>
+      <c r="W13" s="135"/>
+      <c r="X13" s="135"/>
+      <c r="Y13" s="135"/>
+      <c r="Z13" s="135"/>
+      <c r="AA13" s="135"/>
+      <c r="AB13" s="135"/>
+      <c r="AC13" s="135"/>
+      <c r="AD13" s="136"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
       <c r="AG13" s="5"/>
@@ -11521,35 +11502,35 @@
     </row>
     <row r="14" spans="1:68" ht="16.5">
       <c r="A14" s="5"/>
-      <c r="B14" s="130"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="131"/>
-      <c r="K14" s="131"/>
-      <c r="L14" s="131"/>
-      <c r="M14" s="131"/>
-      <c r="N14" s="131"/>
-      <c r="O14" s="131"/>
-      <c r="P14" s="131"/>
-      <c r="Q14" s="131"/>
-      <c r="R14" s="131"/>
-      <c r="S14" s="131"/>
-      <c r="T14" s="131"/>
-      <c r="U14" s="131"/>
-      <c r="V14" s="131"/>
-      <c r="W14" s="131"/>
-      <c r="X14" s="131"/>
-      <c r="Y14" s="131"/>
-      <c r="Z14" s="131"/>
-      <c r="AA14" s="131"/>
-      <c r="AB14" s="131"/>
-      <c r="AC14" s="131"/>
-      <c r="AD14" s="132"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
+      <c r="I14" s="135"/>
+      <c r="J14" s="135"/>
+      <c r="K14" s="135"/>
+      <c r="L14" s="135"/>
+      <c r="M14" s="135"/>
+      <c r="N14" s="135"/>
+      <c r="O14" s="135"/>
+      <c r="P14" s="135"/>
+      <c r="Q14" s="135"/>
+      <c r="R14" s="135"/>
+      <c r="S14" s="135"/>
+      <c r="T14" s="135"/>
+      <c r="U14" s="135"/>
+      <c r="V14" s="135"/>
+      <c r="W14" s="135"/>
+      <c r="X14" s="135"/>
+      <c r="Y14" s="135"/>
+      <c r="Z14" s="135"/>
+      <c r="AA14" s="135"/>
+      <c r="AB14" s="135"/>
+      <c r="AC14" s="135"/>
+      <c r="AD14" s="136"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
@@ -11591,35 +11572,35 @@
     </row>
     <row r="15" spans="1:68" ht="16.5">
       <c r="A15" s="5"/>
-      <c r="B15" s="130"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
-      <c r="G15" s="131"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="131"/>
-      <c r="J15" s="131"/>
-      <c r="K15" s="131"/>
-      <c r="L15" s="131"/>
-      <c r="M15" s="131"/>
-      <c r="N15" s="131"/>
-      <c r="O15" s="131"/>
-      <c r="P15" s="131"/>
-      <c r="Q15" s="131"/>
-      <c r="R15" s="131"/>
-      <c r="S15" s="131"/>
-      <c r="T15" s="131"/>
-      <c r="U15" s="131"/>
-      <c r="V15" s="131"/>
-      <c r="W15" s="131"/>
-      <c r="X15" s="131"/>
-      <c r="Y15" s="131"/>
-      <c r="Z15" s="131"/>
-      <c r="AA15" s="131"/>
-      <c r="AB15" s="131"/>
-      <c r="AC15" s="131"/>
-      <c r="AD15" s="132"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="135"/>
+      <c r="H15" s="135"/>
+      <c r="I15" s="135"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="135"/>
+      <c r="L15" s="135"/>
+      <c r="M15" s="135"/>
+      <c r="N15" s="135"/>
+      <c r="O15" s="135"/>
+      <c r="P15" s="135"/>
+      <c r="Q15" s="135"/>
+      <c r="R15" s="135"/>
+      <c r="S15" s="135"/>
+      <c r="T15" s="135"/>
+      <c r="U15" s="135"/>
+      <c r="V15" s="135"/>
+      <c r="W15" s="135"/>
+      <c r="X15" s="135"/>
+      <c r="Y15" s="135"/>
+      <c r="Z15" s="135"/>
+      <c r="AA15" s="135"/>
+      <c r="AB15" s="135"/>
+      <c r="AC15" s="135"/>
+      <c r="AD15" s="136"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
@@ -11661,35 +11642,35 @@
     </row>
     <row r="16" spans="1:68" ht="16.5">
       <c r="A16" s="5"/>
-      <c r="B16" s="130"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="131"/>
-      <c r="J16" s="131"/>
-      <c r="K16" s="131"/>
-      <c r="L16" s="131"/>
-      <c r="M16" s="131"/>
-      <c r="N16" s="131"/>
-      <c r="O16" s="131"/>
-      <c r="P16" s="131"/>
-      <c r="Q16" s="131"/>
-      <c r="R16" s="131"/>
-      <c r="S16" s="131"/>
-      <c r="T16" s="131"/>
-      <c r="U16" s="131"/>
-      <c r="V16" s="131"/>
-      <c r="W16" s="131"/>
-      <c r="X16" s="131"/>
-      <c r="Y16" s="131"/>
-      <c r="Z16" s="131"/>
-      <c r="AA16" s="131"/>
-      <c r="AB16" s="131"/>
-      <c r="AC16" s="131"/>
-      <c r="AD16" s="132"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="135"/>
+      <c r="Q16" s="135"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="135"/>
+      <c r="T16" s="135"/>
+      <c r="U16" s="135"/>
+      <c r="V16" s="135"/>
+      <c r="W16" s="135"/>
+      <c r="X16" s="135"/>
+      <c r="Y16" s="135"/>
+      <c r="Z16" s="135"/>
+      <c r="AA16" s="135"/>
+      <c r="AB16" s="135"/>
+      <c r="AC16" s="135"/>
+      <c r="AD16" s="136"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
       <c r="AG16" s="5"/>
@@ -11731,35 +11712,35 @@
     </row>
     <row r="17" spans="1:68" ht="16.5">
       <c r="A17" s="5"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="131"/>
-      <c r="J17" s="131"/>
-      <c r="K17" s="131"/>
-      <c r="L17" s="131"/>
-      <c r="M17" s="131"/>
-      <c r="N17" s="131"/>
-      <c r="O17" s="131"/>
-      <c r="P17" s="131"/>
-      <c r="Q17" s="131"/>
-      <c r="R17" s="131"/>
-      <c r="S17" s="131"/>
-      <c r="T17" s="131"/>
-      <c r="U17" s="131"/>
-      <c r="V17" s="131"/>
-      <c r="W17" s="131"/>
-      <c r="X17" s="131"/>
-      <c r="Y17" s="131"/>
-      <c r="Z17" s="131"/>
-      <c r="AA17" s="131"/>
-      <c r="AB17" s="131"/>
-      <c r="AC17" s="131"/>
-      <c r="AD17" s="132"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="135"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="135"/>
+      <c r="J17" s="135"/>
+      <c r="K17" s="135"/>
+      <c r="L17" s="135"/>
+      <c r="M17" s="135"/>
+      <c r="N17" s="135"/>
+      <c r="O17" s="135"/>
+      <c r="P17" s="135"/>
+      <c r="Q17" s="135"/>
+      <c r="R17" s="135"/>
+      <c r="S17" s="135"/>
+      <c r="T17" s="135"/>
+      <c r="U17" s="135"/>
+      <c r="V17" s="135"/>
+      <c r="W17" s="135"/>
+      <c r="X17" s="135"/>
+      <c r="Y17" s="135"/>
+      <c r="Z17" s="135"/>
+      <c r="AA17" s="135"/>
+      <c r="AB17" s="135"/>
+      <c r="AC17" s="135"/>
+      <c r="AD17" s="136"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
       <c r="AG17" s="5"/>
@@ -11801,35 +11782,35 @@
     </row>
     <row r="18" spans="1:68" ht="16.5">
       <c r="A18" s="5"/>
-      <c r="B18" s="130"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="131"/>
-      <c r="G18" s="131"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="131"/>
-      <c r="J18" s="131"/>
-      <c r="K18" s="131"/>
-      <c r="L18" s="131"/>
-      <c r="M18" s="131"/>
-      <c r="N18" s="131"/>
-      <c r="O18" s="131"/>
-      <c r="P18" s="131"/>
-      <c r="Q18" s="131"/>
-      <c r="R18" s="131"/>
-      <c r="S18" s="131"/>
-      <c r="T18" s="131"/>
-      <c r="U18" s="131"/>
-      <c r="V18" s="131"/>
-      <c r="W18" s="131"/>
-      <c r="X18" s="131"/>
-      <c r="Y18" s="131"/>
-      <c r="Z18" s="131"/>
-      <c r="AA18" s="131"/>
-      <c r="AB18" s="131"/>
-      <c r="AC18" s="131"/>
-      <c r="AD18" s="132"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="135"/>
+      <c r="N18" s="135"/>
+      <c r="O18" s="135"/>
+      <c r="P18" s="135"/>
+      <c r="Q18" s="135"/>
+      <c r="R18" s="135"/>
+      <c r="S18" s="135"/>
+      <c r="T18" s="135"/>
+      <c r="U18" s="135"/>
+      <c r="V18" s="135"/>
+      <c r="W18" s="135"/>
+      <c r="X18" s="135"/>
+      <c r="Y18" s="135"/>
+      <c r="Z18" s="135"/>
+      <c r="AA18" s="135"/>
+      <c r="AB18" s="135"/>
+      <c r="AC18" s="135"/>
+      <c r="AD18" s="136"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
       <c r="AG18" s="5"/>
@@ -11871,35 +11852,35 @@
     </row>
     <row r="19" spans="1:68" ht="16.5">
       <c r="A19" s="5"/>
-      <c r="B19" s="130"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="131"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="131"/>
-      <c r="J19" s="131"/>
-      <c r="K19" s="131"/>
-      <c r="L19" s="131"/>
-      <c r="M19" s="131"/>
-      <c r="N19" s="131"/>
-      <c r="O19" s="131"/>
-      <c r="P19" s="131"/>
-      <c r="Q19" s="131"/>
-      <c r="R19" s="131"/>
-      <c r="S19" s="131"/>
-      <c r="T19" s="131"/>
-      <c r="U19" s="131"/>
-      <c r="V19" s="131"/>
-      <c r="W19" s="131"/>
-      <c r="X19" s="131"/>
-      <c r="Y19" s="131"/>
-      <c r="Z19" s="131"/>
-      <c r="AA19" s="131"/>
-      <c r="AB19" s="131"/>
-      <c r="AC19" s="131"/>
-      <c r="AD19" s="132"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="135"/>
+      <c r="K19" s="135"/>
+      <c r="L19" s="135"/>
+      <c r="M19" s="135"/>
+      <c r="N19" s="135"/>
+      <c r="O19" s="135"/>
+      <c r="P19" s="135"/>
+      <c r="Q19" s="135"/>
+      <c r="R19" s="135"/>
+      <c r="S19" s="135"/>
+      <c r="T19" s="135"/>
+      <c r="U19" s="135"/>
+      <c r="V19" s="135"/>
+      <c r="W19" s="135"/>
+      <c r="X19" s="135"/>
+      <c r="Y19" s="135"/>
+      <c r="Z19" s="135"/>
+      <c r="AA19" s="135"/>
+      <c r="AB19" s="135"/>
+      <c r="AC19" s="135"/>
+      <c r="AD19" s="136"/>
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
       <c r="AG19" s="5"/>
@@ -11941,35 +11922,35 @@
     </row>
     <row r="20" spans="1:68" ht="16.5">
       <c r="A20" s="5"/>
-      <c r="B20" s="130"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="131"/>
-      <c r="H20" s="131"/>
-      <c r="I20" s="131"/>
-      <c r="J20" s="131"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="131"/>
-      <c r="M20" s="131"/>
-      <c r="N20" s="131"/>
-      <c r="O20" s="131"/>
-      <c r="P20" s="131"/>
-      <c r="Q20" s="131"/>
-      <c r="R20" s="131"/>
-      <c r="S20" s="131"/>
-      <c r="T20" s="131"/>
-      <c r="U20" s="131"/>
-      <c r="V20" s="131"/>
-      <c r="W20" s="131"/>
-      <c r="X20" s="131"/>
-      <c r="Y20" s="131"/>
-      <c r="Z20" s="131"/>
-      <c r="AA20" s="131"/>
-      <c r="AB20" s="131"/>
-      <c r="AC20" s="131"/>
-      <c r="AD20" s="132"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="135"/>
+      <c r="H20" s="135"/>
+      <c r="I20" s="135"/>
+      <c r="J20" s="135"/>
+      <c r="K20" s="135"/>
+      <c r="L20" s="135"/>
+      <c r="M20" s="135"/>
+      <c r="N20" s="135"/>
+      <c r="O20" s="135"/>
+      <c r="P20" s="135"/>
+      <c r="Q20" s="135"/>
+      <c r="R20" s="135"/>
+      <c r="S20" s="135"/>
+      <c r="T20" s="135"/>
+      <c r="U20" s="135"/>
+      <c r="V20" s="135"/>
+      <c r="W20" s="135"/>
+      <c r="X20" s="135"/>
+      <c r="Y20" s="135"/>
+      <c r="Z20" s="135"/>
+      <c r="AA20" s="135"/>
+      <c r="AB20" s="135"/>
+      <c r="AC20" s="135"/>
+      <c r="AD20" s="136"/>
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
       <c r="AG20" s="5"/>
@@ -12011,35 +11992,35 @@
     </row>
     <row r="21" spans="1:68" ht="16.5">
       <c r="A21" s="5"/>
-      <c r="B21" s="130"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="131"/>
-      <c r="L21" s="131"/>
-      <c r="M21" s="131"/>
-      <c r="N21" s="131"/>
-      <c r="O21" s="131"/>
-      <c r="P21" s="131"/>
-      <c r="Q21" s="131"/>
-      <c r="R21" s="131"/>
-      <c r="S21" s="131"/>
-      <c r="T21" s="131"/>
-      <c r="U21" s="131"/>
-      <c r="V21" s="131"/>
-      <c r="W21" s="131"/>
-      <c r="X21" s="131"/>
-      <c r="Y21" s="131"/>
-      <c r="Z21" s="131"/>
-      <c r="AA21" s="131"/>
-      <c r="AB21" s="131"/>
-      <c r="AC21" s="131"/>
-      <c r="AD21" s="132"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="135"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="135"/>
+      <c r="L21" s="135"/>
+      <c r="M21" s="135"/>
+      <c r="N21" s="135"/>
+      <c r="O21" s="135"/>
+      <c r="P21" s="135"/>
+      <c r="Q21" s="135"/>
+      <c r="R21" s="135"/>
+      <c r="S21" s="135"/>
+      <c r="T21" s="135"/>
+      <c r="U21" s="135"/>
+      <c r="V21" s="135"/>
+      <c r="W21" s="135"/>
+      <c r="X21" s="135"/>
+      <c r="Y21" s="135"/>
+      <c r="Z21" s="135"/>
+      <c r="AA21" s="135"/>
+      <c r="AB21" s="135"/>
+      <c r="AC21" s="135"/>
+      <c r="AD21" s="136"/>
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
       <c r="AG21" s="5"/>
@@ -12081,35 +12062,35 @@
     </row>
     <row r="22" spans="1:68" ht="16.5">
       <c r="A22" s="5"/>
-      <c r="B22" s="133"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="106"/>
-      <c r="M22" s="106"/>
-      <c r="N22" s="106"/>
-      <c r="O22" s="106"/>
-      <c r="P22" s="106"/>
-      <c r="Q22" s="106"/>
-      <c r="R22" s="106"/>
-      <c r="S22" s="106"/>
-      <c r="T22" s="106"/>
-      <c r="U22" s="106"/>
-      <c r="V22" s="106"/>
-      <c r="W22" s="106"/>
-      <c r="X22" s="106"/>
-      <c r="Y22" s="106"/>
-      <c r="Z22" s="106"/>
-      <c r="AA22" s="106"/>
-      <c r="AB22" s="106"/>
-      <c r="AC22" s="106"/>
-      <c r="AD22" s="107"/>
+      <c r="B22" s="137"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="138"/>
+      <c r="K22" s="138"/>
+      <c r="L22" s="138"/>
+      <c r="M22" s="138"/>
+      <c r="N22" s="138"/>
+      <c r="O22" s="138"/>
+      <c r="P22" s="138"/>
+      <c r="Q22" s="138"/>
+      <c r="R22" s="138"/>
+      <c r="S22" s="138"/>
+      <c r="T22" s="138"/>
+      <c r="U22" s="138"/>
+      <c r="V22" s="138"/>
+      <c r="W22" s="138"/>
+      <c r="X22" s="138"/>
+      <c r="Y22" s="138"/>
+      <c r="Z22" s="138"/>
+      <c r="AA22" s="138"/>
+      <c r="AB22" s="138"/>
+      <c r="AC22" s="138"/>
+      <c r="AD22" s="139"/>
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
       <c r="AG22" s="5"/>
@@ -12221,7 +12202,7 @@
     </row>
     <row r="24" spans="1:68" ht="16.5">
       <c r="A24" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="14"/>
@@ -12364,62 +12345,62 @@
     <row r="26" spans="1:68" s="27" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A26" s="4"/>
       <c r="B26" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="140" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="141"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="141"/>
+      <c r="I26" s="141"/>
+      <c r="J26" s="141"/>
+      <c r="K26" s="142"/>
+      <c r="L26" s="140" t="s">
+        <v>10</v>
+      </c>
+      <c r="M26" s="141"/>
+      <c r="N26" s="141"/>
+      <c r="O26" s="141"/>
+      <c r="P26" s="141"/>
+      <c r="Q26" s="142"/>
+      <c r="R26" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="134" t="s">
+      <c r="S26" s="141"/>
+      <c r="T26" s="141"/>
+      <c r="U26" s="141"/>
+      <c r="V26" s="141"/>
+      <c r="W26" s="142"/>
+      <c r="X26" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="135"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="135"/>
-      <c r="H26" s="135"/>
-      <c r="I26" s="135"/>
-      <c r="J26" s="135"/>
-      <c r="K26" s="136"/>
-      <c r="L26" s="134" t="s">
+      <c r="Y26" s="144"/>
+      <c r="Z26" s="144"/>
+      <c r="AA26" s="144"/>
+      <c r="AB26" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="M26" s="135"/>
-      <c r="N26" s="135"/>
-      <c r="O26" s="135"/>
-      <c r="P26" s="135"/>
-      <c r="Q26" s="136"/>
-      <c r="R26" s="134" t="s">
+      <c r="AC26" s="144"/>
+      <c r="AD26" s="144"/>
+      <c r="AE26" s="144"/>
+      <c r="AF26" s="144"/>
+      <c r="AG26" s="144"/>
+      <c r="AH26" s="144"/>
+      <c r="AI26" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="S26" s="135"/>
-      <c r="T26" s="135"/>
-      <c r="U26" s="135"/>
-      <c r="V26" s="135"/>
-      <c r="W26" s="136"/>
-      <c r="X26" s="137" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y26" s="138"/>
-      <c r="Z26" s="138"/>
-      <c r="AA26" s="138"/>
-      <c r="AB26" s="137" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC26" s="138"/>
-      <c r="AD26" s="138"/>
-      <c r="AE26" s="138"/>
-      <c r="AF26" s="138"/>
-      <c r="AG26" s="138"/>
-      <c r="AH26" s="138"/>
-      <c r="AI26" s="134" t="s">
-        <v>17</v>
-      </c>
-      <c r="AJ26" s="135"/>
-      <c r="AK26" s="135"/>
-      <c r="AL26" s="135"/>
-      <c r="AM26" s="135"/>
-      <c r="AN26" s="135"/>
-      <c r="AO26" s="135"/>
-      <c r="AP26" s="135"/>
-      <c r="AQ26" s="135"/>
-      <c r="AR26" s="136"/>
+      <c r="AJ26" s="141"/>
+      <c r="AK26" s="141"/>
+      <c r="AL26" s="141"/>
+      <c r="AM26" s="141"/>
+      <c r="AN26" s="141"/>
+      <c r="AO26" s="141"/>
+      <c r="AP26" s="141"/>
+      <c r="AQ26" s="141"/>
+      <c r="AR26" s="142"/>
       <c r="AS26" s="4"/>
       <c r="AT26" s="4"/>
       <c r="AU26" s="4"/>
@@ -12447,51 +12428,51 @@
     </row>
     <row r="27" spans="1:68" s="25" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A27" s="23"/>
-      <c r="B27" s="111" t="s">
-        <v>126</v>
+      <c r="B27" s="110" t="s">
+        <v>122</v>
       </c>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="112"/>
-      <c r="H27" s="112"/>
-      <c r="I27" s="112"/>
-      <c r="J27" s="112"/>
-      <c r="K27" s="112"/>
-      <c r="L27" s="112"/>
-      <c r="M27" s="112"/>
-      <c r="N27" s="112"/>
-      <c r="O27" s="112"/>
-      <c r="P27" s="112"/>
-      <c r="Q27" s="112"/>
-      <c r="R27" s="112"/>
-      <c r="S27" s="112"/>
-      <c r="T27" s="112"/>
-      <c r="U27" s="112"/>
-      <c r="V27" s="112"/>
-      <c r="W27" s="112"/>
-      <c r="X27" s="112"/>
-      <c r="Y27" s="112"/>
-      <c r="Z27" s="112"/>
-      <c r="AA27" s="112"/>
-      <c r="AB27" s="112"/>
-      <c r="AC27" s="112"/>
-      <c r="AD27" s="112"/>
-      <c r="AE27" s="112"/>
-      <c r="AF27" s="112"/>
-      <c r="AG27" s="112"/>
-      <c r="AH27" s="112"/>
-      <c r="AI27" s="112"/>
-      <c r="AJ27" s="112"/>
-      <c r="AK27" s="112"/>
-      <c r="AL27" s="112"/>
-      <c r="AM27" s="112"/>
-      <c r="AN27" s="112"/>
-      <c r="AO27" s="112"/>
-      <c r="AP27" s="112"/>
-      <c r="AQ27" s="112"/>
-      <c r="AR27" s="113"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="111"/>
+      <c r="N27" s="111"/>
+      <c r="O27" s="111"/>
+      <c r="P27" s="111"/>
+      <c r="Q27" s="111"/>
+      <c r="R27" s="111"/>
+      <c r="S27" s="111"/>
+      <c r="T27" s="111"/>
+      <c r="U27" s="111"/>
+      <c r="V27" s="111"/>
+      <c r="W27" s="111"/>
+      <c r="X27" s="111"/>
+      <c r="Y27" s="111"/>
+      <c r="Z27" s="111"/>
+      <c r="AA27" s="111"/>
+      <c r="AB27" s="111"/>
+      <c r="AC27" s="111"/>
+      <c r="AD27" s="111"/>
+      <c r="AE27" s="111"/>
+      <c r="AF27" s="111"/>
+      <c r="AG27" s="111"/>
+      <c r="AH27" s="111"/>
+      <c r="AI27" s="111"/>
+      <c r="AJ27" s="111"/>
+      <c r="AK27" s="111"/>
+      <c r="AL27" s="111"/>
+      <c r="AM27" s="111"/>
+      <c r="AN27" s="111"/>
+      <c r="AO27" s="111"/>
+      <c r="AP27" s="111"/>
+      <c r="AQ27" s="111"/>
+      <c r="AR27" s="112"/>
       <c r="AS27" s="17"/>
       <c r="AT27" s="17"/>
       <c r="AU27" s="17"/>
@@ -12523,54 +12504,54 @@
         <f ca="1">MAX(B$23:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C28" s="139" t="s">
-        <v>198</v>
+      <c r="C28" s="65" t="s">
+        <v>194</v>
       </c>
-      <c r="D28" s="140"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="140"/>
-      <c r="K28" s="141"/>
-      <c r="L28" s="108" t="s">
-        <v>45</v>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="88" t="s">
+        <v>41</v>
       </c>
-      <c r="M28" s="109"/>
-      <c r="N28" s="109"/>
-      <c r="O28" s="109"/>
-      <c r="P28" s="109"/>
-      <c r="Q28" s="109"/>
-      <c r="R28" s="108"/>
-      <c r="S28" s="109"/>
-      <c r="T28" s="109"/>
-      <c r="U28" s="109"/>
-      <c r="V28" s="109"/>
-      <c r="W28" s="109"/>
-      <c r="X28" s="108"/>
-      <c r="Y28" s="108"/>
-      <c r="Z28" s="108"/>
-      <c r="AA28" s="108"/>
-      <c r="AB28" s="108"/>
-      <c r="AC28" s="108"/>
-      <c r="AD28" s="108"/>
-      <c r="AE28" s="108"/>
-      <c r="AF28" s="108"/>
-      <c r="AG28" s="108"/>
-      <c r="AH28" s="108"/>
-      <c r="AI28" s="110" t="s">
-        <v>200</v>
+      <c r="M28" s="108"/>
+      <c r="N28" s="108"/>
+      <c r="O28" s="108"/>
+      <c r="P28" s="108"/>
+      <c r="Q28" s="108"/>
+      <c r="R28" s="88"/>
+      <c r="S28" s="108"/>
+      <c r="T28" s="108"/>
+      <c r="U28" s="108"/>
+      <c r="V28" s="108"/>
+      <c r="W28" s="108"/>
+      <c r="X28" s="88"/>
+      <c r="Y28" s="88"/>
+      <c r="Z28" s="88"/>
+      <c r="AA28" s="88"/>
+      <c r="AB28" s="88"/>
+      <c r="AC28" s="88"/>
+      <c r="AD28" s="88"/>
+      <c r="AE28" s="88"/>
+      <c r="AF28" s="88"/>
+      <c r="AG28" s="88"/>
+      <c r="AH28" s="88"/>
+      <c r="AI28" s="109" t="s">
+        <v>196</v>
       </c>
-      <c r="AJ28" s="110"/>
-      <c r="AK28" s="110"/>
-      <c r="AL28" s="110"/>
-      <c r="AM28" s="110"/>
-      <c r="AN28" s="110"/>
-      <c r="AO28" s="110"/>
-      <c r="AP28" s="110"/>
-      <c r="AQ28" s="110"/>
-      <c r="AR28" s="110"/>
+      <c r="AJ28" s="109"/>
+      <c r="AK28" s="109"/>
+      <c r="AL28" s="109"/>
+      <c r="AM28" s="109"/>
+      <c r="AN28" s="109"/>
+      <c r="AO28" s="109"/>
+      <c r="AP28" s="109"/>
+      <c r="AQ28" s="109"/>
+      <c r="AR28" s="109"/>
       <c r="AS28" s="4"/>
       <c r="AT28" s="4"/>
       <c r="AU28" s="4"/>
@@ -12602,52 +12583,52 @@
         <f ca="1">MAX(B$23:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C29" s="142" t="s">
-        <v>199</v>
+      <c r="C29" s="114" t="s">
+        <v>195</v>
       </c>
-      <c r="D29" s="143"/>
-      <c r="E29" s="143"/>
-      <c r="F29" s="143"/>
-      <c r="G29" s="143"/>
-      <c r="H29" s="143"/>
-      <c r="I29" s="143"/>
-      <c r="J29" s="143"/>
-      <c r="K29" s="144"/>
-      <c r="L29" s="114" t="s">
-        <v>46</v>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="115"/>
+      <c r="I29" s="115"/>
+      <c r="J29" s="115"/>
+      <c r="K29" s="116"/>
+      <c r="L29" s="85" t="s">
+        <v>42</v>
       </c>
-      <c r="M29" s="115"/>
-      <c r="N29" s="115"/>
-      <c r="O29" s="115"/>
-      <c r="P29" s="115"/>
-      <c r="Q29" s="115"/>
-      <c r="R29" s="114"/>
-      <c r="S29" s="115"/>
-      <c r="T29" s="115"/>
-      <c r="U29" s="115"/>
-      <c r="V29" s="115"/>
-      <c r="W29" s="115"/>
-      <c r="X29" s="114"/>
-      <c r="Y29" s="114"/>
-      <c r="Z29" s="114"/>
-      <c r="AA29" s="114"/>
-      <c r="AB29" s="114"/>
-      <c r="AC29" s="114"/>
-      <c r="AD29" s="114"/>
-      <c r="AE29" s="114"/>
-      <c r="AF29" s="114"/>
-      <c r="AG29" s="114"/>
-      <c r="AH29" s="114"/>
-      <c r="AI29" s="114"/>
-      <c r="AJ29" s="114"/>
-      <c r="AK29" s="114"/>
-      <c r="AL29" s="114"/>
-      <c r="AM29" s="114"/>
-      <c r="AN29" s="114"/>
-      <c r="AO29" s="114"/>
-      <c r="AP29" s="114"/>
-      <c r="AQ29" s="114"/>
-      <c r="AR29" s="114"/>
+      <c r="M29" s="113"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="113"/>
+      <c r="P29" s="113"/>
+      <c r="Q29" s="113"/>
+      <c r="R29" s="85"/>
+      <c r="S29" s="113"/>
+      <c r="T29" s="113"/>
+      <c r="U29" s="113"/>
+      <c r="V29" s="113"/>
+      <c r="W29" s="113"/>
+      <c r="X29" s="85"/>
+      <c r="Y29" s="85"/>
+      <c r="Z29" s="85"/>
+      <c r="AA29" s="85"/>
+      <c r="AB29" s="85"/>
+      <c r="AC29" s="85"/>
+      <c r="AD29" s="85"/>
+      <c r="AE29" s="85"/>
+      <c r="AF29" s="85"/>
+      <c r="AG29" s="85"/>
+      <c r="AH29" s="85"/>
+      <c r="AI29" s="85"/>
+      <c r="AJ29" s="85"/>
+      <c r="AK29" s="85"/>
+      <c r="AL29" s="85"/>
+      <c r="AM29" s="85"/>
+      <c r="AN29" s="85"/>
+      <c r="AO29" s="85"/>
+      <c r="AP29" s="85"/>
+      <c r="AQ29" s="85"/>
+      <c r="AR29" s="85"/>
       <c r="AS29" s="4"/>
       <c r="AT29" s="4"/>
       <c r="AU29" s="4"/>
@@ -12675,51 +12656,51 @@
     </row>
     <row r="30" spans="1:68" s="25" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A30" s="23"/>
-      <c r="B30" s="111" t="s">
-        <v>201</v>
+      <c r="B30" s="110" t="s">
+        <v>197</v>
       </c>
-      <c r="C30" s="112"/>
-      <c r="D30" s="112"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="112"/>
-      <c r="H30" s="112"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="112"/>
-      <c r="K30" s="112"/>
-      <c r="L30" s="112"/>
-      <c r="M30" s="112"/>
-      <c r="N30" s="112"/>
-      <c r="O30" s="112"/>
-      <c r="P30" s="112"/>
-      <c r="Q30" s="112"/>
-      <c r="R30" s="112"/>
-      <c r="S30" s="112"/>
-      <c r="T30" s="112"/>
-      <c r="U30" s="112"/>
-      <c r="V30" s="112"/>
-      <c r="W30" s="112"/>
-      <c r="X30" s="112"/>
-      <c r="Y30" s="112"/>
-      <c r="Z30" s="112"/>
-      <c r="AA30" s="112"/>
-      <c r="AB30" s="112"/>
-      <c r="AC30" s="112"/>
-      <c r="AD30" s="112"/>
-      <c r="AE30" s="112"/>
-      <c r="AF30" s="112"/>
-      <c r="AG30" s="112"/>
-      <c r="AH30" s="112"/>
-      <c r="AI30" s="112"/>
-      <c r="AJ30" s="112"/>
-      <c r="AK30" s="112"/>
-      <c r="AL30" s="112"/>
-      <c r="AM30" s="112"/>
-      <c r="AN30" s="112"/>
-      <c r="AO30" s="112"/>
-      <c r="AP30" s="112"/>
-      <c r="AQ30" s="112"/>
-      <c r="AR30" s="113"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="111"/>
+      <c r="M30" s="111"/>
+      <c r="N30" s="111"/>
+      <c r="O30" s="111"/>
+      <c r="P30" s="111"/>
+      <c r="Q30" s="111"/>
+      <c r="R30" s="111"/>
+      <c r="S30" s="111"/>
+      <c r="T30" s="111"/>
+      <c r="U30" s="111"/>
+      <c r="V30" s="111"/>
+      <c r="W30" s="111"/>
+      <c r="X30" s="111"/>
+      <c r="Y30" s="111"/>
+      <c r="Z30" s="111"/>
+      <c r="AA30" s="111"/>
+      <c r="AB30" s="111"/>
+      <c r="AC30" s="111"/>
+      <c r="AD30" s="111"/>
+      <c r="AE30" s="111"/>
+      <c r="AF30" s="111"/>
+      <c r="AG30" s="111"/>
+      <c r="AH30" s="111"/>
+      <c r="AI30" s="111"/>
+      <c r="AJ30" s="111"/>
+      <c r="AK30" s="111"/>
+      <c r="AL30" s="111"/>
+      <c r="AM30" s="111"/>
+      <c r="AN30" s="111"/>
+      <c r="AO30" s="111"/>
+      <c r="AP30" s="111"/>
+      <c r="AQ30" s="111"/>
+      <c r="AR30" s="112"/>
       <c r="AS30" s="17"/>
       <c r="AT30" s="17"/>
       <c r="AU30" s="17"/>
@@ -12752,7 +12733,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="105" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D31" s="106"/>
       <c r="E31" s="106"/>
@@ -12762,43 +12743,43 @@
       <c r="I31" s="106"/>
       <c r="J31" s="106"/>
       <c r="K31" s="107"/>
-      <c r="L31" s="108" t="s">
-        <v>45</v>
+      <c r="L31" s="88" t="s">
+        <v>41</v>
       </c>
-      <c r="M31" s="109"/>
-      <c r="N31" s="109"/>
-      <c r="O31" s="109"/>
-      <c r="P31" s="109"/>
-      <c r="Q31" s="109"/>
-      <c r="R31" s="108"/>
-      <c r="S31" s="109"/>
-      <c r="T31" s="109"/>
-      <c r="U31" s="109"/>
-      <c r="V31" s="109"/>
-      <c r="W31" s="109"/>
-      <c r="X31" s="108"/>
-      <c r="Y31" s="108"/>
-      <c r="Z31" s="108"/>
-      <c r="AA31" s="108"/>
-      <c r="AB31" s="108"/>
-      <c r="AC31" s="108"/>
-      <c r="AD31" s="108"/>
-      <c r="AE31" s="108"/>
-      <c r="AF31" s="108"/>
-      <c r="AG31" s="108"/>
-      <c r="AH31" s="108"/>
-      <c r="AI31" s="110" t="s">
-        <v>202</v>
+      <c r="M31" s="108"/>
+      <c r="N31" s="108"/>
+      <c r="O31" s="108"/>
+      <c r="P31" s="108"/>
+      <c r="Q31" s="108"/>
+      <c r="R31" s="88"/>
+      <c r="S31" s="108"/>
+      <c r="T31" s="108"/>
+      <c r="U31" s="108"/>
+      <c r="V31" s="108"/>
+      <c r="W31" s="108"/>
+      <c r="X31" s="88"/>
+      <c r="Y31" s="88"/>
+      <c r="Z31" s="88"/>
+      <c r="AA31" s="88"/>
+      <c r="AB31" s="88"/>
+      <c r="AC31" s="88"/>
+      <c r="AD31" s="88"/>
+      <c r="AE31" s="88"/>
+      <c r="AF31" s="88"/>
+      <c r="AG31" s="88"/>
+      <c r="AH31" s="88"/>
+      <c r="AI31" s="109" t="s">
+        <v>198</v>
       </c>
-      <c r="AJ31" s="110"/>
-      <c r="AK31" s="110"/>
-      <c r="AL31" s="110"/>
-      <c r="AM31" s="110"/>
-      <c r="AN31" s="110"/>
-      <c r="AO31" s="110"/>
-      <c r="AP31" s="110"/>
-      <c r="AQ31" s="110"/>
-      <c r="AR31" s="110"/>
+      <c r="AJ31" s="109"/>
+      <c r="AK31" s="109"/>
+      <c r="AL31" s="109"/>
+      <c r="AM31" s="109"/>
+      <c r="AN31" s="109"/>
+      <c r="AO31" s="109"/>
+      <c r="AP31" s="109"/>
+      <c r="AQ31" s="109"/>
+      <c r="AR31" s="109"/>
       <c r="AS31" s="4"/>
       <c r="AT31" s="4"/>
       <c r="AU31" s="4"/>
@@ -12831,7 +12812,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="105" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D32" s="106"/>
       <c r="E32" s="106"/>
@@ -12841,43 +12822,43 @@
       <c r="I32" s="106"/>
       <c r="J32" s="106"/>
       <c r="K32" s="107"/>
-      <c r="L32" s="108" t="s">
-        <v>45</v>
+      <c r="L32" s="88" t="s">
+        <v>41</v>
       </c>
-      <c r="M32" s="109"/>
-      <c r="N32" s="109"/>
-      <c r="O32" s="109"/>
-      <c r="P32" s="109"/>
-      <c r="Q32" s="109"/>
-      <c r="R32" s="108"/>
-      <c r="S32" s="109"/>
-      <c r="T32" s="109"/>
-      <c r="U32" s="109"/>
-      <c r="V32" s="109"/>
-      <c r="W32" s="109"/>
-      <c r="X32" s="108"/>
-      <c r="Y32" s="108"/>
-      <c r="Z32" s="108"/>
-      <c r="AA32" s="108"/>
-      <c r="AB32" s="108"/>
-      <c r="AC32" s="108"/>
-      <c r="AD32" s="108"/>
-      <c r="AE32" s="108"/>
-      <c r="AF32" s="108"/>
-      <c r="AG32" s="108"/>
-      <c r="AH32" s="108"/>
-      <c r="AI32" s="110" t="s">
-        <v>203</v>
+      <c r="M32" s="108"/>
+      <c r="N32" s="108"/>
+      <c r="O32" s="108"/>
+      <c r="P32" s="108"/>
+      <c r="Q32" s="108"/>
+      <c r="R32" s="88"/>
+      <c r="S32" s="108"/>
+      <c r="T32" s="108"/>
+      <c r="U32" s="108"/>
+      <c r="V32" s="108"/>
+      <c r="W32" s="108"/>
+      <c r="X32" s="88"/>
+      <c r="Y32" s="88"/>
+      <c r="Z32" s="88"/>
+      <c r="AA32" s="88"/>
+      <c r="AB32" s="88"/>
+      <c r="AC32" s="88"/>
+      <c r="AD32" s="88"/>
+      <c r="AE32" s="88"/>
+      <c r="AF32" s="88"/>
+      <c r="AG32" s="88"/>
+      <c r="AH32" s="88"/>
+      <c r="AI32" s="109" t="s">
+        <v>199</v>
       </c>
-      <c r="AJ32" s="110"/>
-      <c r="AK32" s="110"/>
-      <c r="AL32" s="110"/>
-      <c r="AM32" s="110"/>
-      <c r="AN32" s="110"/>
-      <c r="AO32" s="110"/>
-      <c r="AP32" s="110"/>
-      <c r="AQ32" s="110"/>
-      <c r="AR32" s="110"/>
+      <c r="AJ32" s="109"/>
+      <c r="AK32" s="109"/>
+      <c r="AL32" s="109"/>
+      <c r="AM32" s="109"/>
+      <c r="AN32" s="109"/>
+      <c r="AO32" s="109"/>
+      <c r="AP32" s="109"/>
+      <c r="AQ32" s="109"/>
+      <c r="AR32" s="109"/>
       <c r="AS32" s="4"/>
       <c r="AT32" s="4"/>
       <c r="AU32" s="4"/>
@@ -12975,7 +12956,7 @@
     </row>
     <row r="34" spans="1:68" ht="16.5">
       <c r="A34" s="12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="14"/>
@@ -13117,160 +13098,160 @@
     </row>
     <row r="36" spans="1:68" s="27" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A36" s="9"/>
-      <c r="B36" s="89" t="s">
-        <v>11</v>
+      <c r="B36" s="92" t="s">
+        <v>8</v>
       </c>
-      <c r="C36" s="90" t="s">
+      <c r="C36" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" s="93"/>
+      <c r="L36" s="93"/>
+      <c r="M36" s="93"/>
+      <c r="N36" s="93"/>
+      <c r="O36" s="93"/>
+      <c r="P36" s="93"/>
+      <c r="Q36" s="93"/>
+      <c r="R36" s="93" t="s">
+        <v>25</v>
+      </c>
+      <c r="S36" s="93"/>
+      <c r="T36" s="93"/>
+      <c r="U36" s="93"/>
+      <c r="V36" s="93"/>
+      <c r="W36" s="93"/>
+      <c r="X36" s="93"/>
+      <c r="Y36" s="93"/>
+      <c r="Z36" s="93"/>
+      <c r="AA36" s="93"/>
+      <c r="AB36" s="93"/>
+      <c r="AC36" s="93"/>
+      <c r="AD36" s="93"/>
+      <c r="AE36" s="93"/>
+      <c r="AF36" s="93"/>
+      <c r="AG36" s="93"/>
+      <c r="AH36" s="93"/>
+      <c r="AI36" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="90"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="90"/>
-      <c r="J36" s="90" t="s">
+      <c r="AJ36" s="93"/>
+      <c r="AK36" s="93"/>
+      <c r="AL36" s="93"/>
+      <c r="AM36" s="93"/>
+      <c r="AN36" s="93"/>
+      <c r="AO36" s="93"/>
+      <c r="AP36" s="93"/>
+      <c r="AQ36" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="K36" s="90"/>
-      <c r="L36" s="90"/>
-      <c r="M36" s="90"/>
-      <c r="N36" s="90"/>
-      <c r="O36" s="90"/>
-      <c r="P36" s="90"/>
-      <c r="Q36" s="90"/>
-      <c r="R36" s="90" t="s">
-        <v>28</v>
-      </c>
-      <c r="S36" s="90"/>
-      <c r="T36" s="90"/>
-      <c r="U36" s="90"/>
-      <c r="V36" s="90"/>
-      <c r="W36" s="90"/>
-      <c r="X36" s="90"/>
-      <c r="Y36" s="90"/>
-      <c r="Z36" s="90"/>
-      <c r="AA36" s="90"/>
-      <c r="AB36" s="90"/>
-      <c r="AC36" s="90"/>
-      <c r="AD36" s="90"/>
-      <c r="AE36" s="90"/>
-      <c r="AF36" s="90"/>
-      <c r="AG36" s="90"/>
-      <c r="AH36" s="90"/>
-      <c r="AI36" s="90" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ36" s="90"/>
-      <c r="AK36" s="90"/>
-      <c r="AL36" s="90"/>
-      <c r="AM36" s="90"/>
-      <c r="AN36" s="90"/>
-      <c r="AO36" s="90"/>
-      <c r="AP36" s="90"/>
-      <c r="AQ36" s="90" t="s">
-        <v>30</v>
-      </c>
-      <c r="AR36" s="90"/>
-      <c r="AS36" s="90"/>
-      <c r="AT36" s="90"/>
-      <c r="AU36" s="90"/>
-      <c r="AV36" s="90"/>
-      <c r="AW36" s="90"/>
-      <c r="AX36" s="90"/>
-      <c r="AY36" s="90"/>
-      <c r="AZ36" s="90"/>
-      <c r="BA36" s="90"/>
-      <c r="BB36" s="90"/>
-      <c r="BC36" s="90"/>
-      <c r="BD36" s="90"/>
-      <c r="BE36" s="90"/>
-      <c r="BF36" s="90"/>
-      <c r="BG36" s="90"/>
-      <c r="BH36" s="90"/>
-      <c r="BI36" s="90"/>
-      <c r="BJ36" s="90"/>
-      <c r="BK36" s="90"/>
-      <c r="BL36" s="90"/>
-      <c r="BM36" s="90"/>
-      <c r="BN36" s="90"/>
-      <c r="BO36" s="90"/>
+      <c r="AR36" s="93"/>
+      <c r="AS36" s="93"/>
+      <c r="AT36" s="93"/>
+      <c r="AU36" s="93"/>
+      <c r="AV36" s="93"/>
+      <c r="AW36" s="93"/>
+      <c r="AX36" s="93"/>
+      <c r="AY36" s="93"/>
+      <c r="AZ36" s="93"/>
+      <c r="BA36" s="93"/>
+      <c r="BB36" s="93"/>
+      <c r="BC36" s="93"/>
+      <c r="BD36" s="93"/>
+      <c r="BE36" s="93"/>
+      <c r="BF36" s="93"/>
+      <c r="BG36" s="93"/>
+      <c r="BH36" s="93"/>
+      <c r="BI36" s="93"/>
+      <c r="BJ36" s="93"/>
+      <c r="BK36" s="93"/>
+      <c r="BL36" s="93"/>
+      <c r="BM36" s="93"/>
+      <c r="BN36" s="93"/>
+      <c r="BO36" s="93"/>
       <c r="BP36" s="4"/>
     </row>
     <row r="37" spans="1:68" s="27" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A37" s="9"/>
-      <c r="B37" s="89"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="91"/>
-      <c r="H37" s="91"/>
-      <c r="I37" s="91"/>
-      <c r="J37" s="90"/>
-      <c r="K37" s="90"/>
-      <c r="L37" s="90"/>
-      <c r="M37" s="90"/>
-      <c r="N37" s="90"/>
-      <c r="O37" s="90"/>
-      <c r="P37" s="90"/>
-      <c r="Q37" s="90"/>
-      <c r="R37" s="90"/>
-      <c r="S37" s="90"/>
-      <c r="T37" s="90"/>
-      <c r="U37" s="90"/>
-      <c r="V37" s="90"/>
-      <c r="W37" s="90"/>
-      <c r="X37" s="90"/>
-      <c r="Y37" s="90"/>
-      <c r="Z37" s="90"/>
-      <c r="AA37" s="90"/>
-      <c r="AB37" s="90"/>
-      <c r="AC37" s="90"/>
-      <c r="AD37" s="90"/>
-      <c r="AE37" s="90"/>
-      <c r="AF37" s="90"/>
-      <c r="AG37" s="90"/>
-      <c r="AH37" s="90"/>
-      <c r="AI37" s="90"/>
-      <c r="AJ37" s="90"/>
-      <c r="AK37" s="90"/>
-      <c r="AL37" s="90"/>
-      <c r="AM37" s="90"/>
-      <c r="AN37" s="90"/>
-      <c r="AO37" s="90"/>
-      <c r="AP37" s="90"/>
-      <c r="AQ37" s="90" t="s">
-        <v>149</v>
+      <c r="B37" s="92"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="94"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="93"/>
+      <c r="K37" s="93"/>
+      <c r="L37" s="93"/>
+      <c r="M37" s="93"/>
+      <c r="N37" s="93"/>
+      <c r="O37" s="93"/>
+      <c r="P37" s="93"/>
+      <c r="Q37" s="93"/>
+      <c r="R37" s="93"/>
+      <c r="S37" s="93"/>
+      <c r="T37" s="93"/>
+      <c r="U37" s="93"/>
+      <c r="V37" s="93"/>
+      <c r="W37" s="93"/>
+      <c r="X37" s="93"/>
+      <c r="Y37" s="93"/>
+      <c r="Z37" s="93"/>
+      <c r="AA37" s="93"/>
+      <c r="AB37" s="93"/>
+      <c r="AC37" s="93"/>
+      <c r="AD37" s="93"/>
+      <c r="AE37" s="93"/>
+      <c r="AF37" s="93"/>
+      <c r="AG37" s="93"/>
+      <c r="AH37" s="93"/>
+      <c r="AI37" s="93"/>
+      <c r="AJ37" s="93"/>
+      <c r="AK37" s="93"/>
+      <c r="AL37" s="93"/>
+      <c r="AM37" s="93"/>
+      <c r="AN37" s="93"/>
+      <c r="AO37" s="93"/>
+      <c r="AP37" s="93"/>
+      <c r="AQ37" s="93" t="s">
+        <v>145</v>
       </c>
-      <c r="AR37" s="90"/>
-      <c r="AS37" s="90"/>
-      <c r="AT37" s="90"/>
-      <c r="AU37" s="90"/>
-      <c r="AV37" s="90"/>
-      <c r="AW37" s="90"/>
-      <c r="AX37" s="90" t="s">
-        <v>150</v>
+      <c r="AR37" s="93"/>
+      <c r="AS37" s="93"/>
+      <c r="AT37" s="93"/>
+      <c r="AU37" s="93"/>
+      <c r="AV37" s="93"/>
+      <c r="AW37" s="93"/>
+      <c r="AX37" s="93" t="s">
+        <v>146</v>
       </c>
-      <c r="AY37" s="90"/>
-      <c r="AZ37" s="90"/>
-      <c r="BA37" s="90"/>
-      <c r="BB37" s="90"/>
-      <c r="BC37" s="90" t="s">
-        <v>151</v>
+      <c r="AY37" s="93"/>
+      <c r="AZ37" s="93"/>
+      <c r="BA37" s="93"/>
+      <c r="BB37" s="93"/>
+      <c r="BC37" s="93" t="s">
+        <v>147</v>
       </c>
-      <c r="BD37" s="90"/>
-      <c r="BE37" s="90"/>
-      <c r="BF37" s="90"/>
-      <c r="BG37" s="90"/>
-      <c r="BH37" s="90"/>
-      <c r="BI37" s="90"/>
-      <c r="BJ37" s="90"/>
-      <c r="BK37" s="90"/>
-      <c r="BL37" s="90"/>
-      <c r="BM37" s="90"/>
-      <c r="BN37" s="90"/>
-      <c r="BO37" s="90"/>
+      <c r="BD37" s="93"/>
+      <c r="BE37" s="93"/>
+      <c r="BF37" s="93"/>
+      <c r="BG37" s="93"/>
+      <c r="BH37" s="93"/>
+      <c r="BI37" s="93"/>
+      <c r="BJ37" s="93"/>
+      <c r="BK37" s="93"/>
+      <c r="BL37" s="93"/>
+      <c r="BM37" s="93"/>
+      <c r="BN37" s="93"/>
+      <c r="BO37" s="93"/>
       <c r="BP37" s="4"/>
     </row>
     <row r="38" spans="1:68" s="27" customFormat="1" ht="16.5" outlineLevel="1">
@@ -13279,85 +13260,85 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C38" s="145" t="s">
-        <v>31</v>
+      <c r="C38" s="128" t="s">
+        <v>28</v>
       </c>
-      <c r="D38" s="146"/>
-      <c r="E38" s="146"/>
-      <c r="F38" s="146"/>
-      <c r="G38" s="146"/>
-      <c r="H38" s="146"/>
-      <c r="I38" s="147"/>
-      <c r="J38" s="122" t="s">
-        <v>153</v>
+      <c r="D38" s="129"/>
+      <c r="E38" s="129"/>
+      <c r="F38" s="129"/>
+      <c r="G38" s="129"/>
+      <c r="H38" s="129"/>
+      <c r="I38" s="130"/>
+      <c r="J38" s="123" t="s">
+        <v>149</v>
       </c>
-      <c r="K38" s="122"/>
-      <c r="L38" s="122"/>
-      <c r="M38" s="122"/>
-      <c r="N38" s="122"/>
-      <c r="O38" s="122"/>
-      <c r="P38" s="122"/>
-      <c r="Q38" s="122"/>
-      <c r="R38" s="71" t="s">
-        <v>190</v>
+      <c r="K38" s="123"/>
+      <c r="L38" s="123"/>
+      <c r="M38" s="123"/>
+      <c r="N38" s="123"/>
+      <c r="O38" s="123"/>
+      <c r="P38" s="123"/>
+      <c r="Q38" s="123"/>
+      <c r="R38" s="85" t="s">
+        <v>186</v>
       </c>
-      <c r="S38" s="71"/>
-      <c r="T38" s="71"/>
-      <c r="U38" s="71"/>
-      <c r="V38" s="71"/>
-      <c r="W38" s="71"/>
-      <c r="X38" s="71"/>
-      <c r="Y38" s="71"/>
-      <c r="Z38" s="71"/>
-      <c r="AA38" s="71"/>
-      <c r="AB38" s="71"/>
-      <c r="AC38" s="71"/>
-      <c r="AD38" s="71"/>
-      <c r="AE38" s="71"/>
-      <c r="AF38" s="71"/>
-      <c r="AG38" s="71"/>
-      <c r="AH38" s="71"/>
-      <c r="AI38" s="71" t="s">
-        <v>153</v>
+      <c r="S38" s="85"/>
+      <c r="T38" s="85"/>
+      <c r="U38" s="85"/>
+      <c r="V38" s="85"/>
+      <c r="W38" s="85"/>
+      <c r="X38" s="85"/>
+      <c r="Y38" s="85"/>
+      <c r="Z38" s="85"/>
+      <c r="AA38" s="85"/>
+      <c r="AB38" s="85"/>
+      <c r="AC38" s="85"/>
+      <c r="AD38" s="85"/>
+      <c r="AE38" s="85"/>
+      <c r="AF38" s="85"/>
+      <c r="AG38" s="85"/>
+      <c r="AH38" s="85"/>
+      <c r="AI38" s="85" t="s">
+        <v>149</v>
       </c>
-      <c r="AJ38" s="71"/>
-      <c r="AK38" s="71"/>
-      <c r="AL38" s="71"/>
-      <c r="AM38" s="71"/>
-      <c r="AN38" s="71"/>
-      <c r="AO38" s="71"/>
-      <c r="AP38" s="71"/>
-      <c r="AQ38" s="72" t="s">
-        <v>153</v>
+      <c r="AJ38" s="85"/>
+      <c r="AK38" s="85"/>
+      <c r="AL38" s="85"/>
+      <c r="AM38" s="85"/>
+      <c r="AN38" s="85"/>
+      <c r="AO38" s="85"/>
+      <c r="AP38" s="85"/>
+      <c r="AQ38" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AR38" s="72"/>
-      <c r="AS38" s="72"/>
-      <c r="AT38" s="72"/>
-      <c r="AU38" s="72"/>
-      <c r="AV38" s="72"/>
-      <c r="AW38" s="72"/>
-      <c r="AX38" s="72" t="s">
-        <v>153</v>
+      <c r="AR38" s="86"/>
+      <c r="AS38" s="86"/>
+      <c r="AT38" s="86"/>
+      <c r="AU38" s="86"/>
+      <c r="AV38" s="86"/>
+      <c r="AW38" s="86"/>
+      <c r="AX38" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AY38" s="72"/>
-      <c r="AZ38" s="72"/>
-      <c r="BA38" s="72"/>
-      <c r="BB38" s="72"/>
-      <c r="BC38" s="73" t="s">
-        <v>153</v>
+      <c r="AY38" s="86"/>
+      <c r="AZ38" s="86"/>
+      <c r="BA38" s="86"/>
+      <c r="BB38" s="86"/>
+      <c r="BC38" s="87" t="s">
+        <v>149</v>
       </c>
-      <c r="BD38" s="73"/>
-      <c r="BE38" s="73"/>
-      <c r="BF38" s="73"/>
-      <c r="BG38" s="73"/>
-      <c r="BH38" s="73"/>
-      <c r="BI38" s="73"/>
-      <c r="BJ38" s="73"/>
-      <c r="BK38" s="73"/>
-      <c r="BL38" s="73"/>
-      <c r="BM38" s="73"/>
-      <c r="BN38" s="73"/>
-      <c r="BO38" s="73"/>
+      <c r="BD38" s="87"/>
+      <c r="BE38" s="87"/>
+      <c r="BF38" s="87"/>
+      <c r="BG38" s="87"/>
+      <c r="BH38" s="87"/>
+      <c r="BI38" s="87"/>
+      <c r="BJ38" s="87"/>
+      <c r="BK38" s="87"/>
+      <c r="BL38" s="87"/>
+      <c r="BM38" s="87"/>
+      <c r="BN38" s="87"/>
+      <c r="BO38" s="87"/>
       <c r="BP38" s="4"/>
     </row>
     <row r="39" spans="1:68" s="27" customFormat="1" ht="16.5" outlineLevel="1">
@@ -13366,85 +13347,85 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C39" s="126" t="s">
-        <v>49</v>
+      <c r="C39" s="127" t="s">
+        <v>45</v>
       </c>
-      <c r="D39" s="121"/>
-      <c r="E39" s="121"/>
-      <c r="F39" s="121"/>
-      <c r="G39" s="121"/>
-      <c r="H39" s="121"/>
-      <c r="I39" s="124"/>
-      <c r="J39" s="119" t="s">
-        <v>50</v>
+      <c r="D39" s="122"/>
+      <c r="E39" s="122"/>
+      <c r="F39" s="122"/>
+      <c r="G39" s="122"/>
+      <c r="H39" s="122"/>
+      <c r="I39" s="125"/>
+      <c r="J39" s="120" t="s">
+        <v>46</v>
       </c>
-      <c r="K39" s="120"/>
-      <c r="L39" s="120"/>
-      <c r="M39" s="120"/>
-      <c r="N39" s="120"/>
-      <c r="O39" s="120"/>
-      <c r="P39" s="120"/>
-      <c r="Q39" s="125"/>
-      <c r="R39" s="71" t="s">
-        <v>189</v>
+      <c r="K39" s="121"/>
+      <c r="L39" s="121"/>
+      <c r="M39" s="121"/>
+      <c r="N39" s="121"/>
+      <c r="O39" s="121"/>
+      <c r="P39" s="121"/>
+      <c r="Q39" s="126"/>
+      <c r="R39" s="85" t="s">
+        <v>185</v>
       </c>
-      <c r="S39" s="71"/>
-      <c r="T39" s="71"/>
-      <c r="U39" s="71"/>
-      <c r="V39" s="71"/>
-      <c r="W39" s="71"/>
-      <c r="X39" s="71"/>
-      <c r="Y39" s="71"/>
-      <c r="Z39" s="71"/>
-      <c r="AA39" s="71"/>
-      <c r="AB39" s="71"/>
-      <c r="AC39" s="71"/>
-      <c r="AD39" s="71"/>
-      <c r="AE39" s="71"/>
-      <c r="AF39" s="71"/>
-      <c r="AG39" s="71"/>
-      <c r="AH39" s="71"/>
-      <c r="AI39" s="71" t="s">
-        <v>153</v>
+      <c r="S39" s="85"/>
+      <c r="T39" s="85"/>
+      <c r="U39" s="85"/>
+      <c r="V39" s="85"/>
+      <c r="W39" s="85"/>
+      <c r="X39" s="85"/>
+      <c r="Y39" s="85"/>
+      <c r="Z39" s="85"/>
+      <c r="AA39" s="85"/>
+      <c r="AB39" s="85"/>
+      <c r="AC39" s="85"/>
+      <c r="AD39" s="85"/>
+      <c r="AE39" s="85"/>
+      <c r="AF39" s="85"/>
+      <c r="AG39" s="85"/>
+      <c r="AH39" s="85"/>
+      <c r="AI39" s="85" t="s">
+        <v>149</v>
       </c>
-      <c r="AJ39" s="71"/>
-      <c r="AK39" s="71"/>
-      <c r="AL39" s="71"/>
-      <c r="AM39" s="71"/>
-      <c r="AN39" s="71"/>
-      <c r="AO39" s="71"/>
-      <c r="AP39" s="71"/>
-      <c r="AQ39" s="72" t="s">
-        <v>153</v>
+      <c r="AJ39" s="85"/>
+      <c r="AK39" s="85"/>
+      <c r="AL39" s="85"/>
+      <c r="AM39" s="85"/>
+      <c r="AN39" s="85"/>
+      <c r="AO39" s="85"/>
+      <c r="AP39" s="85"/>
+      <c r="AQ39" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AR39" s="72"/>
-      <c r="AS39" s="72"/>
-      <c r="AT39" s="72"/>
-      <c r="AU39" s="72"/>
-      <c r="AV39" s="72"/>
-      <c r="AW39" s="72"/>
-      <c r="AX39" s="72" t="s">
-        <v>153</v>
+      <c r="AR39" s="86"/>
+      <c r="AS39" s="86"/>
+      <c r="AT39" s="86"/>
+      <c r="AU39" s="86"/>
+      <c r="AV39" s="86"/>
+      <c r="AW39" s="86"/>
+      <c r="AX39" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AY39" s="72"/>
-      <c r="AZ39" s="72"/>
-      <c r="BA39" s="72"/>
-      <c r="BB39" s="72"/>
-      <c r="BC39" s="73" t="s">
-        <v>153</v>
+      <c r="AY39" s="86"/>
+      <c r="AZ39" s="86"/>
+      <c r="BA39" s="86"/>
+      <c r="BB39" s="86"/>
+      <c r="BC39" s="87" t="s">
+        <v>149</v>
       </c>
-      <c r="BD39" s="73"/>
-      <c r="BE39" s="73"/>
-      <c r="BF39" s="73"/>
-      <c r="BG39" s="73"/>
-      <c r="BH39" s="73"/>
-      <c r="BI39" s="73"/>
-      <c r="BJ39" s="73"/>
-      <c r="BK39" s="73"/>
-      <c r="BL39" s="73"/>
-      <c r="BM39" s="73"/>
-      <c r="BN39" s="73"/>
-      <c r="BO39" s="73"/>
+      <c r="BD39" s="87"/>
+      <c r="BE39" s="87"/>
+      <c r="BF39" s="87"/>
+      <c r="BG39" s="87"/>
+      <c r="BH39" s="87"/>
+      <c r="BI39" s="87"/>
+      <c r="BJ39" s="87"/>
+      <c r="BK39" s="87"/>
+      <c r="BL39" s="87"/>
+      <c r="BM39" s="87"/>
+      <c r="BN39" s="87"/>
+      <c r="BO39" s="87"/>
       <c r="BP39" s="4"/>
     </row>
     <row r="40" spans="1:68" s="27" customFormat="1" ht="16.5" outlineLevel="1">
@@ -13453,85 +13434,85 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
-      <c r="C40" s="126" t="s">
-        <v>51</v>
+      <c r="C40" s="127" t="s">
+        <v>47</v>
       </c>
-      <c r="D40" s="121"/>
-      <c r="E40" s="121"/>
-      <c r="F40" s="121"/>
-      <c r="G40" s="121"/>
-      <c r="H40" s="121"/>
-      <c r="I40" s="124"/>
-      <c r="J40" s="119" t="s">
-        <v>52</v>
+      <c r="D40" s="122"/>
+      <c r="E40" s="122"/>
+      <c r="F40" s="122"/>
+      <c r="G40" s="122"/>
+      <c r="H40" s="122"/>
+      <c r="I40" s="125"/>
+      <c r="J40" s="120" t="s">
+        <v>48</v>
       </c>
-      <c r="K40" s="120"/>
-      <c r="L40" s="120"/>
-      <c r="M40" s="120"/>
-      <c r="N40" s="120"/>
-      <c r="O40" s="120"/>
-      <c r="P40" s="120"/>
-      <c r="Q40" s="125"/>
-      <c r="R40" s="71" t="s">
-        <v>197</v>
+      <c r="K40" s="121"/>
+      <c r="L40" s="121"/>
+      <c r="M40" s="121"/>
+      <c r="N40" s="121"/>
+      <c r="O40" s="121"/>
+      <c r="P40" s="121"/>
+      <c r="Q40" s="126"/>
+      <c r="R40" s="85" t="s">
+        <v>193</v>
       </c>
-      <c r="S40" s="71"/>
-      <c r="T40" s="71"/>
-      <c r="U40" s="71"/>
-      <c r="V40" s="71"/>
-      <c r="W40" s="71"/>
-      <c r="X40" s="71"/>
-      <c r="Y40" s="71"/>
-      <c r="Z40" s="71"/>
-      <c r="AA40" s="71"/>
-      <c r="AB40" s="71"/>
-      <c r="AC40" s="71"/>
-      <c r="AD40" s="71"/>
-      <c r="AE40" s="71"/>
-      <c r="AF40" s="71"/>
-      <c r="AG40" s="71"/>
-      <c r="AH40" s="71"/>
-      <c r="AI40" s="71" t="s">
-        <v>153</v>
+      <c r="S40" s="85"/>
+      <c r="T40" s="85"/>
+      <c r="U40" s="85"/>
+      <c r="V40" s="85"/>
+      <c r="W40" s="85"/>
+      <c r="X40" s="85"/>
+      <c r="Y40" s="85"/>
+      <c r="Z40" s="85"/>
+      <c r="AA40" s="85"/>
+      <c r="AB40" s="85"/>
+      <c r="AC40" s="85"/>
+      <c r="AD40" s="85"/>
+      <c r="AE40" s="85"/>
+      <c r="AF40" s="85"/>
+      <c r="AG40" s="85"/>
+      <c r="AH40" s="85"/>
+      <c r="AI40" s="85" t="s">
+        <v>149</v>
       </c>
-      <c r="AJ40" s="71"/>
-      <c r="AK40" s="71"/>
-      <c r="AL40" s="71"/>
-      <c r="AM40" s="71"/>
-      <c r="AN40" s="71"/>
-      <c r="AO40" s="71"/>
-      <c r="AP40" s="71"/>
-      <c r="AQ40" s="72" t="s">
-        <v>153</v>
+      <c r="AJ40" s="85"/>
+      <c r="AK40" s="85"/>
+      <c r="AL40" s="85"/>
+      <c r="AM40" s="85"/>
+      <c r="AN40" s="85"/>
+      <c r="AO40" s="85"/>
+      <c r="AP40" s="85"/>
+      <c r="AQ40" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AR40" s="72"/>
-      <c r="AS40" s="72"/>
-      <c r="AT40" s="72"/>
-      <c r="AU40" s="72"/>
-      <c r="AV40" s="72"/>
-      <c r="AW40" s="72"/>
-      <c r="AX40" s="72" t="s">
-        <v>153</v>
+      <c r="AR40" s="86"/>
+      <c r="AS40" s="86"/>
+      <c r="AT40" s="86"/>
+      <c r="AU40" s="86"/>
+      <c r="AV40" s="86"/>
+      <c r="AW40" s="86"/>
+      <c r="AX40" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AY40" s="72"/>
-      <c r="AZ40" s="72"/>
-      <c r="BA40" s="72"/>
-      <c r="BB40" s="72"/>
-      <c r="BC40" s="73" t="s">
-        <v>153</v>
+      <c r="AY40" s="86"/>
+      <c r="AZ40" s="86"/>
+      <c r="BA40" s="86"/>
+      <c r="BB40" s="86"/>
+      <c r="BC40" s="87" t="s">
+        <v>149</v>
       </c>
-      <c r="BD40" s="73"/>
-      <c r="BE40" s="73"/>
-      <c r="BF40" s="73"/>
-      <c r="BG40" s="73"/>
-      <c r="BH40" s="73"/>
-      <c r="BI40" s="73"/>
-      <c r="BJ40" s="73"/>
-      <c r="BK40" s="73"/>
-      <c r="BL40" s="73"/>
-      <c r="BM40" s="73"/>
-      <c r="BN40" s="73"/>
-      <c r="BO40" s="73"/>
+      <c r="BD40" s="87"/>
+      <c r="BE40" s="87"/>
+      <c r="BF40" s="87"/>
+      <c r="BG40" s="87"/>
+      <c r="BH40" s="87"/>
+      <c r="BI40" s="87"/>
+      <c r="BJ40" s="87"/>
+      <c r="BK40" s="87"/>
+      <c r="BL40" s="87"/>
+      <c r="BM40" s="87"/>
+      <c r="BN40" s="87"/>
+      <c r="BO40" s="87"/>
       <c r="BP40" s="4"/>
     </row>
     <row r="41" spans="1:68" s="27" customFormat="1" ht="16.5" outlineLevel="1">
@@ -13540,85 +13521,85 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
-      <c r="C41" s="126" t="s">
-        <v>53</v>
+      <c r="C41" s="127" t="s">
+        <v>49</v>
       </c>
-      <c r="D41" s="121"/>
-      <c r="E41" s="121"/>
-      <c r="F41" s="121"/>
-      <c r="G41" s="121"/>
-      <c r="H41" s="121"/>
-      <c r="I41" s="124"/>
-      <c r="J41" s="119" t="s">
-        <v>54</v>
+      <c r="D41" s="122"/>
+      <c r="E41" s="122"/>
+      <c r="F41" s="122"/>
+      <c r="G41" s="122"/>
+      <c r="H41" s="122"/>
+      <c r="I41" s="125"/>
+      <c r="J41" s="120" t="s">
+        <v>50</v>
       </c>
-      <c r="K41" s="120"/>
-      <c r="L41" s="120"/>
-      <c r="M41" s="120"/>
-      <c r="N41" s="120"/>
-      <c r="O41" s="120"/>
-      <c r="P41" s="120"/>
-      <c r="Q41" s="125"/>
-      <c r="R41" s="71" t="s">
-        <v>196</v>
+      <c r="K41" s="121"/>
+      <c r="L41" s="121"/>
+      <c r="M41" s="121"/>
+      <c r="N41" s="121"/>
+      <c r="O41" s="121"/>
+      <c r="P41" s="121"/>
+      <c r="Q41" s="126"/>
+      <c r="R41" s="85" t="s">
+        <v>192</v>
       </c>
-      <c r="S41" s="71"/>
-      <c r="T41" s="71"/>
-      <c r="U41" s="71"/>
-      <c r="V41" s="71"/>
-      <c r="W41" s="71"/>
-      <c r="X41" s="71"/>
-      <c r="Y41" s="71"/>
-      <c r="Z41" s="71"/>
-      <c r="AA41" s="71"/>
-      <c r="AB41" s="71"/>
-      <c r="AC41" s="71"/>
-      <c r="AD41" s="71"/>
-      <c r="AE41" s="71"/>
-      <c r="AF41" s="71"/>
-      <c r="AG41" s="71"/>
-      <c r="AH41" s="71"/>
-      <c r="AI41" s="71" t="s">
-        <v>153</v>
+      <c r="S41" s="85"/>
+      <c r="T41" s="85"/>
+      <c r="U41" s="85"/>
+      <c r="V41" s="85"/>
+      <c r="W41" s="85"/>
+      <c r="X41" s="85"/>
+      <c r="Y41" s="85"/>
+      <c r="Z41" s="85"/>
+      <c r="AA41" s="85"/>
+      <c r="AB41" s="85"/>
+      <c r="AC41" s="85"/>
+      <c r="AD41" s="85"/>
+      <c r="AE41" s="85"/>
+      <c r="AF41" s="85"/>
+      <c r="AG41" s="85"/>
+      <c r="AH41" s="85"/>
+      <c r="AI41" s="85" t="s">
+        <v>149</v>
       </c>
-      <c r="AJ41" s="71"/>
-      <c r="AK41" s="71"/>
-      <c r="AL41" s="71"/>
-      <c r="AM41" s="71"/>
-      <c r="AN41" s="71"/>
-      <c r="AO41" s="71"/>
-      <c r="AP41" s="71"/>
-      <c r="AQ41" s="72" t="s">
-        <v>153</v>
+      <c r="AJ41" s="85"/>
+      <c r="AK41" s="85"/>
+      <c r="AL41" s="85"/>
+      <c r="AM41" s="85"/>
+      <c r="AN41" s="85"/>
+      <c r="AO41" s="85"/>
+      <c r="AP41" s="85"/>
+      <c r="AQ41" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AR41" s="72"/>
-      <c r="AS41" s="72"/>
-      <c r="AT41" s="72"/>
-      <c r="AU41" s="72"/>
-      <c r="AV41" s="72"/>
-      <c r="AW41" s="72"/>
-      <c r="AX41" s="72" t="s">
-        <v>153</v>
+      <c r="AR41" s="86"/>
+      <c r="AS41" s="86"/>
+      <c r="AT41" s="86"/>
+      <c r="AU41" s="86"/>
+      <c r="AV41" s="86"/>
+      <c r="AW41" s="86"/>
+      <c r="AX41" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AY41" s="72"/>
-      <c r="AZ41" s="72"/>
-      <c r="BA41" s="72"/>
-      <c r="BB41" s="72"/>
-      <c r="BC41" s="73" t="s">
-        <v>153</v>
+      <c r="AY41" s="86"/>
+      <c r="AZ41" s="86"/>
+      <c r="BA41" s="86"/>
+      <c r="BB41" s="86"/>
+      <c r="BC41" s="87" t="s">
+        <v>149</v>
       </c>
-      <c r="BD41" s="73"/>
-      <c r="BE41" s="73"/>
-      <c r="BF41" s="73"/>
-      <c r="BG41" s="73"/>
-      <c r="BH41" s="73"/>
-      <c r="BI41" s="73"/>
-      <c r="BJ41" s="73"/>
-      <c r="BK41" s="73"/>
-      <c r="BL41" s="73"/>
-      <c r="BM41" s="73"/>
-      <c r="BN41" s="73"/>
-      <c r="BO41" s="73"/>
+      <c r="BD41" s="87"/>
+      <c r="BE41" s="87"/>
+      <c r="BF41" s="87"/>
+      <c r="BG41" s="87"/>
+      <c r="BH41" s="87"/>
+      <c r="BI41" s="87"/>
+      <c r="BJ41" s="87"/>
+      <c r="BK41" s="87"/>
+      <c r="BL41" s="87"/>
+      <c r="BM41" s="87"/>
+      <c r="BN41" s="87"/>
+      <c r="BO41" s="87"/>
       <c r="BP41" s="4"/>
     </row>
     <row r="42" spans="1:68" s="27" customFormat="1" ht="16.5" outlineLevel="1">
@@ -13627,85 +13608,85 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>5</v>
       </c>
-      <c r="C42" s="126" t="s">
-        <v>55</v>
+      <c r="C42" s="127" t="s">
+        <v>51</v>
       </c>
-      <c r="D42" s="121"/>
-      <c r="E42" s="121"/>
-      <c r="F42" s="121"/>
-      <c r="G42" s="121"/>
-      <c r="H42" s="121"/>
-      <c r="I42" s="124"/>
-      <c r="J42" s="119" t="s">
-        <v>56</v>
+      <c r="D42" s="122"/>
+      <c r="E42" s="122"/>
+      <c r="F42" s="122"/>
+      <c r="G42" s="122"/>
+      <c r="H42" s="122"/>
+      <c r="I42" s="125"/>
+      <c r="J42" s="120" t="s">
+        <v>52</v>
       </c>
-      <c r="K42" s="120"/>
-      <c r="L42" s="120"/>
-      <c r="M42" s="120"/>
-      <c r="N42" s="120"/>
-      <c r="O42" s="120"/>
-      <c r="P42" s="120"/>
-      <c r="Q42" s="125"/>
-      <c r="R42" s="71" t="s">
-        <v>195</v>
+      <c r="K42" s="121"/>
+      <c r="L42" s="121"/>
+      <c r="M42" s="121"/>
+      <c r="N42" s="121"/>
+      <c r="O42" s="121"/>
+      <c r="P42" s="121"/>
+      <c r="Q42" s="126"/>
+      <c r="R42" s="85" t="s">
+        <v>191</v>
       </c>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
-      <c r="W42" s="71"/>
-      <c r="X42" s="71"/>
-      <c r="Y42" s="71"/>
-      <c r="Z42" s="71"/>
-      <c r="AA42" s="71"/>
-      <c r="AB42" s="71"/>
-      <c r="AC42" s="71"/>
-      <c r="AD42" s="71"/>
-      <c r="AE42" s="71"/>
-      <c r="AF42" s="71"/>
-      <c r="AG42" s="71"/>
-      <c r="AH42" s="71"/>
-      <c r="AI42" s="71" t="s">
-        <v>153</v>
+      <c r="S42" s="85"/>
+      <c r="T42" s="85"/>
+      <c r="U42" s="85"/>
+      <c r="V42" s="85"/>
+      <c r="W42" s="85"/>
+      <c r="X42" s="85"/>
+      <c r="Y42" s="85"/>
+      <c r="Z42" s="85"/>
+      <c r="AA42" s="85"/>
+      <c r="AB42" s="85"/>
+      <c r="AC42" s="85"/>
+      <c r="AD42" s="85"/>
+      <c r="AE42" s="85"/>
+      <c r="AF42" s="85"/>
+      <c r="AG42" s="85"/>
+      <c r="AH42" s="85"/>
+      <c r="AI42" s="85" t="s">
+        <v>149</v>
       </c>
-      <c r="AJ42" s="71"/>
-      <c r="AK42" s="71"/>
-      <c r="AL42" s="71"/>
-      <c r="AM42" s="71"/>
-      <c r="AN42" s="71"/>
-      <c r="AO42" s="71"/>
-      <c r="AP42" s="71"/>
-      <c r="AQ42" s="72" t="s">
-        <v>153</v>
+      <c r="AJ42" s="85"/>
+      <c r="AK42" s="85"/>
+      <c r="AL42" s="85"/>
+      <c r="AM42" s="85"/>
+      <c r="AN42" s="85"/>
+      <c r="AO42" s="85"/>
+      <c r="AP42" s="85"/>
+      <c r="AQ42" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AR42" s="72"/>
-      <c r="AS42" s="72"/>
-      <c r="AT42" s="72"/>
-      <c r="AU42" s="72"/>
-      <c r="AV42" s="72"/>
-      <c r="AW42" s="72"/>
-      <c r="AX42" s="72" t="s">
-        <v>153</v>
+      <c r="AR42" s="86"/>
+      <c r="AS42" s="86"/>
+      <c r="AT42" s="86"/>
+      <c r="AU42" s="86"/>
+      <c r="AV42" s="86"/>
+      <c r="AW42" s="86"/>
+      <c r="AX42" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AY42" s="72"/>
-      <c r="AZ42" s="72"/>
-      <c r="BA42" s="72"/>
-      <c r="BB42" s="72"/>
-      <c r="BC42" s="73" t="s">
-        <v>153</v>
+      <c r="AY42" s="86"/>
+      <c r="AZ42" s="86"/>
+      <c r="BA42" s="86"/>
+      <c r="BB42" s="86"/>
+      <c r="BC42" s="87" t="s">
+        <v>149</v>
       </c>
-      <c r="BD42" s="73"/>
-      <c r="BE42" s="73"/>
-      <c r="BF42" s="73"/>
-      <c r="BG42" s="73"/>
-      <c r="BH42" s="73"/>
-      <c r="BI42" s="73"/>
-      <c r="BJ42" s="73"/>
-      <c r="BK42" s="73"/>
-      <c r="BL42" s="73"/>
-      <c r="BM42" s="73"/>
-      <c r="BN42" s="73"/>
-      <c r="BO42" s="73"/>
+      <c r="BD42" s="87"/>
+      <c r="BE42" s="87"/>
+      <c r="BF42" s="87"/>
+      <c r="BG42" s="87"/>
+      <c r="BH42" s="87"/>
+      <c r="BI42" s="87"/>
+      <c r="BJ42" s="87"/>
+      <c r="BK42" s="87"/>
+      <c r="BL42" s="87"/>
+      <c r="BM42" s="87"/>
+      <c r="BN42" s="87"/>
+      <c r="BO42" s="87"/>
       <c r="BP42" s="4"/>
     </row>
     <row r="43" spans="1:68" s="27" customFormat="1" ht="16.5" outlineLevel="1">
@@ -13714,85 +13695,85 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>6</v>
       </c>
-      <c r="C43" s="126" t="s">
-        <v>57</v>
+      <c r="C43" s="127" t="s">
+        <v>53</v>
       </c>
-      <c r="D43" s="121"/>
-      <c r="E43" s="121"/>
-      <c r="F43" s="121"/>
-      <c r="G43" s="121"/>
-      <c r="H43" s="121"/>
-      <c r="I43" s="124"/>
-      <c r="J43" s="119" t="s">
-        <v>58</v>
+      <c r="D43" s="122"/>
+      <c r="E43" s="122"/>
+      <c r="F43" s="122"/>
+      <c r="G43" s="122"/>
+      <c r="H43" s="122"/>
+      <c r="I43" s="125"/>
+      <c r="J43" s="120" t="s">
+        <v>54</v>
       </c>
-      <c r="K43" s="120"/>
-      <c r="L43" s="120"/>
-      <c r="M43" s="120"/>
-      <c r="N43" s="120"/>
-      <c r="O43" s="120"/>
-      <c r="P43" s="120"/>
-      <c r="Q43" s="125"/>
-      <c r="R43" s="71" t="s">
-        <v>194</v>
+      <c r="K43" s="121"/>
+      <c r="L43" s="121"/>
+      <c r="M43" s="121"/>
+      <c r="N43" s="121"/>
+      <c r="O43" s="121"/>
+      <c r="P43" s="121"/>
+      <c r="Q43" s="126"/>
+      <c r="R43" s="85" t="s">
+        <v>190</v>
       </c>
-      <c r="S43" s="71"/>
-      <c r="T43" s="71"/>
-      <c r="U43" s="71"/>
-      <c r="V43" s="71"/>
-      <c r="W43" s="71"/>
-      <c r="X43" s="71"/>
-      <c r="Y43" s="71"/>
-      <c r="Z43" s="71"/>
-      <c r="AA43" s="71"/>
-      <c r="AB43" s="71"/>
-      <c r="AC43" s="71"/>
-      <c r="AD43" s="71"/>
-      <c r="AE43" s="71"/>
-      <c r="AF43" s="71"/>
-      <c r="AG43" s="71"/>
-      <c r="AH43" s="71"/>
-      <c r="AI43" s="71" t="s">
-        <v>153</v>
+      <c r="S43" s="85"/>
+      <c r="T43" s="85"/>
+      <c r="U43" s="85"/>
+      <c r="V43" s="85"/>
+      <c r="W43" s="85"/>
+      <c r="X43" s="85"/>
+      <c r="Y43" s="85"/>
+      <c r="Z43" s="85"/>
+      <c r="AA43" s="85"/>
+      <c r="AB43" s="85"/>
+      <c r="AC43" s="85"/>
+      <c r="AD43" s="85"/>
+      <c r="AE43" s="85"/>
+      <c r="AF43" s="85"/>
+      <c r="AG43" s="85"/>
+      <c r="AH43" s="85"/>
+      <c r="AI43" s="85" t="s">
+        <v>149</v>
       </c>
-      <c r="AJ43" s="71"/>
-      <c r="AK43" s="71"/>
-      <c r="AL43" s="71"/>
-      <c r="AM43" s="71"/>
-      <c r="AN43" s="71"/>
-      <c r="AO43" s="71"/>
-      <c r="AP43" s="71"/>
-      <c r="AQ43" s="72" t="s">
-        <v>153</v>
+      <c r="AJ43" s="85"/>
+      <c r="AK43" s="85"/>
+      <c r="AL43" s="85"/>
+      <c r="AM43" s="85"/>
+      <c r="AN43" s="85"/>
+      <c r="AO43" s="85"/>
+      <c r="AP43" s="85"/>
+      <c r="AQ43" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AR43" s="72"/>
-      <c r="AS43" s="72"/>
-      <c r="AT43" s="72"/>
-      <c r="AU43" s="72"/>
-      <c r="AV43" s="72"/>
-      <c r="AW43" s="72"/>
-      <c r="AX43" s="72" t="s">
-        <v>153</v>
+      <c r="AR43" s="86"/>
+      <c r="AS43" s="86"/>
+      <c r="AT43" s="86"/>
+      <c r="AU43" s="86"/>
+      <c r="AV43" s="86"/>
+      <c r="AW43" s="86"/>
+      <c r="AX43" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AY43" s="72"/>
-      <c r="AZ43" s="72"/>
-      <c r="BA43" s="72"/>
-      <c r="BB43" s="72"/>
-      <c r="BC43" s="73" t="s">
-        <v>153</v>
+      <c r="AY43" s="86"/>
+      <c r="AZ43" s="86"/>
+      <c r="BA43" s="86"/>
+      <c r="BB43" s="86"/>
+      <c r="BC43" s="87" t="s">
+        <v>149</v>
       </c>
-      <c r="BD43" s="73"/>
-      <c r="BE43" s="73"/>
-      <c r="BF43" s="73"/>
-      <c r="BG43" s="73"/>
-      <c r="BH43" s="73"/>
-      <c r="BI43" s="73"/>
-      <c r="BJ43" s="73"/>
-      <c r="BK43" s="73"/>
-      <c r="BL43" s="73"/>
-      <c r="BM43" s="73"/>
-      <c r="BN43" s="73"/>
-      <c r="BO43" s="73"/>
+      <c r="BD43" s="87"/>
+      <c r="BE43" s="87"/>
+      <c r="BF43" s="87"/>
+      <c r="BG43" s="87"/>
+      <c r="BH43" s="87"/>
+      <c r="BI43" s="87"/>
+      <c r="BJ43" s="87"/>
+      <c r="BK43" s="87"/>
+      <c r="BL43" s="87"/>
+      <c r="BM43" s="87"/>
+      <c r="BN43" s="87"/>
+      <c r="BO43" s="87"/>
       <c r="BP43" s="4"/>
     </row>
     <row r="44" spans="1:68" s="27" customFormat="1" ht="16.5" outlineLevel="1">
@@ -13801,85 +13782,85 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>7</v>
       </c>
-      <c r="C44" s="126" t="s">
-        <v>59</v>
+      <c r="C44" s="127" t="s">
+        <v>55</v>
       </c>
-      <c r="D44" s="121"/>
-      <c r="E44" s="121"/>
-      <c r="F44" s="121"/>
-      <c r="G44" s="121"/>
-      <c r="H44" s="121"/>
-      <c r="I44" s="124"/>
-      <c r="J44" s="119" t="s">
-        <v>60</v>
+      <c r="D44" s="122"/>
+      <c r="E44" s="122"/>
+      <c r="F44" s="122"/>
+      <c r="G44" s="122"/>
+      <c r="H44" s="122"/>
+      <c r="I44" s="125"/>
+      <c r="J44" s="120" t="s">
+        <v>56</v>
       </c>
-      <c r="K44" s="120"/>
-      <c r="L44" s="120"/>
-      <c r="M44" s="120"/>
-      <c r="N44" s="120"/>
-      <c r="O44" s="120"/>
-      <c r="P44" s="120"/>
-      <c r="Q44" s="125"/>
-      <c r="R44" s="71" t="s">
-        <v>193</v>
+      <c r="K44" s="121"/>
+      <c r="L44" s="121"/>
+      <c r="M44" s="121"/>
+      <c r="N44" s="121"/>
+      <c r="O44" s="121"/>
+      <c r="P44" s="121"/>
+      <c r="Q44" s="126"/>
+      <c r="R44" s="85" t="s">
+        <v>189</v>
       </c>
-      <c r="S44" s="71"/>
-      <c r="T44" s="71"/>
-      <c r="U44" s="71"/>
-      <c r="V44" s="71"/>
-      <c r="W44" s="71"/>
-      <c r="X44" s="71"/>
-      <c r="Y44" s="71"/>
-      <c r="Z44" s="71"/>
-      <c r="AA44" s="71"/>
-      <c r="AB44" s="71"/>
-      <c r="AC44" s="71"/>
-      <c r="AD44" s="71"/>
-      <c r="AE44" s="71"/>
-      <c r="AF44" s="71"/>
-      <c r="AG44" s="71"/>
-      <c r="AH44" s="71"/>
-      <c r="AI44" s="71" t="s">
-        <v>153</v>
+      <c r="S44" s="85"/>
+      <c r="T44" s="85"/>
+      <c r="U44" s="85"/>
+      <c r="V44" s="85"/>
+      <c r="W44" s="85"/>
+      <c r="X44" s="85"/>
+      <c r="Y44" s="85"/>
+      <c r="Z44" s="85"/>
+      <c r="AA44" s="85"/>
+      <c r="AB44" s="85"/>
+      <c r="AC44" s="85"/>
+      <c r="AD44" s="85"/>
+      <c r="AE44" s="85"/>
+      <c r="AF44" s="85"/>
+      <c r="AG44" s="85"/>
+      <c r="AH44" s="85"/>
+      <c r="AI44" s="85" t="s">
+        <v>149</v>
       </c>
-      <c r="AJ44" s="71"/>
-      <c r="AK44" s="71"/>
-      <c r="AL44" s="71"/>
-      <c r="AM44" s="71"/>
-      <c r="AN44" s="71"/>
-      <c r="AO44" s="71"/>
-      <c r="AP44" s="71"/>
-      <c r="AQ44" s="72" t="s">
-        <v>153</v>
+      <c r="AJ44" s="85"/>
+      <c r="AK44" s="85"/>
+      <c r="AL44" s="85"/>
+      <c r="AM44" s="85"/>
+      <c r="AN44" s="85"/>
+      <c r="AO44" s="85"/>
+      <c r="AP44" s="85"/>
+      <c r="AQ44" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AR44" s="72"/>
-      <c r="AS44" s="72"/>
-      <c r="AT44" s="72"/>
-      <c r="AU44" s="72"/>
-      <c r="AV44" s="72"/>
-      <c r="AW44" s="72"/>
-      <c r="AX44" s="72" t="s">
-        <v>153</v>
+      <c r="AR44" s="86"/>
+      <c r="AS44" s="86"/>
+      <c r="AT44" s="86"/>
+      <c r="AU44" s="86"/>
+      <c r="AV44" s="86"/>
+      <c r="AW44" s="86"/>
+      <c r="AX44" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AY44" s="72"/>
-      <c r="AZ44" s="72"/>
-      <c r="BA44" s="72"/>
-      <c r="BB44" s="72"/>
-      <c r="BC44" s="73" t="s">
-        <v>153</v>
+      <c r="AY44" s="86"/>
+      <c r="AZ44" s="86"/>
+      <c r="BA44" s="86"/>
+      <c r="BB44" s="86"/>
+      <c r="BC44" s="87" t="s">
+        <v>149</v>
       </c>
-      <c r="BD44" s="73"/>
-      <c r="BE44" s="73"/>
-      <c r="BF44" s="73"/>
-      <c r="BG44" s="73"/>
-      <c r="BH44" s="73"/>
-      <c r="BI44" s="73"/>
-      <c r="BJ44" s="73"/>
-      <c r="BK44" s="73"/>
-      <c r="BL44" s="73"/>
-      <c r="BM44" s="73"/>
-      <c r="BN44" s="73"/>
-      <c r="BO44" s="73"/>
+      <c r="BD44" s="87"/>
+      <c r="BE44" s="87"/>
+      <c r="BF44" s="87"/>
+      <c r="BG44" s="87"/>
+      <c r="BH44" s="87"/>
+      <c r="BI44" s="87"/>
+      <c r="BJ44" s="87"/>
+      <c r="BK44" s="87"/>
+      <c r="BL44" s="87"/>
+      <c r="BM44" s="87"/>
+      <c r="BN44" s="87"/>
+      <c r="BO44" s="87"/>
       <c r="BP44" s="4"/>
     </row>
     <row r="45" spans="1:68" s="27" customFormat="1" ht="16.5" outlineLevel="1">
@@ -13888,83 +13869,83 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>8</v>
       </c>
-      <c r="C45" s="126" t="s">
-        <v>61</v>
+      <c r="C45" s="127" t="s">
+        <v>57</v>
       </c>
-      <c r="D45" s="121"/>
-      <c r="E45" s="121"/>
-      <c r="F45" s="121"/>
-      <c r="G45" s="121"/>
-      <c r="H45" s="121"/>
-      <c r="I45" s="124"/>
-      <c r="J45" s="119" t="s">
-        <v>62</v>
+      <c r="D45" s="122"/>
+      <c r="E45" s="122"/>
+      <c r="F45" s="122"/>
+      <c r="G45" s="122"/>
+      <c r="H45" s="122"/>
+      <c r="I45" s="125"/>
+      <c r="J45" s="120" t="s">
+        <v>58</v>
       </c>
-      <c r="K45" s="120"/>
-      <c r="L45" s="120"/>
-      <c r="M45" s="120"/>
-      <c r="N45" s="120"/>
-      <c r="O45" s="120"/>
-      <c r="P45" s="120"/>
-      <c r="Q45" s="125"/>
-      <c r="R45" s="71"/>
-      <c r="S45" s="71"/>
-      <c r="T45" s="71"/>
-      <c r="U45" s="71"/>
-      <c r="V45" s="71"/>
-      <c r="W45" s="71"/>
-      <c r="X45" s="71"/>
-      <c r="Y45" s="71"/>
-      <c r="Z45" s="71"/>
-      <c r="AA45" s="71"/>
-      <c r="AB45" s="71"/>
-      <c r="AC45" s="71"/>
-      <c r="AD45" s="71"/>
-      <c r="AE45" s="71"/>
-      <c r="AF45" s="71"/>
-      <c r="AG45" s="71"/>
-      <c r="AH45" s="71"/>
-      <c r="AI45" s="71" t="s">
-        <v>153</v>
+      <c r="K45" s="121"/>
+      <c r="L45" s="121"/>
+      <c r="M45" s="121"/>
+      <c r="N45" s="121"/>
+      <c r="O45" s="121"/>
+      <c r="P45" s="121"/>
+      <c r="Q45" s="126"/>
+      <c r="R45" s="85"/>
+      <c r="S45" s="85"/>
+      <c r="T45" s="85"/>
+      <c r="U45" s="85"/>
+      <c r="V45" s="85"/>
+      <c r="W45" s="85"/>
+      <c r="X45" s="85"/>
+      <c r="Y45" s="85"/>
+      <c r="Z45" s="85"/>
+      <c r="AA45" s="85"/>
+      <c r="AB45" s="85"/>
+      <c r="AC45" s="85"/>
+      <c r="AD45" s="85"/>
+      <c r="AE45" s="85"/>
+      <c r="AF45" s="85"/>
+      <c r="AG45" s="85"/>
+      <c r="AH45" s="85"/>
+      <c r="AI45" s="85" t="s">
+        <v>149</v>
       </c>
-      <c r="AJ45" s="71"/>
-      <c r="AK45" s="71"/>
-      <c r="AL45" s="71"/>
-      <c r="AM45" s="71"/>
-      <c r="AN45" s="71"/>
-      <c r="AO45" s="71"/>
-      <c r="AP45" s="71"/>
-      <c r="AQ45" s="72" t="s">
-        <v>153</v>
+      <c r="AJ45" s="85"/>
+      <c r="AK45" s="85"/>
+      <c r="AL45" s="85"/>
+      <c r="AM45" s="85"/>
+      <c r="AN45" s="85"/>
+      <c r="AO45" s="85"/>
+      <c r="AP45" s="85"/>
+      <c r="AQ45" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AR45" s="72"/>
-      <c r="AS45" s="72"/>
-      <c r="AT45" s="72"/>
-      <c r="AU45" s="72"/>
-      <c r="AV45" s="72"/>
-      <c r="AW45" s="72"/>
-      <c r="AX45" s="72" t="s">
-        <v>153</v>
+      <c r="AR45" s="86"/>
+      <c r="AS45" s="86"/>
+      <c r="AT45" s="86"/>
+      <c r="AU45" s="86"/>
+      <c r="AV45" s="86"/>
+      <c r="AW45" s="86"/>
+      <c r="AX45" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AY45" s="72"/>
-      <c r="AZ45" s="72"/>
-      <c r="BA45" s="72"/>
-      <c r="BB45" s="72"/>
-      <c r="BC45" s="73" t="s">
-        <v>153</v>
+      <c r="AY45" s="86"/>
+      <c r="AZ45" s="86"/>
+      <c r="BA45" s="86"/>
+      <c r="BB45" s="86"/>
+      <c r="BC45" s="87" t="s">
+        <v>149</v>
       </c>
-      <c r="BD45" s="73"/>
-      <c r="BE45" s="73"/>
-      <c r="BF45" s="73"/>
-      <c r="BG45" s="73"/>
-      <c r="BH45" s="73"/>
-      <c r="BI45" s="73"/>
-      <c r="BJ45" s="73"/>
-      <c r="BK45" s="73"/>
-      <c r="BL45" s="73"/>
-      <c r="BM45" s="73"/>
-      <c r="BN45" s="73"/>
-      <c r="BO45" s="73"/>
+      <c r="BD45" s="87"/>
+      <c r="BE45" s="87"/>
+      <c r="BF45" s="87"/>
+      <c r="BG45" s="87"/>
+      <c r="BH45" s="87"/>
+      <c r="BI45" s="87"/>
+      <c r="BJ45" s="87"/>
+      <c r="BK45" s="87"/>
+      <c r="BL45" s="87"/>
+      <c r="BM45" s="87"/>
+      <c r="BN45" s="87"/>
+      <c r="BO45" s="87"/>
       <c r="BP45" s="4"/>
     </row>
     <row r="46" spans="1:68" s="27" customFormat="1" ht="16.5" outlineLevel="1">
@@ -13973,83 +13954,83 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>9</v>
       </c>
-      <c r="C46" s="126" t="s">
-        <v>63</v>
+      <c r="C46" s="127" t="s">
+        <v>59</v>
       </c>
-      <c r="D46" s="121"/>
-      <c r="E46" s="121"/>
-      <c r="F46" s="121"/>
-      <c r="G46" s="121"/>
-      <c r="H46" s="121"/>
-      <c r="I46" s="124"/>
-      <c r="J46" s="119" t="s">
-        <v>62</v>
+      <c r="D46" s="122"/>
+      <c r="E46" s="122"/>
+      <c r="F46" s="122"/>
+      <c r="G46" s="122"/>
+      <c r="H46" s="122"/>
+      <c r="I46" s="125"/>
+      <c r="J46" s="120" t="s">
+        <v>58</v>
       </c>
-      <c r="K46" s="120"/>
-      <c r="L46" s="120"/>
-      <c r="M46" s="120"/>
-      <c r="N46" s="120"/>
-      <c r="O46" s="120"/>
-      <c r="P46" s="120"/>
-      <c r="Q46" s="125"/>
-      <c r="R46" s="71"/>
-      <c r="S46" s="71"/>
-      <c r="T46" s="71"/>
-      <c r="U46" s="71"/>
-      <c r="V46" s="71"/>
-      <c r="W46" s="71"/>
-      <c r="X46" s="71"/>
-      <c r="Y46" s="71"/>
-      <c r="Z46" s="71"/>
-      <c r="AA46" s="71"/>
-      <c r="AB46" s="71"/>
-      <c r="AC46" s="71"/>
-      <c r="AD46" s="71"/>
-      <c r="AE46" s="71"/>
-      <c r="AF46" s="71"/>
-      <c r="AG46" s="71"/>
-      <c r="AH46" s="71"/>
-      <c r="AI46" s="71" t="s">
-        <v>153</v>
+      <c r="K46" s="121"/>
+      <c r="L46" s="121"/>
+      <c r="M46" s="121"/>
+      <c r="N46" s="121"/>
+      <c r="O46" s="121"/>
+      <c r="P46" s="121"/>
+      <c r="Q46" s="126"/>
+      <c r="R46" s="85"/>
+      <c r="S46" s="85"/>
+      <c r="T46" s="85"/>
+      <c r="U46" s="85"/>
+      <c r="V46" s="85"/>
+      <c r="W46" s="85"/>
+      <c r="X46" s="85"/>
+      <c r="Y46" s="85"/>
+      <c r="Z46" s="85"/>
+      <c r="AA46" s="85"/>
+      <c r="AB46" s="85"/>
+      <c r="AC46" s="85"/>
+      <c r="AD46" s="85"/>
+      <c r="AE46" s="85"/>
+      <c r="AF46" s="85"/>
+      <c r="AG46" s="85"/>
+      <c r="AH46" s="85"/>
+      <c r="AI46" s="85" t="s">
+        <v>149</v>
       </c>
-      <c r="AJ46" s="71"/>
-      <c r="AK46" s="71"/>
-      <c r="AL46" s="71"/>
-      <c r="AM46" s="71"/>
-      <c r="AN46" s="71"/>
-      <c r="AO46" s="71"/>
-      <c r="AP46" s="71"/>
-      <c r="AQ46" s="72" t="s">
-        <v>153</v>
+      <c r="AJ46" s="85"/>
+      <c r="AK46" s="85"/>
+      <c r="AL46" s="85"/>
+      <c r="AM46" s="85"/>
+      <c r="AN46" s="85"/>
+      <c r="AO46" s="85"/>
+      <c r="AP46" s="85"/>
+      <c r="AQ46" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AR46" s="72"/>
-      <c r="AS46" s="72"/>
-      <c r="AT46" s="72"/>
-      <c r="AU46" s="72"/>
-      <c r="AV46" s="72"/>
-      <c r="AW46" s="72"/>
-      <c r="AX46" s="72" t="s">
-        <v>153</v>
+      <c r="AR46" s="86"/>
+      <c r="AS46" s="86"/>
+      <c r="AT46" s="86"/>
+      <c r="AU46" s="86"/>
+      <c r="AV46" s="86"/>
+      <c r="AW46" s="86"/>
+      <c r="AX46" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AY46" s="72"/>
-      <c r="AZ46" s="72"/>
-      <c r="BA46" s="72"/>
-      <c r="BB46" s="72"/>
-      <c r="BC46" s="73" t="s">
-        <v>153</v>
+      <c r="AY46" s="86"/>
+      <c r="AZ46" s="86"/>
+      <c r="BA46" s="86"/>
+      <c r="BB46" s="86"/>
+      <c r="BC46" s="87" t="s">
+        <v>149</v>
       </c>
-      <c r="BD46" s="73"/>
-      <c r="BE46" s="73"/>
-      <c r="BF46" s="73"/>
-      <c r="BG46" s="73"/>
-      <c r="BH46" s="73"/>
-      <c r="BI46" s="73"/>
-      <c r="BJ46" s="73"/>
-      <c r="BK46" s="73"/>
-      <c r="BL46" s="73"/>
-      <c r="BM46" s="73"/>
-      <c r="BN46" s="73"/>
-      <c r="BO46" s="73"/>
+      <c r="BD46" s="87"/>
+      <c r="BE46" s="87"/>
+      <c r="BF46" s="87"/>
+      <c r="BG46" s="87"/>
+      <c r="BH46" s="87"/>
+      <c r="BI46" s="87"/>
+      <c r="BJ46" s="87"/>
+      <c r="BK46" s="87"/>
+      <c r="BL46" s="87"/>
+      <c r="BM46" s="87"/>
+      <c r="BN46" s="87"/>
+      <c r="BO46" s="87"/>
       <c r="BP46" s="4"/>
     </row>
     <row r="47" spans="1:68" s="27" customFormat="1" ht="16.5" outlineLevel="1">
@@ -14058,83 +14039,83 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>10</v>
       </c>
-      <c r="C47" s="126" t="s">
-        <v>64</v>
+      <c r="C47" s="127" t="s">
+        <v>60</v>
       </c>
-      <c r="D47" s="121"/>
-      <c r="E47" s="121"/>
-      <c r="F47" s="121"/>
-      <c r="G47" s="121"/>
-      <c r="H47" s="121"/>
-      <c r="I47" s="124"/>
-      <c r="J47" s="119" t="s">
-        <v>62</v>
+      <c r="D47" s="122"/>
+      <c r="E47" s="122"/>
+      <c r="F47" s="122"/>
+      <c r="G47" s="122"/>
+      <c r="H47" s="122"/>
+      <c r="I47" s="125"/>
+      <c r="J47" s="120" t="s">
+        <v>58</v>
       </c>
-      <c r="K47" s="120"/>
-      <c r="L47" s="120"/>
-      <c r="M47" s="120"/>
-      <c r="N47" s="120"/>
-      <c r="O47" s="120"/>
-      <c r="P47" s="120"/>
-      <c r="Q47" s="125"/>
-      <c r="R47" s="71"/>
-      <c r="S47" s="71"/>
-      <c r="T47" s="71"/>
-      <c r="U47" s="71"/>
-      <c r="V47" s="71"/>
-      <c r="W47" s="71"/>
-      <c r="X47" s="71"/>
-      <c r="Y47" s="71"/>
-      <c r="Z47" s="71"/>
-      <c r="AA47" s="71"/>
-      <c r="AB47" s="71"/>
-      <c r="AC47" s="71"/>
-      <c r="AD47" s="71"/>
-      <c r="AE47" s="71"/>
-      <c r="AF47" s="71"/>
-      <c r="AG47" s="71"/>
-      <c r="AH47" s="71"/>
-      <c r="AI47" s="71" t="s">
-        <v>153</v>
+      <c r="K47" s="121"/>
+      <c r="L47" s="121"/>
+      <c r="M47" s="121"/>
+      <c r="N47" s="121"/>
+      <c r="O47" s="121"/>
+      <c r="P47" s="121"/>
+      <c r="Q47" s="126"/>
+      <c r="R47" s="85"/>
+      <c r="S47" s="85"/>
+      <c r="T47" s="85"/>
+      <c r="U47" s="85"/>
+      <c r="V47" s="85"/>
+      <c r="W47" s="85"/>
+      <c r="X47" s="85"/>
+      <c r="Y47" s="85"/>
+      <c r="Z47" s="85"/>
+      <c r="AA47" s="85"/>
+      <c r="AB47" s="85"/>
+      <c r="AC47" s="85"/>
+      <c r="AD47" s="85"/>
+      <c r="AE47" s="85"/>
+      <c r="AF47" s="85"/>
+      <c r="AG47" s="85"/>
+      <c r="AH47" s="85"/>
+      <c r="AI47" s="85" t="s">
+        <v>149</v>
       </c>
-      <c r="AJ47" s="71"/>
-      <c r="AK47" s="71"/>
-      <c r="AL47" s="71"/>
-      <c r="AM47" s="71"/>
-      <c r="AN47" s="71"/>
-      <c r="AO47" s="71"/>
-      <c r="AP47" s="71"/>
-      <c r="AQ47" s="72" t="s">
-        <v>153</v>
+      <c r="AJ47" s="85"/>
+      <c r="AK47" s="85"/>
+      <c r="AL47" s="85"/>
+      <c r="AM47" s="85"/>
+      <c r="AN47" s="85"/>
+      <c r="AO47" s="85"/>
+      <c r="AP47" s="85"/>
+      <c r="AQ47" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AR47" s="72"/>
-      <c r="AS47" s="72"/>
-      <c r="AT47" s="72"/>
-      <c r="AU47" s="72"/>
-      <c r="AV47" s="72"/>
-      <c r="AW47" s="72"/>
-      <c r="AX47" s="72" t="s">
-        <v>153</v>
+      <c r="AR47" s="86"/>
+      <c r="AS47" s="86"/>
+      <c r="AT47" s="86"/>
+      <c r="AU47" s="86"/>
+      <c r="AV47" s="86"/>
+      <c r="AW47" s="86"/>
+      <c r="AX47" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AY47" s="72"/>
-      <c r="AZ47" s="72"/>
-      <c r="BA47" s="72"/>
-      <c r="BB47" s="72"/>
-      <c r="BC47" s="73" t="s">
-        <v>153</v>
+      <c r="AY47" s="86"/>
+      <c r="AZ47" s="86"/>
+      <c r="BA47" s="86"/>
+      <c r="BB47" s="86"/>
+      <c r="BC47" s="87" t="s">
+        <v>149</v>
       </c>
-      <c r="BD47" s="73"/>
-      <c r="BE47" s="73"/>
-      <c r="BF47" s="73"/>
-      <c r="BG47" s="73"/>
-      <c r="BH47" s="73"/>
-      <c r="BI47" s="73"/>
-      <c r="BJ47" s="73"/>
-      <c r="BK47" s="73"/>
-      <c r="BL47" s="73"/>
-      <c r="BM47" s="73"/>
-      <c r="BN47" s="73"/>
-      <c r="BO47" s="73"/>
+      <c r="BD47" s="87"/>
+      <c r="BE47" s="87"/>
+      <c r="BF47" s="87"/>
+      <c r="BG47" s="87"/>
+      <c r="BH47" s="87"/>
+      <c r="BI47" s="87"/>
+      <c r="BJ47" s="87"/>
+      <c r="BK47" s="87"/>
+      <c r="BL47" s="87"/>
+      <c r="BM47" s="87"/>
+      <c r="BN47" s="87"/>
+      <c r="BO47" s="87"/>
       <c r="BP47" s="4"/>
     </row>
     <row r="48" spans="1:68" s="27" customFormat="1" ht="16.5" outlineLevel="1">
@@ -14143,83 +14124,83 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>11</v>
       </c>
-      <c r="C48" s="126" t="s">
-        <v>65</v>
+      <c r="C48" s="127" t="s">
+        <v>61</v>
       </c>
-      <c r="D48" s="121"/>
-      <c r="E48" s="121"/>
-      <c r="F48" s="121"/>
-      <c r="G48" s="121"/>
-      <c r="H48" s="121"/>
-      <c r="I48" s="124"/>
-      <c r="J48" s="119" t="s">
-        <v>62</v>
+      <c r="D48" s="122"/>
+      <c r="E48" s="122"/>
+      <c r="F48" s="122"/>
+      <c r="G48" s="122"/>
+      <c r="H48" s="122"/>
+      <c r="I48" s="125"/>
+      <c r="J48" s="120" t="s">
+        <v>58</v>
       </c>
-      <c r="K48" s="120"/>
-      <c r="L48" s="120"/>
-      <c r="M48" s="120"/>
-      <c r="N48" s="120"/>
-      <c r="O48" s="120"/>
-      <c r="P48" s="120"/>
-      <c r="Q48" s="125"/>
-      <c r="R48" s="71"/>
-      <c r="S48" s="71"/>
-      <c r="T48" s="71"/>
-      <c r="U48" s="71"/>
-      <c r="V48" s="71"/>
-      <c r="W48" s="71"/>
-      <c r="X48" s="71"/>
-      <c r="Y48" s="71"/>
-      <c r="Z48" s="71"/>
-      <c r="AA48" s="71"/>
-      <c r="AB48" s="71"/>
-      <c r="AC48" s="71"/>
-      <c r="AD48" s="71"/>
-      <c r="AE48" s="71"/>
-      <c r="AF48" s="71"/>
-      <c r="AG48" s="71"/>
-      <c r="AH48" s="71"/>
-      <c r="AI48" s="71" t="s">
-        <v>153</v>
+      <c r="K48" s="121"/>
+      <c r="L48" s="121"/>
+      <c r="M48" s="121"/>
+      <c r="N48" s="121"/>
+      <c r="O48" s="121"/>
+      <c r="P48" s="121"/>
+      <c r="Q48" s="126"/>
+      <c r="R48" s="85"/>
+      <c r="S48" s="85"/>
+      <c r="T48" s="85"/>
+      <c r="U48" s="85"/>
+      <c r="V48" s="85"/>
+      <c r="W48" s="85"/>
+      <c r="X48" s="85"/>
+      <c r="Y48" s="85"/>
+      <c r="Z48" s="85"/>
+      <c r="AA48" s="85"/>
+      <c r="AB48" s="85"/>
+      <c r="AC48" s="85"/>
+      <c r="AD48" s="85"/>
+      <c r="AE48" s="85"/>
+      <c r="AF48" s="85"/>
+      <c r="AG48" s="85"/>
+      <c r="AH48" s="85"/>
+      <c r="AI48" s="85" t="s">
+        <v>149</v>
       </c>
-      <c r="AJ48" s="71"/>
-      <c r="AK48" s="71"/>
-      <c r="AL48" s="71"/>
-      <c r="AM48" s="71"/>
-      <c r="AN48" s="71"/>
-      <c r="AO48" s="71"/>
-      <c r="AP48" s="71"/>
-      <c r="AQ48" s="72" t="s">
-        <v>153</v>
+      <c r="AJ48" s="85"/>
+      <c r="AK48" s="85"/>
+      <c r="AL48" s="85"/>
+      <c r="AM48" s="85"/>
+      <c r="AN48" s="85"/>
+      <c r="AO48" s="85"/>
+      <c r="AP48" s="85"/>
+      <c r="AQ48" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AR48" s="72"/>
-      <c r="AS48" s="72"/>
-      <c r="AT48" s="72"/>
-      <c r="AU48" s="72"/>
-      <c r="AV48" s="72"/>
-      <c r="AW48" s="72"/>
-      <c r="AX48" s="72" t="s">
-        <v>153</v>
+      <c r="AR48" s="86"/>
+      <c r="AS48" s="86"/>
+      <c r="AT48" s="86"/>
+      <c r="AU48" s="86"/>
+      <c r="AV48" s="86"/>
+      <c r="AW48" s="86"/>
+      <c r="AX48" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AY48" s="72"/>
-      <c r="AZ48" s="72"/>
-      <c r="BA48" s="72"/>
-      <c r="BB48" s="72"/>
-      <c r="BC48" s="73" t="s">
-        <v>153</v>
+      <c r="AY48" s="86"/>
+      <c r="AZ48" s="86"/>
+      <c r="BA48" s="86"/>
+      <c r="BB48" s="86"/>
+      <c r="BC48" s="87" t="s">
+        <v>149</v>
       </c>
-      <c r="BD48" s="73"/>
-      <c r="BE48" s="73"/>
-      <c r="BF48" s="73"/>
-      <c r="BG48" s="73"/>
-      <c r="BH48" s="73"/>
-      <c r="BI48" s="73"/>
-      <c r="BJ48" s="73"/>
-      <c r="BK48" s="73"/>
-      <c r="BL48" s="73"/>
-      <c r="BM48" s="73"/>
-      <c r="BN48" s="73"/>
-      <c r="BO48" s="73"/>
+      <c r="BD48" s="87"/>
+      <c r="BE48" s="87"/>
+      <c r="BF48" s="87"/>
+      <c r="BG48" s="87"/>
+      <c r="BH48" s="87"/>
+      <c r="BI48" s="87"/>
+      <c r="BJ48" s="87"/>
+      <c r="BK48" s="87"/>
+      <c r="BL48" s="87"/>
+      <c r="BM48" s="87"/>
+      <c r="BN48" s="87"/>
+      <c r="BO48" s="87"/>
       <c r="BP48" s="4"/>
     </row>
     <row r="49" spans="1:68" s="27" customFormat="1" ht="16.5" outlineLevel="1">
@@ -14228,83 +14209,83 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>12</v>
       </c>
-      <c r="C49" s="126" t="s">
-        <v>66</v>
-      </c>
-      <c r="D49" s="121"/>
-      <c r="E49" s="121"/>
-      <c r="F49" s="121"/>
-      <c r="G49" s="121"/>
-      <c r="H49" s="121"/>
-      <c r="I49" s="124"/>
-      <c r="J49" s="119" t="s">
+      <c r="C49" s="127" t="s">
         <v>62</v>
       </c>
-      <c r="K49" s="120"/>
-      <c r="L49" s="120"/>
-      <c r="M49" s="120"/>
-      <c r="N49" s="120"/>
-      <c r="O49" s="120"/>
-      <c r="P49" s="120"/>
-      <c r="Q49" s="125"/>
-      <c r="R49" s="71"/>
-      <c r="S49" s="71"/>
-      <c r="T49" s="71"/>
-      <c r="U49" s="71"/>
-      <c r="V49" s="71"/>
-      <c r="W49" s="71"/>
-      <c r="X49" s="71"/>
-      <c r="Y49" s="71"/>
-      <c r="Z49" s="71"/>
-      <c r="AA49" s="71"/>
-      <c r="AB49" s="71"/>
-      <c r="AC49" s="71"/>
-      <c r="AD49" s="71"/>
-      <c r="AE49" s="71"/>
-      <c r="AF49" s="71"/>
-      <c r="AG49" s="71"/>
-      <c r="AH49" s="71"/>
-      <c r="AI49" s="71" t="s">
-        <v>153</v>
+      <c r="D49" s="122"/>
+      <c r="E49" s="122"/>
+      <c r="F49" s="122"/>
+      <c r="G49" s="122"/>
+      <c r="H49" s="122"/>
+      <c r="I49" s="125"/>
+      <c r="J49" s="120" t="s">
+        <v>58</v>
       </c>
-      <c r="AJ49" s="71"/>
-      <c r="AK49" s="71"/>
-      <c r="AL49" s="71"/>
-      <c r="AM49" s="71"/>
-      <c r="AN49" s="71"/>
-      <c r="AO49" s="71"/>
-      <c r="AP49" s="71"/>
-      <c r="AQ49" s="72" t="s">
-        <v>153</v>
+      <c r="K49" s="121"/>
+      <c r="L49" s="121"/>
+      <c r="M49" s="121"/>
+      <c r="N49" s="121"/>
+      <c r="O49" s="121"/>
+      <c r="P49" s="121"/>
+      <c r="Q49" s="126"/>
+      <c r="R49" s="85"/>
+      <c r="S49" s="85"/>
+      <c r="T49" s="85"/>
+      <c r="U49" s="85"/>
+      <c r="V49" s="85"/>
+      <c r="W49" s="85"/>
+      <c r="X49" s="85"/>
+      <c r="Y49" s="85"/>
+      <c r="Z49" s="85"/>
+      <c r="AA49" s="85"/>
+      <c r="AB49" s="85"/>
+      <c r="AC49" s="85"/>
+      <c r="AD49" s="85"/>
+      <c r="AE49" s="85"/>
+      <c r="AF49" s="85"/>
+      <c r="AG49" s="85"/>
+      <c r="AH49" s="85"/>
+      <c r="AI49" s="85" t="s">
+        <v>149</v>
       </c>
-      <c r="AR49" s="72"/>
-      <c r="AS49" s="72"/>
-      <c r="AT49" s="72"/>
-      <c r="AU49" s="72"/>
-      <c r="AV49" s="72"/>
-      <c r="AW49" s="72"/>
-      <c r="AX49" s="72" t="s">
-        <v>153</v>
+      <c r="AJ49" s="85"/>
+      <c r="AK49" s="85"/>
+      <c r="AL49" s="85"/>
+      <c r="AM49" s="85"/>
+      <c r="AN49" s="85"/>
+      <c r="AO49" s="85"/>
+      <c r="AP49" s="85"/>
+      <c r="AQ49" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AY49" s="72"/>
-      <c r="AZ49" s="72"/>
-      <c r="BA49" s="72"/>
-      <c r="BB49" s="72"/>
-      <c r="BC49" s="73" t="s">
-        <v>153</v>
+      <c r="AR49" s="86"/>
+      <c r="AS49" s="86"/>
+      <c r="AT49" s="86"/>
+      <c r="AU49" s="86"/>
+      <c r="AV49" s="86"/>
+      <c r="AW49" s="86"/>
+      <c r="AX49" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="BD49" s="73"/>
-      <c r="BE49" s="73"/>
-      <c r="BF49" s="73"/>
-      <c r="BG49" s="73"/>
-      <c r="BH49" s="73"/>
-      <c r="BI49" s="73"/>
-      <c r="BJ49" s="73"/>
-      <c r="BK49" s="73"/>
-      <c r="BL49" s="73"/>
-      <c r="BM49" s="73"/>
-      <c r="BN49" s="73"/>
-      <c r="BO49" s="73"/>
+      <c r="AY49" s="86"/>
+      <c r="AZ49" s="86"/>
+      <c r="BA49" s="86"/>
+      <c r="BB49" s="86"/>
+      <c r="BC49" s="87" t="s">
+        <v>149</v>
+      </c>
+      <c r="BD49" s="87"/>
+      <c r="BE49" s="87"/>
+      <c r="BF49" s="87"/>
+      <c r="BG49" s="87"/>
+      <c r="BH49" s="87"/>
+      <c r="BI49" s="87"/>
+      <c r="BJ49" s="87"/>
+      <c r="BK49" s="87"/>
+      <c r="BL49" s="87"/>
+      <c r="BM49" s="87"/>
+      <c r="BN49" s="87"/>
+      <c r="BO49" s="87"/>
       <c r="BP49" s="4"/>
     </row>
     <row r="50" spans="1:68" s="27" customFormat="1" ht="16.5" outlineLevel="1">
@@ -14313,83 +14294,83 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>13</v>
       </c>
-      <c r="C50" s="126" t="s">
-        <v>67</v>
+      <c r="C50" s="127" t="s">
+        <v>63</v>
       </c>
-      <c r="D50" s="121"/>
-      <c r="E50" s="121"/>
-      <c r="F50" s="121"/>
-      <c r="G50" s="121"/>
-      <c r="H50" s="121"/>
-      <c r="I50" s="124"/>
-      <c r="J50" s="119" t="s">
-        <v>62</v>
+      <c r="D50" s="122"/>
+      <c r="E50" s="122"/>
+      <c r="F50" s="122"/>
+      <c r="G50" s="122"/>
+      <c r="H50" s="122"/>
+      <c r="I50" s="125"/>
+      <c r="J50" s="120" t="s">
+        <v>58</v>
       </c>
-      <c r="K50" s="120"/>
-      <c r="L50" s="120"/>
-      <c r="M50" s="120"/>
-      <c r="N50" s="120"/>
-      <c r="O50" s="120"/>
-      <c r="P50" s="120"/>
-      <c r="Q50" s="125"/>
-      <c r="R50" s="71"/>
-      <c r="S50" s="71"/>
-      <c r="T50" s="71"/>
-      <c r="U50" s="71"/>
-      <c r="V50" s="71"/>
-      <c r="W50" s="71"/>
-      <c r="X50" s="71"/>
-      <c r="Y50" s="71"/>
-      <c r="Z50" s="71"/>
-      <c r="AA50" s="71"/>
-      <c r="AB50" s="71"/>
-      <c r="AC50" s="71"/>
-      <c r="AD50" s="71"/>
-      <c r="AE50" s="71"/>
-      <c r="AF50" s="71"/>
-      <c r="AG50" s="71"/>
-      <c r="AH50" s="71"/>
-      <c r="AI50" s="71" t="s">
-        <v>153</v>
+      <c r="K50" s="121"/>
+      <c r="L50" s="121"/>
+      <c r="M50" s="121"/>
+      <c r="N50" s="121"/>
+      <c r="O50" s="121"/>
+      <c r="P50" s="121"/>
+      <c r="Q50" s="126"/>
+      <c r="R50" s="85"/>
+      <c r="S50" s="85"/>
+      <c r="T50" s="85"/>
+      <c r="U50" s="85"/>
+      <c r="V50" s="85"/>
+      <c r="W50" s="85"/>
+      <c r="X50" s="85"/>
+      <c r="Y50" s="85"/>
+      <c r="Z50" s="85"/>
+      <c r="AA50" s="85"/>
+      <c r="AB50" s="85"/>
+      <c r="AC50" s="85"/>
+      <c r="AD50" s="85"/>
+      <c r="AE50" s="85"/>
+      <c r="AF50" s="85"/>
+      <c r="AG50" s="85"/>
+      <c r="AH50" s="85"/>
+      <c r="AI50" s="85" t="s">
+        <v>149</v>
       </c>
-      <c r="AJ50" s="71"/>
-      <c r="AK50" s="71"/>
-      <c r="AL50" s="71"/>
-      <c r="AM50" s="71"/>
-      <c r="AN50" s="71"/>
-      <c r="AO50" s="71"/>
-      <c r="AP50" s="71"/>
-      <c r="AQ50" s="72" t="s">
-        <v>153</v>
+      <c r="AJ50" s="85"/>
+      <c r="AK50" s="85"/>
+      <c r="AL50" s="85"/>
+      <c r="AM50" s="85"/>
+      <c r="AN50" s="85"/>
+      <c r="AO50" s="85"/>
+      <c r="AP50" s="85"/>
+      <c r="AQ50" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AR50" s="72"/>
-      <c r="AS50" s="72"/>
-      <c r="AT50" s="72"/>
-      <c r="AU50" s="72"/>
-      <c r="AV50" s="72"/>
-      <c r="AW50" s="72"/>
-      <c r="AX50" s="72" t="s">
-        <v>153</v>
+      <c r="AR50" s="86"/>
+      <c r="AS50" s="86"/>
+      <c r="AT50" s="86"/>
+      <c r="AU50" s="86"/>
+      <c r="AV50" s="86"/>
+      <c r="AW50" s="86"/>
+      <c r="AX50" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AY50" s="72"/>
-      <c r="AZ50" s="72"/>
-      <c r="BA50" s="72"/>
-      <c r="BB50" s="72"/>
-      <c r="BC50" s="73" t="s">
-        <v>153</v>
+      <c r="AY50" s="86"/>
+      <c r="AZ50" s="86"/>
+      <c r="BA50" s="86"/>
+      <c r="BB50" s="86"/>
+      <c r="BC50" s="87" t="s">
+        <v>149</v>
       </c>
-      <c r="BD50" s="73"/>
-      <c r="BE50" s="73"/>
-      <c r="BF50" s="73"/>
-      <c r="BG50" s="73"/>
-      <c r="BH50" s="73"/>
-      <c r="BI50" s="73"/>
-      <c r="BJ50" s="73"/>
-      <c r="BK50" s="73"/>
-      <c r="BL50" s="73"/>
-      <c r="BM50" s="73"/>
-      <c r="BN50" s="73"/>
-      <c r="BO50" s="73"/>
+      <c r="BD50" s="87"/>
+      <c r="BE50" s="87"/>
+      <c r="BF50" s="87"/>
+      <c r="BG50" s="87"/>
+      <c r="BH50" s="87"/>
+      <c r="BI50" s="87"/>
+      <c r="BJ50" s="87"/>
+      <c r="BK50" s="87"/>
+      <c r="BL50" s="87"/>
+      <c r="BM50" s="87"/>
+      <c r="BN50" s="87"/>
+      <c r="BO50" s="87"/>
       <c r="BP50" s="4"/>
     </row>
     <row r="51" spans="1:68" s="27" customFormat="1" ht="16.5" outlineLevel="1">
@@ -14398,83 +14379,83 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>14</v>
       </c>
-      <c r="C51" s="123" t="s">
-        <v>68</v>
+      <c r="C51" s="124" t="s">
+        <v>64</v>
       </c>
-      <c r="D51" s="121"/>
-      <c r="E51" s="121"/>
-      <c r="F51" s="121"/>
-      <c r="G51" s="121"/>
-      <c r="H51" s="121"/>
-      <c r="I51" s="124"/>
-      <c r="J51" s="119" t="s">
-        <v>62</v>
+      <c r="D51" s="122"/>
+      <c r="E51" s="122"/>
+      <c r="F51" s="122"/>
+      <c r="G51" s="122"/>
+      <c r="H51" s="122"/>
+      <c r="I51" s="125"/>
+      <c r="J51" s="120" t="s">
+        <v>58</v>
       </c>
-      <c r="K51" s="120"/>
-      <c r="L51" s="120"/>
-      <c r="M51" s="120"/>
-      <c r="N51" s="120"/>
-      <c r="O51" s="120"/>
-      <c r="P51" s="120"/>
-      <c r="Q51" s="125"/>
-      <c r="R51" s="71"/>
-      <c r="S51" s="71"/>
-      <c r="T51" s="71"/>
-      <c r="U51" s="71"/>
-      <c r="V51" s="71"/>
-      <c r="W51" s="71"/>
-      <c r="X51" s="71"/>
-      <c r="Y51" s="71"/>
-      <c r="Z51" s="71"/>
-      <c r="AA51" s="71"/>
-      <c r="AB51" s="71"/>
-      <c r="AC51" s="71"/>
-      <c r="AD51" s="71"/>
-      <c r="AE51" s="71"/>
-      <c r="AF51" s="71"/>
-      <c r="AG51" s="71"/>
-      <c r="AH51" s="71"/>
-      <c r="AI51" s="71" t="s">
-        <v>153</v>
+      <c r="K51" s="121"/>
+      <c r="L51" s="121"/>
+      <c r="M51" s="121"/>
+      <c r="N51" s="121"/>
+      <c r="O51" s="121"/>
+      <c r="P51" s="121"/>
+      <c r="Q51" s="126"/>
+      <c r="R51" s="85"/>
+      <c r="S51" s="85"/>
+      <c r="T51" s="85"/>
+      <c r="U51" s="85"/>
+      <c r="V51" s="85"/>
+      <c r="W51" s="85"/>
+      <c r="X51" s="85"/>
+      <c r="Y51" s="85"/>
+      <c r="Z51" s="85"/>
+      <c r="AA51" s="85"/>
+      <c r="AB51" s="85"/>
+      <c r="AC51" s="85"/>
+      <c r="AD51" s="85"/>
+      <c r="AE51" s="85"/>
+      <c r="AF51" s="85"/>
+      <c r="AG51" s="85"/>
+      <c r="AH51" s="85"/>
+      <c r="AI51" s="85" t="s">
+        <v>149</v>
       </c>
-      <c r="AJ51" s="71"/>
-      <c r="AK51" s="71"/>
-      <c r="AL51" s="71"/>
-      <c r="AM51" s="71"/>
-      <c r="AN51" s="71"/>
-      <c r="AO51" s="71"/>
-      <c r="AP51" s="71"/>
-      <c r="AQ51" s="72" t="s">
-        <v>153</v>
+      <c r="AJ51" s="85"/>
+      <c r="AK51" s="85"/>
+      <c r="AL51" s="85"/>
+      <c r="AM51" s="85"/>
+      <c r="AN51" s="85"/>
+      <c r="AO51" s="85"/>
+      <c r="AP51" s="85"/>
+      <c r="AQ51" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AR51" s="72"/>
-      <c r="AS51" s="72"/>
-      <c r="AT51" s="72"/>
-      <c r="AU51" s="72"/>
-      <c r="AV51" s="72"/>
-      <c r="AW51" s="72"/>
-      <c r="AX51" s="72" t="s">
-        <v>153</v>
+      <c r="AR51" s="86"/>
+      <c r="AS51" s="86"/>
+      <c r="AT51" s="86"/>
+      <c r="AU51" s="86"/>
+      <c r="AV51" s="86"/>
+      <c r="AW51" s="86"/>
+      <c r="AX51" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AY51" s="72"/>
-      <c r="AZ51" s="72"/>
-      <c r="BA51" s="72"/>
-      <c r="BB51" s="72"/>
-      <c r="BC51" s="73" t="s">
-        <v>153</v>
+      <c r="AY51" s="86"/>
+      <c r="AZ51" s="86"/>
+      <c r="BA51" s="86"/>
+      <c r="BB51" s="86"/>
+      <c r="BC51" s="87" t="s">
+        <v>149</v>
       </c>
-      <c r="BD51" s="73"/>
-      <c r="BE51" s="73"/>
-      <c r="BF51" s="73"/>
-      <c r="BG51" s="73"/>
-      <c r="BH51" s="73"/>
-      <c r="BI51" s="73"/>
-      <c r="BJ51" s="73"/>
-      <c r="BK51" s="73"/>
-      <c r="BL51" s="73"/>
-      <c r="BM51" s="73"/>
-      <c r="BN51" s="73"/>
-      <c r="BO51" s="73"/>
+      <c r="BD51" s="87"/>
+      <c r="BE51" s="87"/>
+      <c r="BF51" s="87"/>
+      <c r="BG51" s="87"/>
+      <c r="BH51" s="87"/>
+      <c r="BI51" s="87"/>
+      <c r="BJ51" s="87"/>
+      <c r="BK51" s="87"/>
+      <c r="BL51" s="87"/>
+      <c r="BM51" s="87"/>
+      <c r="BN51" s="87"/>
+      <c r="BO51" s="87"/>
       <c r="BP51" s="4"/>
     </row>
     <row r="52" spans="1:68" s="27" customFormat="1" ht="16.5" outlineLevel="1">
@@ -14483,83 +14464,83 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>15</v>
       </c>
-      <c r="C52" s="123" t="s">
-        <v>69</v>
+      <c r="C52" s="124" t="s">
+        <v>65</v>
       </c>
-      <c r="D52" s="121"/>
-      <c r="E52" s="121"/>
-      <c r="F52" s="121"/>
-      <c r="G52" s="121"/>
-      <c r="H52" s="121"/>
-      <c r="I52" s="124"/>
-      <c r="J52" s="119" t="s">
-        <v>62</v>
+      <c r="D52" s="122"/>
+      <c r="E52" s="122"/>
+      <c r="F52" s="122"/>
+      <c r="G52" s="122"/>
+      <c r="H52" s="122"/>
+      <c r="I52" s="125"/>
+      <c r="J52" s="120" t="s">
+        <v>58</v>
       </c>
-      <c r="K52" s="120"/>
-      <c r="L52" s="120"/>
-      <c r="M52" s="120"/>
-      <c r="N52" s="120"/>
-      <c r="O52" s="120"/>
-      <c r="P52" s="120"/>
-      <c r="Q52" s="125"/>
-      <c r="R52" s="71"/>
-      <c r="S52" s="71"/>
-      <c r="T52" s="71"/>
-      <c r="U52" s="71"/>
-      <c r="V52" s="71"/>
-      <c r="W52" s="71"/>
-      <c r="X52" s="71"/>
-      <c r="Y52" s="71"/>
-      <c r="Z52" s="71"/>
-      <c r="AA52" s="71"/>
-      <c r="AB52" s="71"/>
-      <c r="AC52" s="71"/>
-      <c r="AD52" s="71"/>
-      <c r="AE52" s="71"/>
-      <c r="AF52" s="71"/>
-      <c r="AG52" s="71"/>
-      <c r="AH52" s="71"/>
-      <c r="AI52" s="71" t="s">
-        <v>153</v>
+      <c r="K52" s="121"/>
+      <c r="L52" s="121"/>
+      <c r="M52" s="121"/>
+      <c r="N52" s="121"/>
+      <c r="O52" s="121"/>
+      <c r="P52" s="121"/>
+      <c r="Q52" s="126"/>
+      <c r="R52" s="85"/>
+      <c r="S52" s="85"/>
+      <c r="T52" s="85"/>
+      <c r="U52" s="85"/>
+      <c r="V52" s="85"/>
+      <c r="W52" s="85"/>
+      <c r="X52" s="85"/>
+      <c r="Y52" s="85"/>
+      <c r="Z52" s="85"/>
+      <c r="AA52" s="85"/>
+      <c r="AB52" s="85"/>
+      <c r="AC52" s="85"/>
+      <c r="AD52" s="85"/>
+      <c r="AE52" s="85"/>
+      <c r="AF52" s="85"/>
+      <c r="AG52" s="85"/>
+      <c r="AH52" s="85"/>
+      <c r="AI52" s="85" t="s">
+        <v>149</v>
       </c>
-      <c r="AJ52" s="71"/>
-      <c r="AK52" s="71"/>
-      <c r="AL52" s="71"/>
-      <c r="AM52" s="71"/>
-      <c r="AN52" s="71"/>
-      <c r="AO52" s="71"/>
-      <c r="AP52" s="71"/>
-      <c r="AQ52" s="72" t="s">
-        <v>153</v>
+      <c r="AJ52" s="85"/>
+      <c r="AK52" s="85"/>
+      <c r="AL52" s="85"/>
+      <c r="AM52" s="85"/>
+      <c r="AN52" s="85"/>
+      <c r="AO52" s="85"/>
+      <c r="AP52" s="85"/>
+      <c r="AQ52" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AR52" s="72"/>
-      <c r="AS52" s="72"/>
-      <c r="AT52" s="72"/>
-      <c r="AU52" s="72"/>
-      <c r="AV52" s="72"/>
-      <c r="AW52" s="72"/>
-      <c r="AX52" s="72" t="s">
-        <v>153</v>
+      <c r="AR52" s="86"/>
+      <c r="AS52" s="86"/>
+      <c r="AT52" s="86"/>
+      <c r="AU52" s="86"/>
+      <c r="AV52" s="86"/>
+      <c r="AW52" s="86"/>
+      <c r="AX52" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AY52" s="72"/>
-      <c r="AZ52" s="72"/>
-      <c r="BA52" s="72"/>
-      <c r="BB52" s="72"/>
-      <c r="BC52" s="73" t="s">
-        <v>153</v>
+      <c r="AY52" s="86"/>
+      <c r="AZ52" s="86"/>
+      <c r="BA52" s="86"/>
+      <c r="BB52" s="86"/>
+      <c r="BC52" s="87" t="s">
+        <v>149</v>
       </c>
-      <c r="BD52" s="73"/>
-      <c r="BE52" s="73"/>
-      <c r="BF52" s="73"/>
-      <c r="BG52" s="73"/>
-      <c r="BH52" s="73"/>
-      <c r="BI52" s="73"/>
-      <c r="BJ52" s="73"/>
-      <c r="BK52" s="73"/>
-      <c r="BL52" s="73"/>
-      <c r="BM52" s="73"/>
-      <c r="BN52" s="73"/>
-      <c r="BO52" s="73"/>
+      <c r="BD52" s="87"/>
+      <c r="BE52" s="87"/>
+      <c r="BF52" s="87"/>
+      <c r="BG52" s="87"/>
+      <c r="BH52" s="87"/>
+      <c r="BI52" s="87"/>
+      <c r="BJ52" s="87"/>
+      <c r="BK52" s="87"/>
+      <c r="BL52" s="87"/>
+      <c r="BM52" s="87"/>
+      <c r="BN52" s="87"/>
+      <c r="BO52" s="87"/>
       <c r="BP52" s="4"/>
     </row>
     <row r="53" spans="1:68" s="27" customFormat="1" ht="16.5" outlineLevel="1">
@@ -14568,83 +14549,83 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>16</v>
       </c>
-      <c r="C53" s="123" t="s">
-        <v>121</v>
+      <c r="C53" s="124" t="s">
+        <v>117</v>
       </c>
-      <c r="D53" s="121"/>
-      <c r="E53" s="121"/>
-      <c r="F53" s="121"/>
-      <c r="G53" s="121"/>
-      <c r="H53" s="121"/>
-      <c r="I53" s="124"/>
-      <c r="J53" s="119" t="s">
-        <v>62</v>
+      <c r="D53" s="122"/>
+      <c r="E53" s="122"/>
+      <c r="F53" s="122"/>
+      <c r="G53" s="122"/>
+      <c r="H53" s="122"/>
+      <c r="I53" s="125"/>
+      <c r="J53" s="120" t="s">
+        <v>58</v>
       </c>
-      <c r="K53" s="120"/>
-      <c r="L53" s="120"/>
-      <c r="M53" s="120"/>
-      <c r="N53" s="120"/>
-      <c r="O53" s="120"/>
-      <c r="P53" s="120"/>
-      <c r="Q53" s="125"/>
-      <c r="R53" s="71"/>
-      <c r="S53" s="71"/>
-      <c r="T53" s="71"/>
-      <c r="U53" s="71"/>
-      <c r="V53" s="71"/>
-      <c r="W53" s="71"/>
-      <c r="X53" s="71"/>
-      <c r="Y53" s="71"/>
-      <c r="Z53" s="71"/>
-      <c r="AA53" s="71"/>
-      <c r="AB53" s="71"/>
-      <c r="AC53" s="71"/>
-      <c r="AD53" s="71"/>
-      <c r="AE53" s="71"/>
-      <c r="AF53" s="71"/>
-      <c r="AG53" s="71"/>
-      <c r="AH53" s="71"/>
-      <c r="AI53" s="71" t="s">
-        <v>153</v>
+      <c r="K53" s="121"/>
+      <c r="L53" s="121"/>
+      <c r="M53" s="121"/>
+      <c r="N53" s="121"/>
+      <c r="O53" s="121"/>
+      <c r="P53" s="121"/>
+      <c r="Q53" s="126"/>
+      <c r="R53" s="85"/>
+      <c r="S53" s="85"/>
+      <c r="T53" s="85"/>
+      <c r="U53" s="85"/>
+      <c r="V53" s="85"/>
+      <c r="W53" s="85"/>
+      <c r="X53" s="85"/>
+      <c r="Y53" s="85"/>
+      <c r="Z53" s="85"/>
+      <c r="AA53" s="85"/>
+      <c r="AB53" s="85"/>
+      <c r="AC53" s="85"/>
+      <c r="AD53" s="85"/>
+      <c r="AE53" s="85"/>
+      <c r="AF53" s="85"/>
+      <c r="AG53" s="85"/>
+      <c r="AH53" s="85"/>
+      <c r="AI53" s="85" t="s">
+        <v>149</v>
       </c>
-      <c r="AJ53" s="71"/>
-      <c r="AK53" s="71"/>
-      <c r="AL53" s="71"/>
-      <c r="AM53" s="71"/>
-      <c r="AN53" s="71"/>
-      <c r="AO53" s="71"/>
-      <c r="AP53" s="71"/>
-      <c r="AQ53" s="72" t="s">
-        <v>153</v>
+      <c r="AJ53" s="85"/>
+      <c r="AK53" s="85"/>
+      <c r="AL53" s="85"/>
+      <c r="AM53" s="85"/>
+      <c r="AN53" s="85"/>
+      <c r="AO53" s="85"/>
+      <c r="AP53" s="85"/>
+      <c r="AQ53" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AR53" s="72"/>
-      <c r="AS53" s="72"/>
-      <c r="AT53" s="72"/>
-      <c r="AU53" s="72"/>
-      <c r="AV53" s="72"/>
-      <c r="AW53" s="72"/>
-      <c r="AX53" s="72" t="s">
-        <v>153</v>
+      <c r="AR53" s="86"/>
+      <c r="AS53" s="86"/>
+      <c r="AT53" s="86"/>
+      <c r="AU53" s="86"/>
+      <c r="AV53" s="86"/>
+      <c r="AW53" s="86"/>
+      <c r="AX53" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AY53" s="72"/>
-      <c r="AZ53" s="72"/>
-      <c r="BA53" s="72"/>
-      <c r="BB53" s="72"/>
-      <c r="BC53" s="73" t="s">
-        <v>153</v>
+      <c r="AY53" s="86"/>
+      <c r="AZ53" s="86"/>
+      <c r="BA53" s="86"/>
+      <c r="BB53" s="86"/>
+      <c r="BC53" s="87" t="s">
+        <v>149</v>
       </c>
-      <c r="BD53" s="73"/>
-      <c r="BE53" s="73"/>
-      <c r="BF53" s="73"/>
-      <c r="BG53" s="73"/>
-      <c r="BH53" s="73"/>
-      <c r="BI53" s="73"/>
-      <c r="BJ53" s="73"/>
-      <c r="BK53" s="73"/>
-      <c r="BL53" s="73"/>
-      <c r="BM53" s="73"/>
-      <c r="BN53" s="73"/>
-      <c r="BO53" s="73"/>
+      <c r="BD53" s="87"/>
+      <c r="BE53" s="87"/>
+      <c r="BF53" s="87"/>
+      <c r="BG53" s="87"/>
+      <c r="BH53" s="87"/>
+      <c r="BI53" s="87"/>
+      <c r="BJ53" s="87"/>
+      <c r="BK53" s="87"/>
+      <c r="BL53" s="87"/>
+      <c r="BM53" s="87"/>
+      <c r="BN53" s="87"/>
+      <c r="BO53" s="87"/>
       <c r="BP53" s="4"/>
     </row>
     <row r="54" spans="1:68" s="27" customFormat="1" ht="16.5" outlineLevel="1">
@@ -14653,85 +14634,85 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>17</v>
       </c>
-      <c r="C54" s="123" t="s">
-        <v>70</v>
+      <c r="C54" s="124" t="s">
+        <v>66</v>
       </c>
-      <c r="D54" s="121"/>
-      <c r="E54" s="121"/>
-      <c r="F54" s="121"/>
-      <c r="G54" s="121"/>
-      <c r="H54" s="121"/>
-      <c r="I54" s="124"/>
-      <c r="J54" s="119" t="s">
-        <v>71</v>
+      <c r="D54" s="122"/>
+      <c r="E54" s="122"/>
+      <c r="F54" s="122"/>
+      <c r="G54" s="122"/>
+      <c r="H54" s="122"/>
+      <c r="I54" s="125"/>
+      <c r="J54" s="120" t="s">
+        <v>67</v>
       </c>
-      <c r="K54" s="120"/>
-      <c r="L54" s="120"/>
-      <c r="M54" s="120"/>
-      <c r="N54" s="120"/>
-      <c r="O54" s="120"/>
-      <c r="P54" s="120"/>
-      <c r="Q54" s="125"/>
-      <c r="R54" s="71" t="s">
-        <v>191</v>
+      <c r="K54" s="121"/>
+      <c r="L54" s="121"/>
+      <c r="M54" s="121"/>
+      <c r="N54" s="121"/>
+      <c r="O54" s="121"/>
+      <c r="P54" s="121"/>
+      <c r="Q54" s="126"/>
+      <c r="R54" s="85" t="s">
+        <v>187</v>
       </c>
-      <c r="S54" s="71"/>
-      <c r="T54" s="71"/>
-      <c r="U54" s="71"/>
-      <c r="V54" s="71"/>
-      <c r="W54" s="71"/>
-      <c r="X54" s="71"/>
-      <c r="Y54" s="71"/>
-      <c r="Z54" s="71"/>
-      <c r="AA54" s="71"/>
-      <c r="AB54" s="71"/>
-      <c r="AC54" s="71"/>
-      <c r="AD54" s="71"/>
-      <c r="AE54" s="71"/>
-      <c r="AF54" s="71"/>
-      <c r="AG54" s="71"/>
-      <c r="AH54" s="71"/>
-      <c r="AI54" s="71" t="s">
-        <v>153</v>
+      <c r="S54" s="85"/>
+      <c r="T54" s="85"/>
+      <c r="U54" s="85"/>
+      <c r="V54" s="85"/>
+      <c r="W54" s="85"/>
+      <c r="X54" s="85"/>
+      <c r="Y54" s="85"/>
+      <c r="Z54" s="85"/>
+      <c r="AA54" s="85"/>
+      <c r="AB54" s="85"/>
+      <c r="AC54" s="85"/>
+      <c r="AD54" s="85"/>
+      <c r="AE54" s="85"/>
+      <c r="AF54" s="85"/>
+      <c r="AG54" s="85"/>
+      <c r="AH54" s="85"/>
+      <c r="AI54" s="85" t="s">
+        <v>149</v>
       </c>
-      <c r="AJ54" s="71"/>
-      <c r="AK54" s="71"/>
-      <c r="AL54" s="71"/>
-      <c r="AM54" s="71"/>
-      <c r="AN54" s="71"/>
-      <c r="AO54" s="71"/>
-      <c r="AP54" s="71"/>
-      <c r="AQ54" s="72" t="s">
-        <v>153</v>
+      <c r="AJ54" s="85"/>
+      <c r="AK54" s="85"/>
+      <c r="AL54" s="85"/>
+      <c r="AM54" s="85"/>
+      <c r="AN54" s="85"/>
+      <c r="AO54" s="85"/>
+      <c r="AP54" s="85"/>
+      <c r="AQ54" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AR54" s="72"/>
-      <c r="AS54" s="72"/>
-      <c r="AT54" s="72"/>
-      <c r="AU54" s="72"/>
-      <c r="AV54" s="72"/>
-      <c r="AW54" s="72"/>
-      <c r="AX54" s="72" t="s">
-        <v>153</v>
+      <c r="AR54" s="86"/>
+      <c r="AS54" s="86"/>
+      <c r="AT54" s="86"/>
+      <c r="AU54" s="86"/>
+      <c r="AV54" s="86"/>
+      <c r="AW54" s="86"/>
+      <c r="AX54" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AY54" s="72"/>
-      <c r="AZ54" s="72"/>
-      <c r="BA54" s="72"/>
-      <c r="BB54" s="72"/>
-      <c r="BC54" s="73" t="s">
-        <v>153</v>
+      <c r="AY54" s="86"/>
+      <c r="AZ54" s="86"/>
+      <c r="BA54" s="86"/>
+      <c r="BB54" s="86"/>
+      <c r="BC54" s="87" t="s">
+        <v>149</v>
       </c>
-      <c r="BD54" s="73"/>
-      <c r="BE54" s="73"/>
-      <c r="BF54" s="73"/>
-      <c r="BG54" s="73"/>
-      <c r="BH54" s="73"/>
-      <c r="BI54" s="73"/>
-      <c r="BJ54" s="73"/>
-      <c r="BK54" s="73"/>
-      <c r="BL54" s="73"/>
-      <c r="BM54" s="73"/>
-      <c r="BN54" s="73"/>
-      <c r="BO54" s="73"/>
+      <c r="BD54" s="87"/>
+      <c r="BE54" s="87"/>
+      <c r="BF54" s="87"/>
+      <c r="BG54" s="87"/>
+      <c r="BH54" s="87"/>
+      <c r="BI54" s="87"/>
+      <c r="BJ54" s="87"/>
+      <c r="BK54" s="87"/>
+      <c r="BL54" s="87"/>
+      <c r="BM54" s="87"/>
+      <c r="BN54" s="87"/>
+      <c r="BO54" s="87"/>
       <c r="BP54" s="4"/>
     </row>
     <row r="55" spans="1:68" s="27" customFormat="1" ht="16.5" outlineLevel="1">
@@ -14740,85 +14721,85 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>18</v>
       </c>
-      <c r="C55" s="116" t="s">
-        <v>123</v>
+      <c r="C55" s="117" t="s">
+        <v>119</v>
       </c>
-      <c r="D55" s="117"/>
-      <c r="E55" s="117"/>
-      <c r="F55" s="117"/>
-      <c r="G55" s="117"/>
-      <c r="H55" s="117"/>
-      <c r="I55" s="118"/>
-      <c r="J55" s="119" t="s">
-        <v>125</v>
+      <c r="D55" s="118"/>
+      <c r="E55" s="118"/>
+      <c r="F55" s="118"/>
+      <c r="G55" s="118"/>
+      <c r="H55" s="118"/>
+      <c r="I55" s="119"/>
+      <c r="J55" s="120" t="s">
+        <v>121</v>
       </c>
-      <c r="K55" s="120"/>
-      <c r="L55" s="120"/>
-      <c r="M55" s="120"/>
-      <c r="N55" s="120"/>
-      <c r="O55" s="120"/>
-      <c r="P55" s="120"/>
-      <c r="Q55" s="125"/>
-      <c r="R55" s="71" t="s">
-        <v>32</v>
+      <c r="K55" s="121"/>
+      <c r="L55" s="121"/>
+      <c r="M55" s="121"/>
+      <c r="N55" s="121"/>
+      <c r="O55" s="121"/>
+      <c r="P55" s="121"/>
+      <c r="Q55" s="126"/>
+      <c r="R55" s="85" t="s">
+        <v>29</v>
       </c>
-      <c r="S55" s="71"/>
-      <c r="T55" s="71"/>
-      <c r="U55" s="71"/>
-      <c r="V55" s="71"/>
-      <c r="W55" s="71"/>
-      <c r="X55" s="71"/>
-      <c r="Y55" s="71"/>
-      <c r="Z55" s="71"/>
-      <c r="AA55" s="71"/>
-      <c r="AB55" s="71"/>
-      <c r="AC55" s="71"/>
-      <c r="AD55" s="71"/>
-      <c r="AE55" s="71"/>
-      <c r="AF55" s="71"/>
-      <c r="AG55" s="71"/>
-      <c r="AH55" s="71"/>
-      <c r="AI55" s="71" t="s">
-        <v>153</v>
+      <c r="S55" s="85"/>
+      <c r="T55" s="85"/>
+      <c r="U55" s="85"/>
+      <c r="V55" s="85"/>
+      <c r="W55" s="85"/>
+      <c r="X55" s="85"/>
+      <c r="Y55" s="85"/>
+      <c r="Z55" s="85"/>
+      <c r="AA55" s="85"/>
+      <c r="AB55" s="85"/>
+      <c r="AC55" s="85"/>
+      <c r="AD55" s="85"/>
+      <c r="AE55" s="85"/>
+      <c r="AF55" s="85"/>
+      <c r="AG55" s="85"/>
+      <c r="AH55" s="85"/>
+      <c r="AI55" s="85" t="s">
+        <v>149</v>
       </c>
-      <c r="AJ55" s="71"/>
-      <c r="AK55" s="71"/>
-      <c r="AL55" s="71"/>
-      <c r="AM55" s="71"/>
-      <c r="AN55" s="71"/>
-      <c r="AO55" s="71"/>
-      <c r="AP55" s="71"/>
-      <c r="AQ55" s="72" t="s">
-        <v>153</v>
+      <c r="AJ55" s="85"/>
+      <c r="AK55" s="85"/>
+      <c r="AL55" s="85"/>
+      <c r="AM55" s="85"/>
+      <c r="AN55" s="85"/>
+      <c r="AO55" s="85"/>
+      <c r="AP55" s="85"/>
+      <c r="AQ55" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AR55" s="72"/>
-      <c r="AS55" s="72"/>
-      <c r="AT55" s="72"/>
-      <c r="AU55" s="72"/>
-      <c r="AV55" s="72"/>
-      <c r="AW55" s="72"/>
-      <c r="AX55" s="72" t="s">
-        <v>153</v>
+      <c r="AR55" s="86"/>
+      <c r="AS55" s="86"/>
+      <c r="AT55" s="86"/>
+      <c r="AU55" s="86"/>
+      <c r="AV55" s="86"/>
+      <c r="AW55" s="86"/>
+      <c r="AX55" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AY55" s="72"/>
-      <c r="AZ55" s="72"/>
-      <c r="BA55" s="72"/>
-      <c r="BB55" s="72"/>
-      <c r="BC55" s="73" t="s">
-        <v>153</v>
+      <c r="AY55" s="86"/>
+      <c r="AZ55" s="86"/>
+      <c r="BA55" s="86"/>
+      <c r="BB55" s="86"/>
+      <c r="BC55" s="87" t="s">
+        <v>149</v>
       </c>
-      <c r="BD55" s="73"/>
-      <c r="BE55" s="73"/>
-      <c r="BF55" s="73"/>
-      <c r="BG55" s="73"/>
-      <c r="BH55" s="73"/>
-      <c r="BI55" s="73"/>
-      <c r="BJ55" s="73"/>
-      <c r="BK55" s="73"/>
-      <c r="BL55" s="73"/>
-      <c r="BM55" s="73"/>
-      <c r="BN55" s="73"/>
-      <c r="BO55" s="73"/>
+      <c r="BD55" s="87"/>
+      <c r="BE55" s="87"/>
+      <c r="BF55" s="87"/>
+      <c r="BG55" s="87"/>
+      <c r="BH55" s="87"/>
+      <c r="BI55" s="87"/>
+      <c r="BJ55" s="87"/>
+      <c r="BK55" s="87"/>
+      <c r="BL55" s="87"/>
+      <c r="BM55" s="87"/>
+      <c r="BN55" s="87"/>
+      <c r="BO55" s="87"/>
       <c r="BP55" s="4"/>
     </row>
     <row r="56" spans="1:68" s="27" customFormat="1" ht="16.5" outlineLevel="1">
@@ -14827,85 +14808,85 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>19</v>
       </c>
-      <c r="C56" s="116" t="s">
+      <c r="C56" s="117" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56" s="118"/>
+      <c r="E56" s="118"/>
+      <c r="F56" s="118"/>
+      <c r="G56" s="118"/>
+      <c r="H56" s="118"/>
+      <c r="I56" s="119"/>
+      <c r="J56" s="120" t="s">
         <v>124</v>
       </c>
-      <c r="D56" s="117"/>
-      <c r="E56" s="117"/>
-      <c r="F56" s="117"/>
-      <c r="G56" s="117"/>
-      <c r="H56" s="117"/>
-      <c r="I56" s="118"/>
-      <c r="J56" s="119" t="s">
-        <v>128</v>
+      <c r="K56" s="121"/>
+      <c r="L56" s="121"/>
+      <c r="M56" s="121"/>
+      <c r="N56" s="121"/>
+      <c r="O56" s="121"/>
+      <c r="P56" s="121"/>
+      <c r="Q56" s="122"/>
+      <c r="R56" s="123" t="s">
+        <v>188</v>
       </c>
-      <c r="K56" s="120"/>
-      <c r="L56" s="120"/>
-      <c r="M56" s="120"/>
-      <c r="N56" s="120"/>
-      <c r="O56" s="120"/>
-      <c r="P56" s="120"/>
-      <c r="Q56" s="121"/>
-      <c r="R56" s="122" t="s">
-        <v>192</v>
+      <c r="S56" s="123"/>
+      <c r="T56" s="123"/>
+      <c r="U56" s="123"/>
+      <c r="V56" s="123"/>
+      <c r="W56" s="123"/>
+      <c r="X56" s="123"/>
+      <c r="Y56" s="123"/>
+      <c r="Z56" s="123"/>
+      <c r="AA56" s="123"/>
+      <c r="AB56" s="123"/>
+      <c r="AC56" s="123"/>
+      <c r="AD56" s="123"/>
+      <c r="AE56" s="123"/>
+      <c r="AF56" s="123"/>
+      <c r="AG56" s="123"/>
+      <c r="AH56" s="123"/>
+      <c r="AI56" s="123" t="s">
+        <v>149</v>
       </c>
-      <c r="S56" s="122"/>
-      <c r="T56" s="122"/>
-      <c r="U56" s="122"/>
-      <c r="V56" s="122"/>
-      <c r="W56" s="122"/>
-      <c r="X56" s="122"/>
-      <c r="Y56" s="122"/>
-      <c r="Z56" s="122"/>
-      <c r="AA56" s="122"/>
-      <c r="AB56" s="122"/>
-      <c r="AC56" s="122"/>
-      <c r="AD56" s="122"/>
-      <c r="AE56" s="122"/>
-      <c r="AF56" s="122"/>
-      <c r="AG56" s="122"/>
-      <c r="AH56" s="122"/>
-      <c r="AI56" s="122" t="s">
-        <v>153</v>
+      <c r="AJ56" s="123"/>
+      <c r="AK56" s="123"/>
+      <c r="AL56" s="123"/>
+      <c r="AM56" s="123"/>
+      <c r="AN56" s="123"/>
+      <c r="AO56" s="123"/>
+      <c r="AP56" s="123"/>
+      <c r="AQ56" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AJ56" s="122"/>
-      <c r="AK56" s="122"/>
-      <c r="AL56" s="122"/>
-      <c r="AM56" s="122"/>
-      <c r="AN56" s="122"/>
-      <c r="AO56" s="122"/>
-      <c r="AP56" s="122"/>
-      <c r="AQ56" s="72" t="s">
-        <v>153</v>
+      <c r="AR56" s="86"/>
+      <c r="AS56" s="86"/>
+      <c r="AT56" s="86"/>
+      <c r="AU56" s="86"/>
+      <c r="AV56" s="86"/>
+      <c r="AW56" s="86"/>
+      <c r="AX56" s="86" t="s">
+        <v>149</v>
       </c>
-      <c r="AR56" s="72"/>
-      <c r="AS56" s="72"/>
-      <c r="AT56" s="72"/>
-      <c r="AU56" s="72"/>
-      <c r="AV56" s="72"/>
-      <c r="AW56" s="72"/>
-      <c r="AX56" s="72" t="s">
-        <v>153</v>
+      <c r="AY56" s="86"/>
+      <c r="AZ56" s="86"/>
+      <c r="BA56" s="86"/>
+      <c r="BB56" s="86"/>
+      <c r="BC56" s="87" t="s">
+        <v>149</v>
       </c>
-      <c r="AY56" s="72"/>
-      <c r="AZ56" s="72"/>
-      <c r="BA56" s="72"/>
-      <c r="BB56" s="72"/>
-      <c r="BC56" s="73" t="s">
-        <v>153</v>
-      </c>
-      <c r="BD56" s="73"/>
-      <c r="BE56" s="73"/>
-      <c r="BF56" s="73"/>
-      <c r="BG56" s="73"/>
-      <c r="BH56" s="73"/>
-      <c r="BI56" s="73"/>
-      <c r="BJ56" s="73"/>
-      <c r="BK56" s="73"/>
-      <c r="BL56" s="73"/>
-      <c r="BM56" s="73"/>
-      <c r="BN56" s="73"/>
-      <c r="BO56" s="73"/>
+      <c r="BD56" s="87"/>
+      <c r="BE56" s="87"/>
+      <c r="BF56" s="87"/>
+      <c r="BG56" s="87"/>
+      <c r="BH56" s="87"/>
+      <c r="BI56" s="87"/>
+      <c r="BJ56" s="87"/>
+      <c r="BK56" s="87"/>
+      <c r="BL56" s="87"/>
+      <c r="BM56" s="87"/>
+      <c r="BN56" s="87"/>
+      <c r="BO56" s="87"/>
       <c r="BP56" s="4"/>
     </row>
     <row r="57" spans="1:68" ht="16.5">
@@ -14980,7 +14961,7 @@
     </row>
     <row r="58" spans="1:68" ht="16.5">
       <c r="A58" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -15192,7 +15173,7 @@
     </row>
     <row r="61" spans="1:68" ht="16.5">
       <c r="A61" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -15335,7 +15316,7 @@
     <row r="63" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A63" s="5"/>
       <c r="B63" s="16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -15408,7 +15389,7 @@
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -15481,7 +15462,7 @@
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
@@ -15554,7 +15535,7 @@
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
@@ -15626,7 +15607,7 @@
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
@@ -15698,7 +15679,7 @@
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
@@ -15769,7 +15750,7 @@
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
@@ -15842,7 +15823,7 @@
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
@@ -15913,7 +15894,7 @@
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
@@ -15986,7 +15967,7 @@
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
@@ -16057,7 +16038,7 @@
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
@@ -16130,7 +16111,7 @@
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
@@ -16200,7 +16181,7 @@
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="17" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -16273,7 +16254,7 @@
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="17" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
@@ -16346,7 +16327,7 @@
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
@@ -16418,7 +16399,7 @@
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="17" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
@@ -16490,7 +16471,7 @@
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="17" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
@@ -16561,7 +16542,7 @@
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="17" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
@@ -16634,7 +16615,7 @@
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
@@ -16706,7 +16687,7 @@
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="17" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
@@ -16778,7 +16759,7 @@
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="17" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
@@ -16849,7 +16830,7 @@
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
       <c r="D84" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
@@ -16922,7 +16903,7 @@
       <c r="C85" s="17"/>
       <c r="D85" s="17"/>
       <c r="E85" s="17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F85" s="17"/>
       <c r="G85" s="17"/>
@@ -16994,7 +16975,7 @@
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
       <c r="E86" s="17" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F86" s="17"/>
       <c r="G86" s="17"/>
@@ -17066,7 +17047,7 @@
       <c r="C87" s="17"/>
       <c r="D87" s="17"/>
       <c r="E87" s="17" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F87" s="17"/>
       <c r="G87" s="17"/>
@@ -17136,7 +17117,7 @@
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -17209,7 +17190,7 @@
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5"/>
@@ -17282,7 +17263,7 @@
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="17" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
@@ -17354,7 +17335,7 @@
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
@@ -17426,7 +17407,7 @@
       <c r="C92" s="17"/>
       <c r="D92" s="17"/>
       <c r="E92" s="17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F92" s="17"/>
       <c r="G92" s="17"/>
@@ -17496,7 +17477,7 @@
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="17" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -17870,16 +17851,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="29" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -17888,16 +17869,16 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -17906,16 +17887,16 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -17924,14 +17905,14 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C4" s="32"/>
       <c r="D4" s="33" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -17940,14 +17921,14 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="18" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="32"/>
       <c r="D5" s="33" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -17956,10 +17937,10 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="A6" s="18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C6" s="32"/>
       <c r="D6" s="33"/>
@@ -17971,7 +17952,7 @@
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="18"/>
       <c r="B7" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C7" s="32"/>
       <c r="D7" s="33"/>
@@ -17983,7 +17964,7 @@
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="A8" s="18"/>
       <c r="B8" s="18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C8" s="32"/>
       <c r="D8" s="33"/>
@@ -17995,7 +17976,7 @@
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="18"/>
       <c r="B9" s="18" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="33"/>
@@ -18007,7 +17988,7 @@
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="18"/>
       <c r="B10" s="18" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="33"/>
@@ -18019,7 +18000,7 @@
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="18"/>
       <c r="B11" s="18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C11" s="32"/>
       <c r="D11" s="33"/>
@@ -18031,7 +18012,7 @@
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="A12" s="18"/>
       <c r="B12" s="18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="33"/>
@@ -18043,7 +18024,7 @@
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="18"/>
       <c r="B13" s="18" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="33"/>
@@ -18055,7 +18036,7 @@
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="18"/>
       <c r="B14" s="18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="33"/>
@@ -18067,7 +18048,7 @@
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="A15" s="18"/>
       <c r="B15" s="18" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="33"/>
@@ -18079,7 +18060,7 @@
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="A16" s="18"/>
       <c r="B16" s="18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C16" s="32"/>
       <c r="D16" s="33"/>
@@ -18091,7 +18072,7 @@
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="A17" s="18"/>
       <c r="B17" s="18" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="33"/>
@@ -18103,7 +18084,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="A18" s="18"/>
       <c r="B18" s="18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="33"/>
@@ -18115,7 +18096,7 @@
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="A19" s="18"/>
       <c r="B19" s="18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="33"/>
@@ -18127,7 +18108,7 @@
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="A20" s="18"/>
       <c r="B20" s="18" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C20" s="32"/>
       <c r="D20" s="33"/>
@@ -18139,7 +18120,7 @@
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="A21" s="18"/>
       <c r="B21" s="18" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C21" s="32"/>
       <c r="D21" s="33"/>
@@ -18151,7 +18132,7 @@
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="A22" s="18"/>
       <c r="B22" s="18" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C22" s="32"/>
       <c r="D22" s="33"/>
@@ -18163,7 +18144,7 @@
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="A23" s="18"/>
       <c r="B23" s="18" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C23" s="32"/>
       <c r="D23" s="33"/>

--- a/ha-asset/01_design/01_dashboard/設計書_1.0.ログイン機能.xlsx
+++ b/ha-asset/01_design/01_dashboard/設計書_1.0.ログイン機能.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\01_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF6999F-D47A-46EB-9643-0F0F97D1658F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115F7C7D-B53C-4928-8235-BF90F03B6116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="690" windowWidth="20580" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="270" yWindow="480" windowWidth="20580" windowHeight="15345" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0.更新履歴'!$A$1:$AA$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'1.機能一覧'!$A$1:$AW$9</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2.1.ログイン画面'!$A$1:$BP$77</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'2.2.Top画面'!$A$1:$BP$95</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'2.2.Top画面'!$A$1:$BP$97</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="206">
   <si>
     <t>更新日時</t>
   </si>
@@ -428,13 +428,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>ヘッダー部</t>
-    <rPh sb="4" eb="5">
-      <t>ブ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>設計書_1.7.パスワード再設定機能 参照</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -739,10 +732,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>フッター部</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>本画面へ遷移</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -823,6 +812,28 @@
   </si>
   <si>
     <t>機能一覧シート最新化</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>▼ヘッダー部</t>
+    <rPh sb="5" eb="6">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>▲ヘッダー部</t>
+    <rPh sb="5" eb="6">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>▲フッター部</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>▼フッター部</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -1721,6 +1732,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1803,15 +1823,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2138,7 +2149,7 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -2367,7 +2378,7 @@
       <c r="H7" s="36"/>
       <c r="I7" s="37"/>
       <c r="J7" s="38" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K7" s="36"/>
       <c r="L7" s="36"/>
@@ -2403,7 +2414,7 @@
       <c r="H8" s="36"/>
       <c r="I8" s="37"/>
       <c r="J8" s="35" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K8" s="36"/>
       <c r="L8" s="36"/>
@@ -3383,7 +3394,7 @@
     <row r="6" spans="1:49" ht="15.75" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="34" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3437,7 +3448,7 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -6592,7 +6603,7 @@
       <c r="J25" s="46"/>
       <c r="K25" s="47"/>
       <c r="L25" s="45" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M25" s="46"/>
       <c r="N25" s="46"/>
@@ -6685,7 +6696,7 @@
       <c r="P26" s="52"/>
       <c r="Q26" s="52"/>
       <c r="R26" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S26" s="52"/>
       <c r="T26" s="52"/>
@@ -7284,7 +7295,7 @@
       <c r="H34" s="56"/>
       <c r="I34" s="56"/>
       <c r="J34" s="56" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K34" s="56"/>
       <c r="L34" s="56"/>
@@ -7294,7 +7305,7 @@
       <c r="P34" s="56"/>
       <c r="Q34" s="56"/>
       <c r="R34" s="56" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="S34" s="56"/>
       <c r="T34" s="56"/>
@@ -7313,7 +7324,7 @@
       <c r="AG34" s="56"/>
       <c r="AH34" s="56"/>
       <c r="AI34" s="56" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AJ34" s="56"/>
       <c r="AK34" s="56"/>
@@ -7323,7 +7334,7 @@
       <c r="AO34" s="56"/>
       <c r="AP34" s="56"/>
       <c r="AQ34" s="56" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AR34" s="56"/>
       <c r="AS34" s="56"/>
@@ -7395,7 +7406,7 @@
       <c r="AO35" s="56"/>
       <c r="AP35" s="56"/>
       <c r="AQ35" s="56" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AR35" s="56"/>
       <c r="AS35" s="56"/>
@@ -7404,14 +7415,14 @@
       <c r="AV35" s="56"/>
       <c r="AW35" s="56"/>
       <c r="AX35" s="56" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AY35" s="56"/>
       <c r="AZ35" s="56"/>
       <c r="BA35" s="56"/>
       <c r="BB35" s="56"/>
       <c r="BC35" s="56" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="BD35" s="56"/>
       <c r="BE35" s="56"/>
@@ -7434,7 +7445,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D36" s="64"/>
       <c r="E36" s="64"/>
@@ -7509,7 +7520,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="60" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D37" s="61"/>
       <c r="E37" s="61"/>
@@ -7518,7 +7529,7 @@
       <c r="H37" s="61"/>
       <c r="I37" s="62"/>
       <c r="J37" s="63" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K37" s="64"/>
       <c r="L37" s="64"/>
@@ -7545,7 +7556,7 @@
       <c r="AG37" s="64"/>
       <c r="AH37" s="65"/>
       <c r="AI37" s="64" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AJ37" s="64"/>
       <c r="AK37" s="64"/>
@@ -7555,7 +7566,7 @@
       <c r="AO37" s="64"/>
       <c r="AP37" s="65"/>
       <c r="AQ37" s="66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AR37" s="58"/>
       <c r="AS37" s="58"/>
@@ -7569,7 +7580,7 @@
       <c r="BA37" s="58"/>
       <c r="BB37" s="58"/>
       <c r="BC37" s="59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BD37" s="59"/>
       <c r="BE37" s="59"/>
@@ -7632,7 +7643,7 @@
       <c r="AO38" s="71"/>
       <c r="AP38" s="72"/>
       <c r="AQ38" s="66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AR38" s="58"/>
       <c r="AS38" s="58"/>
@@ -7646,7 +7657,7 @@
       <c r="BA38" s="58"/>
       <c r="BB38" s="58"/>
       <c r="BC38" s="59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BD38" s="59"/>
       <c r="BE38" s="59"/>
@@ -7701,7 +7712,7 @@
       <c r="AG39" s="69"/>
       <c r="AH39" s="70"/>
       <c r="AI39" s="64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AJ39" s="64"/>
       <c r="AK39" s="64"/>
@@ -7711,7 +7722,7 @@
       <c r="AO39" s="64"/>
       <c r="AP39" s="65"/>
       <c r="AQ39" s="66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AR39" s="58"/>
       <c r="AS39" s="58"/>
@@ -7725,7 +7736,7 @@
       <c r="BA39" s="58"/>
       <c r="BB39" s="58"/>
       <c r="BC39" s="59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BD39" s="59"/>
       <c r="BE39" s="59"/>
@@ -7788,7 +7799,7 @@
       <c r="AO40" s="71"/>
       <c r="AP40" s="72"/>
       <c r="AQ40" s="66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AR40" s="58"/>
       <c r="AS40" s="58"/>
@@ -7802,7 +7813,7 @@
       <c r="BA40" s="58"/>
       <c r="BB40" s="58"/>
       <c r="BC40" s="59" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BD40" s="59"/>
       <c r="BE40" s="59"/>
@@ -7857,7 +7868,7 @@
       <c r="AG41" s="69"/>
       <c r="AH41" s="70"/>
       <c r="AI41" s="64" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ41" s="64"/>
       <c r="AK41" s="64"/>
@@ -7867,7 +7878,7 @@
       <c r="AO41" s="64"/>
       <c r="AP41" s="65"/>
       <c r="AQ41" s="66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AR41" s="58"/>
       <c r="AS41" s="58"/>
@@ -7881,7 +7892,7 @@
       <c r="BA41" s="58"/>
       <c r="BB41" s="58"/>
       <c r="BC41" s="59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BD41" s="59"/>
       <c r="BE41" s="59"/>
@@ -7944,7 +7955,7 @@
       <c r="AO42" s="71"/>
       <c r="AP42" s="72"/>
       <c r="AQ42" s="66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AR42" s="58"/>
       <c r="AS42" s="58"/>
@@ -7958,7 +7969,7 @@
       <c r="BA42" s="58"/>
       <c r="BB42" s="58"/>
       <c r="BC42" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BD42" s="59"/>
       <c r="BE42" s="59"/>
@@ -7988,7 +7999,7 @@
       <c r="H43" s="69"/>
       <c r="I43" s="70"/>
       <c r="J43" s="72" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K43" s="73"/>
       <c r="L43" s="73"/>
@@ -7998,7 +8009,7 @@
       <c r="P43" s="73"/>
       <c r="Q43" s="73"/>
       <c r="R43" s="74" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S43" s="74"/>
       <c r="T43" s="74"/>
@@ -8065,7 +8076,7 @@
       <c r="H44" s="69"/>
       <c r="I44" s="69"/>
       <c r="J44" s="67" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K44" s="67"/>
       <c r="L44" s="67"/>
@@ -8092,7 +8103,7 @@
       <c r="AG44" s="64"/>
       <c r="AH44" s="64"/>
       <c r="AI44" s="63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AJ44" s="64"/>
       <c r="AK44" s="64"/>
@@ -8102,7 +8113,7 @@
       <c r="AO44" s="64"/>
       <c r="AP44" s="65"/>
       <c r="AQ44" s="66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AR44" s="58"/>
       <c r="AS44" s="58"/>
@@ -8111,14 +8122,14 @@
       <c r="AV44" s="58"/>
       <c r="AW44" s="58"/>
       <c r="AX44" s="58" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AY44" s="58"/>
       <c r="AZ44" s="58"/>
       <c r="BA44" s="58"/>
       <c r="BB44" s="58"/>
       <c r="BC44" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="BD44" s="59"/>
       <c r="BE44" s="59"/>
@@ -8181,7 +8192,7 @@
       <c r="AO45" s="69"/>
       <c r="AP45" s="70"/>
       <c r="AQ45" s="66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AR45" s="58"/>
       <c r="AS45" s="58"/>
@@ -8190,14 +8201,14 @@
       <c r="AV45" s="58"/>
       <c r="AW45" s="58"/>
       <c r="AX45" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AY45" s="58"/>
       <c r="AZ45" s="58"/>
       <c r="BA45" s="58"/>
       <c r="BB45" s="58"/>
       <c r="BC45" s="59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BD45" s="59"/>
       <c r="BE45" s="59"/>
@@ -8260,7 +8271,7 @@
       <c r="AO46" s="69"/>
       <c r="AP46" s="70"/>
       <c r="AQ46" s="66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AR46" s="58"/>
       <c r="AS46" s="58"/>
@@ -8269,14 +8280,14 @@
       <c r="AV46" s="58"/>
       <c r="AW46" s="58"/>
       <c r="AX46" s="58" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AY46" s="58"/>
       <c r="AZ46" s="58"/>
       <c r="BA46" s="58"/>
       <c r="BB46" s="58"/>
       <c r="BC46" s="59" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="BD46" s="59"/>
       <c r="BE46" s="59"/>
@@ -8339,7 +8350,7 @@
       <c r="AO47" s="71"/>
       <c r="AP47" s="72"/>
       <c r="AQ47" s="66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AR47" s="58"/>
       <c r="AS47" s="58"/>
@@ -8348,14 +8359,14 @@
       <c r="AV47" s="58"/>
       <c r="AW47" s="58"/>
       <c r="AX47" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AY47" s="58"/>
       <c r="AZ47" s="58"/>
       <c r="BA47" s="58"/>
       <c r="BB47" s="58"/>
       <c r="BC47" s="59" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BD47" s="59"/>
       <c r="BE47" s="59"/>
@@ -8385,7 +8396,7 @@
       <c r="H48" s="69"/>
       <c r="I48" s="70"/>
       <c r="J48" s="70" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K48" s="74"/>
       <c r="L48" s="74"/>
@@ -8460,7 +8471,7 @@
       <c r="H49" s="69"/>
       <c r="I49" s="69"/>
       <c r="J49" s="63" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K49" s="64"/>
       <c r="L49" s="64"/>
@@ -8470,7 +8481,7 @@
       <c r="P49" s="64"/>
       <c r="Q49" s="65"/>
       <c r="R49" s="84" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="S49" s="64"/>
       <c r="T49" s="64"/>
@@ -8545,7 +8556,7 @@
       <c r="P50" s="71"/>
       <c r="Q50" s="72"/>
       <c r="R50" s="64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="S50" s="64"/>
       <c r="T50" s="64"/>
@@ -8605,7 +8616,7 @@
         <v>16</v>
       </c>
       <c r="C51" s="76" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D51" s="77"/>
       <c r="E51" s="77"/>
@@ -8624,7 +8635,7 @@
       <c r="P51" s="92"/>
       <c r="Q51" s="93"/>
       <c r="R51" s="94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S51" s="95"/>
       <c r="T51" s="95"/>
@@ -8703,7 +8714,7 @@
       <c r="P52" s="86"/>
       <c r="Q52" s="87"/>
       <c r="R52" s="88" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="S52" s="89"/>
       <c r="T52" s="89"/>
@@ -8972,7 +8983,7 @@
     <row r="56" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A56" s="2"/>
       <c r="B56" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -9406,7 +9417,7 @@
       <c r="B62" s="8"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
@@ -9546,7 +9557,7 @@
     <row r="64" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A64" s="2"/>
       <c r="B64" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -10755,10 +10766,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BP94"/>
+  <dimension ref="A1:BP96"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:AR30"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:AR34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" outlineLevelRow="1"/>
@@ -10911,35 +10922,35 @@
     </row>
     <row r="3" spans="1:68" ht="16.5">
       <c r="A3" s="3"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
-      <c r="U3" s="101"/>
-      <c r="V3" s="101"/>
-      <c r="W3" s="101"/>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="101"/>
-      <c r="Z3" s="101"/>
-      <c r="AA3" s="101"/>
-      <c r="AB3" s="101"/>
-      <c r="AC3" s="101"/>
-      <c r="AD3" s="102"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="104"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
+      <c r="R3" s="104"/>
+      <c r="S3" s="104"/>
+      <c r="T3" s="104"/>
+      <c r="U3" s="104"/>
+      <c r="V3" s="104"/>
+      <c r="W3" s="104"/>
+      <c r="X3" s="104"/>
+      <c r="Y3" s="104"/>
+      <c r="Z3" s="104"/>
+      <c r="AA3" s="104"/>
+      <c r="AB3" s="104"/>
+      <c r="AC3" s="104"/>
+      <c r="AD3" s="105"/>
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
@@ -10981,35 +10992,35 @@
     </row>
     <row r="4" spans="1:68" ht="16.5">
       <c r="A4" s="3"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="104"/>
-      <c r="W4" s="104"/>
-      <c r="X4" s="104"/>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="105"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="107"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="107"/>
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="107"/>
+      <c r="AB4" s="107"/>
+      <c r="AC4" s="107"/>
+      <c r="AD4" s="108"/>
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
@@ -11051,35 +11062,35 @@
     </row>
     <row r="5" spans="1:68" ht="16.5">
       <c r="A5" s="3"/>
-      <c r="B5" s="103"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="104"/>
-      <c r="S5" s="104"/>
-      <c r="T5" s="104"/>
-      <c r="U5" s="104"/>
-      <c r="V5" s="104"/>
-      <c r="W5" s="104"/>
-      <c r="X5" s="104"/>
-      <c r="Y5" s="104"/>
-      <c r="Z5" s="104"/>
-      <c r="AA5" s="104"/>
-      <c r="AB5" s="104"/>
-      <c r="AC5" s="104"/>
-      <c r="AD5" s="105"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
+      <c r="X5" s="107"/>
+      <c r="Y5" s="107"/>
+      <c r="Z5" s="107"/>
+      <c r="AA5" s="107"/>
+      <c r="AB5" s="107"/>
+      <c r="AC5" s="107"/>
+      <c r="AD5" s="108"/>
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
@@ -11121,35 +11132,35 @@
     </row>
     <row r="6" spans="1:68" ht="16.5">
       <c r="A6" s="3"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104"/>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
-      <c r="Z6" s="104"/>
-      <c r="AA6" s="104"/>
-      <c r="AB6" s="104"/>
-      <c r="AC6" s="104"/>
-      <c r="AD6" s="105"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="107"/>
+      <c r="R6" s="107"/>
+      <c r="S6" s="107"/>
+      <c r="T6" s="107"/>
+      <c r="U6" s="107"/>
+      <c r="V6" s="107"/>
+      <c r="W6" s="107"/>
+      <c r="X6" s="107"/>
+      <c r="Y6" s="107"/>
+      <c r="Z6" s="107"/>
+      <c r="AA6" s="107"/>
+      <c r="AB6" s="107"/>
+      <c r="AC6" s="107"/>
+      <c r="AD6" s="108"/>
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
@@ -11191,35 +11202,35 @@
     </row>
     <row r="7" spans="1:68" ht="16.5">
       <c r="A7" s="3"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="104"/>
-      <c r="V7" s="104"/>
-      <c r="W7" s="104"/>
-      <c r="X7" s="104"/>
-      <c r="Y7" s="104"/>
-      <c r="Z7" s="104"/>
-      <c r="AA7" s="104"/>
-      <c r="AB7" s="104"/>
-      <c r="AC7" s="104"/>
-      <c r="AD7" s="105"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="107"/>
+      <c r="AB7" s="107"/>
+      <c r="AC7" s="107"/>
+      <c r="AD7" s="108"/>
       <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
@@ -11261,35 +11272,35 @@
     </row>
     <row r="8" spans="1:68" ht="16.5">
       <c r="A8" s="3"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="104"/>
-      <c r="W8" s="104"/>
-      <c r="X8" s="104"/>
-      <c r="Y8" s="104"/>
-      <c r="Z8" s="104"/>
-      <c r="AA8" s="104"/>
-      <c r="AB8" s="104"/>
-      <c r="AC8" s="104"/>
-      <c r="AD8" s="105"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="107"/>
+      <c r="W8" s="107"/>
+      <c r="X8" s="107"/>
+      <c r="Y8" s="107"/>
+      <c r="Z8" s="107"/>
+      <c r="AA8" s="107"/>
+      <c r="AB8" s="107"/>
+      <c r="AC8" s="107"/>
+      <c r="AD8" s="108"/>
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
@@ -11331,35 +11342,35 @@
     </row>
     <row r="9" spans="1:68" ht="16.5">
       <c r="A9" s="3"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104"/>
-      <c r="U9" s="104"/>
-      <c r="V9" s="104"/>
-      <c r="W9" s="104"/>
-      <c r="X9" s="104"/>
-      <c r="Y9" s="104"/>
-      <c r="Z9" s="104"/>
-      <c r="AA9" s="104"/>
-      <c r="AB9" s="104"/>
-      <c r="AC9" s="104"/>
-      <c r="AD9" s="105"/>
+      <c r="B9" s="106"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="107"/>
+      <c r="T9" s="107"/>
+      <c r="U9" s="107"/>
+      <c r="V9" s="107"/>
+      <c r="W9" s="107"/>
+      <c r="X9" s="107"/>
+      <c r="Y9" s="107"/>
+      <c r="Z9" s="107"/>
+      <c r="AA9" s="107"/>
+      <c r="AB9" s="107"/>
+      <c r="AC9" s="107"/>
+      <c r="AD9" s="108"/>
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
@@ -11401,35 +11412,35 @@
     </row>
     <row r="10" spans="1:68" ht="16.5">
       <c r="A10" s="3"/>
-      <c r="B10" s="103"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="104"/>
-      <c r="V10" s="104"/>
-      <c r="W10" s="104"/>
-      <c r="X10" s="104"/>
-      <c r="Y10" s="104"/>
-      <c r="Z10" s="104"/>
-      <c r="AA10" s="104"/>
-      <c r="AB10" s="104"/>
-      <c r="AC10" s="104"/>
-      <c r="AD10" s="105"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="107"/>
+      <c r="Q10" s="107"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="107"/>
+      <c r="T10" s="107"/>
+      <c r="U10" s="107"/>
+      <c r="V10" s="107"/>
+      <c r="W10" s="107"/>
+      <c r="X10" s="107"/>
+      <c r="Y10" s="107"/>
+      <c r="Z10" s="107"/>
+      <c r="AA10" s="107"/>
+      <c r="AB10" s="107"/>
+      <c r="AC10" s="107"/>
+      <c r="AD10" s="108"/>
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
@@ -11471,35 +11482,35 @@
     </row>
     <row r="11" spans="1:68" ht="16.5">
       <c r="A11" s="3"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="104"/>
-      <c r="M11" s="104"/>
-      <c r="N11" s="104"/>
-      <c r="O11" s="104"/>
-      <c r="P11" s="104"/>
-      <c r="Q11" s="104"/>
-      <c r="R11" s="104"/>
-      <c r="S11" s="104"/>
-      <c r="T11" s="104"/>
-      <c r="U11" s="104"/>
-      <c r="V11" s="104"/>
-      <c r="W11" s="104"/>
-      <c r="X11" s="104"/>
-      <c r="Y11" s="104"/>
-      <c r="Z11" s="104"/>
-      <c r="AA11" s="104"/>
-      <c r="AB11" s="104"/>
-      <c r="AC11" s="104"/>
-      <c r="AD11" s="105"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="107"/>
+      <c r="M11" s="107"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="107"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="107"/>
+      <c r="W11" s="107"/>
+      <c r="X11" s="107"/>
+      <c r="Y11" s="107"/>
+      <c r="Z11" s="107"/>
+      <c r="AA11" s="107"/>
+      <c r="AB11" s="107"/>
+      <c r="AC11" s="107"/>
+      <c r="AD11" s="108"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
       <c r="AG11" s="3"/>
@@ -11541,35 +11552,35 @@
     </row>
     <row r="12" spans="1:68" ht="16.5">
       <c r="A12" s="3"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="104"/>
-      <c r="M12" s="104"/>
-      <c r="N12" s="104"/>
-      <c r="O12" s="104"/>
-      <c r="P12" s="104"/>
-      <c r="Q12" s="104"/>
-      <c r="R12" s="104"/>
-      <c r="S12" s="104"/>
-      <c r="T12" s="104"/>
-      <c r="U12" s="104"/>
-      <c r="V12" s="104"/>
-      <c r="W12" s="104"/>
-      <c r="X12" s="104"/>
-      <c r="Y12" s="104"/>
-      <c r="Z12" s="104"/>
-      <c r="AA12" s="104"/>
-      <c r="AB12" s="104"/>
-      <c r="AC12" s="104"/>
-      <c r="AD12" s="105"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="107"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="107"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="107"/>
+      <c r="X12" s="107"/>
+      <c r="Y12" s="107"/>
+      <c r="Z12" s="107"/>
+      <c r="AA12" s="107"/>
+      <c r="AB12" s="107"/>
+      <c r="AC12" s="107"/>
+      <c r="AD12" s="108"/>
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
       <c r="AG12" s="3"/>
@@ -11611,35 +11622,35 @@
     </row>
     <row r="13" spans="1:68" ht="16.5">
       <c r="A13" s="3"/>
-      <c r="B13" s="103"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="104"/>
-      <c r="M13" s="104"/>
-      <c r="N13" s="104"/>
-      <c r="O13" s="104"/>
-      <c r="P13" s="104"/>
-      <c r="Q13" s="104"/>
-      <c r="R13" s="104"/>
-      <c r="S13" s="104"/>
-      <c r="T13" s="104"/>
-      <c r="U13" s="104"/>
-      <c r="V13" s="104"/>
-      <c r="W13" s="104"/>
-      <c r="X13" s="104"/>
-      <c r="Y13" s="104"/>
-      <c r="Z13" s="104"/>
-      <c r="AA13" s="104"/>
-      <c r="AB13" s="104"/>
-      <c r="AC13" s="104"/>
-      <c r="AD13" s="105"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="107"/>
+      <c r="Q13" s="107"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="107"/>
+      <c r="W13" s="107"/>
+      <c r="X13" s="107"/>
+      <c r="Y13" s="107"/>
+      <c r="Z13" s="107"/>
+      <c r="AA13" s="107"/>
+      <c r="AB13" s="107"/>
+      <c r="AC13" s="107"/>
+      <c r="AD13" s="108"/>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
       <c r="AG13" s="3"/>
@@ -11681,35 +11692,35 @@
     </row>
     <row r="14" spans="1:68" ht="16.5">
       <c r="A14" s="3"/>
-      <c r="B14" s="103"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="104"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="104"/>
-      <c r="P14" s="104"/>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="104"/>
-      <c r="S14" s="104"/>
-      <c r="T14" s="104"/>
-      <c r="U14" s="104"/>
-      <c r="V14" s="104"/>
-      <c r="W14" s="104"/>
-      <c r="X14" s="104"/>
-      <c r="Y14" s="104"/>
-      <c r="Z14" s="104"/>
-      <c r="AA14" s="104"/>
-      <c r="AB14" s="104"/>
-      <c r="AC14" s="104"/>
-      <c r="AD14" s="105"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="107"/>
+      <c r="Q14" s="107"/>
+      <c r="R14" s="107"/>
+      <c r="S14" s="107"/>
+      <c r="T14" s="107"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="107"/>
+      <c r="W14" s="107"/>
+      <c r="X14" s="107"/>
+      <c r="Y14" s="107"/>
+      <c r="Z14" s="107"/>
+      <c r="AA14" s="107"/>
+      <c r="AB14" s="107"/>
+      <c r="AC14" s="107"/>
+      <c r="AD14" s="108"/>
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
@@ -11751,35 +11762,35 @@
     </row>
     <row r="15" spans="1:68" ht="16.5">
       <c r="A15" s="3"/>
-      <c r="B15" s="103"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="104"/>
-      <c r="M15" s="104"/>
-      <c r="N15" s="104"/>
-      <c r="O15" s="104"/>
-      <c r="P15" s="104"/>
-      <c r="Q15" s="104"/>
-      <c r="R15" s="104"/>
-      <c r="S15" s="104"/>
-      <c r="T15" s="104"/>
-      <c r="U15" s="104"/>
-      <c r="V15" s="104"/>
-      <c r="W15" s="104"/>
-      <c r="X15" s="104"/>
-      <c r="Y15" s="104"/>
-      <c r="Z15" s="104"/>
-      <c r="AA15" s="104"/>
-      <c r="AB15" s="104"/>
-      <c r="AC15" s="104"/>
-      <c r="AD15" s="105"/>
+      <c r="B15" s="106"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="107"/>
+      <c r="P15" s="107"/>
+      <c r="Q15" s="107"/>
+      <c r="R15" s="107"/>
+      <c r="S15" s="107"/>
+      <c r="T15" s="107"/>
+      <c r="U15" s="107"/>
+      <c r="V15" s="107"/>
+      <c r="W15" s="107"/>
+      <c r="X15" s="107"/>
+      <c r="Y15" s="107"/>
+      <c r="Z15" s="107"/>
+      <c r="AA15" s="107"/>
+      <c r="AB15" s="107"/>
+      <c r="AC15" s="107"/>
+      <c r="AD15" s="108"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
@@ -11821,35 +11832,35 @@
     </row>
     <row r="16" spans="1:68" ht="16.5">
       <c r="A16" s="3"/>
-      <c r="B16" s="103"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="104"/>
-      <c r="M16" s="104"/>
-      <c r="N16" s="104"/>
-      <c r="O16" s="104"/>
-      <c r="P16" s="104"/>
-      <c r="Q16" s="104"/>
-      <c r="R16" s="104"/>
-      <c r="S16" s="104"/>
-      <c r="T16" s="104"/>
-      <c r="U16" s="104"/>
-      <c r="V16" s="104"/>
-      <c r="W16" s="104"/>
-      <c r="X16" s="104"/>
-      <c r="Y16" s="104"/>
-      <c r="Z16" s="104"/>
-      <c r="AA16" s="104"/>
-      <c r="AB16" s="104"/>
-      <c r="AC16" s="104"/>
-      <c r="AD16" s="105"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="107"/>
+      <c r="P16" s="107"/>
+      <c r="Q16" s="107"/>
+      <c r="R16" s="107"/>
+      <c r="S16" s="107"/>
+      <c r="T16" s="107"/>
+      <c r="U16" s="107"/>
+      <c r="V16" s="107"/>
+      <c r="W16" s="107"/>
+      <c r="X16" s="107"/>
+      <c r="Y16" s="107"/>
+      <c r="Z16" s="107"/>
+      <c r="AA16" s="107"/>
+      <c r="AB16" s="107"/>
+      <c r="AC16" s="107"/>
+      <c r="AD16" s="108"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
@@ -11891,35 +11902,35 @@
     </row>
     <row r="17" spans="1:68" ht="16.5">
       <c r="A17" s="3"/>
-      <c r="B17" s="103"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="104"/>
-      <c r="M17" s="104"/>
-      <c r="N17" s="104"/>
-      <c r="O17" s="104"/>
-      <c r="P17" s="104"/>
-      <c r="Q17" s="104"/>
-      <c r="R17" s="104"/>
-      <c r="S17" s="104"/>
-      <c r="T17" s="104"/>
-      <c r="U17" s="104"/>
-      <c r="V17" s="104"/>
-      <c r="W17" s="104"/>
-      <c r="X17" s="104"/>
-      <c r="Y17" s="104"/>
-      <c r="Z17" s="104"/>
-      <c r="AA17" s="104"/>
-      <c r="AB17" s="104"/>
-      <c r="AC17" s="104"/>
-      <c r="AD17" s="105"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="107"/>
+      <c r="N17" s="107"/>
+      <c r="O17" s="107"/>
+      <c r="P17" s="107"/>
+      <c r="Q17" s="107"/>
+      <c r="R17" s="107"/>
+      <c r="S17" s="107"/>
+      <c r="T17" s="107"/>
+      <c r="U17" s="107"/>
+      <c r="V17" s="107"/>
+      <c r="W17" s="107"/>
+      <c r="X17" s="107"/>
+      <c r="Y17" s="107"/>
+      <c r="Z17" s="107"/>
+      <c r="AA17" s="107"/>
+      <c r="AB17" s="107"/>
+      <c r="AC17" s="107"/>
+      <c r="AD17" s="108"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
@@ -11961,35 +11972,35 @@
     </row>
     <row r="18" spans="1:68" ht="16.5">
       <c r="A18" s="3"/>
-      <c r="B18" s="103"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="104"/>
-      <c r="M18" s="104"/>
-      <c r="N18" s="104"/>
-      <c r="O18" s="104"/>
-      <c r="P18" s="104"/>
-      <c r="Q18" s="104"/>
-      <c r="R18" s="104"/>
-      <c r="S18" s="104"/>
-      <c r="T18" s="104"/>
-      <c r="U18" s="104"/>
-      <c r="V18" s="104"/>
-      <c r="W18" s="104"/>
-      <c r="X18" s="104"/>
-      <c r="Y18" s="104"/>
-      <c r="Z18" s="104"/>
-      <c r="AA18" s="104"/>
-      <c r="AB18" s="104"/>
-      <c r="AC18" s="104"/>
-      <c r="AD18" s="105"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="107"/>
+      <c r="P18" s="107"/>
+      <c r="Q18" s="107"/>
+      <c r="R18" s="107"/>
+      <c r="S18" s="107"/>
+      <c r="T18" s="107"/>
+      <c r="U18" s="107"/>
+      <c r="V18" s="107"/>
+      <c r="W18" s="107"/>
+      <c r="X18" s="107"/>
+      <c r="Y18" s="107"/>
+      <c r="Z18" s="107"/>
+      <c r="AA18" s="107"/>
+      <c r="AB18" s="107"/>
+      <c r="AC18" s="107"/>
+      <c r="AD18" s="108"/>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
@@ -12031,35 +12042,35 @@
     </row>
     <row r="19" spans="1:68" ht="16.5">
       <c r="A19" s="3"/>
-      <c r="B19" s="103"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="104"/>
-      <c r="K19" s="104"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="104"/>
-      <c r="N19" s="104"/>
-      <c r="O19" s="104"/>
-      <c r="P19" s="104"/>
-      <c r="Q19" s="104"/>
-      <c r="R19" s="104"/>
-      <c r="S19" s="104"/>
-      <c r="T19" s="104"/>
-      <c r="U19" s="104"/>
-      <c r="V19" s="104"/>
-      <c r="W19" s="104"/>
-      <c r="X19" s="104"/>
-      <c r="Y19" s="104"/>
-      <c r="Z19" s="104"/>
-      <c r="AA19" s="104"/>
-      <c r="AB19" s="104"/>
-      <c r="AC19" s="104"/>
-      <c r="AD19" s="105"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="107"/>
+      <c r="N19" s="107"/>
+      <c r="O19" s="107"/>
+      <c r="P19" s="107"/>
+      <c r="Q19" s="107"/>
+      <c r="R19" s="107"/>
+      <c r="S19" s="107"/>
+      <c r="T19" s="107"/>
+      <c r="U19" s="107"/>
+      <c r="V19" s="107"/>
+      <c r="W19" s="107"/>
+      <c r="X19" s="107"/>
+      <c r="Y19" s="107"/>
+      <c r="Z19" s="107"/>
+      <c r="AA19" s="107"/>
+      <c r="AB19" s="107"/>
+      <c r="AC19" s="107"/>
+      <c r="AD19" s="108"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
@@ -12101,35 +12112,35 @@
     </row>
     <row r="20" spans="1:68" ht="16.5">
       <c r="A20" s="3"/>
-      <c r="B20" s="103"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="104"/>
-      <c r="K20" s="104"/>
-      <c r="L20" s="104"/>
-      <c r="M20" s="104"/>
-      <c r="N20" s="104"/>
-      <c r="O20" s="104"/>
-      <c r="P20" s="104"/>
-      <c r="Q20" s="104"/>
-      <c r="R20" s="104"/>
-      <c r="S20" s="104"/>
-      <c r="T20" s="104"/>
-      <c r="U20" s="104"/>
-      <c r="V20" s="104"/>
-      <c r="W20" s="104"/>
-      <c r="X20" s="104"/>
-      <c r="Y20" s="104"/>
-      <c r="Z20" s="104"/>
-      <c r="AA20" s="104"/>
-      <c r="AB20" s="104"/>
-      <c r="AC20" s="104"/>
-      <c r="AD20" s="105"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="107"/>
+      <c r="N20" s="107"/>
+      <c r="O20" s="107"/>
+      <c r="P20" s="107"/>
+      <c r="Q20" s="107"/>
+      <c r="R20" s="107"/>
+      <c r="S20" s="107"/>
+      <c r="T20" s="107"/>
+      <c r="U20" s="107"/>
+      <c r="V20" s="107"/>
+      <c r="W20" s="107"/>
+      <c r="X20" s="107"/>
+      <c r="Y20" s="107"/>
+      <c r="Z20" s="107"/>
+      <c r="AA20" s="107"/>
+      <c r="AB20" s="107"/>
+      <c r="AC20" s="107"/>
+      <c r="AD20" s="108"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
@@ -12171,35 +12182,35 @@
     </row>
     <row r="21" spans="1:68" ht="16.5">
       <c r="A21" s="3"/>
-      <c r="B21" s="103"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="104"/>
-      <c r="K21" s="104"/>
-      <c r="L21" s="104"/>
-      <c r="M21" s="104"/>
-      <c r="N21" s="104"/>
-      <c r="O21" s="104"/>
-      <c r="P21" s="104"/>
-      <c r="Q21" s="104"/>
-      <c r="R21" s="104"/>
-      <c r="S21" s="104"/>
-      <c r="T21" s="104"/>
-      <c r="U21" s="104"/>
-      <c r="V21" s="104"/>
-      <c r="W21" s="104"/>
-      <c r="X21" s="104"/>
-      <c r="Y21" s="104"/>
-      <c r="Z21" s="104"/>
-      <c r="AA21" s="104"/>
-      <c r="AB21" s="104"/>
-      <c r="AC21" s="104"/>
-      <c r="AD21" s="105"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="107"/>
+      <c r="R21" s="107"/>
+      <c r="S21" s="107"/>
+      <c r="T21" s="107"/>
+      <c r="U21" s="107"/>
+      <c r="V21" s="107"/>
+      <c r="W21" s="107"/>
+      <c r="X21" s="107"/>
+      <c r="Y21" s="107"/>
+      <c r="Z21" s="107"/>
+      <c r="AA21" s="107"/>
+      <c r="AB21" s="107"/>
+      <c r="AC21" s="107"/>
+      <c r="AD21" s="108"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
@@ -12241,35 +12252,35 @@
     </row>
     <row r="22" spans="1:68" ht="16.5">
       <c r="A22" s="3"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="107"/>
-      <c r="L22" s="107"/>
-      <c r="M22" s="107"/>
-      <c r="N22" s="107"/>
-      <c r="O22" s="107"/>
-      <c r="P22" s="107"/>
-      <c r="Q22" s="107"/>
-      <c r="R22" s="107"/>
-      <c r="S22" s="107"/>
-      <c r="T22" s="107"/>
-      <c r="U22" s="107"/>
-      <c r="V22" s="107"/>
-      <c r="W22" s="107"/>
-      <c r="X22" s="107"/>
-      <c r="Y22" s="107"/>
-      <c r="Z22" s="107"/>
-      <c r="AA22" s="107"/>
-      <c r="AB22" s="107"/>
-      <c r="AC22" s="107"/>
-      <c r="AD22" s="108"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="110"/>
+      <c r="N22" s="110"/>
+      <c r="O22" s="110"/>
+      <c r="P22" s="110"/>
+      <c r="Q22" s="110"/>
+      <c r="R22" s="110"/>
+      <c r="S22" s="110"/>
+      <c r="T22" s="110"/>
+      <c r="U22" s="110"/>
+      <c r="V22" s="110"/>
+      <c r="W22" s="110"/>
+      <c r="X22" s="110"/>
+      <c r="Y22" s="110"/>
+      <c r="Z22" s="110"/>
+      <c r="AA22" s="110"/>
+      <c r="AB22" s="110"/>
+      <c r="AC22" s="110"/>
+      <c r="AD22" s="111"/>
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
@@ -12527,60 +12538,60 @@
       <c r="B26" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="109" t="s">
+      <c r="C26" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="111"/>
-      <c r="L26" s="109" t="s">
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="114"/>
+      <c r="L26" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="M26" s="110"/>
-      <c r="N26" s="110"/>
-      <c r="O26" s="110"/>
-      <c r="P26" s="110"/>
-      <c r="Q26" s="111"/>
-      <c r="R26" s="109" t="s">
+      <c r="M26" s="113"/>
+      <c r="N26" s="113"/>
+      <c r="O26" s="113"/>
+      <c r="P26" s="113"/>
+      <c r="Q26" s="114"/>
+      <c r="R26" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="S26" s="110"/>
-      <c r="T26" s="110"/>
-      <c r="U26" s="110"/>
-      <c r="V26" s="110"/>
-      <c r="W26" s="111"/>
-      <c r="X26" s="112" t="s">
+      <c r="S26" s="113"/>
+      <c r="T26" s="113"/>
+      <c r="U26" s="113"/>
+      <c r="V26" s="113"/>
+      <c r="W26" s="114"/>
+      <c r="X26" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="Y26" s="113"/>
-      <c r="Z26" s="113"/>
-      <c r="AA26" s="113"/>
-      <c r="AB26" s="112" t="s">
+      <c r="Y26" s="116"/>
+      <c r="Z26" s="116"/>
+      <c r="AA26" s="116"/>
+      <c r="AB26" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="AC26" s="113"/>
-      <c r="AD26" s="113"/>
-      <c r="AE26" s="113"/>
-      <c r="AF26" s="113"/>
-      <c r="AG26" s="113"/>
-      <c r="AH26" s="113"/>
-      <c r="AI26" s="109" t="s">
+      <c r="AC26" s="116"/>
+      <c r="AD26" s="116"/>
+      <c r="AE26" s="116"/>
+      <c r="AF26" s="116"/>
+      <c r="AG26" s="116"/>
+      <c r="AH26" s="116"/>
+      <c r="AI26" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="AJ26" s="110"/>
-      <c r="AK26" s="110"/>
-      <c r="AL26" s="110"/>
-      <c r="AM26" s="110"/>
-      <c r="AN26" s="110"/>
-      <c r="AO26" s="110"/>
-      <c r="AP26" s="110"/>
-      <c r="AQ26" s="110"/>
-      <c r="AR26" s="111"/>
+      <c r="AJ26" s="113"/>
+      <c r="AK26" s="113"/>
+      <c r="AL26" s="113"/>
+      <c r="AM26" s="113"/>
+      <c r="AN26" s="113"/>
+      <c r="AO26" s="113"/>
+      <c r="AP26" s="113"/>
+      <c r="AQ26" s="113"/>
+      <c r="AR26" s="114"/>
       <c r="AS26" s="2"/>
       <c r="AT26" s="2"/>
       <c r="AU26" s="2"/>
@@ -12608,51 +12619,51 @@
     </row>
     <row r="27" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A27" s="17"/>
-      <c r="B27" s="133" t="s">
-        <v>111</v>
+      <c r="B27" s="100" t="s">
+        <v>202</v>
       </c>
-      <c r="C27" s="134"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="134"/>
-      <c r="H27" s="134"/>
-      <c r="I27" s="134"/>
-      <c r="J27" s="134"/>
-      <c r="K27" s="134"/>
-      <c r="L27" s="134"/>
-      <c r="M27" s="134"/>
-      <c r="N27" s="134"/>
-      <c r="O27" s="134"/>
-      <c r="P27" s="134"/>
-      <c r="Q27" s="134"/>
-      <c r="R27" s="134"/>
-      <c r="S27" s="134"/>
-      <c r="T27" s="134"/>
-      <c r="U27" s="134"/>
-      <c r="V27" s="134"/>
-      <c r="W27" s="134"/>
-      <c r="X27" s="134"/>
-      <c r="Y27" s="134"/>
-      <c r="Z27" s="134"/>
-      <c r="AA27" s="134"/>
-      <c r="AB27" s="134"/>
-      <c r="AC27" s="134"/>
-      <c r="AD27" s="134"/>
-      <c r="AE27" s="134"/>
-      <c r="AF27" s="134"/>
-      <c r="AG27" s="134"/>
-      <c r="AH27" s="134"/>
-      <c r="AI27" s="134"/>
-      <c r="AJ27" s="134"/>
-      <c r="AK27" s="134"/>
-      <c r="AL27" s="134"/>
-      <c r="AM27" s="134"/>
-      <c r="AN27" s="134"/>
-      <c r="AO27" s="134"/>
-      <c r="AP27" s="134"/>
-      <c r="AQ27" s="134"/>
-      <c r="AR27" s="135"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="101"/>
+      <c r="J27" s="101"/>
+      <c r="K27" s="101"/>
+      <c r="L27" s="101"/>
+      <c r="M27" s="101"/>
+      <c r="N27" s="101"/>
+      <c r="O27" s="101"/>
+      <c r="P27" s="101"/>
+      <c r="Q27" s="101"/>
+      <c r="R27" s="101"/>
+      <c r="S27" s="101"/>
+      <c r="T27" s="101"/>
+      <c r="U27" s="101"/>
+      <c r="V27" s="101"/>
+      <c r="W27" s="101"/>
+      <c r="X27" s="101"/>
+      <c r="Y27" s="101"/>
+      <c r="Z27" s="101"/>
+      <c r="AA27" s="101"/>
+      <c r="AB27" s="101"/>
+      <c r="AC27" s="101"/>
+      <c r="AD27" s="101"/>
+      <c r="AE27" s="101"/>
+      <c r="AF27" s="101"/>
+      <c r="AG27" s="101"/>
+      <c r="AH27" s="101"/>
+      <c r="AI27" s="101"/>
+      <c r="AJ27" s="101"/>
+      <c r="AK27" s="101"/>
+      <c r="AL27" s="101"/>
+      <c r="AM27" s="101"/>
+      <c r="AN27" s="101"/>
+      <c r="AO27" s="101"/>
+      <c r="AP27" s="101"/>
+      <c r="AQ27" s="101"/>
+      <c r="AR27" s="102"/>
       <c r="AS27" s="3"/>
       <c r="AT27" s="3"/>
       <c r="AU27" s="3"/>
@@ -12685,7 +12696,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="91" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D28" s="92"/>
       <c r="E28" s="92"/>
@@ -12698,17 +12709,17 @@
       <c r="L28" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="M28" s="114"/>
-      <c r="N28" s="114"/>
-      <c r="O28" s="114"/>
-      <c r="P28" s="114"/>
-      <c r="Q28" s="114"/>
+      <c r="M28" s="117"/>
+      <c r="N28" s="117"/>
+      <c r="O28" s="117"/>
+      <c r="P28" s="117"/>
+      <c r="Q28" s="117"/>
       <c r="R28" s="73"/>
-      <c r="S28" s="114"/>
-      <c r="T28" s="114"/>
-      <c r="U28" s="114"/>
-      <c r="V28" s="114"/>
-      <c r="W28" s="114"/>
+      <c r="S28" s="117"/>
+      <c r="T28" s="117"/>
+      <c r="U28" s="117"/>
+      <c r="V28" s="117"/>
+      <c r="W28" s="117"/>
       <c r="X28" s="73"/>
       <c r="Y28" s="73"/>
       <c r="Z28" s="73"/>
@@ -12720,18 +12731,18 @@
       <c r="AF28" s="73"/>
       <c r="AG28" s="73"/>
       <c r="AH28" s="73"/>
-      <c r="AI28" s="115" t="s">
-        <v>185</v>
+      <c r="AI28" s="118" t="s">
+        <v>184</v>
       </c>
-      <c r="AJ28" s="115"/>
-      <c r="AK28" s="115"/>
-      <c r="AL28" s="115"/>
-      <c r="AM28" s="115"/>
-      <c r="AN28" s="115"/>
-      <c r="AO28" s="115"/>
-      <c r="AP28" s="115"/>
-      <c r="AQ28" s="115"/>
-      <c r="AR28" s="115"/>
+      <c r="AJ28" s="118"/>
+      <c r="AK28" s="118"/>
+      <c r="AL28" s="118"/>
+      <c r="AM28" s="118"/>
+      <c r="AN28" s="118"/>
+      <c r="AO28" s="118"/>
+      <c r="AP28" s="118"/>
+      <c r="AQ28" s="118"/>
+      <c r="AR28" s="118"/>
       <c r="AS28" s="2"/>
       <c r="AT28" s="2"/>
       <c r="AU28" s="2"/>
@@ -12757,265 +12768,258 @@
       <c r="BO28" s="2"/>
       <c r="BP28" s="2"/>
     </row>
-    <row r="29" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="A29" s="2"/>
-      <c r="B29" s="30">
+    <row r="29" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A29" s="17"/>
+      <c r="B29" s="100" t="s">
+        <v>203</v>
+      </c>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="101"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="101"/>
+      <c r="U29" s="101"/>
+      <c r="V29" s="101"/>
+      <c r="W29" s="101"/>
+      <c r="X29" s="101"/>
+      <c r="Y29" s="101"/>
+      <c r="Z29" s="101"/>
+      <c r="AA29" s="101"/>
+      <c r="AB29" s="101"/>
+      <c r="AC29" s="101"/>
+      <c r="AD29" s="101"/>
+      <c r="AE29" s="101"/>
+      <c r="AF29" s="101"/>
+      <c r="AG29" s="101"/>
+      <c r="AH29" s="101"/>
+      <c r="AI29" s="101"/>
+      <c r="AJ29" s="101"/>
+      <c r="AK29" s="101"/>
+      <c r="AL29" s="101"/>
+      <c r="AM29" s="101"/>
+      <c r="AN29" s="101"/>
+      <c r="AO29" s="101"/>
+      <c r="AP29" s="101"/>
+      <c r="AQ29" s="101"/>
+      <c r="AR29" s="102"/>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
+      <c r="AW29" s="3"/>
+      <c r="AX29" s="3"/>
+      <c r="AY29" s="3"/>
+      <c r="AZ29" s="3"/>
+      <c r="BA29" s="3"/>
+      <c r="BB29" s="3"/>
+      <c r="BC29" s="3"/>
+      <c r="BD29" s="3"/>
+      <c r="BE29" s="3"/>
+      <c r="BF29" s="3"/>
+      <c r="BG29" s="3"/>
+      <c r="BH29" s="3"/>
+      <c r="BI29" s="3"/>
+      <c r="BJ29" s="3"/>
+      <c r="BK29" s="3"/>
+      <c r="BL29" s="3"/>
+      <c r="BM29" s="3"/>
+      <c r="BN29" s="3"/>
+      <c r="BO29" s="3"/>
+      <c r="BP29" s="3"/>
+    </row>
+    <row r="30" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A30" s="2"/>
+      <c r="B30" s="30">
         <f ca="1">MAX(B$23:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C29" s="137" t="s">
-        <v>184</v>
+      <c r="C30" s="137" t="s">
+        <v>183</v>
       </c>
-      <c r="D29" s="138"/>
-      <c r="E29" s="138"/>
-      <c r="F29" s="138"/>
-      <c r="G29" s="138"/>
-      <c r="H29" s="138"/>
-      <c r="I29" s="138"/>
-      <c r="J29" s="138"/>
-      <c r="K29" s="139"/>
-      <c r="L29" s="67" t="s">
+      <c r="D30" s="138"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="138"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="138"/>
+      <c r="K30" s="139"/>
+      <c r="L30" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="M29" s="136"/>
-      <c r="N29" s="136"/>
-      <c r="O29" s="136"/>
-      <c r="P29" s="136"/>
-      <c r="Q29" s="136"/>
-      <c r="R29" s="67"/>
-      <c r="S29" s="136"/>
-      <c r="T29" s="136"/>
-      <c r="U29" s="136"/>
-      <c r="V29" s="136"/>
-      <c r="W29" s="136"/>
-      <c r="X29" s="67"/>
-      <c r="Y29" s="67"/>
-      <c r="Z29" s="67"/>
-      <c r="AA29" s="67"/>
-      <c r="AB29" s="67"/>
-      <c r="AC29" s="67"/>
-      <c r="AD29" s="67"/>
-      <c r="AE29" s="67"/>
-      <c r="AF29" s="67"/>
-      <c r="AG29" s="67"/>
-      <c r="AH29" s="67"/>
-      <c r="AI29" s="67"/>
-      <c r="AJ29" s="67"/>
-      <c r="AK29" s="67"/>
-      <c r="AL29" s="67"/>
-      <c r="AM29" s="67"/>
-      <c r="AN29" s="67"/>
-      <c r="AO29" s="67"/>
-      <c r="AP29" s="67"/>
-      <c r="AQ29" s="67"/>
-      <c r="AR29" s="67"/>
-      <c r="AS29" s="2"/>
-      <c r="AT29" s="2"/>
-      <c r="AU29" s="2"/>
-      <c r="AV29" s="2"/>
-      <c r="AW29" s="2"/>
-      <c r="AX29" s="2"/>
-      <c r="AY29" s="2"/>
-      <c r="AZ29" s="2"/>
-      <c r="BA29" s="2"/>
-      <c r="BB29" s="2"/>
-      <c r="BC29" s="2"/>
-      <c r="BD29" s="2"/>
-      <c r="BE29" s="2"/>
-      <c r="BF29" s="2"/>
-      <c r="BG29" s="2"/>
-      <c r="BH29" s="2"/>
-      <c r="BI29" s="2"/>
-      <c r="BJ29" s="2"/>
-      <c r="BK29" s="2"/>
-      <c r="BL29" s="2"/>
-      <c r="BM29" s="2"/>
-      <c r="BN29" s="2"/>
-      <c r="BO29" s="2"/>
-      <c r="BP29" s="2"/>
-    </row>
-    <row r="30" spans="1:68" ht="16.5" outlineLevel="1">
-      <c r="A30" s="17"/>
-      <c r="B30" s="133" t="s">
-        <v>186</v>
+      <c r="M30" s="136"/>
+      <c r="N30" s="136"/>
+      <c r="O30" s="136"/>
+      <c r="P30" s="136"/>
+      <c r="Q30" s="136"/>
+      <c r="R30" s="67"/>
+      <c r="S30" s="136"/>
+      <c r="T30" s="136"/>
+      <c r="U30" s="136"/>
+      <c r="V30" s="136"/>
+      <c r="W30" s="136"/>
+      <c r="X30" s="67"/>
+      <c r="Y30" s="67"/>
+      <c r="Z30" s="67"/>
+      <c r="AA30" s="67"/>
+      <c r="AB30" s="67"/>
+      <c r="AC30" s="67"/>
+      <c r="AD30" s="67"/>
+      <c r="AE30" s="67"/>
+      <c r="AF30" s="67"/>
+      <c r="AG30" s="67"/>
+      <c r="AH30" s="67"/>
+      <c r="AI30" s="67"/>
+      <c r="AJ30" s="67"/>
+      <c r="AK30" s="67"/>
+      <c r="AL30" s="67"/>
+      <c r="AM30" s="67"/>
+      <c r="AN30" s="67"/>
+      <c r="AO30" s="67"/>
+      <c r="AP30" s="67"/>
+      <c r="AQ30" s="67"/>
+      <c r="AR30" s="67"/>
+      <c r="AS30" s="2"/>
+      <c r="AT30" s="2"/>
+      <c r="AU30" s="2"/>
+      <c r="AV30" s="2"/>
+      <c r="AW30" s="2"/>
+      <c r="AX30" s="2"/>
+      <c r="AY30" s="2"/>
+      <c r="AZ30" s="2"/>
+      <c r="BA30" s="2"/>
+      <c r="BB30" s="2"/>
+      <c r="BC30" s="2"/>
+      <c r="BD30" s="2"/>
+      <c r="BE30" s="2"/>
+      <c r="BF30" s="2"/>
+      <c r="BG30" s="2"/>
+      <c r="BH30" s="2"/>
+      <c r="BI30" s="2"/>
+      <c r="BJ30" s="2"/>
+      <c r="BK30" s="2"/>
+      <c r="BL30" s="2"/>
+      <c r="BM30" s="2"/>
+      <c r="BN30" s="2"/>
+      <c r="BO30" s="2"/>
+      <c r="BP30" s="2"/>
+    </row>
+    <row r="31" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A31" s="17"/>
+      <c r="B31" s="100" t="s">
+        <v>205</v>
       </c>
-      <c r="C30" s="134"/>
-      <c r="D30" s="134"/>
-      <c r="E30" s="134"/>
-      <c r="F30" s="134"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="134"/>
-      <c r="J30" s="134"/>
-      <c r="K30" s="134"/>
-      <c r="L30" s="134"/>
-      <c r="M30" s="134"/>
-      <c r="N30" s="134"/>
-      <c r="O30" s="134"/>
-      <c r="P30" s="134"/>
-      <c r="Q30" s="134"/>
-      <c r="R30" s="134"/>
-      <c r="S30" s="134"/>
-      <c r="T30" s="134"/>
-      <c r="U30" s="134"/>
-      <c r="V30" s="134"/>
-      <c r="W30" s="134"/>
-      <c r="X30" s="134"/>
-      <c r="Y30" s="134"/>
-      <c r="Z30" s="134"/>
-      <c r="AA30" s="134"/>
-      <c r="AB30" s="134"/>
-      <c r="AC30" s="134"/>
-      <c r="AD30" s="134"/>
-      <c r="AE30" s="134"/>
-      <c r="AF30" s="134"/>
-      <c r="AG30" s="134"/>
-      <c r="AH30" s="134"/>
-      <c r="AI30" s="134"/>
-      <c r="AJ30" s="134"/>
-      <c r="AK30" s="134"/>
-      <c r="AL30" s="134"/>
-      <c r="AM30" s="134"/>
-      <c r="AN30" s="134"/>
-      <c r="AO30" s="134"/>
-      <c r="AP30" s="134"/>
-      <c r="AQ30" s="134"/>
-      <c r="AR30" s="135"/>
-      <c r="AS30" s="3"/>
-      <c r="AT30" s="3"/>
-      <c r="AU30" s="3"/>
-      <c r="AV30" s="3"/>
-      <c r="AW30" s="3"/>
-      <c r="AX30" s="3"/>
-      <c r="AY30" s="3"/>
-      <c r="AZ30" s="3"/>
-      <c r="BA30" s="3"/>
-      <c r="BB30" s="3"/>
-      <c r="BC30" s="3"/>
-      <c r="BD30" s="3"/>
-      <c r="BE30" s="3"/>
-      <c r="BF30" s="3"/>
-      <c r="BG30" s="3"/>
-      <c r="BH30" s="3"/>
-      <c r="BI30" s="3"/>
-      <c r="BJ30" s="3"/>
-      <c r="BK30" s="3"/>
-      <c r="BL30" s="3"/>
-      <c r="BM30" s="3"/>
-      <c r="BN30" s="3"/>
-      <c r="BO30" s="3"/>
-      <c r="BP30" s="3"/>
-    </row>
-    <row r="31" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="A31" s="2"/>
-      <c r="B31" s="32">
+      <c r="C31" s="101"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="101"/>
+      <c r="J31" s="101"/>
+      <c r="K31" s="101"/>
+      <c r="L31" s="101"/>
+      <c r="M31" s="101"/>
+      <c r="N31" s="101"/>
+      <c r="O31" s="101"/>
+      <c r="P31" s="101"/>
+      <c r="Q31" s="101"/>
+      <c r="R31" s="101"/>
+      <c r="S31" s="101"/>
+      <c r="T31" s="101"/>
+      <c r="U31" s="101"/>
+      <c r="V31" s="101"/>
+      <c r="W31" s="101"/>
+      <c r="X31" s="101"/>
+      <c r="Y31" s="101"/>
+      <c r="Z31" s="101"/>
+      <c r="AA31" s="101"/>
+      <c r="AB31" s="101"/>
+      <c r="AC31" s="101"/>
+      <c r="AD31" s="101"/>
+      <c r="AE31" s="101"/>
+      <c r="AF31" s="101"/>
+      <c r="AG31" s="101"/>
+      <c r="AH31" s="101"/>
+      <c r="AI31" s="101"/>
+      <c r="AJ31" s="101"/>
+      <c r="AK31" s="101"/>
+      <c r="AL31" s="101"/>
+      <c r="AM31" s="101"/>
+      <c r="AN31" s="101"/>
+      <c r="AO31" s="101"/>
+      <c r="AP31" s="101"/>
+      <c r="AQ31" s="101"/>
+      <c r="AR31" s="102"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
+      <c r="AU31" s="3"/>
+      <c r="AV31" s="3"/>
+      <c r="AW31" s="3"/>
+      <c r="AX31" s="3"/>
+      <c r="AY31" s="3"/>
+      <c r="AZ31" s="3"/>
+      <c r="BA31" s="3"/>
+      <c r="BB31" s="3"/>
+      <c r="BC31" s="3"/>
+      <c r="BD31" s="3"/>
+      <c r="BE31" s="3"/>
+      <c r="BF31" s="3"/>
+      <c r="BG31" s="3"/>
+      <c r="BH31" s="3"/>
+      <c r="BI31" s="3"/>
+      <c r="BJ31" s="3"/>
+      <c r="BK31" s="3"/>
+      <c r="BL31" s="3"/>
+      <c r="BM31" s="3"/>
+      <c r="BN31" s="3"/>
+      <c r="BO31" s="3"/>
+      <c r="BP31" s="3"/>
+    </row>
+    <row r="32" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A32" s="2"/>
+      <c r="B32" s="32">
         <f ca="1">MAX(B$23:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
-      <c r="C31" s="130" t="s">
+      <c r="C32" s="133" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="131"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="131"/>
-      <c r="G31" s="131"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="131"/>
-      <c r="K31" s="132"/>
-      <c r="L31" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="M31" s="114"/>
-      <c r="N31" s="114"/>
-      <c r="O31" s="114"/>
-      <c r="P31" s="114"/>
-      <c r="Q31" s="114"/>
-      <c r="R31" s="73"/>
-      <c r="S31" s="114"/>
-      <c r="T31" s="114"/>
-      <c r="U31" s="114"/>
-      <c r="V31" s="114"/>
-      <c r="W31" s="114"/>
-      <c r="X31" s="73"/>
-      <c r="Y31" s="73"/>
-      <c r="Z31" s="73"/>
-      <c r="AA31" s="73"/>
-      <c r="AB31" s="73"/>
-      <c r="AC31" s="73"/>
-      <c r="AD31" s="73"/>
-      <c r="AE31" s="73"/>
-      <c r="AF31" s="73"/>
-      <c r="AG31" s="73"/>
-      <c r="AH31" s="73"/>
-      <c r="AI31" s="115" t="s">
-        <v>187</v>
-      </c>
-      <c r="AJ31" s="115"/>
-      <c r="AK31" s="115"/>
-      <c r="AL31" s="115"/>
-      <c r="AM31" s="115"/>
-      <c r="AN31" s="115"/>
-      <c r="AO31" s="115"/>
-      <c r="AP31" s="115"/>
-      <c r="AQ31" s="115"/>
-      <c r="AR31" s="115"/>
-      <c r="AS31" s="2"/>
-      <c r="AT31" s="2"/>
-      <c r="AU31" s="2"/>
-      <c r="AV31" s="2"/>
-      <c r="AW31" s="2"/>
-      <c r="AX31" s="2"/>
-      <c r="AY31" s="2"/>
-      <c r="AZ31" s="2"/>
-      <c r="BA31" s="2"/>
-      <c r="BB31" s="2"/>
-      <c r="BC31" s="2"/>
-      <c r="BD31" s="2"/>
-      <c r="BE31" s="2"/>
-      <c r="BF31" s="2"/>
-      <c r="BG31" s="2"/>
-      <c r="BH31" s="2"/>
-      <c r="BI31" s="2"/>
-      <c r="BJ31" s="2"/>
-      <c r="BK31" s="2"/>
-      <c r="BL31" s="2"/>
-      <c r="BM31" s="2"/>
-      <c r="BN31" s="2"/>
-      <c r="BO31" s="2"/>
-      <c r="BP31" s="2"/>
-    </row>
-    <row r="32" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="A32" s="2"/>
-      <c r="B32" s="21">
-        <f ca="1">MAX(B$23:INDIRECT("B"&amp;ROW()-1))+1</f>
-        <v>4</v>
-      </c>
-      <c r="C32" s="130" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="131"/>
-      <c r="E32" s="131"/>
-      <c r="F32" s="131"/>
-      <c r="G32" s="131"/>
-      <c r="H32" s="131"/>
-      <c r="I32" s="131"/>
-      <c r="J32" s="131"/>
-      <c r="K32" s="132"/>
+      <c r="D32" s="134"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="134"/>
+      <c r="H32" s="134"/>
+      <c r="I32" s="134"/>
+      <c r="J32" s="134"/>
+      <c r="K32" s="135"/>
       <c r="L32" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="M32" s="114"/>
-      <c r="N32" s="114"/>
-      <c r="O32" s="114"/>
-      <c r="P32" s="114"/>
-      <c r="Q32" s="114"/>
+      <c r="M32" s="117"/>
+      <c r="N32" s="117"/>
+      <c r="O32" s="117"/>
+      <c r="P32" s="117"/>
+      <c r="Q32" s="117"/>
       <c r="R32" s="73"/>
-      <c r="S32" s="114"/>
-      <c r="T32" s="114"/>
-      <c r="U32" s="114"/>
-      <c r="V32" s="114"/>
-      <c r="W32" s="114"/>
+      <c r="S32" s="117"/>
+      <c r="T32" s="117"/>
+      <c r="U32" s="117"/>
+      <c r="V32" s="117"/>
+      <c r="W32" s="117"/>
       <c r="X32" s="73"/>
       <c r="Y32" s="73"/>
       <c r="Z32" s="73"/>
@@ -13027,18 +13031,18 @@
       <c r="AF32" s="73"/>
       <c r="AG32" s="73"/>
       <c r="AH32" s="73"/>
-      <c r="AI32" s="115" t="s">
-        <v>188</v>
+      <c r="AI32" s="118" t="s">
+        <v>185</v>
       </c>
-      <c r="AJ32" s="115"/>
-      <c r="AK32" s="115"/>
-      <c r="AL32" s="115"/>
-      <c r="AM32" s="115"/>
-      <c r="AN32" s="115"/>
-      <c r="AO32" s="115"/>
-      <c r="AP32" s="115"/>
-      <c r="AQ32" s="115"/>
-      <c r="AR32" s="115"/>
+      <c r="AJ32" s="118"/>
+      <c r="AK32" s="118"/>
+      <c r="AL32" s="118"/>
+      <c r="AM32" s="118"/>
+      <c r="AN32" s="118"/>
+      <c r="AO32" s="118"/>
+      <c r="AP32" s="118"/>
+      <c r="AQ32" s="118"/>
+      <c r="AR32" s="118"/>
       <c r="AS32" s="2"/>
       <c r="AT32" s="2"/>
       <c r="AU32" s="2"/>
@@ -13064,148 +13068,156 @@
       <c r="BO32" s="2"/>
       <c r="BP32" s="2"/>
     </row>
-    <row r="33" spans="1:68" ht="16.5">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="3"/>
-      <c r="AE33" s="3"/>
-      <c r="AF33" s="3"/>
-      <c r="AG33" s="3"/>
-      <c r="AH33" s="3"/>
-      <c r="AI33" s="3"/>
-      <c r="AJ33" s="3"/>
-      <c r="AK33" s="3"/>
-      <c r="AL33" s="3"/>
-      <c r="AM33" s="3"/>
-      <c r="AN33" s="3"/>
-      <c r="AO33" s="3"/>
-      <c r="AP33" s="3"/>
-      <c r="AQ33" s="3"/>
-      <c r="AR33" s="3"/>
-      <c r="AS33" s="3"/>
-      <c r="AT33" s="3"/>
-      <c r="AU33" s="3"/>
-      <c r="AV33" s="3"/>
-      <c r="AW33" s="3"/>
-      <c r="AX33" s="3"/>
-      <c r="AY33" s="3"/>
-      <c r="AZ33" s="3"/>
-      <c r="BA33" s="3"/>
-      <c r="BB33" s="3"/>
-      <c r="BC33" s="3"/>
-      <c r="BD33" s="3"/>
-      <c r="BE33" s="3"/>
-      <c r="BF33" s="3"/>
-      <c r="BG33" s="3"/>
-      <c r="BH33" s="3"/>
-      <c r="BI33" s="3"/>
-      <c r="BJ33" s="3"/>
-      <c r="BK33" s="3"/>
-      <c r="BL33" s="3"/>
-      <c r="BM33" s="3"/>
-      <c r="BN33" s="3"/>
-      <c r="BO33" s="3"/>
-      <c r="BP33" s="3"/>
-    </row>
-    <row r="34" spans="1:68" ht="16.5">
-      <c r="A34" s="33" t="str">
-        <f ca="1">LEFT($A$1, 4)&amp;"2.処理詳細"</f>
-        <v>2.2.2.処理詳細</v>
+    <row r="33" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A33" s="2"/>
+      <c r="B33" s="21">
+        <f ca="1">MAX(B$23:INDIRECT("B"&amp;ROW()-1))+1</f>
+        <v>4</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="11"/>
-      <c r="AA34" s="11"/>
-      <c r="AB34" s="11"/>
-      <c r="AC34" s="11"/>
-      <c r="AD34" s="11"/>
-      <c r="AE34" s="11"/>
-      <c r="AF34" s="11"/>
-      <c r="AG34" s="11"/>
-      <c r="AH34" s="11"/>
-      <c r="AI34" s="11"/>
-      <c r="AJ34" s="11"/>
-      <c r="AK34" s="11"/>
-      <c r="AL34" s="11"/>
-      <c r="AM34" s="11"/>
-      <c r="AN34" s="11"/>
-      <c r="AO34" s="11"/>
-      <c r="AP34" s="11"/>
-      <c r="AQ34" s="11"/>
-      <c r="AR34" s="11"/>
-      <c r="AS34" s="11"/>
-      <c r="AT34" s="11"/>
-      <c r="AU34" s="11"/>
-      <c r="AV34" s="11"/>
-      <c r="AW34" s="11"/>
-      <c r="AX34" s="11"/>
-      <c r="AY34" s="11"/>
-      <c r="AZ34" s="11"/>
-      <c r="BA34" s="11"/>
-      <c r="BB34" s="11"/>
-      <c r="BC34" s="11"/>
-      <c r="BD34" s="11"/>
-      <c r="BE34" s="11"/>
-      <c r="BF34" s="11"/>
-      <c r="BG34" s="11"/>
-      <c r="BH34" s="11"/>
-      <c r="BI34" s="11"/>
-      <c r="BJ34" s="11"/>
-      <c r="BK34" s="11"/>
-      <c r="BL34" s="11"/>
-      <c r="BM34" s="11"/>
-      <c r="BN34" s="11"/>
-      <c r="BO34" s="11"/>
-      <c r="BP34" s="11"/>
+      <c r="C33" s="133" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="134"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="134"/>
+      <c r="G33" s="134"/>
+      <c r="H33" s="134"/>
+      <c r="I33" s="134"/>
+      <c r="J33" s="134"/>
+      <c r="K33" s="135"/>
+      <c r="L33" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="M33" s="117"/>
+      <c r="N33" s="117"/>
+      <c r="O33" s="117"/>
+      <c r="P33" s="117"/>
+      <c r="Q33" s="117"/>
+      <c r="R33" s="73"/>
+      <c r="S33" s="117"/>
+      <c r="T33" s="117"/>
+      <c r="U33" s="117"/>
+      <c r="V33" s="117"/>
+      <c r="W33" s="117"/>
+      <c r="X33" s="73"/>
+      <c r="Y33" s="73"/>
+      <c r="Z33" s="73"/>
+      <c r="AA33" s="73"/>
+      <c r="AB33" s="73"/>
+      <c r="AC33" s="73"/>
+      <c r="AD33" s="73"/>
+      <c r="AE33" s="73"/>
+      <c r="AF33" s="73"/>
+      <c r="AG33" s="73"/>
+      <c r="AH33" s="73"/>
+      <c r="AI33" s="118" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ33" s="118"/>
+      <c r="AK33" s="118"/>
+      <c r="AL33" s="118"/>
+      <c r="AM33" s="118"/>
+      <c r="AN33" s="118"/>
+      <c r="AO33" s="118"/>
+      <c r="AP33" s="118"/>
+      <c r="AQ33" s="118"/>
+      <c r="AR33" s="118"/>
+      <c r="AS33" s="2"/>
+      <c r="AT33" s="2"/>
+      <c r="AU33" s="2"/>
+      <c r="AV33" s="2"/>
+      <c r="AW33" s="2"/>
+      <c r="AX33" s="2"/>
+      <c r="AY33" s="2"/>
+      <c r="AZ33" s="2"/>
+      <c r="BA33" s="2"/>
+      <c r="BB33" s="2"/>
+      <c r="BC33" s="2"/>
+      <c r="BD33" s="2"/>
+      <c r="BE33" s="2"/>
+      <c r="BF33" s="2"/>
+      <c r="BG33" s="2"/>
+      <c r="BH33" s="2"/>
+      <c r="BI33" s="2"/>
+      <c r="BJ33" s="2"/>
+      <c r="BK33" s="2"/>
+      <c r="BL33" s="2"/>
+      <c r="BM33" s="2"/>
+      <c r="BN33" s="2"/>
+      <c r="BO33" s="2"/>
+      <c r="BP33" s="2"/>
+    </row>
+    <row r="34" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A34" s="17"/>
+      <c r="B34" s="100" t="s">
+        <v>204</v>
+      </c>
+      <c r="C34" s="101"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="101"/>
+      <c r="J34" s="101"/>
+      <c r="K34" s="101"/>
+      <c r="L34" s="101"/>
+      <c r="M34" s="101"/>
+      <c r="N34" s="101"/>
+      <c r="O34" s="101"/>
+      <c r="P34" s="101"/>
+      <c r="Q34" s="101"/>
+      <c r="R34" s="101"/>
+      <c r="S34" s="101"/>
+      <c r="T34" s="101"/>
+      <c r="U34" s="101"/>
+      <c r="V34" s="101"/>
+      <c r="W34" s="101"/>
+      <c r="X34" s="101"/>
+      <c r="Y34" s="101"/>
+      <c r="Z34" s="101"/>
+      <c r="AA34" s="101"/>
+      <c r="AB34" s="101"/>
+      <c r="AC34" s="101"/>
+      <c r="AD34" s="101"/>
+      <c r="AE34" s="101"/>
+      <c r="AF34" s="101"/>
+      <c r="AG34" s="101"/>
+      <c r="AH34" s="101"/>
+      <c r="AI34" s="101"/>
+      <c r="AJ34" s="101"/>
+      <c r="AK34" s="101"/>
+      <c r="AL34" s="101"/>
+      <c r="AM34" s="101"/>
+      <c r="AN34" s="101"/>
+      <c r="AO34" s="101"/>
+      <c r="AP34" s="101"/>
+      <c r="AQ34" s="101"/>
+      <c r="AR34" s="102"/>
+      <c r="AS34" s="3"/>
+      <c r="AT34" s="3"/>
+      <c r="AU34" s="3"/>
+      <c r="AV34" s="3"/>
+      <c r="AW34" s="3"/>
+      <c r="AX34" s="3"/>
+      <c r="AY34" s="3"/>
+      <c r="AZ34" s="3"/>
+      <c r="BA34" s="3"/>
+      <c r="BB34" s="3"/>
+      <c r="BC34" s="3"/>
+      <c r="BD34" s="3"/>
+      <c r="BE34" s="3"/>
+      <c r="BF34" s="3"/>
+      <c r="BG34" s="3"/>
+      <c r="BH34" s="3"/>
+      <c r="BI34" s="3"/>
+      <c r="BJ34" s="3"/>
+      <c r="BK34" s="3"/>
+      <c r="BL34" s="3"/>
+      <c r="BM34" s="3"/>
+      <c r="BN34" s="3"/>
+      <c r="BO34" s="3"/>
+      <c r="BP34" s="3"/>
     </row>
     <row r="35" spans="1:68" ht="16.5">
       <c r="A35" s="3"/>
@@ -13277,349 +13289,334 @@
       <c r="BO35" s="3"/>
       <c r="BP35" s="3"/>
     </row>
-    <row r="36" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="A36" s="7"/>
-      <c r="B36" s="55" t="s">
+    <row r="36" spans="1:68" ht="16.5">
+      <c r="A36" s="33" t="str">
+        <f ca="1">LEFT($A$1, 4)&amp;"2.処理詳細"</f>
+        <v>2.2.2.処理詳細</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="11"/>
+      <c r="AE36" s="11"/>
+      <c r="AF36" s="11"/>
+      <c r="AG36" s="11"/>
+      <c r="AH36" s="11"/>
+      <c r="AI36" s="11"/>
+      <c r="AJ36" s="11"/>
+      <c r="AK36" s="11"/>
+      <c r="AL36" s="11"/>
+      <c r="AM36" s="11"/>
+      <c r="AN36" s="11"/>
+      <c r="AO36" s="11"/>
+      <c r="AP36" s="11"/>
+      <c r="AQ36" s="11"/>
+      <c r="AR36" s="11"/>
+      <c r="AS36" s="11"/>
+      <c r="AT36" s="11"/>
+      <c r="AU36" s="11"/>
+      <c r="AV36" s="11"/>
+      <c r="AW36" s="11"/>
+      <c r="AX36" s="11"/>
+      <c r="AY36" s="11"/>
+      <c r="AZ36" s="11"/>
+      <c r="BA36" s="11"/>
+      <c r="BB36" s="11"/>
+      <c r="BC36" s="11"/>
+      <c r="BD36" s="11"/>
+      <c r="BE36" s="11"/>
+      <c r="BF36" s="11"/>
+      <c r="BG36" s="11"/>
+      <c r="BH36" s="11"/>
+      <c r="BI36" s="11"/>
+      <c r="BJ36" s="11"/>
+      <c r="BK36" s="11"/>
+      <c r="BL36" s="11"/>
+      <c r="BM36" s="11"/>
+      <c r="BN36" s="11"/>
+      <c r="BO36" s="11"/>
+      <c r="BP36" s="11"/>
+    </row>
+    <row r="37" spans="1:68" ht="16.5">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3"/>
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="3"/>
+      <c r="AK37" s="3"/>
+      <c r="AL37" s="3"/>
+      <c r="AM37" s="3"/>
+      <c r="AN37" s="3"/>
+      <c r="AO37" s="3"/>
+      <c r="AP37" s="3"/>
+      <c r="AQ37" s="3"/>
+      <c r="AR37" s="3"/>
+      <c r="AS37" s="3"/>
+      <c r="AT37" s="3"/>
+      <c r="AU37" s="3"/>
+      <c r="AV37" s="3"/>
+      <c r="AW37" s="3"/>
+      <c r="AX37" s="3"/>
+      <c r="AY37" s="3"/>
+      <c r="AZ37" s="3"/>
+      <c r="BA37" s="3"/>
+      <c r="BB37" s="3"/>
+      <c r="BC37" s="3"/>
+      <c r="BD37" s="3"/>
+      <c r="BE37" s="3"/>
+      <c r="BF37" s="3"/>
+      <c r="BG37" s="3"/>
+      <c r="BH37" s="3"/>
+      <c r="BI37" s="3"/>
+      <c r="BJ37" s="3"/>
+      <c r="BK37" s="3"/>
+      <c r="BL37" s="3"/>
+      <c r="BM37" s="3"/>
+      <c r="BN37" s="3"/>
+      <c r="BO37" s="3"/>
+      <c r="BP37" s="3"/>
+    </row>
+    <row r="38" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A38" s="7"/>
+      <c r="B38" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="56" t="s">
+      <c r="C38" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56" t="s">
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="56"/>
-      <c r="P36" s="56"/>
-      <c r="Q36" s="56"/>
-      <c r="R36" s="56" t="s">
+      <c r="K38" s="56"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="56"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="56"/>
+      <c r="P38" s="56"/>
+      <c r="Q38" s="56"/>
+      <c r="R38" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="S36" s="56"/>
-      <c r="T36" s="56"/>
-      <c r="U36" s="56"/>
-      <c r="V36" s="56"/>
-      <c r="W36" s="56"/>
-      <c r="X36" s="56"/>
-      <c r="Y36" s="56"/>
-      <c r="Z36" s="56"/>
-      <c r="AA36" s="56"/>
-      <c r="AB36" s="56"/>
-      <c r="AC36" s="56"/>
-      <c r="AD36" s="56"/>
-      <c r="AE36" s="56"/>
-      <c r="AF36" s="56"/>
-      <c r="AG36" s="56"/>
-      <c r="AH36" s="56"/>
-      <c r="AI36" s="56" t="s">
+      <c r="S38" s="56"/>
+      <c r="T38" s="56"/>
+      <c r="U38" s="56"/>
+      <c r="V38" s="56"/>
+      <c r="W38" s="56"/>
+      <c r="X38" s="56"/>
+      <c r="Y38" s="56"/>
+      <c r="Z38" s="56"/>
+      <c r="AA38" s="56"/>
+      <c r="AB38" s="56"/>
+      <c r="AC38" s="56"/>
+      <c r="AD38" s="56"/>
+      <c r="AE38" s="56"/>
+      <c r="AF38" s="56"/>
+      <c r="AG38" s="56"/>
+      <c r="AH38" s="56"/>
+      <c r="AI38" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="AJ36" s="56"/>
-      <c r="AK36" s="56"/>
-      <c r="AL36" s="56"/>
-      <c r="AM36" s="56"/>
-      <c r="AN36" s="56"/>
-      <c r="AO36" s="56"/>
-      <c r="AP36" s="56"/>
-      <c r="AQ36" s="56" t="s">
+      <c r="AJ38" s="56"/>
+      <c r="AK38" s="56"/>
+      <c r="AL38" s="56"/>
+      <c r="AM38" s="56"/>
+      <c r="AN38" s="56"/>
+      <c r="AO38" s="56"/>
+      <c r="AP38" s="56"/>
+      <c r="AQ38" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="AR36" s="56"/>
-      <c r="AS36" s="56"/>
-      <c r="AT36" s="56"/>
-      <c r="AU36" s="56"/>
-      <c r="AV36" s="56"/>
-      <c r="AW36" s="56"/>
-      <c r="AX36" s="56"/>
-      <c r="AY36" s="56"/>
-      <c r="AZ36" s="56"/>
-      <c r="BA36" s="56"/>
-      <c r="BB36" s="56"/>
-      <c r="BC36" s="56"/>
-      <c r="BD36" s="56"/>
-      <c r="BE36" s="56"/>
-      <c r="BF36" s="56"/>
-      <c r="BG36" s="56"/>
-      <c r="BH36" s="56"/>
-      <c r="BI36" s="56"/>
-      <c r="BJ36" s="56"/>
-      <c r="BK36" s="56"/>
-      <c r="BL36" s="56"/>
-      <c r="BM36" s="56"/>
-      <c r="BN36" s="56"/>
-      <c r="BO36" s="56"/>
-      <c r="BP36" s="2"/>
-    </row>
-    <row r="37" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="A37" s="7"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="56"/>
-      <c r="O37" s="56"/>
-      <c r="P37" s="56"/>
-      <c r="Q37" s="56"/>
-      <c r="R37" s="56"/>
-      <c r="S37" s="56"/>
-      <c r="T37" s="56"/>
-      <c r="U37" s="56"/>
-      <c r="V37" s="56"/>
-      <c r="W37" s="56"/>
-      <c r="X37" s="56"/>
-      <c r="Y37" s="56"/>
-      <c r="Z37" s="56"/>
-      <c r="AA37" s="56"/>
-      <c r="AB37" s="56"/>
-      <c r="AC37" s="56"/>
-      <c r="AD37" s="56"/>
-      <c r="AE37" s="56"/>
-      <c r="AF37" s="56"/>
-      <c r="AG37" s="56"/>
-      <c r="AH37" s="56"/>
-      <c r="AI37" s="56"/>
-      <c r="AJ37" s="56"/>
-      <c r="AK37" s="56"/>
-      <c r="AL37" s="56"/>
-      <c r="AM37" s="56"/>
-      <c r="AN37" s="56"/>
-      <c r="AO37" s="56"/>
-      <c r="AP37" s="56"/>
-      <c r="AQ37" s="56" t="s">
+      <c r="AR38" s="56"/>
+      <c r="AS38" s="56"/>
+      <c r="AT38" s="56"/>
+      <c r="AU38" s="56"/>
+      <c r="AV38" s="56"/>
+      <c r="AW38" s="56"/>
+      <c r="AX38" s="56"/>
+      <c r="AY38" s="56"/>
+      <c r="AZ38" s="56"/>
+      <c r="BA38" s="56"/>
+      <c r="BB38" s="56"/>
+      <c r="BC38" s="56"/>
+      <c r="BD38" s="56"/>
+      <c r="BE38" s="56"/>
+      <c r="BF38" s="56"/>
+      <c r="BG38" s="56"/>
+      <c r="BH38" s="56"/>
+      <c r="BI38" s="56"/>
+      <c r="BJ38" s="56"/>
+      <c r="BK38" s="56"/>
+      <c r="BL38" s="56"/>
+      <c r="BM38" s="56"/>
+      <c r="BN38" s="56"/>
+      <c r="BO38" s="56"/>
+      <c r="BP38" s="2"/>
+    </row>
+    <row r="39" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A39" s="7"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="56"/>
+      <c r="T39" s="56"/>
+      <c r="U39" s="56"/>
+      <c r="V39" s="56"/>
+      <c r="W39" s="56"/>
+      <c r="X39" s="56"/>
+      <c r="Y39" s="56"/>
+      <c r="Z39" s="56"/>
+      <c r="AA39" s="56"/>
+      <c r="AB39" s="56"/>
+      <c r="AC39" s="56"/>
+      <c r="AD39" s="56"/>
+      <c r="AE39" s="56"/>
+      <c r="AF39" s="56"/>
+      <c r="AG39" s="56"/>
+      <c r="AH39" s="56"/>
+      <c r="AI39" s="56"/>
+      <c r="AJ39" s="56"/>
+      <c r="AK39" s="56"/>
+      <c r="AL39" s="56"/>
+      <c r="AM39" s="56"/>
+      <c r="AN39" s="56"/>
+      <c r="AO39" s="56"/>
+      <c r="AP39" s="56"/>
+      <c r="AQ39" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR39" s="56"/>
+      <c r="AS39" s="56"/>
+      <c r="AT39" s="56"/>
+      <c r="AU39" s="56"/>
+      <c r="AV39" s="56"/>
+      <c r="AW39" s="56"/>
+      <c r="AX39" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="AR37" s="56"/>
-      <c r="AS37" s="56"/>
-      <c r="AT37" s="56"/>
-      <c r="AU37" s="56"/>
-      <c r="AV37" s="56"/>
-      <c r="AW37" s="56"/>
-      <c r="AX37" s="56" t="s">
+      <c r="AY39" s="56"/>
+      <c r="AZ39" s="56"/>
+      <c r="BA39" s="56"/>
+      <c r="BB39" s="56"/>
+      <c r="BC39" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="AY37" s="56"/>
-      <c r="AZ37" s="56"/>
-      <c r="BA37" s="56"/>
-      <c r="BB37" s="56"/>
-      <c r="BC37" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="BD37" s="56"/>
-      <c r="BE37" s="56"/>
-      <c r="BF37" s="56"/>
-      <c r="BG37" s="56"/>
-      <c r="BH37" s="56"/>
-      <c r="BI37" s="56"/>
-      <c r="BJ37" s="56"/>
-      <c r="BK37" s="56"/>
-      <c r="BL37" s="56"/>
-      <c r="BM37" s="56"/>
-      <c r="BN37" s="56"/>
-      <c r="BO37" s="56"/>
-      <c r="BP37" s="2"/>
-    </row>
-    <row r="38" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="A38" s="7"/>
-      <c r="B38" s="21">
-        <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
-        <v>1</v>
-      </c>
-      <c r="C38" s="122" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" s="123"/>
-      <c r="E38" s="123"/>
-      <c r="F38" s="123"/>
-      <c r="G38" s="123"/>
-      <c r="H38" s="123"/>
-      <c r="I38" s="124"/>
-      <c r="J38" s="125" t="s">
-        <v>138</v>
-      </c>
-      <c r="K38" s="125"/>
-      <c r="L38" s="125"/>
-      <c r="M38" s="125"/>
-      <c r="N38" s="125"/>
-      <c r="O38" s="125"/>
-      <c r="P38" s="125"/>
-      <c r="Q38" s="125"/>
-      <c r="R38" s="67" t="s">
-        <v>175</v>
-      </c>
-      <c r="S38" s="67"/>
-      <c r="T38" s="67"/>
-      <c r="U38" s="67"/>
-      <c r="V38" s="67"/>
-      <c r="W38" s="67"/>
-      <c r="X38" s="67"/>
-      <c r="Y38" s="67"/>
-      <c r="Z38" s="67"/>
-      <c r="AA38" s="67"/>
-      <c r="AB38" s="67"/>
-      <c r="AC38" s="67"/>
-      <c r="AD38" s="67"/>
-      <c r="AE38" s="67"/>
-      <c r="AF38" s="67"/>
-      <c r="AG38" s="67"/>
-      <c r="AH38" s="67"/>
-      <c r="AI38" s="67"/>
-      <c r="AJ38" s="67"/>
-      <c r="AK38" s="67"/>
-      <c r="AL38" s="67"/>
-      <c r="AM38" s="67"/>
-      <c r="AN38" s="67"/>
-      <c r="AO38" s="67"/>
-      <c r="AP38" s="67"/>
-      <c r="AQ38" s="58"/>
-      <c r="AR38" s="58"/>
-      <c r="AS38" s="58"/>
-      <c r="AT38" s="58"/>
-      <c r="AU38" s="58"/>
-      <c r="AV38" s="58"/>
-      <c r="AW38" s="58"/>
-      <c r="AX38" s="58"/>
-      <c r="AY38" s="58"/>
-      <c r="AZ38" s="58"/>
-      <c r="BA38" s="58"/>
-      <c r="BB38" s="58"/>
-      <c r="BC38" s="59"/>
-      <c r="BD38" s="59"/>
-      <c r="BE38" s="59"/>
-      <c r="BF38" s="59"/>
-      <c r="BG38" s="59"/>
-      <c r="BH38" s="59"/>
-      <c r="BI38" s="59"/>
-      <c r="BJ38" s="59"/>
-      <c r="BK38" s="59"/>
-      <c r="BL38" s="59"/>
-      <c r="BM38" s="59"/>
-      <c r="BN38" s="59"/>
-      <c r="BO38" s="59"/>
-      <c r="BP38" s="2"/>
-    </row>
-    <row r="39" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="A39" s="7"/>
-      <c r="B39" s="21">
-        <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
-        <v>2</v>
-      </c>
-      <c r="C39" s="116" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="117"/>
-      <c r="E39" s="117"/>
-      <c r="F39" s="117"/>
-      <c r="G39" s="117"/>
-      <c r="H39" s="117"/>
-      <c r="I39" s="118"/>
-      <c r="J39" s="119" t="s">
-        <v>37</v>
-      </c>
-      <c r="K39" s="120"/>
-      <c r="L39" s="120"/>
-      <c r="M39" s="120"/>
-      <c r="N39" s="120"/>
-      <c r="O39" s="120"/>
-      <c r="P39" s="120"/>
-      <c r="Q39" s="121"/>
-      <c r="R39" s="67" t="s">
-        <v>174</v>
-      </c>
-      <c r="S39" s="67"/>
-      <c r="T39" s="67"/>
-      <c r="U39" s="67"/>
-      <c r="V39" s="67"/>
-      <c r="W39" s="67"/>
-      <c r="X39" s="67"/>
-      <c r="Y39" s="67"/>
-      <c r="Z39" s="67"/>
-      <c r="AA39" s="67"/>
-      <c r="AB39" s="67"/>
-      <c r="AC39" s="67"/>
-      <c r="AD39" s="67"/>
-      <c r="AE39" s="67"/>
-      <c r="AF39" s="67"/>
-      <c r="AG39" s="67"/>
-      <c r="AH39" s="67"/>
-      <c r="AI39" s="67"/>
-      <c r="AJ39" s="67"/>
-      <c r="AK39" s="67"/>
-      <c r="AL39" s="67"/>
-      <c r="AM39" s="67"/>
-      <c r="AN39" s="67"/>
-      <c r="AO39" s="67"/>
-      <c r="AP39" s="67"/>
-      <c r="AQ39" s="58"/>
-      <c r="AR39" s="58"/>
-      <c r="AS39" s="58"/>
-      <c r="AT39" s="58"/>
-      <c r="AU39" s="58"/>
-      <c r="AV39" s="58"/>
-      <c r="AW39" s="58"/>
-      <c r="AX39" s="58"/>
-      <c r="AY39" s="58"/>
-      <c r="AZ39" s="58"/>
-      <c r="BA39" s="58"/>
-      <c r="BB39" s="58"/>
-      <c r="BC39" s="59"/>
-      <c r="BD39" s="59"/>
-      <c r="BE39" s="59"/>
-      <c r="BF39" s="59"/>
-      <c r="BG39" s="59"/>
-      <c r="BH39" s="59"/>
-      <c r="BI39" s="59"/>
-      <c r="BJ39" s="59"/>
-      <c r="BK39" s="59"/>
-      <c r="BL39" s="59"/>
-      <c r="BM39" s="59"/>
-      <c r="BN39" s="59"/>
-      <c r="BO39" s="59"/>
+      <c r="BD39" s="56"/>
+      <c r="BE39" s="56"/>
+      <c r="BF39" s="56"/>
+      <c r="BG39" s="56"/>
+      <c r="BH39" s="56"/>
+      <c r="BI39" s="56"/>
+      <c r="BJ39" s="56"/>
+      <c r="BK39" s="56"/>
+      <c r="BL39" s="56"/>
+      <c r="BM39" s="56"/>
+      <c r="BN39" s="56"/>
+      <c r="BO39" s="56"/>
       <c r="BP39" s="2"/>
     </row>
     <row r="40" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A40" s="7"/>
       <c r="B40" s="21">
-        <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
-        <v>3</v>
+        <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
+        <v>1</v>
       </c>
-      <c r="C40" s="116" t="s">
-        <v>38</v>
+      <c r="C40" s="125" t="s">
+        <v>26</v>
       </c>
-      <c r="D40" s="117"/>
-      <c r="E40" s="117"/>
-      <c r="F40" s="117"/>
-      <c r="G40" s="117"/>
-      <c r="H40" s="117"/>
-      <c r="I40" s="118"/>
-      <c r="J40" s="119" t="s">
-        <v>39</v>
+      <c r="D40" s="126"/>
+      <c r="E40" s="126"/>
+      <c r="F40" s="126"/>
+      <c r="G40" s="126"/>
+      <c r="H40" s="126"/>
+      <c r="I40" s="127"/>
+      <c r="J40" s="128" t="s">
+        <v>137</v>
       </c>
-      <c r="K40" s="120"/>
-      <c r="L40" s="120"/>
-      <c r="M40" s="120"/>
-      <c r="N40" s="120"/>
-      <c r="O40" s="120"/>
-      <c r="P40" s="120"/>
-      <c r="Q40" s="121"/>
+      <c r="K40" s="128"/>
+      <c r="L40" s="128"/>
+      <c r="M40" s="128"/>
+      <c r="N40" s="128"/>
+      <c r="O40" s="128"/>
+      <c r="P40" s="128"/>
+      <c r="Q40" s="128"/>
       <c r="R40" s="67" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="S40" s="67"/>
       <c r="T40" s="67"/>
@@ -13675,30 +13672,30 @@
     <row r="41" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A41" s="7"/>
       <c r="B41" s="21">
-        <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
-        <v>4</v>
+        <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
+        <v>2</v>
       </c>
-      <c r="C41" s="116" t="s">
-        <v>40</v>
+      <c r="C41" s="119" t="s">
+        <v>36</v>
       </c>
-      <c r="D41" s="117"/>
-      <c r="E41" s="117"/>
-      <c r="F41" s="117"/>
-      <c r="G41" s="117"/>
-      <c r="H41" s="117"/>
-      <c r="I41" s="118"/>
-      <c r="J41" s="119" t="s">
-        <v>41</v>
+      <c r="D41" s="120"/>
+      <c r="E41" s="120"/>
+      <c r="F41" s="120"/>
+      <c r="G41" s="120"/>
+      <c r="H41" s="120"/>
+      <c r="I41" s="121"/>
+      <c r="J41" s="122" t="s">
+        <v>37</v>
       </c>
-      <c r="K41" s="120"/>
-      <c r="L41" s="120"/>
-      <c r="M41" s="120"/>
-      <c r="N41" s="120"/>
-      <c r="O41" s="120"/>
-      <c r="P41" s="120"/>
-      <c r="Q41" s="121"/>
+      <c r="K41" s="123"/>
+      <c r="L41" s="123"/>
+      <c r="M41" s="123"/>
+      <c r="N41" s="123"/>
+      <c r="O41" s="123"/>
+      <c r="P41" s="123"/>
+      <c r="Q41" s="124"/>
       <c r="R41" s="67" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="S41" s="67"/>
       <c r="T41" s="67"/>
@@ -13754,30 +13751,30 @@
     <row r="42" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A42" s="7"/>
       <c r="B42" s="21">
-        <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
-        <v>5</v>
+        <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
+        <v>3</v>
       </c>
-      <c r="C42" s="116" t="s">
-        <v>42</v>
+      <c r="C42" s="119" t="s">
+        <v>38</v>
       </c>
-      <c r="D42" s="117"/>
-      <c r="E42" s="117"/>
-      <c r="F42" s="117"/>
-      <c r="G42" s="117"/>
-      <c r="H42" s="117"/>
-      <c r="I42" s="118"/>
-      <c r="J42" s="119" t="s">
-        <v>43</v>
+      <c r="D42" s="120"/>
+      <c r="E42" s="120"/>
+      <c r="F42" s="120"/>
+      <c r="G42" s="120"/>
+      <c r="H42" s="120"/>
+      <c r="I42" s="121"/>
+      <c r="J42" s="122" t="s">
+        <v>39</v>
       </c>
-      <c r="K42" s="120"/>
-      <c r="L42" s="120"/>
-      <c r="M42" s="120"/>
-      <c r="N42" s="120"/>
-      <c r="O42" s="120"/>
-      <c r="P42" s="120"/>
-      <c r="Q42" s="121"/>
+      <c r="K42" s="123"/>
+      <c r="L42" s="123"/>
+      <c r="M42" s="123"/>
+      <c r="N42" s="123"/>
+      <c r="O42" s="123"/>
+      <c r="P42" s="123"/>
+      <c r="Q42" s="124"/>
       <c r="R42" s="67" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S42" s="67"/>
       <c r="T42" s="67"/>
@@ -13833,30 +13830,30 @@
     <row r="43" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A43" s="7"/>
       <c r="B43" s="21">
-        <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
-        <v>6</v>
+        <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
+        <v>4</v>
       </c>
-      <c r="C43" s="116" t="s">
-        <v>44</v>
+      <c r="C43" s="119" t="s">
+        <v>40</v>
       </c>
-      <c r="D43" s="117"/>
-      <c r="E43" s="117"/>
-      <c r="F43" s="117"/>
-      <c r="G43" s="117"/>
-      <c r="H43" s="117"/>
-      <c r="I43" s="118"/>
-      <c r="J43" s="119" t="s">
-        <v>45</v>
+      <c r="D43" s="120"/>
+      <c r="E43" s="120"/>
+      <c r="F43" s="120"/>
+      <c r="G43" s="120"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="121"/>
+      <c r="J43" s="122" t="s">
+        <v>41</v>
       </c>
-      <c r="K43" s="120"/>
-      <c r="L43" s="120"/>
-      <c r="M43" s="120"/>
-      <c r="N43" s="120"/>
-      <c r="O43" s="120"/>
-      <c r="P43" s="120"/>
-      <c r="Q43" s="121"/>
+      <c r="K43" s="123"/>
+      <c r="L43" s="123"/>
+      <c r="M43" s="123"/>
+      <c r="N43" s="123"/>
+      <c r="O43" s="123"/>
+      <c r="P43" s="123"/>
+      <c r="Q43" s="124"/>
       <c r="R43" s="67" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="S43" s="67"/>
       <c r="T43" s="67"/>
@@ -13912,30 +13909,30 @@
     <row r="44" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A44" s="7"/>
       <c r="B44" s="21">
-        <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
-        <v>7</v>
+        <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
+        <v>5</v>
       </c>
-      <c r="C44" s="116" t="s">
-        <v>46</v>
+      <c r="C44" s="119" t="s">
+        <v>42</v>
       </c>
-      <c r="D44" s="117"/>
-      <c r="E44" s="117"/>
-      <c r="F44" s="117"/>
-      <c r="G44" s="117"/>
-      <c r="H44" s="117"/>
-      <c r="I44" s="118"/>
-      <c r="J44" s="119" t="s">
-        <v>47</v>
+      <c r="D44" s="120"/>
+      <c r="E44" s="120"/>
+      <c r="F44" s="120"/>
+      <c r="G44" s="120"/>
+      <c r="H44" s="120"/>
+      <c r="I44" s="121"/>
+      <c r="J44" s="122" t="s">
+        <v>43</v>
       </c>
-      <c r="K44" s="120"/>
-      <c r="L44" s="120"/>
-      <c r="M44" s="120"/>
-      <c r="N44" s="120"/>
-      <c r="O44" s="120"/>
-      <c r="P44" s="120"/>
-      <c r="Q44" s="121"/>
+      <c r="K44" s="123"/>
+      <c r="L44" s="123"/>
+      <c r="M44" s="123"/>
+      <c r="N44" s="123"/>
+      <c r="O44" s="123"/>
+      <c r="P44" s="123"/>
+      <c r="Q44" s="124"/>
       <c r="R44" s="67" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="S44" s="67"/>
       <c r="T44" s="67"/>
@@ -13991,29 +13988,31 @@
     <row r="45" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A45" s="7"/>
       <c r="B45" s="21">
-        <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
-        <v>8</v>
+        <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
+        <v>6</v>
       </c>
-      <c r="C45" s="116" t="s">
-        <v>48</v>
+      <c r="C45" s="119" t="s">
+        <v>44</v>
       </c>
-      <c r="D45" s="117"/>
-      <c r="E45" s="117"/>
-      <c r="F45" s="117"/>
-      <c r="G45" s="117"/>
-      <c r="H45" s="117"/>
-      <c r="I45" s="118"/>
-      <c r="J45" s="119" t="s">
-        <v>49</v>
+      <c r="D45" s="120"/>
+      <c r="E45" s="120"/>
+      <c r="F45" s="120"/>
+      <c r="G45" s="120"/>
+      <c r="H45" s="120"/>
+      <c r="I45" s="121"/>
+      <c r="J45" s="122" t="s">
+        <v>45</v>
       </c>
-      <c r="K45" s="120"/>
-      <c r="L45" s="120"/>
-      <c r="M45" s="120"/>
-      <c r="N45" s="120"/>
-      <c r="O45" s="120"/>
-      <c r="P45" s="120"/>
-      <c r="Q45" s="121"/>
-      <c r="R45" s="67"/>
+      <c r="K45" s="123"/>
+      <c r="L45" s="123"/>
+      <c r="M45" s="123"/>
+      <c r="N45" s="123"/>
+      <c r="O45" s="123"/>
+      <c r="P45" s="123"/>
+      <c r="Q45" s="124"/>
+      <c r="R45" s="67" t="s">
+        <v>178</v>
+      </c>
       <c r="S45" s="67"/>
       <c r="T45" s="67"/>
       <c r="U45" s="67"/>
@@ -14068,29 +14067,31 @@
     <row r="46" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A46" s="7"/>
       <c r="B46" s="21">
-        <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
-        <v>9</v>
+        <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
+        <v>7</v>
       </c>
-      <c r="C46" s="116" t="s">
-        <v>50</v>
+      <c r="C46" s="119" t="s">
+        <v>46</v>
       </c>
-      <c r="D46" s="117"/>
-      <c r="E46" s="117"/>
-      <c r="F46" s="117"/>
-      <c r="G46" s="117"/>
-      <c r="H46" s="117"/>
-      <c r="I46" s="118"/>
-      <c r="J46" s="119" t="s">
-        <v>49</v>
+      <c r="D46" s="120"/>
+      <c r="E46" s="120"/>
+      <c r="F46" s="120"/>
+      <c r="G46" s="120"/>
+      <c r="H46" s="120"/>
+      <c r="I46" s="121"/>
+      <c r="J46" s="122" t="s">
+        <v>47</v>
       </c>
-      <c r="K46" s="120"/>
-      <c r="L46" s="120"/>
-      <c r="M46" s="120"/>
-      <c r="N46" s="120"/>
-      <c r="O46" s="120"/>
-      <c r="P46" s="120"/>
-      <c r="Q46" s="121"/>
-      <c r="R46" s="67"/>
+      <c r="K46" s="123"/>
+      <c r="L46" s="123"/>
+      <c r="M46" s="123"/>
+      <c r="N46" s="123"/>
+      <c r="O46" s="123"/>
+      <c r="P46" s="123"/>
+      <c r="Q46" s="124"/>
+      <c r="R46" s="67" t="s">
+        <v>177</v>
+      </c>
       <c r="S46" s="67"/>
       <c r="T46" s="67"/>
       <c r="U46" s="67"/>
@@ -14145,28 +14146,28 @@
     <row r="47" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A47" s="7"/>
       <c r="B47" s="21">
-        <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
-        <v>10</v>
+        <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
+        <v>8</v>
       </c>
-      <c r="C47" s="116" t="s">
-        <v>51</v>
+      <c r="C47" s="119" t="s">
+        <v>48</v>
       </c>
-      <c r="D47" s="117"/>
-      <c r="E47" s="117"/>
-      <c r="F47" s="117"/>
-      <c r="G47" s="117"/>
-      <c r="H47" s="117"/>
-      <c r="I47" s="118"/>
-      <c r="J47" s="119" t="s">
+      <c r="D47" s="120"/>
+      <c r="E47" s="120"/>
+      <c r="F47" s="120"/>
+      <c r="G47" s="120"/>
+      <c r="H47" s="120"/>
+      <c r="I47" s="121"/>
+      <c r="J47" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="K47" s="120"/>
-      <c r="L47" s="120"/>
-      <c r="M47" s="120"/>
-      <c r="N47" s="120"/>
-      <c r="O47" s="120"/>
-      <c r="P47" s="120"/>
-      <c r="Q47" s="121"/>
+      <c r="K47" s="123"/>
+      <c r="L47" s="123"/>
+      <c r="M47" s="123"/>
+      <c r="N47" s="123"/>
+      <c r="O47" s="123"/>
+      <c r="P47" s="123"/>
+      <c r="Q47" s="124"/>
       <c r="R47" s="67"/>
       <c r="S47" s="67"/>
       <c r="T47" s="67"/>
@@ -14222,28 +14223,28 @@
     <row r="48" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A48" s="7"/>
       <c r="B48" s="21">
-        <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
-        <v>11</v>
+        <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
+        <v>9</v>
       </c>
-      <c r="C48" s="116" t="s">
-        <v>52</v>
+      <c r="C48" s="119" t="s">
+        <v>50</v>
       </c>
-      <c r="D48" s="117"/>
-      <c r="E48" s="117"/>
-      <c r="F48" s="117"/>
-      <c r="G48" s="117"/>
-      <c r="H48" s="117"/>
-      <c r="I48" s="118"/>
-      <c r="J48" s="119" t="s">
+      <c r="D48" s="120"/>
+      <c r="E48" s="120"/>
+      <c r="F48" s="120"/>
+      <c r="G48" s="120"/>
+      <c r="H48" s="120"/>
+      <c r="I48" s="121"/>
+      <c r="J48" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="K48" s="120"/>
-      <c r="L48" s="120"/>
-      <c r="M48" s="120"/>
-      <c r="N48" s="120"/>
-      <c r="O48" s="120"/>
-      <c r="P48" s="120"/>
-      <c r="Q48" s="121"/>
+      <c r="K48" s="123"/>
+      <c r="L48" s="123"/>
+      <c r="M48" s="123"/>
+      <c r="N48" s="123"/>
+      <c r="O48" s="123"/>
+      <c r="P48" s="123"/>
+      <c r="Q48" s="124"/>
       <c r="R48" s="67"/>
       <c r="S48" s="67"/>
       <c r="T48" s="67"/>
@@ -14299,28 +14300,28 @@
     <row r="49" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A49" s="7"/>
       <c r="B49" s="21">
-        <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
-        <v>12</v>
+        <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
+        <v>10</v>
       </c>
-      <c r="C49" s="116" t="s">
-        <v>53</v>
+      <c r="C49" s="119" t="s">
+        <v>51</v>
       </c>
-      <c r="D49" s="117"/>
-      <c r="E49" s="117"/>
-      <c r="F49" s="117"/>
-      <c r="G49" s="117"/>
-      <c r="H49" s="117"/>
-      <c r="I49" s="118"/>
-      <c r="J49" s="119" t="s">
+      <c r="D49" s="120"/>
+      <c r="E49" s="120"/>
+      <c r="F49" s="120"/>
+      <c r="G49" s="120"/>
+      <c r="H49" s="120"/>
+      <c r="I49" s="121"/>
+      <c r="J49" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="K49" s="120"/>
-      <c r="L49" s="120"/>
-      <c r="M49" s="120"/>
-      <c r="N49" s="120"/>
-      <c r="O49" s="120"/>
-      <c r="P49" s="120"/>
-      <c r="Q49" s="121"/>
+      <c r="K49" s="123"/>
+      <c r="L49" s="123"/>
+      <c r="M49" s="123"/>
+      <c r="N49" s="123"/>
+      <c r="O49" s="123"/>
+      <c r="P49" s="123"/>
+      <c r="Q49" s="124"/>
       <c r="R49" s="67"/>
       <c r="S49" s="67"/>
       <c r="T49" s="67"/>
@@ -14376,28 +14377,28 @@
     <row r="50" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A50" s="7"/>
       <c r="B50" s="21">
-        <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
-        <v>13</v>
+        <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
+        <v>11</v>
       </c>
-      <c r="C50" s="116" t="s">
-        <v>54</v>
+      <c r="C50" s="119" t="s">
+        <v>52</v>
       </c>
-      <c r="D50" s="117"/>
-      <c r="E50" s="117"/>
-      <c r="F50" s="117"/>
-      <c r="G50" s="117"/>
-      <c r="H50" s="117"/>
-      <c r="I50" s="118"/>
-      <c r="J50" s="119" t="s">
+      <c r="D50" s="120"/>
+      <c r="E50" s="120"/>
+      <c r="F50" s="120"/>
+      <c r="G50" s="120"/>
+      <c r="H50" s="120"/>
+      <c r="I50" s="121"/>
+      <c r="J50" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="K50" s="120"/>
-      <c r="L50" s="120"/>
-      <c r="M50" s="120"/>
-      <c r="N50" s="120"/>
-      <c r="O50" s="120"/>
-      <c r="P50" s="120"/>
-      <c r="Q50" s="121"/>
+      <c r="K50" s="123"/>
+      <c r="L50" s="123"/>
+      <c r="M50" s="123"/>
+      <c r="N50" s="123"/>
+      <c r="O50" s="123"/>
+      <c r="P50" s="123"/>
+      <c r="Q50" s="124"/>
       <c r="R50" s="67"/>
       <c r="S50" s="67"/>
       <c r="T50" s="67"/>
@@ -14453,28 +14454,28 @@
     <row r="51" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A51" s="7"/>
       <c r="B51" s="21">
-        <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
-        <v>14</v>
+        <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
+        <v>12</v>
       </c>
-      <c r="C51" s="126" t="s">
-        <v>55</v>
+      <c r="C51" s="119" t="s">
+        <v>53</v>
       </c>
-      <c r="D51" s="117"/>
-      <c r="E51" s="117"/>
-      <c r="F51" s="117"/>
-      <c r="G51" s="117"/>
-      <c r="H51" s="117"/>
-      <c r="I51" s="118"/>
-      <c r="J51" s="119" t="s">
+      <c r="D51" s="120"/>
+      <c r="E51" s="120"/>
+      <c r="F51" s="120"/>
+      <c r="G51" s="120"/>
+      <c r="H51" s="120"/>
+      <c r="I51" s="121"/>
+      <c r="J51" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="K51" s="120"/>
-      <c r="L51" s="120"/>
-      <c r="M51" s="120"/>
-      <c r="N51" s="120"/>
-      <c r="O51" s="120"/>
-      <c r="P51" s="120"/>
-      <c r="Q51" s="121"/>
+      <c r="K51" s="123"/>
+      <c r="L51" s="123"/>
+      <c r="M51" s="123"/>
+      <c r="N51" s="123"/>
+      <c r="O51" s="123"/>
+      <c r="P51" s="123"/>
+      <c r="Q51" s="124"/>
       <c r="R51" s="67"/>
       <c r="S51" s="67"/>
       <c r="T51" s="67"/>
@@ -14530,28 +14531,28 @@
     <row r="52" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A52" s="7"/>
       <c r="B52" s="21">
-        <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
-        <v>15</v>
+        <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
+        <v>13</v>
       </c>
-      <c r="C52" s="126" t="s">
-        <v>56</v>
+      <c r="C52" s="119" t="s">
+        <v>54</v>
       </c>
-      <c r="D52" s="117"/>
-      <c r="E52" s="117"/>
-      <c r="F52" s="117"/>
-      <c r="G52" s="117"/>
-      <c r="H52" s="117"/>
-      <c r="I52" s="118"/>
-      <c r="J52" s="119" t="s">
+      <c r="D52" s="120"/>
+      <c r="E52" s="120"/>
+      <c r="F52" s="120"/>
+      <c r="G52" s="120"/>
+      <c r="H52" s="120"/>
+      <c r="I52" s="121"/>
+      <c r="J52" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="K52" s="120"/>
-      <c r="L52" s="120"/>
-      <c r="M52" s="120"/>
-      <c r="N52" s="120"/>
-      <c r="O52" s="120"/>
-      <c r="P52" s="120"/>
-      <c r="Q52" s="121"/>
+      <c r="K52" s="123"/>
+      <c r="L52" s="123"/>
+      <c r="M52" s="123"/>
+      <c r="N52" s="123"/>
+      <c r="O52" s="123"/>
+      <c r="P52" s="123"/>
+      <c r="Q52" s="124"/>
       <c r="R52" s="67"/>
       <c r="S52" s="67"/>
       <c r="T52" s="67"/>
@@ -14607,28 +14608,28 @@
     <row r="53" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A53" s="7"/>
       <c r="B53" s="21">
-        <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
-        <v>16</v>
+        <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
+        <v>14</v>
       </c>
-      <c r="C53" s="126" t="s">
-        <v>106</v>
+      <c r="C53" s="129" t="s">
+        <v>55</v>
       </c>
-      <c r="D53" s="117"/>
-      <c r="E53" s="117"/>
-      <c r="F53" s="117"/>
-      <c r="G53" s="117"/>
-      <c r="H53" s="117"/>
-      <c r="I53" s="118"/>
-      <c r="J53" s="119" t="s">
+      <c r="D53" s="120"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="120"/>
+      <c r="I53" s="121"/>
+      <c r="J53" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="K53" s="120"/>
-      <c r="L53" s="120"/>
-      <c r="M53" s="120"/>
-      <c r="N53" s="120"/>
-      <c r="O53" s="120"/>
-      <c r="P53" s="120"/>
-      <c r="Q53" s="121"/>
+      <c r="K53" s="123"/>
+      <c r="L53" s="123"/>
+      <c r="M53" s="123"/>
+      <c r="N53" s="123"/>
+      <c r="O53" s="123"/>
+      <c r="P53" s="123"/>
+      <c r="Q53" s="124"/>
       <c r="R53" s="67"/>
       <c r="S53" s="67"/>
       <c r="T53" s="67"/>
@@ -14684,31 +14685,29 @@
     <row r="54" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A54" s="7"/>
       <c r="B54" s="21">
-        <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
-        <v>17</v>
+        <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
+        <v>15</v>
       </c>
-      <c r="C54" s="126" t="s">
-        <v>57</v>
+      <c r="C54" s="129" t="s">
+        <v>56</v>
       </c>
-      <c r="D54" s="117"/>
-      <c r="E54" s="117"/>
-      <c r="F54" s="117"/>
-      <c r="G54" s="117"/>
-      <c r="H54" s="117"/>
-      <c r="I54" s="118"/>
-      <c r="J54" s="119" t="s">
-        <v>58</v>
+      <c r="D54" s="120"/>
+      <c r="E54" s="120"/>
+      <c r="F54" s="120"/>
+      <c r="G54" s="120"/>
+      <c r="H54" s="120"/>
+      <c r="I54" s="121"/>
+      <c r="J54" s="122" t="s">
+        <v>49</v>
       </c>
-      <c r="K54" s="120"/>
-      <c r="L54" s="120"/>
-      <c r="M54" s="120"/>
-      <c r="N54" s="120"/>
-      <c r="O54" s="120"/>
-      <c r="P54" s="120"/>
-      <c r="Q54" s="121"/>
-      <c r="R54" s="67" t="s">
-        <v>176</v>
-      </c>
+      <c r="K54" s="123"/>
+      <c r="L54" s="123"/>
+      <c r="M54" s="123"/>
+      <c r="N54" s="123"/>
+      <c r="O54" s="123"/>
+      <c r="P54" s="123"/>
+      <c r="Q54" s="124"/>
+      <c r="R54" s="67"/>
       <c r="S54" s="67"/>
       <c r="T54" s="67"/>
       <c r="U54" s="67"/>
@@ -14763,31 +14762,29 @@
     <row r="55" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A55" s="7"/>
       <c r="B55" s="21">
-        <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
-        <v>18</v>
+        <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
+        <v>16</v>
       </c>
-      <c r="C55" s="127" t="s">
-        <v>108</v>
+      <c r="C55" s="129" t="s">
+        <v>106</v>
       </c>
-      <c r="D55" s="128"/>
-      <c r="E55" s="128"/>
-      <c r="F55" s="128"/>
-      <c r="G55" s="128"/>
-      <c r="H55" s="128"/>
-      <c r="I55" s="129"/>
-      <c r="J55" s="119" t="s">
-        <v>110</v>
+      <c r="D55" s="120"/>
+      <c r="E55" s="120"/>
+      <c r="F55" s="120"/>
+      <c r="G55" s="120"/>
+      <c r="H55" s="120"/>
+      <c r="I55" s="121"/>
+      <c r="J55" s="122" t="s">
+        <v>49</v>
       </c>
-      <c r="K55" s="120"/>
-      <c r="L55" s="120"/>
-      <c r="M55" s="120"/>
-      <c r="N55" s="120"/>
-      <c r="O55" s="120"/>
-      <c r="P55" s="120"/>
-      <c r="Q55" s="121"/>
-      <c r="R55" s="67" t="s">
-        <v>27</v>
-      </c>
+      <c r="K55" s="123"/>
+      <c r="L55" s="123"/>
+      <c r="M55" s="123"/>
+      <c r="N55" s="123"/>
+      <c r="O55" s="123"/>
+      <c r="P55" s="123"/>
+      <c r="Q55" s="124"/>
+      <c r="R55" s="67"/>
       <c r="S55" s="67"/>
       <c r="T55" s="67"/>
       <c r="U55" s="67"/>
@@ -14842,55 +14839,55 @@
     <row r="56" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A56" s="7"/>
       <c r="B56" s="21">
-        <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
-        <v>19</v>
+        <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
+        <v>17</v>
       </c>
-      <c r="C56" s="127" t="s">
-        <v>109</v>
+      <c r="C56" s="129" t="s">
+        <v>57</v>
       </c>
-      <c r="D56" s="128"/>
-      <c r="E56" s="128"/>
-      <c r="F56" s="128"/>
-      <c r="G56" s="128"/>
-      <c r="H56" s="128"/>
-      <c r="I56" s="129"/>
-      <c r="J56" s="119" t="s">
-        <v>113</v>
+      <c r="D56" s="120"/>
+      <c r="E56" s="120"/>
+      <c r="F56" s="120"/>
+      <c r="G56" s="120"/>
+      <c r="H56" s="120"/>
+      <c r="I56" s="121"/>
+      <c r="J56" s="122" t="s">
+        <v>58</v>
       </c>
-      <c r="K56" s="120"/>
-      <c r="L56" s="120"/>
-      <c r="M56" s="120"/>
-      <c r="N56" s="120"/>
-      <c r="O56" s="120"/>
-      <c r="P56" s="120"/>
-      <c r="Q56" s="117"/>
-      <c r="R56" s="125" t="s">
-        <v>177</v>
+      <c r="K56" s="123"/>
+      <c r="L56" s="123"/>
+      <c r="M56" s="123"/>
+      <c r="N56" s="123"/>
+      <c r="O56" s="123"/>
+      <c r="P56" s="123"/>
+      <c r="Q56" s="124"/>
+      <c r="R56" s="67" t="s">
+        <v>175</v>
       </c>
-      <c r="S56" s="125"/>
-      <c r="T56" s="125"/>
-      <c r="U56" s="125"/>
-      <c r="V56" s="125"/>
-      <c r="W56" s="125"/>
-      <c r="X56" s="125"/>
-      <c r="Y56" s="125"/>
-      <c r="Z56" s="125"/>
-      <c r="AA56" s="125"/>
-      <c r="AB56" s="125"/>
-      <c r="AC56" s="125"/>
-      <c r="AD56" s="125"/>
-      <c r="AE56" s="125"/>
-      <c r="AF56" s="125"/>
-      <c r="AG56" s="125"/>
-      <c r="AH56" s="125"/>
-      <c r="AI56" s="125"/>
-      <c r="AJ56" s="125"/>
-      <c r="AK56" s="125"/>
-      <c r="AL56" s="125"/>
-      <c r="AM56" s="125"/>
-      <c r="AN56" s="125"/>
-      <c r="AO56" s="125"/>
-      <c r="AP56" s="125"/>
+      <c r="S56" s="67"/>
+      <c r="T56" s="67"/>
+      <c r="U56" s="67"/>
+      <c r="V56" s="67"/>
+      <c r="W56" s="67"/>
+      <c r="X56" s="67"/>
+      <c r="Y56" s="67"/>
+      <c r="Z56" s="67"/>
+      <c r="AA56" s="67"/>
+      <c r="AB56" s="67"/>
+      <c r="AC56" s="67"/>
+      <c r="AD56" s="67"/>
+      <c r="AE56" s="67"/>
+      <c r="AF56" s="67"/>
+      <c r="AG56" s="67"/>
+      <c r="AH56" s="67"/>
+      <c r="AI56" s="67"/>
+      <c r="AJ56" s="67"/>
+      <c r="AK56" s="67"/>
+      <c r="AL56" s="67"/>
+      <c r="AM56" s="67"/>
+      <c r="AN56" s="67"/>
+      <c r="AO56" s="67"/>
+      <c r="AP56" s="67"/>
       <c r="AQ56" s="58"/>
       <c r="AR56" s="58"/>
       <c r="AS56" s="58"/>
@@ -14918,148 +14915,163 @@
       <c r="BO56" s="59"/>
       <c r="BP56" s="2"/>
     </row>
-    <row r="57" spans="1:68" ht="16.5">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
-      <c r="U57" s="3"/>
-      <c r="V57" s="3"/>
-      <c r="W57" s="3"/>
-      <c r="X57" s="3"/>
-      <c r="Y57" s="3"/>
-      <c r="Z57" s="3"/>
-      <c r="AA57" s="3"/>
-      <c r="AB57" s="3"/>
-      <c r="AC57" s="3"/>
-      <c r="AD57" s="3"/>
-      <c r="AE57" s="3"/>
-      <c r="AF57" s="3"/>
-      <c r="AG57" s="3"/>
-      <c r="AH57" s="3"/>
-      <c r="AI57" s="3"/>
-      <c r="AJ57" s="3"/>
-      <c r="AK57" s="3"/>
-      <c r="AL57" s="3"/>
-      <c r="AM57" s="3"/>
-      <c r="AN57" s="3"/>
-      <c r="AO57" s="3"/>
-      <c r="AP57" s="3"/>
-      <c r="AQ57" s="3"/>
-      <c r="AR57" s="3"/>
-      <c r="AS57" s="3"/>
-      <c r="AT57" s="3"/>
-      <c r="AU57" s="3"/>
-      <c r="AV57" s="3"/>
-      <c r="AW57" s="3"/>
-      <c r="AX57" s="3"/>
-      <c r="AY57" s="3"/>
-      <c r="AZ57" s="3"/>
-      <c r="BA57" s="3"/>
-      <c r="BB57" s="3"/>
-      <c r="BC57" s="3"/>
-      <c r="BD57" s="3"/>
-      <c r="BE57" s="3"/>
-      <c r="BF57" s="3"/>
-      <c r="BG57" s="3"/>
-      <c r="BH57" s="3"/>
-      <c r="BI57" s="3"/>
-      <c r="BJ57" s="3"/>
-      <c r="BK57" s="3"/>
-      <c r="BL57" s="3"/>
-      <c r="BM57" s="3"/>
-      <c r="BN57" s="3"/>
-      <c r="BO57" s="3"/>
-      <c r="BP57" s="3"/>
-    </row>
-    <row r="58" spans="1:68" ht="16.5">
-      <c r="A58" s="33" t="str">
-        <f ca="1">LEFT($A$1, 4)&amp;"3.DB処理"</f>
-        <v>2.2.3.DB処理</v>
+    <row r="57" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A57" s="7"/>
+      <c r="B57" s="21">
+        <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
+        <v>18</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11"/>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11"/>
-      <c r="U58" s="11"/>
-      <c r="V58" s="11"/>
-      <c r="W58" s="11"/>
-      <c r="X58" s="11"/>
-      <c r="Y58" s="11"/>
-      <c r="Z58" s="11"/>
-      <c r="AA58" s="11"/>
-      <c r="AB58" s="11"/>
-      <c r="AC58" s="11"/>
-      <c r="AD58" s="11"/>
-      <c r="AE58" s="11"/>
-      <c r="AF58" s="11"/>
-      <c r="AG58" s="11"/>
-      <c r="AH58" s="11"/>
-      <c r="AI58" s="11"/>
-      <c r="AJ58" s="11"/>
-      <c r="AK58" s="11"/>
-      <c r="AL58" s="11"/>
-      <c r="AM58" s="11"/>
-      <c r="AN58" s="11"/>
-      <c r="AO58" s="11"/>
-      <c r="AP58" s="11"/>
-      <c r="AQ58" s="11"/>
-      <c r="AR58" s="11"/>
-      <c r="AS58" s="11"/>
-      <c r="AT58" s="11"/>
-      <c r="AU58" s="11"/>
-      <c r="AV58" s="11"/>
-      <c r="AW58" s="11"/>
-      <c r="AX58" s="11"/>
-      <c r="AY58" s="11"/>
-      <c r="AZ58" s="11"/>
-      <c r="BA58" s="11"/>
-      <c r="BB58" s="11"/>
-      <c r="BC58" s="11"/>
-      <c r="BD58" s="11"/>
-      <c r="BE58" s="11"/>
-      <c r="BF58" s="11"/>
-      <c r="BG58" s="11"/>
-      <c r="BH58" s="11"/>
-      <c r="BI58" s="11"/>
-      <c r="BJ58" s="11"/>
-      <c r="BK58" s="11"/>
-      <c r="BL58" s="11"/>
-      <c r="BM58" s="11"/>
-      <c r="BN58" s="11"/>
-      <c r="BO58" s="11"/>
-      <c r="BP58" s="11"/>
+      <c r="C57" s="130" t="s">
+        <v>108</v>
+      </c>
+      <c r="D57" s="131"/>
+      <c r="E57" s="131"/>
+      <c r="F57" s="131"/>
+      <c r="G57" s="131"/>
+      <c r="H57" s="131"/>
+      <c r="I57" s="132"/>
+      <c r="J57" s="122" t="s">
+        <v>110</v>
+      </c>
+      <c r="K57" s="123"/>
+      <c r="L57" s="123"/>
+      <c r="M57" s="123"/>
+      <c r="N57" s="123"/>
+      <c r="O57" s="123"/>
+      <c r="P57" s="123"/>
+      <c r="Q57" s="124"/>
+      <c r="R57" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="S57" s="67"/>
+      <c r="T57" s="67"/>
+      <c r="U57" s="67"/>
+      <c r="V57" s="67"/>
+      <c r="W57" s="67"/>
+      <c r="X57" s="67"/>
+      <c r="Y57" s="67"/>
+      <c r="Z57" s="67"/>
+      <c r="AA57" s="67"/>
+      <c r="AB57" s="67"/>
+      <c r="AC57" s="67"/>
+      <c r="AD57" s="67"/>
+      <c r="AE57" s="67"/>
+      <c r="AF57" s="67"/>
+      <c r="AG57" s="67"/>
+      <c r="AH57" s="67"/>
+      <c r="AI57" s="67"/>
+      <c r="AJ57" s="67"/>
+      <c r="AK57" s="67"/>
+      <c r="AL57" s="67"/>
+      <c r="AM57" s="67"/>
+      <c r="AN57" s="67"/>
+      <c r="AO57" s="67"/>
+      <c r="AP57" s="67"/>
+      <c r="AQ57" s="58"/>
+      <c r="AR57" s="58"/>
+      <c r="AS57" s="58"/>
+      <c r="AT57" s="58"/>
+      <c r="AU57" s="58"/>
+      <c r="AV57" s="58"/>
+      <c r="AW57" s="58"/>
+      <c r="AX57" s="58"/>
+      <c r="AY57" s="58"/>
+      <c r="AZ57" s="58"/>
+      <c r="BA57" s="58"/>
+      <c r="BB57" s="58"/>
+      <c r="BC57" s="59"/>
+      <c r="BD57" s="59"/>
+      <c r="BE57" s="59"/>
+      <c r="BF57" s="59"/>
+      <c r="BG57" s="59"/>
+      <c r="BH57" s="59"/>
+      <c r="BI57" s="59"/>
+      <c r="BJ57" s="59"/>
+      <c r="BK57" s="59"/>
+      <c r="BL57" s="59"/>
+      <c r="BM57" s="59"/>
+      <c r="BN57" s="59"/>
+      <c r="BO57" s="59"/>
+      <c r="BP57" s="2"/>
+    </row>
+    <row r="58" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A58" s="7"/>
+      <c r="B58" s="21">
+        <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
+        <v>19</v>
+      </c>
+      <c r="C58" s="130" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" s="131"/>
+      <c r="E58" s="131"/>
+      <c r="F58" s="131"/>
+      <c r="G58" s="131"/>
+      <c r="H58" s="131"/>
+      <c r="I58" s="132"/>
+      <c r="J58" s="122" t="s">
+        <v>112</v>
+      </c>
+      <c r="K58" s="123"/>
+      <c r="L58" s="123"/>
+      <c r="M58" s="123"/>
+      <c r="N58" s="123"/>
+      <c r="O58" s="123"/>
+      <c r="P58" s="123"/>
+      <c r="Q58" s="120"/>
+      <c r="R58" s="128" t="s">
+        <v>176</v>
+      </c>
+      <c r="S58" s="128"/>
+      <c r="T58" s="128"/>
+      <c r="U58" s="128"/>
+      <c r="V58" s="128"/>
+      <c r="W58" s="128"/>
+      <c r="X58" s="128"/>
+      <c r="Y58" s="128"/>
+      <c r="Z58" s="128"/>
+      <c r="AA58" s="128"/>
+      <c r="AB58" s="128"/>
+      <c r="AC58" s="128"/>
+      <c r="AD58" s="128"/>
+      <c r="AE58" s="128"/>
+      <c r="AF58" s="128"/>
+      <c r="AG58" s="128"/>
+      <c r="AH58" s="128"/>
+      <c r="AI58" s="128"/>
+      <c r="AJ58" s="128"/>
+      <c r="AK58" s="128"/>
+      <c r="AL58" s="128"/>
+      <c r="AM58" s="128"/>
+      <c r="AN58" s="128"/>
+      <c r="AO58" s="128"/>
+      <c r="AP58" s="128"/>
+      <c r="AQ58" s="58"/>
+      <c r="AR58" s="58"/>
+      <c r="AS58" s="58"/>
+      <c r="AT58" s="58"/>
+      <c r="AU58" s="58"/>
+      <c r="AV58" s="58"/>
+      <c r="AW58" s="58"/>
+      <c r="AX58" s="58"/>
+      <c r="AY58" s="58"/>
+      <c r="AZ58" s="58"/>
+      <c r="BA58" s="58"/>
+      <c r="BB58" s="58"/>
+      <c r="BC58" s="59"/>
+      <c r="BD58" s="59"/>
+      <c r="BE58" s="59"/>
+      <c r="BF58" s="59"/>
+      <c r="BG58" s="59"/>
+      <c r="BH58" s="59"/>
+      <c r="BI58" s="59"/>
+      <c r="BJ58" s="59"/>
+      <c r="BK58" s="59"/>
+      <c r="BL58" s="59"/>
+      <c r="BM58" s="59"/>
+      <c r="BN58" s="59"/>
+      <c r="BO58" s="59"/>
+      <c r="BP58" s="2"/>
     </row>
     <row r="59" spans="1:68" ht="16.5">
       <c r="A59" s="3"/>
@@ -15132,147 +15144,147 @@
       <c r="BP59" s="3"/>
     </row>
     <row r="60" spans="1:68" ht="16.5">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
-      <c r="V60" s="3"/>
-      <c r="W60" s="3"/>
-      <c r="X60" s="3"/>
-      <c r="Y60" s="3"/>
-      <c r="Z60" s="3"/>
-      <c r="AA60" s="3"/>
-      <c r="AB60" s="3"/>
-      <c r="AC60" s="3"/>
-      <c r="AD60" s="3"/>
-      <c r="AE60" s="3"/>
-      <c r="AF60" s="3"/>
-      <c r="AG60" s="3"/>
-      <c r="AH60" s="3"/>
-      <c r="AI60" s="3"/>
-      <c r="AJ60" s="3"/>
-      <c r="AK60" s="3"/>
-      <c r="AL60" s="3"/>
-      <c r="AM60" s="3"/>
-      <c r="AN60" s="3"/>
-      <c r="AO60" s="3"/>
-      <c r="AP60" s="3"/>
-      <c r="AQ60" s="3"/>
-      <c r="AR60" s="3"/>
-      <c r="AS60" s="3"/>
-      <c r="AT60" s="3"/>
-      <c r="AU60" s="3"/>
-      <c r="AV60" s="3"/>
-      <c r="AW60" s="3"/>
-      <c r="AX60" s="3"/>
-      <c r="AY60" s="3"/>
-      <c r="AZ60" s="3"/>
-      <c r="BA60" s="3"/>
-      <c r="BB60" s="3"/>
-      <c r="BC60" s="3"/>
-      <c r="BD60" s="3"/>
-      <c r="BE60" s="3"/>
-      <c r="BF60" s="3"/>
-      <c r="BG60" s="3"/>
-      <c r="BH60" s="3"/>
-      <c r="BI60" s="3"/>
-      <c r="BJ60" s="3"/>
-      <c r="BK60" s="3"/>
-      <c r="BL60" s="3"/>
-      <c r="BM60" s="3"/>
-      <c r="BN60" s="3"/>
-      <c r="BO60" s="3"/>
-      <c r="BP60" s="3"/>
+      <c r="A60" s="33" t="str">
+        <f ca="1">LEFT($A$1, 4)&amp;"3.DB処理"</f>
+        <v>2.2.3.DB処理</v>
+      </c>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="11"/>
+      <c r="U60" s="11"/>
+      <c r="V60" s="11"/>
+      <c r="W60" s="11"/>
+      <c r="X60" s="11"/>
+      <c r="Y60" s="11"/>
+      <c r="Z60" s="11"/>
+      <c r="AA60" s="11"/>
+      <c r="AB60" s="11"/>
+      <c r="AC60" s="11"/>
+      <c r="AD60" s="11"/>
+      <c r="AE60" s="11"/>
+      <c r="AF60" s="11"/>
+      <c r="AG60" s="11"/>
+      <c r="AH60" s="11"/>
+      <c r="AI60" s="11"/>
+      <c r="AJ60" s="11"/>
+      <c r="AK60" s="11"/>
+      <c r="AL60" s="11"/>
+      <c r="AM60" s="11"/>
+      <c r="AN60" s="11"/>
+      <c r="AO60" s="11"/>
+      <c r="AP60" s="11"/>
+      <c r="AQ60" s="11"/>
+      <c r="AR60" s="11"/>
+      <c r="AS60" s="11"/>
+      <c r="AT60" s="11"/>
+      <c r="AU60" s="11"/>
+      <c r="AV60" s="11"/>
+      <c r="AW60" s="11"/>
+      <c r="AX60" s="11"/>
+      <c r="AY60" s="11"/>
+      <c r="AZ60" s="11"/>
+      <c r="BA60" s="11"/>
+      <c r="BB60" s="11"/>
+      <c r="BC60" s="11"/>
+      <c r="BD60" s="11"/>
+      <c r="BE60" s="11"/>
+      <c r="BF60" s="11"/>
+      <c r="BG60" s="11"/>
+      <c r="BH60" s="11"/>
+      <c r="BI60" s="11"/>
+      <c r="BJ60" s="11"/>
+      <c r="BK60" s="11"/>
+      <c r="BL60" s="11"/>
+      <c r="BM60" s="11"/>
+      <c r="BN60" s="11"/>
+      <c r="BO60" s="11"/>
+      <c r="BP60" s="11"/>
     </row>
     <row r="61" spans="1:68" ht="16.5">
-      <c r="A61" s="33" t="str">
-        <f ca="1">LEFT($A$1, 4)&amp;"4.備考"</f>
-        <v>2.2.4.備考</v>
-      </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
-      <c r="T61" s="1"/>
-      <c r="U61" s="1"/>
-      <c r="V61" s="1"/>
-      <c r="W61" s="1"/>
-      <c r="X61" s="1"/>
-      <c r="Y61" s="1"/>
-      <c r="Z61" s="1"/>
-      <c r="AA61" s="1"/>
-      <c r="AB61" s="1"/>
-      <c r="AC61" s="1"/>
-      <c r="AD61" s="1"/>
-      <c r="AE61" s="1"/>
-      <c r="AF61" s="1"/>
-      <c r="AG61" s="1"/>
-      <c r="AH61" s="1"/>
-      <c r="AI61" s="1"/>
-      <c r="AJ61" s="1"/>
-      <c r="AK61" s="1"/>
-      <c r="AL61" s="1"/>
-      <c r="AM61" s="1"/>
-      <c r="AN61" s="1"/>
-      <c r="AO61" s="1"/>
-      <c r="AP61" s="1"/>
-      <c r="AQ61" s="1"/>
-      <c r="AR61" s="1"/>
-      <c r="AS61" s="1"/>
-      <c r="AT61" s="1"/>
-      <c r="AU61" s="1"/>
-      <c r="AV61" s="1"/>
-      <c r="AW61" s="1"/>
-      <c r="AX61" s="1"/>
-      <c r="AY61" s="1"/>
-      <c r="AZ61" s="1"/>
-      <c r="BA61" s="1"/>
-      <c r="BB61" s="1"/>
-      <c r="BC61" s="1"/>
-      <c r="BD61" s="1"/>
-      <c r="BE61" s="1"/>
-      <c r="BF61" s="1"/>
-      <c r="BG61" s="1"/>
-      <c r="BH61" s="1"/>
-      <c r="BI61" s="1"/>
-      <c r="BJ61" s="1"/>
-      <c r="BK61" s="1"/>
-      <c r="BL61" s="1"/>
-      <c r="BM61" s="1"/>
-      <c r="BN61" s="1"/>
-      <c r="BO61" s="1"/>
-      <c r="BP61" s="1"/>
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
+      <c r="X61" s="3"/>
+      <c r="Y61" s="3"/>
+      <c r="Z61" s="3"/>
+      <c r="AA61" s="3"/>
+      <c r="AB61" s="3"/>
+      <c r="AC61" s="3"/>
+      <c r="AD61" s="3"/>
+      <c r="AE61" s="3"/>
+      <c r="AF61" s="3"/>
+      <c r="AG61" s="3"/>
+      <c r="AH61" s="3"/>
+      <c r="AI61" s="3"/>
+      <c r="AJ61" s="3"/>
+      <c r="AK61" s="3"/>
+      <c r="AL61" s="3"/>
+      <c r="AM61" s="3"/>
+      <c r="AN61" s="3"/>
+      <c r="AO61" s="3"/>
+      <c r="AP61" s="3"/>
+      <c r="AQ61" s="3"/>
+      <c r="AR61" s="3"/>
+      <c r="AS61" s="3"/>
+      <c r="AT61" s="3"/>
+      <c r="AU61" s="3"/>
+      <c r="AV61" s="3"/>
+      <c r="AW61" s="3"/>
+      <c r="AX61" s="3"/>
+      <c r="AY61" s="3"/>
+      <c r="AZ61" s="3"/>
+      <c r="BA61" s="3"/>
+      <c r="BB61" s="3"/>
+      <c r="BC61" s="3"/>
+      <c r="BD61" s="3"/>
+      <c r="BE61" s="3"/>
+      <c r="BF61" s="3"/>
+      <c r="BG61" s="3"/>
+      <c r="BH61" s="3"/>
+      <c r="BI61" s="3"/>
+      <c r="BJ61" s="3"/>
+      <c r="BK61" s="3"/>
+      <c r="BL61" s="3"/>
+      <c r="BM61" s="3"/>
+      <c r="BN61" s="3"/>
+      <c r="BO61" s="3"/>
+      <c r="BP61" s="3"/>
     </row>
     <row r="62" spans="1:68" ht="16.5">
       <c r="A62" s="3"/>
@@ -15344,84 +15356,83 @@
       <c r="BO62" s="3"/>
       <c r="BP62" s="3"/>
     </row>
-    <row r="63" spans="1:68" ht="16.5" outlineLevel="1">
-      <c r="A63" s="3"/>
-      <c r="B63" s="12" t="s">
-        <v>59</v>
+    <row r="63" spans="1:68" ht="16.5">
+      <c r="A63" s="33" t="str">
+        <f ca="1">LEFT($A$1, 4)&amp;"4.備考"</f>
+        <v>2.2.4.備考</v>
       </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
-      <c r="U63" s="3"/>
-      <c r="V63" s="3"/>
-      <c r="W63" s="3"/>
-      <c r="X63" s="3"/>
-      <c r="Y63" s="3"/>
-      <c r="Z63" s="3"/>
-      <c r="AA63" s="3"/>
-      <c r="AB63" s="3"/>
-      <c r="AC63" s="3"/>
-      <c r="AD63" s="3"/>
-      <c r="AE63" s="3"/>
-      <c r="AF63" s="3"/>
-      <c r="AG63" s="3"/>
-      <c r="AH63" s="3"/>
-      <c r="AI63" s="3"/>
-      <c r="AJ63" s="3"/>
-      <c r="AK63" s="3"/>
-      <c r="AL63" s="3"/>
-      <c r="AM63" s="3"/>
-      <c r="AN63" s="3"/>
-      <c r="AO63" s="3"/>
-      <c r="AP63" s="3"/>
-      <c r="AQ63" s="3"/>
-      <c r="AR63" s="3"/>
-      <c r="AS63" s="3"/>
-      <c r="AT63" s="3"/>
-      <c r="AU63" s="3"/>
-      <c r="AV63" s="3"/>
-      <c r="AW63" s="3"/>
-      <c r="AX63" s="3"/>
-      <c r="AY63" s="3"/>
-      <c r="AZ63" s="3"/>
-      <c r="BA63" s="3"/>
-      <c r="BB63" s="3"/>
-      <c r="BC63" s="3"/>
-      <c r="BD63" s="3"/>
-      <c r="BE63" s="3"/>
-      <c r="BF63" s="3"/>
-      <c r="BG63" s="3"/>
-      <c r="BH63" s="3"/>
-      <c r="BI63" s="3"/>
-      <c r="BJ63" s="3"/>
-      <c r="BK63" s="3"/>
-      <c r="BL63" s="3"/>
-      <c r="BM63" s="3"/>
-      <c r="BN63" s="3"/>
-      <c r="BO63" s="3"/>
-      <c r="BP63" s="3"/>
-    </row>
-    <row r="64" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1"/>
+      <c r="AC63" s="1"/>
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="1"/>
+      <c r="AF63" s="1"/>
+      <c r="AG63" s="1"/>
+      <c r="AH63" s="1"/>
+      <c r="AI63" s="1"/>
+      <c r="AJ63" s="1"/>
+      <c r="AK63" s="1"/>
+      <c r="AL63" s="1"/>
+      <c r="AM63" s="1"/>
+      <c r="AN63" s="1"/>
+      <c r="AO63" s="1"/>
+      <c r="AP63" s="1"/>
+      <c r="AQ63" s="1"/>
+      <c r="AR63" s="1"/>
+      <c r="AS63" s="1"/>
+      <c r="AT63" s="1"/>
+      <c r="AU63" s="1"/>
+      <c r="AV63" s="1"/>
+      <c r="AW63" s="1"/>
+      <c r="AX63" s="1"/>
+      <c r="AY63" s="1"/>
+      <c r="AZ63" s="1"/>
+      <c r="BA63" s="1"/>
+      <c r="BB63" s="1"/>
+      <c r="BC63" s="1"/>
+      <c r="BD63" s="1"/>
+      <c r="BE63" s="1"/>
+      <c r="BF63" s="1"/>
+      <c r="BG63" s="1"/>
+      <c r="BH63" s="1"/>
+      <c r="BI63" s="1"/>
+      <c r="BJ63" s="1"/>
+      <c r="BK63" s="1"/>
+      <c r="BL63" s="1"/>
+      <c r="BM63" s="1"/>
+      <c r="BN63" s="1"/>
+      <c r="BO63" s="1"/>
+      <c r="BP63" s="1"/>
+    </row>
+    <row r="64" spans="1:68" ht="16.5">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
-      <c r="C64" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -15490,11 +15501,11 @@
     </row>
     <row r="65" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
+      <c r="B65" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="C65" s="3"/>
-      <c r="D65" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -15563,11 +15574,11 @@
     <row r="66" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
+      <c r="C66" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="D66" s="3"/>
-      <c r="E66" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -15636,10 +15647,10 @@
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3" t="s">
-        <v>63</v>
+      <c r="D67" s="3" t="s">
+        <v>61</v>
       </c>
+      <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -15710,7 +15721,7 @@
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -15780,10 +15791,10 @@
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
-      <c r="D69" s="3" t="s">
-        <v>65</v>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3" t="s">
+        <v>63</v>
       </c>
-      <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -15854,7 +15865,7 @@
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -15925,7 +15936,7 @@
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -15998,7 +16009,7 @@
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -16069,7 +16080,7 @@
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -16211,10 +16222,10 @@
     <row r="75" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
-      <c r="C75" s="3" t="s">
-        <v>70</v>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3" t="s">
+        <v>69</v>
       </c>
-      <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -16284,10 +16295,10 @@
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
-      <c r="D76" s="3" t="s">
-        <v>71</v>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3" t="s">
+        <v>68</v>
       </c>
-      <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
@@ -16355,11 +16366,11 @@
     <row r="77" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
+      <c r="C77" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="D77" s="3"/>
-      <c r="E77" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
@@ -16428,10 +16439,10 @@
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3" t="s">
-        <v>73</v>
+      <c r="D78" s="3" t="s">
+        <v>71</v>
       </c>
+      <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -16502,7 +16513,7 @@
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
@@ -16572,10 +16583,10 @@
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
-      <c r="D80" s="3" t="s">
-        <v>75</v>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3" t="s">
+        <v>73</v>
       </c>
-      <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
@@ -16646,7 +16657,7 @@
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
@@ -16716,10 +16727,10 @@
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3" t="s">
-        <v>73</v>
+      <c r="D82" s="3" t="s">
+        <v>75</v>
       </c>
+      <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
@@ -16790,7 +16801,7 @@
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
@@ -16860,10 +16871,10 @@
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
-      <c r="D84" s="3" t="s">
-        <v>96</v>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3" t="s">
+        <v>73</v>
       </c>
-      <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
@@ -16934,7 +16945,7 @@
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
@@ -17004,10 +17015,10 @@
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3" t="s">
-        <v>73</v>
+      <c r="D86" s="3" t="s">
+        <v>96</v>
       </c>
+      <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
@@ -17078,7 +17089,7 @@
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
@@ -17147,11 +17158,11 @@
     <row r="88" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
-      <c r="C88" s="3" t="s">
-        <v>13</v>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3" t="s">
+        <v>73</v>
       </c>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
@@ -17220,10 +17231,10 @@
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
-      <c r="D89" s="3" t="s">
-        <v>61</v>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3" t="s">
+        <v>74</v>
       </c>
-      <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
@@ -17291,11 +17302,11 @@
     <row r="90" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
+      <c r="C90" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D90" s="3"/>
-      <c r="E90" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
@@ -17364,10 +17375,10 @@
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3" t="s">
-        <v>77</v>
+      <c r="D91" s="3" t="s">
+        <v>61</v>
       </c>
+      <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
@@ -17438,7 +17449,7 @@
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
@@ -17507,11 +17518,11 @@
     <row r="93" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
-      <c r="C93" s="3" t="s">
-        <v>78</v>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3" t="s">
+        <v>77</v>
       </c>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
@@ -17576,12 +17587,14 @@
       <c r="BO93" s="3"/>
       <c r="BP93" s="3"/>
     </row>
-    <row r="94" spans="1:68" ht="16.5">
+    <row r="94" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
+      <c r="E94" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -17646,28 +17659,178 @@
       <c r="BO94" s="3"/>
       <c r="BP94" s="3"/>
     </row>
+    <row r="95" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+      <c r="AF95" s="3"/>
+      <c r="AG95" s="3"/>
+      <c r="AH95" s="3"/>
+      <c r="AI95" s="3"/>
+      <c r="AJ95" s="3"/>
+      <c r="AK95" s="3"/>
+      <c r="AL95" s="3"/>
+      <c r="AM95" s="3"/>
+      <c r="AN95" s="3"/>
+      <c r="AO95" s="3"/>
+      <c r="AP95" s="3"/>
+      <c r="AQ95" s="3"/>
+      <c r="AR95" s="3"/>
+      <c r="AS95" s="3"/>
+      <c r="AT95" s="3"/>
+      <c r="AU95" s="3"/>
+      <c r="AV95" s="3"/>
+      <c r="AW95" s="3"/>
+      <c r="AX95" s="3"/>
+      <c r="AY95" s="3"/>
+      <c r="AZ95" s="3"/>
+      <c r="BA95" s="3"/>
+      <c r="BB95" s="3"/>
+      <c r="BC95" s="3"/>
+      <c r="BD95" s="3"/>
+      <c r="BE95" s="3"/>
+      <c r="BF95" s="3"/>
+      <c r="BG95" s="3"/>
+      <c r="BH95" s="3"/>
+      <c r="BI95" s="3"/>
+      <c r="BJ95" s="3"/>
+      <c r="BK95" s="3"/>
+      <c r="BL95" s="3"/>
+      <c r="BM95" s="3"/>
+      <c r="BN95" s="3"/>
+      <c r="BO95" s="3"/>
+      <c r="BP95" s="3"/>
+    </row>
+    <row r="96" spans="1:68" ht="16.5">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3"/>
+      <c r="S96" s="3"/>
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
+      <c r="W96" s="3"/>
+      <c r="X96" s="3"/>
+      <c r="Y96" s="3"/>
+      <c r="Z96" s="3"/>
+      <c r="AA96" s="3"/>
+      <c r="AB96" s="3"/>
+      <c r="AC96" s="3"/>
+      <c r="AD96" s="3"/>
+      <c r="AE96" s="3"/>
+      <c r="AF96" s="3"/>
+      <c r="AG96" s="3"/>
+      <c r="AH96" s="3"/>
+      <c r="AI96" s="3"/>
+      <c r="AJ96" s="3"/>
+      <c r="AK96" s="3"/>
+      <c r="AL96" s="3"/>
+      <c r="AM96" s="3"/>
+      <c r="AN96" s="3"/>
+      <c r="AO96" s="3"/>
+      <c r="AP96" s="3"/>
+      <c r="AQ96" s="3"/>
+      <c r="AR96" s="3"/>
+      <c r="AS96" s="3"/>
+      <c r="AT96" s="3"/>
+      <c r="AU96" s="3"/>
+      <c r="AV96" s="3"/>
+      <c r="AW96" s="3"/>
+      <c r="AX96" s="3"/>
+      <c r="AY96" s="3"/>
+      <c r="AZ96" s="3"/>
+      <c r="BA96" s="3"/>
+      <c r="BB96" s="3"/>
+      <c r="BC96" s="3"/>
+      <c r="BD96" s="3"/>
+      <c r="BE96" s="3"/>
+      <c r="BF96" s="3"/>
+      <c r="BG96" s="3"/>
+      <c r="BH96" s="3"/>
+      <c r="BI96" s="3"/>
+      <c r="BJ96" s="3"/>
+      <c r="BK96" s="3"/>
+      <c r="BL96" s="3"/>
+      <c r="BM96" s="3"/>
+      <c r="BN96" s="3"/>
+      <c r="BO96" s="3"/>
+      <c r="BP96" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="175">
+  <mergeCells count="177">
+    <mergeCell ref="C33:K33"/>
+    <mergeCell ref="L33:Q33"/>
+    <mergeCell ref="R33:W33"/>
+    <mergeCell ref="X33:AA33"/>
+    <mergeCell ref="AB33:AH33"/>
+    <mergeCell ref="AI33:AR33"/>
+    <mergeCell ref="B27:AR27"/>
+    <mergeCell ref="B31:AR31"/>
     <mergeCell ref="C32:K32"/>
     <mergeCell ref="L32:Q32"/>
     <mergeCell ref="R32:W32"/>
     <mergeCell ref="X32:AA32"/>
     <mergeCell ref="AB32:AH32"/>
     <mergeCell ref="AI32:AR32"/>
-    <mergeCell ref="B27:AR27"/>
-    <mergeCell ref="B30:AR30"/>
-    <mergeCell ref="C31:K31"/>
-    <mergeCell ref="L31:Q31"/>
-    <mergeCell ref="R31:W31"/>
-    <mergeCell ref="X31:AA31"/>
-    <mergeCell ref="AB31:AH31"/>
-    <mergeCell ref="AI31:AR31"/>
-    <mergeCell ref="L29:Q29"/>
-    <mergeCell ref="R29:W29"/>
-    <mergeCell ref="X29:AA29"/>
-    <mergeCell ref="AB29:AH29"/>
-    <mergeCell ref="AI29:AR29"/>
-    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="L30:Q30"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="X30:AA30"/>
+    <mergeCell ref="AB30:AH30"/>
+    <mergeCell ref="AI30:AR30"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="B29:AR29"/>
+    <mergeCell ref="C58:I58"/>
+    <mergeCell ref="J58:Q58"/>
+    <mergeCell ref="R58:AH58"/>
+    <mergeCell ref="AI58:AP58"/>
+    <mergeCell ref="AQ58:AW58"/>
+    <mergeCell ref="AX58:BB58"/>
+    <mergeCell ref="BC58:BO58"/>
     <mergeCell ref="C56:I56"/>
     <mergeCell ref="J56:Q56"/>
     <mergeCell ref="R56:AH56"/>
@@ -17675,6 +17838,13 @@
     <mergeCell ref="AQ56:AW56"/>
     <mergeCell ref="AX56:BB56"/>
     <mergeCell ref="BC56:BO56"/>
+    <mergeCell ref="C57:I57"/>
+    <mergeCell ref="J57:Q57"/>
+    <mergeCell ref="R57:AH57"/>
+    <mergeCell ref="AI57:AP57"/>
+    <mergeCell ref="AQ57:AW57"/>
+    <mergeCell ref="AX57:BB57"/>
+    <mergeCell ref="BC57:BO57"/>
     <mergeCell ref="C54:I54"/>
     <mergeCell ref="J54:Q54"/>
     <mergeCell ref="R54:AH54"/>
@@ -17773,11 +17943,6 @@
     <mergeCell ref="AQ43:AW43"/>
     <mergeCell ref="AX43:BB43"/>
     <mergeCell ref="BC43:BO43"/>
-    <mergeCell ref="C40:I40"/>
-    <mergeCell ref="J40:Q40"/>
-    <mergeCell ref="R40:AH40"/>
-    <mergeCell ref="AI40:AP40"/>
-    <mergeCell ref="AQ40:AW40"/>
     <mergeCell ref="AX40:BB40"/>
     <mergeCell ref="BC40:BO40"/>
     <mergeCell ref="C41:I41"/>
@@ -17787,20 +17952,11 @@
     <mergeCell ref="AQ41:AW41"/>
     <mergeCell ref="AX41:BB41"/>
     <mergeCell ref="BC41:BO41"/>
-    <mergeCell ref="AX38:BB38"/>
-    <mergeCell ref="BC38:BO38"/>
-    <mergeCell ref="C39:I39"/>
-    <mergeCell ref="J39:Q39"/>
-    <mergeCell ref="R39:AH39"/>
-    <mergeCell ref="AI39:AP39"/>
-    <mergeCell ref="AQ39:AW39"/>
-    <mergeCell ref="AX39:BB39"/>
-    <mergeCell ref="BC39:BO39"/>
-    <mergeCell ref="C38:I38"/>
-    <mergeCell ref="J38:Q38"/>
-    <mergeCell ref="R38:AH38"/>
-    <mergeCell ref="AI38:AP38"/>
-    <mergeCell ref="AQ38:AW38"/>
+    <mergeCell ref="C40:I40"/>
+    <mergeCell ref="J40:Q40"/>
+    <mergeCell ref="R40:AH40"/>
+    <mergeCell ref="AI40:AP40"/>
+    <mergeCell ref="AQ40:AW40"/>
     <mergeCell ref="B3:AD22"/>
     <mergeCell ref="C26:K26"/>
     <mergeCell ref="L26:Q26"/>
@@ -17814,24 +17970,25 @@
     <mergeCell ref="X28:AA28"/>
     <mergeCell ref="AB28:AH28"/>
     <mergeCell ref="AI28:AR28"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:I37"/>
-    <mergeCell ref="J36:Q37"/>
-    <mergeCell ref="R36:AH37"/>
-    <mergeCell ref="AI36:AP37"/>
-    <mergeCell ref="AQ36:BO36"/>
-    <mergeCell ref="AQ37:AW37"/>
-    <mergeCell ref="AX37:BB37"/>
-    <mergeCell ref="BC37:BO37"/>
+    <mergeCell ref="B34:AR34"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:I39"/>
+    <mergeCell ref="J38:Q39"/>
+    <mergeCell ref="R38:AH39"/>
+    <mergeCell ref="AI38:AP39"/>
+    <mergeCell ref="AQ38:BO38"/>
+    <mergeCell ref="AQ39:AW39"/>
+    <mergeCell ref="AX39:BB39"/>
+    <mergeCell ref="BC39:BO39"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="34" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="4" manualBreakCount="4">
     <brk id="23" max="16383" man="1"/>
-    <brk id="33" max="16383" man="1"/>
-    <brk id="57" max="16383" man="1"/>
-    <brk id="60" max="16383" man="1"/>
+    <brk id="35" max="16383" man="1"/>
+    <brk id="59" max="16383" man="1"/>
+    <brk id="62" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
   <extLst>
@@ -17841,19 +17998,19 @@
           <x14:formula1>
             <xm:f>データ入力例!$C$1:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>AB28:AH29 AB31:AH32</xm:sqref>
+          <xm:sqref>AB30:AH30 AB28:AH28 AB32:AH33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{045A2BF5-D6E7-48C2-B9D0-750064F94EBF}">
           <x14:formula1>
             <xm:f>データ入力例!$A$1:$A$25</xm:f>
           </x14:formula1>
-          <xm:sqref>L28:Q29 L31:Q32</xm:sqref>
+          <xm:sqref>L30:Q30 L28:Q28 L32:Q33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9810E12B-52CE-4333-861D-A99E413A1B30}">
           <x14:formula1>
             <xm:f>データ入力例!$B$1:$B$25</xm:f>
           </x14:formula1>
-          <xm:sqref>R28:W29 R31:W32</xm:sqref>
+          <xm:sqref>R30:W30 R28:W28 R32:W33</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -17891,7 +18048,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -17903,13 +18060,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>81</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -17927,7 +18084,7 @@
         <v>83</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -17943,7 +18100,7 @@
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -17952,14 +18109,14 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -17968,7 +18125,7 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>84</v>
@@ -18067,7 +18224,7 @@
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="13"/>
       <c r="B14" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="26"/>
@@ -18079,7 +18236,7 @@
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="A15" s="13"/>
       <c r="B15" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="26"/>
@@ -18103,7 +18260,7 @@
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="A17" s="13"/>
       <c r="B17" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="26"/>
@@ -18115,7 +18272,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="A18" s="13"/>
       <c r="B18" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="26"/>
@@ -18127,7 +18284,7 @@
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="A19" s="13"/>
       <c r="B19" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="26"/>
@@ -18139,7 +18296,7 @@
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="A20" s="13"/>
       <c r="B20" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="26"/>
@@ -18151,7 +18308,7 @@
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="A21" s="13"/>
       <c r="B21" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21" s="26"/>
@@ -18163,7 +18320,7 @@
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="A22" s="13"/>
       <c r="B22" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="26"/>
@@ -18175,7 +18332,7 @@
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="A23" s="13"/>
       <c r="B23" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="26"/>

--- a/ha-asset/01_design/01_dashboard/設計書_1.0.ログイン機能.xlsx
+++ b/ha-asset/01_design/01_dashboard/設計書_1.0.ログイン機能.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\01_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115F7C7D-B53C-4928-8235-BF90F03B6116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C11B6D4-1504-44A7-9777-3538C064349F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="480" windowWidth="20580" windowHeight="15345" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1155" yWindow="150" windowWidth="27690" windowHeight="15255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -1459,7 +1459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1550,6 +1550,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1564,115 +1567,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1683,9 +1584,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1704,6 +1602,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1732,6 +1639,114 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1739,6 +1754,60 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1767,74 +1836,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2149,7 +2155,7 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -2222,48 +2228,48 @@
     </row>
     <row r="3" spans="1:27" ht="16.5">
       <c r="A3" s="2"/>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="39" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="39" t="s">
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="42"/>
       <c r="AA3" s="2"/>
     </row>
     <row r="4" spans="1:27" ht="16.5">
       <c r="A4" s="2"/>
-      <c r="B4" s="42">
+      <c r="B4" s="43">
         <v>43770</v>
       </c>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
       <c r="E4" s="37"/>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="44" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="36"/>
@@ -2292,7 +2298,7 @@
     </row>
     <row r="5" spans="1:27" ht="47.25" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="42">
+      <c r="B5" s="43">
         <v>43867</v>
       </c>
       <c r="C5" s="36"/>
@@ -2305,7 +2311,7 @@
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
       <c r="I5" s="37"/>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="39" t="s">
         <v>93</v>
       </c>
       <c r="K5" s="36"/>
@@ -2328,7 +2334,7 @@
     </row>
     <row r="6" spans="1:27" ht="48.75" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="44">
+      <c r="B6" s="38">
         <v>44087</v>
       </c>
       <c r="C6" s="36"/>
@@ -2341,7 +2347,7 @@
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
       <c r="I6" s="37"/>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="39" t="s">
         <v>93</v>
       </c>
       <c r="K6" s="36"/>
@@ -2364,7 +2370,7 @@
     </row>
     <row r="7" spans="1:27" ht="33" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="44">
+      <c r="B7" s="38">
         <v>44157</v>
       </c>
       <c r="C7" s="36"/>
@@ -2377,7 +2383,7 @@
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
       <c r="I7" s="37"/>
-      <c r="J7" s="38" t="s">
+      <c r="J7" s="39" t="s">
         <v>187</v>
       </c>
       <c r="K7" s="36"/>
@@ -2400,7 +2406,7 @@
     </row>
     <row r="8" spans="1:27" ht="16.5">
       <c r="A8" s="2"/>
-      <c r="B8" s="44">
+      <c r="B8" s="38">
         <v>45088</v>
       </c>
       <c r="C8" s="36"/>
@@ -3038,12 +3044,60 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:Z14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:Z12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:Z13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J11:Z11"/>
     <mergeCell ref="B9:E9"/>
@@ -3053,60 +3107,12 @@
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J10:Z10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:Z14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:Z12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:Z13"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6591,60 +6597,60 @@
       <c r="B25" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="45" t="s">
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="95" t="s">
         <v>200</v>
       </c>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="45" t="s">
+      <c r="M25" s="96"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="S25" s="46"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="46"/>
-      <c r="W25" s="47"/>
-      <c r="X25" s="53" t="s">
+      <c r="S25" s="96"/>
+      <c r="T25" s="96"/>
+      <c r="U25" s="96"/>
+      <c r="V25" s="96"/>
+      <c r="W25" s="97"/>
+      <c r="X25" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="Y25" s="54"/>
-      <c r="Z25" s="54"/>
-      <c r="AA25" s="54"/>
-      <c r="AB25" s="53" t="s">
+      <c r="Y25" s="99"/>
+      <c r="Z25" s="99"/>
+      <c r="AA25" s="99"/>
+      <c r="AB25" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="AC25" s="54"/>
-      <c r="AD25" s="54"/>
-      <c r="AE25" s="54"/>
-      <c r="AF25" s="54"/>
-      <c r="AG25" s="54"/>
-      <c r="AH25" s="54"/>
-      <c r="AI25" s="45" t="s">
+      <c r="AC25" s="99"/>
+      <c r="AD25" s="99"/>
+      <c r="AE25" s="99"/>
+      <c r="AF25" s="99"/>
+      <c r="AG25" s="99"/>
+      <c r="AH25" s="99"/>
+      <c r="AI25" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="AJ25" s="46"/>
-      <c r="AK25" s="46"/>
-      <c r="AL25" s="46"/>
-      <c r="AM25" s="46"/>
-      <c r="AN25" s="46"/>
-      <c r="AO25" s="46"/>
-      <c r="AP25" s="46"/>
-      <c r="AQ25" s="46"/>
-      <c r="AR25" s="47"/>
+      <c r="AJ25" s="96"/>
+      <c r="AK25" s="96"/>
+      <c r="AL25" s="96"/>
+      <c r="AM25" s="96"/>
+      <c r="AN25" s="96"/>
+      <c r="AO25" s="96"/>
+      <c r="AP25" s="96"/>
+      <c r="AQ25" s="96"/>
+      <c r="AR25" s="97"/>
       <c r="AS25" s="2"/>
       <c r="AT25" s="2"/>
       <c r="AU25" s="2"/>
@@ -6676,58 +6682,58 @@
         <f ca="1">MAX(B$23:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="51" t="s">
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="51" t="s">
+      <c r="M26" s="94"/>
+      <c r="N26" s="94"/>
+      <c r="O26" s="94"/>
+      <c r="P26" s="94"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="51">
+      <c r="S26" s="94"/>
+      <c r="T26" s="94"/>
+      <c r="U26" s="94"/>
+      <c r="V26" s="94"/>
+      <c r="W26" s="94"/>
+      <c r="X26" s="93">
         <v>64</v>
       </c>
-      <c r="Y26" s="51"/>
-      <c r="Z26" s="51"/>
-      <c r="AA26" s="51"/>
-      <c r="AB26" s="51" t="s">
+      <c r="Y26" s="93"/>
+      <c r="Z26" s="93"/>
+      <c r="AA26" s="93"/>
+      <c r="AB26" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="AC26" s="51"/>
-      <c r="AD26" s="51"/>
-      <c r="AE26" s="51"/>
-      <c r="AF26" s="51"/>
-      <c r="AG26" s="51"/>
-      <c r="AH26" s="51"/>
-      <c r="AI26" s="51"/>
-      <c r="AJ26" s="51"/>
-      <c r="AK26" s="51"/>
-      <c r="AL26" s="51"/>
-      <c r="AM26" s="51"/>
-      <c r="AN26" s="51"/>
-      <c r="AO26" s="51"/>
-      <c r="AP26" s="51"/>
-      <c r="AQ26" s="51"/>
-      <c r="AR26" s="51"/>
+      <c r="AC26" s="93"/>
+      <c r="AD26" s="93"/>
+      <c r="AE26" s="93"/>
+      <c r="AF26" s="93"/>
+      <c r="AG26" s="93"/>
+      <c r="AH26" s="93"/>
+      <c r="AI26" s="93"/>
+      <c r="AJ26" s="93"/>
+      <c r="AK26" s="93"/>
+      <c r="AL26" s="93"/>
+      <c r="AM26" s="93"/>
+      <c r="AN26" s="93"/>
+      <c r="AO26" s="93"/>
+      <c r="AP26" s="93"/>
+      <c r="AQ26" s="93"/>
+      <c r="AR26" s="93"/>
       <c r="AS26" s="2"/>
       <c r="AT26" s="2"/>
       <c r="AU26" s="2"/>
@@ -6759,58 +6765,58 @@
         <f ca="1">MAX(B$23:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="51" t="s">
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="51" t="s">
+      <c r="M27" s="94"/>
+      <c r="N27" s="94"/>
+      <c r="O27" s="94"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="51">
+      <c r="S27" s="94"/>
+      <c r="T27" s="94"/>
+      <c r="U27" s="94"/>
+      <c r="V27" s="94"/>
+      <c r="W27" s="94"/>
+      <c r="X27" s="93">
         <v>16</v>
       </c>
-      <c r="Y27" s="51"/>
-      <c r="Z27" s="51"/>
-      <c r="AA27" s="51"/>
-      <c r="AB27" s="51" t="s">
+      <c r="Y27" s="93"/>
+      <c r="Z27" s="93"/>
+      <c r="AA27" s="93"/>
+      <c r="AB27" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="AC27" s="51"/>
-      <c r="AD27" s="51"/>
-      <c r="AE27" s="51"/>
-      <c r="AF27" s="51"/>
-      <c r="AG27" s="51"/>
-      <c r="AH27" s="51"/>
-      <c r="AI27" s="51"/>
-      <c r="AJ27" s="51"/>
-      <c r="AK27" s="51"/>
-      <c r="AL27" s="51"/>
-      <c r="AM27" s="51"/>
-      <c r="AN27" s="51"/>
-      <c r="AO27" s="51"/>
-      <c r="AP27" s="51"/>
-      <c r="AQ27" s="51"/>
-      <c r="AR27" s="51"/>
+      <c r="AC27" s="93"/>
+      <c r="AD27" s="93"/>
+      <c r="AE27" s="93"/>
+      <c r="AF27" s="93"/>
+      <c r="AG27" s="93"/>
+      <c r="AH27" s="93"/>
+      <c r="AI27" s="93"/>
+      <c r="AJ27" s="93"/>
+      <c r="AK27" s="93"/>
+      <c r="AL27" s="93"/>
+      <c r="AM27" s="93"/>
+      <c r="AN27" s="93"/>
+      <c r="AO27" s="93"/>
+      <c r="AP27" s="93"/>
+      <c r="AQ27" s="93"/>
+      <c r="AR27" s="93"/>
       <c r="AS27" s="2"/>
       <c r="AT27" s="2"/>
       <c r="AU27" s="2"/>
@@ -6842,52 +6848,52 @@
         <f ca="1">MAX(B$23:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="51" t="s">
+      <c r="D28" s="91"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="51"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52"/>
-      <c r="W28" s="52"/>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="51"/>
-      <c r="Z28" s="51"/>
-      <c r="AA28" s="51"/>
-      <c r="AB28" s="51"/>
-      <c r="AC28" s="51"/>
-      <c r="AD28" s="51"/>
-      <c r="AE28" s="51"/>
-      <c r="AF28" s="51"/>
-      <c r="AG28" s="51"/>
-      <c r="AH28" s="51"/>
-      <c r="AI28" s="51"/>
-      <c r="AJ28" s="51"/>
-      <c r="AK28" s="51"/>
-      <c r="AL28" s="51"/>
-      <c r="AM28" s="51"/>
-      <c r="AN28" s="51"/>
-      <c r="AO28" s="51"/>
-      <c r="AP28" s="51"/>
-      <c r="AQ28" s="51"/>
-      <c r="AR28" s="51"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="94"/>
+      <c r="O28" s="94"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="94"/>
+      <c r="R28" s="93"/>
+      <c r="S28" s="94"/>
+      <c r="T28" s="94"/>
+      <c r="U28" s="94"/>
+      <c r="V28" s="94"/>
+      <c r="W28" s="94"/>
+      <c r="X28" s="93"/>
+      <c r="Y28" s="93"/>
+      <c r="Z28" s="93"/>
+      <c r="AA28" s="93"/>
+      <c r="AB28" s="93"/>
+      <c r="AC28" s="93"/>
+      <c r="AD28" s="93"/>
+      <c r="AE28" s="93"/>
+      <c r="AF28" s="93"/>
+      <c r="AG28" s="93"/>
+      <c r="AH28" s="93"/>
+      <c r="AI28" s="93"/>
+      <c r="AJ28" s="93"/>
+      <c r="AK28" s="93"/>
+      <c r="AL28" s="93"/>
+      <c r="AM28" s="93"/>
+      <c r="AN28" s="93"/>
+      <c r="AO28" s="93"/>
+      <c r="AP28" s="93"/>
+      <c r="AQ28" s="93"/>
+      <c r="AR28" s="93"/>
       <c r="AS28" s="2"/>
       <c r="AT28" s="2"/>
       <c r="AU28" s="2"/>
@@ -6919,52 +6925,52 @@
         <f ca="1">MAX(B$23:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="51" t="s">
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="51"/>
-      <c r="S29" s="52"/>
-      <c r="T29" s="52"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="52"/>
-      <c r="W29" s="52"/>
-      <c r="X29" s="51"/>
-      <c r="Y29" s="51"/>
-      <c r="Z29" s="51"/>
-      <c r="AA29" s="51"/>
-      <c r="AB29" s="51"/>
-      <c r="AC29" s="51"/>
-      <c r="AD29" s="51"/>
-      <c r="AE29" s="51"/>
-      <c r="AF29" s="51"/>
-      <c r="AG29" s="51"/>
-      <c r="AH29" s="51"/>
-      <c r="AI29" s="51"/>
-      <c r="AJ29" s="51"/>
-      <c r="AK29" s="51"/>
-      <c r="AL29" s="51"/>
-      <c r="AM29" s="51"/>
-      <c r="AN29" s="51"/>
-      <c r="AO29" s="51"/>
-      <c r="AP29" s="51"/>
-      <c r="AQ29" s="51"/>
-      <c r="AR29" s="51"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="94"/>
+      <c r="O29" s="94"/>
+      <c r="P29" s="94"/>
+      <c r="Q29" s="94"/>
+      <c r="R29" s="93"/>
+      <c r="S29" s="94"/>
+      <c r="T29" s="94"/>
+      <c r="U29" s="94"/>
+      <c r="V29" s="94"/>
+      <c r="W29" s="94"/>
+      <c r="X29" s="93"/>
+      <c r="Y29" s="93"/>
+      <c r="Z29" s="93"/>
+      <c r="AA29" s="93"/>
+      <c r="AB29" s="93"/>
+      <c r="AC29" s="93"/>
+      <c r="AD29" s="93"/>
+      <c r="AE29" s="93"/>
+      <c r="AF29" s="93"/>
+      <c r="AG29" s="93"/>
+      <c r="AH29" s="93"/>
+      <c r="AI29" s="93"/>
+      <c r="AJ29" s="93"/>
+      <c r="AK29" s="93"/>
+      <c r="AL29" s="93"/>
+      <c r="AM29" s="93"/>
+      <c r="AN29" s="93"/>
+      <c r="AO29" s="93"/>
+      <c r="AP29" s="93"/>
+      <c r="AQ29" s="93"/>
+      <c r="AR29" s="93"/>
       <c r="AS29" s="2"/>
       <c r="AT29" s="2"/>
       <c r="AU29" s="2"/>
@@ -6996,52 +7002,52 @@
         <f ca="1">MAX(B$23:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>5</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="51" t="s">
+      <c r="D30" s="91"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="52"/>
-      <c r="U30" s="52"/>
-      <c r="V30" s="52"/>
-      <c r="W30" s="52"/>
-      <c r="X30" s="51"/>
-      <c r="Y30" s="51"/>
-      <c r="Z30" s="51"/>
-      <c r="AA30" s="51"/>
-      <c r="AB30" s="51"/>
-      <c r="AC30" s="51"/>
-      <c r="AD30" s="51"/>
-      <c r="AE30" s="51"/>
-      <c r="AF30" s="51"/>
-      <c r="AG30" s="51"/>
-      <c r="AH30" s="51"/>
-      <c r="AI30" s="51"/>
-      <c r="AJ30" s="51"/>
-      <c r="AK30" s="51"/>
-      <c r="AL30" s="51"/>
-      <c r="AM30" s="51"/>
-      <c r="AN30" s="51"/>
-      <c r="AO30" s="51"/>
-      <c r="AP30" s="51"/>
-      <c r="AQ30" s="51"/>
-      <c r="AR30" s="51"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="94"/>
+      <c r="O30" s="94"/>
+      <c r="P30" s="94"/>
+      <c r="Q30" s="94"/>
+      <c r="R30" s="93"/>
+      <c r="S30" s="94"/>
+      <c r="T30" s="94"/>
+      <c r="U30" s="94"/>
+      <c r="V30" s="94"/>
+      <c r="W30" s="94"/>
+      <c r="X30" s="93"/>
+      <c r="Y30" s="93"/>
+      <c r="Z30" s="93"/>
+      <c r="AA30" s="93"/>
+      <c r="AB30" s="93"/>
+      <c r="AC30" s="93"/>
+      <c r="AD30" s="93"/>
+      <c r="AE30" s="93"/>
+      <c r="AF30" s="93"/>
+      <c r="AG30" s="93"/>
+      <c r="AH30" s="93"/>
+      <c r="AI30" s="93"/>
+      <c r="AJ30" s="93"/>
+      <c r="AK30" s="93"/>
+      <c r="AL30" s="93"/>
+      <c r="AM30" s="93"/>
+      <c r="AN30" s="93"/>
+      <c r="AO30" s="93"/>
+      <c r="AP30" s="93"/>
+      <c r="AQ30" s="93"/>
+      <c r="AR30" s="93"/>
       <c r="AS30" s="2"/>
       <c r="AT30" s="2"/>
       <c r="AU30" s="2"/>
@@ -7282,160 +7288,160 @@
     </row>
     <row r="34" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A34" s="7"/>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="56" t="s">
+      <c r="C34" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56" t="s">
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="88" t="s">
         <v>194</v>
       </c>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="56"/>
-      <c r="R34" s="56" t="s">
+      <c r="K34" s="88"/>
+      <c r="L34" s="88"/>
+      <c r="M34" s="88"/>
+      <c r="N34" s="88"/>
+      <c r="O34" s="88"/>
+      <c r="P34" s="88"/>
+      <c r="Q34" s="88"/>
+      <c r="R34" s="88" t="s">
         <v>195</v>
       </c>
-      <c r="S34" s="56"/>
-      <c r="T34" s="56"/>
-      <c r="U34" s="56"/>
-      <c r="V34" s="56"/>
-      <c r="W34" s="56"/>
-      <c r="X34" s="56"/>
-      <c r="Y34" s="56"/>
-      <c r="Z34" s="56"/>
-      <c r="AA34" s="56"/>
-      <c r="AB34" s="56"/>
-      <c r="AC34" s="56"/>
-      <c r="AD34" s="56"/>
-      <c r="AE34" s="56"/>
-      <c r="AF34" s="56"/>
-      <c r="AG34" s="56"/>
-      <c r="AH34" s="56"/>
-      <c r="AI34" s="56" t="s">
+      <c r="S34" s="88"/>
+      <c r="T34" s="88"/>
+      <c r="U34" s="88"/>
+      <c r="V34" s="88"/>
+      <c r="W34" s="88"/>
+      <c r="X34" s="88"/>
+      <c r="Y34" s="88"/>
+      <c r="Z34" s="88"/>
+      <c r="AA34" s="88"/>
+      <c r="AB34" s="88"/>
+      <c r="AC34" s="88"/>
+      <c r="AD34" s="88"/>
+      <c r="AE34" s="88"/>
+      <c r="AF34" s="88"/>
+      <c r="AG34" s="88"/>
+      <c r="AH34" s="88"/>
+      <c r="AI34" s="88" t="s">
         <v>188</v>
       </c>
-      <c r="AJ34" s="56"/>
-      <c r="AK34" s="56"/>
-      <c r="AL34" s="56"/>
-      <c r="AM34" s="56"/>
-      <c r="AN34" s="56"/>
-      <c r="AO34" s="56"/>
-      <c r="AP34" s="56"/>
-      <c r="AQ34" s="56" t="s">
+      <c r="AJ34" s="88"/>
+      <c r="AK34" s="88"/>
+      <c r="AL34" s="88"/>
+      <c r="AM34" s="88"/>
+      <c r="AN34" s="88"/>
+      <c r="AO34" s="88"/>
+      <c r="AP34" s="88"/>
+      <c r="AQ34" s="88" t="s">
         <v>190</v>
       </c>
-      <c r="AR34" s="56"/>
-      <c r="AS34" s="56"/>
-      <c r="AT34" s="56"/>
-      <c r="AU34" s="56"/>
-      <c r="AV34" s="56"/>
-      <c r="AW34" s="56"/>
-      <c r="AX34" s="56"/>
-      <c r="AY34" s="56"/>
-      <c r="AZ34" s="56"/>
-      <c r="BA34" s="56"/>
-      <c r="BB34" s="56"/>
-      <c r="BC34" s="56"/>
-      <c r="BD34" s="56"/>
-      <c r="BE34" s="56"/>
-      <c r="BF34" s="56"/>
-      <c r="BG34" s="56"/>
-      <c r="BH34" s="56"/>
-      <c r="BI34" s="56"/>
-      <c r="BJ34" s="56"/>
-      <c r="BK34" s="56"/>
-      <c r="BL34" s="56"/>
-      <c r="BM34" s="56"/>
-      <c r="BN34" s="56"/>
-      <c r="BO34" s="56"/>
+      <c r="AR34" s="88"/>
+      <c r="AS34" s="88"/>
+      <c r="AT34" s="88"/>
+      <c r="AU34" s="88"/>
+      <c r="AV34" s="88"/>
+      <c r="AW34" s="88"/>
+      <c r="AX34" s="88"/>
+      <c r="AY34" s="88"/>
+      <c r="AZ34" s="88"/>
+      <c r="BA34" s="88"/>
+      <c r="BB34" s="88"/>
+      <c r="BC34" s="88"/>
+      <c r="BD34" s="88"/>
+      <c r="BE34" s="88"/>
+      <c r="BF34" s="88"/>
+      <c r="BG34" s="88"/>
+      <c r="BH34" s="88"/>
+      <c r="BI34" s="88"/>
+      <c r="BJ34" s="88"/>
+      <c r="BK34" s="88"/>
+      <c r="BL34" s="88"/>
+      <c r="BM34" s="88"/>
+      <c r="BN34" s="88"/>
+      <c r="BO34" s="88"/>
       <c r="BP34" s="2"/>
     </row>
     <row r="35" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A35" s="7"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="56"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="56"/>
-      <c r="T35" s="56"/>
-      <c r="U35" s="56"/>
-      <c r="V35" s="56"/>
-      <c r="W35" s="56"/>
-      <c r="X35" s="56"/>
-      <c r="Y35" s="56"/>
-      <c r="Z35" s="56"/>
-      <c r="AA35" s="56"/>
-      <c r="AB35" s="56"/>
-      <c r="AC35" s="56"/>
-      <c r="AD35" s="56"/>
-      <c r="AE35" s="56"/>
-      <c r="AF35" s="56"/>
-      <c r="AG35" s="56"/>
-      <c r="AH35" s="56"/>
-      <c r="AI35" s="56"/>
-      <c r="AJ35" s="56"/>
-      <c r="AK35" s="56"/>
-      <c r="AL35" s="56"/>
-      <c r="AM35" s="56"/>
-      <c r="AN35" s="56"/>
-      <c r="AO35" s="56"/>
-      <c r="AP35" s="56"/>
-      <c r="AQ35" s="56" t="s">
+      <c r="B35" s="87"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="88"/>
+      <c r="K35" s="88"/>
+      <c r="L35" s="88"/>
+      <c r="M35" s="88"/>
+      <c r="N35" s="88"/>
+      <c r="O35" s="88"/>
+      <c r="P35" s="88"/>
+      <c r="Q35" s="88"/>
+      <c r="R35" s="88"/>
+      <c r="S35" s="88"/>
+      <c r="T35" s="88"/>
+      <c r="U35" s="88"/>
+      <c r="V35" s="88"/>
+      <c r="W35" s="88"/>
+      <c r="X35" s="88"/>
+      <c r="Y35" s="88"/>
+      <c r="Z35" s="88"/>
+      <c r="AA35" s="88"/>
+      <c r="AB35" s="88"/>
+      <c r="AC35" s="88"/>
+      <c r="AD35" s="88"/>
+      <c r="AE35" s="88"/>
+      <c r="AF35" s="88"/>
+      <c r="AG35" s="88"/>
+      <c r="AH35" s="88"/>
+      <c r="AI35" s="88"/>
+      <c r="AJ35" s="88"/>
+      <c r="AK35" s="88"/>
+      <c r="AL35" s="88"/>
+      <c r="AM35" s="88"/>
+      <c r="AN35" s="88"/>
+      <c r="AO35" s="88"/>
+      <c r="AP35" s="88"/>
+      <c r="AQ35" s="88" t="s">
         <v>189</v>
       </c>
-      <c r="AR35" s="56"/>
-      <c r="AS35" s="56"/>
-      <c r="AT35" s="56"/>
-      <c r="AU35" s="56"/>
-      <c r="AV35" s="56"/>
-      <c r="AW35" s="56"/>
-      <c r="AX35" s="56" t="s">
+      <c r="AR35" s="88"/>
+      <c r="AS35" s="88"/>
+      <c r="AT35" s="88"/>
+      <c r="AU35" s="88"/>
+      <c r="AV35" s="88"/>
+      <c r="AW35" s="88"/>
+      <c r="AX35" s="88" t="s">
         <v>191</v>
       </c>
-      <c r="AY35" s="56"/>
-      <c r="AZ35" s="56"/>
-      <c r="BA35" s="56"/>
-      <c r="BB35" s="56"/>
-      <c r="BC35" s="56" t="s">
+      <c r="AY35" s="88"/>
+      <c r="AZ35" s="88"/>
+      <c r="BA35" s="88"/>
+      <c r="BB35" s="88"/>
+      <c r="BC35" s="88" t="s">
         <v>192</v>
       </c>
-      <c r="BD35" s="56"/>
-      <c r="BE35" s="56"/>
-      <c r="BF35" s="56"/>
-      <c r="BG35" s="56"/>
-      <c r="BH35" s="56"/>
-      <c r="BI35" s="56"/>
-      <c r="BJ35" s="56"/>
-      <c r="BK35" s="56"/>
-      <c r="BL35" s="56"/>
-      <c r="BM35" s="56"/>
-      <c r="BN35" s="56"/>
-      <c r="BO35" s="56"/>
+      <c r="BD35" s="88"/>
+      <c r="BE35" s="88"/>
+      <c r="BF35" s="88"/>
+      <c r="BG35" s="88"/>
+      <c r="BH35" s="88"/>
+      <c r="BI35" s="88"/>
+      <c r="BJ35" s="88"/>
+      <c r="BK35" s="88"/>
+      <c r="BL35" s="88"/>
+      <c r="BM35" s="88"/>
+      <c r="BN35" s="88"/>
+      <c r="BO35" s="88"/>
       <c r="BP35" s="2"/>
     </row>
     <row r="36" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
@@ -7444,73 +7450,73 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C36" s="63" t="s">
+      <c r="C36" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="67"/>
-      <c r="M36" s="67"/>
-      <c r="N36" s="67"/>
-      <c r="O36" s="67"/>
-      <c r="P36" s="67"/>
-      <c r="Q36" s="67"/>
-      <c r="R36" s="67"/>
-      <c r="S36" s="67"/>
-      <c r="T36" s="67"/>
-      <c r="U36" s="67"/>
-      <c r="V36" s="67"/>
-      <c r="W36" s="67"/>
-      <c r="X36" s="67"/>
-      <c r="Y36" s="67"/>
-      <c r="Z36" s="67"/>
-      <c r="AA36" s="67"/>
-      <c r="AB36" s="67"/>
-      <c r="AC36" s="67"/>
-      <c r="AD36" s="67"/>
-      <c r="AE36" s="67"/>
-      <c r="AF36" s="67"/>
-      <c r="AG36" s="67"/>
-      <c r="AH36" s="67"/>
-      <c r="AI36" s="67"/>
-      <c r="AJ36" s="67"/>
-      <c r="AK36" s="67"/>
-      <c r="AL36" s="67"/>
-      <c r="AM36" s="67"/>
-      <c r="AN36" s="67"/>
-      <c r="AO36" s="67"/>
-      <c r="AP36" s="67"/>
-      <c r="AQ36" s="58"/>
-      <c r="AR36" s="58"/>
-      <c r="AS36" s="58"/>
-      <c r="AT36" s="58"/>
-      <c r="AU36" s="58"/>
-      <c r="AV36" s="58"/>
-      <c r="AW36" s="58"/>
-      <c r="AX36" s="58"/>
-      <c r="AY36" s="58"/>
-      <c r="AZ36" s="58"/>
-      <c r="BA36" s="58"/>
-      <c r="BB36" s="58"/>
-      <c r="BC36" s="59"/>
-      <c r="BD36" s="59"/>
-      <c r="BE36" s="59"/>
-      <c r="BF36" s="59"/>
-      <c r="BG36" s="59"/>
-      <c r="BH36" s="59"/>
-      <c r="BI36" s="59"/>
-      <c r="BJ36" s="59"/>
-      <c r="BK36" s="59"/>
-      <c r="BL36" s="59"/>
-      <c r="BM36" s="59"/>
-      <c r="BN36" s="59"/>
-      <c r="BO36" s="59"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="80"/>
+      <c r="N36" s="80"/>
+      <c r="O36" s="80"/>
+      <c r="P36" s="80"/>
+      <c r="Q36" s="80"/>
+      <c r="R36" s="80"/>
+      <c r="S36" s="80"/>
+      <c r="T36" s="80"/>
+      <c r="U36" s="80"/>
+      <c r="V36" s="80"/>
+      <c r="W36" s="80"/>
+      <c r="X36" s="80"/>
+      <c r="Y36" s="80"/>
+      <c r="Z36" s="80"/>
+      <c r="AA36" s="80"/>
+      <c r="AB36" s="80"/>
+      <c r="AC36" s="80"/>
+      <c r="AD36" s="80"/>
+      <c r="AE36" s="80"/>
+      <c r="AF36" s="80"/>
+      <c r="AG36" s="80"/>
+      <c r="AH36" s="80"/>
+      <c r="AI36" s="80"/>
+      <c r="AJ36" s="80"/>
+      <c r="AK36" s="80"/>
+      <c r="AL36" s="80"/>
+      <c r="AM36" s="80"/>
+      <c r="AN36" s="80"/>
+      <c r="AO36" s="80"/>
+      <c r="AP36" s="80"/>
+      <c r="AQ36" s="81"/>
+      <c r="AR36" s="81"/>
+      <c r="AS36" s="81"/>
+      <c r="AT36" s="81"/>
+      <c r="AU36" s="81"/>
+      <c r="AV36" s="81"/>
+      <c r="AW36" s="81"/>
+      <c r="AX36" s="81"/>
+      <c r="AY36" s="81"/>
+      <c r="AZ36" s="81"/>
+      <c r="BA36" s="81"/>
+      <c r="BB36" s="81"/>
+      <c r="BC36" s="82"/>
+      <c r="BD36" s="82"/>
+      <c r="BE36" s="82"/>
+      <c r="BF36" s="82"/>
+      <c r="BG36" s="82"/>
+      <c r="BH36" s="82"/>
+      <c r="BI36" s="82"/>
+      <c r="BJ36" s="82"/>
+      <c r="BK36" s="82"/>
+      <c r="BL36" s="82"/>
+      <c r="BM36" s="82"/>
+      <c r="BN36" s="82"/>
+      <c r="BO36" s="82"/>
       <c r="BP36" s="2"/>
     </row>
     <row r="37" spans="1:68" s="20" customFormat="1" ht="32.25" customHeight="1" outlineLevel="1">
@@ -7519,81 +7525,81 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C37" s="60" t="s">
+      <c r="C37" s="84" t="s">
         <v>193</v>
       </c>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="63" t="s">
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="86"/>
+      <c r="J37" s="76" t="s">
         <v>197</v>
       </c>
-      <c r="K37" s="64"/>
-      <c r="L37" s="64"/>
-      <c r="M37" s="64"/>
-      <c r="N37" s="64"/>
-      <c r="O37" s="64"/>
-      <c r="P37" s="64"/>
-      <c r="Q37" s="65"/>
-      <c r="R37" s="63"/>
-      <c r="S37" s="64"/>
-      <c r="T37" s="64"/>
-      <c r="U37" s="64"/>
-      <c r="V37" s="64"/>
-      <c r="W37" s="64"/>
-      <c r="X37" s="64"/>
-      <c r="Y37" s="64"/>
-      <c r="Z37" s="64"/>
-      <c r="AA37" s="64"/>
-      <c r="AB37" s="64"/>
-      <c r="AC37" s="64"/>
-      <c r="AD37" s="64"/>
-      <c r="AE37" s="64"/>
-      <c r="AF37" s="64"/>
-      <c r="AG37" s="64"/>
-      <c r="AH37" s="65"/>
-      <c r="AI37" s="64" t="s">
+      <c r="K37" s="74"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="74"/>
+      <c r="Q37" s="75"/>
+      <c r="R37" s="76"/>
+      <c r="S37" s="74"/>
+      <c r="T37" s="74"/>
+      <c r="U37" s="74"/>
+      <c r="V37" s="74"/>
+      <c r="W37" s="74"/>
+      <c r="X37" s="74"/>
+      <c r="Y37" s="74"/>
+      <c r="Z37" s="74"/>
+      <c r="AA37" s="74"/>
+      <c r="AB37" s="74"/>
+      <c r="AC37" s="74"/>
+      <c r="AD37" s="74"/>
+      <c r="AE37" s="74"/>
+      <c r="AF37" s="74"/>
+      <c r="AG37" s="74"/>
+      <c r="AH37" s="75"/>
+      <c r="AI37" s="74" t="s">
         <v>196</v>
       </c>
-      <c r="AJ37" s="64"/>
-      <c r="AK37" s="64"/>
-      <c r="AL37" s="64"/>
-      <c r="AM37" s="64"/>
-      <c r="AN37" s="64"/>
-      <c r="AO37" s="64"/>
-      <c r="AP37" s="65"/>
-      <c r="AQ37" s="66" t="s">
+      <c r="AJ37" s="74"/>
+      <c r="AK37" s="74"/>
+      <c r="AL37" s="74"/>
+      <c r="AM37" s="74"/>
+      <c r="AN37" s="74"/>
+      <c r="AO37" s="74"/>
+      <c r="AP37" s="75"/>
+      <c r="AQ37" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="AR37" s="58"/>
-      <c r="AS37" s="58"/>
-      <c r="AT37" s="58"/>
-      <c r="AU37" s="58"/>
-      <c r="AV37" s="58"/>
-      <c r="AW37" s="58"/>
-      <c r="AX37" s="58"/>
-      <c r="AY37" s="58"/>
-      <c r="AZ37" s="58"/>
-      <c r="BA37" s="58"/>
-      <c r="BB37" s="58"/>
-      <c r="BC37" s="59" t="s">
+      <c r="AR37" s="81"/>
+      <c r="AS37" s="81"/>
+      <c r="AT37" s="81"/>
+      <c r="AU37" s="81"/>
+      <c r="AV37" s="81"/>
+      <c r="AW37" s="81"/>
+      <c r="AX37" s="81"/>
+      <c r="AY37" s="81"/>
+      <c r="AZ37" s="81"/>
+      <c r="BA37" s="81"/>
+      <c r="BB37" s="81"/>
+      <c r="BC37" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="BD37" s="59"/>
-      <c r="BE37" s="59"/>
-      <c r="BF37" s="59"/>
-      <c r="BG37" s="59"/>
-      <c r="BH37" s="59"/>
-      <c r="BI37" s="59"/>
-      <c r="BJ37" s="59"/>
-      <c r="BK37" s="59"/>
-      <c r="BL37" s="59"/>
-      <c r="BM37" s="59"/>
-      <c r="BN37" s="59"/>
-      <c r="BO37" s="59"/>
+      <c r="BD37" s="82"/>
+      <c r="BE37" s="82"/>
+      <c r="BF37" s="82"/>
+      <c r="BG37" s="82"/>
+      <c r="BH37" s="82"/>
+      <c r="BI37" s="82"/>
+      <c r="BJ37" s="82"/>
+      <c r="BK37" s="82"/>
+      <c r="BL37" s="82"/>
+      <c r="BM37" s="82"/>
+      <c r="BN37" s="82"/>
+      <c r="BO37" s="82"/>
       <c r="BP37" s="2"/>
     </row>
     <row r="38" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
@@ -7602,75 +7608,75 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
-      <c r="C38" s="68"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="69"/>
-      <c r="M38" s="69"/>
-      <c r="N38" s="69"/>
-      <c r="O38" s="69"/>
-      <c r="P38" s="69"/>
-      <c r="Q38" s="70"/>
-      <c r="R38" s="68"/>
-      <c r="S38" s="69"/>
-      <c r="T38" s="69"/>
-      <c r="U38" s="69"/>
-      <c r="V38" s="69"/>
-      <c r="W38" s="69"/>
-      <c r="X38" s="69"/>
-      <c r="Y38" s="69"/>
-      <c r="Z38" s="69"/>
-      <c r="AA38" s="69"/>
-      <c r="AB38" s="69"/>
-      <c r="AC38" s="69"/>
-      <c r="AD38" s="69"/>
-      <c r="AE38" s="69"/>
-      <c r="AF38" s="69"/>
-      <c r="AG38" s="69"/>
-      <c r="AH38" s="70"/>
-      <c r="AI38" s="71"/>
-      <c r="AJ38" s="71"/>
-      <c r="AK38" s="71"/>
-      <c r="AL38" s="71"/>
-      <c r="AM38" s="71"/>
-      <c r="AN38" s="71"/>
-      <c r="AO38" s="71"/>
-      <c r="AP38" s="72"/>
-      <c r="AQ38" s="66" t="s">
+      <c r="C38" s="69"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="70"/>
+      <c r="M38" s="70"/>
+      <c r="N38" s="70"/>
+      <c r="O38" s="70"/>
+      <c r="P38" s="70"/>
+      <c r="Q38" s="78"/>
+      <c r="R38" s="69"/>
+      <c r="S38" s="70"/>
+      <c r="T38" s="70"/>
+      <c r="U38" s="70"/>
+      <c r="V38" s="70"/>
+      <c r="W38" s="70"/>
+      <c r="X38" s="70"/>
+      <c r="Y38" s="70"/>
+      <c r="Z38" s="70"/>
+      <c r="AA38" s="70"/>
+      <c r="AB38" s="70"/>
+      <c r="AC38" s="70"/>
+      <c r="AD38" s="70"/>
+      <c r="AE38" s="70"/>
+      <c r="AF38" s="70"/>
+      <c r="AG38" s="70"/>
+      <c r="AH38" s="78"/>
+      <c r="AI38" s="72"/>
+      <c r="AJ38" s="72"/>
+      <c r="AK38" s="72"/>
+      <c r="AL38" s="72"/>
+      <c r="AM38" s="72"/>
+      <c r="AN38" s="72"/>
+      <c r="AO38" s="72"/>
+      <c r="AP38" s="73"/>
+      <c r="AQ38" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="AR38" s="58"/>
-      <c r="AS38" s="58"/>
-      <c r="AT38" s="58"/>
-      <c r="AU38" s="58"/>
-      <c r="AV38" s="58"/>
-      <c r="AW38" s="58"/>
-      <c r="AX38" s="58"/>
-      <c r="AY38" s="58"/>
-      <c r="AZ38" s="58"/>
-      <c r="BA38" s="58"/>
-      <c r="BB38" s="58"/>
-      <c r="BC38" s="59" t="s">
+      <c r="AR38" s="81"/>
+      <c r="AS38" s="81"/>
+      <c r="AT38" s="81"/>
+      <c r="AU38" s="81"/>
+      <c r="AV38" s="81"/>
+      <c r="AW38" s="81"/>
+      <c r="AX38" s="81"/>
+      <c r="AY38" s="81"/>
+      <c r="AZ38" s="81"/>
+      <c r="BA38" s="81"/>
+      <c r="BB38" s="81"/>
+      <c r="BC38" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="BD38" s="59"/>
-      <c r="BE38" s="59"/>
-      <c r="BF38" s="59"/>
-      <c r="BG38" s="59"/>
-      <c r="BH38" s="59"/>
-      <c r="BI38" s="59"/>
-      <c r="BJ38" s="59"/>
-      <c r="BK38" s="59"/>
-      <c r="BL38" s="59"/>
-      <c r="BM38" s="59"/>
-      <c r="BN38" s="59"/>
-      <c r="BO38" s="59"/>
+      <c r="BD38" s="82"/>
+      <c r="BE38" s="82"/>
+      <c r="BF38" s="82"/>
+      <c r="BG38" s="82"/>
+      <c r="BH38" s="82"/>
+      <c r="BI38" s="82"/>
+      <c r="BJ38" s="82"/>
+      <c r="BK38" s="82"/>
+      <c r="BL38" s="82"/>
+      <c r="BM38" s="82"/>
+      <c r="BN38" s="82"/>
+      <c r="BO38" s="82"/>
       <c r="BP38" s="2"/>
     </row>
     <row r="39" spans="1:68" s="20" customFormat="1" ht="32.25" customHeight="1" outlineLevel="1">
@@ -7679,77 +7685,77 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
-      <c r="C39" s="68"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="70"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="69"/>
-      <c r="L39" s="69"/>
-      <c r="M39" s="69"/>
-      <c r="N39" s="69"/>
-      <c r="O39" s="69"/>
-      <c r="P39" s="69"/>
-      <c r="Q39" s="70"/>
-      <c r="R39" s="68"/>
-      <c r="S39" s="69"/>
-      <c r="T39" s="69"/>
-      <c r="U39" s="69"/>
-      <c r="V39" s="69"/>
-      <c r="W39" s="69"/>
-      <c r="X39" s="69"/>
-      <c r="Y39" s="69"/>
-      <c r="Z39" s="69"/>
-      <c r="AA39" s="69"/>
-      <c r="AB39" s="69"/>
-      <c r="AC39" s="69"/>
-      <c r="AD39" s="69"/>
-      <c r="AE39" s="69"/>
-      <c r="AF39" s="69"/>
-      <c r="AG39" s="69"/>
-      <c r="AH39" s="70"/>
-      <c r="AI39" s="64" t="s">
+      <c r="C39" s="69"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="70"/>
+      <c r="O39" s="70"/>
+      <c r="P39" s="70"/>
+      <c r="Q39" s="78"/>
+      <c r="R39" s="69"/>
+      <c r="S39" s="70"/>
+      <c r="T39" s="70"/>
+      <c r="U39" s="70"/>
+      <c r="V39" s="70"/>
+      <c r="W39" s="70"/>
+      <c r="X39" s="70"/>
+      <c r="Y39" s="70"/>
+      <c r="Z39" s="70"/>
+      <c r="AA39" s="70"/>
+      <c r="AB39" s="70"/>
+      <c r="AC39" s="70"/>
+      <c r="AD39" s="70"/>
+      <c r="AE39" s="70"/>
+      <c r="AF39" s="70"/>
+      <c r="AG39" s="70"/>
+      <c r="AH39" s="78"/>
+      <c r="AI39" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="AJ39" s="64"/>
-      <c r="AK39" s="64"/>
-      <c r="AL39" s="64"/>
-      <c r="AM39" s="64"/>
-      <c r="AN39" s="64"/>
-      <c r="AO39" s="64"/>
-      <c r="AP39" s="65"/>
-      <c r="AQ39" s="66" t="s">
+      <c r="AJ39" s="74"/>
+      <c r="AK39" s="74"/>
+      <c r="AL39" s="74"/>
+      <c r="AM39" s="74"/>
+      <c r="AN39" s="74"/>
+      <c r="AO39" s="74"/>
+      <c r="AP39" s="75"/>
+      <c r="AQ39" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="AR39" s="58"/>
-      <c r="AS39" s="58"/>
-      <c r="AT39" s="58"/>
-      <c r="AU39" s="58"/>
-      <c r="AV39" s="58"/>
-      <c r="AW39" s="58"/>
-      <c r="AX39" s="58"/>
-      <c r="AY39" s="58"/>
-      <c r="AZ39" s="58"/>
-      <c r="BA39" s="58"/>
-      <c r="BB39" s="58"/>
-      <c r="BC39" s="59" t="s">
+      <c r="AR39" s="81"/>
+      <c r="AS39" s="81"/>
+      <c r="AT39" s="81"/>
+      <c r="AU39" s="81"/>
+      <c r="AV39" s="81"/>
+      <c r="AW39" s="81"/>
+      <c r="AX39" s="81"/>
+      <c r="AY39" s="81"/>
+      <c r="AZ39" s="81"/>
+      <c r="BA39" s="81"/>
+      <c r="BB39" s="81"/>
+      <c r="BC39" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="BD39" s="59"/>
-      <c r="BE39" s="59"/>
-      <c r="BF39" s="59"/>
-      <c r="BG39" s="59"/>
-      <c r="BH39" s="59"/>
-      <c r="BI39" s="59"/>
-      <c r="BJ39" s="59"/>
-      <c r="BK39" s="59"/>
-      <c r="BL39" s="59"/>
-      <c r="BM39" s="59"/>
-      <c r="BN39" s="59"/>
-      <c r="BO39" s="59"/>
+      <c r="BD39" s="82"/>
+      <c r="BE39" s="82"/>
+      <c r="BF39" s="82"/>
+      <c r="BG39" s="82"/>
+      <c r="BH39" s="82"/>
+      <c r="BI39" s="82"/>
+      <c r="BJ39" s="82"/>
+      <c r="BK39" s="82"/>
+      <c r="BL39" s="82"/>
+      <c r="BM39" s="82"/>
+      <c r="BN39" s="82"/>
+      <c r="BO39" s="82"/>
       <c r="BP39" s="2"/>
     </row>
     <row r="40" spans="1:68" s="20" customFormat="1" ht="32.25" customHeight="1" outlineLevel="1">
@@ -7758,75 +7764,75 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>5</v>
       </c>
-      <c r="C40" s="68"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="69"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="69"/>
-      <c r="L40" s="69"/>
-      <c r="M40" s="69"/>
-      <c r="N40" s="69"/>
-      <c r="O40" s="69"/>
-      <c r="P40" s="69"/>
-      <c r="Q40" s="70"/>
-      <c r="R40" s="68"/>
-      <c r="S40" s="69"/>
-      <c r="T40" s="69"/>
-      <c r="U40" s="69"/>
-      <c r="V40" s="69"/>
-      <c r="W40" s="69"/>
-      <c r="X40" s="69"/>
-      <c r="Y40" s="69"/>
-      <c r="Z40" s="69"/>
-      <c r="AA40" s="69"/>
-      <c r="AB40" s="69"/>
-      <c r="AC40" s="69"/>
-      <c r="AD40" s="69"/>
-      <c r="AE40" s="69"/>
-      <c r="AF40" s="69"/>
-      <c r="AG40" s="69"/>
-      <c r="AH40" s="70"/>
-      <c r="AI40" s="71"/>
-      <c r="AJ40" s="71"/>
-      <c r="AK40" s="71"/>
-      <c r="AL40" s="71"/>
-      <c r="AM40" s="71"/>
-      <c r="AN40" s="71"/>
-      <c r="AO40" s="71"/>
-      <c r="AP40" s="72"/>
-      <c r="AQ40" s="66" t="s">
+      <c r="C40" s="69"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="69"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="70"/>
+      <c r="M40" s="70"/>
+      <c r="N40" s="70"/>
+      <c r="O40" s="70"/>
+      <c r="P40" s="70"/>
+      <c r="Q40" s="78"/>
+      <c r="R40" s="69"/>
+      <c r="S40" s="70"/>
+      <c r="T40" s="70"/>
+      <c r="U40" s="70"/>
+      <c r="V40" s="70"/>
+      <c r="W40" s="70"/>
+      <c r="X40" s="70"/>
+      <c r="Y40" s="70"/>
+      <c r="Z40" s="70"/>
+      <c r="AA40" s="70"/>
+      <c r="AB40" s="70"/>
+      <c r="AC40" s="70"/>
+      <c r="AD40" s="70"/>
+      <c r="AE40" s="70"/>
+      <c r="AF40" s="70"/>
+      <c r="AG40" s="70"/>
+      <c r="AH40" s="78"/>
+      <c r="AI40" s="72"/>
+      <c r="AJ40" s="72"/>
+      <c r="AK40" s="72"/>
+      <c r="AL40" s="72"/>
+      <c r="AM40" s="72"/>
+      <c r="AN40" s="72"/>
+      <c r="AO40" s="72"/>
+      <c r="AP40" s="73"/>
+      <c r="AQ40" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="AR40" s="58"/>
-      <c r="AS40" s="58"/>
-      <c r="AT40" s="58"/>
-      <c r="AU40" s="58"/>
-      <c r="AV40" s="58"/>
-      <c r="AW40" s="58"/>
-      <c r="AX40" s="58"/>
-      <c r="AY40" s="58"/>
-      <c r="AZ40" s="58"/>
-      <c r="BA40" s="58"/>
-      <c r="BB40" s="58"/>
-      <c r="BC40" s="59" t="s">
+      <c r="AR40" s="81"/>
+      <c r="AS40" s="81"/>
+      <c r="AT40" s="81"/>
+      <c r="AU40" s="81"/>
+      <c r="AV40" s="81"/>
+      <c r="AW40" s="81"/>
+      <c r="AX40" s="81"/>
+      <c r="AY40" s="81"/>
+      <c r="AZ40" s="81"/>
+      <c r="BA40" s="81"/>
+      <c r="BB40" s="81"/>
+      <c r="BC40" s="82" t="s">
         <v>147</v>
       </c>
-      <c r="BD40" s="59"/>
-      <c r="BE40" s="59"/>
-      <c r="BF40" s="59"/>
-      <c r="BG40" s="59"/>
-      <c r="BH40" s="59"/>
-      <c r="BI40" s="59"/>
-      <c r="BJ40" s="59"/>
-      <c r="BK40" s="59"/>
-      <c r="BL40" s="59"/>
-      <c r="BM40" s="59"/>
-      <c r="BN40" s="59"/>
-      <c r="BO40" s="59"/>
+      <c r="BD40" s="82"/>
+      <c r="BE40" s="82"/>
+      <c r="BF40" s="82"/>
+      <c r="BG40" s="82"/>
+      <c r="BH40" s="82"/>
+      <c r="BI40" s="82"/>
+      <c r="BJ40" s="82"/>
+      <c r="BK40" s="82"/>
+      <c r="BL40" s="82"/>
+      <c r="BM40" s="82"/>
+      <c r="BN40" s="82"/>
+      <c r="BO40" s="82"/>
       <c r="BP40" s="2"/>
     </row>
     <row r="41" spans="1:68" s="20" customFormat="1" ht="33" customHeight="1" outlineLevel="1">
@@ -7835,77 +7841,77 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>6</v>
       </c>
-      <c r="C41" s="68"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="70"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="69"/>
-      <c r="M41" s="69"/>
-      <c r="N41" s="69"/>
-      <c r="O41" s="69"/>
-      <c r="P41" s="69"/>
-      <c r="Q41" s="70"/>
-      <c r="R41" s="68"/>
-      <c r="S41" s="69"/>
-      <c r="T41" s="69"/>
-      <c r="U41" s="69"/>
-      <c r="V41" s="69"/>
-      <c r="W41" s="69"/>
-      <c r="X41" s="69"/>
-      <c r="Y41" s="69"/>
-      <c r="Z41" s="69"/>
-      <c r="AA41" s="69"/>
-      <c r="AB41" s="69"/>
-      <c r="AC41" s="69"/>
-      <c r="AD41" s="69"/>
-      <c r="AE41" s="69"/>
-      <c r="AF41" s="69"/>
-      <c r="AG41" s="69"/>
-      <c r="AH41" s="70"/>
-      <c r="AI41" s="64" t="s">
+      <c r="C41" s="69"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="70"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="70"/>
+      <c r="L41" s="70"/>
+      <c r="M41" s="70"/>
+      <c r="N41" s="70"/>
+      <c r="O41" s="70"/>
+      <c r="P41" s="70"/>
+      <c r="Q41" s="78"/>
+      <c r="R41" s="69"/>
+      <c r="S41" s="70"/>
+      <c r="T41" s="70"/>
+      <c r="U41" s="70"/>
+      <c r="V41" s="70"/>
+      <c r="W41" s="70"/>
+      <c r="X41" s="70"/>
+      <c r="Y41" s="70"/>
+      <c r="Z41" s="70"/>
+      <c r="AA41" s="70"/>
+      <c r="AB41" s="70"/>
+      <c r="AC41" s="70"/>
+      <c r="AD41" s="70"/>
+      <c r="AE41" s="70"/>
+      <c r="AF41" s="70"/>
+      <c r="AG41" s="70"/>
+      <c r="AH41" s="78"/>
+      <c r="AI41" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="AJ41" s="64"/>
-      <c r="AK41" s="64"/>
-      <c r="AL41" s="64"/>
-      <c r="AM41" s="64"/>
-      <c r="AN41" s="64"/>
-      <c r="AO41" s="64"/>
-      <c r="AP41" s="65"/>
-      <c r="AQ41" s="66" t="s">
+      <c r="AJ41" s="74"/>
+      <c r="AK41" s="74"/>
+      <c r="AL41" s="74"/>
+      <c r="AM41" s="74"/>
+      <c r="AN41" s="74"/>
+      <c r="AO41" s="74"/>
+      <c r="AP41" s="75"/>
+      <c r="AQ41" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="AR41" s="58"/>
-      <c r="AS41" s="58"/>
-      <c r="AT41" s="58"/>
-      <c r="AU41" s="58"/>
-      <c r="AV41" s="58"/>
-      <c r="AW41" s="58"/>
-      <c r="AX41" s="58"/>
-      <c r="AY41" s="58"/>
-      <c r="AZ41" s="58"/>
-      <c r="BA41" s="58"/>
-      <c r="BB41" s="58"/>
-      <c r="BC41" s="59" t="s">
+      <c r="AR41" s="81"/>
+      <c r="AS41" s="81"/>
+      <c r="AT41" s="81"/>
+      <c r="AU41" s="81"/>
+      <c r="AV41" s="81"/>
+      <c r="AW41" s="81"/>
+      <c r="AX41" s="81"/>
+      <c r="AY41" s="81"/>
+      <c r="AZ41" s="81"/>
+      <c r="BA41" s="81"/>
+      <c r="BB41" s="81"/>
+      <c r="BC41" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="BD41" s="59"/>
-      <c r="BE41" s="59"/>
-      <c r="BF41" s="59"/>
-      <c r="BG41" s="59"/>
-      <c r="BH41" s="59"/>
-      <c r="BI41" s="59"/>
-      <c r="BJ41" s="59"/>
-      <c r="BK41" s="59"/>
-      <c r="BL41" s="59"/>
-      <c r="BM41" s="59"/>
-      <c r="BN41" s="59"/>
-      <c r="BO41" s="59"/>
+      <c r="BD41" s="82"/>
+      <c r="BE41" s="82"/>
+      <c r="BF41" s="82"/>
+      <c r="BG41" s="82"/>
+      <c r="BH41" s="82"/>
+      <c r="BI41" s="82"/>
+      <c r="BJ41" s="82"/>
+      <c r="BK41" s="82"/>
+      <c r="BL41" s="82"/>
+      <c r="BM41" s="82"/>
+      <c r="BN41" s="82"/>
+      <c r="BO41" s="82"/>
       <c r="BP41" s="2"/>
     </row>
     <row r="42" spans="1:68" s="20" customFormat="1" ht="33" customHeight="1" outlineLevel="1">
@@ -7914,75 +7920,75 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>7</v>
       </c>
-      <c r="C42" s="68"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="75"/>
-      <c r="K42" s="71"/>
-      <c r="L42" s="71"/>
-      <c r="M42" s="71"/>
-      <c r="N42" s="71"/>
-      <c r="O42" s="71"/>
-      <c r="P42" s="71"/>
-      <c r="Q42" s="72"/>
-      <c r="R42" s="75"/>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
-      <c r="W42" s="71"/>
-      <c r="X42" s="71"/>
-      <c r="Y42" s="71"/>
-      <c r="Z42" s="71"/>
-      <c r="AA42" s="71"/>
-      <c r="AB42" s="71"/>
-      <c r="AC42" s="71"/>
-      <c r="AD42" s="71"/>
-      <c r="AE42" s="71"/>
-      <c r="AF42" s="71"/>
-      <c r="AG42" s="71"/>
-      <c r="AH42" s="72"/>
-      <c r="AI42" s="71"/>
-      <c r="AJ42" s="71"/>
-      <c r="AK42" s="71"/>
-      <c r="AL42" s="71"/>
-      <c r="AM42" s="71"/>
-      <c r="AN42" s="71"/>
-      <c r="AO42" s="71"/>
-      <c r="AP42" s="72"/>
-      <c r="AQ42" s="66" t="s">
+      <c r="C42" s="69"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="78"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="72"/>
+      <c r="N42" s="72"/>
+      <c r="O42" s="72"/>
+      <c r="P42" s="72"/>
+      <c r="Q42" s="73"/>
+      <c r="R42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
+      <c r="W42" s="72"/>
+      <c r="X42" s="72"/>
+      <c r="Y42" s="72"/>
+      <c r="Z42" s="72"/>
+      <c r="AA42" s="72"/>
+      <c r="AB42" s="72"/>
+      <c r="AC42" s="72"/>
+      <c r="AD42" s="72"/>
+      <c r="AE42" s="72"/>
+      <c r="AF42" s="72"/>
+      <c r="AG42" s="72"/>
+      <c r="AH42" s="73"/>
+      <c r="AI42" s="72"/>
+      <c r="AJ42" s="72"/>
+      <c r="AK42" s="72"/>
+      <c r="AL42" s="72"/>
+      <c r="AM42" s="72"/>
+      <c r="AN42" s="72"/>
+      <c r="AO42" s="72"/>
+      <c r="AP42" s="73"/>
+      <c r="AQ42" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="AR42" s="58"/>
-      <c r="AS42" s="58"/>
-      <c r="AT42" s="58"/>
-      <c r="AU42" s="58"/>
-      <c r="AV42" s="58"/>
-      <c r="AW42" s="58"/>
-      <c r="AX42" s="58"/>
-      <c r="AY42" s="58"/>
-      <c r="AZ42" s="58"/>
-      <c r="BA42" s="58"/>
-      <c r="BB42" s="58"/>
-      <c r="BC42" s="59" t="s">
+      <c r="AR42" s="81"/>
+      <c r="AS42" s="81"/>
+      <c r="AT42" s="81"/>
+      <c r="AU42" s="81"/>
+      <c r="AV42" s="81"/>
+      <c r="AW42" s="81"/>
+      <c r="AX42" s="81"/>
+      <c r="AY42" s="81"/>
+      <c r="AZ42" s="81"/>
+      <c r="BA42" s="81"/>
+      <c r="BB42" s="81"/>
+      <c r="BC42" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="BD42" s="59"/>
-      <c r="BE42" s="59"/>
-      <c r="BF42" s="59"/>
-      <c r="BG42" s="59"/>
-      <c r="BH42" s="59"/>
-      <c r="BI42" s="59"/>
-      <c r="BJ42" s="59"/>
-      <c r="BK42" s="59"/>
-      <c r="BL42" s="59"/>
-      <c r="BM42" s="59"/>
-      <c r="BN42" s="59"/>
-      <c r="BO42" s="59"/>
+      <c r="BD42" s="82"/>
+      <c r="BE42" s="82"/>
+      <c r="BF42" s="82"/>
+      <c r="BG42" s="82"/>
+      <c r="BH42" s="82"/>
+      <c r="BI42" s="82"/>
+      <c r="BJ42" s="82"/>
+      <c r="BK42" s="82"/>
+      <c r="BL42" s="82"/>
+      <c r="BM42" s="82"/>
+      <c r="BN42" s="82"/>
+      <c r="BO42" s="82"/>
       <c r="BP42" s="2"/>
     </row>
     <row r="43" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
@@ -7991,75 +7997,75 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>8</v>
       </c>
-      <c r="C43" s="68"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="72" t="s">
+      <c r="C43" s="69"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="70"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="K43" s="73"/>
-      <c r="L43" s="73"/>
-      <c r="M43" s="73"/>
-      <c r="N43" s="73"/>
-      <c r="O43" s="73"/>
-      <c r="P43" s="73"/>
-      <c r="Q43" s="73"/>
-      <c r="R43" s="74" t="s">
+      <c r="K43" s="83"/>
+      <c r="L43" s="83"/>
+      <c r="M43" s="83"/>
+      <c r="N43" s="83"/>
+      <c r="O43" s="83"/>
+      <c r="P43" s="83"/>
+      <c r="Q43" s="83"/>
+      <c r="R43" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="S43" s="74"/>
-      <c r="T43" s="74"/>
-      <c r="U43" s="74"/>
-      <c r="V43" s="74"/>
-      <c r="W43" s="74"/>
-      <c r="X43" s="74"/>
-      <c r="Y43" s="74"/>
-      <c r="Z43" s="74"/>
-      <c r="AA43" s="74"/>
-      <c r="AB43" s="74"/>
-      <c r="AC43" s="74"/>
-      <c r="AD43" s="74"/>
-      <c r="AE43" s="74"/>
-      <c r="AF43" s="74"/>
-      <c r="AG43" s="74"/>
-      <c r="AH43" s="74"/>
-      <c r="AI43" s="74"/>
-      <c r="AJ43" s="74"/>
-      <c r="AK43" s="74"/>
-      <c r="AL43" s="74"/>
-      <c r="AM43" s="74"/>
-      <c r="AN43" s="74"/>
-      <c r="AO43" s="74"/>
-      <c r="AP43" s="74"/>
-      <c r="AQ43" s="58"/>
-      <c r="AR43" s="58"/>
-      <c r="AS43" s="58"/>
-      <c r="AT43" s="58"/>
-      <c r="AU43" s="58"/>
-      <c r="AV43" s="58"/>
-      <c r="AW43" s="58"/>
-      <c r="AX43" s="58"/>
-      <c r="AY43" s="58"/>
-      <c r="AZ43" s="58"/>
-      <c r="BA43" s="58"/>
-      <c r="BB43" s="58"/>
-      <c r="BC43" s="59"/>
-      <c r="BD43" s="59"/>
-      <c r="BE43" s="59"/>
-      <c r="BF43" s="59"/>
-      <c r="BG43" s="59"/>
-      <c r="BH43" s="59"/>
-      <c r="BI43" s="59"/>
-      <c r="BJ43" s="59"/>
-      <c r="BK43" s="59"/>
-      <c r="BL43" s="59"/>
-      <c r="BM43" s="59"/>
-      <c r="BN43" s="59"/>
-      <c r="BO43" s="59"/>
+      <c r="S43" s="79"/>
+      <c r="T43" s="79"/>
+      <c r="U43" s="79"/>
+      <c r="V43" s="79"/>
+      <c r="W43" s="79"/>
+      <c r="X43" s="79"/>
+      <c r="Y43" s="79"/>
+      <c r="Z43" s="79"/>
+      <c r="AA43" s="79"/>
+      <c r="AB43" s="79"/>
+      <c r="AC43" s="79"/>
+      <c r="AD43" s="79"/>
+      <c r="AE43" s="79"/>
+      <c r="AF43" s="79"/>
+      <c r="AG43" s="79"/>
+      <c r="AH43" s="79"/>
+      <c r="AI43" s="79"/>
+      <c r="AJ43" s="79"/>
+      <c r="AK43" s="79"/>
+      <c r="AL43" s="79"/>
+      <c r="AM43" s="79"/>
+      <c r="AN43" s="79"/>
+      <c r="AO43" s="79"/>
+      <c r="AP43" s="79"/>
+      <c r="AQ43" s="81"/>
+      <c r="AR43" s="81"/>
+      <c r="AS43" s="81"/>
+      <c r="AT43" s="81"/>
+      <c r="AU43" s="81"/>
+      <c r="AV43" s="81"/>
+      <c r="AW43" s="81"/>
+      <c r="AX43" s="81"/>
+      <c r="AY43" s="81"/>
+      <c r="AZ43" s="81"/>
+      <c r="BA43" s="81"/>
+      <c r="BB43" s="81"/>
+      <c r="BC43" s="82"/>
+      <c r="BD43" s="82"/>
+      <c r="BE43" s="82"/>
+      <c r="BF43" s="82"/>
+      <c r="BG43" s="82"/>
+      <c r="BH43" s="82"/>
+      <c r="BI43" s="82"/>
+      <c r="BJ43" s="82"/>
+      <c r="BK43" s="82"/>
+      <c r="BL43" s="82"/>
+      <c r="BM43" s="82"/>
+      <c r="BN43" s="82"/>
+      <c r="BO43" s="82"/>
       <c r="BP43" s="2"/>
     </row>
     <row r="44" spans="1:68" s="20" customFormat="1" ht="32.25" customHeight="1" outlineLevel="1">
@@ -8068,81 +8074,81 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>9</v>
       </c>
-      <c r="C44" s="68"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="67" t="s">
+      <c r="C44" s="69"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="K44" s="67"/>
-      <c r="L44" s="67"/>
-      <c r="M44" s="67"/>
-      <c r="N44" s="67"/>
-      <c r="O44" s="67"/>
-      <c r="P44" s="67"/>
-      <c r="Q44" s="67"/>
-      <c r="R44" s="63"/>
-      <c r="S44" s="64"/>
-      <c r="T44" s="64"/>
-      <c r="U44" s="64"/>
-      <c r="V44" s="64"/>
-      <c r="W44" s="64"/>
-      <c r="X44" s="64"/>
-      <c r="Y44" s="64"/>
-      <c r="Z44" s="64"/>
-      <c r="AA44" s="64"/>
-      <c r="AB44" s="64"/>
-      <c r="AC44" s="64"/>
-      <c r="AD44" s="64"/>
-      <c r="AE44" s="64"/>
-      <c r="AF44" s="64"/>
-      <c r="AG44" s="64"/>
-      <c r="AH44" s="64"/>
-      <c r="AI44" s="63" t="s">
+      <c r="K44" s="80"/>
+      <c r="L44" s="80"/>
+      <c r="M44" s="80"/>
+      <c r="N44" s="80"/>
+      <c r="O44" s="80"/>
+      <c r="P44" s="80"/>
+      <c r="Q44" s="80"/>
+      <c r="R44" s="76"/>
+      <c r="S44" s="74"/>
+      <c r="T44" s="74"/>
+      <c r="U44" s="74"/>
+      <c r="V44" s="74"/>
+      <c r="W44" s="74"/>
+      <c r="X44" s="74"/>
+      <c r="Y44" s="74"/>
+      <c r="Z44" s="74"/>
+      <c r="AA44" s="74"/>
+      <c r="AB44" s="74"/>
+      <c r="AC44" s="74"/>
+      <c r="AD44" s="74"/>
+      <c r="AE44" s="74"/>
+      <c r="AF44" s="74"/>
+      <c r="AG44" s="74"/>
+      <c r="AH44" s="74"/>
+      <c r="AI44" s="76" t="s">
         <v>154</v>
       </c>
-      <c r="AJ44" s="64"/>
-      <c r="AK44" s="64"/>
-      <c r="AL44" s="64"/>
-      <c r="AM44" s="64"/>
-      <c r="AN44" s="64"/>
-      <c r="AO44" s="64"/>
-      <c r="AP44" s="65"/>
-      <c r="AQ44" s="66" t="s">
+      <c r="AJ44" s="74"/>
+      <c r="AK44" s="74"/>
+      <c r="AL44" s="74"/>
+      <c r="AM44" s="74"/>
+      <c r="AN44" s="74"/>
+      <c r="AO44" s="74"/>
+      <c r="AP44" s="75"/>
+      <c r="AQ44" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="AR44" s="58"/>
-      <c r="AS44" s="58"/>
-      <c r="AT44" s="58"/>
-      <c r="AU44" s="58"/>
-      <c r="AV44" s="58"/>
-      <c r="AW44" s="58"/>
-      <c r="AX44" s="58" t="s">
+      <c r="AR44" s="81"/>
+      <c r="AS44" s="81"/>
+      <c r="AT44" s="81"/>
+      <c r="AU44" s="81"/>
+      <c r="AV44" s="81"/>
+      <c r="AW44" s="81"/>
+      <c r="AX44" s="81" t="s">
         <v>156</v>
       </c>
-      <c r="AY44" s="58"/>
-      <c r="AZ44" s="58"/>
-      <c r="BA44" s="58"/>
-      <c r="BB44" s="58"/>
-      <c r="BC44" s="59" t="s">
+      <c r="AY44" s="81"/>
+      <c r="AZ44" s="81"/>
+      <c r="BA44" s="81"/>
+      <c r="BB44" s="81"/>
+      <c r="BC44" s="82" t="s">
         <v>157</v>
       </c>
-      <c r="BD44" s="59"/>
-      <c r="BE44" s="59"/>
-      <c r="BF44" s="59"/>
-      <c r="BG44" s="59"/>
-      <c r="BH44" s="59"/>
-      <c r="BI44" s="59"/>
-      <c r="BJ44" s="59"/>
-      <c r="BK44" s="59"/>
-      <c r="BL44" s="59"/>
-      <c r="BM44" s="59"/>
-      <c r="BN44" s="59"/>
-      <c r="BO44" s="59"/>
+      <c r="BD44" s="82"/>
+      <c r="BE44" s="82"/>
+      <c r="BF44" s="82"/>
+      <c r="BG44" s="82"/>
+      <c r="BH44" s="82"/>
+      <c r="BI44" s="82"/>
+      <c r="BJ44" s="82"/>
+      <c r="BK44" s="82"/>
+      <c r="BL44" s="82"/>
+      <c r="BM44" s="82"/>
+      <c r="BN44" s="82"/>
+      <c r="BO44" s="82"/>
       <c r="BP44" s="2"/>
     </row>
     <row r="45" spans="1:68" s="20" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
@@ -8151,77 +8157,77 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>10</v>
       </c>
-      <c r="C45" s="68"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="69"/>
-      <c r="H45" s="69"/>
-      <c r="I45" s="69"/>
-      <c r="J45" s="68"/>
-      <c r="K45" s="69"/>
-      <c r="L45" s="69"/>
-      <c r="M45" s="69"/>
-      <c r="N45" s="69"/>
-      <c r="O45" s="69"/>
-      <c r="P45" s="69"/>
-      <c r="Q45" s="70"/>
-      <c r="R45" s="68"/>
-      <c r="S45" s="69"/>
-      <c r="T45" s="69"/>
-      <c r="U45" s="69"/>
-      <c r="V45" s="69"/>
-      <c r="W45" s="69"/>
-      <c r="X45" s="69"/>
-      <c r="Y45" s="69"/>
-      <c r="Z45" s="69"/>
-      <c r="AA45" s="69"/>
-      <c r="AB45" s="69"/>
-      <c r="AC45" s="69"/>
-      <c r="AD45" s="69"/>
-      <c r="AE45" s="69"/>
-      <c r="AF45" s="69"/>
-      <c r="AG45" s="69"/>
-      <c r="AH45" s="69"/>
-      <c r="AI45" s="68"/>
-      <c r="AJ45" s="69"/>
-      <c r="AK45" s="69"/>
-      <c r="AL45" s="69"/>
-      <c r="AM45" s="69"/>
-      <c r="AN45" s="69"/>
-      <c r="AO45" s="69"/>
-      <c r="AP45" s="70"/>
-      <c r="AQ45" s="66" t="s">
+      <c r="C45" s="69"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="70"/>
+      <c r="H45" s="70"/>
+      <c r="I45" s="70"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="70"/>
+      <c r="L45" s="70"/>
+      <c r="M45" s="70"/>
+      <c r="N45" s="70"/>
+      <c r="O45" s="70"/>
+      <c r="P45" s="70"/>
+      <c r="Q45" s="78"/>
+      <c r="R45" s="69"/>
+      <c r="S45" s="70"/>
+      <c r="T45" s="70"/>
+      <c r="U45" s="70"/>
+      <c r="V45" s="70"/>
+      <c r="W45" s="70"/>
+      <c r="X45" s="70"/>
+      <c r="Y45" s="70"/>
+      <c r="Z45" s="70"/>
+      <c r="AA45" s="70"/>
+      <c r="AB45" s="70"/>
+      <c r="AC45" s="70"/>
+      <c r="AD45" s="70"/>
+      <c r="AE45" s="70"/>
+      <c r="AF45" s="70"/>
+      <c r="AG45" s="70"/>
+      <c r="AH45" s="70"/>
+      <c r="AI45" s="69"/>
+      <c r="AJ45" s="70"/>
+      <c r="AK45" s="70"/>
+      <c r="AL45" s="70"/>
+      <c r="AM45" s="70"/>
+      <c r="AN45" s="70"/>
+      <c r="AO45" s="70"/>
+      <c r="AP45" s="78"/>
+      <c r="AQ45" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="AR45" s="58"/>
-      <c r="AS45" s="58"/>
-      <c r="AT45" s="58"/>
-      <c r="AU45" s="58"/>
-      <c r="AV45" s="58"/>
-      <c r="AW45" s="58"/>
-      <c r="AX45" s="58" t="s">
+      <c r="AR45" s="81"/>
+      <c r="AS45" s="81"/>
+      <c r="AT45" s="81"/>
+      <c r="AU45" s="81"/>
+      <c r="AV45" s="81"/>
+      <c r="AW45" s="81"/>
+      <c r="AX45" s="81" t="s">
         <v>158</v>
       </c>
-      <c r="AY45" s="58"/>
-      <c r="AZ45" s="58"/>
-      <c r="BA45" s="58"/>
-      <c r="BB45" s="58"/>
-      <c r="BC45" s="59" t="s">
+      <c r="AY45" s="81"/>
+      <c r="AZ45" s="81"/>
+      <c r="BA45" s="81"/>
+      <c r="BB45" s="81"/>
+      <c r="BC45" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="BD45" s="59"/>
-      <c r="BE45" s="59"/>
-      <c r="BF45" s="59"/>
-      <c r="BG45" s="59"/>
-      <c r="BH45" s="59"/>
-      <c r="BI45" s="59"/>
-      <c r="BJ45" s="59"/>
-      <c r="BK45" s="59"/>
-      <c r="BL45" s="59"/>
-      <c r="BM45" s="59"/>
-      <c r="BN45" s="59"/>
-      <c r="BO45" s="59"/>
+      <c r="BD45" s="82"/>
+      <c r="BE45" s="82"/>
+      <c r="BF45" s="82"/>
+      <c r="BG45" s="82"/>
+      <c r="BH45" s="82"/>
+      <c r="BI45" s="82"/>
+      <c r="BJ45" s="82"/>
+      <c r="BK45" s="82"/>
+      <c r="BL45" s="82"/>
+      <c r="BM45" s="82"/>
+      <c r="BN45" s="82"/>
+      <c r="BO45" s="82"/>
       <c r="BP45" s="2"/>
     </row>
     <row r="46" spans="1:68" s="20" customFormat="1" ht="32.25" customHeight="1" outlineLevel="1">
@@ -8230,77 +8236,77 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>11</v>
       </c>
-      <c r="C46" s="68"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="69"/>
-      <c r="I46" s="69"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="69"/>
-      <c r="L46" s="69"/>
-      <c r="M46" s="69"/>
-      <c r="N46" s="69"/>
-      <c r="O46" s="69"/>
-      <c r="P46" s="69"/>
-      <c r="Q46" s="70"/>
-      <c r="R46" s="68"/>
-      <c r="S46" s="69"/>
-      <c r="T46" s="69"/>
-      <c r="U46" s="69"/>
-      <c r="V46" s="69"/>
-      <c r="W46" s="69"/>
-      <c r="X46" s="69"/>
-      <c r="Y46" s="69"/>
-      <c r="Z46" s="69"/>
-      <c r="AA46" s="69"/>
-      <c r="AB46" s="69"/>
-      <c r="AC46" s="69"/>
-      <c r="AD46" s="69"/>
-      <c r="AE46" s="69"/>
-      <c r="AF46" s="69"/>
-      <c r="AG46" s="69"/>
-      <c r="AH46" s="69"/>
-      <c r="AI46" s="68"/>
-      <c r="AJ46" s="69"/>
-      <c r="AK46" s="69"/>
-      <c r="AL46" s="69"/>
-      <c r="AM46" s="69"/>
-      <c r="AN46" s="69"/>
-      <c r="AO46" s="69"/>
-      <c r="AP46" s="70"/>
-      <c r="AQ46" s="66" t="s">
+      <c r="C46" s="69"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="70"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="70"/>
+      <c r="L46" s="70"/>
+      <c r="M46" s="70"/>
+      <c r="N46" s="70"/>
+      <c r="O46" s="70"/>
+      <c r="P46" s="70"/>
+      <c r="Q46" s="78"/>
+      <c r="R46" s="69"/>
+      <c r="S46" s="70"/>
+      <c r="T46" s="70"/>
+      <c r="U46" s="70"/>
+      <c r="V46" s="70"/>
+      <c r="W46" s="70"/>
+      <c r="X46" s="70"/>
+      <c r="Y46" s="70"/>
+      <c r="Z46" s="70"/>
+      <c r="AA46" s="70"/>
+      <c r="AB46" s="70"/>
+      <c r="AC46" s="70"/>
+      <c r="AD46" s="70"/>
+      <c r="AE46" s="70"/>
+      <c r="AF46" s="70"/>
+      <c r="AG46" s="70"/>
+      <c r="AH46" s="70"/>
+      <c r="AI46" s="69"/>
+      <c r="AJ46" s="70"/>
+      <c r="AK46" s="70"/>
+      <c r="AL46" s="70"/>
+      <c r="AM46" s="70"/>
+      <c r="AN46" s="70"/>
+      <c r="AO46" s="70"/>
+      <c r="AP46" s="78"/>
+      <c r="AQ46" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="AR46" s="58"/>
-      <c r="AS46" s="58"/>
-      <c r="AT46" s="58"/>
-      <c r="AU46" s="58"/>
-      <c r="AV46" s="58"/>
-      <c r="AW46" s="58"/>
-      <c r="AX46" s="58" t="s">
+      <c r="AR46" s="81"/>
+      <c r="AS46" s="81"/>
+      <c r="AT46" s="81"/>
+      <c r="AU46" s="81"/>
+      <c r="AV46" s="81"/>
+      <c r="AW46" s="81"/>
+      <c r="AX46" s="81" t="s">
         <v>162</v>
       </c>
-      <c r="AY46" s="58"/>
-      <c r="AZ46" s="58"/>
-      <c r="BA46" s="58"/>
-      <c r="BB46" s="58"/>
-      <c r="BC46" s="59" t="s">
+      <c r="AY46" s="81"/>
+      <c r="AZ46" s="81"/>
+      <c r="BA46" s="81"/>
+      <c r="BB46" s="81"/>
+      <c r="BC46" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="BD46" s="59"/>
-      <c r="BE46" s="59"/>
-      <c r="BF46" s="59"/>
-      <c r="BG46" s="59"/>
-      <c r="BH46" s="59"/>
-      <c r="BI46" s="59"/>
-      <c r="BJ46" s="59"/>
-      <c r="BK46" s="59"/>
-      <c r="BL46" s="59"/>
-      <c r="BM46" s="59"/>
-      <c r="BN46" s="59"/>
-      <c r="BO46" s="59"/>
+      <c r="BD46" s="82"/>
+      <c r="BE46" s="82"/>
+      <c r="BF46" s="82"/>
+      <c r="BG46" s="82"/>
+      <c r="BH46" s="82"/>
+      <c r="BI46" s="82"/>
+      <c r="BJ46" s="82"/>
+      <c r="BK46" s="82"/>
+      <c r="BL46" s="82"/>
+      <c r="BM46" s="82"/>
+      <c r="BN46" s="82"/>
+      <c r="BO46" s="82"/>
       <c r="BP46" s="2"/>
     </row>
     <row r="47" spans="1:68" s="20" customFormat="1" ht="51.75" customHeight="1" outlineLevel="1">
@@ -8309,77 +8315,77 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>12</v>
       </c>
-      <c r="C47" s="68"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="69"/>
-      <c r="I47" s="69"/>
-      <c r="J47" s="75"/>
-      <c r="K47" s="71"/>
-      <c r="L47" s="71"/>
-      <c r="M47" s="71"/>
-      <c r="N47" s="71"/>
-      <c r="O47" s="71"/>
-      <c r="P47" s="71"/>
-      <c r="Q47" s="72"/>
-      <c r="R47" s="75"/>
-      <c r="S47" s="71"/>
-      <c r="T47" s="71"/>
-      <c r="U47" s="71"/>
-      <c r="V47" s="71"/>
-      <c r="W47" s="71"/>
-      <c r="X47" s="71"/>
-      <c r="Y47" s="71"/>
-      <c r="Z47" s="71"/>
-      <c r="AA47" s="71"/>
-      <c r="AB47" s="71"/>
-      <c r="AC47" s="71"/>
-      <c r="AD47" s="71"/>
-      <c r="AE47" s="71"/>
-      <c r="AF47" s="71"/>
-      <c r="AG47" s="71"/>
-      <c r="AH47" s="71"/>
-      <c r="AI47" s="75"/>
-      <c r="AJ47" s="71"/>
-      <c r="AK47" s="71"/>
-      <c r="AL47" s="71"/>
-      <c r="AM47" s="71"/>
-      <c r="AN47" s="71"/>
-      <c r="AO47" s="71"/>
-      <c r="AP47" s="72"/>
-      <c r="AQ47" s="66" t="s">
+      <c r="C47" s="69"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="71"/>
+      <c r="K47" s="72"/>
+      <c r="L47" s="72"/>
+      <c r="M47" s="72"/>
+      <c r="N47" s="72"/>
+      <c r="O47" s="72"/>
+      <c r="P47" s="72"/>
+      <c r="Q47" s="73"/>
+      <c r="R47" s="71"/>
+      <c r="S47" s="72"/>
+      <c r="T47" s="72"/>
+      <c r="U47" s="72"/>
+      <c r="V47" s="72"/>
+      <c r="W47" s="72"/>
+      <c r="X47" s="72"/>
+      <c r="Y47" s="72"/>
+      <c r="Z47" s="72"/>
+      <c r="AA47" s="72"/>
+      <c r="AB47" s="72"/>
+      <c r="AC47" s="72"/>
+      <c r="AD47" s="72"/>
+      <c r="AE47" s="72"/>
+      <c r="AF47" s="72"/>
+      <c r="AG47" s="72"/>
+      <c r="AH47" s="72"/>
+      <c r="AI47" s="71"/>
+      <c r="AJ47" s="72"/>
+      <c r="AK47" s="72"/>
+      <c r="AL47" s="72"/>
+      <c r="AM47" s="72"/>
+      <c r="AN47" s="72"/>
+      <c r="AO47" s="72"/>
+      <c r="AP47" s="73"/>
+      <c r="AQ47" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="AR47" s="58"/>
-      <c r="AS47" s="58"/>
-      <c r="AT47" s="58"/>
-      <c r="AU47" s="58"/>
-      <c r="AV47" s="58"/>
-      <c r="AW47" s="58"/>
-      <c r="AX47" s="58" t="s">
+      <c r="AR47" s="81"/>
+      <c r="AS47" s="81"/>
+      <c r="AT47" s="81"/>
+      <c r="AU47" s="81"/>
+      <c r="AV47" s="81"/>
+      <c r="AW47" s="81"/>
+      <c r="AX47" s="81" t="s">
         <v>165</v>
       </c>
-      <c r="AY47" s="58"/>
-      <c r="AZ47" s="58"/>
-      <c r="BA47" s="58"/>
-      <c r="BB47" s="58"/>
-      <c r="BC47" s="59" t="s">
+      <c r="AY47" s="81"/>
+      <c r="AZ47" s="81"/>
+      <c r="BA47" s="81"/>
+      <c r="BB47" s="81"/>
+      <c r="BC47" s="82" t="s">
         <v>166</v>
       </c>
-      <c r="BD47" s="59"/>
-      <c r="BE47" s="59"/>
-      <c r="BF47" s="59"/>
-      <c r="BG47" s="59"/>
-      <c r="BH47" s="59"/>
-      <c r="BI47" s="59"/>
-      <c r="BJ47" s="59"/>
-      <c r="BK47" s="59"/>
-      <c r="BL47" s="59"/>
-      <c r="BM47" s="59"/>
-      <c r="BN47" s="59"/>
-      <c r="BO47" s="59"/>
+      <c r="BD47" s="82"/>
+      <c r="BE47" s="82"/>
+      <c r="BF47" s="82"/>
+      <c r="BG47" s="82"/>
+      <c r="BH47" s="82"/>
+      <c r="BI47" s="82"/>
+      <c r="BJ47" s="82"/>
+      <c r="BK47" s="82"/>
+      <c r="BL47" s="82"/>
+      <c r="BM47" s="82"/>
+      <c r="BN47" s="82"/>
+      <c r="BO47" s="82"/>
       <c r="BP47" s="2"/>
     </row>
     <row r="48" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
@@ -8388,73 +8394,73 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>13</v>
       </c>
-      <c r="C48" s="68"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="69"/>
-      <c r="I48" s="70"/>
-      <c r="J48" s="70" t="s">
+      <c r="C48" s="69"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="70"/>
+      <c r="H48" s="70"/>
+      <c r="I48" s="78"/>
+      <c r="J48" s="78" t="s">
         <v>167</v>
       </c>
-      <c r="K48" s="74"/>
-      <c r="L48" s="74"/>
-      <c r="M48" s="74"/>
-      <c r="N48" s="74"/>
-      <c r="O48" s="74"/>
-      <c r="P48" s="74"/>
-      <c r="Q48" s="74"/>
-      <c r="R48" s="67"/>
-      <c r="S48" s="67"/>
-      <c r="T48" s="67"/>
-      <c r="U48" s="67"/>
-      <c r="V48" s="67"/>
-      <c r="W48" s="67"/>
-      <c r="X48" s="67"/>
-      <c r="Y48" s="67"/>
-      <c r="Z48" s="67"/>
-      <c r="AA48" s="67"/>
-      <c r="AB48" s="67"/>
-      <c r="AC48" s="67"/>
-      <c r="AD48" s="67"/>
-      <c r="AE48" s="67"/>
-      <c r="AF48" s="67"/>
-      <c r="AG48" s="67"/>
-      <c r="AH48" s="67"/>
-      <c r="AI48" s="74"/>
-      <c r="AJ48" s="74"/>
-      <c r="AK48" s="74"/>
-      <c r="AL48" s="74"/>
-      <c r="AM48" s="74"/>
-      <c r="AN48" s="74"/>
-      <c r="AO48" s="74"/>
-      <c r="AP48" s="74"/>
-      <c r="AQ48" s="58"/>
-      <c r="AR48" s="58"/>
-      <c r="AS48" s="58"/>
-      <c r="AT48" s="58"/>
-      <c r="AU48" s="58"/>
-      <c r="AV48" s="58"/>
-      <c r="AW48" s="58"/>
-      <c r="AX48" s="58"/>
-      <c r="AY48" s="58"/>
-      <c r="AZ48" s="58"/>
-      <c r="BA48" s="58"/>
-      <c r="BB48" s="58"/>
-      <c r="BC48" s="59"/>
-      <c r="BD48" s="59"/>
-      <c r="BE48" s="59"/>
-      <c r="BF48" s="59"/>
-      <c r="BG48" s="59"/>
-      <c r="BH48" s="59"/>
-      <c r="BI48" s="59"/>
-      <c r="BJ48" s="59"/>
-      <c r="BK48" s="59"/>
-      <c r="BL48" s="59"/>
-      <c r="BM48" s="59"/>
-      <c r="BN48" s="59"/>
-      <c r="BO48" s="59"/>
+      <c r="K48" s="79"/>
+      <c r="L48" s="79"/>
+      <c r="M48" s="79"/>
+      <c r="N48" s="79"/>
+      <c r="O48" s="79"/>
+      <c r="P48" s="79"/>
+      <c r="Q48" s="79"/>
+      <c r="R48" s="80"/>
+      <c r="S48" s="80"/>
+      <c r="T48" s="80"/>
+      <c r="U48" s="80"/>
+      <c r="V48" s="80"/>
+      <c r="W48" s="80"/>
+      <c r="X48" s="80"/>
+      <c r="Y48" s="80"/>
+      <c r="Z48" s="80"/>
+      <c r="AA48" s="80"/>
+      <c r="AB48" s="80"/>
+      <c r="AC48" s="80"/>
+      <c r="AD48" s="80"/>
+      <c r="AE48" s="80"/>
+      <c r="AF48" s="80"/>
+      <c r="AG48" s="80"/>
+      <c r="AH48" s="80"/>
+      <c r="AI48" s="79"/>
+      <c r="AJ48" s="79"/>
+      <c r="AK48" s="79"/>
+      <c r="AL48" s="79"/>
+      <c r="AM48" s="79"/>
+      <c r="AN48" s="79"/>
+      <c r="AO48" s="79"/>
+      <c r="AP48" s="79"/>
+      <c r="AQ48" s="81"/>
+      <c r="AR48" s="81"/>
+      <c r="AS48" s="81"/>
+      <c r="AT48" s="81"/>
+      <c r="AU48" s="81"/>
+      <c r="AV48" s="81"/>
+      <c r="AW48" s="81"/>
+      <c r="AX48" s="81"/>
+      <c r="AY48" s="81"/>
+      <c r="AZ48" s="81"/>
+      <c r="BA48" s="81"/>
+      <c r="BB48" s="81"/>
+      <c r="BC48" s="82"/>
+      <c r="BD48" s="82"/>
+      <c r="BE48" s="82"/>
+      <c r="BF48" s="82"/>
+      <c r="BG48" s="82"/>
+      <c r="BH48" s="82"/>
+      <c r="BI48" s="82"/>
+      <c r="BJ48" s="82"/>
+      <c r="BK48" s="82"/>
+      <c r="BL48" s="82"/>
+      <c r="BM48" s="82"/>
+      <c r="BN48" s="82"/>
+      <c r="BO48" s="82"/>
       <c r="BP48" s="2"/>
     </row>
     <row r="49" spans="1:68" s="20" customFormat="1" ht="32.25" customHeight="1" outlineLevel="1">
@@ -8463,75 +8469,75 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>14</v>
       </c>
-      <c r="C49" s="68"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="69"/>
-      <c r="J49" s="63" t="s">
+      <c r="C49" s="69"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="70"/>
+      <c r="J49" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="K49" s="64"/>
-      <c r="L49" s="64"/>
-      <c r="M49" s="64"/>
-      <c r="N49" s="64"/>
-      <c r="O49" s="64"/>
-      <c r="P49" s="64"/>
-      <c r="Q49" s="65"/>
-      <c r="R49" s="84" t="s">
+      <c r="K49" s="74"/>
+      <c r="L49" s="74"/>
+      <c r="M49" s="74"/>
+      <c r="N49" s="74"/>
+      <c r="O49" s="74"/>
+      <c r="P49" s="74"/>
+      <c r="Q49" s="75"/>
+      <c r="R49" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="S49" s="64"/>
-      <c r="T49" s="64"/>
-      <c r="U49" s="64"/>
-      <c r="V49" s="64"/>
-      <c r="W49" s="64"/>
-      <c r="X49" s="64"/>
-      <c r="Y49" s="64"/>
-      <c r="Z49" s="64"/>
-      <c r="AA49" s="64"/>
-      <c r="AB49" s="64"/>
-      <c r="AC49" s="64"/>
-      <c r="AD49" s="64"/>
-      <c r="AE49" s="64"/>
-      <c r="AF49" s="64"/>
-      <c r="AG49" s="64"/>
-      <c r="AH49" s="65"/>
-      <c r="AI49" s="67"/>
-      <c r="AJ49" s="67"/>
-      <c r="AK49" s="67"/>
-      <c r="AL49" s="67"/>
-      <c r="AM49" s="67"/>
-      <c r="AN49" s="67"/>
-      <c r="AO49" s="67"/>
-      <c r="AP49" s="67"/>
-      <c r="AQ49" s="58"/>
-      <c r="AR49" s="58"/>
-      <c r="AS49" s="58"/>
-      <c r="AT49" s="58"/>
-      <c r="AU49" s="58"/>
-      <c r="AV49" s="58"/>
-      <c r="AW49" s="58"/>
-      <c r="AX49" s="58"/>
-      <c r="AY49" s="58"/>
-      <c r="AZ49" s="58"/>
-      <c r="BA49" s="58"/>
-      <c r="BB49" s="58"/>
-      <c r="BC49" s="59"/>
-      <c r="BD49" s="59"/>
-      <c r="BE49" s="59"/>
-      <c r="BF49" s="59"/>
-      <c r="BG49" s="59"/>
-      <c r="BH49" s="59"/>
-      <c r="BI49" s="59"/>
-      <c r="BJ49" s="59"/>
-      <c r="BK49" s="59"/>
-      <c r="BL49" s="59"/>
-      <c r="BM49" s="59"/>
-      <c r="BN49" s="59"/>
-      <c r="BO49" s="59"/>
+      <c r="S49" s="74"/>
+      <c r="T49" s="74"/>
+      <c r="U49" s="74"/>
+      <c r="V49" s="74"/>
+      <c r="W49" s="74"/>
+      <c r="X49" s="74"/>
+      <c r="Y49" s="74"/>
+      <c r="Z49" s="74"/>
+      <c r="AA49" s="74"/>
+      <c r="AB49" s="74"/>
+      <c r="AC49" s="74"/>
+      <c r="AD49" s="74"/>
+      <c r="AE49" s="74"/>
+      <c r="AF49" s="74"/>
+      <c r="AG49" s="74"/>
+      <c r="AH49" s="75"/>
+      <c r="AI49" s="80"/>
+      <c r="AJ49" s="80"/>
+      <c r="AK49" s="80"/>
+      <c r="AL49" s="80"/>
+      <c r="AM49" s="80"/>
+      <c r="AN49" s="80"/>
+      <c r="AO49" s="80"/>
+      <c r="AP49" s="80"/>
+      <c r="AQ49" s="81"/>
+      <c r="AR49" s="81"/>
+      <c r="AS49" s="81"/>
+      <c r="AT49" s="81"/>
+      <c r="AU49" s="81"/>
+      <c r="AV49" s="81"/>
+      <c r="AW49" s="81"/>
+      <c r="AX49" s="81"/>
+      <c r="AY49" s="81"/>
+      <c r="AZ49" s="81"/>
+      <c r="BA49" s="81"/>
+      <c r="BB49" s="81"/>
+      <c r="BC49" s="82"/>
+      <c r="BD49" s="82"/>
+      <c r="BE49" s="82"/>
+      <c r="BF49" s="82"/>
+      <c r="BG49" s="82"/>
+      <c r="BH49" s="82"/>
+      <c r="BI49" s="82"/>
+      <c r="BJ49" s="82"/>
+      <c r="BK49" s="82"/>
+      <c r="BL49" s="82"/>
+      <c r="BM49" s="82"/>
+      <c r="BN49" s="82"/>
+      <c r="BO49" s="82"/>
       <c r="BP49" s="2"/>
     </row>
     <row r="50" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
@@ -8540,73 +8546,73 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>15</v>
       </c>
-      <c r="C50" s="68"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="69"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="69"/>
-      <c r="J50" s="75"/>
-      <c r="K50" s="71"/>
-      <c r="L50" s="71"/>
-      <c r="M50" s="71"/>
-      <c r="N50" s="71"/>
-      <c r="O50" s="71"/>
-      <c r="P50" s="71"/>
-      <c r="Q50" s="72"/>
-      <c r="R50" s="64" t="s">
+      <c r="C50" s="69"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="70"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="72"/>
+      <c r="L50" s="72"/>
+      <c r="M50" s="72"/>
+      <c r="N50" s="72"/>
+      <c r="O50" s="72"/>
+      <c r="P50" s="72"/>
+      <c r="Q50" s="73"/>
+      <c r="R50" s="74" t="s">
         <v>170</v>
       </c>
-      <c r="S50" s="64"/>
-      <c r="T50" s="64"/>
-      <c r="U50" s="64"/>
-      <c r="V50" s="64"/>
-      <c r="W50" s="64"/>
-      <c r="X50" s="64"/>
-      <c r="Y50" s="64"/>
-      <c r="Z50" s="64"/>
-      <c r="AA50" s="64"/>
-      <c r="AB50" s="64"/>
-      <c r="AC50" s="64"/>
-      <c r="AD50" s="64"/>
-      <c r="AE50" s="64"/>
-      <c r="AF50" s="64"/>
-      <c r="AG50" s="64"/>
-      <c r="AH50" s="65"/>
-      <c r="AI50" s="76"/>
-      <c r="AJ50" s="77"/>
-      <c r="AK50" s="77"/>
-      <c r="AL50" s="77"/>
-      <c r="AM50" s="77"/>
-      <c r="AN50" s="77"/>
-      <c r="AO50" s="77"/>
-      <c r="AP50" s="78"/>
-      <c r="AQ50" s="79"/>
-      <c r="AR50" s="80"/>
-      <c r="AS50" s="80"/>
-      <c r="AT50" s="80"/>
-      <c r="AU50" s="80"/>
-      <c r="AV50" s="80"/>
-      <c r="AW50" s="66"/>
-      <c r="AX50" s="79"/>
-      <c r="AY50" s="80"/>
-      <c r="AZ50" s="80"/>
-      <c r="BA50" s="80"/>
-      <c r="BB50" s="66"/>
-      <c r="BC50" s="81"/>
-      <c r="BD50" s="82"/>
-      <c r="BE50" s="82"/>
-      <c r="BF50" s="82"/>
-      <c r="BG50" s="82"/>
-      <c r="BH50" s="82"/>
-      <c r="BI50" s="82"/>
-      <c r="BJ50" s="82"/>
-      <c r="BK50" s="82"/>
-      <c r="BL50" s="82"/>
-      <c r="BM50" s="82"/>
-      <c r="BN50" s="82"/>
-      <c r="BO50" s="83"/>
+      <c r="S50" s="74"/>
+      <c r="T50" s="74"/>
+      <c r="U50" s="74"/>
+      <c r="V50" s="74"/>
+      <c r="W50" s="74"/>
+      <c r="X50" s="74"/>
+      <c r="Y50" s="74"/>
+      <c r="Z50" s="74"/>
+      <c r="AA50" s="74"/>
+      <c r="AB50" s="74"/>
+      <c r="AC50" s="74"/>
+      <c r="AD50" s="74"/>
+      <c r="AE50" s="74"/>
+      <c r="AF50" s="74"/>
+      <c r="AG50" s="74"/>
+      <c r="AH50" s="75"/>
+      <c r="AI50" s="57"/>
+      <c r="AJ50" s="58"/>
+      <c r="AK50" s="58"/>
+      <c r="AL50" s="58"/>
+      <c r="AM50" s="58"/>
+      <c r="AN50" s="58"/>
+      <c r="AO50" s="58"/>
+      <c r="AP50" s="59"/>
+      <c r="AQ50" s="45"/>
+      <c r="AR50" s="46"/>
+      <c r="AS50" s="46"/>
+      <c r="AT50" s="46"/>
+      <c r="AU50" s="46"/>
+      <c r="AV50" s="46"/>
+      <c r="AW50" s="47"/>
+      <c r="AX50" s="45"/>
+      <c r="AY50" s="46"/>
+      <c r="AZ50" s="46"/>
+      <c r="BA50" s="46"/>
+      <c r="BB50" s="47"/>
+      <c r="BC50" s="48"/>
+      <c r="BD50" s="49"/>
+      <c r="BE50" s="49"/>
+      <c r="BF50" s="49"/>
+      <c r="BG50" s="49"/>
+      <c r="BH50" s="49"/>
+      <c r="BI50" s="49"/>
+      <c r="BJ50" s="49"/>
+      <c r="BK50" s="49"/>
+      <c r="BL50" s="49"/>
+      <c r="BM50" s="49"/>
+      <c r="BN50" s="49"/>
+      <c r="BO50" s="50"/>
       <c r="BP50" s="2"/>
     </row>
     <row r="51" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
@@ -8615,77 +8621,77 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>16</v>
       </c>
-      <c r="C51" s="76" t="s">
+      <c r="C51" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="77"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="78"/>
-      <c r="J51" s="91" t="s">
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="K51" s="92"/>
-      <c r="L51" s="92"/>
-      <c r="M51" s="92"/>
-      <c r="N51" s="92"/>
-      <c r="O51" s="92"/>
-      <c r="P51" s="92"/>
-      <c r="Q51" s="93"/>
-      <c r="R51" s="94" t="s">
+      <c r="K51" s="61"/>
+      <c r="L51" s="61"/>
+      <c r="M51" s="61"/>
+      <c r="N51" s="61"/>
+      <c r="O51" s="61"/>
+      <c r="P51" s="61"/>
+      <c r="Q51" s="62"/>
+      <c r="R51" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="S51" s="95"/>
-      <c r="T51" s="95"/>
-      <c r="U51" s="95"/>
-      <c r="V51" s="95"/>
-      <c r="W51" s="95"/>
-      <c r="X51" s="95"/>
-      <c r="Y51" s="95"/>
-      <c r="Z51" s="95"/>
-      <c r="AA51" s="95"/>
-      <c r="AB51" s="95"/>
-      <c r="AC51" s="95"/>
-      <c r="AD51" s="95"/>
-      <c r="AE51" s="95"/>
-      <c r="AF51" s="95"/>
-      <c r="AG51" s="95"/>
-      <c r="AH51" s="96"/>
-      <c r="AI51" s="76"/>
-      <c r="AJ51" s="77"/>
-      <c r="AK51" s="77"/>
-      <c r="AL51" s="77"/>
-      <c r="AM51" s="77"/>
-      <c r="AN51" s="77"/>
-      <c r="AO51" s="77"/>
-      <c r="AP51" s="78"/>
-      <c r="AQ51" s="79"/>
-      <c r="AR51" s="80"/>
-      <c r="AS51" s="80"/>
-      <c r="AT51" s="80"/>
-      <c r="AU51" s="80"/>
-      <c r="AV51" s="80"/>
-      <c r="AW51" s="66"/>
-      <c r="AX51" s="79"/>
-      <c r="AY51" s="80"/>
-      <c r="AZ51" s="80"/>
-      <c r="BA51" s="80"/>
-      <c r="BB51" s="66"/>
-      <c r="BC51" s="81"/>
-      <c r="BD51" s="82"/>
-      <c r="BE51" s="82"/>
-      <c r="BF51" s="82"/>
-      <c r="BG51" s="82"/>
-      <c r="BH51" s="82"/>
-      <c r="BI51" s="82"/>
-      <c r="BJ51" s="82"/>
-      <c r="BK51" s="82"/>
-      <c r="BL51" s="82"/>
-      <c r="BM51" s="82"/>
-      <c r="BN51" s="82"/>
-      <c r="BO51" s="83"/>
+      <c r="S51" s="64"/>
+      <c r="T51" s="64"/>
+      <c r="U51" s="64"/>
+      <c r="V51" s="64"/>
+      <c r="W51" s="64"/>
+      <c r="X51" s="64"/>
+      <c r="Y51" s="64"/>
+      <c r="Z51" s="64"/>
+      <c r="AA51" s="64"/>
+      <c r="AB51" s="64"/>
+      <c r="AC51" s="64"/>
+      <c r="AD51" s="64"/>
+      <c r="AE51" s="64"/>
+      <c r="AF51" s="64"/>
+      <c r="AG51" s="64"/>
+      <c r="AH51" s="65"/>
+      <c r="AI51" s="57"/>
+      <c r="AJ51" s="58"/>
+      <c r="AK51" s="58"/>
+      <c r="AL51" s="58"/>
+      <c r="AM51" s="58"/>
+      <c r="AN51" s="58"/>
+      <c r="AO51" s="58"/>
+      <c r="AP51" s="59"/>
+      <c r="AQ51" s="45"/>
+      <c r="AR51" s="46"/>
+      <c r="AS51" s="46"/>
+      <c r="AT51" s="46"/>
+      <c r="AU51" s="46"/>
+      <c r="AV51" s="46"/>
+      <c r="AW51" s="47"/>
+      <c r="AX51" s="45"/>
+      <c r="AY51" s="46"/>
+      <c r="AZ51" s="46"/>
+      <c r="BA51" s="46"/>
+      <c r="BB51" s="47"/>
+      <c r="BC51" s="48"/>
+      <c r="BD51" s="49"/>
+      <c r="BE51" s="49"/>
+      <c r="BF51" s="49"/>
+      <c r="BG51" s="49"/>
+      <c r="BH51" s="49"/>
+      <c r="BI51" s="49"/>
+      <c r="BJ51" s="49"/>
+      <c r="BK51" s="49"/>
+      <c r="BL51" s="49"/>
+      <c r="BM51" s="49"/>
+      <c r="BN51" s="49"/>
+      <c r="BO51" s="50"/>
       <c r="BP51" s="2"/>
     </row>
     <row r="52" spans="1:68" s="20" customFormat="1" ht="32.25" customHeight="1" outlineLevel="1">
@@ -8694,77 +8700,77 @@
         <f ca="1">MAX(B$34:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>17</v>
       </c>
-      <c r="C52" s="97" t="s">
+      <c r="C52" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="D52" s="98"/>
-      <c r="E52" s="98"/>
-      <c r="F52" s="98"/>
-      <c r="G52" s="98"/>
-      <c r="H52" s="98"/>
-      <c r="I52" s="99"/>
-      <c r="J52" s="85" t="s">
+      <c r="D52" s="67"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="67"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="68"/>
+      <c r="J52" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="K52" s="86"/>
-      <c r="L52" s="86"/>
-      <c r="M52" s="86"/>
-      <c r="N52" s="86"/>
-      <c r="O52" s="86"/>
-      <c r="P52" s="86"/>
-      <c r="Q52" s="87"/>
-      <c r="R52" s="88" t="s">
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="52"/>
+      <c r="P52" s="52"/>
+      <c r="Q52" s="53"/>
+      <c r="R52" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="S52" s="89"/>
-      <c r="T52" s="89"/>
-      <c r="U52" s="89"/>
-      <c r="V52" s="89"/>
-      <c r="W52" s="89"/>
-      <c r="X52" s="89"/>
-      <c r="Y52" s="89"/>
-      <c r="Z52" s="89"/>
-      <c r="AA52" s="89"/>
-      <c r="AB52" s="89"/>
-      <c r="AC52" s="89"/>
-      <c r="AD52" s="89"/>
-      <c r="AE52" s="89"/>
-      <c r="AF52" s="89"/>
-      <c r="AG52" s="89"/>
-      <c r="AH52" s="90"/>
-      <c r="AI52" s="76"/>
-      <c r="AJ52" s="77"/>
-      <c r="AK52" s="77"/>
-      <c r="AL52" s="77"/>
-      <c r="AM52" s="77"/>
-      <c r="AN52" s="77"/>
-      <c r="AO52" s="77"/>
-      <c r="AP52" s="78"/>
-      <c r="AQ52" s="79"/>
-      <c r="AR52" s="80"/>
-      <c r="AS52" s="80"/>
-      <c r="AT52" s="80"/>
-      <c r="AU52" s="80"/>
-      <c r="AV52" s="80"/>
-      <c r="AW52" s="66"/>
-      <c r="AX52" s="79"/>
-      <c r="AY52" s="80"/>
-      <c r="AZ52" s="80"/>
-      <c r="BA52" s="80"/>
-      <c r="BB52" s="66"/>
-      <c r="BC52" s="81"/>
-      <c r="BD52" s="82"/>
-      <c r="BE52" s="82"/>
-      <c r="BF52" s="82"/>
-      <c r="BG52" s="82"/>
-      <c r="BH52" s="82"/>
-      <c r="BI52" s="82"/>
-      <c r="BJ52" s="82"/>
-      <c r="BK52" s="82"/>
-      <c r="BL52" s="82"/>
-      <c r="BM52" s="82"/>
-      <c r="BN52" s="82"/>
-      <c r="BO52" s="83"/>
+      <c r="S52" s="55"/>
+      <c r="T52" s="55"/>
+      <c r="U52" s="55"/>
+      <c r="V52" s="55"/>
+      <c r="W52" s="55"/>
+      <c r="X52" s="55"/>
+      <c r="Y52" s="55"/>
+      <c r="Z52" s="55"/>
+      <c r="AA52" s="55"/>
+      <c r="AB52" s="55"/>
+      <c r="AC52" s="55"/>
+      <c r="AD52" s="55"/>
+      <c r="AE52" s="55"/>
+      <c r="AF52" s="55"/>
+      <c r="AG52" s="55"/>
+      <c r="AH52" s="56"/>
+      <c r="AI52" s="57"/>
+      <c r="AJ52" s="58"/>
+      <c r="AK52" s="58"/>
+      <c r="AL52" s="58"/>
+      <c r="AM52" s="58"/>
+      <c r="AN52" s="58"/>
+      <c r="AO52" s="58"/>
+      <c r="AP52" s="59"/>
+      <c r="AQ52" s="45"/>
+      <c r="AR52" s="46"/>
+      <c r="AS52" s="46"/>
+      <c r="AT52" s="46"/>
+      <c r="AU52" s="46"/>
+      <c r="AV52" s="46"/>
+      <c r="AW52" s="47"/>
+      <c r="AX52" s="45"/>
+      <c r="AY52" s="46"/>
+      <c r="AZ52" s="46"/>
+      <c r="BA52" s="46"/>
+      <c r="BB52" s="47"/>
+      <c r="BC52" s="48"/>
+      <c r="BD52" s="49"/>
+      <c r="BE52" s="49"/>
+      <c r="BF52" s="49"/>
+      <c r="BG52" s="49"/>
+      <c r="BH52" s="49"/>
+      <c r="BI52" s="49"/>
+      <c r="BJ52" s="49"/>
+      <c r="BK52" s="49"/>
+      <c r="BL52" s="49"/>
+      <c r="BM52" s="49"/>
+      <c r="BN52" s="49"/>
+      <c r="BO52" s="50"/>
       <c r="BP52" s="2"/>
     </row>
     <row r="53" spans="1:68" ht="16.5">
@@ -10559,41 +10565,114 @@
     </row>
   </sheetData>
   <mergeCells count="164">
-    <mergeCell ref="AX51:BB51"/>
-    <mergeCell ref="BC51:BO51"/>
-    <mergeCell ref="J52:Q52"/>
-    <mergeCell ref="R52:AH52"/>
-    <mergeCell ref="AI52:AP52"/>
-    <mergeCell ref="AQ52:AW52"/>
-    <mergeCell ref="AX52:BB52"/>
-    <mergeCell ref="BC52:BO52"/>
-    <mergeCell ref="C51:I51"/>
-    <mergeCell ref="J51:Q51"/>
-    <mergeCell ref="R51:AH51"/>
-    <mergeCell ref="AI51:AP51"/>
-    <mergeCell ref="AQ51:AW51"/>
-    <mergeCell ref="C52:I52"/>
-    <mergeCell ref="C50:I50"/>
-    <mergeCell ref="J50:Q50"/>
-    <mergeCell ref="R50:AH50"/>
-    <mergeCell ref="AI50:AP50"/>
-    <mergeCell ref="AQ50:AW50"/>
-    <mergeCell ref="AX50:BB50"/>
-    <mergeCell ref="BC50:BO50"/>
-    <mergeCell ref="C49:I49"/>
-    <mergeCell ref="J49:Q49"/>
-    <mergeCell ref="R49:AH49"/>
-    <mergeCell ref="C48:I48"/>
-    <mergeCell ref="J48:Q48"/>
-    <mergeCell ref="R48:AH48"/>
-    <mergeCell ref="AI48:AP48"/>
-    <mergeCell ref="AQ48:AW48"/>
-    <mergeCell ref="AX48:BB48"/>
-    <mergeCell ref="BC48:BO48"/>
-    <mergeCell ref="AI49:AP49"/>
-    <mergeCell ref="AQ49:AW49"/>
-    <mergeCell ref="AX49:BB49"/>
-    <mergeCell ref="BC49:BO49"/>
+    <mergeCell ref="AI25:AR25"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="R26:W26"/>
+    <mergeCell ref="X26:AA26"/>
+    <mergeCell ref="AB26:AH26"/>
+    <mergeCell ref="AI26:AR26"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="L25:Q25"/>
+    <mergeCell ref="R25:W25"/>
+    <mergeCell ref="X25:AA25"/>
+    <mergeCell ref="AB25:AH25"/>
+    <mergeCell ref="AI27:AR27"/>
+    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="R28:W28"/>
+    <mergeCell ref="X28:AA28"/>
+    <mergeCell ref="AB28:AH28"/>
+    <mergeCell ref="AI28:AR28"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="R27:W27"/>
+    <mergeCell ref="X27:AA27"/>
+    <mergeCell ref="AB27:AH27"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="L29:Q29"/>
+    <mergeCell ref="R29:W29"/>
+    <mergeCell ref="X29:AA29"/>
+    <mergeCell ref="AB29:AH29"/>
+    <mergeCell ref="AI29:AR29"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="L30:Q30"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="X30:AA30"/>
+    <mergeCell ref="AB30:AH30"/>
+    <mergeCell ref="AI30:AR30"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:I35"/>
+    <mergeCell ref="J34:Q35"/>
+    <mergeCell ref="R34:AH35"/>
+    <mergeCell ref="AI34:AP35"/>
+    <mergeCell ref="AQ34:BO34"/>
+    <mergeCell ref="AQ35:AW35"/>
+    <mergeCell ref="AX35:BB35"/>
+    <mergeCell ref="BC35:BO35"/>
+    <mergeCell ref="AX36:BB36"/>
+    <mergeCell ref="BC36:BO36"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="J37:Q37"/>
+    <mergeCell ref="R37:AH37"/>
+    <mergeCell ref="AI37:AP37"/>
+    <mergeCell ref="AQ37:AW37"/>
+    <mergeCell ref="AX37:BB37"/>
+    <mergeCell ref="BC37:BO37"/>
+    <mergeCell ref="C36:I36"/>
+    <mergeCell ref="J36:Q36"/>
+    <mergeCell ref="R36:AH36"/>
+    <mergeCell ref="AI36:AP36"/>
+    <mergeCell ref="AQ36:AW36"/>
+    <mergeCell ref="AX38:BB38"/>
+    <mergeCell ref="BC38:BO38"/>
+    <mergeCell ref="C39:I39"/>
+    <mergeCell ref="J39:Q39"/>
+    <mergeCell ref="R39:AH39"/>
+    <mergeCell ref="AI39:AP39"/>
+    <mergeCell ref="AQ39:AW39"/>
+    <mergeCell ref="AX39:BB39"/>
+    <mergeCell ref="BC39:BO39"/>
+    <mergeCell ref="C38:I38"/>
+    <mergeCell ref="J38:Q38"/>
+    <mergeCell ref="R38:AH38"/>
+    <mergeCell ref="AI38:AP38"/>
+    <mergeCell ref="AQ38:AW38"/>
+    <mergeCell ref="AX40:BB40"/>
+    <mergeCell ref="BC40:BO40"/>
+    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="J41:Q41"/>
+    <mergeCell ref="R41:AH41"/>
+    <mergeCell ref="AI41:AP41"/>
+    <mergeCell ref="AQ41:AW41"/>
+    <mergeCell ref="AX41:BB41"/>
+    <mergeCell ref="BC41:BO41"/>
+    <mergeCell ref="C40:I40"/>
+    <mergeCell ref="J40:Q40"/>
+    <mergeCell ref="R40:AH40"/>
+    <mergeCell ref="AI40:AP40"/>
+    <mergeCell ref="AQ40:AW40"/>
+    <mergeCell ref="C44:I44"/>
+    <mergeCell ref="J44:Q44"/>
+    <mergeCell ref="R44:AH44"/>
+    <mergeCell ref="AI44:AP44"/>
+    <mergeCell ref="AQ44:AW44"/>
+    <mergeCell ref="AX42:BB42"/>
+    <mergeCell ref="BC42:BO42"/>
+    <mergeCell ref="C43:I43"/>
+    <mergeCell ref="J43:Q43"/>
+    <mergeCell ref="R43:AH43"/>
+    <mergeCell ref="AI43:AP43"/>
+    <mergeCell ref="AQ43:AW43"/>
+    <mergeCell ref="AX43:BB43"/>
+    <mergeCell ref="BC43:BO43"/>
+    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="J42:Q42"/>
+    <mergeCell ref="R42:AH42"/>
+    <mergeCell ref="AI42:AP42"/>
+    <mergeCell ref="AQ42:AW42"/>
+    <mergeCell ref="AX44:BB44"/>
+    <mergeCell ref="BC44:BO44"/>
     <mergeCell ref="AQ45:AW45"/>
     <mergeCell ref="AX45:BB45"/>
     <mergeCell ref="BC45:BO45"/>
@@ -10615,114 +10694,41 @@
     <mergeCell ref="AI47:AP47"/>
     <mergeCell ref="AX47:BB47"/>
     <mergeCell ref="BC47:BO47"/>
-    <mergeCell ref="C44:I44"/>
-    <mergeCell ref="J44:Q44"/>
-    <mergeCell ref="R44:AH44"/>
-    <mergeCell ref="AI44:AP44"/>
-    <mergeCell ref="AQ44:AW44"/>
-    <mergeCell ref="AX42:BB42"/>
-    <mergeCell ref="BC42:BO42"/>
-    <mergeCell ref="C43:I43"/>
-    <mergeCell ref="J43:Q43"/>
-    <mergeCell ref="R43:AH43"/>
-    <mergeCell ref="AI43:AP43"/>
-    <mergeCell ref="AQ43:AW43"/>
-    <mergeCell ref="AX43:BB43"/>
-    <mergeCell ref="BC43:BO43"/>
-    <mergeCell ref="C42:I42"/>
-    <mergeCell ref="J42:Q42"/>
-    <mergeCell ref="R42:AH42"/>
-    <mergeCell ref="AI42:AP42"/>
-    <mergeCell ref="AQ42:AW42"/>
-    <mergeCell ref="AX44:BB44"/>
-    <mergeCell ref="BC44:BO44"/>
-    <mergeCell ref="AX40:BB40"/>
-    <mergeCell ref="BC40:BO40"/>
-    <mergeCell ref="C41:I41"/>
-    <mergeCell ref="J41:Q41"/>
-    <mergeCell ref="R41:AH41"/>
-    <mergeCell ref="AI41:AP41"/>
-    <mergeCell ref="AQ41:AW41"/>
-    <mergeCell ref="AX41:BB41"/>
-    <mergeCell ref="BC41:BO41"/>
-    <mergeCell ref="C40:I40"/>
-    <mergeCell ref="J40:Q40"/>
-    <mergeCell ref="R40:AH40"/>
-    <mergeCell ref="AI40:AP40"/>
-    <mergeCell ref="AQ40:AW40"/>
-    <mergeCell ref="AX38:BB38"/>
-    <mergeCell ref="BC38:BO38"/>
-    <mergeCell ref="C39:I39"/>
-    <mergeCell ref="J39:Q39"/>
-    <mergeCell ref="R39:AH39"/>
-    <mergeCell ref="AI39:AP39"/>
-    <mergeCell ref="AQ39:AW39"/>
-    <mergeCell ref="AX39:BB39"/>
-    <mergeCell ref="BC39:BO39"/>
-    <mergeCell ref="C38:I38"/>
-    <mergeCell ref="J38:Q38"/>
-    <mergeCell ref="R38:AH38"/>
-    <mergeCell ref="AI38:AP38"/>
-    <mergeCell ref="AQ38:AW38"/>
-    <mergeCell ref="AX36:BB36"/>
-    <mergeCell ref="BC36:BO36"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="J37:Q37"/>
-    <mergeCell ref="R37:AH37"/>
-    <mergeCell ref="AI37:AP37"/>
-    <mergeCell ref="AQ37:AW37"/>
-    <mergeCell ref="AX37:BB37"/>
-    <mergeCell ref="BC37:BO37"/>
-    <mergeCell ref="C36:I36"/>
-    <mergeCell ref="J36:Q36"/>
-    <mergeCell ref="R36:AH36"/>
-    <mergeCell ref="AI36:AP36"/>
-    <mergeCell ref="AQ36:AW36"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:I35"/>
-    <mergeCell ref="J34:Q35"/>
-    <mergeCell ref="R34:AH35"/>
-    <mergeCell ref="AI34:AP35"/>
-    <mergeCell ref="AQ34:BO34"/>
-    <mergeCell ref="AQ35:AW35"/>
-    <mergeCell ref="AX35:BB35"/>
-    <mergeCell ref="BC35:BO35"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="L29:Q29"/>
-    <mergeCell ref="R29:W29"/>
-    <mergeCell ref="X29:AA29"/>
-    <mergeCell ref="AB29:AH29"/>
-    <mergeCell ref="AI29:AR29"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="L30:Q30"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="X30:AA30"/>
-    <mergeCell ref="AB30:AH30"/>
-    <mergeCell ref="AI30:AR30"/>
-    <mergeCell ref="AI27:AR27"/>
-    <mergeCell ref="C28:K28"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="R28:W28"/>
-    <mergeCell ref="X28:AA28"/>
-    <mergeCell ref="AB28:AH28"/>
-    <mergeCell ref="AI28:AR28"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="R27:W27"/>
-    <mergeCell ref="X27:AA27"/>
-    <mergeCell ref="AB27:AH27"/>
-    <mergeCell ref="AI25:AR25"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="L26:Q26"/>
-    <mergeCell ref="R26:W26"/>
-    <mergeCell ref="X26:AA26"/>
-    <mergeCell ref="AB26:AH26"/>
-    <mergeCell ref="AI26:AR26"/>
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="L25:Q25"/>
-    <mergeCell ref="R25:W25"/>
-    <mergeCell ref="X25:AA25"/>
-    <mergeCell ref="AB25:AH25"/>
+    <mergeCell ref="C48:I48"/>
+    <mergeCell ref="J48:Q48"/>
+    <mergeCell ref="R48:AH48"/>
+    <mergeCell ref="AI48:AP48"/>
+    <mergeCell ref="AQ48:AW48"/>
+    <mergeCell ref="AX48:BB48"/>
+    <mergeCell ref="BC48:BO48"/>
+    <mergeCell ref="AI49:AP49"/>
+    <mergeCell ref="AQ49:AW49"/>
+    <mergeCell ref="AX49:BB49"/>
+    <mergeCell ref="BC49:BO49"/>
+    <mergeCell ref="C50:I50"/>
+    <mergeCell ref="J50:Q50"/>
+    <mergeCell ref="R50:AH50"/>
+    <mergeCell ref="AI50:AP50"/>
+    <mergeCell ref="AQ50:AW50"/>
+    <mergeCell ref="AX50:BB50"/>
+    <mergeCell ref="BC50:BO50"/>
+    <mergeCell ref="C49:I49"/>
+    <mergeCell ref="J49:Q49"/>
+    <mergeCell ref="R49:AH49"/>
+    <mergeCell ref="AX51:BB51"/>
+    <mergeCell ref="BC51:BO51"/>
+    <mergeCell ref="J52:Q52"/>
+    <mergeCell ref="R52:AH52"/>
+    <mergeCell ref="AI52:AP52"/>
+    <mergeCell ref="AQ52:AW52"/>
+    <mergeCell ref="AX52:BB52"/>
+    <mergeCell ref="BC52:BO52"/>
+    <mergeCell ref="C51:I51"/>
+    <mergeCell ref="J51:Q51"/>
+    <mergeCell ref="R51:AH51"/>
+    <mergeCell ref="AI51:AP51"/>
+    <mergeCell ref="AQ51:AW51"/>
+    <mergeCell ref="C52:I52"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10768,9 +10774,7 @@
   </sheetPr>
   <dimension ref="A1:BP96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:AR34"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" outlineLevelRow="1"/>
   <cols>
@@ -10922,35 +10926,35 @@
     </row>
     <row r="3" spans="1:68" ht="16.5">
       <c r="A3" s="3"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="104"/>
-      <c r="T3" s="104"/>
-      <c r="U3" s="104"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="104"/>
-      <c r="X3" s="104"/>
-      <c r="Y3" s="104"/>
-      <c r="Z3" s="104"/>
-      <c r="AA3" s="104"/>
-      <c r="AB3" s="104"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="105"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="127"/>
+      <c r="S3" s="127"/>
+      <c r="T3" s="127"/>
+      <c r="U3" s="127"/>
+      <c r="V3" s="127"/>
+      <c r="W3" s="127"/>
+      <c r="X3" s="127"/>
+      <c r="Y3" s="127"/>
+      <c r="Z3" s="127"/>
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="127"/>
+      <c r="AC3" s="127"/>
+      <c r="AD3" s="128"/>
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
@@ -10992,35 +10996,35 @@
     </row>
     <row r="4" spans="1:68" ht="16.5">
       <c r="A4" s="3"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="107"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="107"/>
-      <c r="Y4" s="107"/>
-      <c r="Z4" s="107"/>
-      <c r="AA4" s="107"/>
-      <c r="AB4" s="107"/>
-      <c r="AC4" s="107"/>
-      <c r="AD4" s="108"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="130"/>
+      <c r="N4" s="130"/>
+      <c r="O4" s="130"/>
+      <c r="P4" s="130"/>
+      <c r="Q4" s="130"/>
+      <c r="R4" s="130"/>
+      <c r="S4" s="130"/>
+      <c r="T4" s="130"/>
+      <c r="U4" s="130"/>
+      <c r="V4" s="130"/>
+      <c r="W4" s="130"/>
+      <c r="X4" s="130"/>
+      <c r="Y4" s="130"/>
+      <c r="Z4" s="130"/>
+      <c r="AA4" s="130"/>
+      <c r="AB4" s="130"/>
+      <c r="AC4" s="130"/>
+      <c r="AD4" s="131"/>
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
@@ -11062,35 +11066,35 @@
     </row>
     <row r="5" spans="1:68" ht="16.5">
       <c r="A5" s="3"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="107"/>
-      <c r="Z5" s="107"/>
-      <c r="AA5" s="107"/>
-      <c r="AB5" s="107"/>
-      <c r="AC5" s="107"/>
-      <c r="AD5" s="108"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="130"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="130"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
+      <c r="L5" s="130"/>
+      <c r="M5" s="130"/>
+      <c r="N5" s="130"/>
+      <c r="O5" s="130"/>
+      <c r="P5" s="130"/>
+      <c r="Q5" s="130"/>
+      <c r="R5" s="130"/>
+      <c r="S5" s="130"/>
+      <c r="T5" s="130"/>
+      <c r="U5" s="130"/>
+      <c r="V5" s="130"/>
+      <c r="W5" s="130"/>
+      <c r="X5" s="130"/>
+      <c r="Y5" s="130"/>
+      <c r="Z5" s="130"/>
+      <c r="AA5" s="130"/>
+      <c r="AB5" s="130"/>
+      <c r="AC5" s="130"/>
+      <c r="AD5" s="131"/>
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
@@ -11132,35 +11136,35 @@
     </row>
     <row r="6" spans="1:68" ht="16.5">
       <c r="A6" s="3"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="107"/>
-      <c r="R6" s="107"/>
-      <c r="S6" s="107"/>
-      <c r="T6" s="107"/>
-      <c r="U6" s="107"/>
-      <c r="V6" s="107"/>
-      <c r="W6" s="107"/>
-      <c r="X6" s="107"/>
-      <c r="Y6" s="107"/>
-      <c r="Z6" s="107"/>
-      <c r="AA6" s="107"/>
-      <c r="AB6" s="107"/>
-      <c r="AC6" s="107"/>
-      <c r="AD6" s="108"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="130"/>
+      <c r="M6" s="130"/>
+      <c r="N6" s="130"/>
+      <c r="O6" s="130"/>
+      <c r="P6" s="130"/>
+      <c r="Q6" s="130"/>
+      <c r="R6" s="130"/>
+      <c r="S6" s="130"/>
+      <c r="T6" s="130"/>
+      <c r="U6" s="130"/>
+      <c r="V6" s="130"/>
+      <c r="W6" s="130"/>
+      <c r="X6" s="130"/>
+      <c r="Y6" s="130"/>
+      <c r="Z6" s="130"/>
+      <c r="AA6" s="130"/>
+      <c r="AB6" s="130"/>
+      <c r="AC6" s="130"/>
+      <c r="AD6" s="131"/>
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
@@ -11202,35 +11206,35 @@
     </row>
     <row r="7" spans="1:68" ht="16.5">
       <c r="A7" s="3"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
-      <c r="X7" s="107"/>
-      <c r="Y7" s="107"/>
-      <c r="Z7" s="107"/>
-      <c r="AA7" s="107"/>
-      <c r="AB7" s="107"/>
-      <c r="AC7" s="107"/>
-      <c r="AD7" s="108"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="130"/>
+      <c r="M7" s="130"/>
+      <c r="N7" s="130"/>
+      <c r="O7" s="130"/>
+      <c r="P7" s="130"/>
+      <c r="Q7" s="130"/>
+      <c r="R7" s="130"/>
+      <c r="S7" s="130"/>
+      <c r="T7" s="130"/>
+      <c r="U7" s="130"/>
+      <c r="V7" s="130"/>
+      <c r="W7" s="130"/>
+      <c r="X7" s="130"/>
+      <c r="Y7" s="130"/>
+      <c r="Z7" s="130"/>
+      <c r="AA7" s="130"/>
+      <c r="AB7" s="130"/>
+      <c r="AC7" s="130"/>
+      <c r="AD7" s="131"/>
       <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
@@ -11272,35 +11276,35 @@
     </row>
     <row r="8" spans="1:68" ht="16.5">
       <c r="A8" s="3"/>
-      <c r="B8" s="106"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="107"/>
-      <c r="R8" s="107"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="107"/>
-      <c r="U8" s="107"/>
-      <c r="V8" s="107"/>
-      <c r="W8" s="107"/>
-      <c r="X8" s="107"/>
-      <c r="Y8" s="107"/>
-      <c r="Z8" s="107"/>
-      <c r="AA8" s="107"/>
-      <c r="AB8" s="107"/>
-      <c r="AC8" s="107"/>
-      <c r="AD8" s="108"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="130"/>
+      <c r="M8" s="130"/>
+      <c r="N8" s="130"/>
+      <c r="O8" s="130"/>
+      <c r="P8" s="130"/>
+      <c r="Q8" s="130"/>
+      <c r="R8" s="130"/>
+      <c r="S8" s="130"/>
+      <c r="T8" s="130"/>
+      <c r="U8" s="130"/>
+      <c r="V8" s="130"/>
+      <c r="W8" s="130"/>
+      <c r="X8" s="130"/>
+      <c r="Y8" s="130"/>
+      <c r="Z8" s="130"/>
+      <c r="AA8" s="130"/>
+      <c r="AB8" s="130"/>
+      <c r="AC8" s="130"/>
+      <c r="AD8" s="131"/>
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
@@ -11342,35 +11346,35 @@
     </row>
     <row r="9" spans="1:68" ht="16.5">
       <c r="A9" s="3"/>
-      <c r="B9" s="106"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
-      <c r="O9" s="107"/>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="107"/>
-      <c r="R9" s="107"/>
-      <c r="S9" s="107"/>
-      <c r="T9" s="107"/>
-      <c r="U9" s="107"/>
-      <c r="V9" s="107"/>
-      <c r="W9" s="107"/>
-      <c r="X9" s="107"/>
-      <c r="Y9" s="107"/>
-      <c r="Z9" s="107"/>
-      <c r="AA9" s="107"/>
-      <c r="AB9" s="107"/>
-      <c r="AC9" s="107"/>
-      <c r="AD9" s="108"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="130"/>
+      <c r="L9" s="130"/>
+      <c r="M9" s="130"/>
+      <c r="N9" s="130"/>
+      <c r="O9" s="130"/>
+      <c r="P9" s="130"/>
+      <c r="Q9" s="130"/>
+      <c r="R9" s="130"/>
+      <c r="S9" s="130"/>
+      <c r="T9" s="130"/>
+      <c r="U9" s="130"/>
+      <c r="V9" s="130"/>
+      <c r="W9" s="130"/>
+      <c r="X9" s="130"/>
+      <c r="Y9" s="130"/>
+      <c r="Z9" s="130"/>
+      <c r="AA9" s="130"/>
+      <c r="AB9" s="130"/>
+      <c r="AC9" s="130"/>
+      <c r="AD9" s="131"/>
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
@@ -11412,35 +11416,35 @@
     </row>
     <row r="10" spans="1:68" ht="16.5">
       <c r="A10" s="3"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="107"/>
-      <c r="M10" s="107"/>
-      <c r="N10" s="107"/>
-      <c r="O10" s="107"/>
-      <c r="P10" s="107"/>
-      <c r="Q10" s="107"/>
-      <c r="R10" s="107"/>
-      <c r="S10" s="107"/>
-      <c r="T10" s="107"/>
-      <c r="U10" s="107"/>
-      <c r="V10" s="107"/>
-      <c r="W10" s="107"/>
-      <c r="X10" s="107"/>
-      <c r="Y10" s="107"/>
-      <c r="Z10" s="107"/>
-      <c r="AA10" s="107"/>
-      <c r="AB10" s="107"/>
-      <c r="AC10" s="107"/>
-      <c r="AD10" s="108"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="130"/>
+      <c r="L10" s="130"/>
+      <c r="M10" s="130"/>
+      <c r="N10" s="130"/>
+      <c r="O10" s="130"/>
+      <c r="P10" s="130"/>
+      <c r="Q10" s="130"/>
+      <c r="R10" s="130"/>
+      <c r="S10" s="130"/>
+      <c r="T10" s="130"/>
+      <c r="U10" s="130"/>
+      <c r="V10" s="130"/>
+      <c r="W10" s="130"/>
+      <c r="X10" s="130"/>
+      <c r="Y10" s="130"/>
+      <c r="Z10" s="130"/>
+      <c r="AA10" s="130"/>
+      <c r="AB10" s="130"/>
+      <c r="AC10" s="130"/>
+      <c r="AD10" s="131"/>
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
@@ -11482,35 +11486,35 @@
     </row>
     <row r="11" spans="1:68" ht="16.5">
       <c r="A11" s="3"/>
-      <c r="B11" s="106"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="107"/>
-      <c r="M11" s="107"/>
-      <c r="N11" s="107"/>
-      <c r="O11" s="107"/>
-      <c r="P11" s="107"/>
-      <c r="Q11" s="107"/>
-      <c r="R11" s="107"/>
-      <c r="S11" s="107"/>
-      <c r="T11" s="107"/>
-      <c r="U11" s="107"/>
-      <c r="V11" s="107"/>
-      <c r="W11" s="107"/>
-      <c r="X11" s="107"/>
-      <c r="Y11" s="107"/>
-      <c r="Z11" s="107"/>
-      <c r="AA11" s="107"/>
-      <c r="AB11" s="107"/>
-      <c r="AC11" s="107"/>
-      <c r="AD11" s="108"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="130"/>
+      <c r="K11" s="130"/>
+      <c r="L11" s="130"/>
+      <c r="M11" s="130"/>
+      <c r="N11" s="130"/>
+      <c r="O11" s="130"/>
+      <c r="P11" s="130"/>
+      <c r="Q11" s="130"/>
+      <c r="R11" s="130"/>
+      <c r="S11" s="130"/>
+      <c r="T11" s="130"/>
+      <c r="U11" s="130"/>
+      <c r="V11" s="130"/>
+      <c r="W11" s="130"/>
+      <c r="X11" s="130"/>
+      <c r="Y11" s="130"/>
+      <c r="Z11" s="130"/>
+      <c r="AA11" s="130"/>
+      <c r="AB11" s="130"/>
+      <c r="AC11" s="130"/>
+      <c r="AD11" s="131"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
       <c r="AG11" s="3"/>
@@ -11552,35 +11556,35 @@
     </row>
     <row r="12" spans="1:68" ht="16.5">
       <c r="A12" s="3"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="107"/>
-      <c r="M12" s="107"/>
-      <c r="N12" s="107"/>
-      <c r="O12" s="107"/>
-      <c r="P12" s="107"/>
-      <c r="Q12" s="107"/>
-      <c r="R12" s="107"/>
-      <c r="S12" s="107"/>
-      <c r="T12" s="107"/>
-      <c r="U12" s="107"/>
-      <c r="V12" s="107"/>
-      <c r="W12" s="107"/>
-      <c r="X12" s="107"/>
-      <c r="Y12" s="107"/>
-      <c r="Z12" s="107"/>
-      <c r="AA12" s="107"/>
-      <c r="AB12" s="107"/>
-      <c r="AC12" s="107"/>
-      <c r="AD12" s="108"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="130"/>
+      <c r="M12" s="130"/>
+      <c r="N12" s="130"/>
+      <c r="O12" s="130"/>
+      <c r="P12" s="130"/>
+      <c r="Q12" s="130"/>
+      <c r="R12" s="130"/>
+      <c r="S12" s="130"/>
+      <c r="T12" s="130"/>
+      <c r="U12" s="130"/>
+      <c r="V12" s="130"/>
+      <c r="W12" s="130"/>
+      <c r="X12" s="130"/>
+      <c r="Y12" s="130"/>
+      <c r="Z12" s="130"/>
+      <c r="AA12" s="130"/>
+      <c r="AB12" s="130"/>
+      <c r="AC12" s="130"/>
+      <c r="AD12" s="131"/>
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
       <c r="AG12" s="3"/>
@@ -11622,35 +11626,35 @@
     </row>
     <row r="13" spans="1:68" ht="16.5">
       <c r="A13" s="3"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
-      <c r="L13" s="107"/>
-      <c r="M13" s="107"/>
-      <c r="N13" s="107"/>
-      <c r="O13" s="107"/>
-      <c r="P13" s="107"/>
-      <c r="Q13" s="107"/>
-      <c r="R13" s="107"/>
-      <c r="S13" s="107"/>
-      <c r="T13" s="107"/>
-      <c r="U13" s="107"/>
-      <c r="V13" s="107"/>
-      <c r="W13" s="107"/>
-      <c r="X13" s="107"/>
-      <c r="Y13" s="107"/>
-      <c r="Z13" s="107"/>
-      <c r="AA13" s="107"/>
-      <c r="AB13" s="107"/>
-      <c r="AC13" s="107"/>
-      <c r="AD13" s="108"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="130"/>
+      <c r="K13" s="130"/>
+      <c r="L13" s="130"/>
+      <c r="M13" s="130"/>
+      <c r="N13" s="130"/>
+      <c r="O13" s="130"/>
+      <c r="P13" s="130"/>
+      <c r="Q13" s="130"/>
+      <c r="R13" s="130"/>
+      <c r="S13" s="130"/>
+      <c r="T13" s="130"/>
+      <c r="U13" s="130"/>
+      <c r="V13" s="130"/>
+      <c r="W13" s="130"/>
+      <c r="X13" s="130"/>
+      <c r="Y13" s="130"/>
+      <c r="Z13" s="130"/>
+      <c r="AA13" s="130"/>
+      <c r="AB13" s="130"/>
+      <c r="AC13" s="130"/>
+      <c r="AD13" s="131"/>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
       <c r="AG13" s="3"/>
@@ -11692,35 +11696,35 @@
     </row>
     <row r="14" spans="1:68" ht="16.5">
       <c r="A14" s="3"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="107"/>
-      <c r="N14" s="107"/>
-      <c r="O14" s="107"/>
-      <c r="P14" s="107"/>
-      <c r="Q14" s="107"/>
-      <c r="R14" s="107"/>
-      <c r="S14" s="107"/>
-      <c r="T14" s="107"/>
-      <c r="U14" s="107"/>
-      <c r="V14" s="107"/>
-      <c r="W14" s="107"/>
-      <c r="X14" s="107"/>
-      <c r="Y14" s="107"/>
-      <c r="Z14" s="107"/>
-      <c r="AA14" s="107"/>
-      <c r="AB14" s="107"/>
-      <c r="AC14" s="107"/>
-      <c r="AD14" s="108"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="130"/>
+      <c r="K14" s="130"/>
+      <c r="L14" s="130"/>
+      <c r="M14" s="130"/>
+      <c r="N14" s="130"/>
+      <c r="O14" s="130"/>
+      <c r="P14" s="130"/>
+      <c r="Q14" s="130"/>
+      <c r="R14" s="130"/>
+      <c r="S14" s="130"/>
+      <c r="T14" s="130"/>
+      <c r="U14" s="130"/>
+      <c r="V14" s="130"/>
+      <c r="W14" s="130"/>
+      <c r="X14" s="130"/>
+      <c r="Y14" s="130"/>
+      <c r="Z14" s="130"/>
+      <c r="AA14" s="130"/>
+      <c r="AB14" s="130"/>
+      <c r="AC14" s="130"/>
+      <c r="AD14" s="131"/>
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
@@ -11762,35 +11766,35 @@
     </row>
     <row r="15" spans="1:68" ht="16.5">
       <c r="A15" s="3"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="107"/>
-      <c r="O15" s="107"/>
-      <c r="P15" s="107"/>
-      <c r="Q15" s="107"/>
-      <c r="R15" s="107"/>
-      <c r="S15" s="107"/>
-      <c r="T15" s="107"/>
-      <c r="U15" s="107"/>
-      <c r="V15" s="107"/>
-      <c r="W15" s="107"/>
-      <c r="X15" s="107"/>
-      <c r="Y15" s="107"/>
-      <c r="Z15" s="107"/>
-      <c r="AA15" s="107"/>
-      <c r="AB15" s="107"/>
-      <c r="AC15" s="107"/>
-      <c r="AD15" s="108"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="130"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="130"/>
+      <c r="K15" s="130"/>
+      <c r="L15" s="130"/>
+      <c r="M15" s="130"/>
+      <c r="N15" s="130"/>
+      <c r="O15" s="130"/>
+      <c r="P15" s="130"/>
+      <c r="Q15" s="130"/>
+      <c r="R15" s="130"/>
+      <c r="S15" s="130"/>
+      <c r="T15" s="130"/>
+      <c r="U15" s="130"/>
+      <c r="V15" s="130"/>
+      <c r="W15" s="130"/>
+      <c r="X15" s="130"/>
+      <c r="Y15" s="130"/>
+      <c r="Z15" s="130"/>
+      <c r="AA15" s="130"/>
+      <c r="AB15" s="130"/>
+      <c r="AC15" s="130"/>
+      <c r="AD15" s="131"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
@@ -11832,35 +11836,35 @@
     </row>
     <row r="16" spans="1:68" ht="16.5">
       <c r="A16" s="3"/>
-      <c r="B16" s="106"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="107"/>
-      <c r="O16" s="107"/>
-      <c r="P16" s="107"/>
-      <c r="Q16" s="107"/>
-      <c r="R16" s="107"/>
-      <c r="S16" s="107"/>
-      <c r="T16" s="107"/>
-      <c r="U16" s="107"/>
-      <c r="V16" s="107"/>
-      <c r="W16" s="107"/>
-      <c r="X16" s="107"/>
-      <c r="Y16" s="107"/>
-      <c r="Z16" s="107"/>
-      <c r="AA16" s="107"/>
-      <c r="AB16" s="107"/>
-      <c r="AC16" s="107"/>
-      <c r="AD16" s="108"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="130"/>
+      <c r="K16" s="130"/>
+      <c r="L16" s="130"/>
+      <c r="M16" s="130"/>
+      <c r="N16" s="130"/>
+      <c r="O16" s="130"/>
+      <c r="P16" s="130"/>
+      <c r="Q16" s="130"/>
+      <c r="R16" s="130"/>
+      <c r="S16" s="130"/>
+      <c r="T16" s="130"/>
+      <c r="U16" s="130"/>
+      <c r="V16" s="130"/>
+      <c r="W16" s="130"/>
+      <c r="X16" s="130"/>
+      <c r="Y16" s="130"/>
+      <c r="Z16" s="130"/>
+      <c r="AA16" s="130"/>
+      <c r="AB16" s="130"/>
+      <c r="AC16" s="130"/>
+      <c r="AD16" s="131"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
@@ -11902,35 +11906,35 @@
     </row>
     <row r="17" spans="1:68" ht="16.5">
       <c r="A17" s="3"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="107"/>
-      <c r="N17" s="107"/>
-      <c r="O17" s="107"/>
-      <c r="P17" s="107"/>
-      <c r="Q17" s="107"/>
-      <c r="R17" s="107"/>
-      <c r="S17" s="107"/>
-      <c r="T17" s="107"/>
-      <c r="U17" s="107"/>
-      <c r="V17" s="107"/>
-      <c r="W17" s="107"/>
-      <c r="X17" s="107"/>
-      <c r="Y17" s="107"/>
-      <c r="Z17" s="107"/>
-      <c r="AA17" s="107"/>
-      <c r="AB17" s="107"/>
-      <c r="AC17" s="107"/>
-      <c r="AD17" s="108"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="130"/>
+      <c r="L17" s="130"/>
+      <c r="M17" s="130"/>
+      <c r="N17" s="130"/>
+      <c r="O17" s="130"/>
+      <c r="P17" s="130"/>
+      <c r="Q17" s="130"/>
+      <c r="R17" s="130"/>
+      <c r="S17" s="130"/>
+      <c r="T17" s="130"/>
+      <c r="U17" s="130"/>
+      <c r="V17" s="130"/>
+      <c r="W17" s="130"/>
+      <c r="X17" s="130"/>
+      <c r="Y17" s="130"/>
+      <c r="Z17" s="130"/>
+      <c r="AA17" s="130"/>
+      <c r="AB17" s="130"/>
+      <c r="AC17" s="130"/>
+      <c r="AD17" s="131"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
@@ -11972,35 +11976,35 @@
     </row>
     <row r="18" spans="1:68" ht="16.5">
       <c r="A18" s="3"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="107"/>
-      <c r="O18" s="107"/>
-      <c r="P18" s="107"/>
-      <c r="Q18" s="107"/>
-      <c r="R18" s="107"/>
-      <c r="S18" s="107"/>
-      <c r="T18" s="107"/>
-      <c r="U18" s="107"/>
-      <c r="V18" s="107"/>
-      <c r="W18" s="107"/>
-      <c r="X18" s="107"/>
-      <c r="Y18" s="107"/>
-      <c r="Z18" s="107"/>
-      <c r="AA18" s="107"/>
-      <c r="AB18" s="107"/>
-      <c r="AC18" s="107"/>
-      <c r="AD18" s="108"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="130"/>
+      <c r="N18" s="130"/>
+      <c r="O18" s="130"/>
+      <c r="P18" s="130"/>
+      <c r="Q18" s="130"/>
+      <c r="R18" s="130"/>
+      <c r="S18" s="130"/>
+      <c r="T18" s="130"/>
+      <c r="U18" s="130"/>
+      <c r="V18" s="130"/>
+      <c r="W18" s="130"/>
+      <c r="X18" s="130"/>
+      <c r="Y18" s="130"/>
+      <c r="Z18" s="130"/>
+      <c r="AA18" s="130"/>
+      <c r="AB18" s="130"/>
+      <c r="AC18" s="130"/>
+      <c r="AD18" s="131"/>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
@@ -12042,35 +12046,35 @@
     </row>
     <row r="19" spans="1:68" ht="16.5">
       <c r="A19" s="3"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="107"/>
-      <c r="O19" s="107"/>
-      <c r="P19" s="107"/>
-      <c r="Q19" s="107"/>
-      <c r="R19" s="107"/>
-      <c r="S19" s="107"/>
-      <c r="T19" s="107"/>
-      <c r="U19" s="107"/>
-      <c r="V19" s="107"/>
-      <c r="W19" s="107"/>
-      <c r="X19" s="107"/>
-      <c r="Y19" s="107"/>
-      <c r="Z19" s="107"/>
-      <c r="AA19" s="107"/>
-      <c r="AB19" s="107"/>
-      <c r="AC19" s="107"/>
-      <c r="AD19" s="108"/>
+      <c r="B19" s="129"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="130"/>
+      <c r="L19" s="130"/>
+      <c r="M19" s="130"/>
+      <c r="N19" s="130"/>
+      <c r="O19" s="130"/>
+      <c r="P19" s="130"/>
+      <c r="Q19" s="130"/>
+      <c r="R19" s="130"/>
+      <c r="S19" s="130"/>
+      <c r="T19" s="130"/>
+      <c r="U19" s="130"/>
+      <c r="V19" s="130"/>
+      <c r="W19" s="130"/>
+      <c r="X19" s="130"/>
+      <c r="Y19" s="130"/>
+      <c r="Z19" s="130"/>
+      <c r="AA19" s="130"/>
+      <c r="AB19" s="130"/>
+      <c r="AC19" s="130"/>
+      <c r="AD19" s="131"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
@@ -12112,35 +12116,35 @@
     </row>
     <row r="20" spans="1:68" ht="16.5">
       <c r="A20" s="3"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="107"/>
-      <c r="N20" s="107"/>
-      <c r="O20" s="107"/>
-      <c r="P20" s="107"/>
-      <c r="Q20" s="107"/>
-      <c r="R20" s="107"/>
-      <c r="S20" s="107"/>
-      <c r="T20" s="107"/>
-      <c r="U20" s="107"/>
-      <c r="V20" s="107"/>
-      <c r="W20" s="107"/>
-      <c r="X20" s="107"/>
-      <c r="Y20" s="107"/>
-      <c r="Z20" s="107"/>
-      <c r="AA20" s="107"/>
-      <c r="AB20" s="107"/>
-      <c r="AC20" s="107"/>
-      <c r="AD20" s="108"/>
+      <c r="B20" s="129"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="130"/>
+      <c r="K20" s="130"/>
+      <c r="L20" s="130"/>
+      <c r="M20" s="130"/>
+      <c r="N20" s="130"/>
+      <c r="O20" s="130"/>
+      <c r="P20" s="130"/>
+      <c r="Q20" s="130"/>
+      <c r="R20" s="130"/>
+      <c r="S20" s="130"/>
+      <c r="T20" s="130"/>
+      <c r="U20" s="130"/>
+      <c r="V20" s="130"/>
+      <c r="W20" s="130"/>
+      <c r="X20" s="130"/>
+      <c r="Y20" s="130"/>
+      <c r="Z20" s="130"/>
+      <c r="AA20" s="130"/>
+      <c r="AB20" s="130"/>
+      <c r="AC20" s="130"/>
+      <c r="AD20" s="131"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
@@ -12182,35 +12186,35 @@
     </row>
     <row r="21" spans="1:68" ht="16.5">
       <c r="A21" s="3"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="107"/>
-      <c r="R21" s="107"/>
-      <c r="S21" s="107"/>
-      <c r="T21" s="107"/>
-      <c r="U21" s="107"/>
-      <c r="V21" s="107"/>
-      <c r="W21" s="107"/>
-      <c r="X21" s="107"/>
-      <c r="Y21" s="107"/>
-      <c r="Z21" s="107"/>
-      <c r="AA21" s="107"/>
-      <c r="AB21" s="107"/>
-      <c r="AC21" s="107"/>
-      <c r="AD21" s="108"/>
+      <c r="B21" s="129"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="130"/>
+      <c r="K21" s="130"/>
+      <c r="L21" s="130"/>
+      <c r="M21" s="130"/>
+      <c r="N21" s="130"/>
+      <c r="O21" s="130"/>
+      <c r="P21" s="130"/>
+      <c r="Q21" s="130"/>
+      <c r="R21" s="130"/>
+      <c r="S21" s="130"/>
+      <c r="T21" s="130"/>
+      <c r="U21" s="130"/>
+      <c r="V21" s="130"/>
+      <c r="W21" s="130"/>
+      <c r="X21" s="130"/>
+      <c r="Y21" s="130"/>
+      <c r="Z21" s="130"/>
+      <c r="AA21" s="130"/>
+      <c r="AB21" s="130"/>
+      <c r="AC21" s="130"/>
+      <c r="AD21" s="131"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
@@ -12252,35 +12256,35 @@
     </row>
     <row r="22" spans="1:68" ht="16.5">
       <c r="A22" s="3"/>
-      <c r="B22" s="109"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="110"/>
-      <c r="M22" s="110"/>
-      <c r="N22" s="110"/>
-      <c r="O22" s="110"/>
-      <c r="P22" s="110"/>
-      <c r="Q22" s="110"/>
-      <c r="R22" s="110"/>
-      <c r="S22" s="110"/>
-      <c r="T22" s="110"/>
-      <c r="U22" s="110"/>
-      <c r="V22" s="110"/>
-      <c r="W22" s="110"/>
-      <c r="X22" s="110"/>
-      <c r="Y22" s="110"/>
-      <c r="Z22" s="110"/>
-      <c r="AA22" s="110"/>
-      <c r="AB22" s="110"/>
-      <c r="AC22" s="110"/>
-      <c r="AD22" s="111"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="133"/>
+      <c r="K22" s="133"/>
+      <c r="L22" s="133"/>
+      <c r="M22" s="133"/>
+      <c r="N22" s="133"/>
+      <c r="O22" s="133"/>
+      <c r="P22" s="133"/>
+      <c r="Q22" s="133"/>
+      <c r="R22" s="133"/>
+      <c r="S22" s="133"/>
+      <c r="T22" s="133"/>
+      <c r="U22" s="133"/>
+      <c r="V22" s="133"/>
+      <c r="W22" s="133"/>
+      <c r="X22" s="133"/>
+      <c r="Y22" s="133"/>
+      <c r="Z22" s="133"/>
+      <c r="AA22" s="133"/>
+      <c r="AB22" s="133"/>
+      <c r="AC22" s="133"/>
+      <c r="AD22" s="134"/>
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
@@ -12390,8 +12394,8 @@
       <c r="BO23" s="3"/>
       <c r="BP23" s="3"/>
     </row>
-    <row r="24" spans="1:68" ht="16.5">
-      <c r="A24" s="33" t="str">
+    <row r="24" spans="1:68" s="141" customFormat="1" ht="16.5">
+      <c r="A24" s="140" t="str">
         <f ca="1">LEFT($A$1, 4)&amp;"1.画面レイアウト"</f>
         <v>2.2.1.画面レイアウト</v>
       </c>
@@ -12538,60 +12542,60 @@
       <c r="B26" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="112" t="s">
+      <c r="C26" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="113"/>
-      <c r="J26" s="113"/>
-      <c r="K26" s="114"/>
-      <c r="L26" s="112" t="s">
+      <c r="D26" s="136"/>
+      <c r="E26" s="136"/>
+      <c r="F26" s="136"/>
+      <c r="G26" s="136"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="136"/>
+      <c r="J26" s="136"/>
+      <c r="K26" s="137"/>
+      <c r="L26" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="M26" s="113"/>
-      <c r="N26" s="113"/>
-      <c r="O26" s="113"/>
-      <c r="P26" s="113"/>
-      <c r="Q26" s="114"/>
-      <c r="R26" s="112" t="s">
+      <c r="M26" s="136"/>
+      <c r="N26" s="136"/>
+      <c r="O26" s="136"/>
+      <c r="P26" s="136"/>
+      <c r="Q26" s="137"/>
+      <c r="R26" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="S26" s="113"/>
-      <c r="T26" s="113"/>
-      <c r="U26" s="113"/>
-      <c r="V26" s="113"/>
-      <c r="W26" s="114"/>
-      <c r="X26" s="115" t="s">
+      <c r="S26" s="136"/>
+      <c r="T26" s="136"/>
+      <c r="U26" s="136"/>
+      <c r="V26" s="136"/>
+      <c r="W26" s="137"/>
+      <c r="X26" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="Y26" s="116"/>
-      <c r="Z26" s="116"/>
-      <c r="AA26" s="116"/>
-      <c r="AB26" s="115" t="s">
+      <c r="Y26" s="139"/>
+      <c r="Z26" s="139"/>
+      <c r="AA26" s="139"/>
+      <c r="AB26" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="AC26" s="116"/>
-      <c r="AD26" s="116"/>
-      <c r="AE26" s="116"/>
-      <c r="AF26" s="116"/>
-      <c r="AG26" s="116"/>
-      <c r="AH26" s="116"/>
-      <c r="AI26" s="112" t="s">
+      <c r="AC26" s="139"/>
+      <c r="AD26" s="139"/>
+      <c r="AE26" s="139"/>
+      <c r="AF26" s="139"/>
+      <c r="AG26" s="139"/>
+      <c r="AH26" s="139"/>
+      <c r="AI26" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="AJ26" s="113"/>
-      <c r="AK26" s="113"/>
-      <c r="AL26" s="113"/>
-      <c r="AM26" s="113"/>
-      <c r="AN26" s="113"/>
-      <c r="AO26" s="113"/>
-      <c r="AP26" s="113"/>
-      <c r="AQ26" s="113"/>
-      <c r="AR26" s="114"/>
+      <c r="AJ26" s="136"/>
+      <c r="AK26" s="136"/>
+      <c r="AL26" s="136"/>
+      <c r="AM26" s="136"/>
+      <c r="AN26" s="136"/>
+      <c r="AO26" s="136"/>
+      <c r="AP26" s="136"/>
+      <c r="AQ26" s="136"/>
+      <c r="AR26" s="137"/>
       <c r="AS26" s="2"/>
       <c r="AT26" s="2"/>
       <c r="AU26" s="2"/>
@@ -12619,51 +12623,51 @@
     </row>
     <row r="27" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A27" s="17"/>
-      <c r="B27" s="100" t="s">
+      <c r="B27" s="105" t="s">
         <v>202</v>
       </c>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="101"/>
-      <c r="L27" s="101"/>
-      <c r="M27" s="101"/>
-      <c r="N27" s="101"/>
-      <c r="O27" s="101"/>
-      <c r="P27" s="101"/>
-      <c r="Q27" s="101"/>
-      <c r="R27" s="101"/>
-      <c r="S27" s="101"/>
-      <c r="T27" s="101"/>
-      <c r="U27" s="101"/>
-      <c r="V27" s="101"/>
-      <c r="W27" s="101"/>
-      <c r="X27" s="101"/>
-      <c r="Y27" s="101"/>
-      <c r="Z27" s="101"/>
-      <c r="AA27" s="101"/>
-      <c r="AB27" s="101"/>
-      <c r="AC27" s="101"/>
-      <c r="AD27" s="101"/>
-      <c r="AE27" s="101"/>
-      <c r="AF27" s="101"/>
-      <c r="AG27" s="101"/>
-      <c r="AH27" s="101"/>
-      <c r="AI27" s="101"/>
-      <c r="AJ27" s="101"/>
-      <c r="AK27" s="101"/>
-      <c r="AL27" s="101"/>
-      <c r="AM27" s="101"/>
-      <c r="AN27" s="101"/>
-      <c r="AO27" s="101"/>
-      <c r="AP27" s="101"/>
-      <c r="AQ27" s="101"/>
-      <c r="AR27" s="102"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="106"/>
+      <c r="L27" s="106"/>
+      <c r="M27" s="106"/>
+      <c r="N27" s="106"/>
+      <c r="O27" s="106"/>
+      <c r="P27" s="106"/>
+      <c r="Q27" s="106"/>
+      <c r="R27" s="106"/>
+      <c r="S27" s="106"/>
+      <c r="T27" s="106"/>
+      <c r="U27" s="106"/>
+      <c r="V27" s="106"/>
+      <c r="W27" s="106"/>
+      <c r="X27" s="106"/>
+      <c r="Y27" s="106"/>
+      <c r="Z27" s="106"/>
+      <c r="AA27" s="106"/>
+      <c r="AB27" s="106"/>
+      <c r="AC27" s="106"/>
+      <c r="AD27" s="106"/>
+      <c r="AE27" s="106"/>
+      <c r="AF27" s="106"/>
+      <c r="AG27" s="106"/>
+      <c r="AH27" s="106"/>
+      <c r="AI27" s="106"/>
+      <c r="AJ27" s="106"/>
+      <c r="AK27" s="106"/>
+      <c r="AL27" s="106"/>
+      <c r="AM27" s="106"/>
+      <c r="AN27" s="106"/>
+      <c r="AO27" s="106"/>
+      <c r="AP27" s="106"/>
+      <c r="AQ27" s="106"/>
+      <c r="AR27" s="107"/>
       <c r="AS27" s="3"/>
       <c r="AT27" s="3"/>
       <c r="AU27" s="3"/>
@@ -12695,54 +12699,54 @@
         <f ca="1">MAX(B$23:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C28" s="91" t="s">
+      <c r="C28" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="93"/>
-      <c r="L28" s="73" t="s">
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="M28" s="117"/>
-      <c r="N28" s="117"/>
-      <c r="O28" s="117"/>
-      <c r="P28" s="117"/>
-      <c r="Q28" s="117"/>
-      <c r="R28" s="73"/>
-      <c r="S28" s="117"/>
-      <c r="T28" s="117"/>
-      <c r="U28" s="117"/>
-      <c r="V28" s="117"/>
-      <c r="W28" s="117"/>
-      <c r="X28" s="73"/>
-      <c r="Y28" s="73"/>
-      <c r="Z28" s="73"/>
-      <c r="AA28" s="73"/>
-      <c r="AB28" s="73"/>
-      <c r="AC28" s="73"/>
-      <c r="AD28" s="73"/>
-      <c r="AE28" s="73"/>
-      <c r="AF28" s="73"/>
-      <c r="AG28" s="73"/>
-      <c r="AH28" s="73"/>
-      <c r="AI28" s="118" t="s">
+      <c r="M28" s="103"/>
+      <c r="N28" s="103"/>
+      <c r="O28" s="103"/>
+      <c r="P28" s="103"/>
+      <c r="Q28" s="103"/>
+      <c r="R28" s="83"/>
+      <c r="S28" s="103"/>
+      <c r="T28" s="103"/>
+      <c r="U28" s="103"/>
+      <c r="V28" s="103"/>
+      <c r="W28" s="103"/>
+      <c r="X28" s="83"/>
+      <c r="Y28" s="83"/>
+      <c r="Z28" s="83"/>
+      <c r="AA28" s="83"/>
+      <c r="AB28" s="83"/>
+      <c r="AC28" s="83"/>
+      <c r="AD28" s="83"/>
+      <c r="AE28" s="83"/>
+      <c r="AF28" s="83"/>
+      <c r="AG28" s="83"/>
+      <c r="AH28" s="83"/>
+      <c r="AI28" s="104" t="s">
         <v>184</v>
       </c>
-      <c r="AJ28" s="118"/>
-      <c r="AK28" s="118"/>
-      <c r="AL28" s="118"/>
-      <c r="AM28" s="118"/>
-      <c r="AN28" s="118"/>
-      <c r="AO28" s="118"/>
-      <c r="AP28" s="118"/>
-      <c r="AQ28" s="118"/>
-      <c r="AR28" s="118"/>
+      <c r="AJ28" s="104"/>
+      <c r="AK28" s="104"/>
+      <c r="AL28" s="104"/>
+      <c r="AM28" s="104"/>
+      <c r="AN28" s="104"/>
+      <c r="AO28" s="104"/>
+      <c r="AP28" s="104"/>
+      <c r="AQ28" s="104"/>
+      <c r="AR28" s="104"/>
       <c r="AS28" s="2"/>
       <c r="AT28" s="2"/>
       <c r="AU28" s="2"/>
@@ -12770,51 +12774,51 @@
     </row>
     <row r="29" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A29" s="17"/>
-      <c r="B29" s="100" t="s">
+      <c r="B29" s="105" t="s">
         <v>203</v>
       </c>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="101"/>
-      <c r="P29" s="101"/>
-      <c r="Q29" s="101"/>
-      <c r="R29" s="101"/>
-      <c r="S29" s="101"/>
-      <c r="T29" s="101"/>
-      <c r="U29" s="101"/>
-      <c r="V29" s="101"/>
-      <c r="W29" s="101"/>
-      <c r="X29" s="101"/>
-      <c r="Y29" s="101"/>
-      <c r="Z29" s="101"/>
-      <c r="AA29" s="101"/>
-      <c r="AB29" s="101"/>
-      <c r="AC29" s="101"/>
-      <c r="AD29" s="101"/>
-      <c r="AE29" s="101"/>
-      <c r="AF29" s="101"/>
-      <c r="AG29" s="101"/>
-      <c r="AH29" s="101"/>
-      <c r="AI29" s="101"/>
-      <c r="AJ29" s="101"/>
-      <c r="AK29" s="101"/>
-      <c r="AL29" s="101"/>
-      <c r="AM29" s="101"/>
-      <c r="AN29" s="101"/>
-      <c r="AO29" s="101"/>
-      <c r="AP29" s="101"/>
-      <c r="AQ29" s="101"/>
-      <c r="AR29" s="102"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="106"/>
+      <c r="M29" s="106"/>
+      <c r="N29" s="106"/>
+      <c r="O29" s="106"/>
+      <c r="P29" s="106"/>
+      <c r="Q29" s="106"/>
+      <c r="R29" s="106"/>
+      <c r="S29" s="106"/>
+      <c r="T29" s="106"/>
+      <c r="U29" s="106"/>
+      <c r="V29" s="106"/>
+      <c r="W29" s="106"/>
+      <c r="X29" s="106"/>
+      <c r="Y29" s="106"/>
+      <c r="Z29" s="106"/>
+      <c r="AA29" s="106"/>
+      <c r="AB29" s="106"/>
+      <c r="AC29" s="106"/>
+      <c r="AD29" s="106"/>
+      <c r="AE29" s="106"/>
+      <c r="AF29" s="106"/>
+      <c r="AG29" s="106"/>
+      <c r="AH29" s="106"/>
+      <c r="AI29" s="106"/>
+      <c r="AJ29" s="106"/>
+      <c r="AK29" s="106"/>
+      <c r="AL29" s="106"/>
+      <c r="AM29" s="106"/>
+      <c r="AN29" s="106"/>
+      <c r="AO29" s="106"/>
+      <c r="AP29" s="106"/>
+      <c r="AQ29" s="106"/>
+      <c r="AR29" s="107"/>
       <c r="AS29" s="3"/>
       <c r="AT29" s="3"/>
       <c r="AU29" s="3"/>
@@ -12846,52 +12850,52 @@
         <f ca="1">MAX(B$23:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C30" s="137" t="s">
+      <c r="C30" s="109" t="s">
         <v>183</v>
       </c>
-      <c r="D30" s="138"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="138"/>
-      <c r="G30" s="138"/>
-      <c r="H30" s="138"/>
-      <c r="I30" s="138"/>
-      <c r="J30" s="138"/>
-      <c r="K30" s="139"/>
-      <c r="L30" s="67" t="s">
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="M30" s="136"/>
-      <c r="N30" s="136"/>
-      <c r="O30" s="136"/>
-      <c r="P30" s="136"/>
-      <c r="Q30" s="136"/>
-      <c r="R30" s="67"/>
-      <c r="S30" s="136"/>
-      <c r="T30" s="136"/>
-      <c r="U30" s="136"/>
-      <c r="V30" s="136"/>
-      <c r="W30" s="136"/>
-      <c r="X30" s="67"/>
-      <c r="Y30" s="67"/>
-      <c r="Z30" s="67"/>
-      <c r="AA30" s="67"/>
-      <c r="AB30" s="67"/>
-      <c r="AC30" s="67"/>
-      <c r="AD30" s="67"/>
-      <c r="AE30" s="67"/>
-      <c r="AF30" s="67"/>
-      <c r="AG30" s="67"/>
-      <c r="AH30" s="67"/>
-      <c r="AI30" s="67"/>
-      <c r="AJ30" s="67"/>
-      <c r="AK30" s="67"/>
-      <c r="AL30" s="67"/>
-      <c r="AM30" s="67"/>
-      <c r="AN30" s="67"/>
-      <c r="AO30" s="67"/>
-      <c r="AP30" s="67"/>
-      <c r="AQ30" s="67"/>
-      <c r="AR30" s="67"/>
+      <c r="M30" s="108"/>
+      <c r="N30" s="108"/>
+      <c r="O30" s="108"/>
+      <c r="P30" s="108"/>
+      <c r="Q30" s="108"/>
+      <c r="R30" s="80"/>
+      <c r="S30" s="108"/>
+      <c r="T30" s="108"/>
+      <c r="U30" s="108"/>
+      <c r="V30" s="108"/>
+      <c r="W30" s="108"/>
+      <c r="X30" s="80"/>
+      <c r="Y30" s="80"/>
+      <c r="Z30" s="80"/>
+      <c r="AA30" s="80"/>
+      <c r="AB30" s="80"/>
+      <c r="AC30" s="80"/>
+      <c r="AD30" s="80"/>
+      <c r="AE30" s="80"/>
+      <c r="AF30" s="80"/>
+      <c r="AG30" s="80"/>
+      <c r="AH30" s="80"/>
+      <c r="AI30" s="80"/>
+      <c r="AJ30" s="80"/>
+      <c r="AK30" s="80"/>
+      <c r="AL30" s="80"/>
+      <c r="AM30" s="80"/>
+      <c r="AN30" s="80"/>
+      <c r="AO30" s="80"/>
+      <c r="AP30" s="80"/>
+      <c r="AQ30" s="80"/>
+      <c r="AR30" s="80"/>
       <c r="AS30" s="2"/>
       <c r="AT30" s="2"/>
       <c r="AU30" s="2"/>
@@ -12919,51 +12923,51 @@
     </row>
     <row r="31" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A31" s="17"/>
-      <c r="B31" s="100" t="s">
+      <c r="B31" s="105" t="s">
         <v>205</v>
       </c>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="101"/>
-      <c r="K31" s="101"/>
-      <c r="L31" s="101"/>
-      <c r="M31" s="101"/>
-      <c r="N31" s="101"/>
-      <c r="O31" s="101"/>
-      <c r="P31" s="101"/>
-      <c r="Q31" s="101"/>
-      <c r="R31" s="101"/>
-      <c r="S31" s="101"/>
-      <c r="T31" s="101"/>
-      <c r="U31" s="101"/>
-      <c r="V31" s="101"/>
-      <c r="W31" s="101"/>
-      <c r="X31" s="101"/>
-      <c r="Y31" s="101"/>
-      <c r="Z31" s="101"/>
-      <c r="AA31" s="101"/>
-      <c r="AB31" s="101"/>
-      <c r="AC31" s="101"/>
-      <c r="AD31" s="101"/>
-      <c r="AE31" s="101"/>
-      <c r="AF31" s="101"/>
-      <c r="AG31" s="101"/>
-      <c r="AH31" s="101"/>
-      <c r="AI31" s="101"/>
-      <c r="AJ31" s="101"/>
-      <c r="AK31" s="101"/>
-      <c r="AL31" s="101"/>
-      <c r="AM31" s="101"/>
-      <c r="AN31" s="101"/>
-      <c r="AO31" s="101"/>
-      <c r="AP31" s="101"/>
-      <c r="AQ31" s="101"/>
-      <c r="AR31" s="102"/>
+      <c r="C31" s="106"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="106"/>
+      <c r="J31" s="106"/>
+      <c r="K31" s="106"/>
+      <c r="L31" s="106"/>
+      <c r="M31" s="106"/>
+      <c r="N31" s="106"/>
+      <c r="O31" s="106"/>
+      <c r="P31" s="106"/>
+      <c r="Q31" s="106"/>
+      <c r="R31" s="106"/>
+      <c r="S31" s="106"/>
+      <c r="T31" s="106"/>
+      <c r="U31" s="106"/>
+      <c r="V31" s="106"/>
+      <c r="W31" s="106"/>
+      <c r="X31" s="106"/>
+      <c r="Y31" s="106"/>
+      <c r="Z31" s="106"/>
+      <c r="AA31" s="106"/>
+      <c r="AB31" s="106"/>
+      <c r="AC31" s="106"/>
+      <c r="AD31" s="106"/>
+      <c r="AE31" s="106"/>
+      <c r="AF31" s="106"/>
+      <c r="AG31" s="106"/>
+      <c r="AH31" s="106"/>
+      <c r="AI31" s="106"/>
+      <c r="AJ31" s="106"/>
+      <c r="AK31" s="106"/>
+      <c r="AL31" s="106"/>
+      <c r="AM31" s="106"/>
+      <c r="AN31" s="106"/>
+      <c r="AO31" s="106"/>
+      <c r="AP31" s="106"/>
+      <c r="AQ31" s="106"/>
+      <c r="AR31" s="107"/>
       <c r="AS31" s="3"/>
       <c r="AT31" s="3"/>
       <c r="AU31" s="3"/>
@@ -12995,54 +12999,54 @@
         <f ca="1">MAX(B$23:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
-      <c r="C32" s="133" t="s">
+      <c r="C32" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="134"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="134"/>
-      <c r="G32" s="134"/>
-      <c r="H32" s="134"/>
-      <c r="I32" s="134"/>
-      <c r="J32" s="134"/>
-      <c r="K32" s="135"/>
-      <c r="L32" s="73" t="s">
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="101"/>
+      <c r="J32" s="101"/>
+      <c r="K32" s="102"/>
+      <c r="L32" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="M32" s="117"/>
-      <c r="N32" s="117"/>
-      <c r="O32" s="117"/>
-      <c r="P32" s="117"/>
-      <c r="Q32" s="117"/>
-      <c r="R32" s="73"/>
-      <c r="S32" s="117"/>
-      <c r="T32" s="117"/>
-      <c r="U32" s="117"/>
-      <c r="V32" s="117"/>
-      <c r="W32" s="117"/>
-      <c r="X32" s="73"/>
-      <c r="Y32" s="73"/>
-      <c r="Z32" s="73"/>
-      <c r="AA32" s="73"/>
-      <c r="AB32" s="73"/>
-      <c r="AC32" s="73"/>
-      <c r="AD32" s="73"/>
-      <c r="AE32" s="73"/>
-      <c r="AF32" s="73"/>
-      <c r="AG32" s="73"/>
-      <c r="AH32" s="73"/>
-      <c r="AI32" s="118" t="s">
+      <c r="M32" s="103"/>
+      <c r="N32" s="103"/>
+      <c r="O32" s="103"/>
+      <c r="P32" s="103"/>
+      <c r="Q32" s="103"/>
+      <c r="R32" s="83"/>
+      <c r="S32" s="103"/>
+      <c r="T32" s="103"/>
+      <c r="U32" s="103"/>
+      <c r="V32" s="103"/>
+      <c r="W32" s="103"/>
+      <c r="X32" s="83"/>
+      <c r="Y32" s="83"/>
+      <c r="Z32" s="83"/>
+      <c r="AA32" s="83"/>
+      <c r="AB32" s="83"/>
+      <c r="AC32" s="83"/>
+      <c r="AD32" s="83"/>
+      <c r="AE32" s="83"/>
+      <c r="AF32" s="83"/>
+      <c r="AG32" s="83"/>
+      <c r="AH32" s="83"/>
+      <c r="AI32" s="104" t="s">
         <v>185</v>
       </c>
-      <c r="AJ32" s="118"/>
-      <c r="AK32" s="118"/>
-      <c r="AL32" s="118"/>
-      <c r="AM32" s="118"/>
-      <c r="AN32" s="118"/>
-      <c r="AO32" s="118"/>
-      <c r="AP32" s="118"/>
-      <c r="AQ32" s="118"/>
-      <c r="AR32" s="118"/>
+      <c r="AJ32" s="104"/>
+      <c r="AK32" s="104"/>
+      <c r="AL32" s="104"/>
+      <c r="AM32" s="104"/>
+      <c r="AN32" s="104"/>
+      <c r="AO32" s="104"/>
+      <c r="AP32" s="104"/>
+      <c r="AQ32" s="104"/>
+      <c r="AR32" s="104"/>
       <c r="AS32" s="2"/>
       <c r="AT32" s="2"/>
       <c r="AU32" s="2"/>
@@ -13074,54 +13078,54 @@
         <f ca="1">MAX(B$23:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
-      <c r="C33" s="133" t="s">
+      <c r="C33" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="134"/>
-      <c r="E33" s="134"/>
-      <c r="F33" s="134"/>
-      <c r="G33" s="134"/>
-      <c r="H33" s="134"/>
-      <c r="I33" s="134"/>
-      <c r="J33" s="134"/>
-      <c r="K33" s="135"/>
-      <c r="L33" s="73" t="s">
+      <c r="D33" s="101"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="101"/>
+      <c r="J33" s="101"/>
+      <c r="K33" s="102"/>
+      <c r="L33" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="M33" s="117"/>
-      <c r="N33" s="117"/>
-      <c r="O33" s="117"/>
-      <c r="P33" s="117"/>
-      <c r="Q33" s="117"/>
-      <c r="R33" s="73"/>
-      <c r="S33" s="117"/>
-      <c r="T33" s="117"/>
-      <c r="U33" s="117"/>
-      <c r="V33" s="117"/>
-      <c r="W33" s="117"/>
-      <c r="X33" s="73"/>
-      <c r="Y33" s="73"/>
-      <c r="Z33" s="73"/>
-      <c r="AA33" s="73"/>
-      <c r="AB33" s="73"/>
-      <c r="AC33" s="73"/>
-      <c r="AD33" s="73"/>
-      <c r="AE33" s="73"/>
-      <c r="AF33" s="73"/>
-      <c r="AG33" s="73"/>
-      <c r="AH33" s="73"/>
-      <c r="AI33" s="118" t="s">
+      <c r="M33" s="103"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="103"/>
+      <c r="P33" s="103"/>
+      <c r="Q33" s="103"/>
+      <c r="R33" s="83"/>
+      <c r="S33" s="103"/>
+      <c r="T33" s="103"/>
+      <c r="U33" s="103"/>
+      <c r="V33" s="103"/>
+      <c r="W33" s="103"/>
+      <c r="X33" s="83"/>
+      <c r="Y33" s="83"/>
+      <c r="Z33" s="83"/>
+      <c r="AA33" s="83"/>
+      <c r="AB33" s="83"/>
+      <c r="AC33" s="83"/>
+      <c r="AD33" s="83"/>
+      <c r="AE33" s="83"/>
+      <c r="AF33" s="83"/>
+      <c r="AG33" s="83"/>
+      <c r="AH33" s="83"/>
+      <c r="AI33" s="104" t="s">
         <v>186</v>
       </c>
-      <c r="AJ33" s="118"/>
-      <c r="AK33" s="118"/>
-      <c r="AL33" s="118"/>
-      <c r="AM33" s="118"/>
-      <c r="AN33" s="118"/>
-      <c r="AO33" s="118"/>
-      <c r="AP33" s="118"/>
-      <c r="AQ33" s="118"/>
-      <c r="AR33" s="118"/>
+      <c r="AJ33" s="104"/>
+      <c r="AK33" s="104"/>
+      <c r="AL33" s="104"/>
+      <c r="AM33" s="104"/>
+      <c r="AN33" s="104"/>
+      <c r="AO33" s="104"/>
+      <c r="AP33" s="104"/>
+      <c r="AQ33" s="104"/>
+      <c r="AR33" s="104"/>
       <c r="AS33" s="2"/>
       <c r="AT33" s="2"/>
       <c r="AU33" s="2"/>
@@ -13149,51 +13153,51 @@
     </row>
     <row r="34" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A34" s="17"/>
-      <c r="B34" s="100" t="s">
+      <c r="B34" s="105" t="s">
         <v>204</v>
       </c>
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="101"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="101"/>
-      <c r="K34" s="101"/>
-      <c r="L34" s="101"/>
-      <c r="M34" s="101"/>
-      <c r="N34" s="101"/>
-      <c r="O34" s="101"/>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="101"/>
-      <c r="S34" s="101"/>
-      <c r="T34" s="101"/>
-      <c r="U34" s="101"/>
-      <c r="V34" s="101"/>
-      <c r="W34" s="101"/>
-      <c r="X34" s="101"/>
-      <c r="Y34" s="101"/>
-      <c r="Z34" s="101"/>
-      <c r="AA34" s="101"/>
-      <c r="AB34" s="101"/>
-      <c r="AC34" s="101"/>
-      <c r="AD34" s="101"/>
-      <c r="AE34" s="101"/>
-      <c r="AF34" s="101"/>
-      <c r="AG34" s="101"/>
-      <c r="AH34" s="101"/>
-      <c r="AI34" s="101"/>
-      <c r="AJ34" s="101"/>
-      <c r="AK34" s="101"/>
-      <c r="AL34" s="101"/>
-      <c r="AM34" s="101"/>
-      <c r="AN34" s="101"/>
-      <c r="AO34" s="101"/>
-      <c r="AP34" s="101"/>
-      <c r="AQ34" s="101"/>
-      <c r="AR34" s="102"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="106"/>
+      <c r="K34" s="106"/>
+      <c r="L34" s="106"/>
+      <c r="M34" s="106"/>
+      <c r="N34" s="106"/>
+      <c r="O34" s="106"/>
+      <c r="P34" s="106"/>
+      <c r="Q34" s="106"/>
+      <c r="R34" s="106"/>
+      <c r="S34" s="106"/>
+      <c r="T34" s="106"/>
+      <c r="U34" s="106"/>
+      <c r="V34" s="106"/>
+      <c r="W34" s="106"/>
+      <c r="X34" s="106"/>
+      <c r="Y34" s="106"/>
+      <c r="Z34" s="106"/>
+      <c r="AA34" s="106"/>
+      <c r="AB34" s="106"/>
+      <c r="AC34" s="106"/>
+      <c r="AD34" s="106"/>
+      <c r="AE34" s="106"/>
+      <c r="AF34" s="106"/>
+      <c r="AG34" s="106"/>
+      <c r="AH34" s="106"/>
+      <c r="AI34" s="106"/>
+      <c r="AJ34" s="106"/>
+      <c r="AK34" s="106"/>
+      <c r="AL34" s="106"/>
+      <c r="AM34" s="106"/>
+      <c r="AN34" s="106"/>
+      <c r="AO34" s="106"/>
+      <c r="AP34" s="106"/>
+      <c r="AQ34" s="106"/>
+      <c r="AR34" s="107"/>
       <c r="AS34" s="3"/>
       <c r="AT34" s="3"/>
       <c r="AU34" s="3"/>
@@ -13289,8 +13293,8 @@
       <c r="BO35" s="3"/>
       <c r="BP35" s="3"/>
     </row>
-    <row r="36" spans="1:68" ht="16.5">
-      <c r="A36" s="33" t="str">
+    <row r="36" spans="1:68" s="141" customFormat="1" ht="16.5">
+      <c r="A36" s="140" t="str">
         <f ca="1">LEFT($A$1, 4)&amp;"2.処理詳細"</f>
         <v>2.2.2.処理詳細</v>
       </c>
@@ -13434,160 +13438,160 @@
     </row>
     <row r="38" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A38" s="7"/>
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="56" t="s">
+      <c r="C38" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56" t="s">
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="88"/>
+      <c r="H38" s="88"/>
+      <c r="I38" s="88"/>
+      <c r="J38" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="K38" s="56"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="56"/>
-      <c r="N38" s="56"/>
-      <c r="O38" s="56"/>
-      <c r="P38" s="56"/>
-      <c r="Q38" s="56"/>
-      <c r="R38" s="56" t="s">
+      <c r="K38" s="88"/>
+      <c r="L38" s="88"/>
+      <c r="M38" s="88"/>
+      <c r="N38" s="88"/>
+      <c r="O38" s="88"/>
+      <c r="P38" s="88"/>
+      <c r="Q38" s="88"/>
+      <c r="R38" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="S38" s="56"/>
-      <c r="T38" s="56"/>
-      <c r="U38" s="56"/>
-      <c r="V38" s="56"/>
-      <c r="W38" s="56"/>
-      <c r="X38" s="56"/>
-      <c r="Y38" s="56"/>
-      <c r="Z38" s="56"/>
-      <c r="AA38" s="56"/>
-      <c r="AB38" s="56"/>
-      <c r="AC38" s="56"/>
-      <c r="AD38" s="56"/>
-      <c r="AE38" s="56"/>
-      <c r="AF38" s="56"/>
-      <c r="AG38" s="56"/>
-      <c r="AH38" s="56"/>
-      <c r="AI38" s="56" t="s">
+      <c r="S38" s="88"/>
+      <c r="T38" s="88"/>
+      <c r="U38" s="88"/>
+      <c r="V38" s="88"/>
+      <c r="W38" s="88"/>
+      <c r="X38" s="88"/>
+      <c r="Y38" s="88"/>
+      <c r="Z38" s="88"/>
+      <c r="AA38" s="88"/>
+      <c r="AB38" s="88"/>
+      <c r="AC38" s="88"/>
+      <c r="AD38" s="88"/>
+      <c r="AE38" s="88"/>
+      <c r="AF38" s="88"/>
+      <c r="AG38" s="88"/>
+      <c r="AH38" s="88"/>
+      <c r="AI38" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="AJ38" s="56"/>
-      <c r="AK38" s="56"/>
-      <c r="AL38" s="56"/>
-      <c r="AM38" s="56"/>
-      <c r="AN38" s="56"/>
-      <c r="AO38" s="56"/>
-      <c r="AP38" s="56"/>
-      <c r="AQ38" s="56" t="s">
+      <c r="AJ38" s="88"/>
+      <c r="AK38" s="88"/>
+      <c r="AL38" s="88"/>
+      <c r="AM38" s="88"/>
+      <c r="AN38" s="88"/>
+      <c r="AO38" s="88"/>
+      <c r="AP38" s="88"/>
+      <c r="AQ38" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="AR38" s="56"/>
-      <c r="AS38" s="56"/>
-      <c r="AT38" s="56"/>
-      <c r="AU38" s="56"/>
-      <c r="AV38" s="56"/>
-      <c r="AW38" s="56"/>
-      <c r="AX38" s="56"/>
-      <c r="AY38" s="56"/>
-      <c r="AZ38" s="56"/>
-      <c r="BA38" s="56"/>
-      <c r="BB38" s="56"/>
-      <c r="BC38" s="56"/>
-      <c r="BD38" s="56"/>
-      <c r="BE38" s="56"/>
-      <c r="BF38" s="56"/>
-      <c r="BG38" s="56"/>
-      <c r="BH38" s="56"/>
-      <c r="BI38" s="56"/>
-      <c r="BJ38" s="56"/>
-      <c r="BK38" s="56"/>
-      <c r="BL38" s="56"/>
-      <c r="BM38" s="56"/>
-      <c r="BN38" s="56"/>
-      <c r="BO38" s="56"/>
+      <c r="AR38" s="88"/>
+      <c r="AS38" s="88"/>
+      <c r="AT38" s="88"/>
+      <c r="AU38" s="88"/>
+      <c r="AV38" s="88"/>
+      <c r="AW38" s="88"/>
+      <c r="AX38" s="88"/>
+      <c r="AY38" s="88"/>
+      <c r="AZ38" s="88"/>
+      <c r="BA38" s="88"/>
+      <c r="BB38" s="88"/>
+      <c r="BC38" s="88"/>
+      <c r="BD38" s="88"/>
+      <c r="BE38" s="88"/>
+      <c r="BF38" s="88"/>
+      <c r="BG38" s="88"/>
+      <c r="BH38" s="88"/>
+      <c r="BI38" s="88"/>
+      <c r="BJ38" s="88"/>
+      <c r="BK38" s="88"/>
+      <c r="BL38" s="88"/>
+      <c r="BM38" s="88"/>
+      <c r="BN38" s="88"/>
+      <c r="BO38" s="88"/>
       <c r="BP38" s="2"/>
     </row>
     <row r="39" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A39" s="7"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="56"/>
-      <c r="N39" s="56"/>
-      <c r="O39" s="56"/>
-      <c r="P39" s="56"/>
-      <c r="Q39" s="56"/>
-      <c r="R39" s="56"/>
-      <c r="S39" s="56"/>
-      <c r="T39" s="56"/>
-      <c r="U39" s="56"/>
-      <c r="V39" s="56"/>
-      <c r="W39" s="56"/>
-      <c r="X39" s="56"/>
-      <c r="Y39" s="56"/>
-      <c r="Z39" s="56"/>
-      <c r="AA39" s="56"/>
-      <c r="AB39" s="56"/>
-      <c r="AC39" s="56"/>
-      <c r="AD39" s="56"/>
-      <c r="AE39" s="56"/>
-      <c r="AF39" s="56"/>
-      <c r="AG39" s="56"/>
-      <c r="AH39" s="56"/>
-      <c r="AI39" s="56"/>
-      <c r="AJ39" s="56"/>
-      <c r="AK39" s="56"/>
-      <c r="AL39" s="56"/>
-      <c r="AM39" s="56"/>
-      <c r="AN39" s="56"/>
-      <c r="AO39" s="56"/>
-      <c r="AP39" s="56"/>
-      <c r="AQ39" s="56" t="s">
+      <c r="B39" s="87"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="89"/>
+      <c r="I39" s="89"/>
+      <c r="J39" s="88"/>
+      <c r="K39" s="88"/>
+      <c r="L39" s="88"/>
+      <c r="M39" s="88"/>
+      <c r="N39" s="88"/>
+      <c r="O39" s="88"/>
+      <c r="P39" s="88"/>
+      <c r="Q39" s="88"/>
+      <c r="R39" s="88"/>
+      <c r="S39" s="88"/>
+      <c r="T39" s="88"/>
+      <c r="U39" s="88"/>
+      <c r="V39" s="88"/>
+      <c r="W39" s="88"/>
+      <c r="X39" s="88"/>
+      <c r="Y39" s="88"/>
+      <c r="Z39" s="88"/>
+      <c r="AA39" s="88"/>
+      <c r="AB39" s="88"/>
+      <c r="AC39" s="88"/>
+      <c r="AD39" s="88"/>
+      <c r="AE39" s="88"/>
+      <c r="AF39" s="88"/>
+      <c r="AG39" s="88"/>
+      <c r="AH39" s="88"/>
+      <c r="AI39" s="88"/>
+      <c r="AJ39" s="88"/>
+      <c r="AK39" s="88"/>
+      <c r="AL39" s="88"/>
+      <c r="AM39" s="88"/>
+      <c r="AN39" s="88"/>
+      <c r="AO39" s="88"/>
+      <c r="AP39" s="88"/>
+      <c r="AQ39" s="88" t="s">
         <v>133</v>
       </c>
-      <c r="AR39" s="56"/>
-      <c r="AS39" s="56"/>
-      <c r="AT39" s="56"/>
-      <c r="AU39" s="56"/>
-      <c r="AV39" s="56"/>
-      <c r="AW39" s="56"/>
-      <c r="AX39" s="56" t="s">
+      <c r="AR39" s="88"/>
+      <c r="AS39" s="88"/>
+      <c r="AT39" s="88"/>
+      <c r="AU39" s="88"/>
+      <c r="AV39" s="88"/>
+      <c r="AW39" s="88"/>
+      <c r="AX39" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="AY39" s="56"/>
-      <c r="AZ39" s="56"/>
-      <c r="BA39" s="56"/>
-      <c r="BB39" s="56"/>
-      <c r="BC39" s="56" t="s">
+      <c r="AY39" s="88"/>
+      <c r="AZ39" s="88"/>
+      <c r="BA39" s="88"/>
+      <c r="BB39" s="88"/>
+      <c r="BC39" s="88" t="s">
         <v>135</v>
       </c>
-      <c r="BD39" s="56"/>
-      <c r="BE39" s="56"/>
-      <c r="BF39" s="56"/>
-      <c r="BG39" s="56"/>
-      <c r="BH39" s="56"/>
-      <c r="BI39" s="56"/>
-      <c r="BJ39" s="56"/>
-      <c r="BK39" s="56"/>
-      <c r="BL39" s="56"/>
-      <c r="BM39" s="56"/>
-      <c r="BN39" s="56"/>
-      <c r="BO39" s="56"/>
+      <c r="BD39" s="88"/>
+      <c r="BE39" s="88"/>
+      <c r="BF39" s="88"/>
+      <c r="BG39" s="88"/>
+      <c r="BH39" s="88"/>
+      <c r="BI39" s="88"/>
+      <c r="BJ39" s="88"/>
+      <c r="BK39" s="88"/>
+      <c r="BL39" s="88"/>
+      <c r="BM39" s="88"/>
+      <c r="BN39" s="88"/>
+      <c r="BO39" s="88"/>
       <c r="BP39" s="2"/>
     </row>
     <row r="40" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
@@ -13596,77 +13600,77 @@
         <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C40" s="125" t="s">
+      <c r="C40" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="126"/>
-      <c r="E40" s="126"/>
-      <c r="F40" s="126"/>
-      <c r="G40" s="126"/>
-      <c r="H40" s="126"/>
-      <c r="I40" s="127"/>
-      <c r="J40" s="128" t="s">
+      <c r="D40" s="124"/>
+      <c r="E40" s="124"/>
+      <c r="F40" s="124"/>
+      <c r="G40" s="124"/>
+      <c r="H40" s="124"/>
+      <c r="I40" s="125"/>
+      <c r="J40" s="118" t="s">
         <v>137</v>
       </c>
-      <c r="K40" s="128"/>
-      <c r="L40" s="128"/>
-      <c r="M40" s="128"/>
-      <c r="N40" s="128"/>
-      <c r="O40" s="128"/>
-      <c r="P40" s="128"/>
-      <c r="Q40" s="128"/>
-      <c r="R40" s="67" t="s">
+      <c r="K40" s="118"/>
+      <c r="L40" s="118"/>
+      <c r="M40" s="118"/>
+      <c r="N40" s="118"/>
+      <c r="O40" s="118"/>
+      <c r="P40" s="118"/>
+      <c r="Q40" s="118"/>
+      <c r="R40" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="S40" s="67"/>
-      <c r="T40" s="67"/>
-      <c r="U40" s="67"/>
-      <c r="V40" s="67"/>
-      <c r="W40" s="67"/>
-      <c r="X40" s="67"/>
-      <c r="Y40" s="67"/>
-      <c r="Z40" s="67"/>
-      <c r="AA40" s="67"/>
-      <c r="AB40" s="67"/>
-      <c r="AC40" s="67"/>
-      <c r="AD40" s="67"/>
-      <c r="AE40" s="67"/>
-      <c r="AF40" s="67"/>
-      <c r="AG40" s="67"/>
-      <c r="AH40" s="67"/>
-      <c r="AI40" s="67"/>
-      <c r="AJ40" s="67"/>
-      <c r="AK40" s="67"/>
-      <c r="AL40" s="67"/>
-      <c r="AM40" s="67"/>
-      <c r="AN40" s="67"/>
-      <c r="AO40" s="67"/>
-      <c r="AP40" s="67"/>
-      <c r="AQ40" s="58"/>
-      <c r="AR40" s="58"/>
-      <c r="AS40" s="58"/>
-      <c r="AT40" s="58"/>
-      <c r="AU40" s="58"/>
-      <c r="AV40" s="58"/>
-      <c r="AW40" s="58"/>
-      <c r="AX40" s="58"/>
-      <c r="AY40" s="58"/>
-      <c r="AZ40" s="58"/>
-      <c r="BA40" s="58"/>
-      <c r="BB40" s="58"/>
-      <c r="BC40" s="59"/>
-      <c r="BD40" s="59"/>
-      <c r="BE40" s="59"/>
-      <c r="BF40" s="59"/>
-      <c r="BG40" s="59"/>
-      <c r="BH40" s="59"/>
-      <c r="BI40" s="59"/>
-      <c r="BJ40" s="59"/>
-      <c r="BK40" s="59"/>
-      <c r="BL40" s="59"/>
-      <c r="BM40" s="59"/>
-      <c r="BN40" s="59"/>
-      <c r="BO40" s="59"/>
+      <c r="S40" s="80"/>
+      <c r="T40" s="80"/>
+      <c r="U40" s="80"/>
+      <c r="V40" s="80"/>
+      <c r="W40" s="80"/>
+      <c r="X40" s="80"/>
+      <c r="Y40" s="80"/>
+      <c r="Z40" s="80"/>
+      <c r="AA40" s="80"/>
+      <c r="AB40" s="80"/>
+      <c r="AC40" s="80"/>
+      <c r="AD40" s="80"/>
+      <c r="AE40" s="80"/>
+      <c r="AF40" s="80"/>
+      <c r="AG40" s="80"/>
+      <c r="AH40" s="80"/>
+      <c r="AI40" s="80"/>
+      <c r="AJ40" s="80"/>
+      <c r="AK40" s="80"/>
+      <c r="AL40" s="80"/>
+      <c r="AM40" s="80"/>
+      <c r="AN40" s="80"/>
+      <c r="AO40" s="80"/>
+      <c r="AP40" s="80"/>
+      <c r="AQ40" s="81"/>
+      <c r="AR40" s="81"/>
+      <c r="AS40" s="81"/>
+      <c r="AT40" s="81"/>
+      <c r="AU40" s="81"/>
+      <c r="AV40" s="81"/>
+      <c r="AW40" s="81"/>
+      <c r="AX40" s="81"/>
+      <c r="AY40" s="81"/>
+      <c r="AZ40" s="81"/>
+      <c r="BA40" s="81"/>
+      <c r="BB40" s="81"/>
+      <c r="BC40" s="82"/>
+      <c r="BD40" s="82"/>
+      <c r="BE40" s="82"/>
+      <c r="BF40" s="82"/>
+      <c r="BG40" s="82"/>
+      <c r="BH40" s="82"/>
+      <c r="BI40" s="82"/>
+      <c r="BJ40" s="82"/>
+      <c r="BK40" s="82"/>
+      <c r="BL40" s="82"/>
+      <c r="BM40" s="82"/>
+      <c r="BN40" s="82"/>
+      <c r="BO40" s="82"/>
       <c r="BP40" s="2"/>
     </row>
     <row r="41" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
@@ -13675,77 +13679,77 @@
         <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C41" s="119" t="s">
+      <c r="C41" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="120"/>
-      <c r="E41" s="120"/>
-      <c r="F41" s="120"/>
-      <c r="G41" s="120"/>
-      <c r="H41" s="120"/>
-      <c r="I41" s="121"/>
-      <c r="J41" s="122" t="s">
+      <c r="D41" s="117"/>
+      <c r="E41" s="117"/>
+      <c r="F41" s="117"/>
+      <c r="G41" s="117"/>
+      <c r="H41" s="117"/>
+      <c r="I41" s="120"/>
+      <c r="J41" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="K41" s="123"/>
-      <c r="L41" s="123"/>
-      <c r="M41" s="123"/>
-      <c r="N41" s="123"/>
-      <c r="O41" s="123"/>
-      <c r="P41" s="123"/>
-      <c r="Q41" s="124"/>
-      <c r="R41" s="67" t="s">
+      <c r="K41" s="116"/>
+      <c r="L41" s="116"/>
+      <c r="M41" s="116"/>
+      <c r="N41" s="116"/>
+      <c r="O41" s="116"/>
+      <c r="P41" s="116"/>
+      <c r="Q41" s="121"/>
+      <c r="R41" s="80" t="s">
         <v>173</v>
       </c>
-      <c r="S41" s="67"/>
-      <c r="T41" s="67"/>
-      <c r="U41" s="67"/>
-      <c r="V41" s="67"/>
-      <c r="W41" s="67"/>
-      <c r="X41" s="67"/>
-      <c r="Y41" s="67"/>
-      <c r="Z41" s="67"/>
-      <c r="AA41" s="67"/>
-      <c r="AB41" s="67"/>
-      <c r="AC41" s="67"/>
-      <c r="AD41" s="67"/>
-      <c r="AE41" s="67"/>
-      <c r="AF41" s="67"/>
-      <c r="AG41" s="67"/>
-      <c r="AH41" s="67"/>
-      <c r="AI41" s="67"/>
-      <c r="AJ41" s="67"/>
-      <c r="AK41" s="67"/>
-      <c r="AL41" s="67"/>
-      <c r="AM41" s="67"/>
-      <c r="AN41" s="67"/>
-      <c r="AO41" s="67"/>
-      <c r="AP41" s="67"/>
-      <c r="AQ41" s="58"/>
-      <c r="AR41" s="58"/>
-      <c r="AS41" s="58"/>
-      <c r="AT41" s="58"/>
-      <c r="AU41" s="58"/>
-      <c r="AV41" s="58"/>
-      <c r="AW41" s="58"/>
-      <c r="AX41" s="58"/>
-      <c r="AY41" s="58"/>
-      <c r="AZ41" s="58"/>
-      <c r="BA41" s="58"/>
-      <c r="BB41" s="58"/>
-      <c r="BC41" s="59"/>
-      <c r="BD41" s="59"/>
-      <c r="BE41" s="59"/>
-      <c r="BF41" s="59"/>
-      <c r="BG41" s="59"/>
-      <c r="BH41" s="59"/>
-      <c r="BI41" s="59"/>
-      <c r="BJ41" s="59"/>
-      <c r="BK41" s="59"/>
-      <c r="BL41" s="59"/>
-      <c r="BM41" s="59"/>
-      <c r="BN41" s="59"/>
-      <c r="BO41" s="59"/>
+      <c r="S41" s="80"/>
+      <c r="T41" s="80"/>
+      <c r="U41" s="80"/>
+      <c r="V41" s="80"/>
+      <c r="W41" s="80"/>
+      <c r="X41" s="80"/>
+      <c r="Y41" s="80"/>
+      <c r="Z41" s="80"/>
+      <c r="AA41" s="80"/>
+      <c r="AB41" s="80"/>
+      <c r="AC41" s="80"/>
+      <c r="AD41" s="80"/>
+      <c r="AE41" s="80"/>
+      <c r="AF41" s="80"/>
+      <c r="AG41" s="80"/>
+      <c r="AH41" s="80"/>
+      <c r="AI41" s="80"/>
+      <c r="AJ41" s="80"/>
+      <c r="AK41" s="80"/>
+      <c r="AL41" s="80"/>
+      <c r="AM41" s="80"/>
+      <c r="AN41" s="80"/>
+      <c r="AO41" s="80"/>
+      <c r="AP41" s="80"/>
+      <c r="AQ41" s="81"/>
+      <c r="AR41" s="81"/>
+      <c r="AS41" s="81"/>
+      <c r="AT41" s="81"/>
+      <c r="AU41" s="81"/>
+      <c r="AV41" s="81"/>
+      <c r="AW41" s="81"/>
+      <c r="AX41" s="81"/>
+      <c r="AY41" s="81"/>
+      <c r="AZ41" s="81"/>
+      <c r="BA41" s="81"/>
+      <c r="BB41" s="81"/>
+      <c r="BC41" s="82"/>
+      <c r="BD41" s="82"/>
+      <c r="BE41" s="82"/>
+      <c r="BF41" s="82"/>
+      <c r="BG41" s="82"/>
+      <c r="BH41" s="82"/>
+      <c r="BI41" s="82"/>
+      <c r="BJ41" s="82"/>
+      <c r="BK41" s="82"/>
+      <c r="BL41" s="82"/>
+      <c r="BM41" s="82"/>
+      <c r="BN41" s="82"/>
+      <c r="BO41" s="82"/>
       <c r="BP41" s="2"/>
     </row>
     <row r="42" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
@@ -13754,77 +13758,77 @@
         <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
-      <c r="C42" s="119" t="s">
+      <c r="C42" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="120"/>
-      <c r="E42" s="120"/>
-      <c r="F42" s="120"/>
-      <c r="G42" s="120"/>
-      <c r="H42" s="120"/>
-      <c r="I42" s="121"/>
-      <c r="J42" s="122" t="s">
+      <c r="D42" s="117"/>
+      <c r="E42" s="117"/>
+      <c r="F42" s="117"/>
+      <c r="G42" s="117"/>
+      <c r="H42" s="117"/>
+      <c r="I42" s="120"/>
+      <c r="J42" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="K42" s="123"/>
-      <c r="L42" s="123"/>
-      <c r="M42" s="123"/>
-      <c r="N42" s="123"/>
-      <c r="O42" s="123"/>
-      <c r="P42" s="123"/>
-      <c r="Q42" s="124"/>
-      <c r="R42" s="67" t="s">
+      <c r="K42" s="116"/>
+      <c r="L42" s="116"/>
+      <c r="M42" s="116"/>
+      <c r="N42" s="116"/>
+      <c r="O42" s="116"/>
+      <c r="P42" s="116"/>
+      <c r="Q42" s="121"/>
+      <c r="R42" s="80" t="s">
         <v>181</v>
       </c>
-      <c r="S42" s="67"/>
-      <c r="T42" s="67"/>
-      <c r="U42" s="67"/>
-      <c r="V42" s="67"/>
-      <c r="W42" s="67"/>
-      <c r="X42" s="67"/>
-      <c r="Y42" s="67"/>
-      <c r="Z42" s="67"/>
-      <c r="AA42" s="67"/>
-      <c r="AB42" s="67"/>
-      <c r="AC42" s="67"/>
-      <c r="AD42" s="67"/>
-      <c r="AE42" s="67"/>
-      <c r="AF42" s="67"/>
-      <c r="AG42" s="67"/>
-      <c r="AH42" s="67"/>
-      <c r="AI42" s="67"/>
-      <c r="AJ42" s="67"/>
-      <c r="AK42" s="67"/>
-      <c r="AL42" s="67"/>
-      <c r="AM42" s="67"/>
-      <c r="AN42" s="67"/>
-      <c r="AO42" s="67"/>
-      <c r="AP42" s="67"/>
-      <c r="AQ42" s="58"/>
-      <c r="AR42" s="58"/>
-      <c r="AS42" s="58"/>
-      <c r="AT42" s="58"/>
-      <c r="AU42" s="58"/>
-      <c r="AV42" s="58"/>
-      <c r="AW42" s="58"/>
-      <c r="AX42" s="58"/>
-      <c r="AY42" s="58"/>
-      <c r="AZ42" s="58"/>
-      <c r="BA42" s="58"/>
-      <c r="BB42" s="58"/>
-      <c r="BC42" s="59"/>
-      <c r="BD42" s="59"/>
-      <c r="BE42" s="59"/>
-      <c r="BF42" s="59"/>
-      <c r="BG42" s="59"/>
-      <c r="BH42" s="59"/>
-      <c r="BI42" s="59"/>
-      <c r="BJ42" s="59"/>
-      <c r="BK42" s="59"/>
-      <c r="BL42" s="59"/>
-      <c r="BM42" s="59"/>
-      <c r="BN42" s="59"/>
-      <c r="BO42" s="59"/>
+      <c r="S42" s="80"/>
+      <c r="T42" s="80"/>
+      <c r="U42" s="80"/>
+      <c r="V42" s="80"/>
+      <c r="W42" s="80"/>
+      <c r="X42" s="80"/>
+      <c r="Y42" s="80"/>
+      <c r="Z42" s="80"/>
+      <c r="AA42" s="80"/>
+      <c r="AB42" s="80"/>
+      <c r="AC42" s="80"/>
+      <c r="AD42" s="80"/>
+      <c r="AE42" s="80"/>
+      <c r="AF42" s="80"/>
+      <c r="AG42" s="80"/>
+      <c r="AH42" s="80"/>
+      <c r="AI42" s="80"/>
+      <c r="AJ42" s="80"/>
+      <c r="AK42" s="80"/>
+      <c r="AL42" s="80"/>
+      <c r="AM42" s="80"/>
+      <c r="AN42" s="80"/>
+      <c r="AO42" s="80"/>
+      <c r="AP42" s="80"/>
+      <c r="AQ42" s="81"/>
+      <c r="AR42" s="81"/>
+      <c r="AS42" s="81"/>
+      <c r="AT42" s="81"/>
+      <c r="AU42" s="81"/>
+      <c r="AV42" s="81"/>
+      <c r="AW42" s="81"/>
+      <c r="AX42" s="81"/>
+      <c r="AY42" s="81"/>
+      <c r="AZ42" s="81"/>
+      <c r="BA42" s="81"/>
+      <c r="BB42" s="81"/>
+      <c r="BC42" s="82"/>
+      <c r="BD42" s="82"/>
+      <c r="BE42" s="82"/>
+      <c r="BF42" s="82"/>
+      <c r="BG42" s="82"/>
+      <c r="BH42" s="82"/>
+      <c r="BI42" s="82"/>
+      <c r="BJ42" s="82"/>
+      <c r="BK42" s="82"/>
+      <c r="BL42" s="82"/>
+      <c r="BM42" s="82"/>
+      <c r="BN42" s="82"/>
+      <c r="BO42" s="82"/>
       <c r="BP42" s="2"/>
     </row>
     <row r="43" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
@@ -13833,77 +13837,77 @@
         <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
-      <c r="C43" s="119" t="s">
+      <c r="C43" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="120"/>
-      <c r="E43" s="120"/>
-      <c r="F43" s="120"/>
-      <c r="G43" s="120"/>
-      <c r="H43" s="120"/>
-      <c r="I43" s="121"/>
-      <c r="J43" s="122" t="s">
+      <c r="D43" s="117"/>
+      <c r="E43" s="117"/>
+      <c r="F43" s="117"/>
+      <c r="G43" s="117"/>
+      <c r="H43" s="117"/>
+      <c r="I43" s="120"/>
+      <c r="J43" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="K43" s="123"/>
-      <c r="L43" s="123"/>
-      <c r="M43" s="123"/>
-      <c r="N43" s="123"/>
-      <c r="O43" s="123"/>
-      <c r="P43" s="123"/>
-      <c r="Q43" s="124"/>
-      <c r="R43" s="67" t="s">
+      <c r="K43" s="116"/>
+      <c r="L43" s="116"/>
+      <c r="M43" s="116"/>
+      <c r="N43" s="116"/>
+      <c r="O43" s="116"/>
+      <c r="P43" s="116"/>
+      <c r="Q43" s="121"/>
+      <c r="R43" s="80" t="s">
         <v>180</v>
       </c>
-      <c r="S43" s="67"/>
-      <c r="T43" s="67"/>
-      <c r="U43" s="67"/>
-      <c r="V43" s="67"/>
-      <c r="W43" s="67"/>
-      <c r="X43" s="67"/>
-      <c r="Y43" s="67"/>
-      <c r="Z43" s="67"/>
-      <c r="AA43" s="67"/>
-      <c r="AB43" s="67"/>
-      <c r="AC43" s="67"/>
-      <c r="AD43" s="67"/>
-      <c r="AE43" s="67"/>
-      <c r="AF43" s="67"/>
-      <c r="AG43" s="67"/>
-      <c r="AH43" s="67"/>
-      <c r="AI43" s="67"/>
-      <c r="AJ43" s="67"/>
-      <c r="AK43" s="67"/>
-      <c r="AL43" s="67"/>
-      <c r="AM43" s="67"/>
-      <c r="AN43" s="67"/>
-      <c r="AO43" s="67"/>
-      <c r="AP43" s="67"/>
-      <c r="AQ43" s="58"/>
-      <c r="AR43" s="58"/>
-      <c r="AS43" s="58"/>
-      <c r="AT43" s="58"/>
-      <c r="AU43" s="58"/>
-      <c r="AV43" s="58"/>
-      <c r="AW43" s="58"/>
-      <c r="AX43" s="58"/>
-      <c r="AY43" s="58"/>
-      <c r="AZ43" s="58"/>
-      <c r="BA43" s="58"/>
-      <c r="BB43" s="58"/>
-      <c r="BC43" s="59"/>
-      <c r="BD43" s="59"/>
-      <c r="BE43" s="59"/>
-      <c r="BF43" s="59"/>
-      <c r="BG43" s="59"/>
-      <c r="BH43" s="59"/>
-      <c r="BI43" s="59"/>
-      <c r="BJ43" s="59"/>
-      <c r="BK43" s="59"/>
-      <c r="BL43" s="59"/>
-      <c r="BM43" s="59"/>
-      <c r="BN43" s="59"/>
-      <c r="BO43" s="59"/>
+      <c r="S43" s="80"/>
+      <c r="T43" s="80"/>
+      <c r="U43" s="80"/>
+      <c r="V43" s="80"/>
+      <c r="W43" s="80"/>
+      <c r="X43" s="80"/>
+      <c r="Y43" s="80"/>
+      <c r="Z43" s="80"/>
+      <c r="AA43" s="80"/>
+      <c r="AB43" s="80"/>
+      <c r="AC43" s="80"/>
+      <c r="AD43" s="80"/>
+      <c r="AE43" s="80"/>
+      <c r="AF43" s="80"/>
+      <c r="AG43" s="80"/>
+      <c r="AH43" s="80"/>
+      <c r="AI43" s="80"/>
+      <c r="AJ43" s="80"/>
+      <c r="AK43" s="80"/>
+      <c r="AL43" s="80"/>
+      <c r="AM43" s="80"/>
+      <c r="AN43" s="80"/>
+      <c r="AO43" s="80"/>
+      <c r="AP43" s="80"/>
+      <c r="AQ43" s="81"/>
+      <c r="AR43" s="81"/>
+      <c r="AS43" s="81"/>
+      <c r="AT43" s="81"/>
+      <c r="AU43" s="81"/>
+      <c r="AV43" s="81"/>
+      <c r="AW43" s="81"/>
+      <c r="AX43" s="81"/>
+      <c r="AY43" s="81"/>
+      <c r="AZ43" s="81"/>
+      <c r="BA43" s="81"/>
+      <c r="BB43" s="81"/>
+      <c r="BC43" s="82"/>
+      <c r="BD43" s="82"/>
+      <c r="BE43" s="82"/>
+      <c r="BF43" s="82"/>
+      <c r="BG43" s="82"/>
+      <c r="BH43" s="82"/>
+      <c r="BI43" s="82"/>
+      <c r="BJ43" s="82"/>
+      <c r="BK43" s="82"/>
+      <c r="BL43" s="82"/>
+      <c r="BM43" s="82"/>
+      <c r="BN43" s="82"/>
+      <c r="BO43" s="82"/>
       <c r="BP43" s="2"/>
     </row>
     <row r="44" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
@@ -13912,77 +13916,77 @@
         <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>5</v>
       </c>
-      <c r="C44" s="119" t="s">
+      <c r="C44" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="120"/>
-      <c r="E44" s="120"/>
-      <c r="F44" s="120"/>
-      <c r="G44" s="120"/>
-      <c r="H44" s="120"/>
-      <c r="I44" s="121"/>
-      <c r="J44" s="122" t="s">
+      <c r="D44" s="117"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="117"/>
+      <c r="I44" s="120"/>
+      <c r="J44" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="K44" s="123"/>
-      <c r="L44" s="123"/>
-      <c r="M44" s="123"/>
-      <c r="N44" s="123"/>
-      <c r="O44" s="123"/>
-      <c r="P44" s="123"/>
-      <c r="Q44" s="124"/>
-      <c r="R44" s="67" t="s">
+      <c r="K44" s="116"/>
+      <c r="L44" s="116"/>
+      <c r="M44" s="116"/>
+      <c r="N44" s="116"/>
+      <c r="O44" s="116"/>
+      <c r="P44" s="116"/>
+      <c r="Q44" s="121"/>
+      <c r="R44" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="S44" s="67"/>
-      <c r="T44" s="67"/>
-      <c r="U44" s="67"/>
-      <c r="V44" s="67"/>
-      <c r="W44" s="67"/>
-      <c r="X44" s="67"/>
-      <c r="Y44" s="67"/>
-      <c r="Z44" s="67"/>
-      <c r="AA44" s="67"/>
-      <c r="AB44" s="67"/>
-      <c r="AC44" s="67"/>
-      <c r="AD44" s="67"/>
-      <c r="AE44" s="67"/>
-      <c r="AF44" s="67"/>
-      <c r="AG44" s="67"/>
-      <c r="AH44" s="67"/>
-      <c r="AI44" s="67"/>
-      <c r="AJ44" s="67"/>
-      <c r="AK44" s="67"/>
-      <c r="AL44" s="67"/>
-      <c r="AM44" s="67"/>
-      <c r="AN44" s="67"/>
-      <c r="AO44" s="67"/>
-      <c r="AP44" s="67"/>
-      <c r="AQ44" s="58"/>
-      <c r="AR44" s="58"/>
-      <c r="AS44" s="58"/>
-      <c r="AT44" s="58"/>
-      <c r="AU44" s="58"/>
-      <c r="AV44" s="58"/>
-      <c r="AW44" s="58"/>
-      <c r="AX44" s="58"/>
-      <c r="AY44" s="58"/>
-      <c r="AZ44" s="58"/>
-      <c r="BA44" s="58"/>
-      <c r="BB44" s="58"/>
-      <c r="BC44" s="59"/>
-      <c r="BD44" s="59"/>
-      <c r="BE44" s="59"/>
-      <c r="BF44" s="59"/>
-      <c r="BG44" s="59"/>
-      <c r="BH44" s="59"/>
-      <c r="BI44" s="59"/>
-      <c r="BJ44" s="59"/>
-      <c r="BK44" s="59"/>
-      <c r="BL44" s="59"/>
-      <c r="BM44" s="59"/>
-      <c r="BN44" s="59"/>
-      <c r="BO44" s="59"/>
+      <c r="S44" s="80"/>
+      <c r="T44" s="80"/>
+      <c r="U44" s="80"/>
+      <c r="V44" s="80"/>
+      <c r="W44" s="80"/>
+      <c r="X44" s="80"/>
+      <c r="Y44" s="80"/>
+      <c r="Z44" s="80"/>
+      <c r="AA44" s="80"/>
+      <c r="AB44" s="80"/>
+      <c r="AC44" s="80"/>
+      <c r="AD44" s="80"/>
+      <c r="AE44" s="80"/>
+      <c r="AF44" s="80"/>
+      <c r="AG44" s="80"/>
+      <c r="AH44" s="80"/>
+      <c r="AI44" s="80"/>
+      <c r="AJ44" s="80"/>
+      <c r="AK44" s="80"/>
+      <c r="AL44" s="80"/>
+      <c r="AM44" s="80"/>
+      <c r="AN44" s="80"/>
+      <c r="AO44" s="80"/>
+      <c r="AP44" s="80"/>
+      <c r="AQ44" s="81"/>
+      <c r="AR44" s="81"/>
+      <c r="AS44" s="81"/>
+      <c r="AT44" s="81"/>
+      <c r="AU44" s="81"/>
+      <c r="AV44" s="81"/>
+      <c r="AW44" s="81"/>
+      <c r="AX44" s="81"/>
+      <c r="AY44" s="81"/>
+      <c r="AZ44" s="81"/>
+      <c r="BA44" s="81"/>
+      <c r="BB44" s="81"/>
+      <c r="BC44" s="82"/>
+      <c r="BD44" s="82"/>
+      <c r="BE44" s="82"/>
+      <c r="BF44" s="82"/>
+      <c r="BG44" s="82"/>
+      <c r="BH44" s="82"/>
+      <c r="BI44" s="82"/>
+      <c r="BJ44" s="82"/>
+      <c r="BK44" s="82"/>
+      <c r="BL44" s="82"/>
+      <c r="BM44" s="82"/>
+      <c r="BN44" s="82"/>
+      <c r="BO44" s="82"/>
       <c r="BP44" s="2"/>
     </row>
     <row r="45" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
@@ -13991,77 +13995,77 @@
         <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>6</v>
       </c>
-      <c r="C45" s="119" t="s">
+      <c r="C45" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="D45" s="120"/>
-      <c r="E45" s="120"/>
-      <c r="F45" s="120"/>
-      <c r="G45" s="120"/>
-      <c r="H45" s="120"/>
-      <c r="I45" s="121"/>
-      <c r="J45" s="122" t="s">
+      <c r="D45" s="117"/>
+      <c r="E45" s="117"/>
+      <c r="F45" s="117"/>
+      <c r="G45" s="117"/>
+      <c r="H45" s="117"/>
+      <c r="I45" s="120"/>
+      <c r="J45" s="115" t="s">
         <v>45</v>
       </c>
-      <c r="K45" s="123"/>
-      <c r="L45" s="123"/>
-      <c r="M45" s="123"/>
-      <c r="N45" s="123"/>
-      <c r="O45" s="123"/>
-      <c r="P45" s="123"/>
-      <c r="Q45" s="124"/>
-      <c r="R45" s="67" t="s">
+      <c r="K45" s="116"/>
+      <c r="L45" s="116"/>
+      <c r="M45" s="116"/>
+      <c r="N45" s="116"/>
+      <c r="O45" s="116"/>
+      <c r="P45" s="116"/>
+      <c r="Q45" s="121"/>
+      <c r="R45" s="80" t="s">
         <v>178</v>
       </c>
-      <c r="S45" s="67"/>
-      <c r="T45" s="67"/>
-      <c r="U45" s="67"/>
-      <c r="V45" s="67"/>
-      <c r="W45" s="67"/>
-      <c r="X45" s="67"/>
-      <c r="Y45" s="67"/>
-      <c r="Z45" s="67"/>
-      <c r="AA45" s="67"/>
-      <c r="AB45" s="67"/>
-      <c r="AC45" s="67"/>
-      <c r="AD45" s="67"/>
-      <c r="AE45" s="67"/>
-      <c r="AF45" s="67"/>
-      <c r="AG45" s="67"/>
-      <c r="AH45" s="67"/>
-      <c r="AI45" s="67"/>
-      <c r="AJ45" s="67"/>
-      <c r="AK45" s="67"/>
-      <c r="AL45" s="67"/>
-      <c r="AM45" s="67"/>
-      <c r="AN45" s="67"/>
-      <c r="AO45" s="67"/>
-      <c r="AP45" s="67"/>
-      <c r="AQ45" s="58"/>
-      <c r="AR45" s="58"/>
-      <c r="AS45" s="58"/>
-      <c r="AT45" s="58"/>
-      <c r="AU45" s="58"/>
-      <c r="AV45" s="58"/>
-      <c r="AW45" s="58"/>
-      <c r="AX45" s="58"/>
-      <c r="AY45" s="58"/>
-      <c r="AZ45" s="58"/>
-      <c r="BA45" s="58"/>
-      <c r="BB45" s="58"/>
-      <c r="BC45" s="59"/>
-      <c r="BD45" s="59"/>
-      <c r="BE45" s="59"/>
-      <c r="BF45" s="59"/>
-      <c r="BG45" s="59"/>
-      <c r="BH45" s="59"/>
-      <c r="BI45" s="59"/>
-      <c r="BJ45" s="59"/>
-      <c r="BK45" s="59"/>
-      <c r="BL45" s="59"/>
-      <c r="BM45" s="59"/>
-      <c r="BN45" s="59"/>
-      <c r="BO45" s="59"/>
+      <c r="S45" s="80"/>
+      <c r="T45" s="80"/>
+      <c r="U45" s="80"/>
+      <c r="V45" s="80"/>
+      <c r="W45" s="80"/>
+      <c r="X45" s="80"/>
+      <c r="Y45" s="80"/>
+      <c r="Z45" s="80"/>
+      <c r="AA45" s="80"/>
+      <c r="AB45" s="80"/>
+      <c r="AC45" s="80"/>
+      <c r="AD45" s="80"/>
+      <c r="AE45" s="80"/>
+      <c r="AF45" s="80"/>
+      <c r="AG45" s="80"/>
+      <c r="AH45" s="80"/>
+      <c r="AI45" s="80"/>
+      <c r="AJ45" s="80"/>
+      <c r="AK45" s="80"/>
+      <c r="AL45" s="80"/>
+      <c r="AM45" s="80"/>
+      <c r="AN45" s="80"/>
+      <c r="AO45" s="80"/>
+      <c r="AP45" s="80"/>
+      <c r="AQ45" s="81"/>
+      <c r="AR45" s="81"/>
+      <c r="AS45" s="81"/>
+      <c r="AT45" s="81"/>
+      <c r="AU45" s="81"/>
+      <c r="AV45" s="81"/>
+      <c r="AW45" s="81"/>
+      <c r="AX45" s="81"/>
+      <c r="AY45" s="81"/>
+      <c r="AZ45" s="81"/>
+      <c r="BA45" s="81"/>
+      <c r="BB45" s="81"/>
+      <c r="BC45" s="82"/>
+      <c r="BD45" s="82"/>
+      <c r="BE45" s="82"/>
+      <c r="BF45" s="82"/>
+      <c r="BG45" s="82"/>
+      <c r="BH45" s="82"/>
+      <c r="BI45" s="82"/>
+      <c r="BJ45" s="82"/>
+      <c r="BK45" s="82"/>
+      <c r="BL45" s="82"/>
+      <c r="BM45" s="82"/>
+      <c r="BN45" s="82"/>
+      <c r="BO45" s="82"/>
       <c r="BP45" s="2"/>
     </row>
     <row r="46" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
@@ -14070,77 +14074,77 @@
         <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>7</v>
       </c>
-      <c r="C46" s="119" t="s">
+      <c r="C46" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="120"/>
-      <c r="E46" s="120"/>
-      <c r="F46" s="120"/>
-      <c r="G46" s="120"/>
-      <c r="H46" s="120"/>
-      <c r="I46" s="121"/>
-      <c r="J46" s="122" t="s">
+      <c r="D46" s="117"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="117"/>
+      <c r="G46" s="117"/>
+      <c r="H46" s="117"/>
+      <c r="I46" s="120"/>
+      <c r="J46" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="K46" s="123"/>
-      <c r="L46" s="123"/>
-      <c r="M46" s="123"/>
-      <c r="N46" s="123"/>
-      <c r="O46" s="123"/>
-      <c r="P46" s="123"/>
-      <c r="Q46" s="124"/>
-      <c r="R46" s="67" t="s">
+      <c r="K46" s="116"/>
+      <c r="L46" s="116"/>
+      <c r="M46" s="116"/>
+      <c r="N46" s="116"/>
+      <c r="O46" s="116"/>
+      <c r="P46" s="116"/>
+      <c r="Q46" s="121"/>
+      <c r="R46" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="S46" s="67"/>
-      <c r="T46" s="67"/>
-      <c r="U46" s="67"/>
-      <c r="V46" s="67"/>
-      <c r="W46" s="67"/>
-      <c r="X46" s="67"/>
-      <c r="Y46" s="67"/>
-      <c r="Z46" s="67"/>
-      <c r="AA46" s="67"/>
-      <c r="AB46" s="67"/>
-      <c r="AC46" s="67"/>
-      <c r="AD46" s="67"/>
-      <c r="AE46" s="67"/>
-      <c r="AF46" s="67"/>
-      <c r="AG46" s="67"/>
-      <c r="AH46" s="67"/>
-      <c r="AI46" s="67"/>
-      <c r="AJ46" s="67"/>
-      <c r="AK46" s="67"/>
-      <c r="AL46" s="67"/>
-      <c r="AM46" s="67"/>
-      <c r="AN46" s="67"/>
-      <c r="AO46" s="67"/>
-      <c r="AP46" s="67"/>
-      <c r="AQ46" s="58"/>
-      <c r="AR46" s="58"/>
-      <c r="AS46" s="58"/>
-      <c r="AT46" s="58"/>
-      <c r="AU46" s="58"/>
-      <c r="AV46" s="58"/>
-      <c r="AW46" s="58"/>
-      <c r="AX46" s="58"/>
-      <c r="AY46" s="58"/>
-      <c r="AZ46" s="58"/>
-      <c r="BA46" s="58"/>
-      <c r="BB46" s="58"/>
-      <c r="BC46" s="59"/>
-      <c r="BD46" s="59"/>
-      <c r="BE46" s="59"/>
-      <c r="BF46" s="59"/>
-      <c r="BG46" s="59"/>
-      <c r="BH46" s="59"/>
-      <c r="BI46" s="59"/>
-      <c r="BJ46" s="59"/>
-      <c r="BK46" s="59"/>
-      <c r="BL46" s="59"/>
-      <c r="BM46" s="59"/>
-      <c r="BN46" s="59"/>
-      <c r="BO46" s="59"/>
+      <c r="S46" s="80"/>
+      <c r="T46" s="80"/>
+      <c r="U46" s="80"/>
+      <c r="V46" s="80"/>
+      <c r="W46" s="80"/>
+      <c r="X46" s="80"/>
+      <c r="Y46" s="80"/>
+      <c r="Z46" s="80"/>
+      <c r="AA46" s="80"/>
+      <c r="AB46" s="80"/>
+      <c r="AC46" s="80"/>
+      <c r="AD46" s="80"/>
+      <c r="AE46" s="80"/>
+      <c r="AF46" s="80"/>
+      <c r="AG46" s="80"/>
+      <c r="AH46" s="80"/>
+      <c r="AI46" s="80"/>
+      <c r="AJ46" s="80"/>
+      <c r="AK46" s="80"/>
+      <c r="AL46" s="80"/>
+      <c r="AM46" s="80"/>
+      <c r="AN46" s="80"/>
+      <c r="AO46" s="80"/>
+      <c r="AP46" s="80"/>
+      <c r="AQ46" s="81"/>
+      <c r="AR46" s="81"/>
+      <c r="AS46" s="81"/>
+      <c r="AT46" s="81"/>
+      <c r="AU46" s="81"/>
+      <c r="AV46" s="81"/>
+      <c r="AW46" s="81"/>
+      <c r="AX46" s="81"/>
+      <c r="AY46" s="81"/>
+      <c r="AZ46" s="81"/>
+      <c r="BA46" s="81"/>
+      <c r="BB46" s="81"/>
+      <c r="BC46" s="82"/>
+      <c r="BD46" s="82"/>
+      <c r="BE46" s="82"/>
+      <c r="BF46" s="82"/>
+      <c r="BG46" s="82"/>
+      <c r="BH46" s="82"/>
+      <c r="BI46" s="82"/>
+      <c r="BJ46" s="82"/>
+      <c r="BK46" s="82"/>
+      <c r="BL46" s="82"/>
+      <c r="BM46" s="82"/>
+      <c r="BN46" s="82"/>
+      <c r="BO46" s="82"/>
       <c r="BP46" s="2"/>
     </row>
     <row r="47" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
@@ -14149,75 +14153,75 @@
         <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>8</v>
       </c>
-      <c r="C47" s="119" t="s">
+      <c r="C47" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="120"/>
-      <c r="E47" s="120"/>
-      <c r="F47" s="120"/>
-      <c r="G47" s="120"/>
-      <c r="H47" s="120"/>
-      <c r="I47" s="121"/>
-      <c r="J47" s="122" t="s">
+      <c r="D47" s="117"/>
+      <c r="E47" s="117"/>
+      <c r="F47" s="117"/>
+      <c r="G47" s="117"/>
+      <c r="H47" s="117"/>
+      <c r="I47" s="120"/>
+      <c r="J47" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="K47" s="123"/>
-      <c r="L47" s="123"/>
-      <c r="M47" s="123"/>
-      <c r="N47" s="123"/>
-      <c r="O47" s="123"/>
-      <c r="P47" s="123"/>
-      <c r="Q47" s="124"/>
-      <c r="R47" s="67"/>
-      <c r="S47" s="67"/>
-      <c r="T47" s="67"/>
-      <c r="U47" s="67"/>
-      <c r="V47" s="67"/>
-      <c r="W47" s="67"/>
-      <c r="X47" s="67"/>
-      <c r="Y47" s="67"/>
-      <c r="Z47" s="67"/>
-      <c r="AA47" s="67"/>
-      <c r="AB47" s="67"/>
-      <c r="AC47" s="67"/>
-      <c r="AD47" s="67"/>
-      <c r="AE47" s="67"/>
-      <c r="AF47" s="67"/>
-      <c r="AG47" s="67"/>
-      <c r="AH47" s="67"/>
-      <c r="AI47" s="67"/>
-      <c r="AJ47" s="67"/>
-      <c r="AK47" s="67"/>
-      <c r="AL47" s="67"/>
-      <c r="AM47" s="67"/>
-      <c r="AN47" s="67"/>
-      <c r="AO47" s="67"/>
-      <c r="AP47" s="67"/>
-      <c r="AQ47" s="58"/>
-      <c r="AR47" s="58"/>
-      <c r="AS47" s="58"/>
-      <c r="AT47" s="58"/>
-      <c r="AU47" s="58"/>
-      <c r="AV47" s="58"/>
-      <c r="AW47" s="58"/>
-      <c r="AX47" s="58"/>
-      <c r="AY47" s="58"/>
-      <c r="AZ47" s="58"/>
-      <c r="BA47" s="58"/>
-      <c r="BB47" s="58"/>
-      <c r="BC47" s="59"/>
-      <c r="BD47" s="59"/>
-      <c r="BE47" s="59"/>
-      <c r="BF47" s="59"/>
-      <c r="BG47" s="59"/>
-      <c r="BH47" s="59"/>
-      <c r="BI47" s="59"/>
-      <c r="BJ47" s="59"/>
-      <c r="BK47" s="59"/>
-      <c r="BL47" s="59"/>
-      <c r="BM47" s="59"/>
-      <c r="BN47" s="59"/>
-      <c r="BO47" s="59"/>
+      <c r="K47" s="116"/>
+      <c r="L47" s="116"/>
+      <c r="M47" s="116"/>
+      <c r="N47" s="116"/>
+      <c r="O47" s="116"/>
+      <c r="P47" s="116"/>
+      <c r="Q47" s="121"/>
+      <c r="R47" s="80"/>
+      <c r="S47" s="80"/>
+      <c r="T47" s="80"/>
+      <c r="U47" s="80"/>
+      <c r="V47" s="80"/>
+      <c r="W47" s="80"/>
+      <c r="X47" s="80"/>
+      <c r="Y47" s="80"/>
+      <c r="Z47" s="80"/>
+      <c r="AA47" s="80"/>
+      <c r="AB47" s="80"/>
+      <c r="AC47" s="80"/>
+      <c r="AD47" s="80"/>
+      <c r="AE47" s="80"/>
+      <c r="AF47" s="80"/>
+      <c r="AG47" s="80"/>
+      <c r="AH47" s="80"/>
+      <c r="AI47" s="80"/>
+      <c r="AJ47" s="80"/>
+      <c r="AK47" s="80"/>
+      <c r="AL47" s="80"/>
+      <c r="AM47" s="80"/>
+      <c r="AN47" s="80"/>
+      <c r="AO47" s="80"/>
+      <c r="AP47" s="80"/>
+      <c r="AQ47" s="81"/>
+      <c r="AR47" s="81"/>
+      <c r="AS47" s="81"/>
+      <c r="AT47" s="81"/>
+      <c r="AU47" s="81"/>
+      <c r="AV47" s="81"/>
+      <c r="AW47" s="81"/>
+      <c r="AX47" s="81"/>
+      <c r="AY47" s="81"/>
+      <c r="AZ47" s="81"/>
+      <c r="BA47" s="81"/>
+      <c r="BB47" s="81"/>
+      <c r="BC47" s="82"/>
+      <c r="BD47" s="82"/>
+      <c r="BE47" s="82"/>
+      <c r="BF47" s="82"/>
+      <c r="BG47" s="82"/>
+      <c r="BH47" s="82"/>
+      <c r="BI47" s="82"/>
+      <c r="BJ47" s="82"/>
+      <c r="BK47" s="82"/>
+      <c r="BL47" s="82"/>
+      <c r="BM47" s="82"/>
+      <c r="BN47" s="82"/>
+      <c r="BO47" s="82"/>
       <c r="BP47" s="2"/>
     </row>
     <row r="48" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
@@ -14226,75 +14230,75 @@
         <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>9</v>
       </c>
-      <c r="C48" s="119" t="s">
+      <c r="C48" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="D48" s="120"/>
-      <c r="E48" s="120"/>
-      <c r="F48" s="120"/>
-      <c r="G48" s="120"/>
-      <c r="H48" s="120"/>
-      <c r="I48" s="121"/>
-      <c r="J48" s="122" t="s">
+      <c r="D48" s="117"/>
+      <c r="E48" s="117"/>
+      <c r="F48" s="117"/>
+      <c r="G48" s="117"/>
+      <c r="H48" s="117"/>
+      <c r="I48" s="120"/>
+      <c r="J48" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="K48" s="123"/>
-      <c r="L48" s="123"/>
-      <c r="M48" s="123"/>
-      <c r="N48" s="123"/>
-      <c r="O48" s="123"/>
-      <c r="P48" s="123"/>
-      <c r="Q48" s="124"/>
-      <c r="R48" s="67"/>
-      <c r="S48" s="67"/>
-      <c r="T48" s="67"/>
-      <c r="U48" s="67"/>
-      <c r="V48" s="67"/>
-      <c r="W48" s="67"/>
-      <c r="X48" s="67"/>
-      <c r="Y48" s="67"/>
-      <c r="Z48" s="67"/>
-      <c r="AA48" s="67"/>
-      <c r="AB48" s="67"/>
-      <c r="AC48" s="67"/>
-      <c r="AD48" s="67"/>
-      <c r="AE48" s="67"/>
-      <c r="AF48" s="67"/>
-      <c r="AG48" s="67"/>
-      <c r="AH48" s="67"/>
-      <c r="AI48" s="67"/>
-      <c r="AJ48" s="67"/>
-      <c r="AK48" s="67"/>
-      <c r="AL48" s="67"/>
-      <c r="AM48" s="67"/>
-      <c r="AN48" s="67"/>
-      <c r="AO48" s="67"/>
-      <c r="AP48" s="67"/>
-      <c r="AQ48" s="58"/>
-      <c r="AR48" s="58"/>
-      <c r="AS48" s="58"/>
-      <c r="AT48" s="58"/>
-      <c r="AU48" s="58"/>
-      <c r="AV48" s="58"/>
-      <c r="AW48" s="58"/>
-      <c r="AX48" s="58"/>
-      <c r="AY48" s="58"/>
-      <c r="AZ48" s="58"/>
-      <c r="BA48" s="58"/>
-      <c r="BB48" s="58"/>
-      <c r="BC48" s="59"/>
-      <c r="BD48" s="59"/>
-      <c r="BE48" s="59"/>
-      <c r="BF48" s="59"/>
-      <c r="BG48" s="59"/>
-      <c r="BH48" s="59"/>
-      <c r="BI48" s="59"/>
-      <c r="BJ48" s="59"/>
-      <c r="BK48" s="59"/>
-      <c r="BL48" s="59"/>
-      <c r="BM48" s="59"/>
-      <c r="BN48" s="59"/>
-      <c r="BO48" s="59"/>
+      <c r="K48" s="116"/>
+      <c r="L48" s="116"/>
+      <c r="M48" s="116"/>
+      <c r="N48" s="116"/>
+      <c r="O48" s="116"/>
+      <c r="P48" s="116"/>
+      <c r="Q48" s="121"/>
+      <c r="R48" s="80"/>
+      <c r="S48" s="80"/>
+      <c r="T48" s="80"/>
+      <c r="U48" s="80"/>
+      <c r="V48" s="80"/>
+      <c r="W48" s="80"/>
+      <c r="X48" s="80"/>
+      <c r="Y48" s="80"/>
+      <c r="Z48" s="80"/>
+      <c r="AA48" s="80"/>
+      <c r="AB48" s="80"/>
+      <c r="AC48" s="80"/>
+      <c r="AD48" s="80"/>
+      <c r="AE48" s="80"/>
+      <c r="AF48" s="80"/>
+      <c r="AG48" s="80"/>
+      <c r="AH48" s="80"/>
+      <c r="AI48" s="80"/>
+      <c r="AJ48" s="80"/>
+      <c r="AK48" s="80"/>
+      <c r="AL48" s="80"/>
+      <c r="AM48" s="80"/>
+      <c r="AN48" s="80"/>
+      <c r="AO48" s="80"/>
+      <c r="AP48" s="80"/>
+      <c r="AQ48" s="81"/>
+      <c r="AR48" s="81"/>
+      <c r="AS48" s="81"/>
+      <c r="AT48" s="81"/>
+      <c r="AU48" s="81"/>
+      <c r="AV48" s="81"/>
+      <c r="AW48" s="81"/>
+      <c r="AX48" s="81"/>
+      <c r="AY48" s="81"/>
+      <c r="AZ48" s="81"/>
+      <c r="BA48" s="81"/>
+      <c r="BB48" s="81"/>
+      <c r="BC48" s="82"/>
+      <c r="BD48" s="82"/>
+      <c r="BE48" s="82"/>
+      <c r="BF48" s="82"/>
+      <c r="BG48" s="82"/>
+      <c r="BH48" s="82"/>
+      <c r="BI48" s="82"/>
+      <c r="BJ48" s="82"/>
+      <c r="BK48" s="82"/>
+      <c r="BL48" s="82"/>
+      <c r="BM48" s="82"/>
+      <c r="BN48" s="82"/>
+      <c r="BO48" s="82"/>
       <c r="BP48" s="2"/>
     </row>
     <row r="49" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
@@ -14303,75 +14307,75 @@
         <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>10</v>
       </c>
-      <c r="C49" s="119" t="s">
+      <c r="C49" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="120"/>
-      <c r="E49" s="120"/>
-      <c r="F49" s="120"/>
-      <c r="G49" s="120"/>
-      <c r="H49" s="120"/>
-      <c r="I49" s="121"/>
-      <c r="J49" s="122" t="s">
+      <c r="D49" s="117"/>
+      <c r="E49" s="117"/>
+      <c r="F49" s="117"/>
+      <c r="G49" s="117"/>
+      <c r="H49" s="117"/>
+      <c r="I49" s="120"/>
+      <c r="J49" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="K49" s="123"/>
-      <c r="L49" s="123"/>
-      <c r="M49" s="123"/>
-      <c r="N49" s="123"/>
-      <c r="O49" s="123"/>
-      <c r="P49" s="123"/>
-      <c r="Q49" s="124"/>
-      <c r="R49" s="67"/>
-      <c r="S49" s="67"/>
-      <c r="T49" s="67"/>
-      <c r="U49" s="67"/>
-      <c r="V49" s="67"/>
-      <c r="W49" s="67"/>
-      <c r="X49" s="67"/>
-      <c r="Y49" s="67"/>
-      <c r="Z49" s="67"/>
-      <c r="AA49" s="67"/>
-      <c r="AB49" s="67"/>
-      <c r="AC49" s="67"/>
-      <c r="AD49" s="67"/>
-      <c r="AE49" s="67"/>
-      <c r="AF49" s="67"/>
-      <c r="AG49" s="67"/>
-      <c r="AH49" s="67"/>
-      <c r="AI49" s="67"/>
-      <c r="AJ49" s="67"/>
-      <c r="AK49" s="67"/>
-      <c r="AL49" s="67"/>
-      <c r="AM49" s="67"/>
-      <c r="AN49" s="67"/>
-      <c r="AO49" s="67"/>
-      <c r="AP49" s="67"/>
-      <c r="AQ49" s="58"/>
-      <c r="AR49" s="58"/>
-      <c r="AS49" s="58"/>
-      <c r="AT49" s="58"/>
-      <c r="AU49" s="58"/>
-      <c r="AV49" s="58"/>
-      <c r="AW49" s="58"/>
-      <c r="AX49" s="58"/>
-      <c r="AY49" s="58"/>
-      <c r="AZ49" s="58"/>
-      <c r="BA49" s="58"/>
-      <c r="BB49" s="58"/>
-      <c r="BC49" s="59"/>
-      <c r="BD49" s="59"/>
-      <c r="BE49" s="59"/>
-      <c r="BF49" s="59"/>
-      <c r="BG49" s="59"/>
-      <c r="BH49" s="59"/>
-      <c r="BI49" s="59"/>
-      <c r="BJ49" s="59"/>
-      <c r="BK49" s="59"/>
-      <c r="BL49" s="59"/>
-      <c r="BM49" s="59"/>
-      <c r="BN49" s="59"/>
-      <c r="BO49" s="59"/>
+      <c r="K49" s="116"/>
+      <c r="L49" s="116"/>
+      <c r="M49" s="116"/>
+      <c r="N49" s="116"/>
+      <c r="O49" s="116"/>
+      <c r="P49" s="116"/>
+      <c r="Q49" s="121"/>
+      <c r="R49" s="80"/>
+      <c r="S49" s="80"/>
+      <c r="T49" s="80"/>
+      <c r="U49" s="80"/>
+      <c r="V49" s="80"/>
+      <c r="W49" s="80"/>
+      <c r="X49" s="80"/>
+      <c r="Y49" s="80"/>
+      <c r="Z49" s="80"/>
+      <c r="AA49" s="80"/>
+      <c r="AB49" s="80"/>
+      <c r="AC49" s="80"/>
+      <c r="AD49" s="80"/>
+      <c r="AE49" s="80"/>
+      <c r="AF49" s="80"/>
+      <c r="AG49" s="80"/>
+      <c r="AH49" s="80"/>
+      <c r="AI49" s="80"/>
+      <c r="AJ49" s="80"/>
+      <c r="AK49" s="80"/>
+      <c r="AL49" s="80"/>
+      <c r="AM49" s="80"/>
+      <c r="AN49" s="80"/>
+      <c r="AO49" s="80"/>
+      <c r="AP49" s="80"/>
+      <c r="AQ49" s="81"/>
+      <c r="AR49" s="81"/>
+      <c r="AS49" s="81"/>
+      <c r="AT49" s="81"/>
+      <c r="AU49" s="81"/>
+      <c r="AV49" s="81"/>
+      <c r="AW49" s="81"/>
+      <c r="AX49" s="81"/>
+      <c r="AY49" s="81"/>
+      <c r="AZ49" s="81"/>
+      <c r="BA49" s="81"/>
+      <c r="BB49" s="81"/>
+      <c r="BC49" s="82"/>
+      <c r="BD49" s="82"/>
+      <c r="BE49" s="82"/>
+      <c r="BF49" s="82"/>
+      <c r="BG49" s="82"/>
+      <c r="BH49" s="82"/>
+      <c r="BI49" s="82"/>
+      <c r="BJ49" s="82"/>
+      <c r="BK49" s="82"/>
+      <c r="BL49" s="82"/>
+      <c r="BM49" s="82"/>
+      <c r="BN49" s="82"/>
+      <c r="BO49" s="82"/>
       <c r="BP49" s="2"/>
     </row>
     <row r="50" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
@@ -14380,75 +14384,75 @@
         <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>11</v>
       </c>
-      <c r="C50" s="119" t="s">
+      <c r="C50" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="D50" s="120"/>
-      <c r="E50" s="120"/>
-      <c r="F50" s="120"/>
-      <c r="G50" s="120"/>
-      <c r="H50" s="120"/>
-      <c r="I50" s="121"/>
-      <c r="J50" s="122" t="s">
+      <c r="D50" s="117"/>
+      <c r="E50" s="117"/>
+      <c r="F50" s="117"/>
+      <c r="G50" s="117"/>
+      <c r="H50" s="117"/>
+      <c r="I50" s="120"/>
+      <c r="J50" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="K50" s="123"/>
-      <c r="L50" s="123"/>
-      <c r="M50" s="123"/>
-      <c r="N50" s="123"/>
-      <c r="O50" s="123"/>
-      <c r="P50" s="123"/>
-      <c r="Q50" s="124"/>
-      <c r="R50" s="67"/>
-      <c r="S50" s="67"/>
-      <c r="T50" s="67"/>
-      <c r="U50" s="67"/>
-      <c r="V50" s="67"/>
-      <c r="W50" s="67"/>
-      <c r="X50" s="67"/>
-      <c r="Y50" s="67"/>
-      <c r="Z50" s="67"/>
-      <c r="AA50" s="67"/>
-      <c r="AB50" s="67"/>
-      <c r="AC50" s="67"/>
-      <c r="AD50" s="67"/>
-      <c r="AE50" s="67"/>
-      <c r="AF50" s="67"/>
-      <c r="AG50" s="67"/>
-      <c r="AH50" s="67"/>
-      <c r="AI50" s="67"/>
-      <c r="AJ50" s="67"/>
-      <c r="AK50" s="67"/>
-      <c r="AL50" s="67"/>
-      <c r="AM50" s="67"/>
-      <c r="AN50" s="67"/>
-      <c r="AO50" s="67"/>
-      <c r="AP50" s="67"/>
-      <c r="AQ50" s="58"/>
-      <c r="AR50" s="58"/>
-      <c r="AS50" s="58"/>
-      <c r="AT50" s="58"/>
-      <c r="AU50" s="58"/>
-      <c r="AV50" s="58"/>
-      <c r="AW50" s="58"/>
-      <c r="AX50" s="58"/>
-      <c r="AY50" s="58"/>
-      <c r="AZ50" s="58"/>
-      <c r="BA50" s="58"/>
-      <c r="BB50" s="58"/>
-      <c r="BC50" s="59"/>
-      <c r="BD50" s="59"/>
-      <c r="BE50" s="59"/>
-      <c r="BF50" s="59"/>
-      <c r="BG50" s="59"/>
-      <c r="BH50" s="59"/>
-      <c r="BI50" s="59"/>
-      <c r="BJ50" s="59"/>
-      <c r="BK50" s="59"/>
-      <c r="BL50" s="59"/>
-      <c r="BM50" s="59"/>
-      <c r="BN50" s="59"/>
-      <c r="BO50" s="59"/>
+      <c r="K50" s="116"/>
+      <c r="L50" s="116"/>
+      <c r="M50" s="116"/>
+      <c r="N50" s="116"/>
+      <c r="O50" s="116"/>
+      <c r="P50" s="116"/>
+      <c r="Q50" s="121"/>
+      <c r="R50" s="80"/>
+      <c r="S50" s="80"/>
+      <c r="T50" s="80"/>
+      <c r="U50" s="80"/>
+      <c r="V50" s="80"/>
+      <c r="W50" s="80"/>
+      <c r="X50" s="80"/>
+      <c r="Y50" s="80"/>
+      <c r="Z50" s="80"/>
+      <c r="AA50" s="80"/>
+      <c r="AB50" s="80"/>
+      <c r="AC50" s="80"/>
+      <c r="AD50" s="80"/>
+      <c r="AE50" s="80"/>
+      <c r="AF50" s="80"/>
+      <c r="AG50" s="80"/>
+      <c r="AH50" s="80"/>
+      <c r="AI50" s="80"/>
+      <c r="AJ50" s="80"/>
+      <c r="AK50" s="80"/>
+      <c r="AL50" s="80"/>
+      <c r="AM50" s="80"/>
+      <c r="AN50" s="80"/>
+      <c r="AO50" s="80"/>
+      <c r="AP50" s="80"/>
+      <c r="AQ50" s="81"/>
+      <c r="AR50" s="81"/>
+      <c r="AS50" s="81"/>
+      <c r="AT50" s="81"/>
+      <c r="AU50" s="81"/>
+      <c r="AV50" s="81"/>
+      <c r="AW50" s="81"/>
+      <c r="AX50" s="81"/>
+      <c r="AY50" s="81"/>
+      <c r="AZ50" s="81"/>
+      <c r="BA50" s="81"/>
+      <c r="BB50" s="81"/>
+      <c r="BC50" s="82"/>
+      <c r="BD50" s="82"/>
+      <c r="BE50" s="82"/>
+      <c r="BF50" s="82"/>
+      <c r="BG50" s="82"/>
+      <c r="BH50" s="82"/>
+      <c r="BI50" s="82"/>
+      <c r="BJ50" s="82"/>
+      <c r="BK50" s="82"/>
+      <c r="BL50" s="82"/>
+      <c r="BM50" s="82"/>
+      <c r="BN50" s="82"/>
+      <c r="BO50" s="82"/>
       <c r="BP50" s="2"/>
     </row>
     <row r="51" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
@@ -14457,75 +14461,75 @@
         <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>12</v>
       </c>
-      <c r="C51" s="119" t="s">
+      <c r="C51" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="120"/>
-      <c r="E51" s="120"/>
-      <c r="F51" s="120"/>
-      <c r="G51" s="120"/>
-      <c r="H51" s="120"/>
-      <c r="I51" s="121"/>
-      <c r="J51" s="122" t="s">
+      <c r="D51" s="117"/>
+      <c r="E51" s="117"/>
+      <c r="F51" s="117"/>
+      <c r="G51" s="117"/>
+      <c r="H51" s="117"/>
+      <c r="I51" s="120"/>
+      <c r="J51" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="K51" s="123"/>
-      <c r="L51" s="123"/>
-      <c r="M51" s="123"/>
-      <c r="N51" s="123"/>
-      <c r="O51" s="123"/>
-      <c r="P51" s="123"/>
-      <c r="Q51" s="124"/>
-      <c r="R51" s="67"/>
-      <c r="S51" s="67"/>
-      <c r="T51" s="67"/>
-      <c r="U51" s="67"/>
-      <c r="V51" s="67"/>
-      <c r="W51" s="67"/>
-      <c r="X51" s="67"/>
-      <c r="Y51" s="67"/>
-      <c r="Z51" s="67"/>
-      <c r="AA51" s="67"/>
-      <c r="AB51" s="67"/>
-      <c r="AC51" s="67"/>
-      <c r="AD51" s="67"/>
-      <c r="AE51" s="67"/>
-      <c r="AF51" s="67"/>
-      <c r="AG51" s="67"/>
-      <c r="AH51" s="67"/>
-      <c r="AI51" s="67"/>
-      <c r="AJ51" s="67"/>
-      <c r="AK51" s="67"/>
-      <c r="AL51" s="67"/>
-      <c r="AM51" s="67"/>
-      <c r="AN51" s="67"/>
-      <c r="AO51" s="67"/>
-      <c r="AP51" s="67"/>
-      <c r="AQ51" s="58"/>
-      <c r="AR51" s="58"/>
-      <c r="AS51" s="58"/>
-      <c r="AT51" s="58"/>
-      <c r="AU51" s="58"/>
-      <c r="AV51" s="58"/>
-      <c r="AW51" s="58"/>
-      <c r="AX51" s="58"/>
-      <c r="AY51" s="58"/>
-      <c r="AZ51" s="58"/>
-      <c r="BA51" s="58"/>
-      <c r="BB51" s="58"/>
-      <c r="BC51" s="59"/>
-      <c r="BD51" s="59"/>
-      <c r="BE51" s="59"/>
-      <c r="BF51" s="59"/>
-      <c r="BG51" s="59"/>
-      <c r="BH51" s="59"/>
-      <c r="BI51" s="59"/>
-      <c r="BJ51" s="59"/>
-      <c r="BK51" s="59"/>
-      <c r="BL51" s="59"/>
-      <c r="BM51" s="59"/>
-      <c r="BN51" s="59"/>
-      <c r="BO51" s="59"/>
+      <c r="K51" s="116"/>
+      <c r="L51" s="116"/>
+      <c r="M51" s="116"/>
+      <c r="N51" s="116"/>
+      <c r="O51" s="116"/>
+      <c r="P51" s="116"/>
+      <c r="Q51" s="121"/>
+      <c r="R51" s="80"/>
+      <c r="S51" s="80"/>
+      <c r="T51" s="80"/>
+      <c r="U51" s="80"/>
+      <c r="V51" s="80"/>
+      <c r="W51" s="80"/>
+      <c r="X51" s="80"/>
+      <c r="Y51" s="80"/>
+      <c r="Z51" s="80"/>
+      <c r="AA51" s="80"/>
+      <c r="AB51" s="80"/>
+      <c r="AC51" s="80"/>
+      <c r="AD51" s="80"/>
+      <c r="AE51" s="80"/>
+      <c r="AF51" s="80"/>
+      <c r="AG51" s="80"/>
+      <c r="AH51" s="80"/>
+      <c r="AI51" s="80"/>
+      <c r="AJ51" s="80"/>
+      <c r="AK51" s="80"/>
+      <c r="AL51" s="80"/>
+      <c r="AM51" s="80"/>
+      <c r="AN51" s="80"/>
+      <c r="AO51" s="80"/>
+      <c r="AP51" s="80"/>
+      <c r="AQ51" s="81"/>
+      <c r="AR51" s="81"/>
+      <c r="AS51" s="81"/>
+      <c r="AT51" s="81"/>
+      <c r="AU51" s="81"/>
+      <c r="AV51" s="81"/>
+      <c r="AW51" s="81"/>
+      <c r="AX51" s="81"/>
+      <c r="AY51" s="81"/>
+      <c r="AZ51" s="81"/>
+      <c r="BA51" s="81"/>
+      <c r="BB51" s="81"/>
+      <c r="BC51" s="82"/>
+      <c r="BD51" s="82"/>
+      <c r="BE51" s="82"/>
+      <c r="BF51" s="82"/>
+      <c r="BG51" s="82"/>
+      <c r="BH51" s="82"/>
+      <c r="BI51" s="82"/>
+      <c r="BJ51" s="82"/>
+      <c r="BK51" s="82"/>
+      <c r="BL51" s="82"/>
+      <c r="BM51" s="82"/>
+      <c r="BN51" s="82"/>
+      <c r="BO51" s="82"/>
       <c r="BP51" s="2"/>
     </row>
     <row r="52" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
@@ -14534,75 +14538,75 @@
         <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>13</v>
       </c>
-      <c r="C52" s="119" t="s">
+      <c r="C52" s="122" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="120"/>
-      <c r="E52" s="120"/>
-      <c r="F52" s="120"/>
-      <c r="G52" s="120"/>
-      <c r="H52" s="120"/>
-      <c r="I52" s="121"/>
-      <c r="J52" s="122" t="s">
+      <c r="D52" s="117"/>
+      <c r="E52" s="117"/>
+      <c r="F52" s="117"/>
+      <c r="G52" s="117"/>
+      <c r="H52" s="117"/>
+      <c r="I52" s="120"/>
+      <c r="J52" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="K52" s="123"/>
-      <c r="L52" s="123"/>
-      <c r="M52" s="123"/>
-      <c r="N52" s="123"/>
-      <c r="O52" s="123"/>
-      <c r="P52" s="123"/>
-      <c r="Q52" s="124"/>
-      <c r="R52" s="67"/>
-      <c r="S52" s="67"/>
-      <c r="T52" s="67"/>
-      <c r="U52" s="67"/>
-      <c r="V52" s="67"/>
-      <c r="W52" s="67"/>
-      <c r="X52" s="67"/>
-      <c r="Y52" s="67"/>
-      <c r="Z52" s="67"/>
-      <c r="AA52" s="67"/>
-      <c r="AB52" s="67"/>
-      <c r="AC52" s="67"/>
-      <c r="AD52" s="67"/>
-      <c r="AE52" s="67"/>
-      <c r="AF52" s="67"/>
-      <c r="AG52" s="67"/>
-      <c r="AH52" s="67"/>
-      <c r="AI52" s="67"/>
-      <c r="AJ52" s="67"/>
-      <c r="AK52" s="67"/>
-      <c r="AL52" s="67"/>
-      <c r="AM52" s="67"/>
-      <c r="AN52" s="67"/>
-      <c r="AO52" s="67"/>
-      <c r="AP52" s="67"/>
-      <c r="AQ52" s="58"/>
-      <c r="AR52" s="58"/>
-      <c r="AS52" s="58"/>
-      <c r="AT52" s="58"/>
-      <c r="AU52" s="58"/>
-      <c r="AV52" s="58"/>
-      <c r="AW52" s="58"/>
-      <c r="AX52" s="58"/>
-      <c r="AY52" s="58"/>
-      <c r="AZ52" s="58"/>
-      <c r="BA52" s="58"/>
-      <c r="BB52" s="58"/>
-      <c r="BC52" s="59"/>
-      <c r="BD52" s="59"/>
-      <c r="BE52" s="59"/>
-      <c r="BF52" s="59"/>
-      <c r="BG52" s="59"/>
-      <c r="BH52" s="59"/>
-      <c r="BI52" s="59"/>
-      <c r="BJ52" s="59"/>
-      <c r="BK52" s="59"/>
-      <c r="BL52" s="59"/>
-      <c r="BM52" s="59"/>
-      <c r="BN52" s="59"/>
-      <c r="BO52" s="59"/>
+      <c r="K52" s="116"/>
+      <c r="L52" s="116"/>
+      <c r="M52" s="116"/>
+      <c r="N52" s="116"/>
+      <c r="O52" s="116"/>
+      <c r="P52" s="116"/>
+      <c r="Q52" s="121"/>
+      <c r="R52" s="80"/>
+      <c r="S52" s="80"/>
+      <c r="T52" s="80"/>
+      <c r="U52" s="80"/>
+      <c r="V52" s="80"/>
+      <c r="W52" s="80"/>
+      <c r="X52" s="80"/>
+      <c r="Y52" s="80"/>
+      <c r="Z52" s="80"/>
+      <c r="AA52" s="80"/>
+      <c r="AB52" s="80"/>
+      <c r="AC52" s="80"/>
+      <c r="AD52" s="80"/>
+      <c r="AE52" s="80"/>
+      <c r="AF52" s="80"/>
+      <c r="AG52" s="80"/>
+      <c r="AH52" s="80"/>
+      <c r="AI52" s="80"/>
+      <c r="AJ52" s="80"/>
+      <c r="AK52" s="80"/>
+      <c r="AL52" s="80"/>
+      <c r="AM52" s="80"/>
+      <c r="AN52" s="80"/>
+      <c r="AO52" s="80"/>
+      <c r="AP52" s="80"/>
+      <c r="AQ52" s="81"/>
+      <c r="AR52" s="81"/>
+      <c r="AS52" s="81"/>
+      <c r="AT52" s="81"/>
+      <c r="AU52" s="81"/>
+      <c r="AV52" s="81"/>
+      <c r="AW52" s="81"/>
+      <c r="AX52" s="81"/>
+      <c r="AY52" s="81"/>
+      <c r="AZ52" s="81"/>
+      <c r="BA52" s="81"/>
+      <c r="BB52" s="81"/>
+      <c r="BC52" s="82"/>
+      <c r="BD52" s="82"/>
+      <c r="BE52" s="82"/>
+      <c r="BF52" s="82"/>
+      <c r="BG52" s="82"/>
+      <c r="BH52" s="82"/>
+      <c r="BI52" s="82"/>
+      <c r="BJ52" s="82"/>
+      <c r="BK52" s="82"/>
+      <c r="BL52" s="82"/>
+      <c r="BM52" s="82"/>
+      <c r="BN52" s="82"/>
+      <c r="BO52" s="82"/>
       <c r="BP52" s="2"/>
     </row>
     <row r="53" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
@@ -14611,75 +14615,75 @@
         <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>14</v>
       </c>
-      <c r="C53" s="129" t="s">
+      <c r="C53" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="D53" s="120"/>
-      <c r="E53" s="120"/>
-      <c r="F53" s="120"/>
-      <c r="G53" s="120"/>
-      <c r="H53" s="120"/>
-      <c r="I53" s="121"/>
-      <c r="J53" s="122" t="s">
+      <c r="D53" s="117"/>
+      <c r="E53" s="117"/>
+      <c r="F53" s="117"/>
+      <c r="G53" s="117"/>
+      <c r="H53" s="117"/>
+      <c r="I53" s="120"/>
+      <c r="J53" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="K53" s="123"/>
-      <c r="L53" s="123"/>
-      <c r="M53" s="123"/>
-      <c r="N53" s="123"/>
-      <c r="O53" s="123"/>
-      <c r="P53" s="123"/>
-      <c r="Q53" s="124"/>
-      <c r="R53" s="67"/>
-      <c r="S53" s="67"/>
-      <c r="T53" s="67"/>
-      <c r="U53" s="67"/>
-      <c r="V53" s="67"/>
-      <c r="W53" s="67"/>
-      <c r="X53" s="67"/>
-      <c r="Y53" s="67"/>
-      <c r="Z53" s="67"/>
-      <c r="AA53" s="67"/>
-      <c r="AB53" s="67"/>
-      <c r="AC53" s="67"/>
-      <c r="AD53" s="67"/>
-      <c r="AE53" s="67"/>
-      <c r="AF53" s="67"/>
-      <c r="AG53" s="67"/>
-      <c r="AH53" s="67"/>
-      <c r="AI53" s="67"/>
-      <c r="AJ53" s="67"/>
-      <c r="AK53" s="67"/>
-      <c r="AL53" s="67"/>
-      <c r="AM53" s="67"/>
-      <c r="AN53" s="67"/>
-      <c r="AO53" s="67"/>
-      <c r="AP53" s="67"/>
-      <c r="AQ53" s="58"/>
-      <c r="AR53" s="58"/>
-      <c r="AS53" s="58"/>
-      <c r="AT53" s="58"/>
-      <c r="AU53" s="58"/>
-      <c r="AV53" s="58"/>
-      <c r="AW53" s="58"/>
-      <c r="AX53" s="58"/>
-      <c r="AY53" s="58"/>
-      <c r="AZ53" s="58"/>
-      <c r="BA53" s="58"/>
-      <c r="BB53" s="58"/>
-      <c r="BC53" s="59"/>
-      <c r="BD53" s="59"/>
-      <c r="BE53" s="59"/>
-      <c r="BF53" s="59"/>
-      <c r="BG53" s="59"/>
-      <c r="BH53" s="59"/>
-      <c r="BI53" s="59"/>
-      <c r="BJ53" s="59"/>
-      <c r="BK53" s="59"/>
-      <c r="BL53" s="59"/>
-      <c r="BM53" s="59"/>
-      <c r="BN53" s="59"/>
-      <c r="BO53" s="59"/>
+      <c r="K53" s="116"/>
+      <c r="L53" s="116"/>
+      <c r="M53" s="116"/>
+      <c r="N53" s="116"/>
+      <c r="O53" s="116"/>
+      <c r="P53" s="116"/>
+      <c r="Q53" s="121"/>
+      <c r="R53" s="80"/>
+      <c r="S53" s="80"/>
+      <c r="T53" s="80"/>
+      <c r="U53" s="80"/>
+      <c r="V53" s="80"/>
+      <c r="W53" s="80"/>
+      <c r="X53" s="80"/>
+      <c r="Y53" s="80"/>
+      <c r="Z53" s="80"/>
+      <c r="AA53" s="80"/>
+      <c r="AB53" s="80"/>
+      <c r="AC53" s="80"/>
+      <c r="AD53" s="80"/>
+      <c r="AE53" s="80"/>
+      <c r="AF53" s="80"/>
+      <c r="AG53" s="80"/>
+      <c r="AH53" s="80"/>
+      <c r="AI53" s="80"/>
+      <c r="AJ53" s="80"/>
+      <c r="AK53" s="80"/>
+      <c r="AL53" s="80"/>
+      <c r="AM53" s="80"/>
+      <c r="AN53" s="80"/>
+      <c r="AO53" s="80"/>
+      <c r="AP53" s="80"/>
+      <c r="AQ53" s="81"/>
+      <c r="AR53" s="81"/>
+      <c r="AS53" s="81"/>
+      <c r="AT53" s="81"/>
+      <c r="AU53" s="81"/>
+      <c r="AV53" s="81"/>
+      <c r="AW53" s="81"/>
+      <c r="AX53" s="81"/>
+      <c r="AY53" s="81"/>
+      <c r="AZ53" s="81"/>
+      <c r="BA53" s="81"/>
+      <c r="BB53" s="81"/>
+      <c r="BC53" s="82"/>
+      <c r="BD53" s="82"/>
+      <c r="BE53" s="82"/>
+      <c r="BF53" s="82"/>
+      <c r="BG53" s="82"/>
+      <c r="BH53" s="82"/>
+      <c r="BI53" s="82"/>
+      <c r="BJ53" s="82"/>
+      <c r="BK53" s="82"/>
+      <c r="BL53" s="82"/>
+      <c r="BM53" s="82"/>
+      <c r="BN53" s="82"/>
+      <c r="BO53" s="82"/>
       <c r="BP53" s="2"/>
     </row>
     <row r="54" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
@@ -14688,75 +14692,75 @@
         <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>15</v>
       </c>
-      <c r="C54" s="129" t="s">
+      <c r="C54" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="D54" s="120"/>
-      <c r="E54" s="120"/>
-      <c r="F54" s="120"/>
-      <c r="G54" s="120"/>
-      <c r="H54" s="120"/>
-      <c r="I54" s="121"/>
-      <c r="J54" s="122" t="s">
+      <c r="D54" s="117"/>
+      <c r="E54" s="117"/>
+      <c r="F54" s="117"/>
+      <c r="G54" s="117"/>
+      <c r="H54" s="117"/>
+      <c r="I54" s="120"/>
+      <c r="J54" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="K54" s="123"/>
-      <c r="L54" s="123"/>
-      <c r="M54" s="123"/>
-      <c r="N54" s="123"/>
-      <c r="O54" s="123"/>
-      <c r="P54" s="123"/>
-      <c r="Q54" s="124"/>
-      <c r="R54" s="67"/>
-      <c r="S54" s="67"/>
-      <c r="T54" s="67"/>
-      <c r="U54" s="67"/>
-      <c r="V54" s="67"/>
-      <c r="W54" s="67"/>
-      <c r="X54" s="67"/>
-      <c r="Y54" s="67"/>
-      <c r="Z54" s="67"/>
-      <c r="AA54" s="67"/>
-      <c r="AB54" s="67"/>
-      <c r="AC54" s="67"/>
-      <c r="AD54" s="67"/>
-      <c r="AE54" s="67"/>
-      <c r="AF54" s="67"/>
-      <c r="AG54" s="67"/>
-      <c r="AH54" s="67"/>
-      <c r="AI54" s="67"/>
-      <c r="AJ54" s="67"/>
-      <c r="AK54" s="67"/>
-      <c r="AL54" s="67"/>
-      <c r="AM54" s="67"/>
-      <c r="AN54" s="67"/>
-      <c r="AO54" s="67"/>
-      <c r="AP54" s="67"/>
-      <c r="AQ54" s="58"/>
-      <c r="AR54" s="58"/>
-      <c r="AS54" s="58"/>
-      <c r="AT54" s="58"/>
-      <c r="AU54" s="58"/>
-      <c r="AV54" s="58"/>
-      <c r="AW54" s="58"/>
-      <c r="AX54" s="58"/>
-      <c r="AY54" s="58"/>
-      <c r="AZ54" s="58"/>
-      <c r="BA54" s="58"/>
-      <c r="BB54" s="58"/>
-      <c r="BC54" s="59"/>
-      <c r="BD54" s="59"/>
-      <c r="BE54" s="59"/>
-      <c r="BF54" s="59"/>
-      <c r="BG54" s="59"/>
-      <c r="BH54" s="59"/>
-      <c r="BI54" s="59"/>
-      <c r="BJ54" s="59"/>
-      <c r="BK54" s="59"/>
-      <c r="BL54" s="59"/>
-      <c r="BM54" s="59"/>
-      <c r="BN54" s="59"/>
-      <c r="BO54" s="59"/>
+      <c r="K54" s="116"/>
+      <c r="L54" s="116"/>
+      <c r="M54" s="116"/>
+      <c r="N54" s="116"/>
+      <c r="O54" s="116"/>
+      <c r="P54" s="116"/>
+      <c r="Q54" s="121"/>
+      <c r="R54" s="80"/>
+      <c r="S54" s="80"/>
+      <c r="T54" s="80"/>
+      <c r="U54" s="80"/>
+      <c r="V54" s="80"/>
+      <c r="W54" s="80"/>
+      <c r="X54" s="80"/>
+      <c r="Y54" s="80"/>
+      <c r="Z54" s="80"/>
+      <c r="AA54" s="80"/>
+      <c r="AB54" s="80"/>
+      <c r="AC54" s="80"/>
+      <c r="AD54" s="80"/>
+      <c r="AE54" s="80"/>
+      <c r="AF54" s="80"/>
+      <c r="AG54" s="80"/>
+      <c r="AH54" s="80"/>
+      <c r="AI54" s="80"/>
+      <c r="AJ54" s="80"/>
+      <c r="AK54" s="80"/>
+      <c r="AL54" s="80"/>
+      <c r="AM54" s="80"/>
+      <c r="AN54" s="80"/>
+      <c r="AO54" s="80"/>
+      <c r="AP54" s="80"/>
+      <c r="AQ54" s="81"/>
+      <c r="AR54" s="81"/>
+      <c r="AS54" s="81"/>
+      <c r="AT54" s="81"/>
+      <c r="AU54" s="81"/>
+      <c r="AV54" s="81"/>
+      <c r="AW54" s="81"/>
+      <c r="AX54" s="81"/>
+      <c r="AY54" s="81"/>
+      <c r="AZ54" s="81"/>
+      <c r="BA54" s="81"/>
+      <c r="BB54" s="81"/>
+      <c r="BC54" s="82"/>
+      <c r="BD54" s="82"/>
+      <c r="BE54" s="82"/>
+      <c r="BF54" s="82"/>
+      <c r="BG54" s="82"/>
+      <c r="BH54" s="82"/>
+      <c r="BI54" s="82"/>
+      <c r="BJ54" s="82"/>
+      <c r="BK54" s="82"/>
+      <c r="BL54" s="82"/>
+      <c r="BM54" s="82"/>
+      <c r="BN54" s="82"/>
+      <c r="BO54" s="82"/>
       <c r="BP54" s="2"/>
     </row>
     <row r="55" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
@@ -14765,75 +14769,75 @@
         <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>16</v>
       </c>
-      <c r="C55" s="129" t="s">
+      <c r="C55" s="119" t="s">
         <v>106</v>
       </c>
-      <c r="D55" s="120"/>
-      <c r="E55" s="120"/>
-      <c r="F55" s="120"/>
-      <c r="G55" s="120"/>
-      <c r="H55" s="120"/>
-      <c r="I55" s="121"/>
-      <c r="J55" s="122" t="s">
+      <c r="D55" s="117"/>
+      <c r="E55" s="117"/>
+      <c r="F55" s="117"/>
+      <c r="G55" s="117"/>
+      <c r="H55" s="117"/>
+      <c r="I55" s="120"/>
+      <c r="J55" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="K55" s="123"/>
-      <c r="L55" s="123"/>
-      <c r="M55" s="123"/>
-      <c r="N55" s="123"/>
-      <c r="O55" s="123"/>
-      <c r="P55" s="123"/>
-      <c r="Q55" s="124"/>
-      <c r="R55" s="67"/>
-      <c r="S55" s="67"/>
-      <c r="T55" s="67"/>
-      <c r="U55" s="67"/>
-      <c r="V55" s="67"/>
-      <c r="W55" s="67"/>
-      <c r="X55" s="67"/>
-      <c r="Y55" s="67"/>
-      <c r="Z55" s="67"/>
-      <c r="AA55" s="67"/>
-      <c r="AB55" s="67"/>
-      <c r="AC55" s="67"/>
-      <c r="AD55" s="67"/>
-      <c r="AE55" s="67"/>
-      <c r="AF55" s="67"/>
-      <c r="AG55" s="67"/>
-      <c r="AH55" s="67"/>
-      <c r="AI55" s="67"/>
-      <c r="AJ55" s="67"/>
-      <c r="AK55" s="67"/>
-      <c r="AL55" s="67"/>
-      <c r="AM55" s="67"/>
-      <c r="AN55" s="67"/>
-      <c r="AO55" s="67"/>
-      <c r="AP55" s="67"/>
-      <c r="AQ55" s="58"/>
-      <c r="AR55" s="58"/>
-      <c r="AS55" s="58"/>
-      <c r="AT55" s="58"/>
-      <c r="AU55" s="58"/>
-      <c r="AV55" s="58"/>
-      <c r="AW55" s="58"/>
-      <c r="AX55" s="58"/>
-      <c r="AY55" s="58"/>
-      <c r="AZ55" s="58"/>
-      <c r="BA55" s="58"/>
-      <c r="BB55" s="58"/>
-      <c r="BC55" s="59"/>
-      <c r="BD55" s="59"/>
-      <c r="BE55" s="59"/>
-      <c r="BF55" s="59"/>
-      <c r="BG55" s="59"/>
-      <c r="BH55" s="59"/>
-      <c r="BI55" s="59"/>
-      <c r="BJ55" s="59"/>
-      <c r="BK55" s="59"/>
-      <c r="BL55" s="59"/>
-      <c r="BM55" s="59"/>
-      <c r="BN55" s="59"/>
-      <c r="BO55" s="59"/>
+      <c r="K55" s="116"/>
+      <c r="L55" s="116"/>
+      <c r="M55" s="116"/>
+      <c r="N55" s="116"/>
+      <c r="O55" s="116"/>
+      <c r="P55" s="116"/>
+      <c r="Q55" s="121"/>
+      <c r="R55" s="80"/>
+      <c r="S55" s="80"/>
+      <c r="T55" s="80"/>
+      <c r="U55" s="80"/>
+      <c r="V55" s="80"/>
+      <c r="W55" s="80"/>
+      <c r="X55" s="80"/>
+      <c r="Y55" s="80"/>
+      <c r="Z55" s="80"/>
+      <c r="AA55" s="80"/>
+      <c r="AB55" s="80"/>
+      <c r="AC55" s="80"/>
+      <c r="AD55" s="80"/>
+      <c r="AE55" s="80"/>
+      <c r="AF55" s="80"/>
+      <c r="AG55" s="80"/>
+      <c r="AH55" s="80"/>
+      <c r="AI55" s="80"/>
+      <c r="AJ55" s="80"/>
+      <c r="AK55" s="80"/>
+      <c r="AL55" s="80"/>
+      <c r="AM55" s="80"/>
+      <c r="AN55" s="80"/>
+      <c r="AO55" s="80"/>
+      <c r="AP55" s="80"/>
+      <c r="AQ55" s="81"/>
+      <c r="AR55" s="81"/>
+      <c r="AS55" s="81"/>
+      <c r="AT55" s="81"/>
+      <c r="AU55" s="81"/>
+      <c r="AV55" s="81"/>
+      <c r="AW55" s="81"/>
+      <c r="AX55" s="81"/>
+      <c r="AY55" s="81"/>
+      <c r="AZ55" s="81"/>
+      <c r="BA55" s="81"/>
+      <c r="BB55" s="81"/>
+      <c r="BC55" s="82"/>
+      <c r="BD55" s="82"/>
+      <c r="BE55" s="82"/>
+      <c r="BF55" s="82"/>
+      <c r="BG55" s="82"/>
+      <c r="BH55" s="82"/>
+      <c r="BI55" s="82"/>
+      <c r="BJ55" s="82"/>
+      <c r="BK55" s="82"/>
+      <c r="BL55" s="82"/>
+      <c r="BM55" s="82"/>
+      <c r="BN55" s="82"/>
+      <c r="BO55" s="82"/>
       <c r="BP55" s="2"/>
     </row>
     <row r="56" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
@@ -14842,77 +14846,77 @@
         <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>17</v>
       </c>
-      <c r="C56" s="129" t="s">
+      <c r="C56" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="D56" s="120"/>
-      <c r="E56" s="120"/>
-      <c r="F56" s="120"/>
-      <c r="G56" s="120"/>
-      <c r="H56" s="120"/>
-      <c r="I56" s="121"/>
-      <c r="J56" s="122" t="s">
+      <c r="D56" s="117"/>
+      <c r="E56" s="117"/>
+      <c r="F56" s="117"/>
+      <c r="G56" s="117"/>
+      <c r="H56" s="117"/>
+      <c r="I56" s="120"/>
+      <c r="J56" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="K56" s="123"/>
-      <c r="L56" s="123"/>
-      <c r="M56" s="123"/>
-      <c r="N56" s="123"/>
-      <c r="O56" s="123"/>
-      <c r="P56" s="123"/>
-      <c r="Q56" s="124"/>
-      <c r="R56" s="67" t="s">
+      <c r="K56" s="116"/>
+      <c r="L56" s="116"/>
+      <c r="M56" s="116"/>
+      <c r="N56" s="116"/>
+      <c r="O56" s="116"/>
+      <c r="P56" s="116"/>
+      <c r="Q56" s="121"/>
+      <c r="R56" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="S56" s="67"/>
-      <c r="T56" s="67"/>
-      <c r="U56" s="67"/>
-      <c r="V56" s="67"/>
-      <c r="W56" s="67"/>
-      <c r="X56" s="67"/>
-      <c r="Y56" s="67"/>
-      <c r="Z56" s="67"/>
-      <c r="AA56" s="67"/>
-      <c r="AB56" s="67"/>
-      <c r="AC56" s="67"/>
-      <c r="AD56" s="67"/>
-      <c r="AE56" s="67"/>
-      <c r="AF56" s="67"/>
-      <c r="AG56" s="67"/>
-      <c r="AH56" s="67"/>
-      <c r="AI56" s="67"/>
-      <c r="AJ56" s="67"/>
-      <c r="AK56" s="67"/>
-      <c r="AL56" s="67"/>
-      <c r="AM56" s="67"/>
-      <c r="AN56" s="67"/>
-      <c r="AO56" s="67"/>
-      <c r="AP56" s="67"/>
-      <c r="AQ56" s="58"/>
-      <c r="AR56" s="58"/>
-      <c r="AS56" s="58"/>
-      <c r="AT56" s="58"/>
-      <c r="AU56" s="58"/>
-      <c r="AV56" s="58"/>
-      <c r="AW56" s="58"/>
-      <c r="AX56" s="58"/>
-      <c r="AY56" s="58"/>
-      <c r="AZ56" s="58"/>
-      <c r="BA56" s="58"/>
-      <c r="BB56" s="58"/>
-      <c r="BC56" s="59"/>
-      <c r="BD56" s="59"/>
-      <c r="BE56" s="59"/>
-      <c r="BF56" s="59"/>
-      <c r="BG56" s="59"/>
-      <c r="BH56" s="59"/>
-      <c r="BI56" s="59"/>
-      <c r="BJ56" s="59"/>
-      <c r="BK56" s="59"/>
-      <c r="BL56" s="59"/>
-      <c r="BM56" s="59"/>
-      <c r="BN56" s="59"/>
-      <c r="BO56" s="59"/>
+      <c r="S56" s="80"/>
+      <c r="T56" s="80"/>
+      <c r="U56" s="80"/>
+      <c r="V56" s="80"/>
+      <c r="W56" s="80"/>
+      <c r="X56" s="80"/>
+      <c r="Y56" s="80"/>
+      <c r="Z56" s="80"/>
+      <c r="AA56" s="80"/>
+      <c r="AB56" s="80"/>
+      <c r="AC56" s="80"/>
+      <c r="AD56" s="80"/>
+      <c r="AE56" s="80"/>
+      <c r="AF56" s="80"/>
+      <c r="AG56" s="80"/>
+      <c r="AH56" s="80"/>
+      <c r="AI56" s="80"/>
+      <c r="AJ56" s="80"/>
+      <c r="AK56" s="80"/>
+      <c r="AL56" s="80"/>
+      <c r="AM56" s="80"/>
+      <c r="AN56" s="80"/>
+      <c r="AO56" s="80"/>
+      <c r="AP56" s="80"/>
+      <c r="AQ56" s="81"/>
+      <c r="AR56" s="81"/>
+      <c r="AS56" s="81"/>
+      <c r="AT56" s="81"/>
+      <c r="AU56" s="81"/>
+      <c r="AV56" s="81"/>
+      <c r="AW56" s="81"/>
+      <c r="AX56" s="81"/>
+      <c r="AY56" s="81"/>
+      <c r="AZ56" s="81"/>
+      <c r="BA56" s="81"/>
+      <c r="BB56" s="81"/>
+      <c r="BC56" s="82"/>
+      <c r="BD56" s="82"/>
+      <c r="BE56" s="82"/>
+      <c r="BF56" s="82"/>
+      <c r="BG56" s="82"/>
+      <c r="BH56" s="82"/>
+      <c r="BI56" s="82"/>
+      <c r="BJ56" s="82"/>
+      <c r="BK56" s="82"/>
+      <c r="BL56" s="82"/>
+      <c r="BM56" s="82"/>
+      <c r="BN56" s="82"/>
+      <c r="BO56" s="82"/>
       <c r="BP56" s="2"/>
     </row>
     <row r="57" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
@@ -14921,77 +14925,77 @@
         <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>18</v>
       </c>
-      <c r="C57" s="130" t="s">
+      <c r="C57" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="D57" s="131"/>
-      <c r="E57" s="131"/>
-      <c r="F57" s="131"/>
-      <c r="G57" s="131"/>
-      <c r="H57" s="131"/>
-      <c r="I57" s="132"/>
-      <c r="J57" s="122" t="s">
+      <c r="D57" s="113"/>
+      <c r="E57" s="113"/>
+      <c r="F57" s="113"/>
+      <c r="G57" s="113"/>
+      <c r="H57" s="113"/>
+      <c r="I57" s="114"/>
+      <c r="J57" s="115" t="s">
         <v>110</v>
       </c>
-      <c r="K57" s="123"/>
-      <c r="L57" s="123"/>
-      <c r="M57" s="123"/>
-      <c r="N57" s="123"/>
-      <c r="O57" s="123"/>
-      <c r="P57" s="123"/>
-      <c r="Q57" s="124"/>
-      <c r="R57" s="67" t="s">
+      <c r="K57" s="116"/>
+      <c r="L57" s="116"/>
+      <c r="M57" s="116"/>
+      <c r="N57" s="116"/>
+      <c r="O57" s="116"/>
+      <c r="P57" s="116"/>
+      <c r="Q57" s="121"/>
+      <c r="R57" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="S57" s="67"/>
-      <c r="T57" s="67"/>
-      <c r="U57" s="67"/>
-      <c r="V57" s="67"/>
-      <c r="W57" s="67"/>
-      <c r="X57" s="67"/>
-      <c r="Y57" s="67"/>
-      <c r="Z57" s="67"/>
-      <c r="AA57" s="67"/>
-      <c r="AB57" s="67"/>
-      <c r="AC57" s="67"/>
-      <c r="AD57" s="67"/>
-      <c r="AE57" s="67"/>
-      <c r="AF57" s="67"/>
-      <c r="AG57" s="67"/>
-      <c r="AH57" s="67"/>
-      <c r="AI57" s="67"/>
-      <c r="AJ57" s="67"/>
-      <c r="AK57" s="67"/>
-      <c r="AL57" s="67"/>
-      <c r="AM57" s="67"/>
-      <c r="AN57" s="67"/>
-      <c r="AO57" s="67"/>
-      <c r="AP57" s="67"/>
-      <c r="AQ57" s="58"/>
-      <c r="AR57" s="58"/>
-      <c r="AS57" s="58"/>
-      <c r="AT57" s="58"/>
-      <c r="AU57" s="58"/>
-      <c r="AV57" s="58"/>
-      <c r="AW57" s="58"/>
-      <c r="AX57" s="58"/>
-      <c r="AY57" s="58"/>
-      <c r="AZ57" s="58"/>
-      <c r="BA57" s="58"/>
-      <c r="BB57" s="58"/>
-      <c r="BC57" s="59"/>
-      <c r="BD57" s="59"/>
-      <c r="BE57" s="59"/>
-      <c r="BF57" s="59"/>
-      <c r="BG57" s="59"/>
-      <c r="BH57" s="59"/>
-      <c r="BI57" s="59"/>
-      <c r="BJ57" s="59"/>
-      <c r="BK57" s="59"/>
-      <c r="BL57" s="59"/>
-      <c r="BM57" s="59"/>
-      <c r="BN57" s="59"/>
-      <c r="BO57" s="59"/>
+      <c r="S57" s="80"/>
+      <c r="T57" s="80"/>
+      <c r="U57" s="80"/>
+      <c r="V57" s="80"/>
+      <c r="W57" s="80"/>
+      <c r="X57" s="80"/>
+      <c r="Y57" s="80"/>
+      <c r="Z57" s="80"/>
+      <c r="AA57" s="80"/>
+      <c r="AB57" s="80"/>
+      <c r="AC57" s="80"/>
+      <c r="AD57" s="80"/>
+      <c r="AE57" s="80"/>
+      <c r="AF57" s="80"/>
+      <c r="AG57" s="80"/>
+      <c r="AH57" s="80"/>
+      <c r="AI57" s="80"/>
+      <c r="AJ57" s="80"/>
+      <c r="AK57" s="80"/>
+      <c r="AL57" s="80"/>
+      <c r="AM57" s="80"/>
+      <c r="AN57" s="80"/>
+      <c r="AO57" s="80"/>
+      <c r="AP57" s="80"/>
+      <c r="AQ57" s="81"/>
+      <c r="AR57" s="81"/>
+      <c r="AS57" s="81"/>
+      <c r="AT57" s="81"/>
+      <c r="AU57" s="81"/>
+      <c r="AV57" s="81"/>
+      <c r="AW57" s="81"/>
+      <c r="AX57" s="81"/>
+      <c r="AY57" s="81"/>
+      <c r="AZ57" s="81"/>
+      <c r="BA57" s="81"/>
+      <c r="BB57" s="81"/>
+      <c r="BC57" s="82"/>
+      <c r="BD57" s="82"/>
+      <c r="BE57" s="82"/>
+      <c r="BF57" s="82"/>
+      <c r="BG57" s="82"/>
+      <c r="BH57" s="82"/>
+      <c r="BI57" s="82"/>
+      <c r="BJ57" s="82"/>
+      <c r="BK57" s="82"/>
+      <c r="BL57" s="82"/>
+      <c r="BM57" s="82"/>
+      <c r="BN57" s="82"/>
+      <c r="BO57" s="82"/>
       <c r="BP57" s="2"/>
     </row>
     <row r="58" spans="1:68" s="20" customFormat="1" ht="16.5" outlineLevel="1">
@@ -15000,77 +15004,77 @@
         <f ca="1">MAX(B$36:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>19</v>
       </c>
-      <c r="C58" s="130" t="s">
+      <c r="C58" s="112" t="s">
         <v>109</v>
       </c>
-      <c r="D58" s="131"/>
-      <c r="E58" s="131"/>
-      <c r="F58" s="131"/>
-      <c r="G58" s="131"/>
-      <c r="H58" s="131"/>
-      <c r="I58" s="132"/>
-      <c r="J58" s="122" t="s">
+      <c r="D58" s="113"/>
+      <c r="E58" s="113"/>
+      <c r="F58" s="113"/>
+      <c r="G58" s="113"/>
+      <c r="H58" s="113"/>
+      <c r="I58" s="114"/>
+      <c r="J58" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="K58" s="123"/>
-      <c r="L58" s="123"/>
-      <c r="M58" s="123"/>
-      <c r="N58" s="123"/>
-      <c r="O58" s="123"/>
-      <c r="P58" s="123"/>
-      <c r="Q58" s="120"/>
-      <c r="R58" s="128" t="s">
+      <c r="K58" s="116"/>
+      <c r="L58" s="116"/>
+      <c r="M58" s="116"/>
+      <c r="N58" s="116"/>
+      <c r="O58" s="116"/>
+      <c r="P58" s="116"/>
+      <c r="Q58" s="117"/>
+      <c r="R58" s="118" t="s">
         <v>176</v>
       </c>
-      <c r="S58" s="128"/>
-      <c r="T58" s="128"/>
-      <c r="U58" s="128"/>
-      <c r="V58" s="128"/>
-      <c r="W58" s="128"/>
-      <c r="X58" s="128"/>
-      <c r="Y58" s="128"/>
-      <c r="Z58" s="128"/>
-      <c r="AA58" s="128"/>
-      <c r="AB58" s="128"/>
-      <c r="AC58" s="128"/>
-      <c r="AD58" s="128"/>
-      <c r="AE58" s="128"/>
-      <c r="AF58" s="128"/>
-      <c r="AG58" s="128"/>
-      <c r="AH58" s="128"/>
-      <c r="AI58" s="128"/>
-      <c r="AJ58" s="128"/>
-      <c r="AK58" s="128"/>
-      <c r="AL58" s="128"/>
-      <c r="AM58" s="128"/>
-      <c r="AN58" s="128"/>
-      <c r="AO58" s="128"/>
-      <c r="AP58" s="128"/>
-      <c r="AQ58" s="58"/>
-      <c r="AR58" s="58"/>
-      <c r="AS58" s="58"/>
-      <c r="AT58" s="58"/>
-      <c r="AU58" s="58"/>
-      <c r="AV58" s="58"/>
-      <c r="AW58" s="58"/>
-      <c r="AX58" s="58"/>
-      <c r="AY58" s="58"/>
-      <c r="AZ58" s="58"/>
-      <c r="BA58" s="58"/>
-      <c r="BB58" s="58"/>
-      <c r="BC58" s="59"/>
-      <c r="BD58" s="59"/>
-      <c r="BE58" s="59"/>
-      <c r="BF58" s="59"/>
-      <c r="BG58" s="59"/>
-      <c r="BH58" s="59"/>
-      <c r="BI58" s="59"/>
-      <c r="BJ58" s="59"/>
-      <c r="BK58" s="59"/>
-      <c r="BL58" s="59"/>
-      <c r="BM58" s="59"/>
-      <c r="BN58" s="59"/>
-      <c r="BO58" s="59"/>
+      <c r="S58" s="118"/>
+      <c r="T58" s="118"/>
+      <c r="U58" s="118"/>
+      <c r="V58" s="118"/>
+      <c r="W58" s="118"/>
+      <c r="X58" s="118"/>
+      <c r="Y58" s="118"/>
+      <c r="Z58" s="118"/>
+      <c r="AA58" s="118"/>
+      <c r="AB58" s="118"/>
+      <c r="AC58" s="118"/>
+      <c r="AD58" s="118"/>
+      <c r="AE58" s="118"/>
+      <c r="AF58" s="118"/>
+      <c r="AG58" s="118"/>
+      <c r="AH58" s="118"/>
+      <c r="AI58" s="118"/>
+      <c r="AJ58" s="118"/>
+      <c r="AK58" s="118"/>
+      <c r="AL58" s="118"/>
+      <c r="AM58" s="118"/>
+      <c r="AN58" s="118"/>
+      <c r="AO58" s="118"/>
+      <c r="AP58" s="118"/>
+      <c r="AQ58" s="81"/>
+      <c r="AR58" s="81"/>
+      <c r="AS58" s="81"/>
+      <c r="AT58" s="81"/>
+      <c r="AU58" s="81"/>
+      <c r="AV58" s="81"/>
+      <c r="AW58" s="81"/>
+      <c r="AX58" s="81"/>
+      <c r="AY58" s="81"/>
+      <c r="AZ58" s="81"/>
+      <c r="BA58" s="81"/>
+      <c r="BB58" s="81"/>
+      <c r="BC58" s="82"/>
+      <c r="BD58" s="82"/>
+      <c r="BE58" s="82"/>
+      <c r="BF58" s="82"/>
+      <c r="BG58" s="82"/>
+      <c r="BH58" s="82"/>
+      <c r="BI58" s="82"/>
+      <c r="BJ58" s="82"/>
+      <c r="BK58" s="82"/>
+      <c r="BL58" s="82"/>
+      <c r="BM58" s="82"/>
+      <c r="BN58" s="82"/>
+      <c r="BO58" s="82"/>
       <c r="BP58" s="2"/>
     </row>
     <row r="59" spans="1:68" ht="16.5">
@@ -17803,6 +17807,162 @@
     </row>
   </sheetData>
   <mergeCells count="177">
+    <mergeCell ref="B34:AR34"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:I39"/>
+    <mergeCell ref="J38:Q39"/>
+    <mergeCell ref="R38:AH39"/>
+    <mergeCell ref="AI38:AP39"/>
+    <mergeCell ref="AQ38:BO38"/>
+    <mergeCell ref="AQ39:AW39"/>
+    <mergeCell ref="AX39:BB39"/>
+    <mergeCell ref="BC39:BO39"/>
+    <mergeCell ref="B3:AD22"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="R26:W26"/>
+    <mergeCell ref="X26:AA26"/>
+    <mergeCell ref="AB26:AH26"/>
+    <mergeCell ref="AI26:AR26"/>
+    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="R28:W28"/>
+    <mergeCell ref="X28:AA28"/>
+    <mergeCell ref="AB28:AH28"/>
+    <mergeCell ref="AI28:AR28"/>
+    <mergeCell ref="AX40:BB40"/>
+    <mergeCell ref="BC40:BO40"/>
+    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="J41:Q41"/>
+    <mergeCell ref="R41:AH41"/>
+    <mergeCell ref="AI41:AP41"/>
+    <mergeCell ref="AQ41:AW41"/>
+    <mergeCell ref="AX41:BB41"/>
+    <mergeCell ref="BC41:BO41"/>
+    <mergeCell ref="C40:I40"/>
+    <mergeCell ref="J40:Q40"/>
+    <mergeCell ref="R40:AH40"/>
+    <mergeCell ref="AI40:AP40"/>
+    <mergeCell ref="AQ40:AW40"/>
+    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="J42:Q42"/>
+    <mergeCell ref="R42:AH42"/>
+    <mergeCell ref="AI42:AP42"/>
+    <mergeCell ref="AQ42:AW42"/>
+    <mergeCell ref="AX42:BB42"/>
+    <mergeCell ref="BC42:BO42"/>
+    <mergeCell ref="C43:I43"/>
+    <mergeCell ref="J43:Q43"/>
+    <mergeCell ref="R43:AH43"/>
+    <mergeCell ref="AI43:AP43"/>
+    <mergeCell ref="AQ43:AW43"/>
+    <mergeCell ref="AX43:BB43"/>
+    <mergeCell ref="BC43:BO43"/>
+    <mergeCell ref="C44:I44"/>
+    <mergeCell ref="J44:Q44"/>
+    <mergeCell ref="R44:AH44"/>
+    <mergeCell ref="AI44:AP44"/>
+    <mergeCell ref="AQ44:AW44"/>
+    <mergeCell ref="AX44:BB44"/>
+    <mergeCell ref="BC44:BO44"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="J45:Q45"/>
+    <mergeCell ref="R45:AH45"/>
+    <mergeCell ref="AI45:AP45"/>
+    <mergeCell ref="AQ45:AW45"/>
+    <mergeCell ref="AX45:BB45"/>
+    <mergeCell ref="BC45:BO45"/>
+    <mergeCell ref="C46:I46"/>
+    <mergeCell ref="J46:Q46"/>
+    <mergeCell ref="R46:AH46"/>
+    <mergeCell ref="AI46:AP46"/>
+    <mergeCell ref="AQ46:AW46"/>
+    <mergeCell ref="AX46:BB46"/>
+    <mergeCell ref="BC46:BO46"/>
+    <mergeCell ref="C47:I47"/>
+    <mergeCell ref="J47:Q47"/>
+    <mergeCell ref="R47:AH47"/>
+    <mergeCell ref="AI47:AP47"/>
+    <mergeCell ref="AQ47:AW47"/>
+    <mergeCell ref="AX47:BB47"/>
+    <mergeCell ref="BC47:BO47"/>
+    <mergeCell ref="C48:I48"/>
+    <mergeCell ref="J48:Q48"/>
+    <mergeCell ref="R48:AH48"/>
+    <mergeCell ref="AI48:AP48"/>
+    <mergeCell ref="AQ48:AW48"/>
+    <mergeCell ref="AX48:BB48"/>
+    <mergeCell ref="BC48:BO48"/>
+    <mergeCell ref="C49:I49"/>
+    <mergeCell ref="J49:Q49"/>
+    <mergeCell ref="R49:AH49"/>
+    <mergeCell ref="AI49:AP49"/>
+    <mergeCell ref="AQ49:AW49"/>
+    <mergeCell ref="AX49:BB49"/>
+    <mergeCell ref="BC49:BO49"/>
+    <mergeCell ref="C50:I50"/>
+    <mergeCell ref="J50:Q50"/>
+    <mergeCell ref="R50:AH50"/>
+    <mergeCell ref="AI50:AP50"/>
+    <mergeCell ref="AQ50:AW50"/>
+    <mergeCell ref="AX50:BB50"/>
+    <mergeCell ref="BC50:BO50"/>
+    <mergeCell ref="C51:I51"/>
+    <mergeCell ref="J51:Q51"/>
+    <mergeCell ref="R51:AH51"/>
+    <mergeCell ref="AI51:AP51"/>
+    <mergeCell ref="AQ51:AW51"/>
+    <mergeCell ref="AX51:BB51"/>
+    <mergeCell ref="BC51:BO51"/>
+    <mergeCell ref="C52:I52"/>
+    <mergeCell ref="J52:Q52"/>
+    <mergeCell ref="R52:AH52"/>
+    <mergeCell ref="AI52:AP52"/>
+    <mergeCell ref="AQ52:AW52"/>
+    <mergeCell ref="AX52:BB52"/>
+    <mergeCell ref="BC52:BO52"/>
+    <mergeCell ref="C53:I53"/>
+    <mergeCell ref="J53:Q53"/>
+    <mergeCell ref="R53:AH53"/>
+    <mergeCell ref="AI53:AP53"/>
+    <mergeCell ref="AQ53:AW53"/>
+    <mergeCell ref="AX53:BB53"/>
+    <mergeCell ref="BC53:BO53"/>
+    <mergeCell ref="C54:I54"/>
+    <mergeCell ref="J54:Q54"/>
+    <mergeCell ref="R54:AH54"/>
+    <mergeCell ref="AI54:AP54"/>
+    <mergeCell ref="AQ54:AW54"/>
+    <mergeCell ref="AX54:BB54"/>
+    <mergeCell ref="BC54:BO54"/>
+    <mergeCell ref="C55:I55"/>
+    <mergeCell ref="J55:Q55"/>
+    <mergeCell ref="R55:AH55"/>
+    <mergeCell ref="AI55:AP55"/>
+    <mergeCell ref="AQ55:AW55"/>
+    <mergeCell ref="AX55:BB55"/>
+    <mergeCell ref="BC55:BO55"/>
+    <mergeCell ref="C58:I58"/>
+    <mergeCell ref="J58:Q58"/>
+    <mergeCell ref="R58:AH58"/>
+    <mergeCell ref="AI58:AP58"/>
+    <mergeCell ref="AQ58:AW58"/>
+    <mergeCell ref="AX58:BB58"/>
+    <mergeCell ref="BC58:BO58"/>
+    <mergeCell ref="C56:I56"/>
+    <mergeCell ref="J56:Q56"/>
+    <mergeCell ref="R56:AH56"/>
+    <mergeCell ref="AI56:AP56"/>
+    <mergeCell ref="AQ56:AW56"/>
+    <mergeCell ref="AX56:BB56"/>
+    <mergeCell ref="BC56:BO56"/>
+    <mergeCell ref="C57:I57"/>
+    <mergeCell ref="J57:Q57"/>
+    <mergeCell ref="R57:AH57"/>
+    <mergeCell ref="AI57:AP57"/>
+    <mergeCell ref="AQ57:AW57"/>
+    <mergeCell ref="AX57:BB57"/>
+    <mergeCell ref="BC57:BO57"/>
     <mergeCell ref="C33:K33"/>
     <mergeCell ref="L33:Q33"/>
     <mergeCell ref="R33:W33"/>
@@ -17824,162 +17984,6 @@
     <mergeCell ref="AI30:AR30"/>
     <mergeCell ref="C30:K30"/>
     <mergeCell ref="B29:AR29"/>
-    <mergeCell ref="C58:I58"/>
-    <mergeCell ref="J58:Q58"/>
-    <mergeCell ref="R58:AH58"/>
-    <mergeCell ref="AI58:AP58"/>
-    <mergeCell ref="AQ58:AW58"/>
-    <mergeCell ref="AX58:BB58"/>
-    <mergeCell ref="BC58:BO58"/>
-    <mergeCell ref="C56:I56"/>
-    <mergeCell ref="J56:Q56"/>
-    <mergeCell ref="R56:AH56"/>
-    <mergeCell ref="AI56:AP56"/>
-    <mergeCell ref="AQ56:AW56"/>
-    <mergeCell ref="AX56:BB56"/>
-    <mergeCell ref="BC56:BO56"/>
-    <mergeCell ref="C57:I57"/>
-    <mergeCell ref="J57:Q57"/>
-    <mergeCell ref="R57:AH57"/>
-    <mergeCell ref="AI57:AP57"/>
-    <mergeCell ref="AQ57:AW57"/>
-    <mergeCell ref="AX57:BB57"/>
-    <mergeCell ref="BC57:BO57"/>
-    <mergeCell ref="C54:I54"/>
-    <mergeCell ref="J54:Q54"/>
-    <mergeCell ref="R54:AH54"/>
-    <mergeCell ref="AI54:AP54"/>
-    <mergeCell ref="AQ54:AW54"/>
-    <mergeCell ref="AX54:BB54"/>
-    <mergeCell ref="BC54:BO54"/>
-    <mergeCell ref="C55:I55"/>
-    <mergeCell ref="J55:Q55"/>
-    <mergeCell ref="R55:AH55"/>
-    <mergeCell ref="AI55:AP55"/>
-    <mergeCell ref="AQ55:AW55"/>
-    <mergeCell ref="AX55:BB55"/>
-    <mergeCell ref="BC55:BO55"/>
-    <mergeCell ref="C52:I52"/>
-    <mergeCell ref="J52:Q52"/>
-    <mergeCell ref="R52:AH52"/>
-    <mergeCell ref="AI52:AP52"/>
-    <mergeCell ref="AQ52:AW52"/>
-    <mergeCell ref="AX52:BB52"/>
-    <mergeCell ref="BC52:BO52"/>
-    <mergeCell ref="C53:I53"/>
-    <mergeCell ref="J53:Q53"/>
-    <mergeCell ref="R53:AH53"/>
-    <mergeCell ref="AI53:AP53"/>
-    <mergeCell ref="AQ53:AW53"/>
-    <mergeCell ref="AX53:BB53"/>
-    <mergeCell ref="BC53:BO53"/>
-    <mergeCell ref="C50:I50"/>
-    <mergeCell ref="J50:Q50"/>
-    <mergeCell ref="R50:AH50"/>
-    <mergeCell ref="AI50:AP50"/>
-    <mergeCell ref="AQ50:AW50"/>
-    <mergeCell ref="AX50:BB50"/>
-    <mergeCell ref="BC50:BO50"/>
-    <mergeCell ref="C51:I51"/>
-    <mergeCell ref="J51:Q51"/>
-    <mergeCell ref="R51:AH51"/>
-    <mergeCell ref="AI51:AP51"/>
-    <mergeCell ref="AQ51:AW51"/>
-    <mergeCell ref="AX51:BB51"/>
-    <mergeCell ref="BC51:BO51"/>
-    <mergeCell ref="C48:I48"/>
-    <mergeCell ref="J48:Q48"/>
-    <mergeCell ref="R48:AH48"/>
-    <mergeCell ref="AI48:AP48"/>
-    <mergeCell ref="AQ48:AW48"/>
-    <mergeCell ref="AX48:BB48"/>
-    <mergeCell ref="BC48:BO48"/>
-    <mergeCell ref="C49:I49"/>
-    <mergeCell ref="J49:Q49"/>
-    <mergeCell ref="R49:AH49"/>
-    <mergeCell ref="AI49:AP49"/>
-    <mergeCell ref="AQ49:AW49"/>
-    <mergeCell ref="AX49:BB49"/>
-    <mergeCell ref="BC49:BO49"/>
-    <mergeCell ref="C46:I46"/>
-    <mergeCell ref="J46:Q46"/>
-    <mergeCell ref="R46:AH46"/>
-    <mergeCell ref="AI46:AP46"/>
-    <mergeCell ref="AQ46:AW46"/>
-    <mergeCell ref="AX46:BB46"/>
-    <mergeCell ref="BC46:BO46"/>
-    <mergeCell ref="C47:I47"/>
-    <mergeCell ref="J47:Q47"/>
-    <mergeCell ref="R47:AH47"/>
-    <mergeCell ref="AI47:AP47"/>
-    <mergeCell ref="AQ47:AW47"/>
-    <mergeCell ref="AX47:BB47"/>
-    <mergeCell ref="BC47:BO47"/>
-    <mergeCell ref="C44:I44"/>
-    <mergeCell ref="J44:Q44"/>
-    <mergeCell ref="R44:AH44"/>
-    <mergeCell ref="AI44:AP44"/>
-    <mergeCell ref="AQ44:AW44"/>
-    <mergeCell ref="AX44:BB44"/>
-    <mergeCell ref="BC44:BO44"/>
-    <mergeCell ref="C45:I45"/>
-    <mergeCell ref="J45:Q45"/>
-    <mergeCell ref="R45:AH45"/>
-    <mergeCell ref="AI45:AP45"/>
-    <mergeCell ref="AQ45:AW45"/>
-    <mergeCell ref="AX45:BB45"/>
-    <mergeCell ref="BC45:BO45"/>
-    <mergeCell ref="C42:I42"/>
-    <mergeCell ref="J42:Q42"/>
-    <mergeCell ref="R42:AH42"/>
-    <mergeCell ref="AI42:AP42"/>
-    <mergeCell ref="AQ42:AW42"/>
-    <mergeCell ref="AX42:BB42"/>
-    <mergeCell ref="BC42:BO42"/>
-    <mergeCell ref="C43:I43"/>
-    <mergeCell ref="J43:Q43"/>
-    <mergeCell ref="R43:AH43"/>
-    <mergeCell ref="AI43:AP43"/>
-    <mergeCell ref="AQ43:AW43"/>
-    <mergeCell ref="AX43:BB43"/>
-    <mergeCell ref="BC43:BO43"/>
-    <mergeCell ref="AX40:BB40"/>
-    <mergeCell ref="BC40:BO40"/>
-    <mergeCell ref="C41:I41"/>
-    <mergeCell ref="J41:Q41"/>
-    <mergeCell ref="R41:AH41"/>
-    <mergeCell ref="AI41:AP41"/>
-    <mergeCell ref="AQ41:AW41"/>
-    <mergeCell ref="AX41:BB41"/>
-    <mergeCell ref="BC41:BO41"/>
-    <mergeCell ref="C40:I40"/>
-    <mergeCell ref="J40:Q40"/>
-    <mergeCell ref="R40:AH40"/>
-    <mergeCell ref="AI40:AP40"/>
-    <mergeCell ref="AQ40:AW40"/>
-    <mergeCell ref="B3:AD22"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="L26:Q26"/>
-    <mergeCell ref="R26:W26"/>
-    <mergeCell ref="X26:AA26"/>
-    <mergeCell ref="AB26:AH26"/>
-    <mergeCell ref="AI26:AR26"/>
-    <mergeCell ref="C28:K28"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="R28:W28"/>
-    <mergeCell ref="X28:AA28"/>
-    <mergeCell ref="AB28:AH28"/>
-    <mergeCell ref="AI28:AR28"/>
-    <mergeCell ref="B34:AR34"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:I39"/>
-    <mergeCell ref="J38:Q39"/>
-    <mergeCell ref="R38:AH39"/>
-    <mergeCell ref="AI38:AP39"/>
-    <mergeCell ref="AQ38:BO38"/>
-    <mergeCell ref="AQ39:AW39"/>
-    <mergeCell ref="AX39:BB39"/>
-    <mergeCell ref="BC39:BO39"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
